--- a/data/source/Altersverteilung.xlsx
+++ b/data/source/Altersverteilung.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2021-07-28\Tabellen_Webmaster\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D05DF4E-7853-4F39-A439-E6B5BC167AB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9288581-4D22-4C52-9B94-ECC1296F5D67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13425" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13430" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7-Tage-Inzidenz" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
   <si>
     <t>Altersgruppe</t>
   </si>
@@ -304,11 +299,14 @@
   <si>
     <t>5 - 9</t>
   </si>
+  <si>
+    <t>2021_30</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1143,16 +1141,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BV21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BW21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A21"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1375,8 +1373,11 @@
       <c r="BV1" t="s">
         <v>73</v>
       </c>
+      <c r="BW1" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1474,16 +1475,16 @@
         <v>19.149999999999999</v>
       </c>
       <c r="AG2">
-        <v>31.4</v>
+        <v>31.39</v>
       </c>
       <c r="AH2">
         <v>50.57</v>
       </c>
       <c r="AI2">
-        <v>90.01</v>
+        <v>90.02</v>
       </c>
       <c r="AJ2">
-        <v>133.5</v>
+        <v>133.51</v>
       </c>
       <c r="AK2">
         <v>151.22999999999999</v>
@@ -1495,31 +1496,31 @@
         <v>154.36000000000001</v>
       </c>
       <c r="AN2">
-        <v>148.13999999999999</v>
+        <v>148.15</v>
       </c>
       <c r="AO2">
-        <v>154.38999999999999</v>
+        <v>154.38</v>
       </c>
       <c r="AP2">
-        <v>187.97</v>
+        <v>187.94</v>
       </c>
       <c r="AQ2">
-        <v>210.13</v>
+        <v>210.11</v>
       </c>
       <c r="AR2">
-        <v>167.14</v>
+        <v>167.13</v>
       </c>
       <c r="AS2">
-        <v>148.01</v>
+        <v>148</v>
       </c>
       <c r="AT2">
-        <v>174.93</v>
+        <v>174.91</v>
       </c>
       <c r="AU2">
-        <v>143.02000000000001</v>
+        <v>143</v>
       </c>
       <c r="AV2">
-        <v>114.89</v>
+        <v>114.88</v>
       </c>
       <c r="AW2">
         <v>93.93</v>
@@ -1528,10 +1529,10 @@
         <v>77.64</v>
       </c>
       <c r="AY2">
-        <v>61.09</v>
+        <v>61.08</v>
       </c>
       <c r="AZ2">
-        <v>63.02</v>
+        <v>63.01</v>
       </c>
       <c r="BA2">
         <v>67.77</v>
@@ -1540,37 +1541,37 @@
         <v>70.19</v>
       </c>
       <c r="BC2">
-        <v>85.75</v>
+        <v>85.74</v>
       </c>
       <c r="BD2">
-        <v>111.35</v>
+        <v>111.34</v>
       </c>
       <c r="BE2">
         <v>139.80000000000001</v>
       </c>
       <c r="BF2">
-        <v>132.4</v>
+        <v>132.38999999999999</v>
       </c>
       <c r="BG2">
         <v>142.19</v>
       </c>
       <c r="BH2">
-        <v>170.8</v>
+        <v>170.78</v>
       </c>
       <c r="BI2">
-        <v>174.08</v>
+        <v>174.07</v>
       </c>
       <c r="BJ2">
         <v>150.12</v>
       </c>
       <c r="BK2">
-        <v>121.47</v>
+        <v>121.46</v>
       </c>
       <c r="BL2">
-        <v>85.22</v>
+        <v>85.2</v>
       </c>
       <c r="BM2">
-        <v>63.44</v>
+        <v>63.42</v>
       </c>
       <c r="BN2">
         <v>35.950000000000003</v>
@@ -1582,7 +1583,7 @@
         <v>16.88</v>
       </c>
       <c r="BQ2">
-        <v>8.74</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="BR2">
         <v>5.78</v>
@@ -1594,13 +1595,16 @@
         <v>6.69</v>
       </c>
       <c r="BU2">
-        <v>10.89</v>
+        <v>10.91</v>
       </c>
       <c r="BV2">
-        <v>14.91</v>
+        <v>15.12</v>
+      </c>
+      <c r="BW2">
+        <v>18.3</v>
       </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -1698,7 +1702,7 @@
         <v>14.46</v>
       </c>
       <c r="AG3">
-        <v>22.23</v>
+        <v>22.11</v>
       </c>
       <c r="AH3">
         <v>53.1</v>
@@ -1719,10 +1723,10 @@
         <v>372.03</v>
       </c>
       <c r="AN3">
-        <v>427.19</v>
+        <v>427.56</v>
       </c>
       <c r="AO3">
-        <v>509.33</v>
+        <v>509.45</v>
       </c>
       <c r="AP3">
         <v>656.1</v>
@@ -1737,19 +1741,19 @@
         <v>604.83000000000004</v>
       </c>
       <c r="AT3">
-        <v>656.83</v>
+        <v>656.46</v>
       </c>
       <c r="AU3">
         <v>610.29</v>
       </c>
       <c r="AV3">
-        <v>478.95</v>
+        <v>478.83</v>
       </c>
       <c r="AW3">
         <v>348.95</v>
       </c>
       <c r="AX3">
-        <v>234.74</v>
+        <v>234.62</v>
       </c>
       <c r="AY3">
         <v>157.83000000000001</v>
@@ -1782,19 +1786,19 @@
         <v>96.47</v>
       </c>
       <c r="BI3">
-        <v>96.84</v>
+        <v>96.96</v>
       </c>
       <c r="BJ3">
         <v>77.400000000000006</v>
       </c>
       <c r="BK3">
-        <v>66.34</v>
+        <v>66.22</v>
       </c>
       <c r="BL3">
-        <v>49.94</v>
+        <v>49.81</v>
       </c>
       <c r="BM3">
-        <v>33.78</v>
+        <v>33.659999999999997</v>
       </c>
       <c r="BN3">
         <v>19.559999999999999</v>
@@ -1812,7 +1816,7 @@
         <v>1.21</v>
       </c>
       <c r="BS3">
-        <v>0.85</v>
+        <v>0.73</v>
       </c>
       <c r="BT3">
         <v>2.0699999999999998</v>
@@ -1821,10 +1825,13 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="BV3">
-        <v>3.28</v>
+        <v>3.16</v>
+      </c>
+      <c r="BW3">
+        <v>6.8</v>
       </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -1931,7 +1938,7 @@
         <v>73.540000000000006</v>
       </c>
       <c r="AJ4">
-        <v>114.27</v>
+        <v>114.21</v>
       </c>
       <c r="AK4">
         <v>146.12</v>
@@ -1940,16 +1947,16 @@
         <v>181.22</v>
       </c>
       <c r="AM4">
-        <v>215.88</v>
+        <v>215.95</v>
       </c>
       <c r="AN4">
         <v>261.92</v>
       </c>
       <c r="AO4">
-        <v>293.95999999999998</v>
+        <v>293.89999999999998</v>
       </c>
       <c r="AP4">
-        <v>378.05</v>
+        <v>377.99</v>
       </c>
       <c r="AQ4">
         <v>443.21</v>
@@ -1958,22 +1965,22 @@
         <v>372.49</v>
       </c>
       <c r="AS4">
-        <v>357.21</v>
+        <v>357.14</v>
       </c>
       <c r="AT4">
         <v>388.03</v>
       </c>
       <c r="AU4">
-        <v>355.61</v>
+        <v>355.41</v>
       </c>
       <c r="AV4">
         <v>284.24</v>
       </c>
       <c r="AW4">
-        <v>212.37</v>
+        <v>212.43</v>
       </c>
       <c r="AX4">
-        <v>164.79</v>
+        <v>164.92</v>
       </c>
       <c r="AY4">
         <v>105.51</v>
@@ -1982,10 +1989,10 @@
         <v>93.49</v>
       </c>
       <c r="BA4">
-        <v>76.989999999999995</v>
+        <v>76.930000000000007</v>
       </c>
       <c r="BB4">
-        <v>61.58</v>
+        <v>61.64</v>
       </c>
       <c r="BC4">
         <v>59.98</v>
@@ -2012,13 +2019,13 @@
         <v>63.31</v>
       </c>
       <c r="BK4">
-        <v>54.74</v>
+        <v>54.8</v>
       </c>
       <c r="BL4">
-        <v>39.71</v>
+        <v>39.65</v>
       </c>
       <c r="BM4">
-        <v>27.56</v>
+        <v>27.62</v>
       </c>
       <c r="BN4">
         <v>15.16</v>
@@ -2047,8 +2054,11 @@
       <c r="BV4">
         <v>3.2</v>
       </c>
+      <c r="BW4">
+        <v>4.16</v>
+      </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -2149,52 +2159,52 @@
         <v>14.3</v>
       </c>
       <c r="AH5">
-        <v>26.05</v>
+        <v>26.01</v>
       </c>
       <c r="AI5">
         <v>55.76</v>
       </c>
       <c r="AJ5">
-        <v>86.09</v>
+        <v>86.12</v>
       </c>
       <c r="AK5">
-        <v>104.27</v>
+        <v>104.18</v>
       </c>
       <c r="AL5">
         <v>115.35</v>
       </c>
       <c r="AM5">
-        <v>132.35</v>
+        <v>132.32</v>
       </c>
       <c r="AN5">
         <v>144.94999999999999</v>
       </c>
       <c r="AO5">
-        <v>165.32</v>
+        <v>165.23</v>
       </c>
       <c r="AP5">
-        <v>214.68</v>
+        <v>214.71</v>
       </c>
       <c r="AQ5">
-        <v>250.71</v>
+        <v>250.65</v>
       </c>
       <c r="AR5">
-        <v>225.18</v>
+        <v>225.24</v>
       </c>
       <c r="AS5">
-        <v>208.51</v>
+        <v>208.48</v>
       </c>
       <c r="AT5">
-        <v>232.8</v>
+        <v>232.83</v>
       </c>
       <c r="AU5">
-        <v>203.23</v>
+        <v>203.11</v>
       </c>
       <c r="AV5">
         <v>161.86000000000001</v>
       </c>
       <c r="AW5">
-        <v>127.31</v>
+        <v>127.28</v>
       </c>
       <c r="AX5">
         <v>95.5</v>
@@ -2203,19 +2213,19 @@
         <v>69.510000000000005</v>
       </c>
       <c r="AZ5">
-        <v>60.5</v>
+        <v>60.53</v>
       </c>
       <c r="BA5">
         <v>53.97</v>
       </c>
       <c r="BB5">
-        <v>47.02</v>
+        <v>46.99</v>
       </c>
       <c r="BC5">
         <v>49.78</v>
       </c>
       <c r="BD5">
-        <v>54.43</v>
+        <v>54.46</v>
       </c>
       <c r="BE5">
         <v>64.63</v>
@@ -2224,16 +2234,16 @@
         <v>57.43</v>
       </c>
       <c r="BG5">
-        <v>59.5</v>
+        <v>59.59</v>
       </c>
       <c r="BH5">
-        <v>67.239999999999995</v>
+        <v>67.3</v>
       </c>
       <c r="BI5">
-        <v>61.44</v>
+        <v>61.41</v>
       </c>
       <c r="BJ5">
-        <v>48.3</v>
+        <v>48.27</v>
       </c>
       <c r="BK5">
         <v>41.47</v>
@@ -2242,7 +2252,7 @@
         <v>27.93</v>
       </c>
       <c r="BM5">
-        <v>21.04</v>
+        <v>21.01</v>
       </c>
       <c r="BN5">
         <v>11.57</v>
@@ -2266,13 +2276,16 @@
         <v>1.37</v>
       </c>
       <c r="BU5">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="BV5">
         <v>2.31</v>
       </c>
+      <c r="BW5">
+        <v>3.34</v>
+      </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -2370,25 +2383,25 @@
         <v>7.95</v>
       </c>
       <c r="AG6">
-        <v>13.03</v>
+        <v>13</v>
       </c>
       <c r="AH6">
         <v>23.29</v>
       </c>
       <c r="AI6">
-        <v>41.97</v>
+        <v>42</v>
       </c>
       <c r="AJ6">
         <v>68.209999999999994</v>
       </c>
       <c r="AK6">
-        <v>78.73</v>
+        <v>78.760000000000005</v>
       </c>
       <c r="AL6">
         <v>84.77</v>
       </c>
       <c r="AM6">
-        <v>87.19</v>
+        <v>87.22</v>
       </c>
       <c r="AN6">
         <v>90.01</v>
@@ -2403,13 +2416,13 @@
         <v>153.21</v>
       </c>
       <c r="AR6">
-        <v>131.59</v>
+        <v>131.62</v>
       </c>
       <c r="AS6">
         <v>119.65</v>
       </c>
       <c r="AT6">
-        <v>134.82</v>
+        <v>134.74</v>
       </c>
       <c r="AU6">
         <v>111.31</v>
@@ -2418,13 +2431,13 @@
         <v>87.94</v>
       </c>
       <c r="AW6">
-        <v>72.62</v>
+        <v>72.59</v>
       </c>
       <c r="AX6">
         <v>56.7</v>
       </c>
       <c r="AY6">
-        <v>43.88</v>
+        <v>43.91</v>
       </c>
       <c r="AZ6">
         <v>44.16</v>
@@ -2436,10 +2449,10 @@
         <v>35.21</v>
       </c>
       <c r="BC6">
-        <v>36.76</v>
+        <v>36.729999999999997</v>
       </c>
       <c r="BD6">
-        <v>48.86</v>
+        <v>48.83</v>
       </c>
       <c r="BE6">
         <v>57.24</v>
@@ -2448,16 +2461,16 @@
         <v>56.24</v>
       </c>
       <c r="BG6">
-        <v>60.67</v>
+        <v>60.65</v>
       </c>
       <c r="BH6">
-        <v>69.86</v>
+        <v>69.83</v>
       </c>
       <c r="BI6">
         <v>64.16</v>
       </c>
       <c r="BJ6">
-        <v>54.74</v>
+        <v>54.72</v>
       </c>
       <c r="BK6">
         <v>42.87</v>
@@ -2469,7 +2482,7 @@
         <v>20.04</v>
       </c>
       <c r="BN6">
-        <v>10.58</v>
+        <v>10.55</v>
       </c>
       <c r="BO6">
         <v>6.45</v>
@@ -2493,10 +2506,13 @@
         <v>1.29</v>
       </c>
       <c r="BV6">
-        <v>1.68</v>
+        <v>1.65</v>
+      </c>
+      <c r="BW6">
+        <v>2.66</v>
       </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -2597,28 +2613,28 @@
         <v>15.92</v>
       </c>
       <c r="AH7">
-        <v>25.39</v>
+        <v>25.42</v>
       </c>
       <c r="AI7">
         <v>49.05</v>
       </c>
       <c r="AJ7">
-        <v>78.5</v>
+        <v>78.47</v>
       </c>
       <c r="AK7">
-        <v>86.74</v>
+        <v>86.77</v>
       </c>
       <c r="AL7">
-        <v>89.9</v>
+        <v>89.93</v>
       </c>
       <c r="AM7">
-        <v>91.37</v>
+        <v>91.34</v>
       </c>
       <c r="AN7">
         <v>86.93</v>
       </c>
       <c r="AO7">
-        <v>94.72</v>
+        <v>94.74</v>
       </c>
       <c r="AP7">
         <v>119.38</v>
@@ -2630,13 +2646,13 @@
         <v>120.95</v>
       </c>
       <c r="AS7">
-        <v>112.33</v>
+        <v>112.35</v>
       </c>
       <c r="AT7">
         <v>131.62</v>
       </c>
       <c r="AU7">
-        <v>99.7</v>
+        <v>99.73</v>
       </c>
       <c r="AV7">
         <v>83.12</v>
@@ -2648,10 +2664,10 @@
         <v>56.18</v>
       </c>
       <c r="AY7">
-        <v>42.89</v>
+        <v>42.92</v>
       </c>
       <c r="AZ7">
-        <v>43.49</v>
+        <v>43.52</v>
       </c>
       <c r="BA7">
         <v>44.77</v>
@@ -2666,34 +2682,34 @@
         <v>64.7</v>
       </c>
       <c r="BE7">
-        <v>77.239999999999995</v>
+        <v>77.27</v>
       </c>
       <c r="BF7">
-        <v>79.09</v>
+        <v>79.040000000000006</v>
       </c>
       <c r="BG7">
-        <v>85.57</v>
+        <v>85.54</v>
       </c>
       <c r="BH7">
-        <v>98.36</v>
+        <v>98.34</v>
       </c>
       <c r="BI7">
-        <v>91.78</v>
+        <v>91.75</v>
       </c>
       <c r="BJ7">
-        <v>78.39</v>
+        <v>78.36</v>
       </c>
       <c r="BK7">
         <v>62.68</v>
       </c>
       <c r="BL7">
-        <v>43.41</v>
+        <v>43.38</v>
       </c>
       <c r="BM7">
-        <v>29.56</v>
+        <v>29.5</v>
       </c>
       <c r="BN7">
-        <v>15.84</v>
+        <v>15.87</v>
       </c>
       <c r="BO7">
         <v>9.2799999999999994</v>
@@ -2708,7 +2724,7 @@
         <v>1.91</v>
       </c>
       <c r="BS7">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="BT7">
         <v>1.66</v>
@@ -2717,10 +2733,13 @@
         <v>1.82</v>
       </c>
       <c r="BV7">
-        <v>2.75</v>
+        <v>2.78</v>
+      </c>
+      <c r="BW7">
+        <v>4.41</v>
       </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -2737,7 +2756,7 @@
         <v>33.9</v>
       </c>
       <c r="F8">
-        <v>34.72</v>
+        <v>34.74</v>
       </c>
       <c r="G8">
         <v>22.95</v>
@@ -2812,7 +2831,7 @@
         <v>5.95</v>
       </c>
       <c r="AE8">
-        <v>6.26</v>
+        <v>6.28</v>
       </c>
       <c r="AF8">
         <v>9.26</v>
@@ -2824,28 +2843,28 @@
         <v>26.38</v>
       </c>
       <c r="AI8">
-        <v>46.59</v>
+        <v>46.61</v>
       </c>
       <c r="AJ8">
-        <v>73.14</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="AK8">
-        <v>87.71</v>
+        <v>87.69</v>
       </c>
       <c r="AL8">
         <v>82.63</v>
       </c>
       <c r="AM8">
-        <v>85.41</v>
+        <v>85.43</v>
       </c>
       <c r="AN8">
-        <v>85.04</v>
+        <v>85.06</v>
       </c>
       <c r="AO8">
-        <v>84.75</v>
+        <v>84.73</v>
       </c>
       <c r="AP8">
-        <v>106.42</v>
+        <v>106.4</v>
       </c>
       <c r="AQ8">
         <v>130.81</v>
@@ -2857,16 +2876,16 @@
         <v>102.39</v>
       </c>
       <c r="AT8">
-        <v>117.99</v>
+        <v>117.97</v>
       </c>
       <c r="AU8">
-        <v>90.9</v>
+        <v>90.86</v>
       </c>
       <c r="AV8">
-        <v>74.64</v>
+        <v>74.62</v>
       </c>
       <c r="AW8">
-        <v>64.27</v>
+        <v>64.31</v>
       </c>
       <c r="AX8">
         <v>52.21</v>
@@ -2884,43 +2903,43 @@
         <v>41.04</v>
       </c>
       <c r="BC8">
-        <v>47.4</v>
+        <v>47.38</v>
       </c>
       <c r="BD8">
-        <v>65.63</v>
+        <v>65.650000000000006</v>
       </c>
       <c r="BE8">
-        <v>80.239999999999995</v>
+        <v>80.260000000000005</v>
       </c>
       <c r="BF8">
         <v>81.599999999999994</v>
       </c>
       <c r="BG8">
-        <v>88.66</v>
+        <v>88.6</v>
       </c>
       <c r="BH8">
-        <v>101.11</v>
+        <v>101.09</v>
       </c>
       <c r="BI8">
-        <v>95.18</v>
+        <v>95.22</v>
       </c>
       <c r="BJ8">
         <v>81.72</v>
       </c>
       <c r="BK8">
-        <v>67.75</v>
+        <v>67.77</v>
       </c>
       <c r="BL8">
         <v>47.73</v>
       </c>
       <c r="BM8">
-        <v>33.299999999999997</v>
+        <v>33.32</v>
       </c>
       <c r="BN8">
         <v>15.89</v>
       </c>
       <c r="BO8">
-        <v>12.25</v>
+        <v>12.22</v>
       </c>
       <c r="BP8">
         <v>6.59</v>
@@ -2935,16 +2954,19 @@
         <v>1.63</v>
       </c>
       <c r="BT8">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="BU8">
         <v>2.39</v>
       </c>
       <c r="BV8">
-        <v>3.23</v>
+        <v>3.27</v>
+      </c>
+      <c r="BW8">
+        <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -2961,7 +2983,7 @@
         <v>44.65</v>
       </c>
       <c r="F9">
-        <v>49.22</v>
+        <v>49.21</v>
       </c>
       <c r="G9">
         <v>31.64</v>
@@ -3048,19 +3070,19 @@
         <v>37.57</v>
       </c>
       <c r="AI9">
-        <v>70.099999999999994</v>
+        <v>70.08</v>
       </c>
       <c r="AJ9">
-        <v>106.06</v>
+        <v>106.08</v>
       </c>
       <c r="AK9">
-        <v>121.43</v>
+        <v>121.41</v>
       </c>
       <c r="AL9">
-        <v>122.61</v>
+        <v>122.63</v>
       </c>
       <c r="AM9">
-        <v>129.25</v>
+        <v>129.22</v>
       </c>
       <c r="AN9">
         <v>124.07</v>
@@ -3069,31 +3091,31 @@
         <v>135.41999999999999</v>
       </c>
       <c r="AP9">
-        <v>166.86</v>
+        <v>166.84</v>
       </c>
       <c r="AQ9">
-        <v>195.42</v>
+        <v>195.4</v>
       </c>
       <c r="AR9">
-        <v>162.58000000000001</v>
+        <v>162.6</v>
       </c>
       <c r="AS9">
-        <v>146.32</v>
+        <v>146.31</v>
       </c>
       <c r="AT9">
-        <v>164.21</v>
+        <v>164.24</v>
       </c>
       <c r="AU9">
         <v>133.66</v>
       </c>
       <c r="AV9">
-        <v>110.47</v>
+        <v>110.5</v>
       </c>
       <c r="AW9">
-        <v>90.67</v>
+        <v>90.69</v>
       </c>
       <c r="AX9">
-        <v>74.599999999999994</v>
+        <v>74.58</v>
       </c>
       <c r="AY9">
         <v>56.43</v>
@@ -3105,13 +3127,13 @@
         <v>62.25</v>
       </c>
       <c r="BB9">
-        <v>60.52</v>
+        <v>60.54</v>
       </c>
       <c r="BC9">
-        <v>72.97</v>
+        <v>72.95</v>
       </c>
       <c r="BD9">
-        <v>93.97</v>
+        <v>93.98</v>
       </c>
       <c r="BE9">
         <v>116.36</v>
@@ -3120,25 +3142,25 @@
         <v>113.37</v>
       </c>
       <c r="BG9">
-        <v>121.71</v>
+        <v>121.73</v>
       </c>
       <c r="BH9">
-        <v>134.46</v>
+        <v>134.44</v>
       </c>
       <c r="BI9">
-        <v>137.49</v>
+        <v>137.43</v>
       </c>
       <c r="BJ9">
-        <v>120.37</v>
+        <v>120.38</v>
       </c>
       <c r="BK9">
         <v>97.91</v>
       </c>
       <c r="BL9">
-        <v>66.150000000000006</v>
+        <v>66.11</v>
       </c>
       <c r="BM9">
-        <v>46.99</v>
+        <v>46.97</v>
       </c>
       <c r="BN9">
         <v>23.76</v>
@@ -3147,10 +3169,10 @@
         <v>15.07</v>
       </c>
       <c r="BP9">
-        <v>9.93</v>
+        <v>9.92</v>
       </c>
       <c r="BQ9">
-        <v>5.12</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="BR9">
         <v>2.71</v>
@@ -3162,13 +3184,16 @@
         <v>2.97</v>
       </c>
       <c r="BU9">
-        <v>4.1399999999999997</v>
+        <v>4.16</v>
       </c>
       <c r="BV9">
-        <v>5.12</v>
+        <v>5.17</v>
+      </c>
+      <c r="BW9">
+        <v>7.01</v>
       </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -3188,10 +3213,10 @@
         <v>54.38</v>
       </c>
       <c r="G10">
-        <v>38.61</v>
+        <v>38.619999999999997</v>
       </c>
       <c r="H10">
-        <v>23.21</v>
+        <v>23.23</v>
       </c>
       <c r="I10">
         <v>15.73</v>
@@ -3209,7 +3234,7 @@
         <v>3.92</v>
       </c>
       <c r="N10">
-        <v>3.49</v>
+        <v>3.52</v>
       </c>
       <c r="O10">
         <v>2.11</v>
@@ -3272,16 +3297,16 @@
         <v>44.51</v>
       </c>
       <c r="AI10">
-        <v>85.46</v>
+        <v>85.45</v>
       </c>
       <c r="AJ10">
-        <v>133.18</v>
+        <v>133.22999999999999</v>
       </c>
       <c r="AK10">
-        <v>150.88</v>
+        <v>150.91999999999999</v>
       </c>
       <c r="AL10">
-        <v>152.81</v>
+        <v>152.78</v>
       </c>
       <c r="AM10">
         <v>152.15</v>
@@ -3290,46 +3315,46 @@
         <v>146.56</v>
       </c>
       <c r="AO10">
-        <v>154.02000000000001</v>
+        <v>154.04</v>
       </c>
       <c r="AP10">
-        <v>193.7</v>
+        <v>193.65</v>
       </c>
       <c r="AQ10">
-        <v>222.58</v>
+        <v>222.64</v>
       </c>
       <c r="AR10">
-        <v>183.93</v>
+        <v>183.96</v>
       </c>
       <c r="AS10">
-        <v>164.69</v>
+        <v>164.68</v>
       </c>
       <c r="AT10">
-        <v>183.06</v>
+        <v>183.04</v>
       </c>
       <c r="AU10">
-        <v>148.91999999999999</v>
+        <v>148.9</v>
       </c>
       <c r="AV10">
-        <v>123.76</v>
+        <v>123.73</v>
       </c>
       <c r="AW10">
-        <v>104.08</v>
+        <v>104.05</v>
       </c>
       <c r="AX10">
         <v>86.27</v>
       </c>
       <c r="AY10">
-        <v>66.88</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="AZ10">
-        <v>68.349999999999994</v>
+        <v>68.34</v>
       </c>
       <c r="BA10">
         <v>71.819999999999993</v>
       </c>
       <c r="BB10">
-        <v>68.81</v>
+        <v>68.8</v>
       </c>
       <c r="BC10">
         <v>84.8</v>
@@ -3347,19 +3372,19 @@
         <v>143.71</v>
       </c>
       <c r="BH10">
-        <v>158.44999999999999</v>
+        <v>158.4</v>
       </c>
       <c r="BI10">
-        <v>163.63</v>
+        <v>163.66</v>
       </c>
       <c r="BJ10">
-        <v>147.37</v>
+        <v>147.38999999999999</v>
       </c>
       <c r="BK10">
-        <v>116.13</v>
+        <v>116.1</v>
       </c>
       <c r="BL10">
-        <v>79.02</v>
+        <v>79.05</v>
       </c>
       <c r="BM10">
         <v>53.09</v>
@@ -3368,31 +3393,34 @@
         <v>28.66</v>
       </c>
       <c r="BO10">
-        <v>18.670000000000002</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="BP10">
         <v>11.77</v>
       </c>
       <c r="BQ10">
-        <v>5.36</v>
+        <v>5.39</v>
       </c>
       <c r="BR10">
-        <v>3.62</v>
+        <v>3.64</v>
       </c>
       <c r="BS10">
         <v>3.4</v>
       </c>
       <c r="BT10">
-        <v>3.67</v>
+        <v>3.65</v>
       </c>
       <c r="BU10">
         <v>5.43</v>
       </c>
       <c r="BV10">
-        <v>7.91</v>
+        <v>8.06</v>
+      </c>
+      <c r="BW10">
+        <v>8.39</v>
       </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -3403,16 +3431,16 @@
         <v>14.59</v>
       </c>
       <c r="D11">
-        <v>46.06</v>
+        <v>46.08</v>
       </c>
       <c r="E11">
-        <v>59.61</v>
+        <v>59.63</v>
       </c>
       <c r="F11">
         <v>55.14</v>
       </c>
       <c r="G11">
-        <v>38.9</v>
+        <v>38.880000000000003</v>
       </c>
       <c r="H11">
         <v>23.25</v>
@@ -3433,7 +3461,7 @@
         <v>3.74</v>
       </c>
       <c r="N11">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="O11">
         <v>2.2400000000000002</v>
@@ -3460,10 +3488,10 @@
         <v>4.38</v>
       </c>
       <c r="W11">
-        <v>5.23</v>
+        <v>5.25</v>
       </c>
       <c r="X11">
-        <v>6.18</v>
+        <v>6.2</v>
       </c>
       <c r="Y11">
         <v>7.05</v>
@@ -3493,49 +3521,49 @@
         <v>33.83</v>
       </c>
       <c r="AH11">
-        <v>53.31</v>
+        <v>53.34</v>
       </c>
       <c r="AI11">
-        <v>95.67</v>
+        <v>95.7</v>
       </c>
       <c r="AJ11">
-        <v>145.58000000000001</v>
+        <v>145.61000000000001</v>
       </c>
       <c r="AK11">
-        <v>163.44</v>
+        <v>163.41999999999999</v>
       </c>
       <c r="AL11">
-        <v>163.97</v>
+        <v>163.93</v>
       </c>
       <c r="AM11">
-        <v>161.6</v>
+        <v>161.65</v>
       </c>
       <c r="AN11">
-        <v>153.99</v>
+        <v>153.97</v>
       </c>
       <c r="AO11">
-        <v>157.21</v>
+        <v>157.24</v>
       </c>
       <c r="AP11">
-        <v>197.58</v>
+        <v>197.5</v>
       </c>
       <c r="AQ11">
-        <v>222.38</v>
+        <v>222.36</v>
       </c>
       <c r="AR11">
-        <v>178.53</v>
+        <v>178.52</v>
       </c>
       <c r="AS11">
-        <v>156.88999999999999</v>
+        <v>156.88</v>
       </c>
       <c r="AT11">
         <v>180.34</v>
       </c>
       <c r="AU11">
-        <v>146.27000000000001</v>
+        <v>146.25</v>
       </c>
       <c r="AV11">
-        <v>121.9</v>
+        <v>121.89</v>
       </c>
       <c r="AW11">
         <v>99.49</v>
@@ -3544,55 +3572,55 @@
         <v>79.03</v>
       </c>
       <c r="AY11">
-        <v>64.25</v>
+        <v>64.22</v>
       </c>
       <c r="AZ11">
         <v>67.12</v>
       </c>
       <c r="BA11">
-        <v>70.83</v>
+        <v>70.819999999999993</v>
       </c>
       <c r="BB11">
-        <v>73.66</v>
+        <v>73.72</v>
       </c>
       <c r="BC11">
-        <v>87.91</v>
+        <v>87.94</v>
       </c>
       <c r="BD11">
-        <v>112.26</v>
+        <v>112.29</v>
       </c>
       <c r="BE11">
         <v>139.29</v>
       </c>
       <c r="BF11">
-        <v>135.93</v>
+        <v>135.97</v>
       </c>
       <c r="BG11">
-        <v>148.4</v>
+        <v>148.38999999999999</v>
       </c>
       <c r="BH11">
-        <v>165.64</v>
+        <v>165.63</v>
       </c>
       <c r="BI11">
-        <v>173.42</v>
+        <v>173.41</v>
       </c>
       <c r="BJ11">
-        <v>151.28</v>
+        <v>151.29</v>
       </c>
       <c r="BK11">
         <v>119.58</v>
       </c>
       <c r="BL11">
-        <v>81.47</v>
+        <v>81.52</v>
       </c>
       <c r="BM11">
-        <v>56.3</v>
+        <v>56.27</v>
       </c>
       <c r="BN11">
         <v>30.71</v>
       </c>
       <c r="BO11">
-        <v>20.22</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="BP11">
         <v>12.28</v>
@@ -3610,13 +3638,16 @@
         <v>4.26</v>
       </c>
       <c r="BU11">
-        <v>6.72</v>
+        <v>6.74</v>
       </c>
       <c r="BV11">
-        <v>9.09</v>
+        <v>9.24</v>
+      </c>
+      <c r="BW11">
+        <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -3627,19 +3658,19 @@
         <v>14.17</v>
       </c>
       <c r="D12">
-        <v>39.78</v>
+        <v>39.770000000000003</v>
       </c>
       <c r="E12">
         <v>55.28</v>
       </c>
       <c r="F12">
-        <v>51.41</v>
+        <v>51.39</v>
       </c>
       <c r="G12">
         <v>36.33</v>
       </c>
       <c r="H12">
-        <v>22.24</v>
+        <v>22.22</v>
       </c>
       <c r="I12">
         <v>14.91</v>
@@ -3711,7 +3742,7 @@
         <v>17.010000000000002</v>
       </c>
       <c r="AF12">
-        <v>22.76</v>
+        <v>22.77</v>
       </c>
       <c r="AG12">
         <v>38.57</v>
@@ -3723,16 +3754,16 @@
         <v>110.4</v>
       </c>
       <c r="AJ12">
-        <v>159.1</v>
+        <v>159.16</v>
       </c>
       <c r="AK12">
-        <v>179.77</v>
+        <v>179.79</v>
       </c>
       <c r="AL12">
-        <v>175.94</v>
+        <v>175.96</v>
       </c>
       <c r="AM12">
-        <v>183.47</v>
+        <v>183.45</v>
       </c>
       <c r="AN12">
         <v>171.88</v>
@@ -3741,19 +3772,19 @@
         <v>175.13</v>
       </c>
       <c r="AP12">
-        <v>210.42</v>
+        <v>210.38</v>
       </c>
       <c r="AQ12">
-        <v>235.88</v>
+        <v>235.9</v>
       </c>
       <c r="AR12">
-        <v>184.68</v>
+        <v>184.7</v>
       </c>
       <c r="AS12">
-        <v>162.19</v>
+        <v>162.16999999999999</v>
       </c>
       <c r="AT12">
-        <v>185.8</v>
+        <v>185.82</v>
       </c>
       <c r="AU12">
         <v>150.88999999999999</v>
@@ -3762,28 +3793,28 @@
         <v>123.05</v>
       </c>
       <c r="AW12">
-        <v>100.54</v>
+        <v>100.52</v>
       </c>
       <c r="AX12">
-        <v>85.16</v>
+        <v>85.14</v>
       </c>
       <c r="AY12">
         <v>67.34</v>
       </c>
       <c r="AZ12">
-        <v>71.59</v>
+        <v>71.569999999999993</v>
       </c>
       <c r="BA12">
-        <v>76.760000000000005</v>
+        <v>76.78</v>
       </c>
       <c r="BB12">
-        <v>81.37</v>
+        <v>81.349999999999994</v>
       </c>
       <c r="BC12">
         <v>98.32</v>
       </c>
       <c r="BD12">
-        <v>123.72</v>
+        <v>123.7</v>
       </c>
       <c r="BE12">
         <v>154.65</v>
@@ -3792,31 +3823,31 @@
         <v>151.5</v>
       </c>
       <c r="BG12">
-        <v>166.17</v>
+        <v>166.21</v>
       </c>
       <c r="BH12">
-        <v>192.72</v>
+        <v>192.74</v>
       </c>
       <c r="BI12">
-        <v>202.43</v>
+        <v>202.45</v>
       </c>
       <c r="BJ12">
-        <v>171.18</v>
+        <v>171.12</v>
       </c>
       <c r="BK12">
-        <v>141.09</v>
+        <v>141.12</v>
       </c>
       <c r="BL12">
-        <v>96.47</v>
+        <v>96.45</v>
       </c>
       <c r="BM12">
-        <v>68.099999999999994</v>
+        <v>68.08</v>
       </c>
       <c r="BN12">
         <v>39.46</v>
       </c>
       <c r="BO12">
-        <v>24.8</v>
+        <v>24.78</v>
       </c>
       <c r="BP12">
         <v>16.55</v>
@@ -3828,19 +3859,22 @@
         <v>5.21</v>
       </c>
       <c r="BS12">
-        <v>4.87</v>
+        <v>4.91</v>
       </c>
       <c r="BT12">
-        <v>6.3</v>
+        <v>6.31</v>
       </c>
       <c r="BU12">
-        <v>8.27</v>
+        <v>8.25</v>
       </c>
       <c r="BV12">
-        <v>12.8</v>
+        <v>12.95</v>
+      </c>
+      <c r="BW12">
+        <v>17.22</v>
       </c>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -3854,13 +3888,13 @@
         <v>36.630000000000003</v>
       </c>
       <c r="E13">
-        <v>47.34</v>
+        <v>47.32</v>
       </c>
       <c r="F13">
-        <v>46.95</v>
+        <v>46.97</v>
       </c>
       <c r="G13">
-        <v>34.18</v>
+        <v>34.159999999999997</v>
       </c>
       <c r="H13">
         <v>20.76</v>
@@ -3935,7 +3969,7 @@
         <v>17.52</v>
       </c>
       <c r="AF13">
-        <v>21.45</v>
+        <v>21.43</v>
       </c>
       <c r="AG13">
         <v>38.07</v>
@@ -3944,7 +3978,7 @@
         <v>59.16</v>
       </c>
       <c r="AI13">
-        <v>108.07</v>
+        <v>108.13</v>
       </c>
       <c r="AJ13">
         <v>160.62</v>
@@ -3953,100 +3987,100 @@
         <v>180.85</v>
       </c>
       <c r="AL13">
-        <v>183.21</v>
+        <v>183.25</v>
       </c>
       <c r="AM13">
-        <v>188.16</v>
+        <v>188.2</v>
       </c>
       <c r="AN13">
-        <v>179.42</v>
+        <v>179.47</v>
       </c>
       <c r="AO13">
-        <v>179.63</v>
+        <v>179.61</v>
       </c>
       <c r="AP13">
-        <v>222.08</v>
+        <v>222.04</v>
       </c>
       <c r="AQ13">
         <v>244.39</v>
       </c>
       <c r="AR13">
-        <v>193.77</v>
+        <v>193.72</v>
       </c>
       <c r="AS13">
-        <v>163.54</v>
+        <v>163.52000000000001</v>
       </c>
       <c r="AT13">
         <v>194.44</v>
       </c>
       <c r="AU13">
-        <v>154.02000000000001</v>
+        <v>154</v>
       </c>
       <c r="AV13">
-        <v>126.93</v>
+        <v>126.95</v>
       </c>
       <c r="AW13">
         <v>104.18</v>
       </c>
       <c r="AX13">
-        <v>87.21</v>
+        <v>87.19</v>
       </c>
       <c r="AY13">
-        <v>70.650000000000006</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="AZ13">
         <v>73.150000000000006</v>
       </c>
       <c r="BA13">
-        <v>84.35</v>
+        <v>84.33</v>
       </c>
       <c r="BB13">
-        <v>87.02</v>
+        <v>87</v>
       </c>
       <c r="BC13">
-        <v>108.78</v>
+        <v>108.8</v>
       </c>
       <c r="BD13">
-        <v>142.22999999999999</v>
+        <v>142.21</v>
       </c>
       <c r="BE13">
-        <v>185.13</v>
+        <v>185.11</v>
       </c>
       <c r="BF13">
-        <v>169.63</v>
+        <v>169.61</v>
       </c>
       <c r="BG13">
-        <v>188.94</v>
+        <v>188.96</v>
       </c>
       <c r="BH13">
-        <v>218.58</v>
+        <v>218.48</v>
       </c>
       <c r="BI13">
-        <v>220.59</v>
+        <v>220.53</v>
       </c>
       <c r="BJ13">
-        <v>195.19</v>
+        <v>195.15</v>
       </c>
       <c r="BK13">
-        <v>157.32</v>
+        <v>157.34</v>
       </c>
       <c r="BL13">
-        <v>108.8</v>
+        <v>108.76</v>
       </c>
       <c r="BM13">
-        <v>81.239999999999995</v>
+        <v>81.22</v>
       </c>
       <c r="BN13">
-        <v>44.98</v>
+        <v>44.94</v>
       </c>
       <c r="BO13">
-        <v>32.549999999999997</v>
+        <v>32.53</v>
       </c>
       <c r="BP13">
         <v>21.92</v>
       </c>
       <c r="BQ13">
-        <v>10.69</v>
+        <v>10.71</v>
       </c>
       <c r="BR13">
         <v>7.19</v>
@@ -4055,16 +4089,19 @@
         <v>5.5</v>
       </c>
       <c r="BT13">
-        <v>6.93</v>
+        <v>6.99</v>
       </c>
       <c r="BU13">
-        <v>10.23</v>
+        <v>10.25</v>
       </c>
       <c r="BV13">
-        <v>14.67</v>
+        <v>14.95</v>
+      </c>
+      <c r="BW13">
+        <v>19.86</v>
       </c>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -4081,7 +4118,7 @@
         <v>45.07</v>
       </c>
       <c r="F14">
-        <v>41.67</v>
+        <v>41.65</v>
       </c>
       <c r="G14">
         <v>31.21</v>
@@ -4141,7 +4178,7 @@
         <v>12.16</v>
       </c>
       <c r="Z14">
-        <v>14.39</v>
+        <v>14.37</v>
       </c>
       <c r="AA14">
         <v>13.54</v>
@@ -4162,7 +4199,7 @@
         <v>21.8</v>
       </c>
       <c r="AG14">
-        <v>34.47</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="AH14">
         <v>58.57</v>
@@ -4174,40 +4211,40 @@
         <v>152.88</v>
       </c>
       <c r="AK14">
-        <v>169.5</v>
+        <v>169.48</v>
       </c>
       <c r="AL14">
-        <v>173.73</v>
+        <v>173.75</v>
       </c>
       <c r="AM14">
         <v>173.79</v>
       </c>
       <c r="AN14">
-        <v>164.81</v>
+        <v>164.83</v>
       </c>
       <c r="AO14">
         <v>172.86</v>
       </c>
       <c r="AP14">
-        <v>207.91</v>
+        <v>207.89</v>
       </c>
       <c r="AQ14">
-        <v>231.23</v>
+        <v>231.21</v>
       </c>
       <c r="AR14">
         <v>180.12</v>
       </c>
       <c r="AS14">
-        <v>152.93</v>
+        <v>152.84</v>
       </c>
       <c r="AT14">
-        <v>191.79</v>
+        <v>191.81</v>
       </c>
       <c r="AU14">
-        <v>151.38</v>
+        <v>151.36000000000001</v>
       </c>
       <c r="AV14">
-        <v>119.89</v>
+        <v>119.87</v>
       </c>
       <c r="AW14">
         <v>98.18</v>
@@ -4216,10 +4253,10 @@
         <v>84.32</v>
       </c>
       <c r="AY14">
-        <v>68.010000000000005</v>
+        <v>67.97</v>
       </c>
       <c r="AZ14">
-        <v>70.22</v>
+        <v>70.16</v>
       </c>
       <c r="BA14">
         <v>79.069999999999993</v>
@@ -4231,37 +4268,37 @@
         <v>108.88</v>
       </c>
       <c r="BD14">
-        <v>143.54</v>
+        <v>143.47999999999999</v>
       </c>
       <c r="BE14">
-        <v>178.91</v>
+        <v>178.89</v>
       </c>
       <c r="BF14">
-        <v>169.93</v>
+        <v>169.97</v>
       </c>
       <c r="BG14">
-        <v>179.33</v>
+        <v>179.31</v>
       </c>
       <c r="BH14">
         <v>213.02</v>
       </c>
       <c r="BI14">
-        <v>213.11</v>
+        <v>213.15</v>
       </c>
       <c r="BJ14">
-        <v>189.59</v>
+        <v>189.56</v>
       </c>
       <c r="BK14">
-        <v>150.61000000000001</v>
+        <v>150.57</v>
       </c>
       <c r="BL14">
-        <v>106.5</v>
+        <v>106.48</v>
       </c>
       <c r="BM14">
         <v>79.84</v>
       </c>
       <c r="BN14">
-        <v>45.7</v>
+        <v>45.68</v>
       </c>
       <c r="BO14">
         <v>31.99</v>
@@ -4270,25 +4307,28 @@
         <v>20.83</v>
       </c>
       <c r="BQ14">
-        <v>10.4</v>
+        <v>10.32</v>
       </c>
       <c r="BR14">
-        <v>6.86</v>
+        <v>6.84</v>
       </c>
       <c r="BS14">
         <v>6.39</v>
       </c>
       <c r="BT14">
-        <v>7.09</v>
+        <v>7.13</v>
       </c>
       <c r="BU14">
-        <v>12.18</v>
+        <v>12.21</v>
       </c>
       <c r="BV14">
-        <v>16.899999999999999</v>
+        <v>17.05</v>
+      </c>
+      <c r="BW14">
+        <v>21.61</v>
       </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -4383,58 +4423,58 @@
         <v>23.69</v>
       </c>
       <c r="AF15">
-        <v>27.71</v>
+        <v>27.69</v>
       </c>
       <c r="AG15">
-        <v>42.92</v>
+        <v>42.94</v>
       </c>
       <c r="AH15">
         <v>70.22</v>
       </c>
       <c r="AI15">
-        <v>122.24</v>
+        <v>122.22</v>
       </c>
       <c r="AJ15">
-        <v>174.21</v>
+        <v>174.23</v>
       </c>
       <c r="AK15">
-        <v>190.73</v>
+        <v>190.69</v>
       </c>
       <c r="AL15">
-        <v>190.64</v>
+        <v>190.66</v>
       </c>
       <c r="AM15">
-        <v>183.52</v>
+        <v>183.51</v>
       </c>
       <c r="AN15">
-        <v>170.42</v>
+        <v>170.44</v>
       </c>
       <c r="AO15">
-        <v>172.35</v>
+        <v>172.33</v>
       </c>
       <c r="AP15">
         <v>209.56</v>
       </c>
       <c r="AQ15">
-        <v>237.13</v>
+        <v>237.11</v>
       </c>
       <c r="AR15">
-        <v>182.85</v>
+        <v>182.8</v>
       </c>
       <c r="AS15">
-        <v>167.29</v>
+        <v>167.33</v>
       </c>
       <c r="AT15">
-        <v>211.13</v>
+        <v>211.11</v>
       </c>
       <c r="AU15">
-        <v>164.73</v>
+        <v>164.71</v>
       </c>
       <c r="AV15">
-        <v>127.83</v>
+        <v>127.79</v>
       </c>
       <c r="AW15">
-        <v>104.9</v>
+        <v>104.88</v>
       </c>
       <c r="AX15">
         <v>89.27</v>
@@ -4446,73 +4486,76 @@
         <v>74.91</v>
       </c>
       <c r="BA15">
-        <v>82.52</v>
+        <v>82.5</v>
       </c>
       <c r="BB15">
-        <v>89.07</v>
+        <v>89.09</v>
       </c>
       <c r="BC15">
-        <v>109.56</v>
+        <v>109.54</v>
       </c>
       <c r="BD15">
         <v>143.71</v>
       </c>
       <c r="BE15">
-        <v>179.52</v>
+        <v>179.5</v>
       </c>
       <c r="BF15">
-        <v>173.12</v>
+        <v>173.06</v>
       </c>
       <c r="BG15">
-        <v>184.45</v>
+        <v>184.49</v>
       </c>
       <c r="BH15">
-        <v>218.53</v>
+        <v>218.48</v>
       </c>
       <c r="BI15">
-        <v>215.77</v>
+        <v>215.7</v>
       </c>
       <c r="BJ15">
-        <v>190.29</v>
+        <v>190.37</v>
       </c>
       <c r="BK15">
-        <v>150.66</v>
+        <v>150.61000000000001</v>
       </c>
       <c r="BL15">
         <v>106.85</v>
       </c>
       <c r="BM15">
-        <v>82.76</v>
+        <v>82.7</v>
       </c>
       <c r="BN15">
         <v>49.95</v>
       </c>
       <c r="BO15">
-        <v>32.01</v>
+        <v>31.97</v>
       </c>
       <c r="BP15">
         <v>21.49</v>
       </c>
       <c r="BQ15">
-        <v>11.48</v>
+        <v>11.5</v>
       </c>
       <c r="BR15">
-        <v>7.64</v>
+        <v>7.62</v>
       </c>
       <c r="BS15">
-        <v>7.77</v>
+        <v>7.79</v>
       </c>
       <c r="BT15">
-        <v>10.68</v>
+        <v>10.59</v>
       </c>
       <c r="BU15">
-        <v>15.68</v>
+        <v>15.72</v>
       </c>
       <c r="BV15">
-        <v>23.4</v>
+        <v>23.76</v>
+      </c>
+      <c r="BW15">
+        <v>26.91</v>
       </c>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -4532,7 +4575,7 @@
         <v>49.01</v>
       </c>
       <c r="G16">
-        <v>38.090000000000003</v>
+        <v>38.130000000000003</v>
       </c>
       <c r="H16">
         <v>25.4</v>
@@ -4583,7 +4626,7 @@
         <v>10.050000000000001</v>
       </c>
       <c r="X16">
-        <v>11.92</v>
+        <v>11.9</v>
       </c>
       <c r="Y16">
         <v>16.510000000000002</v>
@@ -4607,118 +4650,118 @@
         <v>28.3</v>
       </c>
       <c r="AF16">
-        <v>34.409999999999997</v>
+        <v>34.43</v>
       </c>
       <c r="AG16">
-        <v>52.93</v>
+        <v>52.89</v>
       </c>
       <c r="AH16">
-        <v>88.21</v>
+        <v>88.19</v>
       </c>
       <c r="AI16">
-        <v>144.21</v>
+        <v>144.27000000000001</v>
       </c>
       <c r="AJ16">
-        <v>203.86</v>
+        <v>203.88</v>
       </c>
       <c r="AK16">
         <v>219.79</v>
       </c>
       <c r="AL16">
-        <v>210.72</v>
+        <v>210.7</v>
       </c>
       <c r="AM16">
-        <v>195.55</v>
+        <v>195.57</v>
       </c>
       <c r="AN16">
-        <v>177.34</v>
+        <v>177.36</v>
       </c>
       <c r="AO16">
-        <v>180.33</v>
+        <v>180.31</v>
       </c>
       <c r="AP16">
-        <v>212.51</v>
+        <v>212.44</v>
       </c>
       <c r="AQ16">
-        <v>238.7</v>
+        <v>238.61</v>
       </c>
       <c r="AR16">
-        <v>186.01</v>
+        <v>185.95</v>
       </c>
       <c r="AS16">
         <v>165.93</v>
       </c>
       <c r="AT16">
-        <v>212.48</v>
+        <v>212.44</v>
       </c>
       <c r="AU16">
-        <v>168.33</v>
+        <v>168.27</v>
       </c>
       <c r="AV16">
-        <v>126.04</v>
+        <v>126.02</v>
       </c>
       <c r="AW16">
-        <v>105.27</v>
+        <v>105.23</v>
       </c>
       <c r="AX16">
-        <v>88.48</v>
+        <v>88.5</v>
       </c>
       <c r="AY16">
-        <v>72.11</v>
+        <v>72.09</v>
       </c>
       <c r="AZ16">
         <v>76.97</v>
       </c>
       <c r="BA16">
-        <v>81.72</v>
+        <v>81.739999999999995</v>
       </c>
       <c r="BB16">
-        <v>84.19</v>
+        <v>84.15</v>
       </c>
       <c r="BC16">
-        <v>107.72</v>
+        <v>107.7</v>
       </c>
       <c r="BD16">
-        <v>138.22</v>
+        <v>138.19999999999999</v>
       </c>
       <c r="BE16">
         <v>165.65</v>
       </c>
       <c r="BF16">
-        <v>165.12</v>
+        <v>165.1</v>
       </c>
       <c r="BG16">
-        <v>181.54</v>
+        <v>181.58</v>
       </c>
       <c r="BH16">
-        <v>214.82</v>
+        <v>214.78</v>
       </c>
       <c r="BI16">
-        <v>212.69</v>
+        <v>212.65</v>
       </c>
       <c r="BJ16">
         <v>181.6</v>
       </c>
       <c r="BK16">
-        <v>146.97</v>
+        <v>146.93</v>
       </c>
       <c r="BL16">
-        <v>102.22</v>
+        <v>102.16</v>
       </c>
       <c r="BM16">
-        <v>77.819999999999993</v>
+        <v>77.760000000000005</v>
       </c>
       <c r="BN16">
         <v>48.38</v>
       </c>
       <c r="BO16">
-        <v>31.63</v>
+        <v>31.61</v>
       </c>
       <c r="BP16">
         <v>21.82</v>
       </c>
       <c r="BQ16">
-        <v>12.26</v>
+        <v>12.22</v>
       </c>
       <c r="BR16">
         <v>9.06</v>
@@ -4727,16 +4770,19 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="BT16">
-        <v>15.49</v>
+        <v>15.55</v>
       </c>
       <c r="BU16">
-        <v>25.85</v>
+        <v>25.95</v>
       </c>
       <c r="BV16">
-        <v>33.229999999999997</v>
+        <v>34.01</v>
+      </c>
+      <c r="BW16">
+        <v>37.82</v>
       </c>
     </row>
-    <row r="17" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -4753,10 +4799,10 @@
         <v>49.21</v>
       </c>
       <c r="F17">
-        <v>48.67</v>
+        <v>48.69</v>
       </c>
       <c r="G17">
-        <v>37.58</v>
+        <v>37.520000000000003</v>
       </c>
       <c r="H17">
         <v>26.65</v>
@@ -4765,7 +4811,7 @@
         <v>20.77</v>
       </c>
       <c r="J17">
-        <v>12.87</v>
+        <v>12.89</v>
       </c>
       <c r="K17">
         <v>10.98</v>
@@ -4807,7 +4853,7 @@
         <v>11.31</v>
       </c>
       <c r="X17">
-        <v>16.190000000000001</v>
+        <v>16.21</v>
       </c>
       <c r="Y17">
         <v>25.19</v>
@@ -4825,7 +4871,7 @@
         <v>27.82</v>
       </c>
       <c r="AD17">
-        <v>32.81</v>
+        <v>32.83</v>
       </c>
       <c r="AE17">
         <v>34.39</v>
@@ -4834,49 +4880,49 @@
         <v>37.69</v>
       </c>
       <c r="AG17">
-        <v>60.56</v>
+        <v>60.52</v>
       </c>
       <c r="AH17">
-        <v>95.13</v>
+        <v>95.15</v>
       </c>
       <c r="AI17">
         <v>164.2</v>
       </c>
       <c r="AJ17">
-        <v>225.96</v>
+        <v>225.93</v>
       </c>
       <c r="AK17">
-        <v>254.62</v>
+        <v>254.66</v>
       </c>
       <c r="AL17">
-        <v>239.11</v>
+        <v>239.13</v>
       </c>
       <c r="AM17">
-        <v>221.36</v>
+        <v>221.33</v>
       </c>
       <c r="AN17">
-        <v>194.01</v>
+        <v>193.99</v>
       </c>
       <c r="AO17">
-        <v>199.16</v>
+        <v>199.14</v>
       </c>
       <c r="AP17">
-        <v>234.07</v>
+        <v>234.03</v>
       </c>
       <c r="AQ17">
-        <v>262.5</v>
+        <v>262.45</v>
       </c>
       <c r="AR17">
-        <v>196.88</v>
+        <v>196.83</v>
       </c>
       <c r="AS17">
         <v>186.33</v>
       </c>
       <c r="AT17">
-        <v>236.33</v>
+        <v>236.31</v>
       </c>
       <c r="AU17">
-        <v>185.14</v>
+        <v>185.12</v>
       </c>
       <c r="AV17">
         <v>139.59</v>
@@ -4885,16 +4931,16 @@
         <v>113.68</v>
       </c>
       <c r="AX17">
-        <v>95</v>
+        <v>94.98</v>
       </c>
       <c r="AY17">
-        <v>79.22</v>
+        <v>79.290000000000006</v>
       </c>
       <c r="AZ17">
         <v>85.65</v>
       </c>
       <c r="BA17">
-        <v>91.16</v>
+        <v>91.14</v>
       </c>
       <c r="BB17">
         <v>95.43</v>
@@ -4903,25 +4949,25 @@
         <v>117.68</v>
       </c>
       <c r="BD17">
-        <v>149.86000000000001</v>
+        <v>149.79</v>
       </c>
       <c r="BE17">
-        <v>185.62</v>
+        <v>185.66</v>
       </c>
       <c r="BF17">
-        <v>184.66</v>
+        <v>184.62</v>
       </c>
       <c r="BG17">
-        <v>212.61</v>
+        <v>212.55</v>
       </c>
       <c r="BH17">
-        <v>250.54</v>
+        <v>250.56</v>
       </c>
       <c r="BI17">
-        <v>244.7</v>
+        <v>244.68</v>
       </c>
       <c r="BJ17">
-        <v>209.01</v>
+        <v>209.07</v>
       </c>
       <c r="BK17">
         <v>170.01</v>
@@ -4936,31 +4982,34 @@
         <v>52.43</v>
       </c>
       <c r="BO17">
-        <v>37.799999999999997</v>
+        <v>37.76</v>
       </c>
       <c r="BP17">
         <v>26.13</v>
       </c>
       <c r="BQ17">
-        <v>13.63</v>
+        <v>13.56</v>
       </c>
       <c r="BR17">
         <v>9.5500000000000007</v>
       </c>
       <c r="BS17">
-        <v>11.93</v>
+        <v>11.96</v>
       </c>
       <c r="BT17">
-        <v>19.18</v>
+        <v>19.16</v>
       </c>
       <c r="BU17">
-        <v>32.72</v>
+        <v>32.770000000000003</v>
       </c>
       <c r="BV17">
-        <v>44.66</v>
+        <v>45.11</v>
+      </c>
+      <c r="BW17">
+        <v>49.43</v>
       </c>
     </row>
-    <row r="18" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -4989,7 +5038,7 @@
         <v>10.210000000000001</v>
       </c>
       <c r="J18">
-        <v>6.73</v>
+        <v>6.7</v>
       </c>
       <c r="K18">
         <v>6.6</v>
@@ -5022,7 +5071,7 @@
         <v>3.83</v>
       </c>
       <c r="U18">
-        <v>4.8499999999999996</v>
+        <v>4.87</v>
       </c>
       <c r="V18">
         <v>6.24</v>
@@ -5043,7 +5092,7 @@
         <v>21.2</v>
       </c>
       <c r="AB18">
-        <v>19.55</v>
+        <v>19.52</v>
       </c>
       <c r="AC18">
         <v>21.1</v>
@@ -5067,58 +5116,58 @@
         <v>123.37</v>
       </c>
       <c r="AJ18">
-        <v>182.45</v>
+        <v>182.42</v>
       </c>
       <c r="AK18">
-        <v>213.49</v>
+        <v>213.47</v>
       </c>
       <c r="AL18">
-        <v>221.08</v>
+        <v>221.21</v>
       </c>
       <c r="AM18">
-        <v>208.36</v>
+        <v>208.42</v>
       </c>
       <c r="AN18">
-        <v>189.27</v>
+        <v>189.3</v>
       </c>
       <c r="AO18">
         <v>195.88</v>
       </c>
       <c r="AP18">
-        <v>223.95</v>
+        <v>223.93</v>
       </c>
       <c r="AQ18">
         <v>215.07</v>
       </c>
       <c r="AR18">
-        <v>148.99</v>
+        <v>149.01</v>
       </c>
       <c r="AS18">
-        <v>125.89</v>
+        <v>125.86</v>
       </c>
       <c r="AT18">
         <v>162.01</v>
       </c>
       <c r="AU18">
-        <v>136.88</v>
+        <v>136.85</v>
       </c>
       <c r="AV18">
-        <v>106.7</v>
+        <v>106.67</v>
       </c>
       <c r="AW18">
-        <v>88.16</v>
+        <v>88.21</v>
       </c>
       <c r="AX18">
         <v>74.150000000000006</v>
       </c>
       <c r="AY18">
-        <v>60.34</v>
+        <v>60.37</v>
       </c>
       <c r="AZ18">
         <v>66.48</v>
       </c>
       <c r="BA18">
-        <v>77.91</v>
+        <v>77.930000000000007</v>
       </c>
       <c r="BB18">
         <v>81.510000000000005</v>
@@ -5130,61 +5179,64 @@
         <v>140.63999999999999</v>
       </c>
       <c r="BE18">
-        <v>182.34</v>
+        <v>182.37</v>
       </c>
       <c r="BF18">
-        <v>167.82</v>
+        <v>167.72</v>
       </c>
       <c r="BG18">
-        <v>191.69</v>
+        <v>191.74</v>
       </c>
       <c r="BH18">
-        <v>274.49</v>
+        <v>274.47000000000003</v>
       </c>
       <c r="BI18">
-        <v>262.58999999999997</v>
+        <v>262.54000000000002</v>
       </c>
       <c r="BJ18">
-        <v>219.84</v>
+        <v>219.92</v>
       </c>
       <c r="BK18">
-        <v>178.87</v>
+        <v>178.89</v>
       </c>
       <c r="BL18">
-        <v>125.46</v>
+        <v>125.43</v>
       </c>
       <c r="BM18">
-        <v>98.72</v>
+        <v>98.75</v>
       </c>
       <c r="BN18">
-        <v>56.74</v>
+        <v>56.71</v>
       </c>
       <c r="BO18">
         <v>43.79</v>
       </c>
       <c r="BP18">
-        <v>31.22</v>
+        <v>31.25</v>
       </c>
       <c r="BQ18">
-        <v>17.260000000000002</v>
+        <v>17.21</v>
       </c>
       <c r="BR18">
         <v>11.17</v>
       </c>
       <c r="BS18">
-        <v>10.51</v>
+        <v>10.54</v>
       </c>
       <c r="BT18">
         <v>14.72</v>
       </c>
       <c r="BU18">
-        <v>32.57</v>
+        <v>32.619999999999997</v>
       </c>
       <c r="BV18">
-        <v>40.06</v>
+        <v>40.69</v>
+      </c>
+      <c r="BW18">
+        <v>45.41</v>
       </c>
     </row>
-    <row r="19" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -5246,7 +5298,7 @@
         <v>2.78</v>
       </c>
       <c r="U19">
-        <v>3.97</v>
+        <v>3.94</v>
       </c>
       <c r="V19">
         <v>5.16</v>
@@ -5291,34 +5343,34 @@
         <v>74.239999999999995</v>
       </c>
       <c r="AJ19">
-        <v>110.21</v>
+        <v>110.24</v>
       </c>
       <c r="AK19">
-        <v>129.13999999999999</v>
+        <v>129.22</v>
       </c>
       <c r="AL19">
-        <v>144.29</v>
+        <v>144.32</v>
       </c>
       <c r="AM19">
-        <v>143.16</v>
+        <v>143.1</v>
       </c>
       <c r="AN19">
         <v>140.05000000000001</v>
       </c>
       <c r="AO19">
-        <v>139.35</v>
+        <v>139.32</v>
       </c>
       <c r="AP19">
         <v>153.66</v>
       </c>
       <c r="AQ19">
-        <v>142.83000000000001</v>
+        <v>142.81</v>
       </c>
       <c r="AR19">
         <v>91.39</v>
       </c>
       <c r="AS19">
-        <v>71.650000000000006</v>
+        <v>71.62</v>
       </c>
       <c r="AT19">
         <v>89.93</v>
@@ -5336,7 +5388,7 @@
         <v>46.56</v>
       </c>
       <c r="AY19">
-        <v>38.11</v>
+        <v>38.049999999999997</v>
       </c>
       <c r="AZ19">
         <v>42.4</v>
@@ -5348,67 +5400,70 @@
         <v>62.3</v>
       </c>
       <c r="BC19">
-        <v>77.510000000000005</v>
+        <v>77.45</v>
       </c>
       <c r="BD19">
-        <v>112.83</v>
+        <v>112.8</v>
       </c>
       <c r="BE19">
         <v>154.80000000000001</v>
       </c>
       <c r="BF19">
-        <v>130.91999999999999</v>
+        <v>130.94999999999999</v>
       </c>
       <c r="BG19">
-        <v>139.75</v>
+        <v>139.84</v>
       </c>
       <c r="BH19">
-        <v>206.84</v>
+        <v>206.78</v>
       </c>
       <c r="BI19">
-        <v>235.81</v>
+        <v>235.84</v>
       </c>
       <c r="BJ19">
-        <v>193.6</v>
+        <v>193.58</v>
       </c>
       <c r="BK19">
         <v>165.57</v>
       </c>
       <c r="BL19">
-        <v>123.31</v>
+        <v>123.34</v>
       </c>
       <c r="BM19">
-        <v>101.65</v>
+        <v>101.62</v>
       </c>
       <c r="BN19">
-        <v>58.47</v>
+        <v>58.49</v>
       </c>
       <c r="BO19">
         <v>42.72</v>
       </c>
       <c r="BP19">
-        <v>35.65</v>
+        <v>35.619999999999997</v>
       </c>
       <c r="BQ19">
-        <v>17.93</v>
+        <v>17.88</v>
       </c>
       <c r="BR19">
-        <v>12.07</v>
+        <v>12.1</v>
       </c>
       <c r="BS19">
         <v>8.34</v>
       </c>
       <c r="BT19">
-        <v>7.99</v>
+        <v>7.97</v>
       </c>
       <c r="BU19">
-        <v>14.31</v>
+        <v>14.37</v>
       </c>
       <c r="BV19">
-        <v>20.63</v>
+        <v>20.88</v>
+      </c>
+      <c r="BW19">
+        <v>26.52</v>
       </c>
     </row>
-    <row r="20" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>93</v>
       </c>
@@ -5464,7 +5519,7 @@
         <v>3.7</v>
       </c>
       <c r="S20">
-        <v>3.25</v>
+        <v>3.27</v>
       </c>
       <c r="T20">
         <v>3.09</v>
@@ -5509,34 +5564,34 @@
         <v>16.739999999999998</v>
       </c>
       <c r="AH20">
-        <v>26.13</v>
+        <v>26.16</v>
       </c>
       <c r="AI20">
         <v>49.34</v>
       </c>
       <c r="AJ20">
-        <v>74.89</v>
+        <v>74.86</v>
       </c>
       <c r="AK20">
-        <v>90.26</v>
+        <v>90.29</v>
       </c>
       <c r="AL20">
-        <v>97</v>
+        <v>96.97</v>
       </c>
       <c r="AM20">
-        <v>105.15</v>
+        <v>105.18</v>
       </c>
       <c r="AN20">
-        <v>102.44</v>
+        <v>102.47</v>
       </c>
       <c r="AO20">
-        <v>98.77</v>
+        <v>98.79</v>
       </c>
       <c r="AP20">
-        <v>114.36</v>
+        <v>114.3</v>
       </c>
       <c r="AQ20">
-        <v>115.54</v>
+        <v>115.51</v>
       </c>
       <c r="AR20">
         <v>81.11</v>
@@ -5545,7 +5600,7 @@
         <v>52.16</v>
       </c>
       <c r="AT20">
-        <v>64.180000000000007</v>
+        <v>64.150000000000006</v>
       </c>
       <c r="AU20">
         <v>58.84</v>
@@ -5569,46 +5624,46 @@
         <v>53.74</v>
       </c>
       <c r="BB20">
-        <v>73.14</v>
+        <v>73.12</v>
       </c>
       <c r="BC20">
-        <v>98.74</v>
+        <v>98.71</v>
       </c>
       <c r="BD20">
-        <v>127.93</v>
+        <v>127.91</v>
       </c>
       <c r="BE20">
-        <v>179.82</v>
+        <v>179.8</v>
       </c>
       <c r="BF20">
-        <v>139.22999999999999</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="BG20">
         <v>126.08</v>
       </c>
       <c r="BH20">
-        <v>187.5</v>
+        <v>187.58</v>
       </c>
       <c r="BI20">
-        <v>225.71</v>
+        <v>225.73</v>
       </c>
       <c r="BJ20">
         <v>184.55</v>
       </c>
       <c r="BK20">
-        <v>149.44999999999999</v>
+        <v>149.4</v>
       </c>
       <c r="BL20">
         <v>110.41</v>
       </c>
       <c r="BM20">
-        <v>91.74</v>
+        <v>91.66</v>
       </c>
       <c r="BN20">
-        <v>50.34</v>
+        <v>50.36</v>
       </c>
       <c r="BO20">
-        <v>40.92</v>
+        <v>40.97</v>
       </c>
       <c r="BP20">
         <v>30.67</v>
@@ -5617,7 +5672,7 @@
         <v>15.21</v>
       </c>
       <c r="BR20">
-        <v>9.23</v>
+        <v>9.26</v>
       </c>
       <c r="BS20">
         <v>6.41</v>
@@ -5629,10 +5684,13 @@
         <v>8.64</v>
       </c>
       <c r="BV20">
-        <v>12.69</v>
+        <v>12.88</v>
+      </c>
+      <c r="BW20">
+        <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -5742,31 +5800,31 @@
         <v>56.19</v>
       </c>
       <c r="AK21">
-        <v>61.01</v>
+        <v>60.96</v>
       </c>
       <c r="AL21">
-        <v>60.91</v>
+        <v>60.89</v>
       </c>
       <c r="AM21">
-        <v>59.98</v>
+        <v>60.03</v>
       </c>
       <c r="AN21">
         <v>58.59</v>
       </c>
       <c r="AO21">
-        <v>58.19</v>
+        <v>58.16</v>
       </c>
       <c r="AP21">
-        <v>67.2</v>
+        <v>67.12</v>
       </c>
       <c r="AQ21">
         <v>78.150000000000006</v>
       </c>
       <c r="AR21">
-        <v>53.24</v>
+        <v>53.21</v>
       </c>
       <c r="AS21">
-        <v>38.5</v>
+        <v>38.47</v>
       </c>
       <c r="AT21">
         <v>48.01</v>
@@ -5793,13 +5851,13 @@
         <v>47.58</v>
       </c>
       <c r="BB21">
-        <v>59.88</v>
+        <v>59.85</v>
       </c>
       <c r="BC21">
-        <v>75.48</v>
+        <v>75.5</v>
       </c>
       <c r="BD21">
-        <v>102.19</v>
+        <v>102.24</v>
       </c>
       <c r="BE21">
         <v>126.75</v>
@@ -5808,22 +5866,22 @@
         <v>112.84</v>
       </c>
       <c r="BG21">
-        <v>101.66</v>
+        <v>101.61</v>
       </c>
       <c r="BH21">
         <v>128.38999999999999</v>
       </c>
       <c r="BI21">
-        <v>140.83000000000001</v>
+        <v>140.81</v>
       </c>
       <c r="BJ21">
-        <v>127.83</v>
+        <v>127.81</v>
       </c>
       <c r="BK21">
-        <v>103.9</v>
+        <v>103.93</v>
       </c>
       <c r="BL21">
-        <v>74.95</v>
+        <v>74.92</v>
       </c>
       <c r="BM21">
         <v>58.04</v>
@@ -5841,37 +5899,41 @@
         <v>9.6199999999999992</v>
       </c>
       <c r="BR21">
-        <v>6.54</v>
+        <v>6.51</v>
       </c>
       <c r="BS21">
         <v>4.3899999999999997</v>
       </c>
       <c r="BT21">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="BU21">
         <v>6.49</v>
       </c>
       <c r="BV21">
-        <v>8.7100000000000009</v>
+        <v>8.81</v>
+      </c>
+      <c r="BW21">
+        <v>13.13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BV21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:BW21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6094,8 +6156,11 @@
       <c r="BV1" t="s">
         <v>73</v>
       </c>
+      <c r="BW1" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -6115,7 +6180,7 @@
         <v>36054</v>
       </c>
       <c r="G2">
-        <v>27138</v>
+        <v>27136</v>
       </c>
       <c r="H2">
         <v>17335</v>
@@ -6136,7 +6201,7 @@
         <v>3598</v>
       </c>
       <c r="N2">
-        <v>3201</v>
+        <v>3204</v>
       </c>
       <c r="O2">
         <v>2351</v>
@@ -6151,7 +6216,7 @@
         <v>3153</v>
       </c>
       <c r="S2">
-        <v>2687</v>
+        <v>2688</v>
       </c>
       <c r="T2">
         <v>2427</v>
@@ -6163,163 +6228,166 @@
         <v>3926</v>
       </c>
       <c r="W2">
-        <v>4830</v>
+        <v>4831</v>
       </c>
       <c r="X2">
-        <v>6057</v>
+        <v>6058</v>
       </c>
       <c r="Y2">
         <v>7951</v>
       </c>
       <c r="Z2">
-        <v>9598</v>
+        <v>9597</v>
       </c>
       <c r="AA2">
         <v>8823</v>
       </c>
       <c r="AB2">
-        <v>8619</v>
+        <v>8618</v>
       </c>
       <c r="AC2">
         <v>9763</v>
       </c>
       <c r="AD2">
-        <v>12288</v>
+        <v>12289</v>
       </c>
       <c r="AE2">
-        <v>13060</v>
+        <v>13061</v>
       </c>
       <c r="AF2">
         <v>15924</v>
       </c>
       <c r="AG2">
-        <v>26114</v>
+        <v>26108</v>
       </c>
       <c r="AH2">
-        <v>42058</v>
+        <v>42061</v>
       </c>
       <c r="AI2">
-        <v>74859</v>
+        <v>74866</v>
       </c>
       <c r="AJ2">
-        <v>111027</v>
+        <v>111032</v>
       </c>
       <c r="AK2">
-        <v>125770</v>
+        <v>125769</v>
       </c>
       <c r="AL2">
-        <v>127775</v>
+        <v>127781</v>
       </c>
       <c r="AM2">
-        <v>128375</v>
+        <v>128379</v>
       </c>
       <c r="AN2">
-        <v>123204</v>
+        <v>123213</v>
       </c>
       <c r="AO2">
-        <v>128401</v>
+        <v>128396</v>
       </c>
       <c r="AP2">
-        <v>156330</v>
+        <v>156303</v>
       </c>
       <c r="AQ2">
-        <v>174756</v>
+        <v>174745</v>
       </c>
       <c r="AR2">
-        <v>139002</v>
+        <v>138996</v>
       </c>
       <c r="AS2">
-        <v>123098</v>
+        <v>123086</v>
       </c>
       <c r="AT2">
-        <v>145481</v>
+        <v>145470</v>
       </c>
       <c r="AU2">
-        <v>118944</v>
+        <v>118926</v>
       </c>
       <c r="AV2">
-        <v>95549</v>
+        <v>95541</v>
       </c>
       <c r="AW2">
-        <v>78119</v>
+        <v>78118</v>
       </c>
       <c r="AX2">
-        <v>64573</v>
+        <v>64571</v>
       </c>
       <c r="AY2">
-        <v>50803</v>
+        <v>50801</v>
       </c>
       <c r="AZ2">
-        <v>52408</v>
+        <v>52404</v>
       </c>
       <c r="BA2">
-        <v>56364</v>
+        <v>56361</v>
       </c>
       <c r="BB2">
-        <v>58374</v>
+        <v>58372</v>
       </c>
       <c r="BC2">
-        <v>71314</v>
+        <v>71308</v>
       </c>
       <c r="BD2">
-        <v>92603</v>
+        <v>92598</v>
       </c>
       <c r="BE2">
-        <v>116270</v>
+        <v>116271</v>
       </c>
       <c r="BF2">
-        <v>110110</v>
+        <v>110102</v>
       </c>
       <c r="BG2">
-        <v>118255</v>
+        <v>118258</v>
       </c>
       <c r="BH2">
-        <v>142047</v>
+        <v>142032</v>
       </c>
       <c r="BI2">
-        <v>144778</v>
+        <v>144768</v>
       </c>
       <c r="BJ2">
-        <v>124850</v>
+        <v>124851</v>
       </c>
       <c r="BK2">
-        <v>101020</v>
+        <v>101013</v>
       </c>
       <c r="BL2">
-        <v>70871</v>
+        <v>70862</v>
       </c>
       <c r="BM2">
-        <v>52761</v>
+        <v>52745</v>
       </c>
       <c r="BN2">
-        <v>29900</v>
+        <v>29898</v>
       </c>
       <c r="BO2">
-        <v>20720</v>
+        <v>20713</v>
       </c>
       <c r="BP2">
-        <v>14036</v>
+        <v>14035</v>
       </c>
       <c r="BQ2">
-        <v>7271</v>
+        <v>7254</v>
       </c>
       <c r="BR2">
         <v>4809</v>
       </c>
       <c r="BS2">
-        <v>4339</v>
+        <v>4344</v>
       </c>
       <c r="BT2">
-        <v>5563</v>
+        <v>5562</v>
       </c>
       <c r="BU2">
-        <v>9058</v>
+        <v>9070</v>
       </c>
       <c r="BV2">
-        <v>12399</v>
+        <v>12577</v>
+      </c>
+      <c r="BW2">
+        <v>15222</v>
       </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -6417,7 +6485,7 @@
         <v>119</v>
       </c>
       <c r="AG3">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AH3">
         <v>437</v>
@@ -6438,10 +6506,10 @@
         <v>3062</v>
       </c>
       <c r="AN3">
-        <v>3516</v>
+        <v>3519</v>
       </c>
       <c r="AO3">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="AP3">
         <v>5400</v>
@@ -6456,19 +6524,19 @@
         <v>4978</v>
       </c>
       <c r="AT3">
-        <v>5406</v>
+        <v>5403</v>
       </c>
       <c r="AU3">
         <v>5023</v>
       </c>
       <c r="AV3">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="AW3">
         <v>2872</v>
       </c>
       <c r="AX3">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="AY3">
         <v>1299</v>
@@ -6501,19 +6569,19 @@
         <v>794</v>
       </c>
       <c r="BI3">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="BJ3">
         <v>637</v>
       </c>
       <c r="BK3">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="BL3">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="BM3">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BN3">
         <v>161</v>
@@ -6531,7 +6599,7 @@
         <v>10</v>
       </c>
       <c r="BS3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BT3">
         <v>17</v>
@@ -6540,10 +6608,13 @@
         <v>20</v>
       </c>
       <c r="BV3">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="BW3">
+        <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -6650,7 +6721,7 @@
         <v>1150</v>
       </c>
       <c r="AJ4">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AK4">
         <v>2285</v>
@@ -6659,16 +6730,16 @@
         <v>2834</v>
       </c>
       <c r="AM4">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="AN4">
         <v>4096</v>
       </c>
       <c r="AO4">
-        <v>4597</v>
+        <v>4596</v>
       </c>
       <c r="AP4">
-        <v>5912</v>
+        <v>5911</v>
       </c>
       <c r="AQ4">
         <v>6931</v>
@@ -6677,22 +6748,22 @@
         <v>5825</v>
       </c>
       <c r="AS4">
-        <v>5586</v>
+        <v>5585</v>
       </c>
       <c r="AT4">
         <v>6068</v>
       </c>
       <c r="AU4">
-        <v>5561</v>
+        <v>5558</v>
       </c>
       <c r="AV4">
         <v>4445</v>
       </c>
       <c r="AW4">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="AX4">
-        <v>2577</v>
+        <v>2579</v>
       </c>
       <c r="AY4">
         <v>1650</v>
@@ -6701,10 +6772,10 @@
         <v>1462</v>
       </c>
       <c r="BA4">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="BB4">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="BC4">
         <v>938</v>
@@ -6731,13 +6802,13 @@
         <v>990</v>
       </c>
       <c r="BK4">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="BL4">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="BM4">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="BN4">
         <v>237</v>
@@ -6766,8 +6837,11 @@
       <c r="BV4">
         <v>50</v>
       </c>
+      <c r="BW4">
+        <v>65</v>
+      </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -6868,52 +6942,52 @@
         <v>471</v>
       </c>
       <c r="AH5">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AI5">
         <v>1837</v>
       </c>
       <c r="AJ5">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="AK5">
-        <v>3435</v>
+        <v>3432</v>
       </c>
       <c r="AL5">
         <v>3800</v>
       </c>
       <c r="AM5">
-        <v>4360</v>
+        <v>4359</v>
       </c>
       <c r="AN5">
         <v>4775</v>
       </c>
       <c r="AO5">
-        <v>5446</v>
+        <v>5443</v>
       </c>
       <c r="AP5">
-        <v>7072</v>
+        <v>7073</v>
       </c>
       <c r="AQ5">
-        <v>8259</v>
+        <v>8257</v>
       </c>
       <c r="AR5">
-        <v>7418</v>
+        <v>7420</v>
       </c>
       <c r="AS5">
-        <v>6869</v>
+        <v>6868</v>
       </c>
       <c r="AT5">
-        <v>7669</v>
+        <v>7670</v>
       </c>
       <c r="AU5">
-        <v>6695</v>
+        <v>6691</v>
       </c>
       <c r="AV5">
         <v>5332</v>
       </c>
       <c r="AW5">
-        <v>4194</v>
+        <v>4193</v>
       </c>
       <c r="AX5">
         <v>3146</v>
@@ -6922,19 +6996,19 @@
         <v>2290</v>
       </c>
       <c r="AZ5">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="BA5">
         <v>1778</v>
       </c>
       <c r="BB5">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="BC5">
         <v>1640</v>
       </c>
       <c r="BD5">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="BE5">
         <v>2129</v>
@@ -6943,16 +7017,16 @@
         <v>1892</v>
       </c>
       <c r="BG5">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="BH5">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="BI5">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="BJ5">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="BK5">
         <v>1366</v>
@@ -6961,7 +7035,7 @@
         <v>920</v>
       </c>
       <c r="BM5">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="BN5">
         <v>381</v>
@@ -6985,13 +7059,16 @@
         <v>45</v>
       </c>
       <c r="BU5">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BV5">
         <v>76</v>
       </c>
+      <c r="BW5">
+        <v>110</v>
+      </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -7089,25 +7166,25 @@
         <v>308</v>
       </c>
       <c r="AG6">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AH6">
         <v>903</v>
       </c>
       <c r="AI6">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="AJ6">
         <v>2644</v>
       </c>
       <c r="AK6">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="AL6">
         <v>3286</v>
       </c>
       <c r="AM6">
-        <v>3380</v>
+        <v>3381</v>
       </c>
       <c r="AN6">
         <v>3489</v>
@@ -7122,13 +7199,13 @@
         <v>5939</v>
       </c>
       <c r="AR6">
-        <v>5101</v>
+        <v>5102</v>
       </c>
       <c r="AS6">
         <v>4638</v>
       </c>
       <c r="AT6">
-        <v>5226</v>
+        <v>5223</v>
       </c>
       <c r="AU6">
         <v>4315</v>
@@ -7137,13 +7214,13 @@
         <v>3409</v>
       </c>
       <c r="AW6">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="AX6">
         <v>2198</v>
       </c>
       <c r="AY6">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="AZ6">
         <v>1712</v>
@@ -7155,10 +7232,10 @@
         <v>1365</v>
       </c>
       <c r="BC6">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="BD6">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="BE6">
         <v>2219</v>
@@ -7167,16 +7244,16 @@
         <v>2180</v>
       </c>
       <c r="BG6">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="BH6">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="BI6">
         <v>2487</v>
       </c>
       <c r="BJ6">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="BK6">
         <v>1662</v>
@@ -7188,7 +7265,7 @@
         <v>777</v>
       </c>
       <c r="BN6">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="BO6">
         <v>250</v>
@@ -7212,10 +7289,13 @@
         <v>50</v>
       </c>
       <c r="BV6">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="BW6">
+        <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -7316,28 +7396,28 @@
         <v>585</v>
       </c>
       <c r="AH7">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="AI7">
         <v>1802</v>
       </c>
       <c r="AJ7">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="AK7">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="AL7">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="AM7">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="AN7">
         <v>3194</v>
       </c>
       <c r="AO7">
-        <v>3480</v>
+        <v>3481</v>
       </c>
       <c r="AP7">
         <v>4386</v>
@@ -7349,13 +7429,13 @@
         <v>4444</v>
       </c>
       <c r="AS7">
-        <v>4127</v>
+        <v>4128</v>
       </c>
       <c r="AT7">
         <v>4836</v>
       </c>
       <c r="AU7">
-        <v>3663</v>
+        <v>3664</v>
       </c>
       <c r="AV7">
         <v>3054</v>
@@ -7367,10 +7447,10 @@
         <v>2064</v>
       </c>
       <c r="AY7">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="AZ7">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="BA7">
         <v>1645</v>
@@ -7385,34 +7465,34 @@
         <v>2377</v>
       </c>
       <c r="BE7">
-        <v>2838</v>
+        <v>2839</v>
       </c>
       <c r="BF7">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="BG7">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="BH7">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="BI7">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="BJ7">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="BK7">
         <v>2303</v>
       </c>
       <c r="BL7">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="BM7">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="BN7">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="BO7">
         <v>341</v>
@@ -7427,7 +7507,7 @@
         <v>70</v>
       </c>
       <c r="BS7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BT7">
         <v>61</v>
@@ -7436,10 +7516,13 @@
         <v>67</v>
       </c>
       <c r="BV7">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="BW7">
+        <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -7456,7 +7539,7 @@
         <v>1647</v>
       </c>
       <c r="F8">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="G8">
         <v>1115</v>
@@ -7531,7 +7614,7 @@
         <v>289</v>
       </c>
       <c r="AE8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF8">
         <v>450</v>
@@ -7543,28 +7626,28 @@
         <v>1282</v>
       </c>
       <c r="AI8">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="AJ8">
-        <v>3554</v>
+        <v>3552</v>
       </c>
       <c r="AK8">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="AL8">
         <v>4015</v>
       </c>
       <c r="AM8">
-        <v>4150</v>
+        <v>4151</v>
       </c>
       <c r="AN8">
-        <v>4132</v>
+        <v>4133</v>
       </c>
       <c r="AO8">
-        <v>4118</v>
+        <v>4117</v>
       </c>
       <c r="AP8">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="AQ8">
         <v>6356</v>
@@ -7576,16 +7659,16 @@
         <v>4975</v>
       </c>
       <c r="AT8">
-        <v>5733</v>
+        <v>5732</v>
       </c>
       <c r="AU8">
-        <v>4417</v>
+        <v>4415</v>
       </c>
       <c r="AV8">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="AW8">
-        <v>3123</v>
+        <v>3125</v>
       </c>
       <c r="AX8">
         <v>2537</v>
@@ -7603,43 +7686,43 @@
         <v>1994</v>
       </c>
       <c r="BC8">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="BD8">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="BE8">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="BF8">
         <v>3965</v>
       </c>
       <c r="BG8">
-        <v>4308</v>
+        <v>4305</v>
       </c>
       <c r="BH8">
-        <v>4913</v>
+        <v>4912</v>
       </c>
       <c r="BI8">
-        <v>4625</v>
+        <v>4627</v>
       </c>
       <c r="BJ8">
         <v>3971</v>
       </c>
       <c r="BK8">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="BL8">
         <v>2319</v>
       </c>
       <c r="BM8">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="BN8">
         <v>772</v>
       </c>
       <c r="BO8">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="BP8">
         <v>320</v>
@@ -7654,16 +7737,19 @@
         <v>79</v>
       </c>
       <c r="BT8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BU8">
         <v>116</v>
       </c>
       <c r="BV8">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="BW8">
+        <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -7680,7 +7766,7 @@
         <v>2522</v>
       </c>
       <c r="F9">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="G9">
         <v>1787</v>
@@ -7767,19 +7853,19 @@
         <v>2122</v>
       </c>
       <c r="AI9">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="AJ9">
-        <v>5990</v>
+        <v>5991</v>
       </c>
       <c r="AK9">
-        <v>6858</v>
+        <v>6857</v>
       </c>
       <c r="AL9">
-        <v>6925</v>
+        <v>6926</v>
       </c>
       <c r="AM9">
-        <v>7300</v>
+        <v>7298</v>
       </c>
       <c r="AN9">
         <v>7007</v>
@@ -7788,31 +7874,31 @@
         <v>7648</v>
       </c>
       <c r="AP9">
-        <v>9424</v>
+        <v>9423</v>
       </c>
       <c r="AQ9">
-        <v>11037</v>
+        <v>11036</v>
       </c>
       <c r="AR9">
-        <v>9182</v>
+        <v>9183</v>
       </c>
       <c r="AS9">
-        <v>8264</v>
+        <v>8263</v>
       </c>
       <c r="AT9">
-        <v>9274</v>
+        <v>9276</v>
       </c>
       <c r="AU9">
         <v>7549</v>
       </c>
       <c r="AV9">
-        <v>6239</v>
+        <v>6241</v>
       </c>
       <c r="AW9">
-        <v>5121</v>
+        <v>5122</v>
       </c>
       <c r="AX9">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="AY9">
         <v>3187</v>
@@ -7824,13 +7910,13 @@
         <v>3516</v>
       </c>
       <c r="BB9">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="BC9">
-        <v>4121</v>
+        <v>4120</v>
       </c>
       <c r="BD9">
-        <v>5307</v>
+        <v>5308</v>
       </c>
       <c r="BE9">
         <v>6572</v>
@@ -7839,25 +7925,25 @@
         <v>6403</v>
       </c>
       <c r="BG9">
-        <v>6874</v>
+        <v>6875</v>
       </c>
       <c r="BH9">
-        <v>7594</v>
+        <v>7593</v>
       </c>
       <c r="BI9">
-        <v>7765</v>
+        <v>7762</v>
       </c>
       <c r="BJ9">
-        <v>6798</v>
+        <v>6799</v>
       </c>
       <c r="BK9">
         <v>5530</v>
       </c>
       <c r="BL9">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="BM9">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="BN9">
         <v>1342</v>
@@ -7866,10 +7952,10 @@
         <v>851</v>
       </c>
       <c r="BP9">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="BQ9">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="BR9">
         <v>153</v>
@@ -7881,13 +7967,16 @@
         <v>168</v>
       </c>
       <c r="BU9">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BV9">
-        <v>289</v>
+        <v>292</v>
+      </c>
+      <c r="BW9">
+        <v>396</v>
       </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -7907,10 +7996,10 @@
         <v>3664</v>
       </c>
       <c r="G10">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="H10">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="I10">
         <v>1060</v>
@@ -7928,7 +8017,7 @@
         <v>264</v>
       </c>
       <c r="N10">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O10">
         <v>142</v>
@@ -7991,16 +8080,16 @@
         <v>2999</v>
       </c>
       <c r="AI10">
-        <v>5758</v>
+        <v>5757</v>
       </c>
       <c r="AJ10">
-        <v>8973</v>
+        <v>8976</v>
       </c>
       <c r="AK10">
-        <v>10165</v>
+        <v>10168</v>
       </c>
       <c r="AL10">
-        <v>10295</v>
+        <v>10293</v>
       </c>
       <c r="AM10">
         <v>10251</v>
@@ -8009,46 +8098,46 @@
         <v>9874</v>
       </c>
       <c r="AO10">
-        <v>10377</v>
+        <v>10378</v>
       </c>
       <c r="AP10">
-        <v>13050</v>
+        <v>13047</v>
       </c>
       <c r="AQ10">
-        <v>14996</v>
+        <v>15000</v>
       </c>
       <c r="AR10">
-        <v>12392</v>
+        <v>12394</v>
       </c>
       <c r="AS10">
-        <v>11096</v>
+        <v>11095</v>
       </c>
       <c r="AT10">
-        <v>12333</v>
+        <v>12332</v>
       </c>
       <c r="AU10">
-        <v>10033</v>
+        <v>10032</v>
       </c>
       <c r="AV10">
-        <v>8338</v>
+        <v>8336</v>
       </c>
       <c r="AW10">
-        <v>7012</v>
+        <v>7010</v>
       </c>
       <c r="AX10">
         <v>5812</v>
       </c>
       <c r="AY10">
-        <v>4506</v>
+        <v>4507</v>
       </c>
       <c r="AZ10">
-        <v>4605</v>
+        <v>4604</v>
       </c>
       <c r="BA10">
         <v>4839</v>
       </c>
       <c r="BB10">
-        <v>4636</v>
+        <v>4635</v>
       </c>
       <c r="BC10">
         <v>5713</v>
@@ -8066,19 +8155,19 @@
         <v>9682</v>
       </c>
       <c r="BH10">
-        <v>10675</v>
+        <v>10672</v>
       </c>
       <c r="BI10">
-        <v>11024</v>
+        <v>11026</v>
       </c>
       <c r="BJ10">
-        <v>9929</v>
+        <v>9930</v>
       </c>
       <c r="BK10">
-        <v>7824</v>
+        <v>7822</v>
       </c>
       <c r="BL10">
-        <v>5324</v>
+        <v>5326</v>
       </c>
       <c r="BM10">
         <v>3577</v>
@@ -8087,31 +8176,34 @@
         <v>1931</v>
       </c>
       <c r="BO10">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="BP10">
         <v>793</v>
       </c>
       <c r="BQ10">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="BR10">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BS10">
         <v>229</v>
       </c>
       <c r="BT10">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BU10">
         <v>366</v>
       </c>
       <c r="BV10">
-        <v>533</v>
+        <v>543</v>
+      </c>
+      <c r="BW10">
+        <v>565</v>
       </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -8122,16 +8214,16 @@
         <v>979</v>
       </c>
       <c r="D11">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="E11">
-        <v>4000</v>
+        <v>4001</v>
       </c>
       <c r="F11">
         <v>3700</v>
       </c>
       <c r="G11">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="H11">
         <v>1560</v>
@@ -8152,7 +8244,7 @@
         <v>251</v>
       </c>
       <c r="N11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O11">
         <v>150</v>
@@ -8179,10 +8271,10 @@
         <v>294</v>
       </c>
       <c r="W11">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="X11">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Y11">
         <v>473</v>
@@ -8212,49 +8304,49 @@
         <v>2270</v>
       </c>
       <c r="AH11">
-        <v>3577</v>
+        <v>3579</v>
       </c>
       <c r="AI11">
-        <v>6420</v>
+        <v>6422</v>
       </c>
       <c r="AJ11">
-        <v>9769</v>
+        <v>9771</v>
       </c>
       <c r="AK11">
-        <v>10967</v>
+        <v>10966</v>
       </c>
       <c r="AL11">
-        <v>11003</v>
+        <v>11000</v>
       </c>
       <c r="AM11">
-        <v>10844</v>
+        <v>10847</v>
       </c>
       <c r="AN11">
-        <v>10333</v>
+        <v>10332</v>
       </c>
       <c r="AO11">
-        <v>10549</v>
+        <v>10551</v>
       </c>
       <c r="AP11">
-        <v>13258</v>
+        <v>13253</v>
       </c>
       <c r="AQ11">
-        <v>14922</v>
+        <v>14921</v>
       </c>
       <c r="AR11">
-        <v>11980</v>
+        <v>11979</v>
       </c>
       <c r="AS11">
-        <v>10528</v>
+        <v>10527</v>
       </c>
       <c r="AT11">
         <v>12101</v>
       </c>
       <c r="AU11">
-        <v>9815</v>
+        <v>9814</v>
       </c>
       <c r="AV11">
-        <v>8180</v>
+        <v>8179</v>
       </c>
       <c r="AW11">
         <v>6676</v>
@@ -8263,55 +8355,55 @@
         <v>5303</v>
       </c>
       <c r="AY11">
-        <v>4311</v>
+        <v>4309</v>
       </c>
       <c r="AZ11">
         <v>4504</v>
       </c>
       <c r="BA11">
-        <v>4753</v>
+        <v>4752</v>
       </c>
       <c r="BB11">
-        <v>4943</v>
+        <v>4947</v>
       </c>
       <c r="BC11">
-        <v>5899</v>
+        <v>5901</v>
       </c>
       <c r="BD11">
-        <v>7533</v>
+        <v>7535</v>
       </c>
       <c r="BE11">
         <v>9347</v>
       </c>
       <c r="BF11">
-        <v>9121</v>
+        <v>9124</v>
       </c>
       <c r="BG11">
-        <v>9958</v>
+        <v>9957</v>
       </c>
       <c r="BH11">
-        <v>11115</v>
+        <v>11114</v>
       </c>
       <c r="BI11">
-        <v>11637</v>
+        <v>11636</v>
       </c>
       <c r="BJ11">
-        <v>10151</v>
+        <v>10152</v>
       </c>
       <c r="BK11">
         <v>8024</v>
       </c>
       <c r="BL11">
-        <v>5467</v>
+        <v>5470</v>
       </c>
       <c r="BM11">
-        <v>3778</v>
+        <v>3776</v>
       </c>
       <c r="BN11">
         <v>2061</v>
       </c>
       <c r="BO11">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="BP11">
         <v>824</v>
@@ -8329,13 +8421,16 @@
         <v>286</v>
       </c>
       <c r="BU11">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="BV11">
-        <v>610</v>
+        <v>620</v>
+      </c>
+      <c r="BW11">
+        <v>805</v>
       </c>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -8346,19 +8441,19 @@
         <v>747</v>
       </c>
       <c r="D12">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="E12">
         <v>2915</v>
       </c>
       <c r="F12">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="G12">
         <v>1916</v>
       </c>
       <c r="H12">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I12">
         <v>786</v>
@@ -8430,7 +8525,7 @@
         <v>897</v>
       </c>
       <c r="AF12">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="AG12">
         <v>2034</v>
@@ -8442,16 +8537,16 @@
         <v>5822</v>
       </c>
       <c r="AJ12">
-        <v>8390</v>
+        <v>8393</v>
       </c>
       <c r="AK12">
-        <v>9480</v>
+        <v>9481</v>
       </c>
       <c r="AL12">
-        <v>9278</v>
+        <v>9279</v>
       </c>
       <c r="AM12">
-        <v>9675</v>
+        <v>9674</v>
       </c>
       <c r="AN12">
         <v>9064</v>
@@ -8460,19 +8555,19 @@
         <v>9235</v>
       </c>
       <c r="AP12">
-        <v>11096</v>
+        <v>11094</v>
       </c>
       <c r="AQ12">
-        <v>12439</v>
+        <v>12440</v>
       </c>
       <c r="AR12">
-        <v>9739</v>
+        <v>9740</v>
       </c>
       <c r="AS12">
-        <v>8553</v>
+        <v>8552</v>
       </c>
       <c r="AT12">
-        <v>9798</v>
+        <v>9799</v>
       </c>
       <c r="AU12">
         <v>7957</v>
@@ -8481,28 +8576,28 @@
         <v>6489</v>
       </c>
       <c r="AW12">
-        <v>5302</v>
+        <v>5301</v>
       </c>
       <c r="AX12">
-        <v>4491</v>
+        <v>4490</v>
       </c>
       <c r="AY12">
         <v>3551</v>
       </c>
       <c r="AZ12">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="BA12">
-        <v>4048</v>
+        <v>4049</v>
       </c>
       <c r="BB12">
-        <v>4291</v>
+        <v>4290</v>
       </c>
       <c r="BC12">
         <v>5185</v>
       </c>
       <c r="BD12">
-        <v>6524</v>
+        <v>6523</v>
       </c>
       <c r="BE12">
         <v>8155</v>
@@ -8511,31 +8606,31 @@
         <v>7989</v>
       </c>
       <c r="BG12">
-        <v>8763</v>
+        <v>8765</v>
       </c>
       <c r="BH12">
-        <v>10163</v>
+        <v>10164</v>
       </c>
       <c r="BI12">
-        <v>10675</v>
+        <v>10676</v>
       </c>
       <c r="BJ12">
-        <v>9027</v>
+        <v>9024</v>
       </c>
       <c r="BK12">
-        <v>7440</v>
+        <v>7442</v>
       </c>
       <c r="BL12">
-        <v>5087</v>
+        <v>5086</v>
       </c>
       <c r="BM12">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="BN12">
         <v>2081</v>
       </c>
       <c r="BO12">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="BP12">
         <v>873</v>
@@ -8547,19 +8642,22 @@
         <v>275</v>
       </c>
       <c r="BS12">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="BT12">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="BU12">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BV12">
-        <v>675</v>
+        <v>683</v>
+      </c>
+      <c r="BW12">
+        <v>908</v>
       </c>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -8573,13 +8671,13 @@
         <v>1798</v>
       </c>
       <c r="E13">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="F13">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="G13">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H13">
         <v>1019</v>
@@ -8654,7 +8752,7 @@
         <v>860</v>
       </c>
       <c r="AF13">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AG13">
         <v>1869</v>
@@ -8663,7 +8761,7 @@
         <v>2904</v>
       </c>
       <c r="AI13">
-        <v>5305</v>
+        <v>5308</v>
       </c>
       <c r="AJ13">
         <v>7885</v>
@@ -8672,100 +8770,100 @@
         <v>8878</v>
       </c>
       <c r="AL13">
-        <v>8994</v>
+        <v>8996</v>
       </c>
       <c r="AM13">
-        <v>9237</v>
+        <v>9239</v>
       </c>
       <c r="AN13">
-        <v>8808</v>
+        <v>8810</v>
       </c>
       <c r="AO13">
-        <v>8818</v>
+        <v>8817</v>
       </c>
       <c r="AP13">
-        <v>10902</v>
+        <v>10900</v>
       </c>
       <c r="AQ13">
         <v>11997</v>
       </c>
       <c r="AR13">
-        <v>9512</v>
+        <v>9510</v>
       </c>
       <c r="AS13">
-        <v>8028</v>
+        <v>8027</v>
       </c>
       <c r="AT13">
         <v>9545</v>
       </c>
       <c r="AU13">
-        <v>7561</v>
+        <v>7560</v>
       </c>
       <c r="AV13">
-        <v>6231</v>
+        <v>6232</v>
       </c>
       <c r="AW13">
         <v>5114</v>
       </c>
       <c r="AX13">
-        <v>4281</v>
+        <v>4280</v>
       </c>
       <c r="AY13">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="AZ13">
         <v>3591</v>
       </c>
       <c r="BA13">
-        <v>4141</v>
+        <v>4140</v>
       </c>
       <c r="BB13">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="BC13">
-        <v>5340</v>
+        <v>5341</v>
       </c>
       <c r="BD13">
-        <v>6982</v>
+        <v>6981</v>
       </c>
       <c r="BE13">
-        <v>9088</v>
+        <v>9087</v>
       </c>
       <c r="BF13">
-        <v>8327</v>
+        <v>8326</v>
       </c>
       <c r="BG13">
-        <v>9275</v>
+        <v>9276</v>
       </c>
       <c r="BH13">
-        <v>10730</v>
+        <v>10725</v>
       </c>
       <c r="BI13">
-        <v>10829</v>
+        <v>10826</v>
       </c>
       <c r="BJ13">
-        <v>9582</v>
+        <v>9580</v>
       </c>
       <c r="BK13">
-        <v>7723</v>
+        <v>7724</v>
       </c>
       <c r="BL13">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="BM13">
-        <v>3988</v>
+        <v>3987</v>
       </c>
       <c r="BN13">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="BO13">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="BP13">
         <v>1076</v>
       </c>
       <c r="BQ13">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="BR13">
         <v>353</v>
@@ -8774,16 +8872,19 @@
         <v>270</v>
       </c>
       <c r="BT13">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="BU13">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="BV13">
-        <v>720</v>
+        <v>734</v>
+      </c>
+      <c r="BW13">
+        <v>975</v>
       </c>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -8800,7 +8901,7 @@
         <v>2384</v>
       </c>
       <c r="F14">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="G14">
         <v>1651</v>
@@ -8860,7 +8961,7 @@
         <v>643</v>
       </c>
       <c r="Z14">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AA14">
         <v>716</v>
@@ -8881,7 +8982,7 @@
         <v>1153</v>
       </c>
       <c r="AG14">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="AH14">
         <v>3098</v>
@@ -8893,40 +8994,40 @@
         <v>8086</v>
       </c>
       <c r="AK14">
-        <v>8965</v>
+        <v>8964</v>
       </c>
       <c r="AL14">
-        <v>9189</v>
+        <v>9190</v>
       </c>
       <c r="AM14">
         <v>9192</v>
       </c>
       <c r="AN14">
-        <v>8717</v>
+        <v>8718</v>
       </c>
       <c r="AO14">
         <v>9143</v>
       </c>
       <c r="AP14">
-        <v>10997</v>
+        <v>10996</v>
       </c>
       <c r="AQ14">
-        <v>12230</v>
+        <v>12229</v>
       </c>
       <c r="AR14">
         <v>9527</v>
       </c>
       <c r="AS14">
-        <v>8089</v>
+        <v>8084</v>
       </c>
       <c r="AT14">
-        <v>10144</v>
+        <v>10145</v>
       </c>
       <c r="AU14">
-        <v>8007</v>
+        <v>8006</v>
       </c>
       <c r="AV14">
-        <v>6341</v>
+        <v>6340</v>
       </c>
       <c r="AW14">
         <v>5193</v>
@@ -8935,10 +9036,10 @@
         <v>4460</v>
       </c>
       <c r="AY14">
-        <v>3597</v>
+        <v>3595</v>
       </c>
       <c r="AZ14">
-        <v>3714</v>
+        <v>3711</v>
       </c>
       <c r="BA14">
         <v>4182</v>
@@ -8950,37 +9051,37 @@
         <v>5759</v>
       </c>
       <c r="BD14">
-        <v>7592</v>
+        <v>7589</v>
       </c>
       <c r="BE14">
-        <v>9463</v>
+        <v>9462</v>
       </c>
       <c r="BF14">
-        <v>8988</v>
+        <v>8990</v>
       </c>
       <c r="BG14">
-        <v>9485</v>
+        <v>9484</v>
       </c>
       <c r="BH14">
         <v>11267</v>
       </c>
       <c r="BI14">
-        <v>11272</v>
+        <v>11274</v>
       </c>
       <c r="BJ14">
-        <v>10028</v>
+        <v>10026</v>
       </c>
       <c r="BK14">
-        <v>7966</v>
+        <v>7964</v>
       </c>
       <c r="BL14">
-        <v>5633</v>
+        <v>5632</v>
       </c>
       <c r="BM14">
         <v>4223</v>
       </c>
       <c r="BN14">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="BO14">
         <v>1692</v>
@@ -8989,25 +9090,28 @@
         <v>1102</v>
       </c>
       <c r="BQ14">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="BR14">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="BS14">
         <v>338</v>
       </c>
       <c r="BT14">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="BU14">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="BV14">
-        <v>894</v>
+        <v>902</v>
+      </c>
+      <c r="BW14">
+        <v>1143</v>
       </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -9102,58 +9206,58 @@
         <v>1302</v>
       </c>
       <c r="AF15">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="AG15">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="AH15">
         <v>3859</v>
       </c>
       <c r="AI15">
-        <v>6718</v>
+        <v>6717</v>
       </c>
       <c r="AJ15">
-        <v>9574</v>
+        <v>9575</v>
       </c>
       <c r="AK15">
-        <v>10482</v>
+        <v>10480</v>
       </c>
       <c r="AL15">
-        <v>10477</v>
+        <v>10478</v>
       </c>
       <c r="AM15">
-        <v>10086</v>
+        <v>10085</v>
       </c>
       <c r="AN15">
-        <v>9366</v>
+        <v>9367</v>
       </c>
       <c r="AO15">
-        <v>9472</v>
+        <v>9471</v>
       </c>
       <c r="AP15">
         <v>11517</v>
       </c>
       <c r="AQ15">
-        <v>13032</v>
+        <v>13031</v>
       </c>
       <c r="AR15">
-        <v>10049</v>
+        <v>10046</v>
       </c>
       <c r="AS15">
-        <v>9194</v>
+        <v>9196</v>
       </c>
       <c r="AT15">
-        <v>11603</v>
+        <v>11602</v>
       </c>
       <c r="AU15">
-        <v>9053</v>
+        <v>9052</v>
       </c>
       <c r="AV15">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="AW15">
-        <v>5765</v>
+        <v>5764</v>
       </c>
       <c r="AX15">
         <v>4906</v>
@@ -9165,73 +9269,76 @@
         <v>4117</v>
       </c>
       <c r="BA15">
-        <v>4535</v>
+        <v>4534</v>
       </c>
       <c r="BB15">
-        <v>4895</v>
+        <v>4896</v>
       </c>
       <c r="BC15">
-        <v>6021</v>
+        <v>6020</v>
       </c>
       <c r="BD15">
         <v>7898</v>
       </c>
       <c r="BE15">
-        <v>9866</v>
+        <v>9865</v>
       </c>
       <c r="BF15">
-        <v>9514</v>
+        <v>9511</v>
       </c>
       <c r="BG15">
-        <v>10137</v>
+        <v>10139</v>
       </c>
       <c r="BH15">
-        <v>12010</v>
+        <v>12007</v>
       </c>
       <c r="BI15">
-        <v>11858</v>
+        <v>11854</v>
       </c>
       <c r="BJ15">
-        <v>10458</v>
+        <v>10462</v>
       </c>
       <c r="BK15">
-        <v>8280</v>
+        <v>8277</v>
       </c>
       <c r="BL15">
         <v>5872</v>
       </c>
       <c r="BM15">
-        <v>4548</v>
+        <v>4545</v>
       </c>
       <c r="BN15">
         <v>2745</v>
       </c>
       <c r="BO15">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="BP15">
         <v>1181</v>
       </c>
       <c r="BQ15">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="BR15">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="BS15">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="BT15">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="BU15">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="BV15">
-        <v>1286</v>
+        <v>1306</v>
+      </c>
+      <c r="BW15">
+        <v>1479</v>
       </c>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -9251,7 +9358,7 @@
         <v>2487</v>
       </c>
       <c r="G16">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="H16">
         <v>1289</v>
@@ -9302,7 +9409,7 @@
         <v>510</v>
       </c>
       <c r="X16">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Y16">
         <v>838</v>
@@ -9326,118 +9433,118 @@
         <v>1436</v>
       </c>
       <c r="AF16">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="AG16">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="AH16">
-        <v>4476</v>
+        <v>4475</v>
       </c>
       <c r="AI16">
-        <v>7318</v>
+        <v>7321</v>
       </c>
       <c r="AJ16">
-        <v>10345</v>
+        <v>10346</v>
       </c>
       <c r="AK16">
         <v>11153</v>
       </c>
       <c r="AL16">
-        <v>10693</v>
+        <v>10692</v>
       </c>
       <c r="AM16">
-        <v>9923</v>
+        <v>9924</v>
       </c>
       <c r="AN16">
-        <v>8999</v>
+        <v>9000</v>
       </c>
       <c r="AO16">
-        <v>9151</v>
+        <v>9150</v>
       </c>
       <c r="AP16">
-        <v>10784</v>
+        <v>10780</v>
       </c>
       <c r="AQ16">
-        <v>12113</v>
+        <v>12108</v>
       </c>
       <c r="AR16">
-        <v>9439</v>
+        <v>9436</v>
       </c>
       <c r="AS16">
         <v>8420</v>
       </c>
       <c r="AT16">
-        <v>10782</v>
+        <v>10780</v>
       </c>
       <c r="AU16">
-        <v>8542</v>
+        <v>8539</v>
       </c>
       <c r="AV16">
-        <v>6396</v>
+        <v>6395</v>
       </c>
       <c r="AW16">
-        <v>5342</v>
+        <v>5340</v>
       </c>
       <c r="AX16">
-        <v>4490</v>
+        <v>4491</v>
       </c>
       <c r="AY16">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="AZ16">
         <v>3906</v>
       </c>
       <c r="BA16">
-        <v>4147</v>
+        <v>4148</v>
       </c>
       <c r="BB16">
-        <v>4272</v>
+        <v>4270</v>
       </c>
       <c r="BC16">
-        <v>5466</v>
+        <v>5465</v>
       </c>
       <c r="BD16">
-        <v>7014</v>
+        <v>7013</v>
       </c>
       <c r="BE16">
         <v>8406</v>
       </c>
       <c r="BF16">
-        <v>8379</v>
+        <v>8378</v>
       </c>
       <c r="BG16">
-        <v>9212</v>
+        <v>9214</v>
       </c>
       <c r="BH16">
-        <v>10901</v>
+        <v>10899</v>
       </c>
       <c r="BI16">
-        <v>10793</v>
+        <v>10791</v>
       </c>
       <c r="BJ16">
         <v>9215</v>
       </c>
       <c r="BK16">
-        <v>7458</v>
+        <v>7456</v>
       </c>
       <c r="BL16">
-        <v>5187</v>
+        <v>5184</v>
       </c>
       <c r="BM16">
-        <v>3949</v>
+        <v>3946</v>
       </c>
       <c r="BN16">
         <v>2455</v>
       </c>
       <c r="BO16">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="BP16">
         <v>1107</v>
       </c>
       <c r="BQ16">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="BR16">
         <v>460</v>
@@ -9446,16 +9553,19 @@
         <v>492</v>
       </c>
       <c r="BT16">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="BU16">
-        <v>1312</v>
+        <v>1317</v>
       </c>
       <c r="BV16">
-        <v>1686</v>
+        <v>1726</v>
+      </c>
+      <c r="BW16">
+        <v>1919</v>
       </c>
     </row>
-    <row r="17" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -9472,10 +9582,10 @@
         <v>2268</v>
       </c>
       <c r="F17">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="G17">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="H17">
         <v>1228</v>
@@ -9484,7 +9594,7 @@
         <v>957</v>
       </c>
       <c r="J17">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K17">
         <v>506</v>
@@ -9526,7 +9636,7 @@
         <v>521</v>
       </c>
       <c r="X17">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Y17">
         <v>1161</v>
@@ -9544,7 +9654,7 @@
         <v>1282</v>
       </c>
       <c r="AD17">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="AE17">
         <v>1585</v>
@@ -9553,49 +9663,49 @@
         <v>1737</v>
       </c>
       <c r="AG17">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="AH17">
-        <v>4384</v>
+        <v>4385</v>
       </c>
       <c r="AI17">
         <v>7567</v>
       </c>
       <c r="AJ17">
-        <v>10413</v>
+        <v>10412</v>
       </c>
       <c r="AK17">
-        <v>11734</v>
+        <v>11736</v>
       </c>
       <c r="AL17">
-        <v>11019</v>
+        <v>11020</v>
       </c>
       <c r="AM17">
-        <v>10201</v>
+        <v>10200</v>
       </c>
       <c r="AN17">
-        <v>8941</v>
+        <v>8940</v>
       </c>
       <c r="AO17">
-        <v>9178</v>
+        <v>9177</v>
       </c>
       <c r="AP17">
-        <v>10787</v>
+        <v>10785</v>
       </c>
       <c r="AQ17">
-        <v>12097</v>
+        <v>12095</v>
       </c>
       <c r="AR17">
-        <v>9073</v>
+        <v>9071</v>
       </c>
       <c r="AS17">
         <v>8587</v>
       </c>
       <c r="AT17">
-        <v>10891</v>
+        <v>10890</v>
       </c>
       <c r="AU17">
-        <v>8532</v>
+        <v>8531</v>
       </c>
       <c r="AV17">
         <v>6433</v>
@@ -9604,16 +9714,16 @@
         <v>5239</v>
       </c>
       <c r="AX17">
-        <v>4378</v>
+        <v>4377</v>
       </c>
       <c r="AY17">
-        <v>3651</v>
+        <v>3654</v>
       </c>
       <c r="AZ17">
         <v>3947</v>
       </c>
       <c r="BA17">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="BB17">
         <v>4398</v>
@@ -9622,25 +9732,25 @@
         <v>5423</v>
       </c>
       <c r="BD17">
-        <v>6906</v>
+        <v>6903</v>
       </c>
       <c r="BE17">
-        <v>8554</v>
+        <v>8556</v>
       </c>
       <c r="BF17">
-        <v>8510</v>
+        <v>8508</v>
       </c>
       <c r="BG17">
-        <v>9798</v>
+        <v>9795</v>
       </c>
       <c r="BH17">
-        <v>11546</v>
+        <v>11547</v>
       </c>
       <c r="BI17">
-        <v>11277</v>
+        <v>11276</v>
       </c>
       <c r="BJ17">
-        <v>9632</v>
+        <v>9635</v>
       </c>
       <c r="BK17">
         <v>7835</v>
@@ -9655,31 +9765,34 @@
         <v>2416</v>
       </c>
       <c r="BO17">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="BP17">
         <v>1204</v>
       </c>
       <c r="BQ17">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="BR17">
         <v>440</v>
       </c>
       <c r="BS17">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="BT17">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="BU17">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="BV17">
-        <v>2058</v>
+        <v>2079</v>
+      </c>
+      <c r="BW17">
+        <v>2278</v>
       </c>
     </row>
-    <row r="18" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -9708,7 +9821,7 @@
         <v>402</v>
       </c>
       <c r="J18">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K18">
         <v>260</v>
@@ -9741,7 +9854,7 @@
         <v>151</v>
       </c>
       <c r="U18">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="V18">
         <v>246</v>
@@ -9762,7 +9875,7 @@
         <v>835</v>
       </c>
       <c r="AB18">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AC18">
         <v>831</v>
@@ -9786,58 +9899,58 @@
         <v>4860</v>
       </c>
       <c r="AJ18">
-        <v>7187</v>
+        <v>7186</v>
       </c>
       <c r="AK18">
-        <v>8410</v>
+        <v>8409</v>
       </c>
       <c r="AL18">
-        <v>8709</v>
+        <v>8714</v>
       </c>
       <c r="AM18">
-        <v>8208</v>
+        <v>8210</v>
       </c>
       <c r="AN18">
-        <v>7456</v>
+        <v>7457</v>
       </c>
       <c r="AO18">
         <v>7716</v>
       </c>
       <c r="AP18">
-        <v>8822</v>
+        <v>8821</v>
       </c>
       <c r="AQ18">
         <v>8472</v>
       </c>
       <c r="AR18">
-        <v>5869</v>
+        <v>5870</v>
       </c>
       <c r="AS18">
-        <v>4959</v>
+        <v>4958</v>
       </c>
       <c r="AT18">
         <v>6382</v>
       </c>
       <c r="AU18">
-        <v>5392</v>
+        <v>5391</v>
       </c>
       <c r="AV18">
-        <v>4203</v>
+        <v>4202</v>
       </c>
       <c r="AW18">
-        <v>3473</v>
+        <v>3475</v>
       </c>
       <c r="AX18">
         <v>2921</v>
       </c>
       <c r="AY18">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="AZ18">
         <v>2619</v>
       </c>
       <c r="BA18">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="BB18">
         <v>3211</v>
@@ -9849,61 +9962,64 @@
         <v>5540</v>
       </c>
       <c r="BE18">
-        <v>7183</v>
+        <v>7184</v>
       </c>
       <c r="BF18">
-        <v>6611</v>
+        <v>6607</v>
       </c>
       <c r="BG18">
-        <v>7551</v>
+        <v>7553</v>
       </c>
       <c r="BH18">
-        <v>10813</v>
+        <v>10812</v>
       </c>
       <c r="BI18">
-        <v>10344</v>
+        <v>10342</v>
       </c>
       <c r="BJ18">
-        <v>8660</v>
+        <v>8663</v>
       </c>
       <c r="BK18">
-        <v>7046</v>
+        <v>7047</v>
       </c>
       <c r="BL18">
-        <v>4942</v>
+        <v>4941</v>
       </c>
       <c r="BM18">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="BN18">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="BO18">
         <v>1725</v>
       </c>
       <c r="BP18">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="BQ18">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="BR18">
         <v>440</v>
       </c>
       <c r="BS18">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="BT18">
         <v>580</v>
       </c>
       <c r="BU18">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="BV18">
-        <v>1578</v>
+        <v>1603</v>
+      </c>
+      <c r="BW18">
+        <v>1789</v>
       </c>
     </row>
-    <row r="19" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -9965,7 +10081,7 @@
         <v>103</v>
       </c>
       <c r="U19">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V19">
         <v>191</v>
@@ -10010,34 +10126,34 @@
         <v>2749</v>
       </c>
       <c r="AJ19">
-        <v>4081</v>
+        <v>4082</v>
       </c>
       <c r="AK19">
-        <v>4782</v>
+        <v>4785</v>
       </c>
       <c r="AL19">
-        <v>5343</v>
+        <v>5344</v>
       </c>
       <c r="AM19">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="AN19">
         <v>5186</v>
       </c>
       <c r="AO19">
-        <v>5160</v>
+        <v>5159</v>
       </c>
       <c r="AP19">
         <v>5690</v>
       </c>
       <c r="AQ19">
-        <v>5289</v>
+        <v>5288</v>
       </c>
       <c r="AR19">
         <v>3384</v>
       </c>
       <c r="AS19">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="AT19">
         <v>3330</v>
@@ -10055,7 +10171,7 @@
         <v>1724</v>
       </c>
       <c r="AY19">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="AZ19">
         <v>1570</v>
@@ -10067,67 +10183,70 @@
         <v>2307</v>
       </c>
       <c r="BC19">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="BD19">
-        <v>4178</v>
+        <v>4177</v>
       </c>
       <c r="BE19">
         <v>5732</v>
       </c>
       <c r="BF19">
-        <v>4848</v>
+        <v>4849</v>
       </c>
       <c r="BG19">
-        <v>5175</v>
+        <v>5178</v>
       </c>
       <c r="BH19">
-        <v>7659</v>
+        <v>7657</v>
       </c>
       <c r="BI19">
-        <v>8732</v>
+        <v>8733</v>
       </c>
       <c r="BJ19">
-        <v>7169</v>
+        <v>7168</v>
       </c>
       <c r="BK19">
         <v>6131</v>
       </c>
       <c r="BL19">
-        <v>4566</v>
+        <v>4567</v>
       </c>
       <c r="BM19">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="BN19">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="BO19">
         <v>1582</v>
       </c>
       <c r="BP19">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="BQ19">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="BR19">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BS19">
         <v>309</v>
       </c>
       <c r="BT19">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BU19">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="BV19">
-        <v>764</v>
+        <v>773</v>
+      </c>
+      <c r="BW19">
+        <v>982</v>
       </c>
     </row>
-    <row r="20" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>93</v>
       </c>
@@ -10183,7 +10302,7 @@
         <v>138</v>
       </c>
       <c r="S20">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T20">
         <v>115</v>
@@ -10228,34 +10347,34 @@
         <v>624</v>
       </c>
       <c r="AH20">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="AI20">
         <v>1839</v>
       </c>
       <c r="AJ20">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="AK20">
-        <v>3364</v>
+        <v>3365</v>
       </c>
       <c r="AL20">
-        <v>3615</v>
+        <v>3614</v>
       </c>
       <c r="AM20">
-        <v>3919</v>
+        <v>3920</v>
       </c>
       <c r="AN20">
-        <v>3818</v>
+        <v>3819</v>
       </c>
       <c r="AO20">
-        <v>3681</v>
+        <v>3682</v>
       </c>
       <c r="AP20">
-        <v>4262</v>
+        <v>4260</v>
       </c>
       <c r="AQ20">
-        <v>4306</v>
+        <v>4305</v>
       </c>
       <c r="AR20">
         <v>3023</v>
@@ -10264,7 +10383,7 @@
         <v>1944</v>
       </c>
       <c r="AT20">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="AU20">
         <v>2193</v>
@@ -10288,46 +10407,46 @@
         <v>2003</v>
       </c>
       <c r="BB20">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="BC20">
-        <v>3680</v>
+        <v>3679</v>
       </c>
       <c r="BD20">
-        <v>4768</v>
+        <v>4767</v>
       </c>
       <c r="BE20">
-        <v>6702</v>
+        <v>6701</v>
       </c>
       <c r="BF20">
-        <v>5189</v>
+        <v>5188</v>
       </c>
       <c r="BG20">
         <v>4699</v>
       </c>
       <c r="BH20">
-        <v>6988</v>
+        <v>6991</v>
       </c>
       <c r="BI20">
-        <v>8412</v>
+        <v>8413</v>
       </c>
       <c r="BJ20">
         <v>6878</v>
       </c>
       <c r="BK20">
-        <v>5570</v>
+        <v>5568</v>
       </c>
       <c r="BL20">
         <v>4115</v>
       </c>
       <c r="BM20">
-        <v>3419</v>
+        <v>3416</v>
       </c>
       <c r="BN20">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="BO20">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="BP20">
         <v>1143</v>
@@ -10336,7 +10455,7 @@
         <v>567</v>
       </c>
       <c r="BR20">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BS20">
         <v>239</v>
@@ -10348,10 +10467,13 @@
         <v>322</v>
       </c>
       <c r="BV20">
-        <v>473</v>
+        <v>480</v>
+      </c>
+      <c r="BW20">
+        <v>712</v>
       </c>
     </row>
-    <row r="21" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -10461,31 +10583,31 @@
         <v>2226</v>
       </c>
       <c r="AK21">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="AL21">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="AM21">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="AN21">
         <v>2321</v>
       </c>
       <c r="AO21">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="AP21">
-        <v>2662</v>
+        <v>2659</v>
       </c>
       <c r="AQ21">
         <v>3096</v>
       </c>
       <c r="AR21">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="AS21">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="AT21">
         <v>1902</v>
@@ -10512,13 +10634,13 @@
         <v>1885</v>
       </c>
       <c r="BB21">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="BC21">
-        <v>2990</v>
+        <v>2991</v>
       </c>
       <c r="BD21">
-        <v>4048</v>
+        <v>4050</v>
       </c>
       <c r="BE21">
         <v>5021</v>
@@ -10527,22 +10649,22 @@
         <v>4470</v>
       </c>
       <c r="BG21">
-        <v>4027</v>
+        <v>4025</v>
       </c>
       <c r="BH21">
         <v>5086</v>
       </c>
       <c r="BI21">
-        <v>5579</v>
+        <v>5578</v>
       </c>
       <c r="BJ21">
-        <v>5064</v>
+        <v>5063</v>
       </c>
       <c r="BK21">
-        <v>4116</v>
+        <v>4117</v>
       </c>
       <c r="BL21">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="BM21">
         <v>2299</v>
@@ -10560,22 +10682,26 @@
         <v>381</v>
       </c>
       <c r="BR21">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BS21">
         <v>174</v>
       </c>
       <c r="BT21">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BU21">
         <v>257</v>
       </c>
       <c r="BV21">
-        <v>345</v>
+        <v>349</v>
+      </c>
+      <c r="BW21">
+        <v>520</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/source/Altersverteilung.xlsx
+++ b/data/source/Altersverteilung.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2021-08-11\Tabellen_Webmaster_2021-08-12\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{17B2C513-5121-4616-B1DD-08010AB2240E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F88D41D-A17D-4405-A690-B0A0A562DC11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallzahlen" sheetId="1" r:id="rId1"/>
-    <sheet name="7-Tage-Inzidenz" sheetId="2" r:id="rId2"/>
+    <sheet name="7-Tages-Inzidenz" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="99">
   <si>
     <t>Altersgruppe</t>
   </si>
@@ -251,6 +246,15 @@
     <t>2021_31</t>
   </si>
   <si>
+    <t>2021_32</t>
+  </si>
+  <si>
+    <t>2021_33</t>
+  </si>
+  <si>
+    <t>2021_34</t>
+  </si>
+  <si>
     <t>Gesamt</t>
   </si>
   <si>
@@ -305,16 +309,16 @@
     <t>0 - 4</t>
   </si>
   <si>
-    <t>14 - 10</t>
+    <t>10 - 14</t>
   </si>
   <si>
-    <t>9 - 5</t>
+    <t>5 - 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1149,16 +1153,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BX21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CA21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1387,10 +1391,19 @@
       <c r="BX1" t="s">
         <v>75</v>
       </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <v>898</v>
@@ -1399,40 +1412,40 @@
         <v>6431</v>
       </c>
       <c r="D2">
-        <v>22393</v>
+        <v>22391</v>
       </c>
       <c r="E2">
-        <v>33971</v>
+        <v>33969</v>
       </c>
       <c r="F2">
-        <v>36053</v>
+        <v>36047</v>
       </c>
       <c r="G2">
-        <v>27138</v>
+        <v>27134</v>
       </c>
       <c r="H2">
-        <v>17334</v>
+        <v>17332</v>
       </c>
       <c r="I2">
-        <v>12345</v>
+        <v>12344</v>
       </c>
       <c r="J2">
-        <v>7435</v>
+        <v>7428</v>
       </c>
       <c r="K2">
-        <v>6238</v>
+        <v>6237</v>
       </c>
       <c r="L2">
         <v>4764</v>
       </c>
       <c r="M2">
-        <v>3598</v>
+        <v>3597</v>
       </c>
       <c r="N2">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="O2">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="P2">
         <v>2341</v>
@@ -1447,180 +1460,189 @@
         <v>2688</v>
       </c>
       <c r="T2">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="U2">
-        <v>3022</v>
+        <v>3023</v>
       </c>
       <c r="V2">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="W2">
-        <v>4831</v>
+        <v>4833</v>
       </c>
       <c r="X2">
-        <v>6058</v>
+        <v>6055</v>
       </c>
       <c r="Y2">
-        <v>7951</v>
+        <v>7950</v>
       </c>
       <c r="Z2">
-        <v>9599</v>
+        <v>9598</v>
       </c>
       <c r="AA2">
-        <v>8820</v>
+        <v>8825</v>
       </c>
       <c r="AB2">
-        <v>8618</v>
+        <v>8616</v>
       </c>
       <c r="AC2">
-        <v>9763</v>
+        <v>9760</v>
       </c>
       <c r="AD2">
-        <v>12290</v>
+        <v>12291</v>
       </c>
       <c r="AE2">
-        <v>13062</v>
+        <v>13058</v>
       </c>
       <c r="AF2">
-        <v>15925</v>
+        <v>15922</v>
       </c>
       <c r="AG2">
-        <v>26109</v>
+        <v>26110</v>
       </c>
       <c r="AH2">
-        <v>42059</v>
+        <v>42060</v>
       </c>
       <c r="AI2">
-        <v>74869</v>
+        <v>74861</v>
       </c>
       <c r="AJ2">
-        <v>111029</v>
+        <v>111018</v>
       </c>
       <c r="AK2">
-        <v>125768</v>
+        <v>125734</v>
       </c>
       <c r="AL2">
-        <v>127782</v>
+        <v>127771</v>
       </c>
       <c r="AM2">
-        <v>128381</v>
+        <v>128359</v>
       </c>
       <c r="AN2">
-        <v>123220</v>
+        <v>123187</v>
       </c>
       <c r="AO2">
-        <v>128400</v>
+        <v>128359</v>
       </c>
       <c r="AP2">
-        <v>156307</v>
+        <v>156290</v>
       </c>
       <c r="AQ2">
-        <v>174745</v>
+        <v>174721</v>
       </c>
       <c r="AR2">
-        <v>138997</v>
+        <v>138954</v>
       </c>
       <c r="AS2">
-        <v>123084</v>
+        <v>123070</v>
       </c>
       <c r="AT2">
-        <v>145468</v>
+        <v>145441</v>
       </c>
       <c r="AU2">
-        <v>118930</v>
+        <v>118914</v>
       </c>
       <c r="AV2">
-        <v>95533</v>
+        <v>95521</v>
       </c>
       <c r="AW2">
-        <v>78116</v>
+        <v>78118</v>
       </c>
       <c r="AX2">
-        <v>64570</v>
+        <v>64563</v>
       </c>
       <c r="AY2">
-        <v>50801</v>
+        <v>50793</v>
       </c>
       <c r="AZ2">
-        <v>52407</v>
+        <v>52395</v>
       </c>
       <c r="BA2">
-        <v>56358</v>
+        <v>56348</v>
       </c>
       <c r="BB2">
-        <v>58368</v>
+        <v>58360</v>
       </c>
       <c r="BC2">
-        <v>71308</v>
+        <v>71291</v>
       </c>
       <c r="BD2">
-        <v>92593</v>
+        <v>92567</v>
       </c>
       <c r="BE2">
-        <v>116272</v>
+        <v>116270</v>
       </c>
       <c r="BF2">
-        <v>110098</v>
+        <v>110097</v>
       </c>
       <c r="BG2">
-        <v>118250</v>
+        <v>118233</v>
       </c>
       <c r="BH2">
-        <v>142027</v>
+        <v>142007</v>
       </c>
       <c r="BI2">
-        <v>144759</v>
+        <v>144756</v>
       </c>
       <c r="BJ2">
-        <v>124851</v>
+        <v>124823</v>
       </c>
       <c r="BK2">
-        <v>101011</v>
+        <v>101010</v>
       </c>
       <c r="BL2">
-        <v>70862</v>
+        <v>70852</v>
       </c>
       <c r="BM2">
-        <v>52749</v>
+        <v>52732</v>
       </c>
       <c r="BN2">
-        <v>29899</v>
+        <v>29898</v>
       </c>
       <c r="BO2">
-        <v>20713</v>
+        <v>20699</v>
       </c>
       <c r="BP2">
-        <v>14032</v>
+        <v>14027</v>
       </c>
       <c r="BQ2">
-        <v>7254</v>
+        <v>7261</v>
       </c>
       <c r="BR2">
-        <v>4809</v>
+        <v>4813</v>
       </c>
       <c r="BS2">
-        <v>4340</v>
+        <v>4343</v>
       </c>
       <c r="BT2">
         <v>5556</v>
       </c>
       <c r="BU2">
-        <v>9067</v>
+        <v>9076</v>
       </c>
       <c r="BV2">
-        <v>12591</v>
+        <v>12600</v>
       </c>
       <c r="BW2">
-        <v>15436</v>
+        <v>15478</v>
       </c>
       <c r="BX2">
-        <v>19965</v>
+        <v>20381</v>
+      </c>
+      <c r="BY2">
+        <v>32008</v>
+      </c>
+      <c r="BZ2">
+        <v>49469</v>
+      </c>
+      <c r="CA2">
+        <v>64716</v>
       </c>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1632,7 +1654,7 @@
         <v>102</v>
       </c>
       <c r="E3">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F3">
         <v>1170</v>
@@ -1725,55 +1747,55 @@
         <v>888</v>
       </c>
       <c r="AJ3">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="AK3">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="AL3">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="AM3">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="AN3">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="AO3">
-        <v>4193</v>
+        <v>4191</v>
       </c>
       <c r="AP3">
         <v>5400</v>
       </c>
       <c r="AQ3">
-        <v>5969</v>
+        <v>5971</v>
       </c>
       <c r="AR3">
-        <v>5237</v>
+        <v>5234</v>
       </c>
       <c r="AS3">
         <v>4978</v>
       </c>
       <c r="AT3">
-        <v>5403</v>
+        <v>5402</v>
       </c>
       <c r="AU3">
-        <v>5024</v>
+        <v>5019</v>
       </c>
       <c r="AV3">
         <v>3942</v>
       </c>
       <c r="AW3">
-        <v>2872</v>
+        <v>2874</v>
       </c>
       <c r="AX3">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="AY3">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="AZ3">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="BA3">
         <v>827</v>
@@ -1782,13 +1804,13 @@
         <v>610</v>
       </c>
       <c r="BC3">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BD3">
         <v>638</v>
       </c>
       <c r="BE3">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="BF3">
         <v>626</v>
@@ -1797,7 +1819,7 @@
         <v>717</v>
       </c>
       <c r="BH3">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="BI3">
         <v>799</v>
@@ -1809,7 +1831,7 @@
         <v>544</v>
       </c>
       <c r="BL3">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="BM3">
         <v>277</v>
@@ -1836,21 +1858,30 @@
         <v>17</v>
       </c>
       <c r="BU3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BV3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BW3">
         <v>58</v>
       </c>
       <c r="BX3">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="BY3">
+        <v>131</v>
+      </c>
+      <c r="BZ3">
+        <v>139</v>
+      </c>
+      <c r="CA3">
+        <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -1946,13 +1977,13 @@
         <v>165</v>
       </c>
       <c r="AG4">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AH4">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AI4">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="AJ4">
         <v>1786</v>
@@ -1961,7 +1992,7 @@
         <v>2285</v>
       </c>
       <c r="AL4">
-        <v>2834</v>
+        <v>2830</v>
       </c>
       <c r="AM4">
         <v>3377</v>
@@ -1973,31 +2004,31 @@
         <v>4596</v>
       </c>
       <c r="AP4">
-        <v>5911</v>
+        <v>5907</v>
       </c>
       <c r="AQ4">
-        <v>6930</v>
+        <v>6933</v>
       </c>
       <c r="AR4">
-        <v>5825</v>
+        <v>5821</v>
       </c>
       <c r="AS4">
         <v>5585</v>
       </c>
       <c r="AT4">
-        <v>6069</v>
+        <v>6066</v>
       </c>
       <c r="AU4">
         <v>5557</v>
       </c>
       <c r="AV4">
-        <v>4444</v>
+        <v>4440</v>
       </c>
       <c r="AW4">
         <v>3322</v>
       </c>
       <c r="AX4">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="AY4">
         <v>1650</v>
@@ -2012,28 +2043,28 @@
         <v>964</v>
       </c>
       <c r="BC4">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="BD4">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="BE4">
         <v>1260</v>
       </c>
       <c r="BF4">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="BG4">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="BH4">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="BI4">
         <v>1174</v>
       </c>
       <c r="BJ4">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="BK4">
         <v>857</v>
@@ -2066,21 +2097,30 @@
         <v>30</v>
       </c>
       <c r="BU4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BV4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BW4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BX4">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="BY4">
+        <v>147</v>
+      </c>
+      <c r="BZ4">
+        <v>220</v>
+      </c>
+      <c r="CA4">
+        <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -2104,7 +2144,7 @@
         <v>1176</v>
       </c>
       <c r="I5">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J5">
         <v>452</v>
@@ -2182,52 +2222,52 @@
         <v>857</v>
       </c>
       <c r="AI5">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="AJ5">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="AK5">
         <v>3432</v>
       </c>
       <c r="AL5">
-        <v>3800</v>
+        <v>3797</v>
       </c>
       <c r="AM5">
-        <v>4359</v>
+        <v>4357</v>
       </c>
       <c r="AN5">
-        <v>4775</v>
+        <v>4773</v>
       </c>
       <c r="AO5">
         <v>5444</v>
       </c>
       <c r="AP5">
-        <v>7074</v>
+        <v>7073</v>
       </c>
       <c r="AQ5">
-        <v>8257</v>
+        <v>8256</v>
       </c>
       <c r="AR5">
-        <v>7418</v>
+        <v>7411</v>
       </c>
       <c r="AS5">
-        <v>6866</v>
+        <v>6864</v>
       </c>
       <c r="AT5">
-        <v>7673</v>
+        <v>7667</v>
       </c>
       <c r="AU5">
-        <v>6692</v>
+        <v>6691</v>
       </c>
       <c r="AV5">
-        <v>5330</v>
+        <v>5331</v>
       </c>
       <c r="AW5">
-        <v>4193</v>
+        <v>4192</v>
       </c>
       <c r="AX5">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="AY5">
         <v>2290</v>
@@ -2239,40 +2279,40 @@
         <v>1778</v>
       </c>
       <c r="BB5">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="BC5">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="BD5">
         <v>1794</v>
       </c>
       <c r="BE5">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="BF5">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="BG5">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="BH5">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="BI5">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="BJ5">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="BK5">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="BL5">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="BM5">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="BN5">
         <v>381</v>
@@ -2281,22 +2321,22 @@
         <v>212</v>
       </c>
       <c r="BP5">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BQ5">
         <v>62</v>
       </c>
       <c r="BR5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BS5">
         <v>38</v>
       </c>
       <c r="BT5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BU5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BV5">
         <v>76</v>
@@ -2305,12 +2345,21 @@
         <v>110</v>
       </c>
       <c r="BX5">
-        <v>169</v>
+        <v>172</v>
+      </c>
+      <c r="BY5">
+        <v>232</v>
+      </c>
+      <c r="BZ5">
+        <v>296</v>
+      </c>
+      <c r="CA5">
+        <v>472</v>
       </c>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -2322,7 +2371,7 @@
         <v>571</v>
       </c>
       <c r="E6">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="F6">
         <v>1788</v>
@@ -2403,7 +2452,7 @@
         <v>233</v>
       </c>
       <c r="AF6">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG6">
         <v>504</v>
@@ -2412,7 +2461,7 @@
         <v>903</v>
       </c>
       <c r="AI6">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="AJ6">
         <v>2644</v>
@@ -2421,34 +2470,34 @@
         <v>3053</v>
       </c>
       <c r="AL6">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="AM6">
-        <v>3381</v>
+        <v>3379</v>
       </c>
       <c r="AN6">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="AO6">
-        <v>3969</v>
+        <v>3965</v>
       </c>
       <c r="AP6">
-        <v>4999</v>
+        <v>5001</v>
       </c>
       <c r="AQ6">
-        <v>5939</v>
+        <v>5936</v>
       </c>
       <c r="AR6">
-        <v>5102</v>
+        <v>5103</v>
       </c>
       <c r="AS6">
-        <v>4638</v>
+        <v>4636</v>
       </c>
       <c r="AT6">
-        <v>5221</v>
+        <v>5215</v>
       </c>
       <c r="AU6">
-        <v>4314</v>
+        <v>4313</v>
       </c>
       <c r="AV6">
         <v>3409</v>
@@ -2460,7 +2509,7 @@
         <v>2198</v>
       </c>
       <c r="AY6">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="AZ6">
         <v>1712</v>
@@ -2475,34 +2524,34 @@
         <v>1424</v>
       </c>
       <c r="BD6">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="BE6">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="BF6">
-        <v>2180</v>
+        <v>2177</v>
       </c>
       <c r="BG6">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="BH6">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="BI6">
         <v>2488</v>
       </c>
       <c r="BJ6">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="BK6">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="BL6">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="BM6">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="BN6">
         <v>409</v>
@@ -2523,7 +2572,7 @@
         <v>45</v>
       </c>
       <c r="BT6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BU6">
         <v>50</v>
@@ -2532,15 +2581,24 @@
         <v>64</v>
       </c>
       <c r="BW6">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BX6">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="BY6">
+        <v>227</v>
+      </c>
+      <c r="BZ6">
+        <v>283</v>
+      </c>
+      <c r="CA6">
+        <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -2561,7 +2619,7 @@
         <v>1043</v>
       </c>
       <c r="H7">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I7">
         <v>423</v>
@@ -2627,7 +2685,7 @@
         <v>151</v>
       </c>
       <c r="AD7">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AE7">
         <v>267</v>
@@ -2648,46 +2706,46 @@
         <v>2883</v>
       </c>
       <c r="AK7">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="AL7">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="AM7">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="AN7">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="AO7">
         <v>3481</v>
       </c>
       <c r="AP7">
-        <v>4386</v>
+        <v>4387</v>
       </c>
       <c r="AQ7">
-        <v>5153</v>
+        <v>5154</v>
       </c>
       <c r="AR7">
-        <v>4447</v>
+        <v>4446</v>
       </c>
       <c r="AS7">
-        <v>4129</v>
+        <v>4128</v>
       </c>
       <c r="AT7">
         <v>4835</v>
       </c>
       <c r="AU7">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="AV7">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="AW7">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="AX7">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="AY7">
         <v>1577</v>
@@ -2696,16 +2754,16 @@
         <v>1599</v>
       </c>
       <c r="BA7">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="BB7">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="BC7">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="BD7">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BE7">
         <v>2840</v>
@@ -2717,7 +2775,7 @@
         <v>3143</v>
       </c>
       <c r="BH7">
-        <v>3613</v>
+        <v>3611</v>
       </c>
       <c r="BI7">
         <v>3370</v>
@@ -2726,7 +2784,7 @@
         <v>2879</v>
       </c>
       <c r="BK7">
-        <v>2303</v>
+        <v>2306</v>
       </c>
       <c r="BL7">
         <v>1593</v>
@@ -2753,7 +2811,7 @@
         <v>67</v>
       </c>
       <c r="BT7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BU7">
         <v>67</v>
@@ -2765,12 +2823,21 @@
         <v>168</v>
       </c>
       <c r="BX7">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="BY7">
+        <v>297</v>
+      </c>
+      <c r="BZ7">
+        <v>394</v>
+      </c>
+      <c r="CA7">
+        <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B8">
         <v>25</v>
@@ -2833,7 +2900,7 @@
         <v>71</v>
       </c>
       <c r="V8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W8">
         <v>86</v>
@@ -2866,58 +2933,58 @@
         <v>450</v>
       </c>
       <c r="AG8">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AH8">
         <v>1282</v>
       </c>
       <c r="AI8">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="AJ8">
-        <v>3553</v>
+        <v>3551</v>
       </c>
       <c r="AK8">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="AL8">
         <v>4014</v>
       </c>
       <c r="AM8">
-        <v>4151</v>
+        <v>4152</v>
       </c>
       <c r="AN8">
-        <v>4135</v>
+        <v>4134</v>
       </c>
       <c r="AO8">
         <v>4116</v>
       </c>
       <c r="AP8">
-        <v>5170</v>
+        <v>5169</v>
       </c>
       <c r="AQ8">
-        <v>6356</v>
+        <v>6354</v>
       </c>
       <c r="AR8">
-        <v>5584</v>
+        <v>5582</v>
       </c>
       <c r="AS8">
-        <v>4975</v>
+        <v>4976</v>
       </c>
       <c r="AT8">
-        <v>5732</v>
+        <v>5731</v>
       </c>
       <c r="AU8">
-        <v>4415</v>
+        <v>4417</v>
       </c>
       <c r="AV8">
         <v>3625</v>
       </c>
       <c r="AW8">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="AX8">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="AY8">
         <v>1914</v>
@@ -2926,46 +2993,46 @@
         <v>2043</v>
       </c>
       <c r="BA8">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="BB8">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="BC8">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="BD8">
         <v>3189</v>
       </c>
       <c r="BE8">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="BF8">
         <v>3964</v>
       </c>
       <c r="BG8">
-        <v>4305</v>
+        <v>4306</v>
       </c>
       <c r="BH8">
-        <v>4912</v>
+        <v>4910</v>
       </c>
       <c r="BI8">
         <v>4628</v>
       </c>
       <c r="BJ8">
-        <v>3970</v>
+        <v>3971</v>
       </c>
       <c r="BK8">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="BL8">
         <v>2319</v>
       </c>
       <c r="BM8">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="BN8">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="BO8">
         <v>594</v>
@@ -2983,24 +3050,33 @@
         <v>78</v>
       </c>
       <c r="BT8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BV8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="BW8">
         <v>240</v>
       </c>
       <c r="BX8">
-        <v>279</v>
+        <v>283</v>
+      </c>
+      <c r="BY8">
+        <v>403</v>
+      </c>
+      <c r="BZ8">
+        <v>591</v>
+      </c>
+      <c r="CA8">
+        <v>801</v>
       </c>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B9">
         <v>63</v>
@@ -3009,7 +3085,7 @@
         <v>429</v>
       </c>
       <c r="D9">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="E9">
         <v>2522</v>
@@ -3036,7 +3112,7 @@
         <v>239</v>
       </c>
       <c r="M9">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N9">
         <v>169</v>
@@ -3087,7 +3163,7 @@
         <v>339</v>
       </c>
       <c r="AD9">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AE9">
         <v>542</v>
@@ -3105,19 +3181,19 @@
         <v>3957</v>
       </c>
       <c r="AJ9">
-        <v>5990</v>
+        <v>5988</v>
       </c>
       <c r="AK9">
-        <v>6857</v>
+        <v>6854</v>
       </c>
       <c r="AL9">
-        <v>6925</v>
+        <v>6926</v>
       </c>
       <c r="AM9">
         <v>7298</v>
       </c>
       <c r="AN9">
-        <v>7007</v>
+        <v>7005</v>
       </c>
       <c r="AO9">
         <v>7648</v>
@@ -3126,28 +3202,28 @@
         <v>9424</v>
       </c>
       <c r="AQ9">
-        <v>11036</v>
+        <v>11039</v>
       </c>
       <c r="AR9">
-        <v>9183</v>
+        <v>9180</v>
       </c>
       <c r="AS9">
-        <v>8263</v>
+        <v>8262</v>
       </c>
       <c r="AT9">
         <v>9276</v>
       </c>
       <c r="AU9">
-        <v>7551</v>
+        <v>7552</v>
       </c>
       <c r="AV9">
-        <v>6239</v>
+        <v>6238</v>
       </c>
       <c r="AW9">
-        <v>5123</v>
+        <v>5122</v>
       </c>
       <c r="AX9">
-        <v>4212</v>
+        <v>4215</v>
       </c>
       <c r="AY9">
         <v>3187</v>
@@ -3156,13 +3232,13 @@
         <v>3248</v>
       </c>
       <c r="BA9">
-        <v>3516</v>
+        <v>3514</v>
       </c>
       <c r="BB9">
         <v>3419</v>
       </c>
       <c r="BC9">
-        <v>4120</v>
+        <v>4119</v>
       </c>
       <c r="BD9">
         <v>5307</v>
@@ -3171,43 +3247,43 @@
         <v>6570</v>
       </c>
       <c r="BF9">
-        <v>6404</v>
+        <v>6406</v>
       </c>
       <c r="BG9">
-        <v>6875</v>
+        <v>6874</v>
       </c>
       <c r="BH9">
-        <v>7594</v>
+        <v>7592</v>
       </c>
       <c r="BI9">
-        <v>7759</v>
+        <v>7758</v>
       </c>
       <c r="BJ9">
-        <v>6800</v>
+        <v>6799</v>
       </c>
       <c r="BK9">
         <v>5530</v>
       </c>
       <c r="BL9">
-        <v>3735</v>
+        <v>3733</v>
       </c>
       <c r="BM9">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="BN9">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="BO9">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="BP9">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="BQ9">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BR9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BS9">
         <v>155</v>
@@ -3219,18 +3295,27 @@
         <v>235</v>
       </c>
       <c r="BV9">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BW9">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="BX9">
-        <v>465</v>
+        <v>478</v>
+      </c>
+      <c r="BY9">
+        <v>708</v>
+      </c>
+      <c r="BZ9">
+        <v>979</v>
+      </c>
+      <c r="CA9">
+        <v>1459</v>
       </c>
     </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B10">
         <v>76</v>
@@ -3239,7 +3324,7 @@
         <v>749</v>
       </c>
       <c r="D10">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="E10">
         <v>3593</v>
@@ -3272,7 +3357,7 @@
         <v>237</v>
       </c>
       <c r="O10">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P10">
         <v>133</v>
@@ -3299,7 +3384,7 @@
         <v>288</v>
       </c>
       <c r="X10">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Y10">
         <v>325</v>
@@ -3323,118 +3408,118 @@
         <v>866</v>
       </c>
       <c r="AF10">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AG10">
         <v>1872</v>
       </c>
       <c r="AH10">
-        <v>2999</v>
+        <v>3002</v>
       </c>
       <c r="AI10">
         <v>5757</v>
       </c>
       <c r="AJ10">
-        <v>8975</v>
+        <v>8973</v>
       </c>
       <c r="AK10">
-        <v>10168</v>
+        <v>10164</v>
       </c>
       <c r="AL10">
-        <v>10294</v>
+        <v>10293</v>
       </c>
       <c r="AM10">
-        <v>10251</v>
+        <v>10252</v>
       </c>
       <c r="AN10">
-        <v>9875</v>
+        <v>9874</v>
       </c>
       <c r="AO10">
-        <v>10378</v>
+        <v>10374</v>
       </c>
       <c r="AP10">
         <v>13047</v>
       </c>
       <c r="AQ10">
-        <v>15000</v>
+        <v>14998</v>
       </c>
       <c r="AR10">
-        <v>12394</v>
+        <v>12390</v>
       </c>
       <c r="AS10">
-        <v>11095</v>
+        <v>11093</v>
       </c>
       <c r="AT10">
-        <v>12333</v>
+        <v>12328</v>
       </c>
       <c r="AU10">
-        <v>10032</v>
+        <v>10031</v>
       </c>
       <c r="AV10">
         <v>8336</v>
       </c>
       <c r="AW10">
-        <v>7010</v>
+        <v>7009</v>
       </c>
       <c r="AX10">
-        <v>5810</v>
+        <v>5808</v>
       </c>
       <c r="AY10">
-        <v>4507</v>
+        <v>4508</v>
       </c>
       <c r="AZ10">
-        <v>4604</v>
+        <v>4603</v>
       </c>
       <c r="BA10">
-        <v>4838</v>
+        <v>4837</v>
       </c>
       <c r="BB10">
-        <v>4636</v>
+        <v>4638</v>
       </c>
       <c r="BC10">
-        <v>5714</v>
+        <v>5710</v>
       </c>
       <c r="BD10">
-        <v>7262</v>
+        <v>7263</v>
       </c>
       <c r="BE10">
-        <v>9098</v>
+        <v>9096</v>
       </c>
       <c r="BF10">
-        <v>8945</v>
+        <v>8946</v>
       </c>
       <c r="BG10">
         <v>9680</v>
       </c>
       <c r="BH10">
-        <v>10670</v>
+        <v>10668</v>
       </c>
       <c r="BI10">
-        <v>11027</v>
+        <v>11026</v>
       </c>
       <c r="BJ10">
-        <v>9929</v>
+        <v>9927</v>
       </c>
       <c r="BK10">
-        <v>7822</v>
+        <v>7821</v>
       </c>
       <c r="BL10">
-        <v>5326</v>
+        <v>5327</v>
       </c>
       <c r="BM10">
         <v>3578</v>
       </c>
       <c r="BN10">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="BO10">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="BP10">
         <v>795</v>
       </c>
       <c r="BQ10">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BR10">
         <v>245</v>
@@ -3443,24 +3528,33 @@
         <v>230</v>
       </c>
       <c r="BT10">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BU10">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="BV10">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="BW10">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="BX10">
-        <v>772</v>
+        <v>786</v>
+      </c>
+      <c r="BY10">
+        <v>1247</v>
+      </c>
+      <c r="BZ10">
+        <v>1803</v>
+      </c>
+      <c r="CA10">
+        <v>2334</v>
       </c>
     </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B11">
         <v>133</v>
@@ -3469,16 +3563,16 @@
         <v>979</v>
       </c>
       <c r="D11">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="E11">
         <v>4001</v>
       </c>
       <c r="F11">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="G11">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="H11">
         <v>1560</v>
@@ -3487,7 +3581,7 @@
         <v>986</v>
       </c>
       <c r="J11">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="K11">
         <v>521</v>
@@ -3535,10 +3629,10 @@
         <v>473</v>
       </c>
       <c r="Z11">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AA11">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AB11">
         <v>549</v>
@@ -3556,43 +3650,43 @@
         <v>1203</v>
       </c>
       <c r="AG11">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="AH11">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="AI11">
-        <v>6421</v>
+        <v>6418</v>
       </c>
       <c r="AJ11">
         <v>9769</v>
       </c>
       <c r="AK11">
-        <v>10966</v>
+        <v>10964</v>
       </c>
       <c r="AL11">
-        <v>11000</v>
+        <v>10998</v>
       </c>
       <c r="AM11">
-        <v>10848</v>
+        <v>10844</v>
       </c>
       <c r="AN11">
-        <v>10332</v>
+        <v>10331</v>
       </c>
       <c r="AO11">
-        <v>10551</v>
+        <v>10546</v>
       </c>
       <c r="AP11">
         <v>13254</v>
       </c>
       <c r="AQ11">
-        <v>14921</v>
+        <v>14918</v>
       </c>
       <c r="AR11">
-        <v>11979</v>
+        <v>11978</v>
       </c>
       <c r="AS11">
-        <v>10527</v>
+        <v>10526</v>
       </c>
       <c r="AT11">
         <v>12102</v>
@@ -3601,73 +3695,73 @@
         <v>9814</v>
       </c>
       <c r="AV11">
-        <v>8179</v>
+        <v>8177</v>
       </c>
       <c r="AW11">
         <v>6675</v>
       </c>
       <c r="AX11">
-        <v>5304</v>
+        <v>5305</v>
       </c>
       <c r="AY11">
-        <v>4309</v>
+        <v>4311</v>
       </c>
       <c r="AZ11">
-        <v>4504</v>
+        <v>4503</v>
       </c>
       <c r="BA11">
-        <v>4753</v>
+        <v>4752</v>
       </c>
       <c r="BB11">
-        <v>4946</v>
+        <v>4945</v>
       </c>
       <c r="BC11">
-        <v>5902</v>
+        <v>5904</v>
       </c>
       <c r="BD11">
-        <v>7535</v>
+        <v>7534</v>
       </c>
       <c r="BE11">
-        <v>9347</v>
+        <v>9349</v>
       </c>
       <c r="BF11">
-        <v>9122</v>
+        <v>9124</v>
       </c>
       <c r="BG11">
-        <v>9957</v>
+        <v>9955</v>
       </c>
       <c r="BH11">
-        <v>11115</v>
+        <v>11111</v>
       </c>
       <c r="BI11">
-        <v>11636</v>
+        <v>11639</v>
       </c>
       <c r="BJ11">
         <v>10153</v>
       </c>
       <c r="BK11">
-        <v>8023</v>
+        <v>8022</v>
       </c>
       <c r="BL11">
-        <v>5470</v>
+        <v>5471</v>
       </c>
       <c r="BM11">
-        <v>3777</v>
+        <v>3778</v>
       </c>
       <c r="BN11">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="BO11">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="BP11">
         <v>823</v>
       </c>
       <c r="BQ11">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BR11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="BS11">
         <v>223</v>
@@ -3676,21 +3770,30 @@
         <v>286</v>
       </c>
       <c r="BU11">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="BV11">
         <v>620</v>
       </c>
       <c r="BW11">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="BX11">
-        <v>951</v>
+        <v>974</v>
+      </c>
+      <c r="BY11">
+        <v>1639</v>
+      </c>
+      <c r="BZ11">
+        <v>2521</v>
+      </c>
+      <c r="CA11">
+        <v>3260</v>
       </c>
     </row>
-    <row r="12" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B12">
         <v>99</v>
@@ -3708,7 +3811,7 @@
         <v>2710</v>
       </c>
       <c r="G12">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="H12">
         <v>1172</v>
@@ -3756,7 +3859,7 @@
         <v>334</v>
       </c>
       <c r="W12">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="X12">
         <v>456</v>
@@ -3771,7 +3874,7 @@
         <v>605</v>
       </c>
       <c r="AB12">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AC12">
         <v>696</v>
@@ -3786,34 +3889,34 @@
         <v>1201</v>
       </c>
       <c r="AG12">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="AH12">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="AI12">
-        <v>5822</v>
+        <v>5821</v>
       </c>
       <c r="AJ12">
-        <v>8392</v>
+        <v>8395</v>
       </c>
       <c r="AK12">
-        <v>9481</v>
+        <v>9477</v>
       </c>
       <c r="AL12">
-        <v>9280</v>
+        <v>9283</v>
       </c>
       <c r="AM12">
         <v>9674</v>
       </c>
       <c r="AN12">
-        <v>9063</v>
+        <v>9060</v>
       </c>
       <c r="AO12">
-        <v>9236</v>
+        <v>9235</v>
       </c>
       <c r="AP12">
-        <v>11095</v>
+        <v>11092</v>
       </c>
       <c r="AQ12">
         <v>12440</v>
@@ -3825,19 +3928,19 @@
         <v>8552</v>
       </c>
       <c r="AT12">
-        <v>9798</v>
+        <v>9795</v>
       </c>
       <c r="AU12">
-        <v>7958</v>
+        <v>7955</v>
       </c>
       <c r="AV12">
         <v>6489</v>
       </c>
       <c r="AW12">
-        <v>5301</v>
+        <v>5302</v>
       </c>
       <c r="AX12">
-        <v>4491</v>
+        <v>4492</v>
       </c>
       <c r="AY12">
         <v>3551</v>
@@ -3846,16 +3949,16 @@
         <v>3774</v>
       </c>
       <c r="BA12">
-        <v>4049</v>
+        <v>4050</v>
       </c>
       <c r="BB12">
         <v>4289</v>
       </c>
       <c r="BC12">
-        <v>5185</v>
+        <v>5184</v>
       </c>
       <c r="BD12">
-        <v>6523</v>
+        <v>6517</v>
       </c>
       <c r="BE12">
         <v>8155</v>
@@ -3864,13 +3967,13 @@
         <v>7992</v>
       </c>
       <c r="BG12">
-        <v>8767</v>
+        <v>8766</v>
       </c>
       <c r="BH12">
-        <v>10165</v>
+        <v>10164</v>
       </c>
       <c r="BI12">
-        <v>10675</v>
+        <v>10676</v>
       </c>
       <c r="BJ12">
         <v>9024</v>
@@ -3879,7 +3982,7 @@
         <v>7441</v>
       </c>
       <c r="BL12">
-        <v>5086</v>
+        <v>5087</v>
       </c>
       <c r="BM12">
         <v>3589</v>
@@ -3888,16 +3991,16 @@
         <v>2081</v>
       </c>
       <c r="BO12">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="BP12">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="BQ12">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="BR12">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BS12">
         <v>258</v>
@@ -3909,18 +4012,27 @@
         <v>435</v>
       </c>
       <c r="BV12">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="BW12">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="BX12">
-        <v>1156</v>
+        <v>1172</v>
+      </c>
+      <c r="BY12">
+        <v>1945</v>
+      </c>
+      <c r="BZ12">
+        <v>3088</v>
+      </c>
+      <c r="CA12">
+        <v>4029</v>
       </c>
     </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B13">
         <v>85</v>
@@ -3938,7 +4050,7 @@
         <v>2306</v>
       </c>
       <c r="G13">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H13">
         <v>1019</v>
@@ -3959,7 +4071,7 @@
         <v>243</v>
       </c>
       <c r="N13">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O13">
         <v>175</v>
@@ -3986,10 +4098,10 @@
         <v>321</v>
       </c>
       <c r="W13">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="X13">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="Y13">
         <v>639</v>
@@ -4022,112 +4134,112 @@
         <v>2904</v>
       </c>
       <c r="AI13">
-        <v>5308</v>
+        <v>5307</v>
       </c>
       <c r="AJ13">
-        <v>7886</v>
+        <v>7884</v>
       </c>
       <c r="AK13">
-        <v>8878</v>
+        <v>8877</v>
       </c>
       <c r="AL13">
-        <v>8996</v>
+        <v>8993</v>
       </c>
       <c r="AM13">
-        <v>9239</v>
+        <v>9238</v>
       </c>
       <c r="AN13">
-        <v>8811</v>
+        <v>8809</v>
       </c>
       <c r="AO13">
-        <v>8817</v>
+        <v>8812</v>
       </c>
       <c r="AP13">
-        <v>10899</v>
+        <v>10903</v>
       </c>
       <c r="AQ13">
-        <v>11996</v>
+        <v>11992</v>
       </c>
       <c r="AR13">
-        <v>9510</v>
+        <v>9509</v>
       </c>
       <c r="AS13">
         <v>8027</v>
       </c>
       <c r="AT13">
-        <v>9544</v>
+        <v>9546</v>
       </c>
       <c r="AU13">
-        <v>7560</v>
+        <v>7557</v>
       </c>
       <c r="AV13">
-        <v>6230</v>
+        <v>6229</v>
       </c>
       <c r="AW13">
-        <v>5115</v>
+        <v>5118</v>
       </c>
       <c r="AX13">
-        <v>4280</v>
+        <v>4276</v>
       </c>
       <c r="AY13">
-        <v>3467</v>
+        <v>3462</v>
       </c>
       <c r="AZ13">
         <v>3591</v>
       </c>
       <c r="BA13">
-        <v>4140</v>
+        <v>4136</v>
       </c>
       <c r="BB13">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="BC13">
         <v>5341</v>
       </c>
       <c r="BD13">
-        <v>6981</v>
+        <v>6980</v>
       </c>
       <c r="BE13">
-        <v>9086</v>
+        <v>9087</v>
       </c>
       <c r="BF13">
         <v>8326</v>
       </c>
       <c r="BG13">
-        <v>9275</v>
+        <v>9278</v>
       </c>
       <c r="BH13">
-        <v>10725</v>
+        <v>10723</v>
       </c>
       <c r="BI13">
         <v>10824</v>
       </c>
       <c r="BJ13">
-        <v>9580</v>
+        <v>9578</v>
       </c>
       <c r="BK13">
         <v>7726</v>
       </c>
       <c r="BL13">
-        <v>5340</v>
+        <v>5334</v>
       </c>
       <c r="BM13">
-        <v>3988</v>
+        <v>3986</v>
       </c>
       <c r="BN13">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="BO13">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="BP13">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="BQ13">
         <v>527</v>
       </c>
       <c r="BR13">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="BS13">
         <v>269</v>
@@ -4136,21 +4248,30 @@
         <v>343</v>
       </c>
       <c r="BU13">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="BV13">
         <v>735</v>
       </c>
       <c r="BW13">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="BX13">
-        <v>1403</v>
+        <v>1442</v>
+      </c>
+      <c r="BY13">
+        <v>2342</v>
+      </c>
+      <c r="BZ13">
+        <v>3736</v>
+      </c>
+      <c r="CA13">
+        <v>5050</v>
       </c>
     </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B14">
         <v>67</v>
@@ -4159,7 +4280,7 @@
         <v>547</v>
       </c>
       <c r="D14">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E14">
         <v>2384</v>
@@ -4177,10 +4298,10 @@
         <v>763</v>
       </c>
       <c r="J14">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K14">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L14">
         <v>351</v>
@@ -4231,13 +4352,13 @@
         <v>716</v>
       </c>
       <c r="AB14">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AC14">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AD14">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="AE14">
         <v>1007</v>
@@ -4255,132 +4376,141 @@
         <v>5386</v>
       </c>
       <c r="AJ14">
-        <v>8086</v>
+        <v>8085</v>
       </c>
       <c r="AK14">
-        <v>8964</v>
+        <v>8957</v>
       </c>
       <c r="AL14">
-        <v>9190</v>
+        <v>9189</v>
       </c>
       <c r="AM14">
         <v>9193</v>
       </c>
       <c r="AN14">
-        <v>8719</v>
+        <v>8715</v>
       </c>
       <c r="AO14">
-        <v>9144</v>
+        <v>9139</v>
       </c>
       <c r="AP14">
-        <v>10994</v>
+        <v>10993</v>
       </c>
       <c r="AQ14">
-        <v>12228</v>
+        <v>12229</v>
       </c>
       <c r="AR14">
-        <v>9527</v>
+        <v>9524</v>
       </c>
       <c r="AS14">
-        <v>8082</v>
+        <v>8080</v>
       </c>
       <c r="AT14">
         <v>10145</v>
       </c>
       <c r="AU14">
-        <v>8007</v>
+        <v>8008</v>
       </c>
       <c r="AV14">
         <v>6341</v>
       </c>
       <c r="AW14">
-        <v>5192</v>
+        <v>5194</v>
       </c>
       <c r="AX14">
         <v>4460</v>
       </c>
       <c r="AY14">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="AZ14">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="BA14">
-        <v>4182</v>
+        <v>4180</v>
       </c>
       <c r="BB14">
-        <v>4577</v>
+        <v>4576</v>
       </c>
       <c r="BC14">
-        <v>5758</v>
+        <v>5760</v>
       </c>
       <c r="BD14">
-        <v>7589</v>
+        <v>7587</v>
       </c>
       <c r="BE14">
-        <v>9461</v>
+        <v>9459</v>
       </c>
       <c r="BF14">
-        <v>8987</v>
+        <v>8986</v>
       </c>
       <c r="BG14">
         <v>9483</v>
       </c>
       <c r="BH14">
-        <v>11266</v>
+        <v>11265</v>
       </c>
       <c r="BI14">
-        <v>11275</v>
+        <v>11274</v>
       </c>
       <c r="BJ14">
-        <v>10026</v>
+        <v>10028</v>
       </c>
       <c r="BK14">
-        <v>7963</v>
+        <v>7967</v>
       </c>
       <c r="BL14">
-        <v>5631</v>
+        <v>5629</v>
       </c>
       <c r="BM14">
-        <v>4223</v>
+        <v>4222</v>
       </c>
       <c r="BN14">
         <v>2415</v>
       </c>
       <c r="BO14">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="BP14">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="BQ14">
         <v>546</v>
       </c>
       <c r="BR14">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="BS14">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="BT14">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BU14">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="BV14">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="BW14">
         <v>1163</v>
       </c>
       <c r="BX14">
-        <v>1558</v>
+        <v>1593</v>
+      </c>
+      <c r="BY14">
+        <v>2445</v>
+      </c>
+      <c r="BZ14">
+        <v>3754</v>
+      </c>
+      <c r="CA14">
+        <v>5121</v>
       </c>
     </row>
-    <row r="15" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B15">
         <v>69</v>
@@ -4395,10 +4525,10 @@
         <v>2635</v>
       </c>
       <c r="F15">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="G15">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H15">
         <v>1206</v>
@@ -4407,7 +4537,7 @@
         <v>900</v>
       </c>
       <c r="J15">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K15">
         <v>487</v>
@@ -4440,7 +4570,7 @@
         <v>259</v>
       </c>
       <c r="U15">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="V15">
         <v>382</v>
@@ -4461,7 +4591,7 @@
         <v>858</v>
       </c>
       <c r="AB15">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AC15">
         <v>938</v>
@@ -4479,7 +4609,7 @@
         <v>2360</v>
       </c>
       <c r="AH15">
-        <v>3858</v>
+        <v>3861</v>
       </c>
       <c r="AI15">
         <v>6717</v>
@@ -4488,64 +4618,64 @@
         <v>9575</v>
       </c>
       <c r="AK15">
-        <v>10479</v>
+        <v>10476</v>
       </c>
       <c r="AL15">
-        <v>10479</v>
+        <v>10481</v>
       </c>
       <c r="AM15">
-        <v>10085</v>
+        <v>10083</v>
       </c>
       <c r="AN15">
-        <v>9369</v>
+        <v>9365</v>
       </c>
       <c r="AO15">
         <v>9471</v>
       </c>
       <c r="AP15">
-        <v>11517</v>
+        <v>11516</v>
       </c>
       <c r="AQ15">
-        <v>13032</v>
+        <v>13028</v>
       </c>
       <c r="AR15">
-        <v>10046</v>
+        <v>10042</v>
       </c>
       <c r="AS15">
-        <v>9196</v>
+        <v>9194</v>
       </c>
       <c r="AT15">
-        <v>11602</v>
+        <v>11600</v>
       </c>
       <c r="AU15">
-        <v>9051</v>
+        <v>9047</v>
       </c>
       <c r="AV15">
         <v>7021</v>
       </c>
       <c r="AW15">
-        <v>5762</v>
+        <v>5763</v>
       </c>
       <c r="AX15">
         <v>4906</v>
       </c>
       <c r="AY15">
-        <v>3905</v>
+        <v>3904</v>
       </c>
       <c r="AZ15">
-        <v>4117</v>
+        <v>4114</v>
       </c>
       <c r="BA15">
         <v>4532</v>
       </c>
       <c r="BB15">
-        <v>4896</v>
+        <v>4891</v>
       </c>
       <c r="BC15">
-        <v>6021</v>
+        <v>6019</v>
       </c>
       <c r="BD15">
-        <v>7898</v>
+        <v>7895</v>
       </c>
       <c r="BE15">
         <v>9869</v>
@@ -4554,31 +4684,31 @@
         <v>9512</v>
       </c>
       <c r="BG15">
-        <v>10137</v>
+        <v>10131</v>
       </c>
       <c r="BH15">
-        <v>12007</v>
+        <v>12006</v>
       </c>
       <c r="BI15">
-        <v>11855</v>
+        <v>11856</v>
       </c>
       <c r="BJ15">
-        <v>10461</v>
+        <v>10454</v>
       </c>
       <c r="BK15">
         <v>8278</v>
       </c>
       <c r="BL15">
-        <v>5872</v>
+        <v>5873</v>
       </c>
       <c r="BM15">
-        <v>4546</v>
+        <v>4544</v>
       </c>
       <c r="BN15">
-        <v>2745</v>
+        <v>2747</v>
       </c>
       <c r="BO15">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="BP15">
         <v>1183</v>
@@ -4587,30 +4717,39 @@
         <v>632</v>
       </c>
       <c r="BR15">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="BS15">
         <v>428</v>
       </c>
       <c r="BT15">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="BU15">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="BV15">
         <v>1307</v>
       </c>
       <c r="BW15">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="BX15">
-        <v>2018</v>
+        <v>2069</v>
+      </c>
+      <c r="BY15">
+        <v>3045</v>
+      </c>
+      <c r="BZ15">
+        <v>4371</v>
+      </c>
+      <c r="CA15">
+        <v>5837</v>
       </c>
     </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B16">
         <v>76</v>
@@ -4625,19 +4764,19 @@
         <v>2690</v>
       </c>
       <c r="F16">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="G16">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="H16">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I16">
         <v>996</v>
       </c>
       <c r="J16">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K16">
         <v>522</v>
@@ -4685,16 +4824,16 @@
         <v>838</v>
       </c>
       <c r="Z16">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="AA16">
         <v>1222</v>
       </c>
       <c r="AB16">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="AC16">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AD16">
         <v>1481</v>
@@ -4703,103 +4842,103 @@
         <v>1436</v>
       </c>
       <c r="AF16">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="AG16">
         <v>2684</v>
       </c>
       <c r="AH16">
-        <v>4475</v>
+        <v>4474</v>
       </c>
       <c r="AI16">
-        <v>7321</v>
+        <v>7320</v>
       </c>
       <c r="AJ16">
-        <v>10345</v>
+        <v>10342</v>
       </c>
       <c r="AK16">
-        <v>11153</v>
+        <v>11152</v>
       </c>
       <c r="AL16">
-        <v>10690</v>
+        <v>10686</v>
       </c>
       <c r="AM16">
-        <v>9924</v>
+        <v>9921</v>
       </c>
       <c r="AN16">
-        <v>9000</v>
+        <v>8998</v>
       </c>
       <c r="AO16">
-        <v>9151</v>
+        <v>9148</v>
       </c>
       <c r="AP16">
-        <v>10782</v>
+        <v>10783</v>
       </c>
       <c r="AQ16">
-        <v>12108</v>
+        <v>12106</v>
       </c>
       <c r="AR16">
-        <v>9436</v>
+        <v>9433</v>
       </c>
       <c r="AS16">
-        <v>8420</v>
+        <v>8423</v>
       </c>
       <c r="AT16">
         <v>10779</v>
       </c>
       <c r="AU16">
-        <v>8538</v>
+        <v>8537</v>
       </c>
       <c r="AV16">
-        <v>6395</v>
+        <v>6393</v>
       </c>
       <c r="AW16">
-        <v>5339</v>
+        <v>5340</v>
       </c>
       <c r="AX16">
-        <v>4492</v>
+        <v>4491</v>
       </c>
       <c r="AY16">
         <v>3658</v>
       </c>
       <c r="AZ16">
-        <v>3906</v>
+        <v>3907</v>
       </c>
       <c r="BA16">
-        <v>4148</v>
+        <v>4150</v>
       </c>
       <c r="BB16">
-        <v>4269</v>
+        <v>4266</v>
       </c>
       <c r="BC16">
-        <v>5464</v>
+        <v>5463</v>
       </c>
       <c r="BD16">
-        <v>7013</v>
+        <v>7010</v>
       </c>
       <c r="BE16">
-        <v>8404</v>
+        <v>8401</v>
       </c>
       <c r="BF16">
         <v>8378</v>
       </c>
       <c r="BG16">
+        <v>9211</v>
+      </c>
+      <c r="BH16">
+        <v>10898</v>
+      </c>
+      <c r="BI16">
+        <v>10788</v>
+      </c>
+      <c r="BJ16">
         <v>9213</v>
       </c>
-      <c r="BH16">
-        <v>10896</v>
-      </c>
-      <c r="BI16">
-        <v>10789</v>
-      </c>
-      <c r="BJ16">
-        <v>9216</v>
-      </c>
       <c r="BK16">
-        <v>7455</v>
+        <v>7458</v>
       </c>
       <c r="BL16">
-        <v>5184</v>
+        <v>5182</v>
       </c>
       <c r="BM16">
         <v>3947</v>
@@ -4808,39 +4947,48 @@
         <v>2455</v>
       </c>
       <c r="BO16">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="BP16">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="BQ16">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="BR16">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="BS16">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="BT16">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="BU16">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="BV16">
         <v>1732</v>
       </c>
       <c r="BW16">
-        <v>1947</v>
+        <v>1952</v>
       </c>
       <c r="BX16">
-        <v>2345</v>
+        <v>2402</v>
+      </c>
+      <c r="BY16">
+        <v>3590</v>
+      </c>
+      <c r="BZ16">
+        <v>5012</v>
+      </c>
+      <c r="CA16">
+        <v>6139</v>
       </c>
     </row>
-    <row r="17" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B17">
         <v>70</v>
@@ -4852,10 +5000,10 @@
         <v>1445</v>
       </c>
       <c r="E17">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="F17">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="G17">
         <v>1729</v>
@@ -4864,10 +5012,10 @@
         <v>1228</v>
       </c>
       <c r="I17">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J17">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K17">
         <v>506</v>
@@ -4897,7 +5045,7 @@
         <v>258</v>
       </c>
       <c r="T17">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U17">
         <v>300</v>
@@ -4909,19 +5057,19 @@
         <v>521</v>
       </c>
       <c r="X17">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="Y17">
         <v>1161</v>
       </c>
       <c r="Z17">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="AA17">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="AB17">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="AC17">
         <v>1282</v>
@@ -4930,58 +5078,58 @@
         <v>1513</v>
       </c>
       <c r="AE17">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="AF17">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="AG17">
-        <v>2789</v>
+        <v>2791</v>
       </c>
       <c r="AH17">
-        <v>4384</v>
+        <v>4382</v>
       </c>
       <c r="AI17">
-        <v>7568</v>
+        <v>7565</v>
       </c>
       <c r="AJ17">
-        <v>10412</v>
+        <v>10409</v>
       </c>
       <c r="AK17">
-        <v>11735</v>
+        <v>11734</v>
       </c>
       <c r="AL17">
-        <v>11021</v>
+        <v>11024</v>
       </c>
       <c r="AM17">
         <v>10200</v>
       </c>
       <c r="AN17">
-        <v>8940</v>
+        <v>8938</v>
       </c>
       <c r="AO17">
-        <v>9179</v>
+        <v>9175</v>
       </c>
       <c r="AP17">
         <v>10786</v>
       </c>
       <c r="AQ17">
-        <v>12095</v>
+        <v>12096</v>
       </c>
       <c r="AR17">
-        <v>9071</v>
+        <v>9070</v>
       </c>
       <c r="AS17">
-        <v>8587</v>
+        <v>8586</v>
       </c>
       <c r="AT17">
-        <v>10890</v>
+        <v>10891</v>
       </c>
       <c r="AU17">
-        <v>8532</v>
+        <v>8535</v>
       </c>
       <c r="AV17">
-        <v>6433</v>
+        <v>6435</v>
       </c>
       <c r="AW17">
         <v>5240</v>
@@ -4993,40 +5141,40 @@
         <v>3653</v>
       </c>
       <c r="AZ17">
-        <v>3948</v>
+        <v>3946</v>
       </c>
       <c r="BA17">
-        <v>4199</v>
+        <v>4198</v>
       </c>
       <c r="BB17">
-        <v>4397</v>
+        <v>4399</v>
       </c>
       <c r="BC17">
-        <v>5423</v>
+        <v>5420</v>
       </c>
       <c r="BD17">
-        <v>6903</v>
+        <v>6900</v>
       </c>
       <c r="BE17">
         <v>8557</v>
       </c>
       <c r="BF17">
-        <v>8509</v>
+        <v>8505</v>
       </c>
       <c r="BG17">
-        <v>9796</v>
+        <v>9793</v>
       </c>
       <c r="BH17">
-        <v>11547</v>
+        <v>11544</v>
       </c>
       <c r="BI17">
-        <v>11273</v>
+        <v>11271</v>
       </c>
       <c r="BJ17">
-        <v>9635</v>
+        <v>9630</v>
       </c>
       <c r="BK17">
-        <v>7837</v>
+        <v>7836</v>
       </c>
       <c r="BL17">
         <v>5587</v>
@@ -5035,42 +5183,51 @@
         <v>4188</v>
       </c>
       <c r="BN17">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="BO17">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="BP17">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="BQ17">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="BR17">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BS17">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="BT17">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="BU17">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="BV17">
         <v>2088</v>
       </c>
       <c r="BW17">
-        <v>2322</v>
+        <v>2327</v>
       </c>
       <c r="BX17">
-        <v>2734</v>
+        <v>2789</v>
+      </c>
+      <c r="BY17">
+        <v>4422</v>
+      </c>
+      <c r="BZ17">
+        <v>5773</v>
+      </c>
+      <c r="CA17">
+        <v>6737</v>
       </c>
     </row>
-    <row r="18" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B18">
         <v>43</v>
@@ -5082,7 +5239,7 @@
         <v>537</v>
       </c>
       <c r="E18">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F18">
         <v>1074</v>
@@ -5145,136 +5302,136 @@
         <v>741</v>
       </c>
       <c r="Z18">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="AA18">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="AB18">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AC18">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AD18">
         <v>1040</v>
       </c>
       <c r="AE18">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AF18">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="AG18">
         <v>2069</v>
       </c>
       <c r="AH18">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="AI18">
         <v>4861</v>
       </c>
       <c r="AJ18">
-        <v>7187</v>
+        <v>7188</v>
       </c>
       <c r="AK18">
-        <v>8410</v>
+        <v>8411</v>
       </c>
       <c r="AL18">
-        <v>8714</v>
+        <v>8716</v>
       </c>
       <c r="AM18">
-        <v>8210</v>
+        <v>8208</v>
       </c>
       <c r="AN18">
-        <v>7458</v>
+        <v>7459</v>
       </c>
       <c r="AO18">
-        <v>7716</v>
+        <v>7712</v>
       </c>
       <c r="AP18">
-        <v>8821</v>
+        <v>8817</v>
       </c>
       <c r="AQ18">
-        <v>8472</v>
+        <v>8473</v>
       </c>
       <c r="AR18">
-        <v>5871</v>
+        <v>5869</v>
       </c>
       <c r="AS18">
-        <v>4958</v>
+        <v>4956</v>
       </c>
       <c r="AT18">
-        <v>6382</v>
+        <v>6380</v>
       </c>
       <c r="AU18">
-        <v>5391</v>
+        <v>5392</v>
       </c>
       <c r="AV18">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="AW18">
-        <v>3474</v>
+        <v>3471</v>
       </c>
       <c r="AX18">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="AY18">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="AZ18">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="BA18">
         <v>3071</v>
       </c>
       <c r="BB18">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="BC18">
-        <v>4108</v>
+        <v>4107</v>
       </c>
       <c r="BD18">
-        <v>5539</v>
+        <v>5537</v>
       </c>
       <c r="BE18">
-        <v>7184</v>
+        <v>7187</v>
       </c>
       <c r="BF18">
-        <v>6608</v>
+        <v>6609</v>
       </c>
       <c r="BG18">
-        <v>7551</v>
+        <v>7548</v>
       </c>
       <c r="BH18">
-        <v>10811</v>
+        <v>10812</v>
       </c>
       <c r="BI18">
-        <v>10342</v>
+        <v>10339</v>
       </c>
       <c r="BJ18">
-        <v>8662</v>
+        <v>8659</v>
       </c>
       <c r="BK18">
-        <v>7047</v>
+        <v>7049</v>
       </c>
       <c r="BL18">
         <v>4941</v>
       </c>
       <c r="BM18">
-        <v>3890</v>
+        <v>3888</v>
       </c>
       <c r="BN18">
-        <v>2235</v>
+        <v>2238</v>
       </c>
       <c r="BO18">
         <v>1725</v>
       </c>
       <c r="BP18">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="BQ18">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="BR18">
         <v>440</v>
@@ -5286,21 +5443,30 @@
         <v>580</v>
       </c>
       <c r="BU18">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="BV18">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="BW18">
-        <v>1825</v>
+        <v>1838</v>
       </c>
       <c r="BX18">
-        <v>2306</v>
+        <v>2368</v>
+      </c>
+      <c r="BY18">
+        <v>3496</v>
+      </c>
+      <c r="BZ18">
+        <v>5561</v>
+      </c>
+      <c r="CA18">
+        <v>6778</v>
       </c>
     </row>
-    <row r="19" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -5375,7 +5541,7 @@
         <v>545</v>
       </c>
       <c r="Z19">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AA19">
         <v>482</v>
@@ -5393,49 +5559,49 @@
         <v>584</v>
       </c>
       <c r="AF19">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AG19">
         <v>1140</v>
       </c>
       <c r="AH19">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="AI19">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="AJ19">
         <v>4082</v>
       </c>
       <c r="AK19">
-        <v>4786</v>
+        <v>4785</v>
       </c>
       <c r="AL19">
-        <v>5345</v>
+        <v>5347</v>
       </c>
       <c r="AM19">
-        <v>5299</v>
+        <v>5297</v>
       </c>
       <c r="AN19">
-        <v>5186</v>
+        <v>5185</v>
       </c>
       <c r="AO19">
-        <v>5159</v>
+        <v>5155</v>
       </c>
       <c r="AP19">
-        <v>5690</v>
+        <v>5688</v>
       </c>
       <c r="AQ19">
-        <v>5287</v>
+        <v>5284</v>
       </c>
       <c r="AR19">
-        <v>3384</v>
+        <v>3386</v>
       </c>
       <c r="AS19">
         <v>2652</v>
       </c>
       <c r="AT19">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="AU19">
         <v>2716</v>
@@ -5459,78 +5625,87 @@
         <v>1879</v>
       </c>
       <c r="BB19">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="BC19">
         <v>2868</v>
       </c>
       <c r="BD19">
-        <v>4176</v>
+        <v>4178</v>
       </c>
       <c r="BE19">
-        <v>5732</v>
+        <v>5733</v>
       </c>
       <c r="BF19">
         <v>4849</v>
       </c>
       <c r="BG19">
-        <v>5177</v>
+        <v>5176</v>
       </c>
       <c r="BH19">
-        <v>7657</v>
+        <v>7658</v>
       </c>
       <c r="BI19">
         <v>8730</v>
       </c>
       <c r="BJ19">
-        <v>7168</v>
+        <v>7166</v>
       </c>
       <c r="BK19">
-        <v>6129</v>
+        <v>6128</v>
       </c>
       <c r="BL19">
-        <v>4569</v>
+        <v>4570</v>
       </c>
       <c r="BM19">
         <v>3763</v>
       </c>
       <c r="BN19">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="BO19">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="BP19">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="BQ19">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="BR19">
         <v>448</v>
       </c>
       <c r="BS19">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BT19">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="BU19">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BV19">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="BW19">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="BX19">
-        <v>1465</v>
+        <v>1489</v>
+      </c>
+      <c r="BY19">
+        <v>2603</v>
+      </c>
+      <c r="BZ19">
+        <v>5340</v>
+      </c>
+      <c r="CA19">
+        <v>6738</v>
       </c>
     </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -5602,7 +5777,7 @@
         <v>285</v>
       </c>
       <c r="Y20">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Z20">
         <v>380</v>
@@ -5629,13 +5804,13 @@
         <v>624</v>
       </c>
       <c r="AH20">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="AI20">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="AJ20">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="AK20">
         <v>3364</v>
@@ -5647,22 +5822,22 @@
         <v>3920</v>
       </c>
       <c r="AN20">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="AO20">
-        <v>3682</v>
+        <v>3684</v>
       </c>
       <c r="AP20">
-        <v>4260</v>
+        <v>4258</v>
       </c>
       <c r="AQ20">
-        <v>4305</v>
+        <v>4302</v>
       </c>
       <c r="AR20">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="AS20">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="AT20">
         <v>2391</v>
@@ -5671,19 +5846,19 @@
         <v>2194</v>
       </c>
       <c r="AV20">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="AW20">
         <v>1644</v>
       </c>
       <c r="AX20">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="AY20">
         <v>1390</v>
       </c>
       <c r="AZ20">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="BA20">
         <v>2003</v>
@@ -5692,49 +5867,49 @@
         <v>2724</v>
       </c>
       <c r="BC20">
-        <v>3677</v>
+        <v>3676</v>
       </c>
       <c r="BD20">
-        <v>4766</v>
+        <v>4762</v>
       </c>
       <c r="BE20">
         <v>6702</v>
       </c>
       <c r="BF20">
-        <v>5187</v>
+        <v>5189</v>
       </c>
       <c r="BG20">
-        <v>4699</v>
+        <v>4698</v>
       </c>
       <c r="BH20">
-        <v>6991</v>
+        <v>6993</v>
       </c>
       <c r="BI20">
         <v>8413</v>
       </c>
       <c r="BJ20">
-        <v>6879</v>
+        <v>6878</v>
       </c>
       <c r="BK20">
-        <v>5567</v>
+        <v>5566</v>
       </c>
       <c r="BL20">
-        <v>4115</v>
+        <v>4117</v>
       </c>
       <c r="BM20">
-        <v>3416</v>
+        <v>3412</v>
       </c>
       <c r="BN20">
         <v>1877</v>
       </c>
       <c r="BO20">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="BP20">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="BQ20">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="BR20">
         <v>345</v>
@@ -5749,18 +5924,27 @@
         <v>322</v>
       </c>
       <c r="BV20">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="BW20">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="BX20">
-        <v>1133</v>
+        <v>1155</v>
+      </c>
+      <c r="BY20">
+        <v>1843</v>
+      </c>
+      <c r="BZ20">
+        <v>3712</v>
+      </c>
+      <c r="CA20">
+        <v>5446</v>
       </c>
     </row>
-    <row r="21" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -5784,7 +5968,7 @@
         <v>158</v>
       </c>
       <c r="I21">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J21">
         <v>133</v>
@@ -5835,7 +6019,7 @@
         <v>275</v>
       </c>
       <c r="Z21">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA21">
         <v>223</v>
@@ -5853,7 +6037,7 @@
         <v>299</v>
       </c>
       <c r="AF21">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG21">
         <v>522</v>
@@ -5865,37 +6049,37 @@
         <v>1458</v>
       </c>
       <c r="AJ21">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="AK21">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="AL21">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="AM21">
         <v>2378</v>
       </c>
       <c r="AN21">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="AO21">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="AP21">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="AQ21">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="AR21">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="AS21">
         <v>1524</v>
       </c>
       <c r="AT21">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="AU21">
         <v>1857</v>
@@ -5904,16 +6088,16 @@
         <v>1697</v>
       </c>
       <c r="AW21">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="AX21">
         <v>1512</v>
       </c>
       <c r="AY21">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="AZ21">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="BA21">
         <v>1884</v>
@@ -5922,55 +6106,55 @@
         <v>2371</v>
       </c>
       <c r="BC21">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="BD21">
-        <v>4051</v>
+        <v>4049</v>
       </c>
       <c r="BE21">
-        <v>5021</v>
+        <v>5022</v>
       </c>
       <c r="BF21">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="BG21">
-        <v>4024</v>
+        <v>4025</v>
       </c>
       <c r="BH21">
         <v>5085</v>
       </c>
       <c r="BI21">
-        <v>5577</v>
+        <v>5580</v>
       </c>
       <c r="BJ21">
-        <v>5064</v>
+        <v>5061</v>
       </c>
       <c r="BK21">
-        <v>4116</v>
+        <v>4114</v>
       </c>
       <c r="BL21">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="BM21">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="BN21">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="BO21">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="BP21">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="BQ21">
         <v>381</v>
       </c>
       <c r="BR21">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BS21">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BT21">
         <v>179</v>
@@ -5979,31 +6163,41 @@
         <v>258</v>
       </c>
       <c r="BV21">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="BW21">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BX21">
-        <v>746</v>
+        <v>759</v>
+      </c>
+      <c r="BY21">
+        <v>1232</v>
+      </c>
+      <c r="BZ21">
+        <v>1866</v>
+      </c>
+      <c r="CA21">
+        <v>2908</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BX21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:CA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6232,10 +6426,19 @@
       <c r="BX1" t="s">
         <v>75</v>
       </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <v>1.08</v>
@@ -6244,13 +6447,13 @@
         <v>7.73</v>
       </c>
       <c r="D2">
-        <v>26.93</v>
+        <v>26.92</v>
       </c>
       <c r="E2">
-        <v>40.85</v>
+        <v>40.840000000000003</v>
       </c>
       <c r="F2">
-        <v>43.35</v>
+        <v>43.34</v>
       </c>
       <c r="G2">
         <v>32.630000000000003</v>
@@ -6262,7 +6465,7 @@
         <v>14.84</v>
       </c>
       <c r="J2">
-        <v>8.94</v>
+        <v>8.93</v>
       </c>
       <c r="K2">
         <v>7.5</v>
@@ -6325,10 +6528,10 @@
         <v>14.78</v>
       </c>
       <c r="AE2">
-        <v>15.71</v>
+        <v>15.7</v>
       </c>
       <c r="AF2">
-        <v>19.149999999999999</v>
+        <v>19.14</v>
       </c>
       <c r="AG2">
         <v>31.39</v>
@@ -6337,112 +6540,112 @@
         <v>50.57</v>
       </c>
       <c r="AI2">
-        <v>90.02</v>
+        <v>90.01</v>
       </c>
       <c r="AJ2">
-        <v>133.5</v>
+        <v>133.49</v>
       </c>
       <c r="AK2">
-        <v>151.22</v>
+        <v>151.18</v>
       </c>
       <c r="AL2">
-        <v>153.65</v>
+        <v>153.63</v>
       </c>
       <c r="AM2">
-        <v>154.37</v>
+        <v>154.34</v>
       </c>
       <c r="AN2">
-        <v>148.16</v>
+        <v>148.12</v>
       </c>
       <c r="AO2">
-        <v>154.38999999999999</v>
+        <v>154.34</v>
       </c>
       <c r="AP2">
-        <v>187.94</v>
+        <v>187.92</v>
       </c>
       <c r="AQ2">
-        <v>210.11</v>
+        <v>210.09</v>
       </c>
       <c r="AR2">
-        <v>167.13</v>
+        <v>167.08</v>
       </c>
       <c r="AS2">
-        <v>148</v>
+        <v>147.97999999999999</v>
       </c>
       <c r="AT2">
-        <v>174.91</v>
+        <v>174.88</v>
       </c>
       <c r="AU2">
-        <v>143</v>
+        <v>142.97999999999999</v>
       </c>
       <c r="AV2">
-        <v>114.87</v>
+        <v>114.85</v>
       </c>
       <c r="AW2">
         <v>93.93</v>
       </c>
       <c r="AX2">
-        <v>77.64</v>
+        <v>77.63</v>
       </c>
       <c r="AY2">
-        <v>61.08</v>
+        <v>61.07</v>
       </c>
       <c r="AZ2">
-        <v>63.01</v>
+        <v>63</v>
       </c>
       <c r="BA2">
-        <v>67.77</v>
+        <v>67.75</v>
       </c>
       <c r="BB2">
-        <v>70.180000000000007</v>
+        <v>70.17</v>
       </c>
       <c r="BC2">
-        <v>85.74</v>
+        <v>85.72</v>
       </c>
       <c r="BD2">
-        <v>111.33</v>
+        <v>111.3</v>
       </c>
       <c r="BE2">
-        <v>139.81</v>
+        <v>139.80000000000001</v>
       </c>
       <c r="BF2">
         <v>132.38</v>
       </c>
       <c r="BG2">
-        <v>142.18</v>
+        <v>142.16</v>
       </c>
       <c r="BH2">
-        <v>170.77</v>
+        <v>170.75</v>
       </c>
       <c r="BI2">
         <v>174.06</v>
       </c>
       <c r="BJ2">
-        <v>150.12</v>
+        <v>150.09</v>
       </c>
       <c r="BK2">
-        <v>121.46</v>
+        <v>121.45</v>
       </c>
       <c r="BL2">
-        <v>85.2</v>
+        <v>85.19</v>
       </c>
       <c r="BM2">
-        <v>63.43</v>
+        <v>63.41</v>
       </c>
       <c r="BN2">
         <v>35.950000000000003</v>
       </c>
       <c r="BO2">
-        <v>24.91</v>
+        <v>24.89</v>
       </c>
       <c r="BP2">
         <v>16.87</v>
       </c>
       <c r="BQ2">
-        <v>8.7200000000000006</v>
+        <v>8.73</v>
       </c>
       <c r="BR2">
-        <v>5.78</v>
+        <v>5.79</v>
       </c>
       <c r="BS2">
         <v>5.22</v>
@@ -6451,21 +6654,30 @@
         <v>6.68</v>
       </c>
       <c r="BU2">
-        <v>10.9</v>
+        <v>10.91</v>
       </c>
       <c r="BV2">
-        <v>15.14</v>
+        <v>15.15</v>
       </c>
       <c r="BW2">
-        <v>18.559999999999999</v>
+        <v>18.61</v>
       </c>
       <c r="BX2">
-        <v>24.01</v>
+        <v>24.51</v>
+      </c>
+      <c r="BY2">
+        <v>38.49</v>
+      </c>
+      <c r="BZ2">
+        <v>59.48</v>
+      </c>
+      <c r="CA2">
+        <v>77.81</v>
       </c>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>0.12</v>
@@ -6477,7 +6689,7 @@
         <v>12.39</v>
       </c>
       <c r="E3">
-        <v>51.64</v>
+        <v>51.52</v>
       </c>
       <c r="F3">
         <v>142.15</v>
@@ -6570,55 +6782,55 @@
         <v>107.89</v>
       </c>
       <c r="AJ3">
-        <v>177.75</v>
+        <v>177.63</v>
       </c>
       <c r="AK3">
-        <v>209.22</v>
+        <v>209.1</v>
       </c>
       <c r="AL3">
-        <v>280.42</v>
+        <v>280.54000000000002</v>
       </c>
       <c r="AM3">
-        <v>372.03</v>
+        <v>371.91</v>
       </c>
       <c r="AN3">
-        <v>427.68</v>
+        <v>427.56</v>
       </c>
       <c r="AO3">
-        <v>509.45</v>
+        <v>509.21</v>
       </c>
       <c r="AP3">
         <v>656.1</v>
       </c>
       <c r="AQ3">
-        <v>725.23</v>
+        <v>725.47</v>
       </c>
       <c r="AR3">
-        <v>636.29</v>
+        <v>635.92999999999995</v>
       </c>
       <c r="AS3">
         <v>604.83000000000004</v>
       </c>
       <c r="AT3">
-        <v>656.46</v>
+        <v>656.34</v>
       </c>
       <c r="AU3">
-        <v>610.41</v>
+        <v>609.80999999999995</v>
       </c>
       <c r="AV3">
         <v>478.95</v>
       </c>
       <c r="AW3">
-        <v>348.95</v>
+        <v>349.19</v>
       </c>
       <c r="AX3">
-        <v>234.62</v>
+        <v>234.74</v>
       </c>
       <c r="AY3">
-        <v>157.83000000000001</v>
+        <v>157.71</v>
       </c>
       <c r="AZ3">
-        <v>129.28</v>
+        <v>129.15</v>
       </c>
       <c r="BA3">
         <v>100.48</v>
@@ -6627,13 +6839,13 @@
         <v>74.11</v>
       </c>
       <c r="BC3">
-        <v>73.989999999999995</v>
+        <v>73.87</v>
       </c>
       <c r="BD3">
         <v>77.52</v>
       </c>
       <c r="BE3">
-        <v>79.95</v>
+        <v>80.19</v>
       </c>
       <c r="BF3">
         <v>76.06</v>
@@ -6642,7 +6854,7 @@
         <v>87.12</v>
       </c>
       <c r="BH3">
-        <v>96.59</v>
+        <v>96.47</v>
       </c>
       <c r="BI3">
         <v>97.08</v>
@@ -6654,7 +6866,7 @@
         <v>66.099999999999994</v>
       </c>
       <c r="BL3">
-        <v>49.81</v>
+        <v>49.57</v>
       </c>
       <c r="BM3">
         <v>33.659999999999997</v>
@@ -6681,21 +6893,30 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="BU3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="BV3">
-        <v>3.16</v>
+        <v>3.04</v>
       </c>
       <c r="BW3">
         <v>7.05</v>
       </c>
       <c r="BX3">
-        <v>7.78</v>
+        <v>8.02</v>
+      </c>
+      <c r="BY3">
+        <v>15.92</v>
+      </c>
+      <c r="BZ3">
+        <v>16.89</v>
+      </c>
+      <c r="CA3">
+        <v>26.73</v>
       </c>
     </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>0.38</v>
@@ -6791,13 +7012,13 @@
         <v>10.55</v>
       </c>
       <c r="AG4">
-        <v>19.57</v>
+        <v>19.63</v>
       </c>
       <c r="AH4">
-        <v>36.83</v>
+        <v>36.770000000000003</v>
       </c>
       <c r="AI4">
-        <v>73.540000000000006</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="AJ4">
         <v>114.21</v>
@@ -6806,7 +7027,7 @@
         <v>146.12</v>
       </c>
       <c r="AL4">
-        <v>181.22</v>
+        <v>180.97</v>
       </c>
       <c r="AM4">
         <v>215.95</v>
@@ -6818,31 +7039,31 @@
         <v>293.89999999999998</v>
       </c>
       <c r="AP4">
-        <v>377.99</v>
+        <v>377.73</v>
       </c>
       <c r="AQ4">
-        <v>443.15</v>
+        <v>443.34</v>
       </c>
       <c r="AR4">
-        <v>372.49</v>
+        <v>372.23</v>
       </c>
       <c r="AS4">
         <v>357.14</v>
       </c>
       <c r="AT4">
-        <v>388.09</v>
+        <v>387.9</v>
       </c>
       <c r="AU4">
         <v>355.35</v>
       </c>
       <c r="AV4">
-        <v>284.18</v>
+        <v>283.92</v>
       </c>
       <c r="AW4">
         <v>212.43</v>
       </c>
       <c r="AX4">
-        <v>164.98</v>
+        <v>164.92</v>
       </c>
       <c r="AY4">
         <v>105.51</v>
@@ -6857,28 +7078,28 @@
         <v>61.64</v>
       </c>
       <c r="BC4">
-        <v>59.98</v>
+        <v>60.05</v>
       </c>
       <c r="BD4">
-        <v>71.040000000000006</v>
+        <v>70.98</v>
       </c>
       <c r="BE4">
         <v>80.569999999999993</v>
       </c>
       <c r="BF4">
-        <v>76.099999999999994</v>
+        <v>76.22</v>
       </c>
       <c r="BG4">
-        <v>68.55</v>
+        <v>68.489999999999995</v>
       </c>
       <c r="BH4">
-        <v>76.8</v>
+        <v>76.739999999999995</v>
       </c>
       <c r="BI4">
         <v>75.069999999999993</v>
       </c>
       <c r="BJ4">
-        <v>63.31</v>
+        <v>63.24</v>
       </c>
       <c r="BK4">
         <v>54.8</v>
@@ -6911,21 +7132,30 @@
         <v>1.92</v>
       </c>
       <c r="BU4">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="BV4">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="BW4">
-        <v>4.16</v>
+        <v>4.22</v>
       </c>
       <c r="BX4">
-        <v>5.69</v>
+        <v>5.44</v>
+      </c>
+      <c r="BY4">
+        <v>9.4</v>
+      </c>
+      <c r="BZ4">
+        <v>14.07</v>
+      </c>
+      <c r="CA4">
+        <v>20.65</v>
       </c>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>0.36</v>
@@ -6949,7 +7179,7 @@
         <v>35.700000000000003</v>
       </c>
       <c r="I5">
-        <v>24.86</v>
+        <v>24.83</v>
       </c>
       <c r="J5">
         <v>13.72</v>
@@ -7027,52 +7257,52 @@
         <v>26.01</v>
       </c>
       <c r="AI5">
-        <v>55.76</v>
+        <v>55.79</v>
       </c>
       <c r="AJ5">
-        <v>86.12</v>
+        <v>86.09</v>
       </c>
       <c r="AK5">
         <v>104.18</v>
       </c>
       <c r="AL5">
-        <v>115.35</v>
+        <v>115.26</v>
       </c>
       <c r="AM5">
-        <v>132.32</v>
+        <v>132.26</v>
       </c>
       <c r="AN5">
-        <v>144.94999999999999</v>
+        <v>144.88999999999999</v>
       </c>
       <c r="AO5">
         <v>165.26</v>
       </c>
       <c r="AP5">
-        <v>214.74</v>
+        <v>214.71</v>
       </c>
       <c r="AQ5">
-        <v>250.65</v>
+        <v>250.62</v>
       </c>
       <c r="AR5">
-        <v>225.18</v>
+        <v>224.97</v>
       </c>
       <c r="AS5">
-        <v>208.42</v>
+        <v>208.36</v>
       </c>
       <c r="AT5">
-        <v>232.92</v>
+        <v>232.74</v>
       </c>
       <c r="AU5">
-        <v>203.14</v>
+        <v>203.11</v>
       </c>
       <c r="AV5">
-        <v>161.80000000000001</v>
+        <v>161.83000000000001</v>
       </c>
       <c r="AW5">
-        <v>127.28</v>
+        <v>127.25</v>
       </c>
       <c r="AX5">
-        <v>95.44</v>
+        <v>95.41</v>
       </c>
       <c r="AY5">
         <v>69.510000000000005</v>
@@ -7084,40 +7314,40 @@
         <v>53.97</v>
       </c>
       <c r="BB5">
-        <v>46.99</v>
+        <v>47.05</v>
       </c>
       <c r="BC5">
-        <v>49.81</v>
+        <v>49.75</v>
       </c>
       <c r="BD5">
         <v>54.46</v>
       </c>
       <c r="BE5">
-        <v>64.63</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="BF5">
-        <v>57.43</v>
+        <v>57.46</v>
       </c>
       <c r="BG5">
-        <v>59.59</v>
+        <v>59.53</v>
       </c>
       <c r="BH5">
-        <v>67.33</v>
+        <v>67.3</v>
       </c>
       <c r="BI5">
-        <v>61.44</v>
+        <v>61.47</v>
       </c>
       <c r="BJ5">
-        <v>48.3</v>
+        <v>48.36</v>
       </c>
       <c r="BK5">
-        <v>41.5</v>
+        <v>41.47</v>
       </c>
       <c r="BL5">
-        <v>27.93</v>
+        <v>27.96</v>
       </c>
       <c r="BM5">
-        <v>21.01</v>
+        <v>21.04</v>
       </c>
       <c r="BN5">
         <v>11.57</v>
@@ -7126,22 +7356,22 @@
         <v>6.44</v>
       </c>
       <c r="BP5">
-        <v>4.74</v>
+        <v>4.71</v>
       </c>
       <c r="BQ5">
         <v>1.88</v>
       </c>
       <c r="BR5">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="BS5">
         <v>1.1499999999999999</v>
       </c>
       <c r="BT5">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="BU5">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="BV5">
         <v>2.31</v>
@@ -7150,12 +7380,21 @@
         <v>3.34</v>
       </c>
       <c r="BX5">
-        <v>5.13</v>
+        <v>5.22</v>
+      </c>
+      <c r="BY5">
+        <v>7.04</v>
+      </c>
+      <c r="BZ5">
+        <v>8.99</v>
+      </c>
+      <c r="CA5">
+        <v>14.33</v>
       </c>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>0.62</v>
@@ -7167,7 +7406,7 @@
         <v>14.73</v>
       </c>
       <c r="E6">
-        <v>36.19</v>
+        <v>36.17</v>
       </c>
       <c r="F6">
         <v>46.13</v>
@@ -7248,7 +7487,7 @@
         <v>6.01</v>
       </c>
       <c r="AF6">
-        <v>7.97</v>
+        <v>7.95</v>
       </c>
       <c r="AG6">
         <v>13</v>
@@ -7257,7 +7496,7 @@
         <v>23.29</v>
       </c>
       <c r="AI6">
-        <v>42</v>
+        <v>42.05</v>
       </c>
       <c r="AJ6">
         <v>68.209999999999994</v>
@@ -7266,34 +7505,34 @@
         <v>78.760000000000005</v>
       </c>
       <c r="AL6">
-        <v>84.77</v>
+        <v>84.69</v>
       </c>
       <c r="AM6">
-        <v>87.22</v>
+        <v>87.17</v>
       </c>
       <c r="AN6">
-        <v>90.01</v>
+        <v>89.98</v>
       </c>
       <c r="AO6">
-        <v>102.39</v>
+        <v>102.29</v>
       </c>
       <c r="AP6">
-        <v>128.96</v>
+        <v>129.01</v>
       </c>
       <c r="AQ6">
-        <v>153.21</v>
+        <v>153.13</v>
       </c>
       <c r="AR6">
-        <v>131.62</v>
+        <v>131.63999999999999</v>
       </c>
       <c r="AS6">
-        <v>119.65</v>
+        <v>119.59</v>
       </c>
       <c r="AT6">
-        <v>134.69</v>
+        <v>134.53</v>
       </c>
       <c r="AU6">
-        <v>111.29</v>
+        <v>111.26</v>
       </c>
       <c r="AV6">
         <v>87.94</v>
@@ -7305,7 +7544,7 @@
         <v>56.7</v>
       </c>
       <c r="AY6">
-        <v>43.91</v>
+        <v>43.88</v>
       </c>
       <c r="AZ6">
         <v>44.16</v>
@@ -7320,34 +7559,34 @@
         <v>36.729999999999997</v>
       </c>
       <c r="BD6">
-        <v>48.83</v>
+        <v>48.86</v>
       </c>
       <c r="BE6">
-        <v>57.24</v>
+        <v>57.3</v>
       </c>
       <c r="BF6">
-        <v>56.24</v>
+        <v>56.16</v>
       </c>
       <c r="BG6">
-        <v>60.65</v>
+        <v>60.67</v>
       </c>
       <c r="BH6">
-        <v>69.83</v>
+        <v>69.78</v>
       </c>
       <c r="BI6">
         <v>64.180000000000007</v>
       </c>
       <c r="BJ6">
-        <v>54.69</v>
+        <v>54.66</v>
       </c>
       <c r="BK6">
-        <v>42.87</v>
+        <v>42.93</v>
       </c>
       <c r="BL6">
-        <v>29.51</v>
+        <v>29.49</v>
       </c>
       <c r="BM6">
-        <v>20.04</v>
+        <v>19.97</v>
       </c>
       <c r="BN6">
         <v>10.55</v>
@@ -7368,7 +7607,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="BT6">
-        <v>1.1599999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="BU6">
         <v>1.29</v>
@@ -7377,15 +7616,24 @@
         <v>1.65</v>
       </c>
       <c r="BW6">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="BX6">
-        <v>3.17</v>
+        <v>3.15</v>
+      </c>
+      <c r="BY6">
+        <v>5.86</v>
+      </c>
+      <c r="BZ6">
+        <v>7.3</v>
+      </c>
+      <c r="CA6">
+        <v>10.27</v>
       </c>
     </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B7">
         <v>0.3</v>
@@ -7406,7 +7654,7 @@
         <v>28.39</v>
       </c>
       <c r="H7">
-        <v>17.2</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="I7">
         <v>11.51</v>
@@ -7472,7 +7720,7 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="AD7">
-        <v>7.08</v>
+        <v>7.1</v>
       </c>
       <c r="AE7">
         <v>7.27</v>
@@ -7493,46 +7741,46 @@
         <v>78.47</v>
       </c>
       <c r="AK7">
-        <v>86.77</v>
+        <v>86.74</v>
       </c>
       <c r="AL7">
-        <v>89.93</v>
+        <v>89.9</v>
       </c>
       <c r="AM7">
-        <v>91.34</v>
+        <v>91.29</v>
       </c>
       <c r="AN7">
-        <v>86.93</v>
+        <v>86.88</v>
       </c>
       <c r="AO7">
         <v>94.74</v>
       </c>
       <c r="AP7">
-        <v>119.38</v>
+        <v>119.4</v>
       </c>
       <c r="AQ7">
-        <v>140.25</v>
+        <v>140.28</v>
       </c>
       <c r="AR7">
-        <v>121.04</v>
+        <v>121.01</v>
       </c>
       <c r="AS7">
-        <v>112.38</v>
+        <v>112.35</v>
       </c>
       <c r="AT7">
         <v>131.6</v>
       </c>
       <c r="AU7">
-        <v>99.73</v>
+        <v>99.7</v>
       </c>
       <c r="AV7">
-        <v>83.12</v>
+        <v>83.1</v>
       </c>
       <c r="AW7">
-        <v>67.5</v>
+        <v>67.47</v>
       </c>
       <c r="AX7">
-        <v>56.18</v>
+        <v>56.15</v>
       </c>
       <c r="AY7">
         <v>42.92</v>
@@ -7541,16 +7789,16 @@
         <v>43.52</v>
       </c>
       <c r="BA7">
-        <v>44.77</v>
+        <v>44.75</v>
       </c>
       <c r="BB7">
-        <v>42.35</v>
+        <v>42.3</v>
       </c>
       <c r="BC7">
-        <v>49.32</v>
+        <v>49.24</v>
       </c>
       <c r="BD7">
-        <v>64.72</v>
+        <v>64.7</v>
       </c>
       <c r="BE7">
         <v>77.3</v>
@@ -7562,7 +7810,7 @@
         <v>85.54</v>
       </c>
       <c r="BH7">
-        <v>98.34</v>
+        <v>98.28</v>
       </c>
       <c r="BI7">
         <v>91.72</v>
@@ -7571,7 +7819,7 @@
         <v>78.36</v>
       </c>
       <c r="BK7">
-        <v>62.68</v>
+        <v>62.76</v>
       </c>
       <c r="BL7">
         <v>43.36</v>
@@ -7598,7 +7846,7 @@
         <v>1.82</v>
       </c>
       <c r="BT7">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="BU7">
         <v>1.82</v>
@@ -7610,12 +7858,21 @@
         <v>4.57</v>
       </c>
       <c r="BX7">
-        <v>4.68</v>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="BY7">
+        <v>8.08</v>
+      </c>
+      <c r="BZ7">
+        <v>10.72</v>
+      </c>
+      <c r="CA7">
+        <v>16.41</v>
       </c>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B8">
         <v>0.51</v>
@@ -7678,7 +7935,7 @@
         <v>1.46</v>
       </c>
       <c r="V8">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W8">
         <v>1.77</v>
@@ -7711,58 +7968,58 @@
         <v>9.26</v>
       </c>
       <c r="AG8">
-        <v>14.14</v>
+        <v>14.12</v>
       </c>
       <c r="AH8">
         <v>26.38</v>
       </c>
       <c r="AI8">
-        <v>46.63</v>
+        <v>46.61</v>
       </c>
       <c r="AJ8">
-        <v>73.12</v>
+        <v>73.08</v>
       </c>
       <c r="AK8">
-        <v>87.71</v>
+        <v>87.69</v>
       </c>
       <c r="AL8">
         <v>82.61</v>
       </c>
       <c r="AM8">
-        <v>85.43</v>
+        <v>85.45</v>
       </c>
       <c r="AN8">
-        <v>85.1</v>
+        <v>85.08</v>
       </c>
       <c r="AO8">
         <v>84.71</v>
       </c>
       <c r="AP8">
-        <v>106.4</v>
+        <v>106.38</v>
       </c>
       <c r="AQ8">
-        <v>130.81</v>
+        <v>130.77000000000001</v>
       </c>
       <c r="AR8">
-        <v>114.92</v>
+        <v>114.88</v>
       </c>
       <c r="AS8">
-        <v>102.39</v>
+        <v>102.41</v>
       </c>
       <c r="AT8">
-        <v>117.97</v>
+        <v>117.95</v>
       </c>
       <c r="AU8">
-        <v>90.86</v>
+        <v>90.9</v>
       </c>
       <c r="AV8">
         <v>74.599999999999994</v>
       </c>
       <c r="AW8">
-        <v>64.31</v>
+        <v>64.33</v>
       </c>
       <c r="AX8">
-        <v>52.21</v>
+        <v>52.19</v>
       </c>
       <c r="AY8">
         <v>39.39</v>
@@ -7771,46 +8028,46 @@
         <v>42.05</v>
       </c>
       <c r="BA8">
-        <v>43.61</v>
+        <v>43.59</v>
       </c>
       <c r="BB8">
-        <v>41.04</v>
+        <v>41.02</v>
       </c>
       <c r="BC8">
-        <v>47.38</v>
+        <v>47.36</v>
       </c>
       <c r="BD8">
         <v>65.63</v>
       </c>
       <c r="BE8">
-        <v>80.260000000000005</v>
+        <v>80.239999999999995</v>
       </c>
       <c r="BF8">
         <v>81.58</v>
       </c>
       <c r="BG8">
-        <v>88.6</v>
+        <v>88.62</v>
       </c>
       <c r="BH8">
-        <v>101.09</v>
+        <v>101.05</v>
       </c>
       <c r="BI8">
         <v>95.25</v>
       </c>
       <c r="BJ8">
-        <v>81.7</v>
+        <v>81.72</v>
       </c>
       <c r="BK8">
-        <v>67.790000000000006</v>
+        <v>67.73</v>
       </c>
       <c r="BL8">
         <v>47.73</v>
       </c>
       <c r="BM8">
-        <v>33.32</v>
+        <v>33.28</v>
       </c>
       <c r="BN8">
-        <v>15.89</v>
+        <v>15.87</v>
       </c>
       <c r="BO8">
         <v>12.22</v>
@@ -7828,24 +8085,33 @@
         <v>1.61</v>
       </c>
       <c r="BT8">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="BU8">
-        <v>2.39</v>
+        <v>2.37</v>
       </c>
       <c r="BV8">
-        <v>3.27</v>
+        <v>3.25</v>
       </c>
       <c r="BW8">
         <v>4.9400000000000004</v>
       </c>
       <c r="BX8">
-        <v>5.74</v>
+        <v>5.82</v>
+      </c>
+      <c r="BY8">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="BZ8">
+        <v>12.16</v>
+      </c>
+      <c r="CA8">
+        <v>16.48</v>
       </c>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B9">
         <v>1.1200000000000001</v>
@@ -7854,7 +8120,7 @@
         <v>7.6</v>
       </c>
       <c r="D9">
-        <v>28.28</v>
+        <v>28.29</v>
       </c>
       <c r="E9">
         <v>44.65</v>
@@ -7881,7 +8147,7 @@
         <v>4.2300000000000004</v>
       </c>
       <c r="M9">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="N9">
         <v>2.99</v>
@@ -7932,7 +8198,7 @@
         <v>6</v>
       </c>
       <c r="AD9">
-        <v>8.68</v>
+        <v>8.66</v>
       </c>
       <c r="AE9">
         <v>9.6</v>
@@ -7950,19 +8216,19 @@
         <v>70.06</v>
       </c>
       <c r="AJ9">
-        <v>106.06</v>
+        <v>106.02</v>
       </c>
       <c r="AK9">
-        <v>121.41</v>
+        <v>121.36</v>
       </c>
       <c r="AL9">
-        <v>122.61</v>
+        <v>122.63</v>
       </c>
       <c r="AM9">
         <v>129.22</v>
       </c>
       <c r="AN9">
-        <v>124.07</v>
+        <v>124.03</v>
       </c>
       <c r="AO9">
         <v>135.41999999999999</v>
@@ -7971,28 +8237,28 @@
         <v>166.86</v>
       </c>
       <c r="AQ9">
-        <v>195.4</v>
+        <v>195.46</v>
       </c>
       <c r="AR9">
-        <v>162.6</v>
+        <v>162.54</v>
       </c>
       <c r="AS9">
-        <v>146.31</v>
+        <v>146.29</v>
       </c>
       <c r="AT9">
         <v>164.24</v>
       </c>
       <c r="AU9">
-        <v>133.69999999999999</v>
+        <v>133.72</v>
       </c>
       <c r="AV9">
-        <v>110.47</v>
+        <v>110.45</v>
       </c>
       <c r="AW9">
-        <v>90.71</v>
+        <v>90.69</v>
       </c>
       <c r="AX9">
-        <v>74.58</v>
+        <v>74.63</v>
       </c>
       <c r="AY9">
         <v>56.43</v>
@@ -8001,13 +8267,13 @@
         <v>57.51</v>
       </c>
       <c r="BA9">
-        <v>62.25</v>
+        <v>62.22</v>
       </c>
       <c r="BB9">
         <v>60.54</v>
       </c>
       <c r="BC9">
-        <v>72.95</v>
+        <v>72.930000000000007</v>
       </c>
       <c r="BD9">
         <v>93.97</v>
@@ -8016,43 +8282,43 @@
         <v>116.33</v>
       </c>
       <c r="BF9">
-        <v>113.39</v>
+        <v>113.43</v>
       </c>
       <c r="BG9">
-        <v>121.73</v>
+        <v>121.71</v>
       </c>
       <c r="BH9">
-        <v>134.46</v>
+        <v>134.41999999999999</v>
       </c>
       <c r="BI9">
-        <v>137.38</v>
+        <v>137.36000000000001</v>
       </c>
       <c r="BJ9">
-        <v>120.4</v>
+        <v>120.38</v>
       </c>
       <c r="BK9">
         <v>97.91</v>
       </c>
       <c r="BL9">
-        <v>66.13</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="BM9">
-        <v>46.97</v>
+        <v>46.96</v>
       </c>
       <c r="BN9">
-        <v>23.76</v>
+        <v>23.78</v>
       </c>
       <c r="BO9">
-        <v>15.07</v>
+        <v>15.09</v>
       </c>
       <c r="BP9">
-        <v>9.9</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="BQ9">
-        <v>4.99</v>
+        <v>5.01</v>
       </c>
       <c r="BR9">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="BS9">
         <v>2.74</v>
@@ -8064,18 +8330,27 @@
         <v>4.16</v>
       </c>
       <c r="BV9">
-        <v>5.19</v>
+        <v>5.21</v>
       </c>
       <c r="BW9">
-        <v>7.05</v>
+        <v>7.03</v>
       </c>
       <c r="BX9">
-        <v>8.23</v>
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="BY9">
+        <v>12.54</v>
+      </c>
+      <c r="BZ9">
+        <v>17.329999999999998</v>
+      </c>
+      <c r="CA9">
+        <v>25.83</v>
       </c>
     </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B10">
         <v>1.1299999999999999</v>
@@ -8084,7 +8359,7 @@
         <v>11.12</v>
       </c>
       <c r="D10">
-        <v>38.43</v>
+        <v>38.409999999999997</v>
       </c>
       <c r="E10">
         <v>53.33</v>
@@ -8117,7 +8392,7 @@
         <v>3.52</v>
       </c>
       <c r="O10">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="P10">
         <v>1.97</v>
@@ -8144,7 +8419,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="X10">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="Y10">
         <v>4.82</v>
@@ -8168,118 +8443,118 @@
         <v>12.85</v>
       </c>
       <c r="AF10">
-        <v>16.45</v>
+        <v>16.43</v>
       </c>
       <c r="AG10">
         <v>27.79</v>
       </c>
       <c r="AH10">
-        <v>44.51</v>
+        <v>44.56</v>
       </c>
       <c r="AI10">
         <v>85.45</v>
       </c>
       <c r="AJ10">
-        <v>133.21</v>
+        <v>133.18</v>
       </c>
       <c r="AK10">
-        <v>150.91999999999999</v>
+        <v>150.86000000000001</v>
       </c>
       <c r="AL10">
-        <v>152.79</v>
+        <v>152.78</v>
       </c>
       <c r="AM10">
-        <v>152.15</v>
+        <v>152.16999999999999</v>
       </c>
       <c r="AN10">
-        <v>146.57</v>
+        <v>146.56</v>
       </c>
       <c r="AO10">
-        <v>154.04</v>
+        <v>153.97999999999999</v>
       </c>
       <c r="AP10">
         <v>193.65</v>
       </c>
       <c r="AQ10">
-        <v>222.64</v>
+        <v>222.61</v>
       </c>
       <c r="AR10">
-        <v>183.96</v>
+        <v>183.9</v>
       </c>
       <c r="AS10">
-        <v>164.68</v>
+        <v>164.65</v>
       </c>
       <c r="AT10">
-        <v>183.06</v>
+        <v>182.98</v>
       </c>
       <c r="AU10">
-        <v>148.9</v>
+        <v>148.88999999999999</v>
       </c>
       <c r="AV10">
         <v>123.73</v>
       </c>
       <c r="AW10">
-        <v>104.05</v>
+        <v>104.03</v>
       </c>
       <c r="AX10">
-        <v>86.24</v>
+        <v>86.21</v>
       </c>
       <c r="AY10">
-        <v>66.900000000000006</v>
+        <v>66.91</v>
       </c>
       <c r="AZ10">
-        <v>68.34</v>
+        <v>68.319999999999993</v>
       </c>
       <c r="BA10">
-        <v>71.81</v>
+        <v>71.790000000000006</v>
       </c>
       <c r="BB10">
-        <v>68.81</v>
+        <v>68.84</v>
       </c>
       <c r="BC10">
-        <v>84.81</v>
+        <v>84.75</v>
       </c>
       <c r="BD10">
-        <v>107.79</v>
+        <v>107.8</v>
       </c>
       <c r="BE10">
-        <v>135.04</v>
+        <v>135.01</v>
       </c>
       <c r="BF10">
-        <v>132.77000000000001</v>
+        <v>132.78</v>
       </c>
       <c r="BG10">
         <v>143.68</v>
       </c>
       <c r="BH10">
-        <v>158.37</v>
+        <v>158.34</v>
       </c>
       <c r="BI10">
-        <v>163.66999999999999</v>
+        <v>163.66</v>
       </c>
       <c r="BJ10">
-        <v>147.37</v>
+        <v>147.34</v>
       </c>
       <c r="BK10">
-        <v>116.1</v>
+        <v>116.08</v>
       </c>
       <c r="BL10">
-        <v>79.05</v>
+        <v>79.069999999999993</v>
       </c>
       <c r="BM10">
         <v>53.11</v>
       </c>
       <c r="BN10">
-        <v>28.66</v>
+        <v>28.65</v>
       </c>
       <c r="BO10">
-        <v>18.690000000000001</v>
+        <v>18.670000000000002</v>
       </c>
       <c r="BP10">
         <v>11.8</v>
       </c>
       <c r="BQ10">
-        <v>5.39</v>
+        <v>5.4</v>
       </c>
       <c r="BR10">
         <v>3.64</v>
@@ -8288,24 +8563,33 @@
         <v>3.41</v>
       </c>
       <c r="BT10">
-        <v>3.65</v>
+        <v>3.64</v>
       </c>
       <c r="BU10">
-        <v>5.43</v>
+        <v>5.45</v>
       </c>
       <c r="BV10">
-        <v>8.06</v>
+        <v>8.09</v>
       </c>
       <c r="BW10">
-        <v>8.5</v>
+        <v>8.59</v>
       </c>
       <c r="BX10">
-        <v>11.46</v>
+        <v>11.67</v>
+      </c>
+      <c r="BY10">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="BZ10">
+        <v>26.76</v>
+      </c>
+      <c r="CA10">
+        <v>34.64</v>
       </c>
     </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B11">
         <v>1.98</v>
@@ -8314,16 +8598,16 @@
         <v>14.59</v>
       </c>
       <c r="D11">
-        <v>46.08</v>
+        <v>46.06</v>
       </c>
       <c r="E11">
         <v>59.63</v>
       </c>
       <c r="F11">
-        <v>55.14</v>
+        <v>55.12</v>
       </c>
       <c r="G11">
-        <v>38.880000000000003</v>
+        <v>38.85</v>
       </c>
       <c r="H11">
         <v>23.25</v>
@@ -8332,7 +8616,7 @@
         <v>14.69</v>
       </c>
       <c r="J11">
-        <v>8.9700000000000006</v>
+        <v>8.93</v>
       </c>
       <c r="K11">
         <v>7.76</v>
@@ -8380,10 +8664,10 @@
         <v>7.05</v>
       </c>
       <c r="Z11">
-        <v>8.35</v>
+        <v>8.33</v>
       </c>
       <c r="AA11">
-        <v>8</v>
+        <v>8.02</v>
       </c>
       <c r="AB11">
         <v>8.18</v>
@@ -8401,43 +8685,43 @@
         <v>17.93</v>
       </c>
       <c r="AG11">
-        <v>33.83</v>
+        <v>33.81</v>
       </c>
       <c r="AH11">
-        <v>53.34</v>
+        <v>53.35</v>
       </c>
       <c r="AI11">
-        <v>95.69</v>
+        <v>95.64</v>
       </c>
       <c r="AJ11">
         <v>145.58000000000001</v>
       </c>
       <c r="AK11">
-        <v>163.41999999999999</v>
+        <v>163.38999999999999</v>
       </c>
       <c r="AL11">
-        <v>163.93</v>
+        <v>163.9</v>
       </c>
       <c r="AM11">
-        <v>161.66</v>
+        <v>161.6</v>
       </c>
       <c r="AN11">
-        <v>153.97</v>
+        <v>153.96</v>
       </c>
       <c r="AO11">
-        <v>157.24</v>
+        <v>157.16</v>
       </c>
       <c r="AP11">
         <v>197.52</v>
       </c>
       <c r="AQ11">
-        <v>222.36</v>
+        <v>222.32</v>
       </c>
       <c r="AR11">
-        <v>178.52</v>
+        <v>178.5</v>
       </c>
       <c r="AS11">
-        <v>156.88</v>
+        <v>156.86000000000001</v>
       </c>
       <c r="AT11">
         <v>180.35</v>
@@ -8446,73 +8730,73 @@
         <v>146.25</v>
       </c>
       <c r="AV11">
-        <v>121.89</v>
+        <v>121.86</v>
       </c>
       <c r="AW11">
         <v>99.47</v>
       </c>
       <c r="AX11">
-        <v>79.040000000000006</v>
+        <v>79.06</v>
       </c>
       <c r="AY11">
-        <v>64.22</v>
+        <v>64.25</v>
       </c>
       <c r="AZ11">
-        <v>67.12</v>
+        <v>67.11</v>
       </c>
       <c r="BA11">
-        <v>70.83</v>
+        <v>70.819999999999993</v>
       </c>
       <c r="BB11">
-        <v>73.709999999999994</v>
+        <v>73.69</v>
       </c>
       <c r="BC11">
-        <v>87.96</v>
+        <v>87.98</v>
       </c>
       <c r="BD11">
-        <v>112.29</v>
+        <v>112.28</v>
       </c>
       <c r="BE11">
-        <v>139.29</v>
+        <v>139.32</v>
       </c>
       <c r="BF11">
-        <v>135.94</v>
+        <v>135.97</v>
       </c>
       <c r="BG11">
-        <v>148.38999999999999</v>
+        <v>148.36000000000001</v>
       </c>
       <c r="BH11">
-        <v>165.64</v>
+        <v>165.58</v>
       </c>
       <c r="BI11">
-        <v>173.41</v>
+        <v>173.45</v>
       </c>
       <c r="BJ11">
         <v>151.31</v>
       </c>
       <c r="BK11">
-        <v>119.56</v>
+        <v>119.55</v>
       </c>
       <c r="BL11">
-        <v>81.52</v>
+        <v>81.53</v>
       </c>
       <c r="BM11">
-        <v>56.29</v>
+        <v>56.3</v>
       </c>
       <c r="BN11">
-        <v>30.73</v>
+        <v>30.68</v>
       </c>
       <c r="BO11">
-        <v>20.21</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="BP11">
         <v>12.26</v>
       </c>
       <c r="BQ11">
-        <v>6.54</v>
+        <v>6.56</v>
       </c>
       <c r="BR11">
-        <v>4.43</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="BS11">
         <v>3.32</v>
@@ -8521,21 +8805,30 @@
         <v>4.26</v>
       </c>
       <c r="BU11">
-        <v>6.72</v>
+        <v>6.74</v>
       </c>
       <c r="BV11">
         <v>9.24</v>
       </c>
       <c r="BW11">
-        <v>12.06</v>
+        <v>12.21</v>
       </c>
       <c r="BX11">
-        <v>14.17</v>
+        <v>14.52</v>
+      </c>
+      <c r="BY11">
+        <v>24.43</v>
+      </c>
+      <c r="BZ11">
+        <v>37.57</v>
+      </c>
+      <c r="CA11">
+        <v>48.58</v>
       </c>
     </row>
-    <row r="12" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B12">
         <v>1.88</v>
@@ -8553,7 +8846,7 @@
         <v>51.39</v>
       </c>
       <c r="G12">
-        <v>36.33</v>
+        <v>36.31</v>
       </c>
       <c r="H12">
         <v>22.22</v>
@@ -8601,7 +8894,7 @@
         <v>6.33</v>
       </c>
       <c r="W12">
-        <v>7.32</v>
+        <v>7.34</v>
       </c>
       <c r="X12">
         <v>8.65</v>
@@ -8616,7 +8909,7 @@
         <v>11.47</v>
       </c>
       <c r="AB12">
-        <v>11.66</v>
+        <v>11.64</v>
       </c>
       <c r="AC12">
         <v>13.2</v>
@@ -8631,34 +8924,34 @@
         <v>22.77</v>
       </c>
       <c r="AG12">
-        <v>38.57</v>
+        <v>38.590000000000003</v>
       </c>
       <c r="AH12">
-        <v>59.2</v>
+        <v>59.18</v>
       </c>
       <c r="AI12">
-        <v>110.4</v>
+        <v>110.39</v>
       </c>
       <c r="AJ12">
-        <v>159.13999999999999</v>
+        <v>159.19999999999999</v>
       </c>
       <c r="AK12">
-        <v>179.79</v>
+        <v>179.71</v>
       </c>
       <c r="AL12">
-        <v>175.98</v>
+        <v>176.04</v>
       </c>
       <c r="AM12">
         <v>183.45</v>
       </c>
       <c r="AN12">
-        <v>171.86</v>
+        <v>171.81</v>
       </c>
       <c r="AO12">
-        <v>175.14</v>
+        <v>175.13</v>
       </c>
       <c r="AP12">
-        <v>210.4</v>
+        <v>210.34</v>
       </c>
       <c r="AQ12">
         <v>235.9</v>
@@ -8670,19 +8963,19 @@
         <v>162.16999999999999</v>
       </c>
       <c r="AT12">
-        <v>185.8</v>
+        <v>185.75</v>
       </c>
       <c r="AU12">
-        <v>150.91</v>
+        <v>150.85</v>
       </c>
       <c r="AV12">
         <v>123.05</v>
       </c>
       <c r="AW12">
-        <v>100.52</v>
+        <v>100.54</v>
       </c>
       <c r="AX12">
-        <v>85.16</v>
+        <v>85.18</v>
       </c>
       <c r="AY12">
         <v>67.34</v>
@@ -8691,16 +8984,16 @@
         <v>71.569999999999993</v>
       </c>
       <c r="BA12">
-        <v>76.78</v>
+        <v>76.8</v>
       </c>
       <c r="BB12">
         <v>81.33</v>
       </c>
       <c r="BC12">
-        <v>98.32</v>
+        <v>98.31</v>
       </c>
       <c r="BD12">
-        <v>123.7</v>
+        <v>123.58</v>
       </c>
       <c r="BE12">
         <v>154.65</v>
@@ -8709,13 +9002,13 @@
         <v>151.55000000000001</v>
       </c>
       <c r="BG12">
-        <v>166.25</v>
+        <v>166.23</v>
       </c>
       <c r="BH12">
-        <v>192.76</v>
+        <v>192.74</v>
       </c>
       <c r="BI12">
-        <v>202.43</v>
+        <v>202.45</v>
       </c>
       <c r="BJ12">
         <v>171.12</v>
@@ -8724,7 +9017,7 @@
         <v>141.11000000000001</v>
       </c>
       <c r="BL12">
-        <v>96.45</v>
+        <v>96.47</v>
       </c>
       <c r="BM12">
         <v>68.06</v>
@@ -8733,16 +9026,16 @@
         <v>39.46</v>
       </c>
       <c r="BO12">
-        <v>24.8</v>
+        <v>24.78</v>
       </c>
       <c r="BP12">
-        <v>16.55</v>
+        <v>16.54</v>
       </c>
       <c r="BQ12">
-        <v>8.93</v>
+        <v>8.91</v>
       </c>
       <c r="BR12">
-        <v>5.21</v>
+        <v>5.2</v>
       </c>
       <c r="BS12">
         <v>4.8899999999999997</v>
@@ -8754,18 +9047,27 @@
         <v>8.25</v>
       </c>
       <c r="BV12">
-        <v>12.97</v>
+        <v>13.01</v>
       </c>
       <c r="BW12">
-        <v>17.29</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="BX12">
-        <v>21.92</v>
+        <v>22.22</v>
+      </c>
+      <c r="BY12">
+        <v>36.880000000000003</v>
+      </c>
+      <c r="BZ12">
+        <v>58.56</v>
+      </c>
+      <c r="CA12">
+        <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B13">
         <v>1.73</v>
@@ -8783,7 +9085,7 @@
         <v>46.97</v>
       </c>
       <c r="G13">
-        <v>34.159999999999997</v>
+        <v>34.14</v>
       </c>
       <c r="H13">
         <v>20.76</v>
@@ -8804,7 +9106,7 @@
         <v>4.95</v>
       </c>
       <c r="N13">
-        <v>4.32</v>
+        <v>4.34</v>
       </c>
       <c r="O13">
         <v>3.56</v>
@@ -8831,10 +9133,10 @@
         <v>6.54</v>
       </c>
       <c r="W13">
-        <v>8.8000000000000007</v>
+        <v>8.82</v>
       </c>
       <c r="X13">
-        <v>9.98</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="Y13">
         <v>13.02</v>
@@ -8867,112 +9169,112 @@
         <v>59.16</v>
       </c>
       <c r="AI13">
-        <v>108.13</v>
+        <v>108.11</v>
       </c>
       <c r="AJ13">
-        <v>160.63999999999999</v>
+        <v>160.6</v>
       </c>
       <c r="AK13">
-        <v>180.85</v>
+        <v>180.83</v>
       </c>
       <c r="AL13">
-        <v>183.25</v>
+        <v>183.19</v>
       </c>
       <c r="AM13">
-        <v>188.2</v>
+        <v>188.18</v>
       </c>
       <c r="AN13">
-        <v>179.49</v>
+        <v>179.44</v>
       </c>
       <c r="AO13">
-        <v>179.61</v>
+        <v>179.51</v>
       </c>
       <c r="AP13">
-        <v>222.02</v>
+        <v>222.1</v>
       </c>
       <c r="AQ13">
-        <v>244.37</v>
+        <v>244.28</v>
       </c>
       <c r="AR13">
-        <v>193.72</v>
+        <v>193.7</v>
       </c>
       <c r="AS13">
         <v>163.52000000000001</v>
       </c>
       <c r="AT13">
-        <v>194.42</v>
+        <v>194.46</v>
       </c>
       <c r="AU13">
-        <v>154</v>
+        <v>153.94</v>
       </c>
       <c r="AV13">
-        <v>126.91</v>
+        <v>126.89</v>
       </c>
       <c r="AW13">
-        <v>104.2</v>
+        <v>104.26</v>
       </c>
       <c r="AX13">
-        <v>87.19</v>
+        <v>87.1</v>
       </c>
       <c r="AY13">
-        <v>70.63</v>
+        <v>70.52</v>
       </c>
       <c r="AZ13">
         <v>73.150000000000006</v>
       </c>
       <c r="BA13">
-        <v>84.33</v>
+        <v>84.25</v>
       </c>
       <c r="BB13">
-        <v>87.02</v>
+        <v>87</v>
       </c>
       <c r="BC13">
         <v>108.8</v>
       </c>
       <c r="BD13">
-        <v>142.21</v>
+        <v>142.19</v>
       </c>
       <c r="BE13">
-        <v>185.09</v>
+        <v>185.11</v>
       </c>
       <c r="BF13">
         <v>169.61</v>
       </c>
       <c r="BG13">
-        <v>188.94</v>
+        <v>189</v>
       </c>
       <c r="BH13">
-        <v>218.48</v>
+        <v>218.43</v>
       </c>
       <c r="BI13">
         <v>220.49</v>
       </c>
       <c r="BJ13">
-        <v>195.15</v>
+        <v>195.11</v>
       </c>
       <c r="BK13">
         <v>157.38</v>
       </c>
       <c r="BL13">
-        <v>108.78</v>
+        <v>108.66</v>
       </c>
       <c r="BM13">
-        <v>81.239999999999995</v>
+        <v>81.2</v>
       </c>
       <c r="BN13">
-        <v>44.96</v>
+        <v>44.94</v>
       </c>
       <c r="BO13">
-        <v>32.53</v>
+        <v>32.51</v>
       </c>
       <c r="BP13">
-        <v>21.92</v>
+        <v>21.94</v>
       </c>
       <c r="BQ13">
         <v>10.74</v>
       </c>
       <c r="BR13">
-        <v>7.19</v>
+        <v>7.21</v>
       </c>
       <c r="BS13">
         <v>5.48</v>
@@ -8981,21 +9283,30 @@
         <v>6.99</v>
       </c>
       <c r="BU13">
-        <v>10.29</v>
+        <v>10.31</v>
       </c>
       <c r="BV13">
         <v>14.97</v>
       </c>
       <c r="BW13">
-        <v>20.13</v>
+        <v>20.11</v>
       </c>
       <c r="BX13">
-        <v>28.58</v>
+        <v>29.37</v>
+      </c>
+      <c r="BY13">
+        <v>47.71</v>
+      </c>
+      <c r="BZ13">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="CA13">
+        <v>102.87</v>
       </c>
     </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B14">
         <v>1.27</v>
@@ -9004,7 +9315,7 @@
         <v>10.34</v>
       </c>
       <c r="D14">
-        <v>33.159999999999997</v>
+        <v>33.14</v>
       </c>
       <c r="E14">
         <v>45.07</v>
@@ -9022,10 +9333,10 @@
         <v>14.43</v>
       </c>
       <c r="J14">
-        <v>8.77</v>
+        <v>8.75</v>
       </c>
       <c r="K14">
-        <v>8.02</v>
+        <v>8</v>
       </c>
       <c r="L14">
         <v>6.64</v>
@@ -9076,13 +9387,13 @@
         <v>13.54</v>
       </c>
       <c r="AB14">
-        <v>12.19</v>
+        <v>12.21</v>
       </c>
       <c r="AC14">
-        <v>13.22</v>
+        <v>13.2</v>
       </c>
       <c r="AD14">
-        <v>17.11</v>
+        <v>17.13</v>
       </c>
       <c r="AE14">
         <v>19.04</v>
@@ -9100,132 +9411,141 @@
         <v>101.83</v>
       </c>
       <c r="AJ14">
-        <v>152.88</v>
+        <v>152.86000000000001</v>
       </c>
       <c r="AK14">
-        <v>169.48</v>
+        <v>169.34</v>
       </c>
       <c r="AL14">
-        <v>173.75</v>
+        <v>173.73</v>
       </c>
       <c r="AM14">
         <v>173.81</v>
       </c>
       <c r="AN14">
-        <v>164.85</v>
+        <v>164.77</v>
       </c>
       <c r="AO14">
-        <v>172.88</v>
+        <v>172.79</v>
       </c>
       <c r="AP14">
-        <v>207.86</v>
+        <v>207.84</v>
       </c>
       <c r="AQ14">
-        <v>231.19</v>
+        <v>231.21</v>
       </c>
       <c r="AR14">
-        <v>180.12</v>
+        <v>180.06</v>
       </c>
       <c r="AS14">
-        <v>152.80000000000001</v>
+        <v>152.76</v>
       </c>
       <c r="AT14">
         <v>191.81</v>
       </c>
       <c r="AU14">
-        <v>151.38</v>
+        <v>151.4</v>
       </c>
       <c r="AV14">
         <v>119.89</v>
       </c>
       <c r="AW14">
-        <v>98.16</v>
+        <v>98.2</v>
       </c>
       <c r="AX14">
         <v>84.32</v>
       </c>
       <c r="AY14">
-        <v>67.97</v>
+        <v>67.95</v>
       </c>
       <c r="AZ14">
-        <v>70.16</v>
+        <v>70.14</v>
       </c>
       <c r="BA14">
-        <v>79.069999999999993</v>
+        <v>79.03</v>
       </c>
       <c r="BB14">
-        <v>86.53</v>
+        <v>86.52</v>
       </c>
       <c r="BC14">
-        <v>108.86</v>
+        <v>108.9</v>
       </c>
       <c r="BD14">
-        <v>143.47999999999999</v>
+        <v>143.44</v>
       </c>
       <c r="BE14">
-        <v>178.87</v>
+        <v>178.84</v>
       </c>
       <c r="BF14">
-        <v>169.91</v>
+        <v>169.89</v>
       </c>
       <c r="BG14">
         <v>179.29</v>
       </c>
       <c r="BH14">
-        <v>213</v>
+        <v>212.98</v>
       </c>
       <c r="BI14">
-        <v>213.17</v>
+        <v>213.15</v>
       </c>
       <c r="BJ14">
-        <v>189.56</v>
+        <v>189.59</v>
       </c>
       <c r="BK14">
-        <v>150.55000000000001</v>
+        <v>150.63</v>
       </c>
       <c r="BL14">
-        <v>106.46</v>
+        <v>106.42</v>
       </c>
       <c r="BM14">
-        <v>79.84</v>
+        <v>79.819999999999993</v>
       </c>
       <c r="BN14">
         <v>45.66</v>
       </c>
       <c r="BO14">
-        <v>31.97</v>
+        <v>31.99</v>
       </c>
       <c r="BP14">
-        <v>20.82</v>
+        <v>20.8</v>
       </c>
       <c r="BQ14">
         <v>10.32</v>
       </c>
       <c r="BR14">
-        <v>6.83</v>
+        <v>6.84</v>
       </c>
       <c r="BS14">
-        <v>6.39</v>
+        <v>6.41</v>
       </c>
       <c r="BT14">
-        <v>7.13</v>
+        <v>7.15</v>
       </c>
       <c r="BU14">
-        <v>12.25</v>
+        <v>12.19</v>
       </c>
       <c r="BV14">
-        <v>17.05</v>
+        <v>17.11</v>
       </c>
       <c r="BW14">
         <v>21.99</v>
       </c>
       <c r="BX14">
-        <v>29.46</v>
+        <v>30.12</v>
+      </c>
+      <c r="BY14">
+        <v>46.23</v>
+      </c>
+      <c r="BZ14">
+        <v>70.97</v>
+      </c>
+      <c r="CA14">
+        <v>96.82</v>
       </c>
     </row>
-    <row r="15" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B15">
         <v>1.26</v>
@@ -9240,10 +9560,10 @@
         <v>47.95</v>
       </c>
       <c r="F15">
-        <v>44.02</v>
+        <v>44</v>
       </c>
       <c r="G15">
-        <v>31.7</v>
+        <v>31.72</v>
       </c>
       <c r="H15">
         <v>21.94</v>
@@ -9252,7 +9572,7 @@
         <v>16.38</v>
       </c>
       <c r="J15">
-        <v>10.24</v>
+        <v>10.23</v>
       </c>
       <c r="K15">
         <v>8.86</v>
@@ -9285,7 +9605,7 @@
         <v>4.71</v>
       </c>
       <c r="U15">
-        <v>5.44</v>
+        <v>5.46</v>
       </c>
       <c r="V15">
         <v>6.95</v>
@@ -9306,7 +9626,7 @@
         <v>15.61</v>
       </c>
       <c r="AB15">
-        <v>17.09</v>
+        <v>17.07</v>
       </c>
       <c r="AC15">
         <v>17.07</v>
@@ -9324,7 +9644,7 @@
         <v>42.94</v>
       </c>
       <c r="AH15">
-        <v>70.2</v>
+        <v>70.25</v>
       </c>
       <c r="AI15">
         <v>122.22</v>
@@ -9333,64 +9653,64 @@
         <v>174.23</v>
       </c>
       <c r="AK15">
-        <v>190.68</v>
+        <v>190.62</v>
       </c>
       <c r="AL15">
-        <v>190.68</v>
+        <v>190.71</v>
       </c>
       <c r="AM15">
-        <v>183.51</v>
+        <v>183.47</v>
       </c>
       <c r="AN15">
-        <v>170.48</v>
+        <v>170.41</v>
       </c>
       <c r="AO15">
         <v>172.33</v>
       </c>
       <c r="AP15">
-        <v>209.56</v>
+        <v>209.54</v>
       </c>
       <c r="AQ15">
-        <v>237.13</v>
+        <v>237.06</v>
       </c>
       <c r="AR15">
-        <v>182.8</v>
+        <v>182.72</v>
       </c>
       <c r="AS15">
-        <v>167.33</v>
+        <v>167.29</v>
       </c>
       <c r="AT15">
-        <v>211.11</v>
+        <v>211.07</v>
       </c>
       <c r="AU15">
-        <v>164.69</v>
+        <v>164.62</v>
       </c>
       <c r="AV15">
         <v>127.75</v>
       </c>
       <c r="AW15">
-        <v>104.85</v>
+        <v>104.86</v>
       </c>
       <c r="AX15">
         <v>89.27</v>
       </c>
       <c r="AY15">
-        <v>71.06</v>
+        <v>71.040000000000006</v>
       </c>
       <c r="AZ15">
-        <v>74.91</v>
+        <v>74.86</v>
       </c>
       <c r="BA15">
         <v>82.46</v>
       </c>
       <c r="BB15">
-        <v>89.09</v>
+        <v>89</v>
       </c>
       <c r="BC15">
-        <v>109.56</v>
+        <v>109.52</v>
       </c>
       <c r="BD15">
-        <v>143.71</v>
+        <v>143.66</v>
       </c>
       <c r="BE15">
         <v>179.58</v>
@@ -9399,31 +9719,31 @@
         <v>173.08</v>
       </c>
       <c r="BG15">
-        <v>184.45</v>
+        <v>184.34</v>
       </c>
       <c r="BH15">
-        <v>218.48</v>
+        <v>218.46</v>
       </c>
       <c r="BI15">
-        <v>215.71</v>
+        <v>215.73</v>
       </c>
       <c r="BJ15">
-        <v>190.35</v>
+        <v>190.22</v>
       </c>
       <c r="BK15">
         <v>150.63</v>
       </c>
       <c r="BL15">
-        <v>106.85</v>
+        <v>106.86</v>
       </c>
       <c r="BM15">
-        <v>82.72</v>
+        <v>82.68</v>
       </c>
       <c r="BN15">
-        <v>49.95</v>
+        <v>49.98</v>
       </c>
       <c r="BO15">
-        <v>31.95</v>
+        <v>31.93</v>
       </c>
       <c r="BP15">
         <v>21.53</v>
@@ -9432,30 +9752,39 @@
         <v>11.5</v>
       </c>
       <c r="BR15">
-        <v>7.64</v>
+        <v>7.62</v>
       </c>
       <c r="BS15">
         <v>7.79</v>
       </c>
       <c r="BT15">
-        <v>10.57</v>
+        <v>10.59</v>
       </c>
       <c r="BU15">
-        <v>15.67</v>
+        <v>15.76</v>
       </c>
       <c r="BV15">
         <v>23.78</v>
       </c>
       <c r="BW15">
-        <v>27.46</v>
+        <v>27.51</v>
       </c>
       <c r="BX15">
-        <v>36.72</v>
+        <v>37.65</v>
+      </c>
+      <c r="BY15">
+        <v>55.41</v>
+      </c>
+      <c r="BZ15">
+        <v>79.53</v>
+      </c>
+      <c r="CA15">
+        <v>106.21</v>
       </c>
     </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B16">
         <v>1.5</v>
@@ -9470,19 +9799,19 @@
         <v>53.01</v>
       </c>
       <c r="F16">
-        <v>49.01</v>
+        <v>48.97</v>
       </c>
       <c r="G16">
-        <v>38.130000000000003</v>
+        <v>38.11</v>
       </c>
       <c r="H16">
-        <v>25.4</v>
+        <v>25.38</v>
       </c>
       <c r="I16">
         <v>19.63</v>
       </c>
       <c r="J16">
-        <v>13.44</v>
+        <v>13.42</v>
       </c>
       <c r="K16">
         <v>10.29</v>
@@ -9530,16 +9859,16 @@
         <v>16.510000000000002</v>
       </c>
       <c r="Z16">
-        <v>23.53</v>
+        <v>23.51</v>
       </c>
       <c r="AA16">
         <v>24.08</v>
       </c>
       <c r="AB16">
-        <v>22.88</v>
+        <v>22.9</v>
       </c>
       <c r="AC16">
-        <v>24.22</v>
+        <v>24.2</v>
       </c>
       <c r="AD16">
         <v>29.19</v>
@@ -9548,103 +9877,103 @@
         <v>28.3</v>
       </c>
       <c r="AF16">
-        <v>34.43</v>
+        <v>34.409999999999997</v>
       </c>
       <c r="AG16">
         <v>52.89</v>
       </c>
       <c r="AH16">
-        <v>88.19</v>
+        <v>88.17</v>
       </c>
       <c r="AI16">
-        <v>144.27000000000001</v>
+        <v>144.25</v>
       </c>
       <c r="AJ16">
-        <v>203.86</v>
+        <v>203.8</v>
       </c>
       <c r="AK16">
-        <v>219.79</v>
+        <v>219.77</v>
       </c>
       <c r="AL16">
-        <v>210.66</v>
+        <v>210.58</v>
       </c>
       <c r="AM16">
-        <v>195.57</v>
+        <v>195.51</v>
       </c>
       <c r="AN16">
-        <v>177.36</v>
+        <v>177.32</v>
       </c>
       <c r="AO16">
-        <v>180.33</v>
+        <v>180.27</v>
       </c>
       <c r="AP16">
-        <v>212.48</v>
+        <v>212.5</v>
       </c>
       <c r="AQ16">
-        <v>238.61</v>
+        <v>238.57</v>
       </c>
       <c r="AR16">
-        <v>185.95</v>
+        <v>185.89</v>
       </c>
       <c r="AS16">
-        <v>165.93</v>
+        <v>165.99</v>
       </c>
       <c r="AT16">
         <v>212.42</v>
       </c>
       <c r="AU16">
-        <v>168.25</v>
+        <v>168.23</v>
       </c>
       <c r="AV16">
-        <v>126.02</v>
+        <v>125.98</v>
       </c>
       <c r="AW16">
-        <v>105.21</v>
+        <v>105.23</v>
       </c>
       <c r="AX16">
-        <v>88.52</v>
+        <v>88.5</v>
       </c>
       <c r="AY16">
         <v>72.09</v>
       </c>
       <c r="AZ16">
-        <v>76.97</v>
+        <v>76.989999999999995</v>
       </c>
       <c r="BA16">
-        <v>81.739999999999995</v>
+        <v>81.78</v>
       </c>
       <c r="BB16">
-        <v>84.13</v>
+        <v>84.07</v>
       </c>
       <c r="BC16">
-        <v>107.68</v>
+        <v>107.66</v>
       </c>
       <c r="BD16">
-        <v>138.19999999999999</v>
+        <v>138.13999999999999</v>
       </c>
       <c r="BE16">
-        <v>165.61</v>
+        <v>165.55</v>
       </c>
       <c r="BF16">
         <v>165.1</v>
       </c>
       <c r="BG16">
+        <v>181.52</v>
+      </c>
+      <c r="BH16">
+        <v>214.76</v>
+      </c>
+      <c r="BI16">
+        <v>212.59</v>
+      </c>
+      <c r="BJ16">
         <v>181.56</v>
       </c>
-      <c r="BH16">
-        <v>214.72</v>
-      </c>
-      <c r="BI16">
-        <v>212.61</v>
-      </c>
-      <c r="BJ16">
-        <v>181.61</v>
-      </c>
       <c r="BK16">
-        <v>146.91</v>
+        <v>146.97</v>
       </c>
       <c r="BL16">
-        <v>102.16</v>
+        <v>102.12</v>
       </c>
       <c r="BM16">
         <v>77.78</v>
@@ -9653,39 +9982,48 @@
         <v>48.38</v>
       </c>
       <c r="BO16">
-        <v>31.59</v>
+        <v>31.57</v>
       </c>
       <c r="BP16">
-        <v>21.8</v>
+        <v>21.82</v>
       </c>
       <c r="BQ16">
-        <v>12.22</v>
+        <v>12.2</v>
       </c>
       <c r="BR16">
-        <v>9.06</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="BS16">
-        <v>9.6999999999999993</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="BT16">
-        <v>15.49</v>
+        <v>15.51</v>
       </c>
       <c r="BU16">
-        <v>25.99</v>
+        <v>26.07</v>
       </c>
       <c r="BV16">
         <v>34.130000000000003</v>
       </c>
       <c r="BW16">
-        <v>38.369999999999997</v>
+        <v>38.47</v>
       </c>
       <c r="BX16">
-        <v>46.21</v>
+        <v>47.33</v>
+      </c>
+      <c r="BY16">
+        <v>70.75</v>
+      </c>
+      <c r="BZ16">
+        <v>98.77</v>
+      </c>
+      <c r="CA16">
+        <v>120.98</v>
       </c>
     </row>
-    <row r="17" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B17">
         <v>1.52</v>
@@ -9697,10 +10035,10 @@
         <v>31.36</v>
       </c>
       <c r="E17">
-        <v>49.21</v>
+        <v>49.24</v>
       </c>
       <c r="F17">
-        <v>48.67</v>
+        <v>48.63</v>
       </c>
       <c r="G17">
         <v>37.520000000000003</v>
@@ -9709,10 +10047,10 @@
         <v>26.65</v>
       </c>
       <c r="I17">
-        <v>20.77</v>
+        <v>20.74</v>
       </c>
       <c r="J17">
-        <v>12.89</v>
+        <v>12.87</v>
       </c>
       <c r="K17">
         <v>10.98</v>
@@ -9742,7 +10080,7 @@
         <v>5.6</v>
       </c>
       <c r="T17">
-        <v>5.12</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="U17">
         <v>6.51</v>
@@ -9754,19 +10092,19 @@
         <v>11.31</v>
       </c>
       <c r="X17">
-        <v>16.21</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="Y17">
         <v>25.19</v>
       </c>
       <c r="Z17">
-        <v>33.549999999999997</v>
+        <v>33.53</v>
       </c>
       <c r="AA17">
-        <v>28.77</v>
+        <v>28.82</v>
       </c>
       <c r="AB17">
-        <v>27.08</v>
+        <v>27.06</v>
       </c>
       <c r="AC17">
         <v>27.82</v>
@@ -9775,58 +10113,58 @@
         <v>32.83</v>
       </c>
       <c r="AE17">
-        <v>34.39</v>
+        <v>34.369999999999997</v>
       </c>
       <c r="AF17">
-        <v>37.69</v>
+        <v>37.67</v>
       </c>
       <c r="AG17">
-        <v>60.52</v>
+        <v>60.56</v>
       </c>
       <c r="AH17">
-        <v>95.13</v>
+        <v>95.09</v>
       </c>
       <c r="AI17">
-        <v>164.22</v>
+        <v>164.16</v>
       </c>
       <c r="AJ17">
-        <v>225.93</v>
+        <v>225.87</v>
       </c>
       <c r="AK17">
-        <v>254.64</v>
+        <v>254.62</v>
       </c>
       <c r="AL17">
-        <v>239.15</v>
+        <v>239.21</v>
       </c>
       <c r="AM17">
         <v>221.33</v>
       </c>
       <c r="AN17">
-        <v>193.99</v>
+        <v>193.95</v>
       </c>
       <c r="AO17">
-        <v>199.18</v>
+        <v>199.09</v>
       </c>
       <c r="AP17">
         <v>234.05</v>
       </c>
       <c r="AQ17">
-        <v>262.45</v>
+        <v>262.48</v>
       </c>
       <c r="AR17">
-        <v>196.83</v>
+        <v>196.81</v>
       </c>
       <c r="AS17">
-        <v>186.33</v>
+        <v>186.31</v>
       </c>
       <c r="AT17">
-        <v>236.31</v>
+        <v>236.33</v>
       </c>
       <c r="AU17">
-        <v>185.14</v>
+        <v>185.2</v>
       </c>
       <c r="AV17">
-        <v>139.59</v>
+        <v>139.63999999999999</v>
       </c>
       <c r="AW17">
         <v>113.7</v>
@@ -9838,40 +10176,40 @@
         <v>79.27</v>
       </c>
       <c r="AZ17">
-        <v>85.67</v>
+        <v>85.63</v>
       </c>
       <c r="BA17">
-        <v>91.12</v>
+        <v>91.09</v>
       </c>
       <c r="BB17">
-        <v>95.41</v>
+        <v>95.46</v>
       </c>
       <c r="BC17">
-        <v>117.68</v>
+        <v>117.61</v>
       </c>
       <c r="BD17">
-        <v>149.79</v>
+        <v>149.72999999999999</v>
       </c>
       <c r="BE17">
         <v>185.68</v>
       </c>
       <c r="BF17">
-        <v>184.64</v>
+        <v>184.55</v>
       </c>
       <c r="BG17">
-        <v>212.57</v>
+        <v>212.5</v>
       </c>
       <c r="BH17">
-        <v>250.56</v>
+        <v>250.5</v>
       </c>
       <c r="BI17">
-        <v>244.62</v>
+        <v>244.57</v>
       </c>
       <c r="BJ17">
-        <v>209.07</v>
+        <v>208.96</v>
       </c>
       <c r="BK17">
-        <v>170.06</v>
+        <v>170.04</v>
       </c>
       <c r="BL17">
         <v>121.23</v>
@@ -9880,42 +10218,51 @@
         <v>90.88</v>
       </c>
       <c r="BN17">
-        <v>52.4</v>
+        <v>52.38</v>
       </c>
       <c r="BO17">
-        <v>37.78</v>
+        <v>37.71</v>
       </c>
       <c r="BP17">
-        <v>26.13</v>
+        <v>26.1</v>
       </c>
       <c r="BQ17">
-        <v>13.56</v>
+        <v>13.58</v>
       </c>
       <c r="BR17">
-        <v>9.5500000000000007</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="BS17">
-        <v>11.96</v>
+        <v>12.02</v>
       </c>
       <c r="BT17">
-        <v>19.14</v>
+        <v>19.12</v>
       </c>
       <c r="BU17">
-        <v>32.700000000000003</v>
+        <v>32.659999999999997</v>
       </c>
       <c r="BV17">
         <v>45.31</v>
       </c>
       <c r="BW17">
-        <v>50.39</v>
+        <v>50.49</v>
       </c>
       <c r="BX17">
-        <v>59.33</v>
+        <v>60.52</v>
+      </c>
+      <c r="BY17">
+        <v>95.95</v>
+      </c>
+      <c r="BZ17">
+        <v>125.27</v>
+      </c>
+      <c r="CA17">
+        <v>146.19</v>
       </c>
     </row>
-    <row r="18" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B18">
         <v>1.0900000000000001</v>
@@ -9927,7 +10274,7 @@
         <v>13.63</v>
       </c>
       <c r="E18">
-        <v>23.79</v>
+        <v>23.76</v>
       </c>
       <c r="F18">
         <v>27.26</v>
@@ -9990,136 +10337,136 @@
         <v>18.809999999999999</v>
       </c>
       <c r="Z18">
-        <v>22.39</v>
+        <v>22.44</v>
       </c>
       <c r="AA18">
-        <v>21.17</v>
+        <v>21.22</v>
       </c>
       <c r="AB18">
-        <v>19.52</v>
+        <v>19.5</v>
       </c>
       <c r="AC18">
-        <v>21.1</v>
+        <v>21.07</v>
       </c>
       <c r="AD18">
         <v>26.4</v>
       </c>
       <c r="AE18">
-        <v>26.58</v>
+        <v>26.55</v>
       </c>
       <c r="AF18">
-        <v>33.74</v>
+        <v>33.76</v>
       </c>
       <c r="AG18">
         <v>52.52</v>
       </c>
       <c r="AH18">
-        <v>75.14</v>
+        <v>75.12</v>
       </c>
       <c r="AI18">
         <v>123.4</v>
       </c>
       <c r="AJ18">
-        <v>182.45</v>
+        <v>182.47</v>
       </c>
       <c r="AK18">
-        <v>213.49</v>
+        <v>213.52</v>
       </c>
       <c r="AL18">
-        <v>221.21</v>
+        <v>221.26</v>
       </c>
       <c r="AM18">
-        <v>208.42</v>
+        <v>208.36</v>
       </c>
       <c r="AN18">
-        <v>189.33</v>
+        <v>189.35</v>
       </c>
       <c r="AO18">
-        <v>195.88</v>
+        <v>195.77</v>
       </c>
       <c r="AP18">
-        <v>223.93</v>
+        <v>223.82</v>
       </c>
       <c r="AQ18">
-        <v>215.07</v>
+        <v>215.09</v>
       </c>
       <c r="AR18">
-        <v>149.04</v>
+        <v>148.99</v>
       </c>
       <c r="AS18">
-        <v>125.86</v>
+        <v>125.81</v>
       </c>
       <c r="AT18">
-        <v>162.01</v>
+        <v>161.96</v>
       </c>
       <c r="AU18">
-        <v>136.85</v>
+        <v>136.88</v>
       </c>
       <c r="AV18">
-        <v>106.64</v>
+        <v>106.62</v>
       </c>
       <c r="AW18">
-        <v>88.19</v>
+        <v>88.11</v>
       </c>
       <c r="AX18">
-        <v>74.150000000000006</v>
+        <v>74.08</v>
       </c>
       <c r="AY18">
-        <v>60.37</v>
+        <v>60.39</v>
       </c>
       <c r="AZ18">
-        <v>66.510000000000005</v>
+        <v>66.48</v>
       </c>
       <c r="BA18">
         <v>77.959999999999994</v>
       </c>
       <c r="BB18">
-        <v>81.510000000000005</v>
+        <v>81.540000000000006</v>
       </c>
       <c r="BC18">
-        <v>104.28</v>
+        <v>104.26</v>
       </c>
       <c r="BD18">
-        <v>140.61000000000001</v>
+        <v>140.56</v>
       </c>
       <c r="BE18">
-        <v>182.37</v>
+        <v>182.45</v>
       </c>
       <c r="BF18">
-        <v>167.75</v>
+        <v>167.77</v>
       </c>
       <c r="BG18">
-        <v>191.69</v>
+        <v>191.61</v>
       </c>
       <c r="BH18">
-        <v>274.44</v>
+        <v>274.47000000000003</v>
       </c>
       <c r="BI18">
-        <v>262.54000000000002</v>
+        <v>262.45999999999998</v>
       </c>
       <c r="BJ18">
-        <v>219.89</v>
+        <v>219.81</v>
       </c>
       <c r="BK18">
-        <v>178.89</v>
+        <v>178.94</v>
       </c>
       <c r="BL18">
         <v>125.43</v>
       </c>
       <c r="BM18">
-        <v>98.75</v>
+        <v>98.7</v>
       </c>
       <c r="BN18">
-        <v>56.74</v>
+        <v>56.81</v>
       </c>
       <c r="BO18">
         <v>43.79</v>
       </c>
       <c r="BP18">
-        <v>31.25</v>
+        <v>31.2</v>
       </c>
       <c r="BQ18">
-        <v>17.21</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="BR18">
         <v>11.17</v>
@@ -10131,21 +10478,30 @@
         <v>14.72</v>
       </c>
       <c r="BU18">
-        <v>32.54</v>
+        <v>32.619999999999997</v>
       </c>
       <c r="BV18">
-        <v>40.79</v>
+        <v>40.869999999999997</v>
       </c>
       <c r="BW18">
-        <v>46.33</v>
+        <v>46.66</v>
       </c>
       <c r="BX18">
-        <v>58.54</v>
+        <v>60.11</v>
+      </c>
+      <c r="BY18">
+        <v>88.75</v>
+      </c>
+      <c r="BZ18">
+        <v>141.16999999999999</v>
+      </c>
+      <c r="CA18">
+        <v>172.06</v>
       </c>
     </row>
-    <row r="19" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B19">
         <v>0.51</v>
@@ -10220,7 +10576,7 @@
         <v>14.72</v>
       </c>
       <c r="Z19">
-        <v>15.58</v>
+        <v>15.56</v>
       </c>
       <c r="AA19">
         <v>13.02</v>
@@ -10238,49 +10594,49 @@
         <v>15.77</v>
       </c>
       <c r="AF19">
-        <v>19.2</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="AG19">
         <v>30.79</v>
       </c>
       <c r="AH19">
-        <v>44.56</v>
+        <v>44.59</v>
       </c>
       <c r="AI19">
-        <v>74.239999999999995</v>
+        <v>74.180000000000007</v>
       </c>
       <c r="AJ19">
         <v>110.24</v>
       </c>
       <c r="AK19">
-        <v>129.25</v>
+        <v>129.22</v>
       </c>
       <c r="AL19">
-        <v>144.35</v>
+        <v>144.4</v>
       </c>
       <c r="AM19">
-        <v>143.1</v>
+        <v>143.05000000000001</v>
       </c>
       <c r="AN19">
-        <v>140.05000000000001</v>
+        <v>140.02000000000001</v>
       </c>
       <c r="AO19">
-        <v>139.32</v>
+        <v>139.21</v>
       </c>
       <c r="AP19">
-        <v>153.66</v>
+        <v>153.61000000000001</v>
       </c>
       <c r="AQ19">
-        <v>142.78</v>
+        <v>142.69999999999999</v>
       </c>
       <c r="AR19">
-        <v>91.39</v>
+        <v>91.44</v>
       </c>
       <c r="AS19">
         <v>71.62</v>
       </c>
       <c r="AT19">
-        <v>89.93</v>
+        <v>89.96</v>
       </c>
       <c r="AU19">
         <v>73.349999999999994</v>
@@ -10304,78 +10660,87 @@
         <v>50.74</v>
       </c>
       <c r="BB19">
-        <v>62.33</v>
+        <v>62.3</v>
       </c>
       <c r="BC19">
         <v>77.45</v>
       </c>
       <c r="BD19">
-        <v>112.78</v>
+        <v>112.83</v>
       </c>
       <c r="BE19">
-        <v>154.80000000000001</v>
+        <v>154.82</v>
       </c>
       <c r="BF19">
         <v>130.94999999999999</v>
       </c>
       <c r="BG19">
-        <v>139.81</v>
+        <v>139.78</v>
       </c>
       <c r="BH19">
-        <v>206.78</v>
+        <v>206.81</v>
       </c>
       <c r="BI19">
         <v>235.76</v>
       </c>
       <c r="BJ19">
-        <v>193.58</v>
+        <v>193.52</v>
       </c>
       <c r="BK19">
-        <v>165.52</v>
+        <v>165.49</v>
       </c>
       <c r="BL19">
-        <v>123.39</v>
+        <v>123.42</v>
       </c>
       <c r="BM19">
         <v>101.62</v>
       </c>
       <c r="BN19">
-        <v>58.49</v>
+        <v>58.52</v>
       </c>
       <c r="BO19">
-        <v>42.72</v>
+        <v>42.67</v>
       </c>
       <c r="BP19">
-        <v>35.590000000000003</v>
+        <v>35.57</v>
       </c>
       <c r="BQ19">
-        <v>17.850000000000001</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="BR19">
         <v>12.1</v>
       </c>
       <c r="BS19">
-        <v>8.34</v>
+        <v>8.32</v>
       </c>
       <c r="BT19">
-        <v>8.02</v>
+        <v>7.99</v>
       </c>
       <c r="BU19">
-        <v>14.37</v>
+        <v>14.34</v>
       </c>
       <c r="BV19">
-        <v>20.93</v>
+        <v>20.96</v>
       </c>
       <c r="BW19">
-        <v>26.82</v>
+        <v>26.92</v>
       </c>
       <c r="BX19">
-        <v>39.56</v>
+        <v>40.21</v>
+      </c>
+      <c r="BY19">
+        <v>70.3</v>
+      </c>
+      <c r="BZ19">
+        <v>144.21</v>
+      </c>
+      <c r="CA19">
+        <v>181.96</v>
       </c>
     </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B20">
         <v>0.27</v>
@@ -10447,7 +10812,7 @@
         <v>7.65</v>
       </c>
       <c r="Y20">
-        <v>11.03</v>
+        <v>11</v>
       </c>
       <c r="Z20">
         <v>10.199999999999999</v>
@@ -10474,13 +10839,13 @@
         <v>16.739999999999998</v>
       </c>
       <c r="AH20">
-        <v>26.16</v>
+        <v>26.13</v>
       </c>
       <c r="AI20">
-        <v>49.4</v>
+        <v>49.42</v>
       </c>
       <c r="AJ20">
-        <v>74.89</v>
+        <v>74.91</v>
       </c>
       <c r="AK20">
         <v>90.26</v>
@@ -10492,22 +10857,22 @@
         <v>105.18</v>
       </c>
       <c r="AN20">
-        <v>102.5</v>
+        <v>102.47</v>
       </c>
       <c r="AO20">
-        <v>98.79</v>
+        <v>98.85</v>
       </c>
       <c r="AP20">
-        <v>114.3</v>
+        <v>114.25</v>
       </c>
       <c r="AQ20">
-        <v>115.51</v>
+        <v>115.43</v>
       </c>
       <c r="AR20">
-        <v>81.11</v>
+        <v>81.08</v>
       </c>
       <c r="AS20">
-        <v>52.19</v>
+        <v>52.16</v>
       </c>
       <c r="AT20">
         <v>64.150000000000006</v>
@@ -10516,19 +10881,19 @@
         <v>58.87</v>
       </c>
       <c r="AV20">
-        <v>51.03</v>
+        <v>51.06</v>
       </c>
       <c r="AW20">
         <v>44.11</v>
       </c>
       <c r="AX20">
-        <v>42.96</v>
+        <v>42.98</v>
       </c>
       <c r="AY20">
         <v>37.299999999999997</v>
       </c>
       <c r="AZ20">
-        <v>41.67</v>
+        <v>41.64</v>
       </c>
       <c r="BA20">
         <v>53.74</v>
@@ -10537,49 +10902,49 @@
         <v>73.09</v>
       </c>
       <c r="BC20">
-        <v>98.66</v>
+        <v>98.63</v>
       </c>
       <c r="BD20">
-        <v>127.88</v>
+        <v>127.77</v>
       </c>
       <c r="BE20">
         <v>179.82</v>
       </c>
       <c r="BF20">
-        <v>139.16999999999999</v>
+        <v>139.22999999999999</v>
       </c>
       <c r="BG20">
-        <v>126.08</v>
+        <v>126.05</v>
       </c>
       <c r="BH20">
-        <v>187.58</v>
+        <v>187.63</v>
       </c>
       <c r="BI20">
         <v>225.73</v>
       </c>
       <c r="BJ20">
-        <v>184.57</v>
+        <v>184.55</v>
       </c>
       <c r="BK20">
-        <v>149.37</v>
+        <v>149.34</v>
       </c>
       <c r="BL20">
-        <v>110.41</v>
+        <v>110.47</v>
       </c>
       <c r="BM20">
-        <v>91.66</v>
+        <v>91.55</v>
       </c>
       <c r="BN20">
         <v>50.36</v>
       </c>
       <c r="BO20">
-        <v>40.97</v>
+        <v>40.92</v>
       </c>
       <c r="BP20">
-        <v>30.64</v>
+        <v>30.67</v>
       </c>
       <c r="BQ20">
-        <v>15.19</v>
+        <v>15.21</v>
       </c>
       <c r="BR20">
         <v>9.26</v>
@@ -10594,18 +10959,27 @@
         <v>8.64</v>
       </c>
       <c r="BV20">
-        <v>12.74</v>
+        <v>12.77</v>
       </c>
       <c r="BW20">
-        <v>19.37</v>
+        <v>19.43</v>
       </c>
       <c r="BX20">
-        <v>30.4</v>
+        <v>30.99</v>
+      </c>
+      <c r="BY20">
+        <v>49.45</v>
+      </c>
+      <c r="BZ20">
+        <v>99.6</v>
+      </c>
+      <c r="CA20">
+        <v>146.12</v>
       </c>
     </row>
-    <row r="21" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B21">
         <v>0.23</v>
@@ -10629,7 +11003,7 @@
         <v>3.99</v>
       </c>
       <c r="I21">
-        <v>4.67</v>
+        <v>4.7</v>
       </c>
       <c r="J21">
         <v>3.36</v>
@@ -10680,7 +11054,7 @@
         <v>6.94</v>
       </c>
       <c r="Z21">
-        <v>7.14</v>
+        <v>7.17</v>
       </c>
       <c r="AA21">
         <v>5.63</v>
@@ -10698,7 +11072,7 @@
         <v>7.55</v>
       </c>
       <c r="AF21">
-        <v>8.23</v>
+        <v>8.25</v>
       </c>
       <c r="AG21">
         <v>13.18</v>
@@ -10710,37 +11084,37 @@
         <v>36.81</v>
       </c>
       <c r="AJ21">
-        <v>56.17</v>
+        <v>56.22</v>
       </c>
       <c r="AK21">
-        <v>60.94</v>
+        <v>60.91</v>
       </c>
       <c r="AL21">
-        <v>60.89</v>
+        <v>60.86</v>
       </c>
       <c r="AM21">
         <v>60.03</v>
       </c>
       <c r="AN21">
-        <v>58.57</v>
+        <v>58.52</v>
       </c>
       <c r="AO21">
-        <v>58.14</v>
+        <v>58.09</v>
       </c>
       <c r="AP21">
-        <v>67.12</v>
+        <v>67.05</v>
       </c>
       <c r="AQ21">
-        <v>78.150000000000006</v>
+        <v>78.08</v>
       </c>
       <c r="AR21">
-        <v>53.21</v>
+        <v>53.16</v>
       </c>
       <c r="AS21">
         <v>38.47</v>
       </c>
       <c r="AT21">
-        <v>47.99</v>
+        <v>47.96</v>
       </c>
       <c r="AU21">
         <v>46.88</v>
@@ -10749,16 +11123,16 @@
         <v>42.84</v>
       </c>
       <c r="AW21">
-        <v>38.6</v>
+        <v>38.57</v>
       </c>
       <c r="AX21">
         <v>38.17</v>
       </c>
       <c r="AY21">
-        <v>34.049999999999997</v>
+        <v>34</v>
       </c>
       <c r="AZ21">
-        <v>34.76</v>
+        <v>34.71</v>
       </c>
       <c r="BA21">
         <v>47.56</v>
@@ -10767,55 +11141,55 @@
         <v>59.85</v>
       </c>
       <c r="BC21">
-        <v>75.5</v>
+        <v>75.48</v>
       </c>
       <c r="BD21">
-        <v>102.26</v>
+        <v>102.21</v>
       </c>
       <c r="BE21">
-        <v>126.75</v>
+        <v>126.77</v>
       </c>
       <c r="BF21">
-        <v>112.81</v>
+        <v>112.76</v>
       </c>
       <c r="BG21">
-        <v>101.58</v>
+        <v>101.61</v>
       </c>
       <c r="BH21">
         <v>128.36000000000001</v>
       </c>
       <c r="BI21">
-        <v>140.78</v>
+        <v>140.86000000000001</v>
       </c>
       <c r="BJ21">
-        <v>127.83</v>
+        <v>127.76</v>
       </c>
       <c r="BK21">
-        <v>103.9</v>
+        <v>103.85</v>
       </c>
       <c r="BL21">
-        <v>74.92</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="BM21">
-        <v>58.04</v>
+        <v>58.01</v>
       </c>
       <c r="BN21">
-        <v>35.75</v>
+        <v>35.72</v>
       </c>
       <c r="BO21">
-        <v>25.87</v>
+        <v>25.8</v>
       </c>
       <c r="BP21">
-        <v>15.47</v>
+        <v>15.5</v>
       </c>
       <c r="BQ21">
         <v>9.6199999999999992</v>
       </c>
       <c r="BR21">
-        <v>6.51</v>
+        <v>6.49</v>
       </c>
       <c r="BS21">
-        <v>4.3899999999999997</v>
+        <v>4.37</v>
       </c>
       <c r="BT21">
         <v>4.5199999999999996</v>
@@ -10824,16 +11198,26 @@
         <v>6.51</v>
       </c>
       <c r="BV21">
-        <v>8.81</v>
+        <v>8.76</v>
       </c>
       <c r="BW21">
-        <v>13.15</v>
+        <v>13.18</v>
       </c>
       <c r="BX21">
-        <v>18.829999999999998</v>
+        <v>19.16</v>
+      </c>
+      <c r="BY21">
+        <v>31.1</v>
+      </c>
+      <c r="BZ21">
+        <v>47.1</v>
+      </c>
+      <c r="CA21">
+        <v>73.41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/source/Altersverteilung.xlsx
+++ b/data/source/Altersverteilung.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F88D41D-A17D-4405-A690-B0A0A562DC11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DF5398-CEE2-450F-93D0-02083FE8C906}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallzahlen" sheetId="1" r:id="rId1"/>
-    <sheet name="7-Tages-Inzidenz" sheetId="2" r:id="rId2"/>
+    <sheet name="7-Tages-Inzidenz" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
   <si>
     <t>Altersgruppe</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>2021_34</t>
+  </si>
+  <si>
+    <t>2021_35</t>
   </si>
   <si>
     <t>Gesamt</t>
@@ -1154,15 +1157,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CA21"/>
+  <dimension ref="A1:CB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1400,31 +1403,34 @@
       <c r="CA1" t="s">
         <v>78</v>
       </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>898</v>
       </c>
       <c r="C2">
-        <v>6431</v>
+        <v>6432</v>
       </c>
       <c r="D2">
-        <v>22391</v>
+        <v>22389</v>
       </c>
       <c r="E2">
-        <v>33969</v>
+        <v>33970</v>
       </c>
       <c r="F2">
         <v>36047</v>
       </c>
       <c r="G2">
-        <v>27134</v>
+        <v>27135</v>
       </c>
       <c r="H2">
-        <v>17332</v>
+        <v>17331</v>
       </c>
       <c r="I2">
         <v>12344</v>
@@ -1433,7 +1439,7 @@
         <v>7428</v>
       </c>
       <c r="K2">
-        <v>6237</v>
+        <v>6236</v>
       </c>
       <c r="L2">
         <v>4764</v>
@@ -1445,7 +1451,7 @@
         <v>3205</v>
       </c>
       <c r="O2">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="P2">
         <v>2341</v>
@@ -1454,16 +1460,16 @@
         <v>4190</v>
       </c>
       <c r="R2">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="S2">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="T2">
-        <v>2426</v>
+        <v>2422</v>
       </c>
       <c r="U2">
-        <v>3023</v>
+        <v>3024</v>
       </c>
       <c r="V2">
         <v>3925</v>
@@ -1472,148 +1478,148 @@
         <v>4833</v>
       </c>
       <c r="X2">
-        <v>6055</v>
+        <v>6056</v>
       </c>
       <c r="Y2">
         <v>7950</v>
       </c>
       <c r="Z2">
-        <v>9598</v>
+        <v>9596</v>
       </c>
       <c r="AA2">
-        <v>8825</v>
+        <v>8829</v>
       </c>
       <c r="AB2">
-        <v>8616</v>
+        <v>8615</v>
       </c>
       <c r="AC2">
-        <v>9760</v>
+        <v>9759</v>
       </c>
       <c r="AD2">
         <v>12291</v>
       </c>
       <c r="AE2">
-        <v>13058</v>
+        <v>13057</v>
       </c>
       <c r="AF2">
-        <v>15922</v>
+        <v>15921</v>
       </c>
       <c r="AG2">
-        <v>26110</v>
+        <v>26108</v>
       </c>
       <c r="AH2">
         <v>42060</v>
       </c>
       <c r="AI2">
-        <v>74861</v>
+        <v>74856</v>
       </c>
       <c r="AJ2">
-        <v>111018</v>
+        <v>111009</v>
       </c>
       <c r="AK2">
-        <v>125734</v>
+        <v>125728</v>
       </c>
       <c r="AL2">
-        <v>127771</v>
+        <v>127763</v>
       </c>
       <c r="AM2">
-        <v>128359</v>
+        <v>128356</v>
       </c>
       <c r="AN2">
-        <v>123187</v>
+        <v>123183</v>
       </c>
       <c r="AO2">
-        <v>128359</v>
+        <v>128354</v>
       </c>
       <c r="AP2">
-        <v>156290</v>
+        <v>156291</v>
       </c>
       <c r="AQ2">
-        <v>174721</v>
+        <v>174715</v>
       </c>
       <c r="AR2">
-        <v>138954</v>
+        <v>138951</v>
       </c>
       <c r="AS2">
-        <v>123070</v>
+        <v>123075</v>
       </c>
       <c r="AT2">
-        <v>145441</v>
+        <v>145447</v>
       </c>
       <c r="AU2">
-        <v>118914</v>
+        <v>118907</v>
       </c>
       <c r="AV2">
         <v>95521</v>
       </c>
       <c r="AW2">
-        <v>78118</v>
+        <v>78125</v>
       </c>
       <c r="AX2">
         <v>64563</v>
       </c>
       <c r="AY2">
-        <v>50793</v>
+        <v>50805</v>
       </c>
       <c r="AZ2">
-        <v>52395</v>
+        <v>52393</v>
       </c>
       <c r="BA2">
         <v>56348</v>
       </c>
       <c r="BB2">
-        <v>58360</v>
+        <v>58363</v>
       </c>
       <c r="BC2">
-        <v>71291</v>
+        <v>71290</v>
       </c>
       <c r="BD2">
-        <v>92567</v>
+        <v>92570</v>
       </c>
       <c r="BE2">
-        <v>116270</v>
+        <v>116256</v>
       </c>
       <c r="BF2">
-        <v>110097</v>
+        <v>110096</v>
       </c>
       <c r="BG2">
-        <v>118233</v>
+        <v>118238</v>
       </c>
       <c r="BH2">
-        <v>142007</v>
+        <v>142012</v>
       </c>
       <c r="BI2">
-        <v>144756</v>
+        <v>144753</v>
       </c>
       <c r="BJ2">
-        <v>124823</v>
+        <v>124826</v>
       </c>
       <c r="BK2">
-        <v>101010</v>
+        <v>101014</v>
       </c>
       <c r="BL2">
-        <v>70852</v>
+        <v>70848</v>
       </c>
       <c r="BM2">
-        <v>52732</v>
+        <v>52731</v>
       </c>
       <c r="BN2">
         <v>29898</v>
       </c>
       <c r="BO2">
-        <v>20699</v>
+        <v>20696</v>
       </c>
       <c r="BP2">
-        <v>14027</v>
+        <v>14026</v>
       </c>
       <c r="BQ2">
-        <v>7261</v>
+        <v>7262</v>
       </c>
       <c r="BR2">
         <v>4813</v>
       </c>
       <c r="BS2">
-        <v>4343</v>
+        <v>4345</v>
       </c>
       <c r="BT2">
         <v>5556</v>
@@ -1622,27 +1628,30 @@
         <v>9076</v>
       </c>
       <c r="BV2">
-        <v>12600</v>
+        <v>12603</v>
       </c>
       <c r="BW2">
-        <v>15478</v>
+        <v>15481</v>
       </c>
       <c r="BX2">
-        <v>20381</v>
+        <v>20391</v>
       </c>
       <c r="BY2">
-        <v>32008</v>
+        <v>32020</v>
       </c>
       <c r="BZ2">
-        <v>49469</v>
+        <v>49569</v>
       </c>
       <c r="CA2">
-        <v>64716</v>
+        <v>66175</v>
+      </c>
+      <c r="CB2">
+        <v>73408</v>
       </c>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1750,7 +1759,7 @@
         <v>1462</v>
       </c>
       <c r="AK3">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="AL3">
         <v>2309</v>
@@ -1759,10 +1768,10 @@
         <v>3061</v>
       </c>
       <c r="AN3">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="AO3">
-        <v>4191</v>
+        <v>4192</v>
       </c>
       <c r="AP3">
         <v>5400</v>
@@ -1783,7 +1792,7 @@
         <v>5019</v>
       </c>
       <c r="AV3">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="AW3">
         <v>2874</v>
@@ -1792,7 +1801,7 @@
         <v>1932</v>
       </c>
       <c r="AY3">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="AZ3">
         <v>1063</v>
@@ -1813,28 +1822,28 @@
         <v>660</v>
       </c>
       <c r="BF3">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="BG3">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="BH3">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="BI3">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="BJ3">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="BK3">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="BL3">
         <v>408</v>
       </c>
       <c r="BM3">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BN3">
         <v>162</v>
@@ -1846,7 +1855,7 @@
         <v>67</v>
       </c>
       <c r="BQ3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="BR3">
         <v>10</v>
@@ -1870,18 +1879,21 @@
         <v>66</v>
       </c>
       <c r="BY3">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="BZ3">
         <v>139</v>
       </c>
       <c r="CA3">
-        <v>220</v>
+        <v>227</v>
+      </c>
+      <c r="CB3">
+        <v>335</v>
       </c>
     </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -1989,7 +2001,7 @@
         <v>1786</v>
       </c>
       <c r="AK4">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="AL4">
         <v>2830</v>
@@ -2007,13 +2019,13 @@
         <v>5907</v>
       </c>
       <c r="AQ4">
-        <v>6933</v>
+        <v>6932</v>
       </c>
       <c r="AR4">
-        <v>5821</v>
+        <v>5820</v>
       </c>
       <c r="AS4">
-        <v>5585</v>
+        <v>5586</v>
       </c>
       <c r="AT4">
         <v>6066</v>
@@ -2022,7 +2034,7 @@
         <v>5557</v>
       </c>
       <c r="AV4">
-        <v>4440</v>
+        <v>4441</v>
       </c>
       <c r="AW4">
         <v>3322</v>
@@ -2061,10 +2073,10 @@
         <v>1200</v>
       </c>
       <c r="BI4">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="BJ4">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="BK4">
         <v>857</v>
@@ -2112,15 +2124,18 @@
         <v>147</v>
       </c>
       <c r="BZ4">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="CA4">
-        <v>323</v>
+        <v>330</v>
+      </c>
+      <c r="CB4">
+        <v>430</v>
       </c>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -2225,13 +2240,13 @@
         <v>1838</v>
       </c>
       <c r="AJ5">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="AK5">
         <v>3432</v>
       </c>
       <c r="AL5">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="AM5">
         <v>4357</v>
@@ -2246,31 +2261,31 @@
         <v>7073</v>
       </c>
       <c r="AQ5">
-        <v>8256</v>
+        <v>8255</v>
       </c>
       <c r="AR5">
-        <v>7411</v>
+        <v>7409</v>
       </c>
       <c r="AS5">
-        <v>6864</v>
+        <v>6866</v>
       </c>
       <c r="AT5">
         <v>7667</v>
       </c>
       <c r="AU5">
-        <v>6691</v>
+        <v>6689</v>
       </c>
       <c r="AV5">
         <v>5331</v>
       </c>
       <c r="AW5">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="AX5">
         <v>3143</v>
       </c>
       <c r="AY5">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="AZ5">
         <v>1994</v>
@@ -2282,7 +2297,7 @@
         <v>1550</v>
       </c>
       <c r="BC5">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="BD5">
         <v>1794</v>
@@ -2294,13 +2309,13 @@
         <v>1893</v>
       </c>
       <c r="BG5">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="BH5">
         <v>2217</v>
       </c>
       <c r="BI5">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="BJ5">
         <v>1593</v>
@@ -2339,27 +2354,30 @@
         <v>48</v>
       </c>
       <c r="BV5">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BW5">
         <v>110</v>
       </c>
       <c r="BX5">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BY5">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BZ5">
         <v>296</v>
       </c>
       <c r="CA5">
-        <v>472</v>
+        <v>480</v>
+      </c>
+      <c r="CB5">
+        <v>664</v>
       </c>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -2461,7 +2479,7 @@
         <v>903</v>
       </c>
       <c r="AI6">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="AJ6">
         <v>2644</v>
@@ -2479,13 +2497,13 @@
         <v>3488</v>
       </c>
       <c r="AO6">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="AP6">
         <v>5001</v>
       </c>
       <c r="AQ6">
-        <v>5936</v>
+        <v>5935</v>
       </c>
       <c r="AR6">
         <v>5103</v>
@@ -2497,13 +2515,13 @@
         <v>5215</v>
       </c>
       <c r="AU6">
-        <v>4313</v>
+        <v>4312</v>
       </c>
       <c r="AV6">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="AW6">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="AX6">
         <v>2198</v>
@@ -2527,10 +2545,10 @@
         <v>1894</v>
       </c>
       <c r="BE6">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="BF6">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="BG6">
         <v>2352</v>
@@ -2554,7 +2572,7 @@
         <v>774</v>
       </c>
       <c r="BN6">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="BO6">
         <v>250</v>
@@ -2569,10 +2587,10 @@
         <v>50</v>
       </c>
       <c r="BS6">
+        <v>46</v>
+      </c>
+      <c r="BT6">
         <v>45</v>
-      </c>
-      <c r="BT6">
-        <v>46</v>
       </c>
       <c r="BU6">
         <v>50</v>
@@ -2587,18 +2605,21 @@
         <v>122</v>
       </c>
       <c r="BY6">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BZ6">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="CA6">
-        <v>398</v>
+        <v>411</v>
+      </c>
+      <c r="CB6">
+        <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -2703,7 +2724,7 @@
         <v>1802</v>
       </c>
       <c r="AJ7">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="AK7">
         <v>3187</v>
@@ -2712,7 +2733,7 @@
         <v>3303</v>
       </c>
       <c r="AM7">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="AN7">
         <v>3192</v>
@@ -2733,7 +2754,7 @@
         <v>4128</v>
       </c>
       <c r="AT7">
-        <v>4835</v>
+        <v>4836</v>
       </c>
       <c r="AU7">
         <v>3663</v>
@@ -2769,7 +2790,7 @@
         <v>2840</v>
       </c>
       <c r="BF7">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="BG7">
         <v>3143</v>
@@ -2784,10 +2805,10 @@
         <v>2879</v>
       </c>
       <c r="BK7">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BL7">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="BM7">
         <v>1084</v>
@@ -2811,7 +2832,7 @@
         <v>67</v>
       </c>
       <c r="BT7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BU7">
         <v>67</v>
@@ -2829,15 +2850,18 @@
         <v>297</v>
       </c>
       <c r="BZ7">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="CA7">
-        <v>603</v>
+        <v>616</v>
+      </c>
+      <c r="CB7">
+        <v>726</v>
       </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>25</v>
@@ -2942,7 +2966,7 @@
         <v>2265</v>
       </c>
       <c r="AJ8">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="AK8">
         <v>4261</v>
@@ -2951,13 +2975,13 @@
         <v>4014</v>
       </c>
       <c r="AM8">
-        <v>4152</v>
+        <v>4153</v>
       </c>
       <c r="AN8">
-        <v>4134</v>
+        <v>4135</v>
       </c>
       <c r="AO8">
-        <v>4116</v>
+        <v>4117</v>
       </c>
       <c r="AP8">
         <v>5169</v>
@@ -2972,7 +2996,7 @@
         <v>4976</v>
       </c>
       <c r="AT8">
-        <v>5731</v>
+        <v>5732</v>
       </c>
       <c r="AU8">
         <v>4417</v>
@@ -2981,7 +3005,7 @@
         <v>3625</v>
       </c>
       <c r="AW8">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="AX8">
         <v>2536</v>
@@ -2990,7 +3014,7 @@
         <v>1914</v>
       </c>
       <c r="AZ8">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="BA8">
         <v>2118</v>
@@ -2999,28 +3023,28 @@
         <v>1993</v>
       </c>
       <c r="BC8">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="BD8">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="BE8">
         <v>3899</v>
       </c>
       <c r="BF8">
-        <v>3964</v>
+        <v>3965</v>
       </c>
       <c r="BG8">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="BH8">
-        <v>4910</v>
+        <v>4912</v>
       </c>
       <c r="BI8">
-        <v>4628</v>
+        <v>4627</v>
       </c>
       <c r="BJ8">
-        <v>3971</v>
+        <v>3972</v>
       </c>
       <c r="BK8">
         <v>3291</v>
@@ -3047,13 +3071,13 @@
         <v>103</v>
       </c>
       <c r="BS8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BT8">
         <v>92</v>
       </c>
       <c r="BU8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BV8">
         <v>158</v>
@@ -3068,15 +3092,18 @@
         <v>403</v>
       </c>
       <c r="BZ8">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="CA8">
-        <v>801</v>
+        <v>811</v>
+      </c>
+      <c r="CB8">
+        <v>986</v>
       </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>63</v>
@@ -3169,7 +3196,7 @@
         <v>542</v>
       </c>
       <c r="AF9">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AG9">
         <v>1273</v>
@@ -3178,16 +3205,16 @@
         <v>2122</v>
       </c>
       <c r="AI9">
-        <v>3957</v>
+        <v>3958</v>
       </c>
       <c r="AJ9">
-        <v>5988</v>
+        <v>5987</v>
       </c>
       <c r="AK9">
         <v>6854</v>
       </c>
       <c r="AL9">
-        <v>6926</v>
+        <v>6925</v>
       </c>
       <c r="AM9">
         <v>7298</v>
@@ -3205,13 +3232,13 @@
         <v>11039</v>
       </c>
       <c r="AR9">
-        <v>9180</v>
+        <v>9181</v>
       </c>
       <c r="AS9">
         <v>8262</v>
       </c>
       <c r="AT9">
-        <v>9276</v>
+        <v>9278</v>
       </c>
       <c r="AU9">
         <v>7552</v>
@@ -3244,28 +3271,28 @@
         <v>5307</v>
       </c>
       <c r="BE9">
-        <v>6570</v>
+        <v>6569</v>
       </c>
       <c r="BF9">
         <v>6406</v>
       </c>
       <c r="BG9">
-        <v>6874</v>
+        <v>6875</v>
       </c>
       <c r="BH9">
-        <v>7592</v>
+        <v>7596</v>
       </c>
       <c r="BI9">
-        <v>7758</v>
+        <v>7759</v>
       </c>
       <c r="BJ9">
         <v>6799</v>
       </c>
       <c r="BK9">
-        <v>5530</v>
+        <v>5531</v>
       </c>
       <c r="BL9">
-        <v>3733</v>
+        <v>3731</v>
       </c>
       <c r="BM9">
         <v>2652</v>
@@ -3301,21 +3328,24 @@
         <v>397</v>
       </c>
       <c r="BX9">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="BY9">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="BZ9">
         <v>979</v>
       </c>
       <c r="CA9">
-        <v>1459</v>
+        <v>1482</v>
+      </c>
+      <c r="CB9">
+        <v>1796</v>
       </c>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>76</v>
@@ -3333,7 +3363,7 @@
         <v>3664</v>
       </c>
       <c r="G10">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="H10">
         <v>1565</v>
@@ -3357,7 +3387,7 @@
         <v>237</v>
       </c>
       <c r="O10">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P10">
         <v>133</v>
@@ -3420,13 +3450,13 @@
         <v>5757</v>
       </c>
       <c r="AJ10">
-        <v>8973</v>
+        <v>8970</v>
       </c>
       <c r="AK10">
-        <v>10164</v>
+        <v>10165</v>
       </c>
       <c r="AL10">
-        <v>10293</v>
+        <v>10292</v>
       </c>
       <c r="AM10">
         <v>10252</v>
@@ -3435,7 +3465,7 @@
         <v>9874</v>
       </c>
       <c r="AO10">
-        <v>10374</v>
+        <v>10375</v>
       </c>
       <c r="AP10">
         <v>13047</v>
@@ -3444,16 +3474,16 @@
         <v>14998</v>
       </c>
       <c r="AR10">
-        <v>12390</v>
+        <v>12388</v>
       </c>
       <c r="AS10">
-        <v>11093</v>
+        <v>11094</v>
       </c>
       <c r="AT10">
         <v>12328</v>
       </c>
       <c r="AU10">
-        <v>10031</v>
+        <v>10032</v>
       </c>
       <c r="AV10">
         <v>8336</v>
@@ -3471,37 +3501,37 @@
         <v>4603</v>
       </c>
       <c r="BA10">
-        <v>4837</v>
+        <v>4838</v>
       </c>
       <c r="BB10">
-        <v>4638</v>
+        <v>4639</v>
       </c>
       <c r="BC10">
         <v>5710</v>
       </c>
       <c r="BD10">
-        <v>7263</v>
+        <v>7264</v>
       </c>
       <c r="BE10">
-        <v>9096</v>
+        <v>9095</v>
       </c>
       <c r="BF10">
         <v>8946</v>
       </c>
       <c r="BG10">
-        <v>9680</v>
+        <v>9678</v>
       </c>
       <c r="BH10">
-        <v>10668</v>
+        <v>10664</v>
       </c>
       <c r="BI10">
         <v>11026</v>
       </c>
       <c r="BJ10">
-        <v>9927</v>
+        <v>9929</v>
       </c>
       <c r="BK10">
-        <v>7821</v>
+        <v>7822</v>
       </c>
       <c r="BL10">
         <v>5327</v>
@@ -3534,7 +3564,7 @@
         <v>367</v>
       </c>
       <c r="BV10">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="BW10">
         <v>579</v>
@@ -3543,18 +3573,21 @@
         <v>786</v>
       </c>
       <c r="BY10">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="BZ10">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="CA10">
-        <v>2334</v>
+        <v>2397</v>
+      </c>
+      <c r="CB10">
+        <v>2673</v>
       </c>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>133</v>
@@ -3563,7 +3596,7 @@
         <v>979</v>
       </c>
       <c r="D11">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="E11">
         <v>4001</v>
@@ -3626,7 +3659,7 @@
         <v>416</v>
       </c>
       <c r="Y11">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Z11">
         <v>559</v>
@@ -3638,7 +3671,7 @@
         <v>549</v>
       </c>
       <c r="AC11">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AD11">
         <v>898</v>
@@ -3653,16 +3686,16 @@
         <v>2269</v>
       </c>
       <c r="AH11">
-        <v>3580</v>
+        <v>3579</v>
       </c>
       <c r="AI11">
         <v>6418</v>
       </c>
       <c r="AJ11">
-        <v>9769</v>
+        <v>9767</v>
       </c>
       <c r="AK11">
-        <v>10964</v>
+        <v>10963</v>
       </c>
       <c r="AL11">
         <v>10998</v>
@@ -3671,19 +3704,19 @@
         <v>10844</v>
       </c>
       <c r="AN11">
-        <v>10331</v>
+        <v>10330</v>
       </c>
       <c r="AO11">
-        <v>10546</v>
+        <v>10547</v>
       </c>
       <c r="AP11">
-        <v>13254</v>
+        <v>13255</v>
       </c>
       <c r="AQ11">
         <v>14918</v>
       </c>
       <c r="AR11">
-        <v>11978</v>
+        <v>11980</v>
       </c>
       <c r="AS11">
         <v>10526</v>
@@ -3695,31 +3728,31 @@
         <v>9814</v>
       </c>
       <c r="AV11">
-        <v>8177</v>
+        <v>8178</v>
       </c>
       <c r="AW11">
         <v>6675</v>
       </c>
       <c r="AX11">
-        <v>5305</v>
+        <v>5304</v>
       </c>
       <c r="AY11">
         <v>4311</v>
       </c>
       <c r="AZ11">
-        <v>4503</v>
+        <v>4502</v>
       </c>
       <c r="BA11">
         <v>4752</v>
       </c>
       <c r="BB11">
-        <v>4945</v>
+        <v>4944</v>
       </c>
       <c r="BC11">
-        <v>5904</v>
+        <v>5903</v>
       </c>
       <c r="BD11">
-        <v>7534</v>
+        <v>7533</v>
       </c>
       <c r="BE11">
         <v>9349</v>
@@ -3728,7 +3761,7 @@
         <v>9124</v>
       </c>
       <c r="BG11">
-        <v>9955</v>
+        <v>9954</v>
       </c>
       <c r="BH11">
         <v>11111</v>
@@ -3737,7 +3770,7 @@
         <v>11639</v>
       </c>
       <c r="BJ11">
-        <v>10153</v>
+        <v>10152</v>
       </c>
       <c r="BK11">
         <v>8022</v>
@@ -3746,7 +3779,7 @@
         <v>5471</v>
       </c>
       <c r="BM11">
-        <v>3778</v>
+        <v>3779</v>
       </c>
       <c r="BN11">
         <v>2059</v>
@@ -3764,7 +3797,7 @@
         <v>298</v>
       </c>
       <c r="BS11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BT11">
         <v>286</v>
@@ -3773,27 +3806,30 @@
         <v>452</v>
       </c>
       <c r="BV11">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="BW11">
         <v>819</v>
       </c>
       <c r="BX11">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="BY11">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="BZ11">
-        <v>2521</v>
+        <v>2529</v>
       </c>
       <c r="CA11">
-        <v>3260</v>
+        <v>3323</v>
+      </c>
+      <c r="CB11">
+        <v>3653</v>
       </c>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <v>99</v>
@@ -3871,10 +3907,10 @@
         <v>693</v>
       </c>
       <c r="AA12">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AB12">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AC12">
         <v>696</v>
@@ -3895,13 +3931,13 @@
         <v>3121</v>
       </c>
       <c r="AI12">
-        <v>5821</v>
+        <v>5820</v>
       </c>
       <c r="AJ12">
         <v>8395</v>
       </c>
       <c r="AK12">
-        <v>9477</v>
+        <v>9476</v>
       </c>
       <c r="AL12">
         <v>9283</v>
@@ -3910,16 +3946,16 @@
         <v>9674</v>
       </c>
       <c r="AN12">
-        <v>9060</v>
+        <v>9059</v>
       </c>
       <c r="AO12">
-        <v>9235</v>
+        <v>9234</v>
       </c>
       <c r="AP12">
-        <v>11092</v>
+        <v>11093</v>
       </c>
       <c r="AQ12">
-        <v>12440</v>
+        <v>12439</v>
       </c>
       <c r="AR12">
         <v>9740</v>
@@ -3931,13 +3967,13 @@
         <v>9795</v>
       </c>
       <c r="AU12">
-        <v>7955</v>
+        <v>7954</v>
       </c>
       <c r="AV12">
         <v>6489</v>
       </c>
       <c r="AW12">
-        <v>5302</v>
+        <v>5304</v>
       </c>
       <c r="AX12">
         <v>4492</v>
@@ -3949,13 +3985,13 @@
         <v>3774</v>
       </c>
       <c r="BA12">
-        <v>4050</v>
+        <v>4049</v>
       </c>
       <c r="BB12">
         <v>4289</v>
       </c>
       <c r="BC12">
-        <v>5184</v>
+        <v>5185</v>
       </c>
       <c r="BD12">
         <v>6517</v>
@@ -3967,22 +4003,22 @@
         <v>7992</v>
       </c>
       <c r="BG12">
-        <v>8766</v>
+        <v>8769</v>
       </c>
       <c r="BH12">
-        <v>10164</v>
+        <v>10165</v>
       </c>
       <c r="BI12">
         <v>10676</v>
       </c>
       <c r="BJ12">
-        <v>9024</v>
+        <v>9023</v>
       </c>
       <c r="BK12">
         <v>7441</v>
       </c>
       <c r="BL12">
-        <v>5087</v>
+        <v>5086</v>
       </c>
       <c r="BM12">
         <v>3589</v>
@@ -4012,27 +4048,30 @@
         <v>435</v>
       </c>
       <c r="BV12">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="BW12">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="BX12">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="BY12">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="BZ12">
-        <v>3088</v>
+        <v>3093</v>
       </c>
       <c r="CA12">
-        <v>4029</v>
+        <v>4105</v>
+      </c>
+      <c r="CB12">
+        <v>4519</v>
       </c>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B13">
         <v>85</v>
@@ -4044,7 +4083,7 @@
         <v>1798</v>
       </c>
       <c r="E13">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="F13">
         <v>2306</v>
@@ -4089,7 +4128,7 @@
         <v>215</v>
       </c>
       <c r="T13">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U13">
         <v>251</v>
@@ -4107,7 +4146,7 @@
         <v>639</v>
       </c>
       <c r="Z13">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AA13">
         <v>659</v>
@@ -4143,16 +4182,16 @@
         <v>8877</v>
       </c>
       <c r="AL13">
-        <v>8993</v>
+        <v>8994</v>
       </c>
       <c r="AM13">
-        <v>9238</v>
+        <v>9237</v>
       </c>
       <c r="AN13">
         <v>8809</v>
       </c>
       <c r="AO13">
-        <v>8812</v>
+        <v>8811</v>
       </c>
       <c r="AP13">
         <v>10903</v>
@@ -4161,67 +4200,67 @@
         <v>11992</v>
       </c>
       <c r="AR13">
-        <v>9509</v>
+        <v>9511</v>
       </c>
       <c r="AS13">
-        <v>8027</v>
+        <v>8028</v>
       </c>
       <c r="AT13">
         <v>9546</v>
       </c>
       <c r="AU13">
-        <v>7557</v>
+        <v>7556</v>
       </c>
       <c r="AV13">
         <v>6229</v>
       </c>
       <c r="AW13">
-        <v>5118</v>
+        <v>5119</v>
       </c>
       <c r="AX13">
         <v>4276</v>
       </c>
       <c r="AY13">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="AZ13">
-        <v>3591</v>
+        <v>3592</v>
       </c>
       <c r="BA13">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="BB13">
-        <v>4271</v>
+        <v>4272</v>
       </c>
       <c r="BC13">
-        <v>5341</v>
+        <v>5340</v>
       </c>
       <c r="BD13">
         <v>6980</v>
       </c>
       <c r="BE13">
-        <v>9087</v>
+        <v>9086</v>
       </c>
       <c r="BF13">
         <v>8326</v>
       </c>
       <c r="BG13">
-        <v>9278</v>
+        <v>9279</v>
       </c>
       <c r="BH13">
-        <v>10723</v>
+        <v>10725</v>
       </c>
       <c r="BI13">
-        <v>10824</v>
+        <v>10823</v>
       </c>
       <c r="BJ13">
-        <v>9578</v>
+        <v>9579</v>
       </c>
       <c r="BK13">
-        <v>7726</v>
+        <v>7727</v>
       </c>
       <c r="BL13">
-        <v>5334</v>
+        <v>5332</v>
       </c>
       <c r="BM13">
         <v>3986</v>
@@ -4230,7 +4269,7 @@
         <v>2206</v>
       </c>
       <c r="BO13">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="BP13">
         <v>1077</v>
@@ -4248,7 +4287,7 @@
         <v>343</v>
       </c>
       <c r="BU13">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="BV13">
         <v>735</v>
@@ -4257,27 +4296,30 @@
         <v>987</v>
       </c>
       <c r="BX13">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="BY13">
-        <v>2342</v>
+        <v>2347</v>
       </c>
       <c r="BZ13">
-        <v>3736</v>
+        <v>3755</v>
       </c>
       <c r="CA13">
-        <v>5050</v>
+        <v>5166</v>
+      </c>
+      <c r="CB13">
+        <v>5586</v>
       </c>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B14">
         <v>67</v>
       </c>
       <c r="C14">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D14">
         <v>1753</v>
@@ -4325,7 +4367,7 @@
         <v>296</v>
       </c>
       <c r="S14">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T14">
         <v>203</v>
@@ -4355,7 +4397,7 @@
         <v>646</v>
       </c>
       <c r="AC14">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AD14">
         <v>906</v>
@@ -4376,22 +4418,22 @@
         <v>5386</v>
       </c>
       <c r="AJ14">
-        <v>8085</v>
+        <v>8082</v>
       </c>
       <c r="AK14">
-        <v>8957</v>
+        <v>8956</v>
       </c>
       <c r="AL14">
         <v>9189</v>
       </c>
       <c r="AM14">
-        <v>9193</v>
+        <v>9194</v>
       </c>
       <c r="AN14">
         <v>8715</v>
       </c>
       <c r="AO14">
-        <v>9139</v>
+        <v>9140</v>
       </c>
       <c r="AP14">
         <v>10993</v>
@@ -4400,19 +4442,19 @@
         <v>12229</v>
       </c>
       <c r="AR14">
-        <v>9524</v>
+        <v>9523</v>
       </c>
       <c r="AS14">
         <v>8080</v>
       </c>
       <c r="AT14">
-        <v>10145</v>
+        <v>10146</v>
       </c>
       <c r="AU14">
         <v>8008</v>
       </c>
       <c r="AV14">
-        <v>6341</v>
+        <v>6343</v>
       </c>
       <c r="AW14">
         <v>5194</v>
@@ -4427,7 +4469,7 @@
         <v>3710</v>
       </c>
       <c r="BA14">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="BB14">
         <v>4576</v>
@@ -4436,7 +4478,7 @@
         <v>5760</v>
       </c>
       <c r="BD14">
-        <v>7587</v>
+        <v>7588</v>
       </c>
       <c r="BE14">
         <v>9459</v>
@@ -4448,31 +4490,31 @@
         <v>9483</v>
       </c>
       <c r="BH14">
-        <v>11265</v>
+        <v>11264</v>
       </c>
       <c r="BI14">
         <v>11274</v>
       </c>
       <c r="BJ14">
-        <v>10028</v>
+        <v>10030</v>
       </c>
       <c r="BK14">
-        <v>7967</v>
+        <v>7968</v>
       </c>
       <c r="BL14">
-        <v>5629</v>
+        <v>5628</v>
       </c>
       <c r="BM14">
-        <v>4222</v>
+        <v>4223</v>
       </c>
       <c r="BN14">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="BO14">
         <v>1692</v>
       </c>
       <c r="BP14">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="BQ14">
         <v>546</v>
@@ -4484,33 +4526,36 @@
         <v>339</v>
       </c>
       <c r="BT14">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BU14">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="BV14">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="BW14">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="BX14">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="BY14">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="BZ14">
-        <v>3754</v>
+        <v>3763</v>
       </c>
       <c r="CA14">
-        <v>5121</v>
+        <v>5259</v>
+      </c>
+      <c r="CB14">
+        <v>5873</v>
       </c>
     </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B15">
         <v>69</v>
@@ -4582,16 +4627,16 @@
         <v>515</v>
       </c>
       <c r="Y15">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="Z15">
         <v>945</v>
       </c>
       <c r="AA15">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="AB15">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AC15">
         <v>938</v>
@@ -4606,25 +4651,25 @@
         <v>1522</v>
       </c>
       <c r="AG15">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="AH15">
         <v>3861</v>
       </c>
       <c r="AI15">
-        <v>6717</v>
+        <v>6716</v>
       </c>
       <c r="AJ15">
         <v>9575</v>
       </c>
       <c r="AK15">
-        <v>10476</v>
+        <v>10475</v>
       </c>
       <c r="AL15">
-        <v>10481</v>
+        <v>10480</v>
       </c>
       <c r="AM15">
-        <v>10083</v>
+        <v>10082</v>
       </c>
       <c r="AN15">
         <v>9365</v>
@@ -4645,19 +4690,19 @@
         <v>9194</v>
       </c>
       <c r="AT15">
-        <v>11600</v>
+        <v>11602</v>
       </c>
       <c r="AU15">
         <v>9047</v>
       </c>
       <c r="AV15">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="AW15">
         <v>5763</v>
       </c>
       <c r="AX15">
-        <v>4906</v>
+        <v>4907</v>
       </c>
       <c r="AY15">
         <v>3904</v>
@@ -4666,7 +4711,7 @@
         <v>4114</v>
       </c>
       <c r="BA15">
-        <v>4532</v>
+        <v>4530</v>
       </c>
       <c r="BB15">
         <v>4891</v>
@@ -4678,40 +4723,40 @@
         <v>7895</v>
       </c>
       <c r="BE15">
-        <v>9869</v>
+        <v>9868</v>
       </c>
       <c r="BF15">
         <v>9512</v>
       </c>
       <c r="BG15">
-        <v>10131</v>
+        <v>10133</v>
       </c>
       <c r="BH15">
-        <v>12006</v>
+        <v>12008</v>
       </c>
       <c r="BI15">
         <v>11856</v>
       </c>
       <c r="BJ15">
-        <v>10454</v>
+        <v>10455</v>
       </c>
       <c r="BK15">
-        <v>8278</v>
+        <v>8277</v>
       </c>
       <c r="BL15">
-        <v>5873</v>
+        <v>5872</v>
       </c>
       <c r="BM15">
-        <v>4544</v>
+        <v>4543</v>
       </c>
       <c r="BN15">
         <v>2747</v>
       </c>
       <c r="BO15">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="BP15">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="BQ15">
         <v>632</v>
@@ -4723,33 +4768,36 @@
         <v>428</v>
       </c>
       <c r="BT15">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="BU15">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="BV15">
         <v>1307</v>
       </c>
       <c r="BW15">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="BX15">
-        <v>2069</v>
+        <v>2074</v>
       </c>
       <c r="BY15">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="BZ15">
-        <v>4371</v>
+        <v>4379</v>
       </c>
       <c r="CA15">
-        <v>5837</v>
+        <v>5966</v>
+      </c>
+      <c r="CB15">
+        <v>6455</v>
       </c>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16">
         <v>76</v>
@@ -4758,7 +4806,7 @@
         <v>549</v>
       </c>
       <c r="D16">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E16">
         <v>2690</v>
@@ -4851,16 +4899,16 @@
         <v>4474</v>
       </c>
       <c r="AI16">
-        <v>7320</v>
+        <v>7319</v>
       </c>
       <c r="AJ16">
         <v>10342</v>
       </c>
       <c r="AK16">
-        <v>11152</v>
+        <v>11150</v>
       </c>
       <c r="AL16">
-        <v>10686</v>
+        <v>10683</v>
       </c>
       <c r="AM16">
         <v>9921</v>
@@ -4872,25 +4920,25 @@
         <v>9148</v>
       </c>
       <c r="AP16">
-        <v>10783</v>
+        <v>10782</v>
       </c>
       <c r="AQ16">
-        <v>12106</v>
+        <v>12105</v>
       </c>
       <c r="AR16">
-        <v>9433</v>
+        <v>9431</v>
       </c>
       <c r="AS16">
         <v>8423</v>
       </c>
       <c r="AT16">
-        <v>10779</v>
+        <v>10778</v>
       </c>
       <c r="AU16">
-        <v>8537</v>
+        <v>8536</v>
       </c>
       <c r="AV16">
-        <v>6393</v>
+        <v>6391</v>
       </c>
       <c r="AW16">
         <v>5340</v>
@@ -4917,37 +4965,37 @@
         <v>7010</v>
       </c>
       <c r="BE16">
-        <v>8401</v>
+        <v>8398</v>
       </c>
       <c r="BF16">
-        <v>8378</v>
+        <v>8377</v>
       </c>
       <c r="BG16">
-        <v>9211</v>
+        <v>9210</v>
       </c>
       <c r="BH16">
-        <v>10898</v>
+        <v>10900</v>
       </c>
       <c r="BI16">
         <v>10788</v>
       </c>
       <c r="BJ16">
-        <v>9213</v>
+        <v>9215</v>
       </c>
       <c r="BK16">
-        <v>7458</v>
+        <v>7457</v>
       </c>
       <c r="BL16">
-        <v>5182</v>
+        <v>5183</v>
       </c>
       <c r="BM16">
-        <v>3947</v>
+        <v>3948</v>
       </c>
       <c r="BN16">
         <v>2455</v>
       </c>
       <c r="BO16">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="BP16">
         <v>1107</v>
@@ -4965,10 +5013,10 @@
         <v>787</v>
       </c>
       <c r="BU16">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="BV16">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="BW16">
         <v>1952</v>
@@ -4977,18 +5025,21 @@
         <v>2402</v>
       </c>
       <c r="BY16">
-        <v>3590</v>
+        <v>3593</v>
       </c>
       <c r="BZ16">
-        <v>5012</v>
+        <v>5022</v>
       </c>
       <c r="CA16">
-        <v>6139</v>
+        <v>6316</v>
+      </c>
+      <c r="CB16">
+        <v>6182</v>
       </c>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B17">
         <v>70</v>
@@ -5018,7 +5069,7 @@
         <v>593</v>
       </c>
       <c r="K17">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L17">
         <v>419</v>
@@ -5087,7 +5138,7 @@
         <v>2791</v>
       </c>
       <c r="AH17">
-        <v>4382</v>
+        <v>4383</v>
       </c>
       <c r="AI17">
         <v>7565</v>
@@ -5102,43 +5153,43 @@
         <v>11024</v>
       </c>
       <c r="AM17">
-        <v>10200</v>
+        <v>10198</v>
       </c>
       <c r="AN17">
         <v>8938</v>
       </c>
       <c r="AO17">
-        <v>9175</v>
+        <v>9173</v>
       </c>
       <c r="AP17">
         <v>10786</v>
       </c>
       <c r="AQ17">
-        <v>12096</v>
+        <v>12095</v>
       </c>
       <c r="AR17">
-        <v>9070</v>
+        <v>9069</v>
       </c>
       <c r="AS17">
-        <v>8586</v>
+        <v>8587</v>
       </c>
       <c r="AT17">
-        <v>10891</v>
+        <v>10890</v>
       </c>
       <c r="AU17">
-        <v>8535</v>
+        <v>8534</v>
       </c>
       <c r="AV17">
-        <v>6435</v>
+        <v>6434</v>
       </c>
       <c r="AW17">
-        <v>5240</v>
+        <v>5241</v>
       </c>
       <c r="AX17">
         <v>4376</v>
       </c>
       <c r="AY17">
-        <v>3653</v>
+        <v>3662</v>
       </c>
       <c r="AZ17">
         <v>3946</v>
@@ -5147,40 +5198,40 @@
         <v>4198</v>
       </c>
       <c r="BB17">
-        <v>4399</v>
+        <v>4401</v>
       </c>
       <c r="BC17">
-        <v>5420</v>
+        <v>5421</v>
       </c>
       <c r="BD17">
-        <v>6900</v>
+        <v>6901</v>
       </c>
       <c r="BE17">
-        <v>8557</v>
+        <v>8554</v>
       </c>
       <c r="BF17">
-        <v>8505</v>
+        <v>8507</v>
       </c>
       <c r="BG17">
-        <v>9793</v>
+        <v>9795</v>
       </c>
       <c r="BH17">
-        <v>11544</v>
+        <v>11545</v>
       </c>
       <c r="BI17">
-        <v>11271</v>
+        <v>11273</v>
       </c>
       <c r="BJ17">
-        <v>9630</v>
+        <v>9629</v>
       </c>
       <c r="BK17">
-        <v>7836</v>
+        <v>7839</v>
       </c>
       <c r="BL17">
         <v>5587</v>
       </c>
       <c r="BM17">
-        <v>4188</v>
+        <v>4184</v>
       </c>
       <c r="BN17">
         <v>2414</v>
@@ -5201,10 +5252,10 @@
         <v>554</v>
       </c>
       <c r="BT17">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="BU17">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="BV17">
         <v>2088</v>
@@ -5213,21 +5264,24 @@
         <v>2327</v>
       </c>
       <c r="BX17">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="BY17">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="BZ17">
-        <v>5773</v>
+        <v>5781</v>
       </c>
       <c r="CA17">
-        <v>6737</v>
+        <v>6864</v>
+      </c>
+      <c r="CB17">
+        <v>6710</v>
       </c>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B18">
         <v>43</v>
@@ -5248,7 +5302,7 @@
         <v>857</v>
       </c>
       <c r="H18">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I18">
         <v>402</v>
@@ -5284,10 +5338,10 @@
         <v>137</v>
       </c>
       <c r="T18">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U18">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="V18">
         <v>246</v>
@@ -5296,7 +5350,7 @@
         <v>365</v>
       </c>
       <c r="X18">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Y18">
         <v>741</v>
@@ -5311,13 +5365,13 @@
         <v>768</v>
       </c>
       <c r="AC18">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AD18">
         <v>1040</v>
       </c>
       <c r="AE18">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AF18">
         <v>1330</v>
@@ -5329,25 +5383,25 @@
         <v>2959</v>
       </c>
       <c r="AI18">
-        <v>4861</v>
+        <v>4860</v>
       </c>
       <c r="AJ18">
-        <v>7188</v>
+        <v>7190</v>
       </c>
       <c r="AK18">
         <v>8411</v>
       </c>
       <c r="AL18">
-        <v>8716</v>
+        <v>8715</v>
       </c>
       <c r="AM18">
-        <v>8208</v>
+        <v>8211</v>
       </c>
       <c r="AN18">
-        <v>7459</v>
+        <v>7458</v>
       </c>
       <c r="AO18">
-        <v>7712</v>
+        <v>7711</v>
       </c>
       <c r="AP18">
         <v>8817</v>
@@ -5356,16 +5410,16 @@
         <v>8473</v>
       </c>
       <c r="AR18">
-        <v>5869</v>
+        <v>5870</v>
       </c>
       <c r="AS18">
-        <v>4956</v>
+        <v>4955</v>
       </c>
       <c r="AT18">
         <v>6380</v>
       </c>
       <c r="AU18">
-        <v>5392</v>
+        <v>5391</v>
       </c>
       <c r="AV18">
         <v>4200</v>
@@ -5389,46 +5443,46 @@
         <v>3212</v>
       </c>
       <c r="BC18">
-        <v>4107</v>
+        <v>4106</v>
       </c>
       <c r="BD18">
         <v>5537</v>
       </c>
       <c r="BE18">
-        <v>7187</v>
+        <v>7186</v>
       </c>
       <c r="BF18">
         <v>6609</v>
       </c>
       <c r="BG18">
-        <v>7548</v>
+        <v>7547</v>
       </c>
       <c r="BH18">
         <v>10812</v>
       </c>
       <c r="BI18">
-        <v>10339</v>
+        <v>10340</v>
       </c>
       <c r="BJ18">
-        <v>8659</v>
+        <v>8661</v>
       </c>
       <c r="BK18">
-        <v>7049</v>
+        <v>7050</v>
       </c>
       <c r="BL18">
         <v>4941</v>
       </c>
       <c r="BM18">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="BN18">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="BO18">
         <v>1725</v>
       </c>
       <c r="BP18">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="BQ18">
         <v>680</v>
@@ -5443,30 +5497,33 @@
         <v>580</v>
       </c>
       <c r="BU18">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="BV18">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="BW18">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="BX18">
         <v>2368</v>
       </c>
       <c r="BY18">
-        <v>3496</v>
+        <v>3500</v>
       </c>
       <c r="BZ18">
-        <v>5561</v>
+        <v>5570</v>
       </c>
       <c r="CA18">
-        <v>6778</v>
+        <v>6956</v>
+      </c>
+      <c r="CB18">
+        <v>7670</v>
       </c>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -5523,7 +5580,7 @@
         <v>105</v>
       </c>
       <c r="T19">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U19">
         <v>146</v>
@@ -5541,7 +5598,7 @@
         <v>545</v>
       </c>
       <c r="Z19">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AA19">
         <v>482</v>
@@ -5571,7 +5628,7 @@
         <v>2747</v>
       </c>
       <c r="AJ19">
-        <v>4082</v>
+        <v>4081</v>
       </c>
       <c r="AK19">
         <v>4785</v>
@@ -5583,13 +5640,13 @@
         <v>5297</v>
       </c>
       <c r="AN19">
-        <v>5185</v>
+        <v>5184</v>
       </c>
       <c r="AO19">
-        <v>5155</v>
+        <v>5154</v>
       </c>
       <c r="AP19">
-        <v>5688</v>
+        <v>5689</v>
       </c>
       <c r="AQ19">
         <v>5284</v>
@@ -5604,10 +5661,10 @@
         <v>3331</v>
       </c>
       <c r="AU19">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="AV19">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="AW19">
         <v>1879</v>
@@ -5637,31 +5694,31 @@
         <v>5733</v>
       </c>
       <c r="BF19">
-        <v>4849</v>
+        <v>4850</v>
       </c>
       <c r="BG19">
-        <v>5176</v>
+        <v>5179</v>
       </c>
       <c r="BH19">
         <v>7658</v>
       </c>
       <c r="BI19">
-        <v>8730</v>
+        <v>8731</v>
       </c>
       <c r="BJ19">
-        <v>7166</v>
+        <v>7168</v>
       </c>
       <c r="BK19">
         <v>6128</v>
       </c>
       <c r="BL19">
-        <v>4570</v>
+        <v>4571</v>
       </c>
       <c r="BM19">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="BN19">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="BO19">
         <v>1580</v>
@@ -5679,33 +5736,36 @@
         <v>308</v>
       </c>
       <c r="BT19">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BU19">
         <v>531</v>
       </c>
       <c r="BV19">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="BW19">
         <v>997</v>
       </c>
       <c r="BX19">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="BY19">
-        <v>2603</v>
+        <v>2599</v>
       </c>
       <c r="BZ19">
-        <v>5340</v>
+        <v>5353</v>
       </c>
       <c r="CA19">
-        <v>6738</v>
+        <v>6900</v>
+      </c>
+      <c r="CB19">
+        <v>8267</v>
       </c>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -5756,10 +5816,10 @@
         <v>177</v>
       </c>
       <c r="R20">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S20">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T20">
         <v>115</v>
@@ -5801,37 +5861,37 @@
         <v>434</v>
       </c>
       <c r="AG20">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AH20">
         <v>974</v>
       </c>
       <c r="AI20">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="AJ20">
         <v>2792</v>
       </c>
       <c r="AK20">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="AL20">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="AM20">
-        <v>3920</v>
+        <v>3917</v>
       </c>
       <c r="AN20">
         <v>3819</v>
       </c>
       <c r="AO20">
-        <v>3684</v>
+        <v>3682</v>
       </c>
       <c r="AP20">
-        <v>4258</v>
+        <v>4257</v>
       </c>
       <c r="AQ20">
-        <v>4302</v>
+        <v>4301</v>
       </c>
       <c r="AR20">
         <v>3022</v>
@@ -5840,7 +5900,7 @@
         <v>1944</v>
       </c>
       <c r="AT20">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="AU20">
         <v>2194</v>
@@ -5873,28 +5933,28 @@
         <v>4762</v>
       </c>
       <c r="BE20">
-        <v>6702</v>
+        <v>6700</v>
       </c>
       <c r="BF20">
-        <v>5189</v>
+        <v>5188</v>
       </c>
       <c r="BG20">
-        <v>4698</v>
+        <v>4696</v>
       </c>
       <c r="BH20">
-        <v>6993</v>
+        <v>6992</v>
       </c>
       <c r="BI20">
         <v>8413</v>
       </c>
       <c r="BJ20">
-        <v>6878</v>
+        <v>6876</v>
       </c>
       <c r="BK20">
         <v>5566</v>
       </c>
       <c r="BL20">
-        <v>4117</v>
+        <v>4116</v>
       </c>
       <c r="BM20">
         <v>3412</v>
@@ -5915,13 +5975,13 @@
         <v>345</v>
       </c>
       <c r="BS20">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BT20">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="BU20">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="BV20">
         <v>476</v>
@@ -5930,21 +5990,24 @@
         <v>724</v>
       </c>
       <c r="BX20">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="BY20">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="BZ20">
-        <v>3712</v>
+        <v>3718</v>
       </c>
       <c r="CA20">
-        <v>5446</v>
+        <v>5572</v>
+      </c>
+      <c r="CB20">
+        <v>6916</v>
       </c>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -6025,7 +6088,7 @@
         <v>223</v>
       </c>
       <c r="AB21">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AC21">
         <v>226</v>
@@ -6070,7 +6133,7 @@
         <v>2656</v>
       </c>
       <c r="AQ21">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="AR21">
         <v>2106</v>
@@ -6082,10 +6145,10 @@
         <v>1900</v>
       </c>
       <c r="AU21">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="AV21">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="AW21">
         <v>1528</v>
@@ -6109,7 +6172,7 @@
         <v>2990</v>
       </c>
       <c r="BD21">
-        <v>4049</v>
+        <v>4048</v>
       </c>
       <c r="BE21">
         <v>5022</v>
@@ -6118,22 +6181,22 @@
         <v>4467</v>
       </c>
       <c r="BG21">
-        <v>4025</v>
+        <v>4026</v>
       </c>
       <c r="BH21">
-        <v>5085</v>
+        <v>5084</v>
       </c>
       <c r="BI21">
         <v>5580</v>
       </c>
       <c r="BJ21">
-        <v>5061</v>
+        <v>5059</v>
       </c>
       <c r="BK21">
         <v>4114</v>
       </c>
       <c r="BL21">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="BM21">
         <v>2298</v>
@@ -6163,7 +6226,7 @@
         <v>258</v>
       </c>
       <c r="BV21">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="BW21">
         <v>522</v>
@@ -6175,29 +6238,32 @@
         <v>1232</v>
       </c>
       <c r="BZ21">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="CA21">
-        <v>2908</v>
+        <v>2952</v>
+      </c>
+      <c r="CB21">
+        <v>3386</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CA21"/>
+  <dimension ref="A1:CB21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6435,10 +6501,13 @@
       <c r="CA1" t="s">
         <v>78</v>
       </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>1.08</v>
@@ -6450,7 +6519,7 @@
         <v>26.92</v>
       </c>
       <c r="E2">
-        <v>40.840000000000003</v>
+        <v>40.85</v>
       </c>
       <c r="F2">
         <v>43.34</v>
@@ -6495,10 +6564,10 @@
         <v>3.23</v>
       </c>
       <c r="T2">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="U2">
-        <v>3.63</v>
+        <v>3.64</v>
       </c>
       <c r="V2">
         <v>4.72</v>
@@ -6516,13 +6585,13 @@
         <v>11.54</v>
       </c>
       <c r="AA2">
-        <v>10.61</v>
+        <v>10.62</v>
       </c>
       <c r="AB2">
         <v>10.36</v>
       </c>
       <c r="AC2">
-        <v>11.74</v>
+        <v>11.73</v>
       </c>
       <c r="AD2">
         <v>14.78</v>
@@ -6543,13 +6612,13 @@
         <v>90.01</v>
       </c>
       <c r="AJ2">
-        <v>133.49</v>
+        <v>133.47999999999999</v>
       </c>
       <c r="AK2">
         <v>151.18</v>
       </c>
       <c r="AL2">
-        <v>153.63</v>
+        <v>153.62</v>
       </c>
       <c r="AM2">
         <v>154.34</v>
@@ -6558,37 +6627,37 @@
         <v>148.12</v>
       </c>
       <c r="AO2">
-        <v>154.34</v>
+        <v>154.33000000000001</v>
       </c>
       <c r="AP2">
         <v>187.92</v>
       </c>
       <c r="AQ2">
-        <v>210.09</v>
+        <v>210.08</v>
       </c>
       <c r="AR2">
         <v>167.08</v>
       </c>
       <c r="AS2">
-        <v>147.97999999999999</v>
+        <v>147.99</v>
       </c>
       <c r="AT2">
-        <v>174.88</v>
+        <v>174.89</v>
       </c>
       <c r="AU2">
-        <v>142.97999999999999</v>
+        <v>142.97</v>
       </c>
       <c r="AV2">
         <v>114.85</v>
       </c>
       <c r="AW2">
-        <v>93.93</v>
+        <v>93.94</v>
       </c>
       <c r="AX2">
         <v>77.63</v>
       </c>
       <c r="AY2">
-        <v>61.07</v>
+        <v>61.09</v>
       </c>
       <c r="AZ2">
         <v>63</v>
@@ -6597,49 +6666,49 @@
         <v>67.75</v>
       </c>
       <c r="BB2">
-        <v>70.17</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="BC2">
         <v>85.72</v>
       </c>
       <c r="BD2">
-        <v>111.3</v>
+        <v>111.31</v>
       </c>
       <c r="BE2">
-        <v>139.80000000000001</v>
+        <v>139.79</v>
       </c>
       <c r="BF2">
         <v>132.38</v>
       </c>
       <c r="BG2">
-        <v>142.16</v>
+        <v>142.16999999999999</v>
       </c>
       <c r="BH2">
-        <v>170.75</v>
+        <v>170.76</v>
       </c>
       <c r="BI2">
-        <v>174.06</v>
+        <v>174.05</v>
       </c>
       <c r="BJ2">
         <v>150.09</v>
       </c>
       <c r="BK2">
-        <v>121.45</v>
+        <v>121.46</v>
       </c>
       <c r="BL2">
         <v>85.19</v>
       </c>
       <c r="BM2">
-        <v>63.41</v>
+        <v>63.4</v>
       </c>
       <c r="BN2">
         <v>35.950000000000003</v>
       </c>
       <c r="BO2">
-        <v>24.89</v>
+        <v>24.88</v>
       </c>
       <c r="BP2">
-        <v>16.87</v>
+        <v>16.86</v>
       </c>
       <c r="BQ2">
         <v>8.73</v>
@@ -6663,21 +6732,24 @@
         <v>18.61</v>
       </c>
       <c r="BX2">
-        <v>24.51</v>
+        <v>24.52</v>
       </c>
       <c r="BY2">
-        <v>38.49</v>
+        <v>38.5</v>
       </c>
       <c r="BZ2">
-        <v>59.48</v>
+        <v>59.6</v>
       </c>
       <c r="CA2">
-        <v>77.81</v>
+        <v>79.569999999999993</v>
+      </c>
+      <c r="CB2">
+        <v>88.27</v>
       </c>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>0.12</v>
@@ -6785,7 +6857,7 @@
         <v>177.63</v>
       </c>
       <c r="AK3">
-        <v>209.1</v>
+        <v>209.22</v>
       </c>
       <c r="AL3">
         <v>280.54000000000002</v>
@@ -6794,10 +6866,10 @@
         <v>371.91</v>
       </c>
       <c r="AN3">
-        <v>427.56</v>
+        <v>427.44</v>
       </c>
       <c r="AO3">
-        <v>509.21</v>
+        <v>509.33</v>
       </c>
       <c r="AP3">
         <v>656.1</v>
@@ -6818,7 +6890,7 @@
         <v>609.80999999999995</v>
       </c>
       <c r="AV3">
-        <v>478.95</v>
+        <v>478.83</v>
       </c>
       <c r="AW3">
         <v>349.19</v>
@@ -6827,7 +6899,7 @@
         <v>234.74</v>
       </c>
       <c r="AY3">
-        <v>157.71</v>
+        <v>157.83000000000001</v>
       </c>
       <c r="AZ3">
         <v>129.15</v>
@@ -6848,28 +6920,28 @@
         <v>80.19</v>
       </c>
       <c r="BF3">
-        <v>76.06</v>
+        <v>75.94</v>
       </c>
       <c r="BG3">
-        <v>87.12</v>
+        <v>86.99</v>
       </c>
       <c r="BH3">
-        <v>96.47</v>
+        <v>96.35</v>
       </c>
       <c r="BI3">
-        <v>97.08</v>
+        <v>96.59</v>
       </c>
       <c r="BJ3">
-        <v>77.27</v>
+        <v>77.03</v>
       </c>
       <c r="BK3">
-        <v>66.099999999999994</v>
+        <v>65.97</v>
       </c>
       <c r="BL3">
         <v>49.57</v>
       </c>
       <c r="BM3">
-        <v>33.659999999999997</v>
+        <v>33.78</v>
       </c>
       <c r="BN3">
         <v>19.68</v>
@@ -6881,7 +6953,7 @@
         <v>8.14</v>
       </c>
       <c r="BQ3">
-        <v>5.22</v>
+        <v>5.35</v>
       </c>
       <c r="BR3">
         <v>1.21</v>
@@ -6905,18 +6977,21 @@
         <v>8.02</v>
       </c>
       <c r="BY3">
-        <v>15.92</v>
+        <v>15.67</v>
       </c>
       <c r="BZ3">
         <v>16.89</v>
       </c>
       <c r="CA3">
-        <v>26.73</v>
+        <v>27.58</v>
+      </c>
+      <c r="CB3">
+        <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>0.38</v>
@@ -7024,7 +7099,7 @@
         <v>114.21</v>
       </c>
       <c r="AK4">
-        <v>146.12</v>
+        <v>146.05000000000001</v>
       </c>
       <c r="AL4">
         <v>180.97</v>
@@ -7042,13 +7117,13 @@
         <v>377.73</v>
       </c>
       <c r="AQ4">
-        <v>443.34</v>
+        <v>443.28</v>
       </c>
       <c r="AR4">
-        <v>372.23</v>
+        <v>372.17</v>
       </c>
       <c r="AS4">
-        <v>357.14</v>
+        <v>357.21</v>
       </c>
       <c r="AT4">
         <v>387.9</v>
@@ -7057,7 +7132,7 @@
         <v>355.35</v>
       </c>
       <c r="AV4">
-        <v>283.92</v>
+        <v>283.99</v>
       </c>
       <c r="AW4">
         <v>212.43</v>
@@ -7096,10 +7171,10 @@
         <v>76.739999999999995</v>
       </c>
       <c r="BI4">
-        <v>75.069999999999993</v>
+        <v>75.14</v>
       </c>
       <c r="BJ4">
-        <v>63.24</v>
+        <v>63.18</v>
       </c>
       <c r="BK4">
         <v>54.8</v>
@@ -7147,15 +7222,18 @@
         <v>9.4</v>
       </c>
       <c r="BZ4">
-        <v>14.07</v>
+        <v>14.2</v>
       </c>
       <c r="CA4">
-        <v>20.65</v>
+        <v>21.1</v>
+      </c>
+      <c r="CB4">
+        <v>27.5</v>
       </c>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>0.36</v>
@@ -7260,13 +7338,13 @@
         <v>55.79</v>
       </c>
       <c r="AJ5">
-        <v>86.09</v>
+        <v>86.06</v>
       </c>
       <c r="AK5">
         <v>104.18</v>
       </c>
       <c r="AL5">
-        <v>115.26</v>
+        <v>115.23</v>
       </c>
       <c r="AM5">
         <v>132.26</v>
@@ -7281,31 +7359,31 @@
         <v>214.71</v>
       </c>
       <c r="AQ5">
-        <v>250.62</v>
+        <v>250.59</v>
       </c>
       <c r="AR5">
-        <v>224.97</v>
+        <v>224.9</v>
       </c>
       <c r="AS5">
-        <v>208.36</v>
+        <v>208.42</v>
       </c>
       <c r="AT5">
         <v>232.74</v>
       </c>
       <c r="AU5">
-        <v>203.11</v>
+        <v>203.05</v>
       </c>
       <c r="AV5">
         <v>161.83000000000001</v>
       </c>
       <c r="AW5">
-        <v>127.25</v>
+        <v>127.28</v>
       </c>
       <c r="AX5">
         <v>95.41</v>
       </c>
       <c r="AY5">
-        <v>69.510000000000005</v>
+        <v>69.540000000000006</v>
       </c>
       <c r="AZ5">
         <v>60.53</v>
@@ -7317,7 +7395,7 @@
         <v>47.05</v>
       </c>
       <c r="BC5">
-        <v>49.75</v>
+        <v>49.72</v>
       </c>
       <c r="BD5">
         <v>54.46</v>
@@ -7329,13 +7407,13 @@
         <v>57.46</v>
       </c>
       <c r="BG5">
-        <v>59.53</v>
+        <v>59.5</v>
       </c>
       <c r="BH5">
         <v>67.3</v>
       </c>
       <c r="BI5">
-        <v>61.47</v>
+        <v>61.44</v>
       </c>
       <c r="BJ5">
         <v>48.36</v>
@@ -7374,27 +7452,30 @@
         <v>1.46</v>
       </c>
       <c r="BV5">
-        <v>2.31</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="BW5">
         <v>3.34</v>
       </c>
       <c r="BX5">
-        <v>5.22</v>
+        <v>5.28</v>
       </c>
       <c r="BY5">
-        <v>7.04</v>
+        <v>7.01</v>
       </c>
       <c r="BZ5">
         <v>8.99</v>
       </c>
       <c r="CA5">
-        <v>14.33</v>
+        <v>14.57</v>
+      </c>
+      <c r="CB5">
+        <v>20.16</v>
       </c>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>0.62</v>
@@ -7496,7 +7577,7 @@
         <v>23.29</v>
       </c>
       <c r="AI6">
-        <v>42.05</v>
+        <v>42.02</v>
       </c>
       <c r="AJ6">
         <v>68.209999999999994</v>
@@ -7514,13 +7595,13 @@
         <v>89.98</v>
       </c>
       <c r="AO6">
-        <v>102.29</v>
+        <v>102.26</v>
       </c>
       <c r="AP6">
         <v>129.01</v>
       </c>
       <c r="AQ6">
-        <v>153.13</v>
+        <v>153.11000000000001</v>
       </c>
       <c r="AR6">
         <v>131.63999999999999</v>
@@ -7532,13 +7613,13 @@
         <v>134.53</v>
       </c>
       <c r="AU6">
-        <v>111.26</v>
+        <v>111.24</v>
       </c>
       <c r="AV6">
-        <v>87.94</v>
+        <v>87.97</v>
       </c>
       <c r="AW6">
-        <v>72.59</v>
+        <v>72.62</v>
       </c>
       <c r="AX6">
         <v>56.7</v>
@@ -7562,10 +7643,10 @@
         <v>48.86</v>
       </c>
       <c r="BE6">
-        <v>57.3</v>
+        <v>57.27</v>
       </c>
       <c r="BF6">
-        <v>56.16</v>
+        <v>56.13</v>
       </c>
       <c r="BG6">
         <v>60.67</v>
@@ -7589,7 +7670,7 @@
         <v>19.97</v>
       </c>
       <c r="BN6">
-        <v>10.55</v>
+        <v>10.53</v>
       </c>
       <c r="BO6">
         <v>6.45</v>
@@ -7604,10 +7685,10 @@
         <v>1.29</v>
       </c>
       <c r="BS6">
+        <v>1.19</v>
+      </c>
+      <c r="BT6">
         <v>1.1599999999999999</v>
-      </c>
-      <c r="BT6">
-        <v>1.19</v>
       </c>
       <c r="BU6">
         <v>1.29</v>
@@ -7622,18 +7703,21 @@
         <v>3.15</v>
       </c>
       <c r="BY6">
-        <v>5.86</v>
+        <v>5.88</v>
       </c>
       <c r="BZ6">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="CA6">
-        <v>10.27</v>
+        <v>10.6</v>
+      </c>
+      <c r="CB6">
+        <v>13.6</v>
       </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>0.3</v>
@@ -7738,7 +7822,7 @@
         <v>49.05</v>
       </c>
       <c r="AJ7">
-        <v>78.47</v>
+        <v>78.44</v>
       </c>
       <c r="AK7">
         <v>86.74</v>
@@ -7747,7 +7831,7 @@
         <v>89.9</v>
       </c>
       <c r="AM7">
-        <v>91.29</v>
+        <v>91.26</v>
       </c>
       <c r="AN7">
         <v>86.88</v>
@@ -7768,7 +7852,7 @@
         <v>112.35</v>
       </c>
       <c r="AT7">
-        <v>131.6</v>
+        <v>131.62</v>
       </c>
       <c r="AU7">
         <v>99.7</v>
@@ -7804,7 +7888,7 @@
         <v>77.3</v>
       </c>
       <c r="BF7">
-        <v>79.040000000000006</v>
+        <v>79.010000000000005</v>
       </c>
       <c r="BG7">
         <v>85.54</v>
@@ -7819,10 +7903,10 @@
         <v>78.36</v>
       </c>
       <c r="BK7">
-        <v>62.76</v>
+        <v>62.74</v>
       </c>
       <c r="BL7">
-        <v>43.36</v>
+        <v>43.38</v>
       </c>
       <c r="BM7">
         <v>29.5</v>
@@ -7846,7 +7930,7 @@
         <v>1.82</v>
       </c>
       <c r="BT7">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="BU7">
         <v>1.82</v>
@@ -7864,15 +7948,18 @@
         <v>8.08</v>
       </c>
       <c r="BZ7">
-        <v>10.72</v>
+        <v>10.7</v>
       </c>
       <c r="CA7">
-        <v>16.41</v>
+        <v>16.77</v>
+      </c>
+      <c r="CB7">
+        <v>19.760000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>0.51</v>
@@ -7977,7 +8064,7 @@
         <v>46.61</v>
       </c>
       <c r="AJ8">
-        <v>73.08</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="AK8">
         <v>87.69</v>
@@ -7986,13 +8073,13 @@
         <v>82.61</v>
       </c>
       <c r="AM8">
-        <v>85.45</v>
+        <v>85.47</v>
       </c>
       <c r="AN8">
-        <v>85.08</v>
+        <v>85.1</v>
       </c>
       <c r="AO8">
-        <v>84.71</v>
+        <v>84.73</v>
       </c>
       <c r="AP8">
         <v>106.38</v>
@@ -8007,7 +8094,7 @@
         <v>102.41</v>
       </c>
       <c r="AT8">
-        <v>117.95</v>
+        <v>117.97</v>
       </c>
       <c r="AU8">
         <v>90.9</v>
@@ -8016,7 +8103,7 @@
         <v>74.599999999999994</v>
       </c>
       <c r="AW8">
-        <v>64.33</v>
+        <v>64.349999999999994</v>
       </c>
       <c r="AX8">
         <v>52.19</v>
@@ -8025,7 +8112,7 @@
         <v>39.39</v>
       </c>
       <c r="AZ8">
-        <v>42.05</v>
+        <v>42.02</v>
       </c>
       <c r="BA8">
         <v>43.59</v>
@@ -8034,28 +8121,28 @@
         <v>41.02</v>
       </c>
       <c r="BC8">
-        <v>47.36</v>
+        <v>47.38</v>
       </c>
       <c r="BD8">
-        <v>65.63</v>
+        <v>65.650000000000006</v>
       </c>
       <c r="BE8">
         <v>80.239999999999995</v>
       </c>
       <c r="BF8">
-        <v>81.58</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="BG8">
-        <v>88.62</v>
+        <v>88.64</v>
       </c>
       <c r="BH8">
-        <v>101.05</v>
+        <v>101.09</v>
       </c>
       <c r="BI8">
-        <v>95.25</v>
+        <v>95.22</v>
       </c>
       <c r="BJ8">
-        <v>81.72</v>
+        <v>81.739999999999995</v>
       </c>
       <c r="BK8">
         <v>67.73</v>
@@ -8082,13 +8169,13 @@
         <v>2.12</v>
       </c>
       <c r="BS8">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="BT8">
         <v>1.89</v>
       </c>
       <c r="BU8">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="BV8">
         <v>3.25</v>
@@ -8103,15 +8190,18 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="BZ8">
-        <v>12.16</v>
+        <v>12.22</v>
       </c>
       <c r="CA8">
-        <v>16.48</v>
+        <v>16.690000000000001</v>
+      </c>
+      <c r="CB8">
+        <v>20.29</v>
       </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>1.1200000000000001</v>
@@ -8204,7 +8294,7 @@
         <v>9.6</v>
       </c>
       <c r="AF9">
-        <v>12.06</v>
+        <v>12.04</v>
       </c>
       <c r="AG9">
         <v>22.54</v>
@@ -8213,16 +8303,16 @@
         <v>37.57</v>
       </c>
       <c r="AI9">
-        <v>70.06</v>
+        <v>70.08</v>
       </c>
       <c r="AJ9">
-        <v>106.02</v>
+        <v>106.01</v>
       </c>
       <c r="AK9">
         <v>121.36</v>
       </c>
       <c r="AL9">
-        <v>122.63</v>
+        <v>122.61</v>
       </c>
       <c r="AM9">
         <v>129.22</v>
@@ -8240,13 +8330,13 @@
         <v>195.46</v>
       </c>
       <c r="AR9">
-        <v>162.54</v>
+        <v>162.56</v>
       </c>
       <c r="AS9">
         <v>146.29</v>
       </c>
       <c r="AT9">
-        <v>164.24</v>
+        <v>164.28</v>
       </c>
       <c r="AU9">
         <v>133.72</v>
@@ -8279,28 +8369,28 @@
         <v>93.97</v>
       </c>
       <c r="BE9">
-        <v>116.33</v>
+        <v>116.31</v>
       </c>
       <c r="BF9">
         <v>113.43</v>
       </c>
       <c r="BG9">
-        <v>121.71</v>
+        <v>121.73</v>
       </c>
       <c r="BH9">
-        <v>134.41999999999999</v>
+        <v>134.5</v>
       </c>
       <c r="BI9">
-        <v>137.36000000000001</v>
+        <v>137.38</v>
       </c>
       <c r="BJ9">
         <v>120.38</v>
       </c>
       <c r="BK9">
-        <v>97.91</v>
+        <v>97.93</v>
       </c>
       <c r="BL9">
-        <v>66.099999999999994</v>
+        <v>66.06</v>
       </c>
       <c r="BM9">
         <v>46.96</v>
@@ -8336,21 +8426,24 @@
         <v>7.03</v>
       </c>
       <c r="BX9">
-        <v>8.4600000000000009</v>
+        <v>8.43</v>
       </c>
       <c r="BY9">
-        <v>12.54</v>
+        <v>12.59</v>
       </c>
       <c r="BZ9">
         <v>17.329999999999998</v>
       </c>
       <c r="CA9">
-        <v>25.83</v>
+        <v>26.24</v>
+      </c>
+      <c r="CB9">
+        <v>31.8</v>
       </c>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>1.1299999999999999</v>
@@ -8368,7 +8461,7 @@
         <v>54.38</v>
       </c>
       <c r="G10">
-        <v>38.619999999999997</v>
+        <v>38.64</v>
       </c>
       <c r="H10">
         <v>23.23</v>
@@ -8392,7 +8485,7 @@
         <v>3.52</v>
       </c>
       <c r="O10">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="P10">
         <v>1.97</v>
@@ -8455,13 +8548,13 @@
         <v>85.45</v>
       </c>
       <c r="AJ10">
-        <v>133.18</v>
+        <v>133.13999999999999</v>
       </c>
       <c r="AK10">
-        <v>150.86000000000001</v>
+        <v>150.88</v>
       </c>
       <c r="AL10">
-        <v>152.78</v>
+        <v>152.76</v>
       </c>
       <c r="AM10">
         <v>152.16999999999999</v>
@@ -8470,7 +8563,7 @@
         <v>146.56</v>
       </c>
       <c r="AO10">
-        <v>153.97999999999999</v>
+        <v>153.99</v>
       </c>
       <c r="AP10">
         <v>193.65</v>
@@ -8479,16 +8572,16 @@
         <v>222.61</v>
       </c>
       <c r="AR10">
-        <v>183.9</v>
+        <v>183.87</v>
       </c>
       <c r="AS10">
-        <v>164.65</v>
+        <v>164.67</v>
       </c>
       <c r="AT10">
         <v>182.98</v>
       </c>
       <c r="AU10">
-        <v>148.88999999999999</v>
+        <v>148.9</v>
       </c>
       <c r="AV10">
         <v>123.73</v>
@@ -8506,37 +8599,37 @@
         <v>68.319999999999993</v>
       </c>
       <c r="BA10">
-        <v>71.790000000000006</v>
+        <v>71.81</v>
       </c>
       <c r="BB10">
-        <v>68.84</v>
+        <v>68.86</v>
       </c>
       <c r="BC10">
         <v>84.75</v>
       </c>
       <c r="BD10">
-        <v>107.8</v>
+        <v>107.82</v>
       </c>
       <c r="BE10">
-        <v>135.01</v>
+        <v>134.99</v>
       </c>
       <c r="BF10">
         <v>132.78</v>
       </c>
       <c r="BG10">
-        <v>143.68</v>
+        <v>143.65</v>
       </c>
       <c r="BH10">
-        <v>158.34</v>
+        <v>158.28</v>
       </c>
       <c r="BI10">
         <v>163.66</v>
       </c>
       <c r="BJ10">
-        <v>147.34</v>
+        <v>147.37</v>
       </c>
       <c r="BK10">
-        <v>116.08</v>
+        <v>116.1</v>
       </c>
       <c r="BL10">
         <v>79.069999999999993</v>
@@ -8569,7 +8662,7 @@
         <v>5.45</v>
       </c>
       <c r="BV10">
-        <v>8.09</v>
+        <v>8.06</v>
       </c>
       <c r="BW10">
         <v>8.59</v>
@@ -8578,18 +8671,21 @@
         <v>11.67</v>
       </c>
       <c r="BY10">
-        <v>18.510000000000002</v>
+        <v>18.54</v>
       </c>
       <c r="BZ10">
-        <v>26.76</v>
+        <v>26.78</v>
       </c>
       <c r="CA10">
-        <v>34.64</v>
+        <v>35.58</v>
+      </c>
+      <c r="CB10">
+        <v>39.67</v>
       </c>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>1.98</v>
@@ -8598,7 +8694,7 @@
         <v>14.59</v>
       </c>
       <c r="D11">
-        <v>46.06</v>
+        <v>46.05</v>
       </c>
       <c r="E11">
         <v>59.63</v>
@@ -8661,7 +8757,7 @@
         <v>6.2</v>
       </c>
       <c r="Y11">
-        <v>7.05</v>
+        <v>7.03</v>
       </c>
       <c r="Z11">
         <v>8.33</v>
@@ -8673,7 +8769,7 @@
         <v>8.18</v>
       </c>
       <c r="AC11">
-        <v>9.98</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="AD11">
         <v>13.38</v>
@@ -8688,16 +8784,16 @@
         <v>33.81</v>
       </c>
       <c r="AH11">
-        <v>53.35</v>
+        <v>53.34</v>
       </c>
       <c r="AI11">
         <v>95.64</v>
       </c>
       <c r="AJ11">
-        <v>145.58000000000001</v>
+        <v>145.55000000000001</v>
       </c>
       <c r="AK11">
-        <v>163.38999999999999</v>
+        <v>163.38</v>
       </c>
       <c r="AL11">
         <v>163.9</v>
@@ -8706,19 +8802,19 @@
         <v>161.6</v>
       </c>
       <c r="AN11">
-        <v>153.96</v>
+        <v>153.94</v>
       </c>
       <c r="AO11">
-        <v>157.16</v>
+        <v>157.18</v>
       </c>
       <c r="AP11">
-        <v>197.52</v>
+        <v>197.53</v>
       </c>
       <c r="AQ11">
         <v>222.32</v>
       </c>
       <c r="AR11">
-        <v>178.5</v>
+        <v>178.53</v>
       </c>
       <c r="AS11">
         <v>156.86000000000001</v>
@@ -8730,31 +8826,31 @@
         <v>146.25</v>
       </c>
       <c r="AV11">
-        <v>121.86</v>
+        <v>121.87</v>
       </c>
       <c r="AW11">
         <v>99.47</v>
       </c>
       <c r="AX11">
-        <v>79.06</v>
+        <v>79.040000000000006</v>
       </c>
       <c r="AY11">
         <v>64.25</v>
       </c>
       <c r="AZ11">
-        <v>67.11</v>
+        <v>67.09</v>
       </c>
       <c r="BA11">
         <v>70.819999999999993</v>
       </c>
       <c r="BB11">
-        <v>73.69</v>
+        <v>73.680000000000007</v>
       </c>
       <c r="BC11">
-        <v>87.98</v>
+        <v>87.97</v>
       </c>
       <c r="BD11">
-        <v>112.28</v>
+        <v>112.26</v>
       </c>
       <c r="BE11">
         <v>139.32</v>
@@ -8763,7 +8859,7 @@
         <v>135.97</v>
       </c>
       <c r="BG11">
-        <v>148.36000000000001</v>
+        <v>148.34</v>
       </c>
       <c r="BH11">
         <v>165.58</v>
@@ -8772,7 +8868,7 @@
         <v>173.45</v>
       </c>
       <c r="BJ11">
-        <v>151.31</v>
+        <v>151.29</v>
       </c>
       <c r="BK11">
         <v>119.55</v>
@@ -8781,7 +8877,7 @@
         <v>81.53</v>
       </c>
       <c r="BM11">
-        <v>56.3</v>
+        <v>56.32</v>
       </c>
       <c r="BN11">
         <v>30.68</v>
@@ -8799,7 +8895,7 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="BS11">
-        <v>3.32</v>
+        <v>3.34</v>
       </c>
       <c r="BT11">
         <v>4.26</v>
@@ -8808,27 +8904,30 @@
         <v>6.74</v>
       </c>
       <c r="BV11">
-        <v>9.24</v>
+        <v>9.27</v>
       </c>
       <c r="BW11">
         <v>12.21</v>
       </c>
       <c r="BX11">
-        <v>14.52</v>
+        <v>14.49</v>
       </c>
       <c r="BY11">
-        <v>24.43</v>
+        <v>24.4</v>
       </c>
       <c r="BZ11">
-        <v>37.57</v>
+        <v>37.69</v>
       </c>
       <c r="CA11">
-        <v>48.58</v>
+        <v>49.52</v>
+      </c>
+      <c r="CB11">
+        <v>54.44</v>
       </c>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <v>1.88</v>
@@ -8906,10 +9005,10 @@
         <v>13.14</v>
       </c>
       <c r="AA12">
-        <v>11.47</v>
+        <v>11.49</v>
       </c>
       <c r="AB12">
-        <v>11.64</v>
+        <v>11.62</v>
       </c>
       <c r="AC12">
         <v>13.2</v>
@@ -8930,13 +9029,13 @@
         <v>59.18</v>
       </c>
       <c r="AI12">
-        <v>110.39</v>
+        <v>110.37</v>
       </c>
       <c r="AJ12">
         <v>159.19999999999999</v>
       </c>
       <c r="AK12">
-        <v>179.71</v>
+        <v>179.7</v>
       </c>
       <c r="AL12">
         <v>176.04</v>
@@ -8945,16 +9044,16 @@
         <v>183.45</v>
       </c>
       <c r="AN12">
-        <v>171.81</v>
+        <v>171.79</v>
       </c>
       <c r="AO12">
-        <v>175.13</v>
+        <v>175.11</v>
       </c>
       <c r="AP12">
-        <v>210.34</v>
+        <v>210.36</v>
       </c>
       <c r="AQ12">
-        <v>235.9</v>
+        <v>235.88</v>
       </c>
       <c r="AR12">
         <v>184.7</v>
@@ -8966,13 +9065,13 @@
         <v>185.75</v>
       </c>
       <c r="AU12">
-        <v>150.85</v>
+        <v>150.83000000000001</v>
       </c>
       <c r="AV12">
         <v>123.05</v>
       </c>
       <c r="AW12">
-        <v>100.54</v>
+        <v>100.58</v>
       </c>
       <c r="AX12">
         <v>85.18</v>
@@ -8984,13 +9083,13 @@
         <v>71.569999999999993</v>
       </c>
       <c r="BA12">
-        <v>76.8</v>
+        <v>76.78</v>
       </c>
       <c r="BB12">
         <v>81.33</v>
       </c>
       <c r="BC12">
-        <v>98.31</v>
+        <v>98.32</v>
       </c>
       <c r="BD12">
         <v>123.58</v>
@@ -9002,22 +9101,22 @@
         <v>151.55000000000001</v>
       </c>
       <c r="BG12">
-        <v>166.23</v>
+        <v>166.29</v>
       </c>
       <c r="BH12">
-        <v>192.74</v>
+        <v>192.76</v>
       </c>
       <c r="BI12">
         <v>202.45</v>
       </c>
       <c r="BJ12">
-        <v>171.12</v>
+        <v>171.11</v>
       </c>
       <c r="BK12">
         <v>141.11000000000001</v>
       </c>
       <c r="BL12">
-        <v>96.47</v>
+        <v>96.45</v>
       </c>
       <c r="BM12">
         <v>68.06</v>
@@ -9047,27 +9146,30 @@
         <v>8.25</v>
       </c>
       <c r="BV12">
-        <v>13.01</v>
+        <v>13.03</v>
       </c>
       <c r="BW12">
-        <v>17.309999999999999</v>
+        <v>17.28</v>
       </c>
       <c r="BX12">
-        <v>22.22</v>
+        <v>22.28</v>
       </c>
       <c r="BY12">
-        <v>36.880000000000003</v>
+        <v>36.92</v>
       </c>
       <c r="BZ12">
-        <v>58.56</v>
+        <v>58.65</v>
       </c>
       <c r="CA12">
-        <v>76.400000000000006</v>
+        <v>77.84</v>
+      </c>
+      <c r="CB12">
+        <v>85.69</v>
       </c>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B13">
         <v>1.73</v>
@@ -9079,7 +9181,7 @@
         <v>36.630000000000003</v>
       </c>
       <c r="E13">
-        <v>47.32</v>
+        <v>47.34</v>
       </c>
       <c r="F13">
         <v>46.97</v>
@@ -9124,7 +9226,7 @@
         <v>4.38</v>
       </c>
       <c r="T13">
-        <v>3.85</v>
+        <v>3.83</v>
       </c>
       <c r="U13">
         <v>5.1100000000000003</v>
@@ -9142,7 +9244,7 @@
         <v>13.02</v>
       </c>
       <c r="Z13">
-        <v>14.63</v>
+        <v>14.61</v>
       </c>
       <c r="AA13">
         <v>13.42</v>
@@ -9178,16 +9280,16 @@
         <v>180.83</v>
       </c>
       <c r="AL13">
-        <v>183.19</v>
+        <v>183.21</v>
       </c>
       <c r="AM13">
-        <v>188.18</v>
+        <v>188.16</v>
       </c>
       <c r="AN13">
         <v>179.44</v>
       </c>
       <c r="AO13">
-        <v>179.51</v>
+        <v>179.49</v>
       </c>
       <c r="AP13">
         <v>222.1</v>
@@ -9196,67 +9298,67 @@
         <v>244.28</v>
       </c>
       <c r="AR13">
-        <v>193.7</v>
+        <v>193.75</v>
       </c>
       <c r="AS13">
-        <v>163.52000000000001</v>
+        <v>163.54</v>
       </c>
       <c r="AT13">
         <v>194.46</v>
       </c>
       <c r="AU13">
-        <v>153.94</v>
+        <v>153.91999999999999</v>
       </c>
       <c r="AV13">
         <v>126.89</v>
       </c>
       <c r="AW13">
-        <v>104.26</v>
+        <v>104.28</v>
       </c>
       <c r="AX13">
         <v>87.1</v>
       </c>
       <c r="AY13">
-        <v>70.52</v>
+        <v>70.540000000000006</v>
       </c>
       <c r="AZ13">
-        <v>73.150000000000006</v>
+        <v>73.17</v>
       </c>
       <c r="BA13">
-        <v>84.25</v>
+        <v>84.27</v>
       </c>
       <c r="BB13">
-        <v>87</v>
+        <v>87.02</v>
       </c>
       <c r="BC13">
-        <v>108.8</v>
+        <v>108.78</v>
       </c>
       <c r="BD13">
         <v>142.19</v>
       </c>
       <c r="BE13">
-        <v>185.11</v>
+        <v>185.09</v>
       </c>
       <c r="BF13">
         <v>169.61</v>
       </c>
       <c r="BG13">
-        <v>189</v>
+        <v>189.02</v>
       </c>
       <c r="BH13">
-        <v>218.43</v>
+        <v>218.48</v>
       </c>
       <c r="BI13">
-        <v>220.49</v>
+        <v>220.47</v>
       </c>
       <c r="BJ13">
-        <v>195.11</v>
+        <v>195.13</v>
       </c>
       <c r="BK13">
-        <v>157.38</v>
+        <v>157.4</v>
       </c>
       <c r="BL13">
-        <v>108.66</v>
+        <v>108.62</v>
       </c>
       <c r="BM13">
         <v>81.2</v>
@@ -9265,7 +9367,7 @@
         <v>44.94</v>
       </c>
       <c r="BO13">
-        <v>32.51</v>
+        <v>32.49</v>
       </c>
       <c r="BP13">
         <v>21.94</v>
@@ -9283,7 +9385,7 @@
         <v>6.99</v>
       </c>
       <c r="BU13">
-        <v>10.31</v>
+        <v>10.29</v>
       </c>
       <c r="BV13">
         <v>14.97</v>
@@ -9292,27 +9394,30 @@
         <v>20.11</v>
       </c>
       <c r="BX13">
-        <v>29.37</v>
+        <v>29.39</v>
       </c>
       <c r="BY13">
-        <v>47.71</v>
+        <v>47.81</v>
       </c>
       <c r="BZ13">
-        <v>76.099999999999994</v>
+        <v>76.489999999999995</v>
       </c>
       <c r="CA13">
-        <v>102.87</v>
+        <v>105.23</v>
+      </c>
+      <c r="CB13">
+        <v>113.79</v>
       </c>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B14">
         <v>1.27</v>
       </c>
       <c r="C14">
-        <v>10.34</v>
+        <v>10.36</v>
       </c>
       <c r="D14">
         <v>33.14</v>
@@ -9360,7 +9465,7 @@
         <v>5.6</v>
       </c>
       <c r="S14">
-        <v>4.25</v>
+        <v>4.24</v>
       </c>
       <c r="T14">
         <v>3.84</v>
@@ -9390,7 +9495,7 @@
         <v>12.21</v>
       </c>
       <c r="AC14">
-        <v>13.2</v>
+        <v>13.22</v>
       </c>
       <c r="AD14">
         <v>17.13</v>
@@ -9411,22 +9516,22 @@
         <v>101.83</v>
       </c>
       <c r="AJ14">
-        <v>152.86000000000001</v>
+        <v>152.80000000000001</v>
       </c>
       <c r="AK14">
-        <v>169.34</v>
+        <v>169.33</v>
       </c>
       <c r="AL14">
         <v>173.73</v>
       </c>
       <c r="AM14">
-        <v>173.81</v>
+        <v>173.83</v>
       </c>
       <c r="AN14">
         <v>164.77</v>
       </c>
       <c r="AO14">
-        <v>172.79</v>
+        <v>172.8</v>
       </c>
       <c r="AP14">
         <v>207.84</v>
@@ -9435,19 +9540,19 @@
         <v>231.21</v>
       </c>
       <c r="AR14">
-        <v>180.06</v>
+        <v>180.05</v>
       </c>
       <c r="AS14">
         <v>152.76</v>
       </c>
       <c r="AT14">
-        <v>191.81</v>
+        <v>191.82</v>
       </c>
       <c r="AU14">
         <v>151.4</v>
       </c>
       <c r="AV14">
-        <v>119.89</v>
+        <v>119.92</v>
       </c>
       <c r="AW14">
         <v>98.2</v>
@@ -9462,7 +9567,7 @@
         <v>70.14</v>
       </c>
       <c r="BA14">
-        <v>79.03</v>
+        <v>79.05</v>
       </c>
       <c r="BB14">
         <v>86.52</v>
@@ -9471,7 +9576,7 @@
         <v>108.9</v>
       </c>
       <c r="BD14">
-        <v>143.44</v>
+        <v>143.46</v>
       </c>
       <c r="BE14">
         <v>178.84</v>
@@ -9483,31 +9588,31 @@
         <v>179.29</v>
       </c>
       <c r="BH14">
-        <v>212.98</v>
+        <v>212.96</v>
       </c>
       <c r="BI14">
         <v>213.15</v>
       </c>
       <c r="BJ14">
-        <v>189.59</v>
+        <v>189.63</v>
       </c>
       <c r="BK14">
-        <v>150.63</v>
+        <v>150.65</v>
       </c>
       <c r="BL14">
-        <v>106.42</v>
+        <v>106.41</v>
       </c>
       <c r="BM14">
-        <v>79.819999999999993</v>
+        <v>79.84</v>
       </c>
       <c r="BN14">
-        <v>45.66</v>
+        <v>45.68</v>
       </c>
       <c r="BO14">
         <v>31.99</v>
       </c>
       <c r="BP14">
-        <v>20.8</v>
+        <v>20.78</v>
       </c>
       <c r="BQ14">
         <v>10.32</v>
@@ -9519,33 +9624,36 @@
         <v>6.41</v>
       </c>
       <c r="BT14">
-        <v>7.15</v>
+        <v>7.17</v>
       </c>
       <c r="BU14">
-        <v>12.19</v>
+        <v>12.23</v>
       </c>
       <c r="BV14">
-        <v>17.11</v>
+        <v>17.13</v>
       </c>
       <c r="BW14">
-        <v>21.99</v>
+        <v>22.01</v>
       </c>
       <c r="BX14">
-        <v>30.12</v>
+        <v>30.16</v>
       </c>
       <c r="BY14">
-        <v>46.23</v>
+        <v>46.19</v>
       </c>
       <c r="BZ14">
-        <v>70.97</v>
+        <v>71.14</v>
       </c>
       <c r="CA14">
-        <v>96.82</v>
+        <v>99.43</v>
+      </c>
+      <c r="CB14">
+        <v>111.04</v>
       </c>
     </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B15">
         <v>1.26</v>
@@ -9617,16 +9725,16 @@
         <v>9.3699999999999992</v>
       </c>
       <c r="Y15">
-        <v>12.85</v>
+        <v>12.86</v>
       </c>
       <c r="Z15">
         <v>17.2</v>
       </c>
       <c r="AA15">
-        <v>15.61</v>
+        <v>15.67</v>
       </c>
       <c r="AB15">
-        <v>17.07</v>
+        <v>17.05</v>
       </c>
       <c r="AC15">
         <v>17.07</v>
@@ -9641,25 +9749,25 @@
         <v>27.69</v>
       </c>
       <c r="AG15">
-        <v>42.94</v>
+        <v>42.92</v>
       </c>
       <c r="AH15">
         <v>70.25</v>
       </c>
       <c r="AI15">
-        <v>122.22</v>
+        <v>122.2</v>
       </c>
       <c r="AJ15">
         <v>174.23</v>
       </c>
       <c r="AK15">
-        <v>190.62</v>
+        <v>190.6</v>
       </c>
       <c r="AL15">
-        <v>190.71</v>
+        <v>190.69</v>
       </c>
       <c r="AM15">
-        <v>183.47</v>
+        <v>183.45</v>
       </c>
       <c r="AN15">
         <v>170.41</v>
@@ -9680,19 +9788,19 @@
         <v>167.29</v>
       </c>
       <c r="AT15">
-        <v>211.07</v>
+        <v>211.11</v>
       </c>
       <c r="AU15">
         <v>164.62</v>
       </c>
       <c r="AV15">
-        <v>127.75</v>
+        <v>127.74</v>
       </c>
       <c r="AW15">
         <v>104.86</v>
       </c>
       <c r="AX15">
-        <v>89.27</v>
+        <v>89.29</v>
       </c>
       <c r="AY15">
         <v>71.040000000000006</v>
@@ -9701,7 +9809,7 @@
         <v>74.86</v>
       </c>
       <c r="BA15">
-        <v>82.46</v>
+        <v>82.43</v>
       </c>
       <c r="BB15">
         <v>89</v>
@@ -9713,40 +9821,40 @@
         <v>143.66</v>
       </c>
       <c r="BE15">
-        <v>179.58</v>
+        <v>179.56</v>
       </c>
       <c r="BF15">
         <v>173.08</v>
       </c>
       <c r="BG15">
-        <v>184.34</v>
+        <v>184.38</v>
       </c>
       <c r="BH15">
-        <v>218.46</v>
+        <v>218.5</v>
       </c>
       <c r="BI15">
         <v>215.73</v>
       </c>
       <c r="BJ15">
-        <v>190.22</v>
+        <v>190.24</v>
       </c>
       <c r="BK15">
-        <v>150.63</v>
+        <v>150.61000000000001</v>
       </c>
       <c r="BL15">
-        <v>106.86</v>
+        <v>106.85</v>
       </c>
       <c r="BM15">
-        <v>82.68</v>
+        <v>82.66</v>
       </c>
       <c r="BN15">
         <v>49.98</v>
       </c>
       <c r="BO15">
-        <v>31.93</v>
+        <v>31.92</v>
       </c>
       <c r="BP15">
-        <v>21.53</v>
+        <v>21.54</v>
       </c>
       <c r="BQ15">
         <v>11.5</v>
@@ -9758,33 +9866,36 @@
         <v>7.79</v>
       </c>
       <c r="BT15">
-        <v>10.59</v>
+        <v>10.57</v>
       </c>
       <c r="BU15">
-        <v>15.76</v>
+        <v>15.74</v>
       </c>
       <c r="BV15">
         <v>23.78</v>
       </c>
       <c r="BW15">
-        <v>27.51</v>
+        <v>27.57</v>
       </c>
       <c r="BX15">
-        <v>37.65</v>
+        <v>37.74</v>
       </c>
       <c r="BY15">
-        <v>55.41</v>
+        <v>55.42</v>
       </c>
       <c r="BZ15">
-        <v>79.53</v>
+        <v>79.680000000000007</v>
       </c>
       <c r="CA15">
-        <v>106.21</v>
+        <v>108.56</v>
+      </c>
+      <c r="CB15">
+        <v>117.46</v>
       </c>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16">
         <v>1.5</v>
@@ -9793,7 +9904,7 @@
         <v>10.82</v>
       </c>
       <c r="D16">
-        <v>39.33</v>
+        <v>39.31</v>
       </c>
       <c r="E16">
         <v>53.01</v>
@@ -9886,16 +9997,16 @@
         <v>88.17</v>
       </c>
       <c r="AI16">
-        <v>144.25</v>
+        <v>144.22999999999999</v>
       </c>
       <c r="AJ16">
         <v>203.8</v>
       </c>
       <c r="AK16">
-        <v>219.77</v>
+        <v>219.73</v>
       </c>
       <c r="AL16">
-        <v>210.58</v>
+        <v>210.52</v>
       </c>
       <c r="AM16">
         <v>195.51</v>
@@ -9907,25 +10018,25 @@
         <v>180.27</v>
       </c>
       <c r="AP16">
-        <v>212.5</v>
+        <v>212.48</v>
       </c>
       <c r="AQ16">
-        <v>238.57</v>
+        <v>238.55</v>
       </c>
       <c r="AR16">
-        <v>185.89</v>
+        <v>185.85</v>
       </c>
       <c r="AS16">
         <v>165.99</v>
       </c>
       <c r="AT16">
-        <v>212.42</v>
+        <v>212.4</v>
       </c>
       <c r="AU16">
-        <v>168.23</v>
+        <v>168.21</v>
       </c>
       <c r="AV16">
-        <v>125.98</v>
+        <v>125.94</v>
       </c>
       <c r="AW16">
         <v>105.23</v>
@@ -9952,37 +10063,37 @@
         <v>138.13999999999999</v>
       </c>
       <c r="BE16">
-        <v>165.55</v>
+        <v>165.5</v>
       </c>
       <c r="BF16">
-        <v>165.1</v>
+        <v>165.08</v>
       </c>
       <c r="BG16">
-        <v>181.52</v>
+        <v>181.5</v>
       </c>
       <c r="BH16">
-        <v>214.76</v>
+        <v>214.8</v>
       </c>
       <c r="BI16">
         <v>212.59</v>
       </c>
       <c r="BJ16">
-        <v>181.56</v>
+        <v>181.6</v>
       </c>
       <c r="BK16">
-        <v>146.97</v>
+        <v>146.94999999999999</v>
       </c>
       <c r="BL16">
-        <v>102.12</v>
+        <v>102.14</v>
       </c>
       <c r="BM16">
-        <v>77.78</v>
+        <v>77.8</v>
       </c>
       <c r="BN16">
         <v>48.38</v>
       </c>
       <c r="BO16">
-        <v>31.57</v>
+        <v>31.55</v>
       </c>
       <c r="BP16">
         <v>21.82</v>
@@ -10000,10 +10111,10 @@
         <v>15.51</v>
       </c>
       <c r="BU16">
-        <v>26.07</v>
+        <v>26.09</v>
       </c>
       <c r="BV16">
-        <v>34.130000000000003</v>
+        <v>34.15</v>
       </c>
       <c r="BW16">
         <v>38.47</v>
@@ -10012,18 +10123,21 @@
         <v>47.33</v>
       </c>
       <c r="BY16">
-        <v>70.75</v>
+        <v>70.81</v>
       </c>
       <c r="BZ16">
-        <v>98.77</v>
+        <v>98.97</v>
       </c>
       <c r="CA16">
-        <v>120.98</v>
+        <v>124.47</v>
+      </c>
+      <c r="CB16">
+        <v>121.83</v>
       </c>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B17">
         <v>1.52</v>
@@ -10053,7 +10167,7 @@
         <v>12.87</v>
       </c>
       <c r="K17">
-        <v>10.98</v>
+        <v>10.96</v>
       </c>
       <c r="L17">
         <v>9.09</v>
@@ -10122,7 +10236,7 @@
         <v>60.56</v>
       </c>
       <c r="AH17">
-        <v>95.09</v>
+        <v>95.11</v>
       </c>
       <c r="AI17">
         <v>164.16</v>
@@ -10137,43 +10251,43 @@
         <v>239.21</v>
       </c>
       <c r="AM17">
-        <v>221.33</v>
+        <v>221.29</v>
       </c>
       <c r="AN17">
         <v>193.95</v>
       </c>
       <c r="AO17">
-        <v>199.09</v>
+        <v>199.05</v>
       </c>
       <c r="AP17">
         <v>234.05</v>
       </c>
       <c r="AQ17">
-        <v>262.48</v>
+        <v>262.45</v>
       </c>
       <c r="AR17">
-        <v>196.81</v>
+        <v>196.79</v>
       </c>
       <c r="AS17">
-        <v>186.31</v>
+        <v>186.33</v>
       </c>
       <c r="AT17">
-        <v>236.33</v>
+        <v>236.31</v>
       </c>
       <c r="AU17">
-        <v>185.2</v>
+        <v>185.18</v>
       </c>
       <c r="AV17">
-        <v>139.63999999999999</v>
+        <v>139.61000000000001</v>
       </c>
       <c r="AW17">
-        <v>113.7</v>
+        <v>113.73</v>
       </c>
       <c r="AX17">
         <v>94.96</v>
       </c>
       <c r="AY17">
-        <v>79.27</v>
+        <v>79.459999999999994</v>
       </c>
       <c r="AZ17">
         <v>85.63</v>
@@ -10182,40 +10296,40 @@
         <v>91.09</v>
       </c>
       <c r="BB17">
-        <v>95.46</v>
+        <v>95.5</v>
       </c>
       <c r="BC17">
-        <v>117.61</v>
+        <v>117.63</v>
       </c>
       <c r="BD17">
-        <v>149.72999999999999</v>
+        <v>149.75</v>
       </c>
       <c r="BE17">
-        <v>185.68</v>
+        <v>185.62</v>
       </c>
       <c r="BF17">
-        <v>184.55</v>
+        <v>184.6</v>
       </c>
       <c r="BG17">
-        <v>212.5</v>
+        <v>212.55</v>
       </c>
       <c r="BH17">
-        <v>250.5</v>
+        <v>250.52</v>
       </c>
       <c r="BI17">
-        <v>244.57</v>
+        <v>244.62</v>
       </c>
       <c r="BJ17">
-        <v>208.96</v>
+        <v>208.94</v>
       </c>
       <c r="BK17">
-        <v>170.04</v>
+        <v>170.1</v>
       </c>
       <c r="BL17">
         <v>121.23</v>
       </c>
       <c r="BM17">
-        <v>90.88</v>
+        <v>90.79</v>
       </c>
       <c r="BN17">
         <v>52.38</v>
@@ -10236,10 +10350,10 @@
         <v>12.02</v>
       </c>
       <c r="BT17">
-        <v>19.12</v>
+        <v>19.16</v>
       </c>
       <c r="BU17">
-        <v>32.659999999999997</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="BV17">
         <v>45.31</v>
@@ -10248,21 +10362,24 @@
         <v>50.49</v>
       </c>
       <c r="BX17">
-        <v>60.52</v>
+        <v>60.54</v>
       </c>
       <c r="BY17">
-        <v>95.95</v>
+        <v>95.98</v>
       </c>
       <c r="BZ17">
-        <v>125.27</v>
+        <v>125.44</v>
       </c>
       <c r="CA17">
-        <v>146.19</v>
+        <v>148.94</v>
+      </c>
+      <c r="CB17">
+        <v>145.6</v>
       </c>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B18">
         <v>1.0900000000000001</v>
@@ -10283,7 +10400,7 @@
         <v>21.76</v>
       </c>
       <c r="H18">
-        <v>14.52</v>
+        <v>14.5</v>
       </c>
       <c r="I18">
         <v>10.210000000000001</v>
@@ -10319,10 +10436,10 @@
         <v>3.48</v>
       </c>
       <c r="T18">
-        <v>3.83</v>
+        <v>3.78</v>
       </c>
       <c r="U18">
-        <v>4.87</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="V18">
         <v>6.24</v>
@@ -10331,7 +10448,7 @@
         <v>9.27</v>
       </c>
       <c r="X18">
-        <v>13.78</v>
+        <v>13.81</v>
       </c>
       <c r="Y18">
         <v>18.809999999999999</v>
@@ -10346,13 +10463,13 @@
         <v>19.5</v>
       </c>
       <c r="AC18">
-        <v>21.07</v>
+        <v>21.04</v>
       </c>
       <c r="AD18">
         <v>26.4</v>
       </c>
       <c r="AE18">
-        <v>26.55</v>
+        <v>26.53</v>
       </c>
       <c r="AF18">
         <v>33.76</v>
@@ -10364,25 +10481,25 @@
         <v>75.12</v>
       </c>
       <c r="AI18">
-        <v>123.4</v>
+        <v>123.37</v>
       </c>
       <c r="AJ18">
-        <v>182.47</v>
+        <v>182.52</v>
       </c>
       <c r="AK18">
         <v>213.52</v>
       </c>
       <c r="AL18">
-        <v>221.26</v>
+        <v>221.24</v>
       </c>
       <c r="AM18">
-        <v>208.36</v>
+        <v>208.44</v>
       </c>
       <c r="AN18">
-        <v>189.35</v>
+        <v>189.33</v>
       </c>
       <c r="AO18">
-        <v>195.77</v>
+        <v>195.75</v>
       </c>
       <c r="AP18">
         <v>223.82</v>
@@ -10391,16 +10508,16 @@
         <v>215.09</v>
       </c>
       <c r="AR18">
-        <v>148.99</v>
+        <v>149.01</v>
       </c>
       <c r="AS18">
-        <v>125.81</v>
+        <v>125.79</v>
       </c>
       <c r="AT18">
         <v>161.96</v>
       </c>
       <c r="AU18">
-        <v>136.88</v>
+        <v>136.85</v>
       </c>
       <c r="AV18">
         <v>106.62</v>
@@ -10424,46 +10541,46 @@
         <v>81.540000000000006</v>
       </c>
       <c r="BC18">
-        <v>104.26</v>
+        <v>104.23</v>
       </c>
       <c r="BD18">
         <v>140.56</v>
       </c>
       <c r="BE18">
-        <v>182.45</v>
+        <v>182.42</v>
       </c>
       <c r="BF18">
         <v>167.77</v>
       </c>
       <c r="BG18">
-        <v>191.61</v>
+        <v>191.59</v>
       </c>
       <c r="BH18">
         <v>274.47000000000003</v>
       </c>
       <c r="BI18">
-        <v>262.45999999999998</v>
+        <v>262.49</v>
       </c>
       <c r="BJ18">
-        <v>219.81</v>
+        <v>219.86</v>
       </c>
       <c r="BK18">
-        <v>178.94</v>
+        <v>178.97</v>
       </c>
       <c r="BL18">
         <v>125.43</v>
       </c>
       <c r="BM18">
-        <v>98.7</v>
+        <v>98.72</v>
       </c>
       <c r="BN18">
-        <v>56.81</v>
+        <v>56.84</v>
       </c>
       <c r="BO18">
         <v>43.79</v>
       </c>
       <c r="BP18">
-        <v>31.2</v>
+        <v>31.17</v>
       </c>
       <c r="BQ18">
         <v>17.260000000000002</v>
@@ -10478,30 +10595,33 @@
         <v>14.72</v>
       </c>
       <c r="BU18">
-        <v>32.619999999999997</v>
+        <v>32.65</v>
       </c>
       <c r="BV18">
-        <v>40.869999999999997</v>
+        <v>40.9</v>
       </c>
       <c r="BW18">
-        <v>46.66</v>
+        <v>46.68</v>
       </c>
       <c r="BX18">
         <v>60.11</v>
       </c>
       <c r="BY18">
-        <v>88.75</v>
+        <v>88.85</v>
       </c>
       <c r="BZ18">
-        <v>141.16999999999999</v>
+        <v>141.4</v>
       </c>
       <c r="CA18">
-        <v>172.06</v>
+        <v>176.58</v>
+      </c>
+      <c r="CB18">
+        <v>194.71</v>
       </c>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B19">
         <v>0.51</v>
@@ -10558,7 +10678,7 @@
         <v>2.84</v>
       </c>
       <c r="T19">
-        <v>2.78</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
         <v>3.94</v>
@@ -10576,7 +10696,7 @@
         <v>14.72</v>
       </c>
       <c r="Z19">
-        <v>15.56</v>
+        <v>15.53</v>
       </c>
       <c r="AA19">
         <v>13.02</v>
@@ -10606,7 +10726,7 @@
         <v>74.180000000000007</v>
       </c>
       <c r="AJ19">
-        <v>110.24</v>
+        <v>110.21</v>
       </c>
       <c r="AK19">
         <v>129.22</v>
@@ -10618,13 +10738,13 @@
         <v>143.05000000000001</v>
       </c>
       <c r="AN19">
-        <v>140.02000000000001</v>
+        <v>140</v>
       </c>
       <c r="AO19">
-        <v>139.21</v>
+        <v>139.19</v>
       </c>
       <c r="AP19">
-        <v>153.61000000000001</v>
+        <v>153.63999999999999</v>
       </c>
       <c r="AQ19">
         <v>142.69999999999999</v>
@@ -10639,10 +10759,10 @@
         <v>89.96</v>
       </c>
       <c r="AU19">
-        <v>73.349999999999994</v>
+        <v>73.37</v>
       </c>
       <c r="AV19">
-        <v>60.14</v>
+        <v>60.17</v>
       </c>
       <c r="AW19">
         <v>50.74</v>
@@ -10672,31 +10792,31 @@
         <v>154.82</v>
       </c>
       <c r="BF19">
-        <v>130.94999999999999</v>
+        <v>130.97999999999999</v>
       </c>
       <c r="BG19">
-        <v>139.78</v>
+        <v>139.86000000000001</v>
       </c>
       <c r="BH19">
         <v>206.81</v>
       </c>
       <c r="BI19">
-        <v>235.76</v>
+        <v>235.79</v>
       </c>
       <c r="BJ19">
-        <v>193.52</v>
+        <v>193.58</v>
       </c>
       <c r="BK19">
         <v>165.49</v>
       </c>
       <c r="BL19">
-        <v>123.42</v>
+        <v>123.44</v>
       </c>
       <c r="BM19">
-        <v>101.62</v>
+        <v>101.6</v>
       </c>
       <c r="BN19">
-        <v>58.52</v>
+        <v>58.49</v>
       </c>
       <c r="BO19">
         <v>42.67</v>
@@ -10714,33 +10834,36 @@
         <v>8.32</v>
       </c>
       <c r="BT19">
-        <v>7.99</v>
+        <v>7.97</v>
       </c>
       <c r="BU19">
         <v>14.34</v>
       </c>
       <c r="BV19">
-        <v>20.96</v>
+        <v>20.98</v>
       </c>
       <c r="BW19">
         <v>26.92</v>
       </c>
       <c r="BX19">
-        <v>40.21</v>
+        <v>40.159999999999997</v>
       </c>
       <c r="BY19">
-        <v>70.3</v>
+        <v>70.19</v>
       </c>
       <c r="BZ19">
-        <v>144.21</v>
+        <v>144.56</v>
       </c>
       <c r="CA19">
-        <v>181.96</v>
+        <v>186.34</v>
+      </c>
+      <c r="CB19">
+        <v>223.26</v>
       </c>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B20">
         <v>0.27</v>
@@ -10791,10 +10914,10 @@
         <v>4.75</v>
       </c>
       <c r="R20">
-        <v>3.7</v>
+        <v>3.73</v>
       </c>
       <c r="S20">
-        <v>3.27</v>
+        <v>3.25</v>
       </c>
       <c r="T20">
         <v>3.09</v>
@@ -10836,37 +10959,37 @@
         <v>11.64</v>
       </c>
       <c r="AG20">
-        <v>16.739999999999998</v>
+        <v>16.72</v>
       </c>
       <c r="AH20">
         <v>26.13</v>
       </c>
       <c r="AI20">
-        <v>49.42</v>
+        <v>49.4</v>
       </c>
       <c r="AJ20">
         <v>74.91</v>
       </c>
       <c r="AK20">
-        <v>90.26</v>
+        <v>90.23</v>
       </c>
       <c r="AL20">
-        <v>96.97</v>
+        <v>96.94</v>
       </c>
       <c r="AM20">
-        <v>105.18</v>
+        <v>105.1</v>
       </c>
       <c r="AN20">
         <v>102.47</v>
       </c>
       <c r="AO20">
-        <v>98.85</v>
+        <v>98.79</v>
       </c>
       <c r="AP20">
-        <v>114.25</v>
+        <v>114.22</v>
       </c>
       <c r="AQ20">
-        <v>115.43</v>
+        <v>115.4</v>
       </c>
       <c r="AR20">
         <v>81.08</v>
@@ -10875,7 +10998,7 @@
         <v>52.16</v>
       </c>
       <c r="AT20">
-        <v>64.150000000000006</v>
+        <v>64.180000000000007</v>
       </c>
       <c r="AU20">
         <v>58.87</v>
@@ -10908,28 +11031,28 @@
         <v>127.77</v>
       </c>
       <c r="BE20">
-        <v>179.82</v>
+        <v>179.77</v>
       </c>
       <c r="BF20">
-        <v>139.22999999999999</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="BG20">
-        <v>126.05</v>
+        <v>126</v>
       </c>
       <c r="BH20">
-        <v>187.63</v>
+        <v>187.61</v>
       </c>
       <c r="BI20">
         <v>225.73</v>
       </c>
       <c r="BJ20">
-        <v>184.55</v>
+        <v>184.49</v>
       </c>
       <c r="BK20">
         <v>149.34</v>
       </c>
       <c r="BL20">
-        <v>110.47</v>
+        <v>110.44</v>
       </c>
       <c r="BM20">
         <v>91.55</v>
@@ -10950,13 +11073,13 @@
         <v>9.26</v>
       </c>
       <c r="BS20">
-        <v>6.44</v>
+        <v>6.47</v>
       </c>
       <c r="BT20">
-        <v>5.55</v>
+        <v>5.58</v>
       </c>
       <c r="BU20">
-        <v>8.64</v>
+        <v>8.61</v>
       </c>
       <c r="BV20">
         <v>12.77</v>
@@ -10965,21 +11088,24 @@
         <v>19.43</v>
       </c>
       <c r="BX20">
-        <v>30.99</v>
+        <v>31.07</v>
       </c>
       <c r="BY20">
-        <v>49.45</v>
+        <v>49.5</v>
       </c>
       <c r="BZ20">
-        <v>99.6</v>
+        <v>99.76</v>
       </c>
       <c r="CA20">
-        <v>146.12</v>
+        <v>149.5</v>
+      </c>
+      <c r="CB20">
+        <v>185.57</v>
       </c>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B21">
         <v>0.23</v>
@@ -11060,7 +11186,7 @@
         <v>5.63</v>
       </c>
       <c r="AB21">
-        <v>5.71</v>
+        <v>5.73</v>
       </c>
       <c r="AC21">
         <v>5.71</v>
@@ -11105,7 +11231,7 @@
         <v>67.05</v>
       </c>
       <c r="AQ21">
-        <v>78.08</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="AR21">
         <v>53.16</v>
@@ -11117,10 +11243,10 @@
         <v>47.96</v>
       </c>
       <c r="AU21">
-        <v>46.88</v>
+        <v>46.85</v>
       </c>
       <c r="AV21">
-        <v>42.84</v>
+        <v>42.81</v>
       </c>
       <c r="AW21">
         <v>38.57</v>
@@ -11144,7 +11270,7 @@
         <v>75.48</v>
       </c>
       <c r="BD21">
-        <v>102.21</v>
+        <v>102.19</v>
       </c>
       <c r="BE21">
         <v>126.77</v>
@@ -11153,22 +11279,22 @@
         <v>112.76</v>
       </c>
       <c r="BG21">
-        <v>101.61</v>
+        <v>101.63</v>
       </c>
       <c r="BH21">
-        <v>128.36000000000001</v>
+        <v>128.34</v>
       </c>
       <c r="BI21">
         <v>140.86000000000001</v>
       </c>
       <c r="BJ21">
-        <v>127.76</v>
+        <v>127.71</v>
       </c>
       <c r="BK21">
         <v>103.85</v>
       </c>
       <c r="BL21">
-        <v>74.900000000000006</v>
+        <v>74.92</v>
       </c>
       <c r="BM21">
         <v>58.01</v>
@@ -11198,7 +11324,7 @@
         <v>6.51</v>
       </c>
       <c r="BV21">
-        <v>8.76</v>
+        <v>8.73</v>
       </c>
       <c r="BW21">
         <v>13.18</v>
@@ -11210,14 +11336,17 @@
         <v>31.1</v>
       </c>
       <c r="BZ21">
-        <v>47.1</v>
+        <v>47.16</v>
       </c>
       <c r="CA21">
-        <v>73.41</v>
+        <v>74.52</v>
+      </c>
+      <c r="CB21">
+        <v>85.48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/source/Altersverteilung.xlsx
+++ b/data/source/Altersverteilung.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DF5398-CEE2-450F-93D0-02083FE8C906}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FB2FC3-45A0-4269-A8F3-33831CB8F693}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6348" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallzahlen" sheetId="1" r:id="rId1"/>
-    <sheet name="7-Tages-Inzidenz" sheetId="3" r:id="rId2"/>
+    <sheet name="7-Tages-Inzidenz" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="102">
   <si>
     <t>Altersgruppe</t>
   </si>
@@ -258,6 +258,9 @@
     <t>2021_35</t>
   </si>
   <si>
+    <t>2021_36</t>
+  </si>
+  <si>
     <t>Gesamt</t>
   </si>
   <si>
@@ -316,6 +319,9 @@
   </si>
   <si>
     <t>5 - 9</t>
+  </si>
+  <si>
+    <t>10 -  14</t>
   </si>
 </sst>
 </file>
@@ -1157,15 +1163,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CB21"/>
+  <dimension ref="A1:CC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1406,10 +1412,13 @@
       <c r="CB1" t="s">
         <v>79</v>
       </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>898</v>
@@ -1421,7 +1430,7 @@
         <v>22389</v>
       </c>
       <c r="E2">
-        <v>33970</v>
+        <v>33966</v>
       </c>
       <c r="F2">
         <v>36047</v>
@@ -1433,7 +1442,7 @@
         <v>17331</v>
       </c>
       <c r="I2">
-        <v>12344</v>
+        <v>12343</v>
       </c>
       <c r="J2">
         <v>7428</v>
@@ -1466,7 +1475,7 @@
         <v>2686</v>
       </c>
       <c r="T2">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="U2">
         <v>3024</v>
@@ -1493,7 +1502,7 @@
         <v>8615</v>
       </c>
       <c r="AC2">
-        <v>9759</v>
+        <v>9761</v>
       </c>
       <c r="AD2">
         <v>12291</v>
@@ -1505,43 +1514,43 @@
         <v>15921</v>
       </c>
       <c r="AG2">
-        <v>26108</v>
+        <v>26109</v>
       </c>
       <c r="AH2">
         <v>42060</v>
       </c>
       <c r="AI2">
-        <v>74856</v>
+        <v>74858</v>
       </c>
       <c r="AJ2">
-        <v>111009</v>
+        <v>111005</v>
       </c>
       <c r="AK2">
-        <v>125728</v>
+        <v>125727</v>
       </c>
       <c r="AL2">
-        <v>127763</v>
+        <v>127756</v>
       </c>
       <c r="AM2">
-        <v>128356</v>
+        <v>128358</v>
       </c>
       <c r="AN2">
-        <v>123183</v>
+        <v>123181</v>
       </c>
       <c r="AO2">
-        <v>128354</v>
+        <v>128350</v>
       </c>
       <c r="AP2">
-        <v>156291</v>
+        <v>156286</v>
       </c>
       <c r="AQ2">
-        <v>174715</v>
+        <v>174706</v>
       </c>
       <c r="AR2">
-        <v>138951</v>
+        <v>138953</v>
       </c>
       <c r="AS2">
-        <v>123075</v>
+        <v>123073</v>
       </c>
       <c r="AT2">
         <v>145447</v>
@@ -1550,19 +1559,19 @@
         <v>118907</v>
       </c>
       <c r="AV2">
-        <v>95521</v>
+        <v>95518</v>
       </c>
       <c r="AW2">
-        <v>78125</v>
+        <v>78131</v>
       </c>
       <c r="AX2">
-        <v>64563</v>
+        <v>64561</v>
       </c>
       <c r="AY2">
-        <v>50805</v>
+        <v>50807</v>
       </c>
       <c r="AZ2">
-        <v>52393</v>
+        <v>52391</v>
       </c>
       <c r="BA2">
         <v>56348</v>
@@ -1571,87 +1580,90 @@
         <v>58363</v>
       </c>
       <c r="BC2">
-        <v>71290</v>
+        <v>71293</v>
       </c>
       <c r="BD2">
-        <v>92570</v>
+        <v>92577</v>
       </c>
       <c r="BE2">
-        <v>116256</v>
+        <v>116260</v>
       </c>
       <c r="BF2">
-        <v>110096</v>
+        <v>110094</v>
       </c>
       <c r="BG2">
-        <v>118238</v>
+        <v>118240</v>
       </c>
       <c r="BH2">
-        <v>142012</v>
+        <v>142009</v>
       </c>
       <c r="BI2">
-        <v>144753</v>
+        <v>144749</v>
       </c>
       <c r="BJ2">
-        <v>124826</v>
+        <v>124820</v>
       </c>
       <c r="BK2">
-        <v>101014</v>
+        <v>101007</v>
       </c>
       <c r="BL2">
-        <v>70848</v>
+        <v>70841</v>
       </c>
       <c r="BM2">
         <v>52731</v>
       </c>
       <c r="BN2">
-        <v>29898</v>
+        <v>29896</v>
       </c>
       <c r="BO2">
-        <v>20696</v>
+        <v>20695</v>
       </c>
       <c r="BP2">
-        <v>14026</v>
+        <v>14027</v>
       </c>
       <c r="BQ2">
-        <v>7262</v>
+        <v>7264</v>
       </c>
       <c r="BR2">
-        <v>4813</v>
+        <v>4815</v>
       </c>
       <c r="BS2">
-        <v>4345</v>
+        <v>4348</v>
       </c>
       <c r="BT2">
-        <v>5556</v>
+        <v>5561</v>
       </c>
       <c r="BU2">
-        <v>9076</v>
+        <v>9090</v>
       </c>
       <c r="BV2">
-        <v>12603</v>
+        <v>12613</v>
       </c>
       <c r="BW2">
-        <v>15481</v>
+        <v>15483</v>
       </c>
       <c r="BX2">
-        <v>20391</v>
+        <v>20390</v>
       </c>
       <c r="BY2">
-        <v>32020</v>
+        <v>32031</v>
       </c>
       <c r="BZ2">
-        <v>49569</v>
+        <v>49577</v>
       </c>
       <c r="CA2">
-        <v>66175</v>
+        <v>66244</v>
       </c>
       <c r="CB2">
-        <v>73408</v>
+        <v>74605</v>
+      </c>
+      <c r="CC2">
+        <v>70944</v>
       </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1753,7 +1765,7 @@
         <v>437</v>
       </c>
       <c r="AI3">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AJ3">
         <v>1462</v>
@@ -1771,7 +1783,7 @@
         <v>3518</v>
       </c>
       <c r="AO3">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="AP3">
         <v>5400</v>
@@ -1780,7 +1792,7 @@
         <v>5971</v>
       </c>
       <c r="AR3">
-        <v>5234</v>
+        <v>5235</v>
       </c>
       <c r="AS3">
         <v>4978</v>
@@ -1822,7 +1834,7 @@
         <v>660</v>
       </c>
       <c r="BF3">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="BG3">
         <v>716</v>
@@ -1840,7 +1852,7 @@
         <v>543</v>
       </c>
       <c r="BL3">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BM3">
         <v>278</v>
@@ -1852,7 +1864,7 @@
         <v>129</v>
       </c>
       <c r="BP3">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BQ3">
         <v>44</v>
@@ -1882,18 +1894,21 @@
         <v>129</v>
       </c>
       <c r="BZ3">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CA3">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="CB3">
-        <v>335</v>
+        <v>339</v>
+      </c>
+      <c r="CC3">
+        <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -1911,7 +1926,7 @@
         <v>1449</v>
       </c>
       <c r="G4">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H4">
         <v>924</v>
@@ -2016,10 +2031,10 @@
         <v>4596</v>
       </c>
       <c r="AP4">
-        <v>5907</v>
+        <v>5908</v>
       </c>
       <c r="AQ4">
-        <v>6932</v>
+        <v>6933</v>
       </c>
       <c r="AR4">
         <v>5820</v>
@@ -2040,7 +2055,7 @@
         <v>3322</v>
       </c>
       <c r="AX4">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="AY4">
         <v>1650</v>
@@ -2124,18 +2139,21 @@
         <v>147</v>
       </c>
       <c r="BZ4">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="CA4">
         <v>330</v>
       </c>
       <c r="CB4">
-        <v>430</v>
+        <v>441</v>
+      </c>
+      <c r="CC4">
+        <v>505</v>
       </c>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -2147,13 +2165,13 @@
         <v>468</v>
       </c>
       <c r="E5">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F5">
         <v>1966</v>
       </c>
       <c r="G5">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="H5">
         <v>1176</v>
@@ -2249,25 +2267,25 @@
         <v>3796</v>
       </c>
       <c r="AM5">
-        <v>4357</v>
+        <v>4358</v>
       </c>
       <c r="AN5">
-        <v>4773</v>
+        <v>4772</v>
       </c>
       <c r="AO5">
-        <v>5444</v>
+        <v>5443</v>
       </c>
       <c r="AP5">
         <v>7073</v>
       </c>
       <c r="AQ5">
-        <v>8255</v>
+        <v>8254</v>
       </c>
       <c r="AR5">
         <v>7409</v>
       </c>
       <c r="AS5">
-        <v>6866</v>
+        <v>6867</v>
       </c>
       <c r="AT5">
         <v>7667</v>
@@ -2339,7 +2357,7 @@
         <v>155</v>
       </c>
       <c r="BQ5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BR5">
         <v>40</v>
@@ -2351,7 +2369,7 @@
         <v>46</v>
       </c>
       <c r="BU5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BV5">
         <v>75</v>
@@ -2366,18 +2384,21 @@
         <v>231</v>
       </c>
       <c r="BZ5">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="CA5">
         <v>480</v>
       </c>
       <c r="CB5">
-        <v>664</v>
+        <v>676</v>
+      </c>
+      <c r="CC5">
+        <v>822</v>
       </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -2485,19 +2506,19 @@
         <v>2644</v>
       </c>
       <c r="AK6">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="AL6">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="AM6">
         <v>3379</v>
       </c>
       <c r="AN6">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="AO6">
-        <v>3964</v>
+        <v>3965</v>
       </c>
       <c r="AP6">
         <v>5001</v>
@@ -2518,7 +2539,7 @@
         <v>4312</v>
       </c>
       <c r="AV6">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="AW6">
         <v>2815</v>
@@ -2545,7 +2566,7 @@
         <v>1894</v>
       </c>
       <c r="BE6">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="BF6">
         <v>2176</v>
@@ -2611,15 +2632,18 @@
         <v>287</v>
       </c>
       <c r="CA6">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="CB6">
-        <v>527</v>
+        <v>541</v>
+      </c>
+      <c r="CC6">
+        <v>587</v>
       </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -2715,13 +2739,13 @@
         <v>351</v>
       </c>
       <c r="AG7">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AH7">
         <v>934</v>
       </c>
       <c r="AI7">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="AJ7">
         <v>2882</v>
@@ -2742,13 +2766,13 @@
         <v>3481</v>
       </c>
       <c r="AP7">
-        <v>4387</v>
+        <v>4386</v>
       </c>
       <c r="AQ7">
         <v>5154</v>
       </c>
       <c r="AR7">
-        <v>4446</v>
+        <v>4445</v>
       </c>
       <c r="AS7">
         <v>4128</v>
@@ -2787,16 +2811,16 @@
         <v>2377</v>
       </c>
       <c r="BE7">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="BF7">
         <v>2903</v>
       </c>
       <c r="BG7">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="BH7">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="BI7">
         <v>3370</v>
@@ -2805,7 +2829,7 @@
         <v>2879</v>
       </c>
       <c r="BK7">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BL7">
         <v>1594</v>
@@ -2850,18 +2874,21 @@
         <v>297</v>
       </c>
       <c r="BZ7">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="CA7">
         <v>616</v>
       </c>
       <c r="CB7">
-        <v>726</v>
+        <v>741</v>
+      </c>
+      <c r="CC7">
+        <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <v>25</v>
@@ -2957,7 +2984,7 @@
         <v>450</v>
       </c>
       <c r="AG8">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AH8">
         <v>1282</v>
@@ -2987,13 +3014,13 @@
         <v>5169</v>
       </c>
       <c r="AQ8">
-        <v>6354</v>
+        <v>6352</v>
       </c>
       <c r="AR8">
         <v>5582</v>
       </c>
       <c r="AS8">
-        <v>4976</v>
+        <v>4975</v>
       </c>
       <c r="AT8">
         <v>5732</v>
@@ -3092,18 +3119,21 @@
         <v>403</v>
       </c>
       <c r="BZ8">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="CA8">
         <v>811</v>
       </c>
       <c r="CB8">
-        <v>986</v>
+        <v>991</v>
+      </c>
+      <c r="CC8">
+        <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B9">
         <v>63</v>
@@ -3160,7 +3190,7 @@
         <v>111</v>
       </c>
       <c r="T9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U9">
         <v>110</v>
@@ -3223,7 +3253,7 @@
         <v>7005</v>
       </c>
       <c r="AO9">
-        <v>7648</v>
+        <v>7649</v>
       </c>
       <c r="AP9">
         <v>9424</v>
@@ -3235,7 +3265,7 @@
         <v>9181</v>
       </c>
       <c r="AS9">
-        <v>8262</v>
+        <v>8261</v>
       </c>
       <c r="AT9">
         <v>9278</v>
@@ -3244,7 +3274,7 @@
         <v>7552</v>
       </c>
       <c r="AV9">
-        <v>6238</v>
+        <v>6237</v>
       </c>
       <c r="AW9">
         <v>5122</v>
@@ -3262,16 +3292,16 @@
         <v>3514</v>
       </c>
       <c r="BB9">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="BC9">
         <v>4119</v>
       </c>
       <c r="BD9">
-        <v>5307</v>
+        <v>5308</v>
       </c>
       <c r="BE9">
-        <v>6569</v>
+        <v>6570</v>
       </c>
       <c r="BF9">
         <v>6406</v>
@@ -3283,13 +3313,13 @@
         <v>7596</v>
       </c>
       <c r="BI9">
-        <v>7759</v>
+        <v>7760</v>
       </c>
       <c r="BJ9">
         <v>6799</v>
       </c>
       <c r="BK9">
-        <v>5531</v>
+        <v>5530</v>
       </c>
       <c r="BL9">
         <v>3731</v>
@@ -3322,7 +3352,7 @@
         <v>235</v>
       </c>
       <c r="BV9">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BW9">
         <v>397</v>
@@ -3334,18 +3364,21 @@
         <v>711</v>
       </c>
       <c r="BZ9">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="CA9">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="CB9">
-        <v>1796</v>
+        <v>1827</v>
+      </c>
+      <c r="CC9">
+        <v>1852</v>
       </c>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B10">
         <v>76</v>
@@ -3444,34 +3477,34 @@
         <v>1872</v>
       </c>
       <c r="AH10">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="AI10">
         <v>5757</v>
       </c>
       <c r="AJ10">
-        <v>8970</v>
+        <v>8969</v>
       </c>
       <c r="AK10">
         <v>10165</v>
       </c>
       <c r="AL10">
-        <v>10292</v>
+        <v>10291</v>
       </c>
       <c r="AM10">
-        <v>10252</v>
+        <v>10253</v>
       </c>
       <c r="AN10">
         <v>9874</v>
       </c>
       <c r="AO10">
-        <v>10375</v>
+        <v>10376</v>
       </c>
       <c r="AP10">
-        <v>13047</v>
+        <v>13046</v>
       </c>
       <c r="AQ10">
-        <v>14998</v>
+        <v>14999</v>
       </c>
       <c r="AR10">
         <v>12388</v>
@@ -3504,7 +3537,7 @@
         <v>4838</v>
       </c>
       <c r="BB10">
-        <v>4639</v>
+        <v>4637</v>
       </c>
       <c r="BC10">
         <v>5710</v>
@@ -3513,19 +3546,19 @@
         <v>7264</v>
       </c>
       <c r="BE10">
-        <v>9095</v>
+        <v>9094</v>
       </c>
       <c r="BF10">
-        <v>8946</v>
+        <v>8947</v>
       </c>
       <c r="BG10">
-        <v>9678</v>
+        <v>9679</v>
       </c>
       <c r="BH10">
-        <v>10664</v>
+        <v>10663</v>
       </c>
       <c r="BI10">
-        <v>11026</v>
+        <v>11024</v>
       </c>
       <c r="BJ10">
         <v>9929</v>
@@ -3537,13 +3570,13 @@
         <v>5327</v>
       </c>
       <c r="BM10">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="BN10">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="BO10">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="BP10">
         <v>795</v>
@@ -3558,22 +3591,22 @@
         <v>230</v>
       </c>
       <c r="BT10">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BU10">
         <v>367</v>
       </c>
       <c r="BV10">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="BW10">
         <v>579</v>
       </c>
       <c r="BX10">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="BY10">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="BZ10">
         <v>1804</v>
@@ -3582,12 +3615,15 @@
         <v>2397</v>
       </c>
       <c r="CB10">
-        <v>2673</v>
+        <v>2711</v>
+      </c>
+      <c r="CC10">
+        <v>2856</v>
       </c>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11">
         <v>133</v>
@@ -3596,10 +3632,10 @@
         <v>979</v>
       </c>
       <c r="D11">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="E11">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="F11">
         <v>3699</v>
@@ -3620,7 +3656,7 @@
         <v>521</v>
       </c>
       <c r="L11">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M11">
         <v>251</v>
@@ -3686,10 +3722,10 @@
         <v>2269</v>
       </c>
       <c r="AH11">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="AI11">
-        <v>6418</v>
+        <v>6419</v>
       </c>
       <c r="AJ11">
         <v>9767</v>
@@ -3698,7 +3734,7 @@
         <v>10963</v>
       </c>
       <c r="AL11">
-        <v>10998</v>
+        <v>10997</v>
       </c>
       <c r="AM11">
         <v>10844</v>
@@ -3749,13 +3785,13 @@
         <v>4944</v>
       </c>
       <c r="BC11">
-        <v>5903</v>
+        <v>5904</v>
       </c>
       <c r="BD11">
-        <v>7533</v>
+        <v>7532</v>
       </c>
       <c r="BE11">
-        <v>9349</v>
+        <v>9350</v>
       </c>
       <c r="BF11">
         <v>9124</v>
@@ -3764,25 +3800,25 @@
         <v>9954</v>
       </c>
       <c r="BH11">
-        <v>11111</v>
+        <v>11112</v>
       </c>
       <c r="BI11">
         <v>11639</v>
       </c>
       <c r="BJ11">
-        <v>10152</v>
+        <v>10151</v>
       </c>
       <c r="BK11">
-        <v>8022</v>
+        <v>8021</v>
       </c>
       <c r="BL11">
-        <v>5471</v>
+        <v>5470</v>
       </c>
       <c r="BM11">
         <v>3779</v>
       </c>
       <c r="BN11">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="BO11">
         <v>1355</v>
@@ -3797,48 +3833,51 @@
         <v>298</v>
       </c>
       <c r="BS11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BT11">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="BU11">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="BV11">
         <v>622</v>
       </c>
       <c r="BW11">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="BX11">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="BY11">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="BZ11">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="CA11">
-        <v>3323</v>
+        <v>3321</v>
       </c>
       <c r="CB11">
-        <v>3653</v>
+        <v>3724</v>
+      </c>
+      <c r="CC11">
+        <v>3650</v>
       </c>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B12">
         <v>99</v>
       </c>
       <c r="C12">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D12">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="E12">
         <v>2915</v>
@@ -3850,7 +3889,7 @@
         <v>1915</v>
       </c>
       <c r="H12">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="I12">
         <v>786</v>
@@ -3934,7 +3973,7 @@
         <v>5820</v>
       </c>
       <c r="AJ12">
-        <v>8395</v>
+        <v>8396</v>
       </c>
       <c r="AK12">
         <v>9476</v>
@@ -3949,13 +3988,13 @@
         <v>9059</v>
       </c>
       <c r="AO12">
-        <v>9234</v>
+        <v>9235</v>
       </c>
       <c r="AP12">
         <v>11093</v>
       </c>
       <c r="AQ12">
-        <v>12439</v>
+        <v>12442</v>
       </c>
       <c r="AR12">
         <v>9740</v>
@@ -3973,7 +4012,7 @@
         <v>6489</v>
       </c>
       <c r="AW12">
-        <v>5304</v>
+        <v>5305</v>
       </c>
       <c r="AX12">
         <v>4492</v>
@@ -3991,25 +4030,25 @@
         <v>4289</v>
       </c>
       <c r="BC12">
-        <v>5185</v>
+        <v>5186</v>
       </c>
       <c r="BD12">
-        <v>6517</v>
+        <v>6518</v>
       </c>
       <c r="BE12">
-        <v>8155</v>
+        <v>8158</v>
       </c>
       <c r="BF12">
-        <v>7992</v>
+        <v>7993</v>
       </c>
       <c r="BG12">
-        <v>8769</v>
+        <v>8770</v>
       </c>
       <c r="BH12">
-        <v>10165</v>
+        <v>10166</v>
       </c>
       <c r="BI12">
-        <v>10676</v>
+        <v>10673</v>
       </c>
       <c r="BJ12">
         <v>9023</v>
@@ -4018,7 +4057,7 @@
         <v>7441</v>
       </c>
       <c r="BL12">
-        <v>5086</v>
+        <v>5085</v>
       </c>
       <c r="BM12">
         <v>3589</v>
@@ -4033,22 +4072,22 @@
         <v>872</v>
       </c>
       <c r="BQ12">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="BR12">
         <v>274</v>
       </c>
       <c r="BS12">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BT12">
         <v>333</v>
       </c>
       <c r="BU12">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="BV12">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="BW12">
         <v>911</v>
@@ -4060,24 +4099,27 @@
         <v>1947</v>
       </c>
       <c r="BZ12">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="CA12">
-        <v>4105</v>
+        <v>4110</v>
       </c>
       <c r="CB12">
-        <v>4519</v>
+        <v>4620</v>
+      </c>
+      <c r="CC12">
+        <v>4493</v>
       </c>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B13">
         <v>85</v>
       </c>
       <c r="C13">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D13">
         <v>1798</v>
@@ -4104,7 +4146,7 @@
         <v>404</v>
       </c>
       <c r="L13">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M13">
         <v>243</v>
@@ -4176,31 +4218,31 @@
         <v>5307</v>
       </c>
       <c r="AJ13">
-        <v>7884</v>
+        <v>7882</v>
       </c>
       <c r="AK13">
         <v>8877</v>
       </c>
       <c r="AL13">
-        <v>8994</v>
+        <v>8993</v>
       </c>
       <c r="AM13">
-        <v>9237</v>
+        <v>9238</v>
       </c>
       <c r="AN13">
+        <v>8808</v>
+      </c>
+      <c r="AO13">
         <v>8809</v>
-      </c>
-      <c r="AO13">
-        <v>8811</v>
       </c>
       <c r="AP13">
         <v>10903</v>
       </c>
       <c r="AQ13">
-        <v>11992</v>
+        <v>11987</v>
       </c>
       <c r="AR13">
-        <v>9511</v>
+        <v>9512</v>
       </c>
       <c r="AS13">
         <v>8028</v>
@@ -4215,7 +4257,7 @@
         <v>6229</v>
       </c>
       <c r="AW13">
-        <v>5119</v>
+        <v>5120</v>
       </c>
       <c r="AX13">
         <v>4276</v>
@@ -4227,31 +4269,31 @@
         <v>3592</v>
       </c>
       <c r="BA13">
-        <v>4137</v>
+        <v>4136</v>
       </c>
       <c r="BB13">
-        <v>4272</v>
+        <v>4273</v>
       </c>
       <c r="BC13">
-        <v>5340</v>
+        <v>5341</v>
       </c>
       <c r="BD13">
-        <v>6980</v>
+        <v>6982</v>
       </c>
       <c r="BE13">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="BF13">
-        <v>8326</v>
+        <v>8325</v>
       </c>
       <c r="BG13">
-        <v>9279</v>
+        <v>9278</v>
       </c>
       <c r="BH13">
-        <v>10725</v>
+        <v>10724</v>
       </c>
       <c r="BI13">
-        <v>10823</v>
+        <v>10824</v>
       </c>
       <c r="BJ13">
         <v>9579</v>
@@ -4260,7 +4302,7 @@
         <v>7727</v>
       </c>
       <c r="BL13">
-        <v>5332</v>
+        <v>5333</v>
       </c>
       <c r="BM13">
         <v>3986</v>
@@ -4281,10 +4323,10 @@
         <v>354</v>
       </c>
       <c r="BS13">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="BT13">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="BU13">
         <v>505</v>
@@ -4299,21 +4341,24 @@
         <v>1443</v>
       </c>
       <c r="BY13">
-        <v>2347</v>
+        <v>2349</v>
       </c>
       <c r="BZ13">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="CA13">
-        <v>5166</v>
+        <v>5175</v>
       </c>
       <c r="CB13">
-        <v>5586</v>
+        <v>5684</v>
+      </c>
+      <c r="CC13">
+        <v>5361</v>
       </c>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B14">
         <v>67</v>
@@ -4409,7 +4454,7 @@
         <v>1153</v>
       </c>
       <c r="AG14">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="AH14">
         <v>3098</v>
@@ -4418,7 +4463,7 @@
         <v>5386</v>
       </c>
       <c r="AJ14">
-        <v>8082</v>
+        <v>8083</v>
       </c>
       <c r="AK14">
         <v>8956</v>
@@ -4427,46 +4472,46 @@
         <v>9189</v>
       </c>
       <c r="AM14">
-        <v>9194</v>
+        <v>9195</v>
       </c>
       <c r="AN14">
         <v>8715</v>
       </c>
       <c r="AO14">
-        <v>9140</v>
+        <v>9138</v>
       </c>
       <c r="AP14">
-        <v>10993</v>
+        <v>10992</v>
       </c>
       <c r="AQ14">
-        <v>12229</v>
+        <v>12227</v>
       </c>
       <c r="AR14">
-        <v>9523</v>
+        <v>9524</v>
       </c>
       <c r="AS14">
         <v>8080</v>
       </c>
       <c r="AT14">
-        <v>10146</v>
+        <v>10147</v>
       </c>
       <c r="AU14">
         <v>8008</v>
       </c>
       <c r="AV14">
-        <v>6343</v>
+        <v>6342</v>
       </c>
       <c r="AW14">
-        <v>5194</v>
+        <v>5196</v>
       </c>
       <c r="AX14">
         <v>4460</v>
       </c>
       <c r="AY14">
-        <v>3594</v>
+        <v>3595</v>
       </c>
       <c r="AZ14">
-        <v>3710</v>
+        <v>3708</v>
       </c>
       <c r="BA14">
         <v>4181</v>
@@ -4475,25 +4520,25 @@
         <v>4576</v>
       </c>
       <c r="BC14">
-        <v>5760</v>
+        <v>5759</v>
       </c>
       <c r="BD14">
-        <v>7588</v>
+        <v>7587</v>
       </c>
       <c r="BE14">
         <v>9459</v>
       </c>
       <c r="BF14">
-        <v>8986</v>
+        <v>8987</v>
       </c>
       <c r="BG14">
         <v>9483</v>
       </c>
       <c r="BH14">
-        <v>11264</v>
+        <v>11265</v>
       </c>
       <c r="BI14">
-        <v>11274</v>
+        <v>11273</v>
       </c>
       <c r="BJ14">
         <v>10030</v>
@@ -4502,13 +4547,13 @@
         <v>7968</v>
       </c>
       <c r="BL14">
-        <v>5628</v>
+        <v>5627</v>
       </c>
       <c r="BM14">
         <v>4223</v>
       </c>
       <c r="BN14">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="BO14">
         <v>1692</v>
@@ -4535,27 +4580,30 @@
         <v>906</v>
       </c>
       <c r="BW14">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="BX14">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="BY14">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="BZ14">
-        <v>3763</v>
+        <v>3764</v>
       </c>
       <c r="CA14">
-        <v>5259</v>
+        <v>5263</v>
       </c>
       <c r="CB14">
-        <v>5873</v>
+        <v>5988</v>
+      </c>
+      <c r="CC14">
+        <v>5742</v>
       </c>
     </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B15">
         <v>69</v>
@@ -4627,7 +4675,7 @@
         <v>515</v>
       </c>
       <c r="Y15">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="Z15">
         <v>945</v>
@@ -4639,7 +4687,7 @@
         <v>937</v>
       </c>
       <c r="AC15">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="AD15">
         <v>1207</v>
@@ -4654,10 +4702,10 @@
         <v>2359</v>
       </c>
       <c r="AH15">
-        <v>3861</v>
+        <v>3859</v>
       </c>
       <c r="AI15">
-        <v>6716</v>
+        <v>6717</v>
       </c>
       <c r="AJ15">
         <v>9575</v>
@@ -4666,22 +4714,22 @@
         <v>10475</v>
       </c>
       <c r="AL15">
-        <v>10480</v>
+        <v>10478</v>
       </c>
       <c r="AM15">
         <v>10082</v>
       </c>
       <c r="AN15">
-        <v>9365</v>
+        <v>9367</v>
       </c>
       <c r="AO15">
-        <v>9471</v>
+        <v>9469</v>
       </c>
       <c r="AP15">
         <v>11516</v>
       </c>
       <c r="AQ15">
-        <v>13028</v>
+        <v>13026</v>
       </c>
       <c r="AR15">
         <v>10042</v>
@@ -4693,13 +4741,13 @@
         <v>11602</v>
       </c>
       <c r="AU15">
-        <v>9047</v>
+        <v>9048</v>
       </c>
       <c r="AV15">
         <v>7020</v>
       </c>
       <c r="AW15">
-        <v>5763</v>
+        <v>5765</v>
       </c>
       <c r="AX15">
         <v>4907</v>
@@ -4723,7 +4771,7 @@
         <v>7895</v>
       </c>
       <c r="BE15">
-        <v>9868</v>
+        <v>9869</v>
       </c>
       <c r="BF15">
         <v>9512</v>
@@ -4735,16 +4783,16 @@
         <v>12008</v>
       </c>
       <c r="BI15">
-        <v>11856</v>
+        <v>11855</v>
       </c>
       <c r="BJ15">
-        <v>10455</v>
+        <v>10454</v>
       </c>
       <c r="BK15">
-        <v>8277</v>
+        <v>8276</v>
       </c>
       <c r="BL15">
-        <v>5872</v>
+        <v>5871</v>
       </c>
       <c r="BM15">
         <v>4543</v>
@@ -4753,7 +4801,7 @@
         <v>2747</v>
       </c>
       <c r="BO15">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="BP15">
         <v>1184</v>
@@ -4771,33 +4819,36 @@
         <v>581</v>
       </c>
       <c r="BU15">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="BV15">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="BW15">
         <v>1515</v>
       </c>
       <c r="BX15">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="BY15">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="BZ15">
-        <v>4379</v>
+        <v>4381</v>
       </c>
       <c r="CA15">
-        <v>5966</v>
+        <v>5971</v>
       </c>
       <c r="CB15">
-        <v>6455</v>
+        <v>6579</v>
+      </c>
+      <c r="CC15">
+        <v>6185</v>
       </c>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16">
         <v>76</v>
@@ -4821,7 +4872,7 @@
         <v>1288</v>
       </c>
       <c r="I16">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="J16">
         <v>681</v>
@@ -4830,7 +4881,7 @@
         <v>522</v>
       </c>
       <c r="L16">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M16">
         <v>345</v>
@@ -4896,13 +4947,13 @@
         <v>2684</v>
       </c>
       <c r="AH16">
-        <v>4474</v>
+        <v>4476</v>
       </c>
       <c r="AI16">
-        <v>7319</v>
+        <v>7318</v>
       </c>
       <c r="AJ16">
-        <v>10342</v>
+        <v>10341</v>
       </c>
       <c r="AK16">
         <v>11150</v>
@@ -4914,13 +4965,13 @@
         <v>9921</v>
       </c>
       <c r="AN16">
-        <v>8998</v>
+        <v>8997</v>
       </c>
       <c r="AO16">
-        <v>9148</v>
+        <v>9147</v>
       </c>
       <c r="AP16">
-        <v>10782</v>
+        <v>10780</v>
       </c>
       <c r="AQ16">
         <v>12105</v>
@@ -4932,7 +4983,7 @@
         <v>8423</v>
       </c>
       <c r="AT16">
-        <v>10778</v>
+        <v>10779</v>
       </c>
       <c r="AU16">
         <v>8536</v>
@@ -4959,37 +5010,37 @@
         <v>4266</v>
       </c>
       <c r="BC16">
-        <v>5463</v>
+        <v>5464</v>
       </c>
       <c r="BD16">
-        <v>7010</v>
+        <v>7013</v>
       </c>
       <c r="BE16">
-        <v>8398</v>
+        <v>8399</v>
       </c>
       <c r="BF16">
         <v>8377</v>
       </c>
       <c r="BG16">
-        <v>9210</v>
+        <v>9209</v>
       </c>
       <c r="BH16">
         <v>10900</v>
       </c>
       <c r="BI16">
-        <v>10788</v>
+        <v>10790</v>
       </c>
       <c r="BJ16">
-        <v>9215</v>
+        <v>9214</v>
       </c>
       <c r="BK16">
-        <v>7457</v>
+        <v>7458</v>
       </c>
       <c r="BL16">
-        <v>5183</v>
+        <v>5179</v>
       </c>
       <c r="BM16">
-        <v>3948</v>
+        <v>3949</v>
       </c>
       <c r="BN16">
         <v>2455</v>
@@ -4998,7 +5049,7 @@
         <v>1601</v>
       </c>
       <c r="BP16">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="BQ16">
         <v>619</v>
@@ -5010,36 +5061,39 @@
         <v>493</v>
       </c>
       <c r="BT16">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="BU16">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="BV16">
         <v>1733</v>
       </c>
       <c r="BW16">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="BX16">
-        <v>2402</v>
+        <v>2404</v>
       </c>
       <c r="BY16">
-        <v>3593</v>
+        <v>3592</v>
       </c>
       <c r="BZ16">
-        <v>5022</v>
+        <v>5025</v>
       </c>
       <c r="CA16">
-        <v>6316</v>
+        <v>6323</v>
       </c>
       <c r="CB16">
-        <v>6182</v>
+        <v>6294</v>
+      </c>
+      <c r="CC16">
+        <v>5975</v>
       </c>
     </row>
-    <row r="17" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B17">
         <v>70</v>
@@ -5051,7 +5105,7 @@
         <v>1445</v>
       </c>
       <c r="E17">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="F17">
         <v>2241</v>
@@ -5111,13 +5165,13 @@
         <v>746</v>
       </c>
       <c r="Y17">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="Z17">
         <v>1545</v>
       </c>
       <c r="AA17">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="AB17">
         <v>1247</v>
@@ -5132,7 +5186,7 @@
         <v>1584</v>
       </c>
       <c r="AF17">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="AG17">
         <v>2791</v>
@@ -5141,7 +5195,7 @@
         <v>4383</v>
       </c>
       <c r="AI17">
-        <v>7565</v>
+        <v>7564</v>
       </c>
       <c r="AJ17">
         <v>10409</v>
@@ -5150,16 +5204,16 @@
         <v>11734</v>
       </c>
       <c r="AL17">
-        <v>11024</v>
+        <v>11023</v>
       </c>
       <c r="AM17">
-        <v>10198</v>
+        <v>10197</v>
       </c>
       <c r="AN17">
         <v>8938</v>
       </c>
       <c r="AO17">
-        <v>9173</v>
+        <v>9174</v>
       </c>
       <c r="AP17">
         <v>10786</v>
@@ -5174,10 +5228,10 @@
         <v>8587</v>
       </c>
       <c r="AT17">
-        <v>10890</v>
+        <v>10891</v>
       </c>
       <c r="AU17">
-        <v>8534</v>
+        <v>8535</v>
       </c>
       <c r="AV17">
         <v>6434</v>
@@ -5204,28 +5258,28 @@
         <v>5421</v>
       </c>
       <c r="BD17">
-        <v>6901</v>
+        <v>6902</v>
       </c>
       <c r="BE17">
         <v>8554</v>
       </c>
       <c r="BF17">
-        <v>8507</v>
+        <v>8506</v>
       </c>
       <c r="BG17">
-        <v>9795</v>
+        <v>9796</v>
       </c>
       <c r="BH17">
         <v>11545</v>
       </c>
       <c r="BI17">
-        <v>11273</v>
+        <v>11270</v>
       </c>
       <c r="BJ17">
         <v>9629</v>
       </c>
       <c r="BK17">
-        <v>7839</v>
+        <v>7836</v>
       </c>
       <c r="BL17">
         <v>5587</v>
@@ -5252,13 +5306,13 @@
         <v>554</v>
       </c>
       <c r="BT17">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="BU17">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="BV17">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="BW17">
         <v>2327</v>
@@ -5267,21 +5321,24 @@
         <v>2790</v>
       </c>
       <c r="BY17">
-        <v>4423</v>
+        <v>4427</v>
       </c>
       <c r="BZ17">
         <v>5781</v>
       </c>
       <c r="CA17">
-        <v>6864</v>
+        <v>6878</v>
       </c>
       <c r="CB17">
-        <v>6710</v>
+        <v>6826</v>
+      </c>
+      <c r="CC17">
+        <v>6151</v>
       </c>
     </row>
-    <row r="18" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B18">
         <v>43</v>
@@ -5293,7 +5350,7 @@
         <v>537</v>
       </c>
       <c r="E18">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F18">
         <v>1074</v>
@@ -5302,7 +5359,7 @@
         <v>857</v>
       </c>
       <c r="H18">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I18">
         <v>402</v>
@@ -5314,7 +5371,7 @@
         <v>260</v>
       </c>
       <c r="L18">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M18">
         <v>152</v>
@@ -5374,7 +5431,7 @@
         <v>1045</v>
       </c>
       <c r="AF18">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="AG18">
         <v>2069</v>
@@ -5383,10 +5440,10 @@
         <v>2959</v>
       </c>
       <c r="AI18">
-        <v>4860</v>
+        <v>4861</v>
       </c>
       <c r="AJ18">
-        <v>7190</v>
+        <v>7189</v>
       </c>
       <c r="AK18">
         <v>8411</v>
@@ -5413,7 +5470,7 @@
         <v>5870</v>
       </c>
       <c r="AS18">
-        <v>4955</v>
+        <v>4954</v>
       </c>
       <c r="AT18">
         <v>6380</v>
@@ -5428,7 +5485,7 @@
         <v>3471</v>
       </c>
       <c r="AX18">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="AY18">
         <v>2379</v>
@@ -5440,7 +5497,7 @@
         <v>3071</v>
       </c>
       <c r="BB18">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="BC18">
         <v>4106</v>
@@ -5449,22 +5506,22 @@
         <v>5537</v>
       </c>
       <c r="BE18">
-        <v>7186</v>
+        <v>7187</v>
       </c>
       <c r="BF18">
-        <v>6609</v>
+        <v>6608</v>
       </c>
       <c r="BG18">
         <v>7547</v>
       </c>
       <c r="BH18">
-        <v>10812</v>
+        <v>10810</v>
       </c>
       <c r="BI18">
-        <v>10340</v>
+        <v>10342</v>
       </c>
       <c r="BJ18">
-        <v>8661</v>
+        <v>8660</v>
       </c>
       <c r="BK18">
         <v>7050</v>
@@ -5479,16 +5536,16 @@
         <v>2239</v>
       </c>
       <c r="BO18">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="BP18">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="BQ18">
         <v>680</v>
       </c>
       <c r="BR18">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="BS18">
         <v>413</v>
@@ -5497,33 +5554,36 @@
         <v>580</v>
       </c>
       <c r="BU18">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="BV18">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="BW18">
         <v>1839</v>
       </c>
       <c r="BX18">
-        <v>2368</v>
+        <v>2370</v>
       </c>
       <c r="BY18">
-        <v>3500</v>
+        <v>3501</v>
       </c>
       <c r="BZ18">
-        <v>5570</v>
+        <v>5575</v>
       </c>
       <c r="CA18">
-        <v>6956</v>
+        <v>6958</v>
       </c>
       <c r="CB18">
-        <v>7670</v>
+        <v>7776</v>
+      </c>
+      <c r="CC18">
+        <v>6765</v>
       </c>
     </row>
-    <row r="19" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -5646,7 +5706,7 @@
         <v>5154</v>
       </c>
       <c r="AP19">
-        <v>5689</v>
+        <v>5690</v>
       </c>
       <c r="AQ19">
         <v>5284</v>
@@ -5658,7 +5718,7 @@
         <v>2652</v>
       </c>
       <c r="AT19">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="AU19">
         <v>2717</v>
@@ -5688,10 +5748,10 @@
         <v>2868</v>
       </c>
       <c r="BD19">
-        <v>4178</v>
+        <v>4180</v>
       </c>
       <c r="BE19">
-        <v>5733</v>
+        <v>5731</v>
       </c>
       <c r="BF19">
         <v>4850</v>
@@ -5703,19 +5763,19 @@
         <v>7658</v>
       </c>
       <c r="BI19">
-        <v>8731</v>
+        <v>8732</v>
       </c>
       <c r="BJ19">
-        <v>7168</v>
+        <v>7167</v>
       </c>
       <c r="BK19">
-        <v>6128</v>
+        <v>6127</v>
       </c>
       <c r="BL19">
         <v>4571</v>
       </c>
       <c r="BM19">
-        <v>3762</v>
+        <v>3763</v>
       </c>
       <c r="BN19">
         <v>2166</v>
@@ -5724,7 +5784,7 @@
         <v>1580</v>
       </c>
       <c r="BP19">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="BQ19">
         <v>663</v>
@@ -5739,33 +5799,36 @@
         <v>295</v>
       </c>
       <c r="BU19">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="BV19">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="BW19">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BX19">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="BY19">
-        <v>2599</v>
+        <v>2603</v>
       </c>
       <c r="BZ19">
-        <v>5353</v>
+        <v>5356</v>
       </c>
       <c r="CA19">
-        <v>6900</v>
+        <v>6916</v>
       </c>
       <c r="CB19">
-        <v>8267</v>
+        <v>8387</v>
+      </c>
+      <c r="CC19">
+        <v>7661</v>
       </c>
     </row>
-    <row r="20" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -5888,7 +5951,7 @@
         <v>3682</v>
       </c>
       <c r="AP20">
-        <v>4257</v>
+        <v>4259</v>
       </c>
       <c r="AQ20">
         <v>4301</v>
@@ -5900,7 +5963,7 @@
         <v>1944</v>
       </c>
       <c r="AT20">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="AU20">
         <v>2194</v>
@@ -5948,16 +6011,16 @@
         <v>8413</v>
       </c>
       <c r="BJ20">
-        <v>6876</v>
+        <v>6875</v>
       </c>
       <c r="BK20">
-        <v>5566</v>
+        <v>5565</v>
       </c>
       <c r="BL20">
-        <v>4116</v>
+        <v>4117</v>
       </c>
       <c r="BM20">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="BN20">
         <v>1877</v>
@@ -5966,7 +6029,7 @@
         <v>1525</v>
       </c>
       <c r="BP20">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="BQ20">
         <v>567</v>
@@ -5981,33 +6044,36 @@
         <v>208</v>
       </c>
       <c r="BU20">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="BV20">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="BW20">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BX20">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="BY20">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="BZ20">
-        <v>3718</v>
+        <v>3721</v>
       </c>
       <c r="CA20">
-        <v>5572</v>
+        <v>5584</v>
       </c>
       <c r="CB20">
-        <v>6916</v>
+        <v>7005</v>
+      </c>
+      <c r="CC20">
+        <v>6540</v>
       </c>
     </row>
-    <row r="21" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -6085,7 +6151,7 @@
         <v>284</v>
       </c>
       <c r="AA21">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB21">
         <v>227</v>
@@ -6130,7 +6196,7 @@
         <v>2301</v>
       </c>
       <c r="AP21">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="AQ21">
         <v>3094</v>
@@ -6163,7 +6229,7 @@
         <v>1375</v>
       </c>
       <c r="BA21">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="BB21">
         <v>2371</v>
@@ -6193,7 +6259,7 @@
         <v>5059</v>
       </c>
       <c r="BK21">
-        <v>4114</v>
+        <v>4115</v>
       </c>
       <c r="BL21">
         <v>2968</v>
@@ -6202,7 +6268,7 @@
         <v>2298</v>
       </c>
       <c r="BN21">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="BO21">
         <v>1022</v>
@@ -6232,38 +6298,41 @@
         <v>522</v>
       </c>
       <c r="BX21">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="BY21">
         <v>1232</v>
       </c>
       <c r="BZ21">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="CA21">
-        <v>2952</v>
+        <v>2960</v>
       </c>
       <c r="CB21">
-        <v>3386</v>
+        <v>3417</v>
+      </c>
+      <c r="CC21">
+        <v>3488</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CB21"/>
+  <dimension ref="A1:CC21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6504,10 +6573,13 @@
       <c r="CB1" t="s">
         <v>79</v>
       </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>1.08</v>
@@ -6519,7 +6591,7 @@
         <v>26.92</v>
       </c>
       <c r="E2">
-        <v>40.85</v>
+        <v>40.840000000000003</v>
       </c>
       <c r="F2">
         <v>43.34</v>
@@ -6591,7 +6663,7 @@
         <v>10.36</v>
       </c>
       <c r="AC2">
-        <v>11.73</v>
+        <v>11.74</v>
       </c>
       <c r="AD2">
         <v>14.78</v>
@@ -6612,19 +6684,19 @@
         <v>90.01</v>
       </c>
       <c r="AJ2">
-        <v>133.47999999999999</v>
+        <v>133.47</v>
       </c>
       <c r="AK2">
-        <v>151.18</v>
+        <v>151.16999999999999</v>
       </c>
       <c r="AL2">
-        <v>153.62</v>
+        <v>153.61000000000001</v>
       </c>
       <c r="AM2">
         <v>154.34</v>
       </c>
       <c r="AN2">
-        <v>148.12</v>
+        <v>148.11000000000001</v>
       </c>
       <c r="AO2">
         <v>154.33000000000001</v>
@@ -6633,13 +6705,13 @@
         <v>187.92</v>
       </c>
       <c r="AQ2">
-        <v>210.08</v>
+        <v>210.07</v>
       </c>
       <c r="AR2">
         <v>167.08</v>
       </c>
       <c r="AS2">
-        <v>147.99</v>
+        <v>147.97999999999999</v>
       </c>
       <c r="AT2">
         <v>174.89</v>
@@ -6651,7 +6723,7 @@
         <v>114.85</v>
       </c>
       <c r="AW2">
-        <v>93.94</v>
+        <v>93.95</v>
       </c>
       <c r="AX2">
         <v>77.63</v>
@@ -6684,19 +6756,19 @@
         <v>142.16999999999999</v>
       </c>
       <c r="BH2">
-        <v>170.76</v>
+        <v>170.75</v>
       </c>
       <c r="BI2">
         <v>174.05</v>
       </c>
       <c r="BJ2">
-        <v>150.09</v>
+        <v>150.08000000000001</v>
       </c>
       <c r="BK2">
-        <v>121.46</v>
+        <v>121.45</v>
       </c>
       <c r="BL2">
-        <v>85.19</v>
+        <v>85.18</v>
       </c>
       <c r="BM2">
         <v>63.4</v>
@@ -6708,7 +6780,7 @@
         <v>24.88</v>
       </c>
       <c r="BP2">
-        <v>16.86</v>
+        <v>16.87</v>
       </c>
       <c r="BQ2">
         <v>8.73</v>
@@ -6717,39 +6789,42 @@
         <v>5.79</v>
       </c>
       <c r="BS2">
-        <v>5.22</v>
+        <v>5.23</v>
       </c>
       <c r="BT2">
-        <v>6.68</v>
+        <v>6.69</v>
       </c>
       <c r="BU2">
-        <v>10.91</v>
+        <v>10.93</v>
       </c>
       <c r="BV2">
-        <v>15.15</v>
+        <v>15.17</v>
       </c>
       <c r="BW2">
-        <v>18.61</v>
+        <v>18.62</v>
       </c>
       <c r="BX2">
         <v>24.52</v>
       </c>
       <c r="BY2">
-        <v>38.5</v>
+        <v>38.51</v>
       </c>
       <c r="BZ2">
-        <v>59.6</v>
+        <v>59.61</v>
       </c>
       <c r="CA2">
-        <v>79.569999999999993</v>
+        <v>79.650000000000006</v>
       </c>
       <c r="CB2">
-        <v>88.27</v>
+        <v>89.71</v>
+      </c>
+      <c r="CC2">
+        <v>85.3</v>
       </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>0.12</v>
@@ -6851,7 +6926,7 @@
         <v>53.1</v>
       </c>
       <c r="AI3">
-        <v>107.89</v>
+        <v>107.77</v>
       </c>
       <c r="AJ3">
         <v>177.63</v>
@@ -6869,7 +6944,7 @@
         <v>427.44</v>
       </c>
       <c r="AO3">
-        <v>509.33</v>
+        <v>509.45</v>
       </c>
       <c r="AP3">
         <v>656.1</v>
@@ -6878,7 +6953,7 @@
         <v>725.47</v>
       </c>
       <c r="AR3">
-        <v>635.92999999999995</v>
+        <v>636.04999999999995</v>
       </c>
       <c r="AS3">
         <v>604.83000000000004</v>
@@ -6920,7 +6995,7 @@
         <v>80.19</v>
       </c>
       <c r="BF3">
-        <v>75.94</v>
+        <v>75.819999999999993</v>
       </c>
       <c r="BG3">
         <v>86.99</v>
@@ -6938,7 +7013,7 @@
         <v>65.97</v>
       </c>
       <c r="BL3">
-        <v>49.57</v>
+        <v>49.45</v>
       </c>
       <c r="BM3">
         <v>33.78</v>
@@ -6950,7 +7025,7 @@
         <v>15.67</v>
       </c>
       <c r="BP3">
-        <v>8.14</v>
+        <v>8.02</v>
       </c>
       <c r="BQ3">
         <v>5.35</v>
@@ -6980,18 +7055,21 @@
         <v>15.67</v>
       </c>
       <c r="BZ3">
-        <v>16.89</v>
+        <v>16.77</v>
       </c>
       <c r="CA3">
-        <v>27.58</v>
+        <v>27.46</v>
       </c>
       <c r="CB3">
-        <v>40.700000000000003</v>
+        <v>41.19</v>
+      </c>
+      <c r="CC3">
+        <v>42.16</v>
       </c>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>0.38</v>
@@ -7009,7 +7087,7 @@
         <v>92.66</v>
       </c>
       <c r="G4">
-        <v>90.93</v>
+        <v>90.87</v>
       </c>
       <c r="H4">
         <v>59.09</v>
@@ -7114,10 +7192,10 @@
         <v>293.89999999999998</v>
       </c>
       <c r="AP4">
-        <v>377.73</v>
+        <v>377.8</v>
       </c>
       <c r="AQ4">
-        <v>443.28</v>
+        <v>443.34</v>
       </c>
       <c r="AR4">
         <v>372.17</v>
@@ -7138,7 +7216,7 @@
         <v>212.43</v>
       </c>
       <c r="AX4">
-        <v>164.92</v>
+        <v>164.85</v>
       </c>
       <c r="AY4">
         <v>105.51</v>
@@ -7222,18 +7300,21 @@
         <v>9.4</v>
       </c>
       <c r="BZ4">
-        <v>14.2</v>
+        <v>14.13</v>
       </c>
       <c r="CA4">
         <v>21.1</v>
       </c>
       <c r="CB4">
-        <v>27.5</v>
+        <v>28.2</v>
+      </c>
+      <c r="CC4">
+        <v>32.29</v>
       </c>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>0.36</v>
@@ -7245,13 +7326,13 @@
         <v>14.21</v>
       </c>
       <c r="E5">
-        <v>38.82</v>
+        <v>38.79</v>
       </c>
       <c r="F5">
         <v>59.68</v>
       </c>
       <c r="G5">
-        <v>52.12</v>
+        <v>52.15</v>
       </c>
       <c r="H5">
         <v>35.700000000000003</v>
@@ -7347,25 +7428,25 @@
         <v>115.23</v>
       </c>
       <c r="AM5">
-        <v>132.26</v>
+        <v>132.29</v>
       </c>
       <c r="AN5">
-        <v>144.88999999999999</v>
+        <v>144.86000000000001</v>
       </c>
       <c r="AO5">
-        <v>165.26</v>
+        <v>165.23</v>
       </c>
       <c r="AP5">
         <v>214.71</v>
       </c>
       <c r="AQ5">
-        <v>250.59</v>
+        <v>250.56</v>
       </c>
       <c r="AR5">
         <v>224.9</v>
       </c>
       <c r="AS5">
-        <v>208.42</v>
+        <v>208.45</v>
       </c>
       <c r="AT5">
         <v>232.74</v>
@@ -7437,7 +7518,7 @@
         <v>4.71</v>
       </c>
       <c r="BQ5">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="BR5">
         <v>1.21</v>
@@ -7449,7 +7530,7 @@
         <v>1.4</v>
       </c>
       <c r="BU5">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="BV5">
         <v>2.2799999999999998</v>
@@ -7464,18 +7545,21 @@
         <v>7.01</v>
       </c>
       <c r="BZ5">
-        <v>8.99</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="CA5">
         <v>14.57</v>
       </c>
       <c r="CB5">
-        <v>20.16</v>
+        <v>20.52</v>
+      </c>
+      <c r="CC5">
+        <v>24.95</v>
       </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>0.62</v>
@@ -7583,19 +7667,19 @@
         <v>68.209999999999994</v>
       </c>
       <c r="AK6">
-        <v>78.760000000000005</v>
+        <v>78.73</v>
       </c>
       <c r="AL6">
-        <v>84.69</v>
+        <v>84.67</v>
       </c>
       <c r="AM6">
         <v>87.17</v>
       </c>
       <c r="AN6">
-        <v>89.98</v>
+        <v>89.95</v>
       </c>
       <c r="AO6">
-        <v>102.26</v>
+        <v>102.29</v>
       </c>
       <c r="AP6">
         <v>129.01</v>
@@ -7616,7 +7700,7 @@
         <v>111.24</v>
       </c>
       <c r="AV6">
-        <v>87.97</v>
+        <v>87.94</v>
       </c>
       <c r="AW6">
         <v>72.62</v>
@@ -7643,7 +7727,7 @@
         <v>48.86</v>
       </c>
       <c r="BE6">
-        <v>57.27</v>
+        <v>57.32</v>
       </c>
       <c r="BF6">
         <v>56.13</v>
@@ -7709,15 +7793,18 @@
         <v>7.4</v>
       </c>
       <c r="CA6">
-        <v>10.6</v>
+        <v>10.63</v>
       </c>
       <c r="CB6">
-        <v>13.6</v>
+        <v>13.96</v>
+      </c>
+      <c r="CC6">
+        <v>15.14</v>
       </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7">
         <v>0.3</v>
@@ -7813,13 +7900,13 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="AG7">
-        <v>15.92</v>
+        <v>15.9</v>
       </c>
       <c r="AH7">
         <v>25.42</v>
       </c>
       <c r="AI7">
-        <v>49.05</v>
+        <v>49.07</v>
       </c>
       <c r="AJ7">
         <v>78.44</v>
@@ -7840,13 +7927,13 @@
         <v>94.74</v>
       </c>
       <c r="AP7">
-        <v>119.4</v>
+        <v>119.38</v>
       </c>
       <c r="AQ7">
         <v>140.28</v>
       </c>
       <c r="AR7">
-        <v>121.01</v>
+        <v>120.98</v>
       </c>
       <c r="AS7">
         <v>112.35</v>
@@ -7885,16 +7972,16 @@
         <v>64.7</v>
       </c>
       <c r="BE7">
-        <v>77.3</v>
+        <v>77.27</v>
       </c>
       <c r="BF7">
         <v>79.010000000000005</v>
       </c>
       <c r="BG7">
-        <v>85.54</v>
+        <v>85.57</v>
       </c>
       <c r="BH7">
-        <v>98.28</v>
+        <v>98.26</v>
       </c>
       <c r="BI7">
         <v>91.72</v>
@@ -7903,7 +7990,7 @@
         <v>78.36</v>
       </c>
       <c r="BK7">
-        <v>62.74</v>
+        <v>62.71</v>
       </c>
       <c r="BL7">
         <v>43.38</v>
@@ -7948,18 +8035,21 @@
         <v>8.08</v>
       </c>
       <c r="BZ7">
-        <v>10.7</v>
+        <v>10.72</v>
       </c>
       <c r="CA7">
         <v>16.77</v>
       </c>
       <c r="CB7">
-        <v>19.760000000000002</v>
+        <v>20.170000000000002</v>
+      </c>
+      <c r="CC7">
+        <v>22.02</v>
       </c>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <v>0.51</v>
@@ -8055,7 +8145,7 @@
         <v>9.26</v>
       </c>
       <c r="AG8">
-        <v>14.12</v>
+        <v>14.14</v>
       </c>
       <c r="AH8">
         <v>26.38</v>
@@ -8085,13 +8175,13 @@
         <v>106.38</v>
       </c>
       <c r="AQ8">
-        <v>130.77000000000001</v>
+        <v>130.72999999999999</v>
       </c>
       <c r="AR8">
         <v>114.88</v>
       </c>
       <c r="AS8">
-        <v>102.41</v>
+        <v>102.39</v>
       </c>
       <c r="AT8">
         <v>117.97</v>
@@ -8190,18 +8280,21 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="BZ8">
-        <v>12.22</v>
+        <v>12.16</v>
       </c>
       <c r="CA8">
         <v>16.690000000000001</v>
       </c>
       <c r="CB8">
-        <v>20.29</v>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="CC8">
+        <v>22.64</v>
       </c>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B9">
         <v>1.1200000000000001</v>
@@ -8258,7 +8351,7 @@
         <v>1.97</v>
       </c>
       <c r="T9">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U9">
         <v>1.95</v>
@@ -8321,7 +8414,7 @@
         <v>124.03</v>
       </c>
       <c r="AO9">
-        <v>135.41999999999999</v>
+        <v>135.43</v>
       </c>
       <c r="AP9">
         <v>166.86</v>
@@ -8333,7 +8426,7 @@
         <v>162.56</v>
       </c>
       <c r="AS9">
-        <v>146.29</v>
+        <v>146.27000000000001</v>
       </c>
       <c r="AT9">
         <v>164.28</v>
@@ -8342,7 +8435,7 @@
         <v>133.72</v>
       </c>
       <c r="AV9">
-        <v>110.45</v>
+        <v>110.43</v>
       </c>
       <c r="AW9">
         <v>90.69</v>
@@ -8360,16 +8453,16 @@
         <v>62.22</v>
       </c>
       <c r="BB9">
-        <v>60.54</v>
+        <v>60.55</v>
       </c>
       <c r="BC9">
         <v>72.930000000000007</v>
       </c>
       <c r="BD9">
-        <v>93.97</v>
+        <v>93.98</v>
       </c>
       <c r="BE9">
-        <v>116.31</v>
+        <v>116.33</v>
       </c>
       <c r="BF9">
         <v>113.43</v>
@@ -8381,13 +8474,13 @@
         <v>134.5</v>
       </c>
       <c r="BI9">
-        <v>137.38</v>
+        <v>137.4</v>
       </c>
       <c r="BJ9">
         <v>120.38</v>
       </c>
       <c r="BK9">
-        <v>97.93</v>
+        <v>97.91</v>
       </c>
       <c r="BL9">
         <v>66.06</v>
@@ -8420,7 +8513,7 @@
         <v>4.16</v>
       </c>
       <c r="BV9">
-        <v>5.21</v>
+        <v>5.22</v>
       </c>
       <c r="BW9">
         <v>7.03</v>
@@ -8432,18 +8525,21 @@
         <v>12.59</v>
       </c>
       <c r="BZ9">
-        <v>17.329999999999998</v>
+        <v>17.32</v>
       </c>
       <c r="CA9">
-        <v>26.24</v>
+        <v>26.28</v>
       </c>
       <c r="CB9">
-        <v>31.8</v>
+        <v>32.35</v>
+      </c>
+      <c r="CC9">
+        <v>32.79</v>
       </c>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B10">
         <v>1.1299999999999999</v>
@@ -8542,34 +8638,34 @@
         <v>27.79</v>
       </c>
       <c r="AH10">
-        <v>44.56</v>
+        <v>44.57</v>
       </c>
       <c r="AI10">
         <v>85.45</v>
       </c>
       <c r="AJ10">
-        <v>133.13999999999999</v>
+        <v>133.12</v>
       </c>
       <c r="AK10">
         <v>150.88</v>
       </c>
       <c r="AL10">
-        <v>152.76</v>
+        <v>152.75</v>
       </c>
       <c r="AM10">
-        <v>152.16999999999999</v>
+        <v>152.18</v>
       </c>
       <c r="AN10">
         <v>146.56</v>
       </c>
       <c r="AO10">
-        <v>153.99</v>
+        <v>154.01</v>
       </c>
       <c r="AP10">
-        <v>193.65</v>
+        <v>193.64</v>
       </c>
       <c r="AQ10">
-        <v>222.61</v>
+        <v>222.63</v>
       </c>
       <c r="AR10">
         <v>183.87</v>
@@ -8602,7 +8698,7 @@
         <v>71.81</v>
       </c>
       <c r="BB10">
-        <v>68.86</v>
+        <v>68.83</v>
       </c>
       <c r="BC10">
         <v>84.75</v>
@@ -8611,19 +8707,19 @@
         <v>107.82</v>
       </c>
       <c r="BE10">
-        <v>134.99</v>
+        <v>134.97999999999999</v>
       </c>
       <c r="BF10">
-        <v>132.78</v>
+        <v>132.80000000000001</v>
       </c>
       <c r="BG10">
-        <v>143.65</v>
+        <v>143.66</v>
       </c>
       <c r="BH10">
-        <v>158.28</v>
+        <v>158.27000000000001</v>
       </c>
       <c r="BI10">
-        <v>163.66</v>
+        <v>163.63</v>
       </c>
       <c r="BJ10">
         <v>147.37</v>
@@ -8635,13 +8731,13 @@
         <v>79.069999999999993</v>
       </c>
       <c r="BM10">
-        <v>53.11</v>
+        <v>53.09</v>
       </c>
       <c r="BN10">
-        <v>28.65</v>
+        <v>28.63</v>
       </c>
       <c r="BO10">
-        <v>18.670000000000002</v>
+        <v>18.66</v>
       </c>
       <c r="BP10">
         <v>11.8</v>
@@ -8656,22 +8752,22 @@
         <v>3.41</v>
       </c>
       <c r="BT10">
-        <v>3.64</v>
+        <v>3.62</v>
       </c>
       <c r="BU10">
         <v>5.45</v>
       </c>
       <c r="BV10">
-        <v>8.06</v>
+        <v>8.1</v>
       </c>
       <c r="BW10">
         <v>8.59</v>
       </c>
       <c r="BX10">
-        <v>11.67</v>
+        <v>11.68</v>
       </c>
       <c r="BY10">
-        <v>18.54</v>
+        <v>18.52</v>
       </c>
       <c r="BZ10">
         <v>26.78</v>
@@ -8680,12 +8776,15 @@
         <v>35.58</v>
       </c>
       <c r="CB10">
-        <v>39.67</v>
+        <v>40.24</v>
+      </c>
+      <c r="CC10">
+        <v>42.39</v>
       </c>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11">
         <v>1.98</v>
@@ -8694,10 +8793,10 @@
         <v>14.59</v>
       </c>
       <c r="D11">
-        <v>46.05</v>
+        <v>46.03</v>
       </c>
       <c r="E11">
-        <v>59.63</v>
+        <v>59.61</v>
       </c>
       <c r="F11">
         <v>55.12</v>
@@ -8718,7 +8817,7 @@
         <v>7.76</v>
       </c>
       <c r="L11">
-        <v>5.6</v>
+        <v>5.59</v>
       </c>
       <c r="M11">
         <v>3.74</v>
@@ -8784,10 +8883,10 @@
         <v>33.81</v>
       </c>
       <c r="AH11">
-        <v>53.34</v>
+        <v>53.32</v>
       </c>
       <c r="AI11">
-        <v>95.64</v>
+        <v>95.66</v>
       </c>
       <c r="AJ11">
         <v>145.55000000000001</v>
@@ -8796,7 +8895,7 @@
         <v>163.38</v>
       </c>
       <c r="AL11">
-        <v>163.9</v>
+        <v>163.88</v>
       </c>
       <c r="AM11">
         <v>161.6</v>
@@ -8847,13 +8946,13 @@
         <v>73.680000000000007</v>
       </c>
       <c r="BC11">
-        <v>87.97</v>
+        <v>87.98</v>
       </c>
       <c r="BD11">
-        <v>112.26</v>
+        <v>112.25</v>
       </c>
       <c r="BE11">
-        <v>139.32</v>
+        <v>139.34</v>
       </c>
       <c r="BF11">
         <v>135.97</v>
@@ -8862,25 +8961,25 @@
         <v>148.34</v>
       </c>
       <c r="BH11">
-        <v>165.58</v>
+        <v>165.6</v>
       </c>
       <c r="BI11">
         <v>173.45</v>
       </c>
       <c r="BJ11">
-        <v>151.29</v>
+        <v>151.28</v>
       </c>
       <c r="BK11">
-        <v>119.55</v>
+        <v>119.53</v>
       </c>
       <c r="BL11">
-        <v>81.53</v>
+        <v>81.52</v>
       </c>
       <c r="BM11">
         <v>56.32</v>
       </c>
       <c r="BN11">
-        <v>30.68</v>
+        <v>30.7</v>
       </c>
       <c r="BO11">
         <v>20.190000000000001</v>
@@ -8895,48 +8994,51 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="BS11">
-        <v>3.34</v>
+        <v>3.35</v>
       </c>
       <c r="BT11">
-        <v>4.26</v>
+        <v>4.29</v>
       </c>
       <c r="BU11">
-        <v>6.74</v>
+        <v>6.75</v>
       </c>
       <c r="BV11">
         <v>9.27</v>
       </c>
       <c r="BW11">
-        <v>12.21</v>
+        <v>12.22</v>
       </c>
       <c r="BX11">
-        <v>14.49</v>
+        <v>14.5</v>
       </c>
       <c r="BY11">
-        <v>24.4</v>
+        <v>24.43</v>
       </c>
       <c r="BZ11">
-        <v>37.69</v>
+        <v>37.72</v>
       </c>
       <c r="CA11">
-        <v>49.52</v>
+        <v>49.49</v>
       </c>
       <c r="CB11">
-        <v>54.44</v>
+        <v>55.5</v>
+      </c>
+      <c r="CC11">
+        <v>54.39</v>
       </c>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B12">
         <v>1.88</v>
       </c>
       <c r="C12">
-        <v>14.17</v>
+        <v>14.18</v>
       </c>
       <c r="D12">
-        <v>39.770000000000003</v>
+        <v>39.78</v>
       </c>
       <c r="E12">
         <v>55.28</v>
@@ -8948,7 +9050,7 @@
         <v>36.31</v>
       </c>
       <c r="H12">
-        <v>22.22</v>
+        <v>22.24</v>
       </c>
       <c r="I12">
         <v>14.91</v>
@@ -9032,7 +9134,7 @@
         <v>110.37</v>
       </c>
       <c r="AJ12">
-        <v>159.19999999999999</v>
+        <v>159.22</v>
       </c>
       <c r="AK12">
         <v>179.7</v>
@@ -9047,13 +9149,13 @@
         <v>171.79</v>
       </c>
       <c r="AO12">
-        <v>175.11</v>
+        <v>175.13</v>
       </c>
       <c r="AP12">
         <v>210.36</v>
       </c>
       <c r="AQ12">
-        <v>235.88</v>
+        <v>235.94</v>
       </c>
       <c r="AR12">
         <v>184.7</v>
@@ -9071,7 +9173,7 @@
         <v>123.05</v>
       </c>
       <c r="AW12">
-        <v>100.58</v>
+        <v>100.6</v>
       </c>
       <c r="AX12">
         <v>85.18</v>
@@ -9089,25 +9191,25 @@
         <v>81.33</v>
       </c>
       <c r="BC12">
-        <v>98.32</v>
+        <v>98.34</v>
       </c>
       <c r="BD12">
-        <v>123.58</v>
+        <v>123.6</v>
       </c>
       <c r="BE12">
-        <v>154.65</v>
+        <v>154.69999999999999</v>
       </c>
       <c r="BF12">
-        <v>151.55000000000001</v>
+        <v>151.57</v>
       </c>
       <c r="BG12">
-        <v>166.29</v>
+        <v>166.31</v>
       </c>
       <c r="BH12">
-        <v>192.76</v>
+        <v>192.78</v>
       </c>
       <c r="BI12">
-        <v>202.45</v>
+        <v>202.39</v>
       </c>
       <c r="BJ12">
         <v>171.11</v>
@@ -9116,7 +9218,7 @@
         <v>141.11000000000001</v>
       </c>
       <c r="BL12">
-        <v>96.45</v>
+        <v>96.43</v>
       </c>
       <c r="BM12">
         <v>68.06</v>
@@ -9131,22 +9233,22 @@
         <v>16.54</v>
       </c>
       <c r="BQ12">
-        <v>8.91</v>
+        <v>8.93</v>
       </c>
       <c r="BR12">
         <v>5.2</v>
       </c>
       <c r="BS12">
-        <v>4.8899999999999997</v>
+        <v>4.91</v>
       </c>
       <c r="BT12">
         <v>6.31</v>
       </c>
       <c r="BU12">
-        <v>8.25</v>
+        <v>8.27</v>
       </c>
       <c r="BV12">
-        <v>13.03</v>
+        <v>13.05</v>
       </c>
       <c r="BW12">
         <v>17.28</v>
@@ -9158,24 +9260,27 @@
         <v>36.92</v>
       </c>
       <c r="BZ12">
-        <v>58.65</v>
+        <v>58.67</v>
       </c>
       <c r="CA12">
-        <v>77.84</v>
+        <v>77.94</v>
       </c>
       <c r="CB12">
-        <v>85.69</v>
+        <v>87.61</v>
+      </c>
+      <c r="CC12">
+        <v>85.2</v>
       </c>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B13">
         <v>1.73</v>
       </c>
       <c r="C13">
-        <v>11.55</v>
+        <v>11.53</v>
       </c>
       <c r="D13">
         <v>36.630000000000003</v>
@@ -9202,7 +9307,7 @@
         <v>8.23</v>
       </c>
       <c r="L13">
-        <v>7.31</v>
+        <v>7.29</v>
       </c>
       <c r="M13">
         <v>4.95</v>
@@ -9274,31 +9379,31 @@
         <v>108.11</v>
       </c>
       <c r="AJ13">
-        <v>160.6</v>
+        <v>160.56</v>
       </c>
       <c r="AK13">
         <v>180.83</v>
       </c>
       <c r="AL13">
-        <v>183.21</v>
+        <v>183.19</v>
       </c>
       <c r="AM13">
-        <v>188.16</v>
+        <v>188.18</v>
       </c>
       <c r="AN13">
+        <v>179.42</v>
+      </c>
+      <c r="AO13">
         <v>179.44</v>
-      </c>
-      <c r="AO13">
-        <v>179.49</v>
       </c>
       <c r="AP13">
         <v>222.1</v>
       </c>
       <c r="AQ13">
-        <v>244.28</v>
+        <v>244.18</v>
       </c>
       <c r="AR13">
-        <v>193.75</v>
+        <v>193.77</v>
       </c>
       <c r="AS13">
         <v>163.54</v>
@@ -9313,7 +9418,7 @@
         <v>126.89</v>
       </c>
       <c r="AW13">
-        <v>104.28</v>
+        <v>104.3</v>
       </c>
       <c r="AX13">
         <v>87.1</v>
@@ -9325,31 +9430,31 @@
         <v>73.17</v>
       </c>
       <c r="BA13">
-        <v>84.27</v>
+        <v>84.25</v>
       </c>
       <c r="BB13">
-        <v>87.02</v>
+        <v>87.04</v>
       </c>
       <c r="BC13">
-        <v>108.78</v>
+        <v>108.8</v>
       </c>
       <c r="BD13">
-        <v>142.19</v>
+        <v>142.22999999999999</v>
       </c>
       <c r="BE13">
-        <v>185.09</v>
+        <v>185.05</v>
       </c>
       <c r="BF13">
-        <v>169.61</v>
+        <v>169.59</v>
       </c>
       <c r="BG13">
-        <v>189.02</v>
+        <v>189</v>
       </c>
       <c r="BH13">
-        <v>218.48</v>
+        <v>218.45</v>
       </c>
       <c r="BI13">
-        <v>220.47</v>
+        <v>220.49</v>
       </c>
       <c r="BJ13">
         <v>195.13</v>
@@ -9358,7 +9463,7 @@
         <v>157.4</v>
       </c>
       <c r="BL13">
-        <v>108.62</v>
+        <v>108.64</v>
       </c>
       <c r="BM13">
         <v>81.2</v>
@@ -9379,10 +9484,10 @@
         <v>7.21</v>
       </c>
       <c r="BS13">
-        <v>5.48</v>
+        <v>5.5</v>
       </c>
       <c r="BT13">
-        <v>6.99</v>
+        <v>7.01</v>
       </c>
       <c r="BU13">
         <v>10.29</v>
@@ -9397,21 +9502,24 @@
         <v>29.39</v>
       </c>
       <c r="BY13">
-        <v>47.81</v>
+        <v>47.85</v>
       </c>
       <c r="BZ13">
-        <v>76.489999999999995</v>
+        <v>76.47</v>
       </c>
       <c r="CA13">
-        <v>105.23</v>
+        <v>105.42</v>
       </c>
       <c r="CB13">
-        <v>113.79</v>
+        <v>115.79</v>
+      </c>
+      <c r="CC13">
+        <v>109.21</v>
       </c>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B14">
         <v>1.27</v>
@@ -9507,7 +9615,7 @@
         <v>21.8</v>
       </c>
       <c r="AG14">
-        <v>34.450000000000003</v>
+        <v>34.47</v>
       </c>
       <c r="AH14">
         <v>58.57</v>
@@ -9516,7 +9624,7 @@
         <v>101.83</v>
       </c>
       <c r="AJ14">
-        <v>152.80000000000001</v>
+        <v>152.82</v>
       </c>
       <c r="AK14">
         <v>169.33</v>
@@ -9525,46 +9633,46 @@
         <v>173.73</v>
       </c>
       <c r="AM14">
-        <v>173.83</v>
+        <v>173.84</v>
       </c>
       <c r="AN14">
         <v>164.77</v>
       </c>
       <c r="AO14">
-        <v>172.8</v>
+        <v>172.77</v>
       </c>
       <c r="AP14">
-        <v>207.84</v>
+        <v>207.82</v>
       </c>
       <c r="AQ14">
-        <v>231.21</v>
+        <v>231.17</v>
       </c>
       <c r="AR14">
-        <v>180.05</v>
+        <v>180.06</v>
       </c>
       <c r="AS14">
         <v>152.76</v>
       </c>
       <c r="AT14">
-        <v>191.82</v>
+        <v>191.84</v>
       </c>
       <c r="AU14">
         <v>151.4</v>
       </c>
       <c r="AV14">
-        <v>119.92</v>
+        <v>119.9</v>
       </c>
       <c r="AW14">
-        <v>98.2</v>
+        <v>98.24</v>
       </c>
       <c r="AX14">
         <v>84.32</v>
       </c>
       <c r="AY14">
-        <v>67.95</v>
+        <v>67.97</v>
       </c>
       <c r="AZ14">
-        <v>70.14</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="BA14">
         <v>79.05</v>
@@ -9573,25 +9681,25 @@
         <v>86.52</v>
       </c>
       <c r="BC14">
-        <v>108.9</v>
+        <v>108.88</v>
       </c>
       <c r="BD14">
-        <v>143.46</v>
+        <v>143.44</v>
       </c>
       <c r="BE14">
         <v>178.84</v>
       </c>
       <c r="BF14">
-        <v>169.89</v>
+        <v>169.91</v>
       </c>
       <c r="BG14">
         <v>179.29</v>
       </c>
       <c r="BH14">
-        <v>212.96</v>
+        <v>212.98</v>
       </c>
       <c r="BI14">
-        <v>213.15</v>
+        <v>213.13</v>
       </c>
       <c r="BJ14">
         <v>189.63</v>
@@ -9600,13 +9708,13 @@
         <v>150.65</v>
       </c>
       <c r="BL14">
-        <v>106.41</v>
+        <v>106.39</v>
       </c>
       <c r="BM14">
         <v>79.84</v>
       </c>
       <c r="BN14">
-        <v>45.68</v>
+        <v>45.66</v>
       </c>
       <c r="BO14">
         <v>31.99</v>
@@ -9633,27 +9741,30 @@
         <v>17.13</v>
       </c>
       <c r="BW14">
-        <v>22.01</v>
+        <v>22.04</v>
       </c>
       <c r="BX14">
-        <v>30.16</v>
+        <v>30.1</v>
       </c>
       <c r="BY14">
-        <v>46.19</v>
+        <v>46.21</v>
       </c>
       <c r="BZ14">
-        <v>71.14</v>
+        <v>71.16</v>
       </c>
       <c r="CA14">
-        <v>99.43</v>
+        <v>99.5</v>
       </c>
       <c r="CB14">
-        <v>111.04</v>
+        <v>113.21</v>
+      </c>
+      <c r="CC14">
+        <v>108.56</v>
       </c>
     </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B15">
         <v>1.26</v>
@@ -9725,7 +9836,7 @@
         <v>9.3699999999999992</v>
       </c>
       <c r="Y15">
-        <v>12.86</v>
+        <v>12.88</v>
       </c>
       <c r="Z15">
         <v>17.2</v>
@@ -9737,7 +9848,7 @@
         <v>17.05</v>
       </c>
       <c r="AC15">
-        <v>17.07</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="AD15">
         <v>21.96</v>
@@ -9752,10 +9863,10 @@
         <v>42.92</v>
       </c>
       <c r="AH15">
-        <v>70.25</v>
+        <v>70.22</v>
       </c>
       <c r="AI15">
-        <v>122.2</v>
+        <v>122.22</v>
       </c>
       <c r="AJ15">
         <v>174.23</v>
@@ -9764,22 +9875,22 @@
         <v>190.6</v>
       </c>
       <c r="AL15">
-        <v>190.69</v>
+        <v>190.66</v>
       </c>
       <c r="AM15">
         <v>183.45</v>
       </c>
       <c r="AN15">
-        <v>170.41</v>
+        <v>170.44</v>
       </c>
       <c r="AO15">
-        <v>172.33</v>
+        <v>172.3</v>
       </c>
       <c r="AP15">
         <v>209.54</v>
       </c>
       <c r="AQ15">
-        <v>237.06</v>
+        <v>237.02</v>
       </c>
       <c r="AR15">
         <v>182.72</v>
@@ -9791,13 +9902,13 @@
         <v>211.11</v>
       </c>
       <c r="AU15">
-        <v>164.62</v>
+        <v>164.64</v>
       </c>
       <c r="AV15">
         <v>127.74</v>
       </c>
       <c r="AW15">
-        <v>104.86</v>
+        <v>104.9</v>
       </c>
       <c r="AX15">
         <v>89.29</v>
@@ -9821,7 +9932,7 @@
         <v>143.66</v>
       </c>
       <c r="BE15">
-        <v>179.56</v>
+        <v>179.58</v>
       </c>
       <c r="BF15">
         <v>173.08</v>
@@ -9833,16 +9944,16 @@
         <v>218.5</v>
       </c>
       <c r="BI15">
-        <v>215.73</v>
+        <v>215.71</v>
       </c>
       <c r="BJ15">
-        <v>190.24</v>
+        <v>190.22</v>
       </c>
       <c r="BK15">
-        <v>150.61000000000001</v>
+        <v>150.59</v>
       </c>
       <c r="BL15">
-        <v>106.85</v>
+        <v>106.83</v>
       </c>
       <c r="BM15">
         <v>82.66</v>
@@ -9851,7 +9962,7 @@
         <v>49.98</v>
       </c>
       <c r="BO15">
-        <v>31.92</v>
+        <v>31.9</v>
       </c>
       <c r="BP15">
         <v>21.54</v>
@@ -9869,33 +9980,36 @@
         <v>10.57</v>
       </c>
       <c r="BU15">
-        <v>15.74</v>
+        <v>15.79</v>
       </c>
       <c r="BV15">
-        <v>23.78</v>
+        <v>23.76</v>
       </c>
       <c r="BW15">
         <v>27.57</v>
       </c>
       <c r="BX15">
-        <v>37.74</v>
+        <v>37.72</v>
       </c>
       <c r="BY15">
-        <v>55.42</v>
+        <v>55.44</v>
       </c>
       <c r="BZ15">
-        <v>79.680000000000007</v>
+        <v>79.72</v>
       </c>
       <c r="CA15">
-        <v>108.56</v>
+        <v>108.65</v>
       </c>
       <c r="CB15">
-        <v>117.46</v>
+        <v>119.71</v>
+      </c>
+      <c r="CC15">
+        <v>112.54</v>
       </c>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16">
         <v>1.5</v>
@@ -9919,7 +10033,7 @@
         <v>25.38</v>
       </c>
       <c r="I16">
-        <v>19.63</v>
+        <v>19.61</v>
       </c>
       <c r="J16">
         <v>13.42</v>
@@ -9928,7 +10042,7 @@
         <v>10.29</v>
       </c>
       <c r="L16">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="M16">
         <v>6.8</v>
@@ -9994,13 +10108,13 @@
         <v>52.89</v>
       </c>
       <c r="AH16">
-        <v>88.17</v>
+        <v>88.21</v>
       </c>
       <c r="AI16">
-        <v>144.22999999999999</v>
+        <v>144.21</v>
       </c>
       <c r="AJ16">
-        <v>203.8</v>
+        <v>203.78</v>
       </c>
       <c r="AK16">
         <v>219.73</v>
@@ -10012,13 +10126,13 @@
         <v>195.51</v>
       </c>
       <c r="AN16">
-        <v>177.32</v>
+        <v>177.3</v>
       </c>
       <c r="AO16">
-        <v>180.27</v>
+        <v>180.26</v>
       </c>
       <c r="AP16">
-        <v>212.48</v>
+        <v>212.44</v>
       </c>
       <c r="AQ16">
         <v>238.55</v>
@@ -10030,7 +10144,7 @@
         <v>165.99</v>
       </c>
       <c r="AT16">
-        <v>212.4</v>
+        <v>212.42</v>
       </c>
       <c r="AU16">
         <v>168.21</v>
@@ -10057,37 +10171,37 @@
         <v>84.07</v>
       </c>
       <c r="BC16">
-        <v>107.66</v>
+        <v>107.68</v>
       </c>
       <c r="BD16">
-        <v>138.13999999999999</v>
+        <v>138.19999999999999</v>
       </c>
       <c r="BE16">
-        <v>165.5</v>
+        <v>165.51</v>
       </c>
       <c r="BF16">
         <v>165.08</v>
       </c>
       <c r="BG16">
-        <v>181.5</v>
+        <v>181.48</v>
       </c>
       <c r="BH16">
         <v>214.8</v>
       </c>
       <c r="BI16">
-        <v>212.59</v>
+        <v>212.63</v>
       </c>
       <c r="BJ16">
-        <v>181.6</v>
+        <v>181.58</v>
       </c>
       <c r="BK16">
-        <v>146.94999999999999</v>
+        <v>146.97</v>
       </c>
       <c r="BL16">
-        <v>102.14</v>
+        <v>102.06</v>
       </c>
       <c r="BM16">
-        <v>77.8</v>
+        <v>77.819999999999993</v>
       </c>
       <c r="BN16">
         <v>48.38</v>
@@ -10096,7 +10210,7 @@
         <v>31.55</v>
       </c>
       <c r="BP16">
-        <v>21.82</v>
+        <v>21.83</v>
       </c>
       <c r="BQ16">
         <v>12.2</v>
@@ -10108,36 +10222,39 @@
         <v>9.7200000000000006</v>
       </c>
       <c r="BT16">
-        <v>15.51</v>
+        <v>15.55</v>
       </c>
       <c r="BU16">
-        <v>26.09</v>
+        <v>26.13</v>
       </c>
       <c r="BV16">
         <v>34.15</v>
       </c>
       <c r="BW16">
-        <v>38.47</v>
+        <v>38.49</v>
       </c>
       <c r="BX16">
-        <v>47.33</v>
+        <v>47.37</v>
       </c>
       <c r="BY16">
-        <v>70.81</v>
+        <v>70.790000000000006</v>
       </c>
       <c r="BZ16">
-        <v>98.97</v>
+        <v>99.03</v>
       </c>
       <c r="CA16">
-        <v>124.47</v>
+        <v>124.6</v>
       </c>
       <c r="CB16">
-        <v>121.83</v>
+        <v>124.03</v>
+      </c>
+      <c r="CC16">
+        <v>117.75</v>
       </c>
     </row>
-    <row r="17" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B17">
         <v>1.52</v>
@@ -10149,7 +10266,7 @@
         <v>31.36</v>
       </c>
       <c r="E17">
-        <v>49.24</v>
+        <v>49.21</v>
       </c>
       <c r="F17">
         <v>48.63</v>
@@ -10209,13 +10326,13 @@
         <v>16.190000000000001</v>
       </c>
       <c r="Y17">
-        <v>25.19</v>
+        <v>25.17</v>
       </c>
       <c r="Z17">
         <v>33.53</v>
       </c>
       <c r="AA17">
-        <v>28.82</v>
+        <v>28.84</v>
       </c>
       <c r="AB17">
         <v>27.06</v>
@@ -10230,7 +10347,7 @@
         <v>34.369999999999997</v>
       </c>
       <c r="AF17">
-        <v>37.67</v>
+        <v>37.65</v>
       </c>
       <c r="AG17">
         <v>60.56</v>
@@ -10239,7 +10356,7 @@
         <v>95.11</v>
       </c>
       <c r="AI17">
-        <v>164.16</v>
+        <v>164.13</v>
       </c>
       <c r="AJ17">
         <v>225.87</v>
@@ -10248,16 +10365,16 @@
         <v>254.62</v>
       </c>
       <c r="AL17">
-        <v>239.21</v>
+        <v>239.19</v>
       </c>
       <c r="AM17">
-        <v>221.29</v>
+        <v>221.27</v>
       </c>
       <c r="AN17">
         <v>193.95</v>
       </c>
       <c r="AO17">
-        <v>199.05</v>
+        <v>199.07</v>
       </c>
       <c r="AP17">
         <v>234.05</v>
@@ -10272,10 +10389,10 @@
         <v>186.33</v>
       </c>
       <c r="AT17">
-        <v>236.31</v>
+        <v>236.33</v>
       </c>
       <c r="AU17">
-        <v>185.18</v>
+        <v>185.2</v>
       </c>
       <c r="AV17">
         <v>139.61000000000001</v>
@@ -10302,28 +10419,28 @@
         <v>117.63</v>
       </c>
       <c r="BD17">
-        <v>149.75</v>
+        <v>149.77000000000001</v>
       </c>
       <c r="BE17">
         <v>185.62</v>
       </c>
       <c r="BF17">
-        <v>184.6</v>
+        <v>184.57</v>
       </c>
       <c r="BG17">
-        <v>212.55</v>
+        <v>212.57</v>
       </c>
       <c r="BH17">
         <v>250.52</v>
       </c>
       <c r="BI17">
-        <v>244.62</v>
+        <v>244.55</v>
       </c>
       <c r="BJ17">
         <v>208.94</v>
       </c>
       <c r="BK17">
-        <v>170.1</v>
+        <v>170.04</v>
       </c>
       <c r="BL17">
         <v>121.23</v>
@@ -10350,13 +10467,13 @@
         <v>12.02</v>
       </c>
       <c r="BT17">
-        <v>19.16</v>
+        <v>19.18</v>
       </c>
       <c r="BU17">
-        <v>32.700000000000003</v>
+        <v>32.72</v>
       </c>
       <c r="BV17">
-        <v>45.31</v>
+        <v>45.35</v>
       </c>
       <c r="BW17">
         <v>50.49</v>
@@ -10365,21 +10482,24 @@
         <v>60.54</v>
       </c>
       <c r="BY17">
-        <v>95.98</v>
+        <v>96.06</v>
       </c>
       <c r="BZ17">
         <v>125.44</v>
       </c>
       <c r="CA17">
-        <v>148.94</v>
+        <v>149.25</v>
       </c>
       <c r="CB17">
-        <v>145.6</v>
+        <v>148.12</v>
+      </c>
+      <c r="CC17">
+        <v>133.47</v>
       </c>
     </row>
-    <row r="18" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B18">
         <v>1.0900000000000001</v>
@@ -10391,7 +10511,7 @@
         <v>13.63</v>
       </c>
       <c r="E18">
-        <v>23.76</v>
+        <v>23.74</v>
       </c>
       <c r="F18">
         <v>27.26</v>
@@ -10400,7 +10520,7 @@
         <v>21.76</v>
       </c>
       <c r="H18">
-        <v>14.5</v>
+        <v>14.47</v>
       </c>
       <c r="I18">
         <v>10.210000000000001</v>
@@ -10412,7 +10532,7 @@
         <v>6.6</v>
       </c>
       <c r="L18">
-        <v>4.6500000000000004</v>
+        <v>4.67</v>
       </c>
       <c r="M18">
         <v>3.86</v>
@@ -10472,7 +10592,7 @@
         <v>26.53</v>
       </c>
       <c r="AF18">
-        <v>33.76</v>
+        <v>33.79</v>
       </c>
       <c r="AG18">
         <v>52.52</v>
@@ -10481,10 +10601,10 @@
         <v>75.12</v>
       </c>
       <c r="AI18">
-        <v>123.37</v>
+        <v>123.4</v>
       </c>
       <c r="AJ18">
-        <v>182.52</v>
+        <v>182.5</v>
       </c>
       <c r="AK18">
         <v>213.52</v>
@@ -10511,7 +10631,7 @@
         <v>149.01</v>
       </c>
       <c r="AS18">
-        <v>125.79</v>
+        <v>125.76</v>
       </c>
       <c r="AT18">
         <v>161.96</v>
@@ -10526,7 +10646,7 @@
         <v>88.11</v>
       </c>
       <c r="AX18">
-        <v>74.08</v>
+        <v>74.05</v>
       </c>
       <c r="AY18">
         <v>60.39</v>
@@ -10538,7 +10658,7 @@
         <v>77.959999999999994</v>
       </c>
       <c r="BB18">
-        <v>81.540000000000006</v>
+        <v>81.56</v>
       </c>
       <c r="BC18">
         <v>104.23</v>
@@ -10547,22 +10667,22 @@
         <v>140.56</v>
       </c>
       <c r="BE18">
-        <v>182.42</v>
+        <v>182.45</v>
       </c>
       <c r="BF18">
-        <v>167.77</v>
+        <v>167.75</v>
       </c>
       <c r="BG18">
         <v>191.59</v>
       </c>
       <c r="BH18">
-        <v>274.47000000000003</v>
+        <v>274.42</v>
       </c>
       <c r="BI18">
-        <v>262.49</v>
+        <v>262.54000000000002</v>
       </c>
       <c r="BJ18">
-        <v>219.86</v>
+        <v>219.84</v>
       </c>
       <c r="BK18">
         <v>178.97</v>
@@ -10577,16 +10697,16 @@
         <v>56.84</v>
       </c>
       <c r="BO18">
-        <v>43.79</v>
+        <v>43.82</v>
       </c>
       <c r="BP18">
-        <v>31.17</v>
+        <v>31.2</v>
       </c>
       <c r="BQ18">
         <v>17.260000000000002</v>
       </c>
       <c r="BR18">
-        <v>11.17</v>
+        <v>11.22</v>
       </c>
       <c r="BS18">
         <v>10.48</v>
@@ -10595,33 +10715,36 @@
         <v>14.72</v>
       </c>
       <c r="BU18">
-        <v>32.65</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="BV18">
-        <v>40.9</v>
+        <v>40.92</v>
       </c>
       <c r="BW18">
         <v>46.68</v>
       </c>
       <c r="BX18">
-        <v>60.11</v>
+        <v>60.16</v>
       </c>
       <c r="BY18">
-        <v>88.85</v>
+        <v>88.87</v>
       </c>
       <c r="BZ18">
-        <v>141.4</v>
+        <v>141.52000000000001</v>
       </c>
       <c r="CA18">
-        <v>176.58</v>
+        <v>176.63</v>
       </c>
       <c r="CB18">
-        <v>194.71</v>
+        <v>197.4</v>
+      </c>
+      <c r="CC18">
+        <v>171.73</v>
       </c>
     </row>
-    <row r="19" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B19">
         <v>0.51</v>
@@ -10744,7 +10867,7 @@
         <v>139.19</v>
       </c>
       <c r="AP19">
-        <v>153.63999999999999</v>
+        <v>153.66</v>
       </c>
       <c r="AQ19">
         <v>142.69999999999999</v>
@@ -10756,7 +10879,7 @@
         <v>71.62</v>
       </c>
       <c r="AT19">
-        <v>89.96</v>
+        <v>89.93</v>
       </c>
       <c r="AU19">
         <v>73.37</v>
@@ -10786,10 +10909,10 @@
         <v>77.45</v>
       </c>
       <c r="BD19">
-        <v>112.83</v>
+        <v>112.88</v>
       </c>
       <c r="BE19">
-        <v>154.82</v>
+        <v>154.77000000000001</v>
       </c>
       <c r="BF19">
         <v>130.97999999999999</v>
@@ -10801,19 +10924,19 @@
         <v>206.81</v>
       </c>
       <c r="BI19">
-        <v>235.79</v>
+        <v>235.81</v>
       </c>
       <c r="BJ19">
-        <v>193.58</v>
+        <v>193.55</v>
       </c>
       <c r="BK19">
-        <v>165.49</v>
+        <v>165.46</v>
       </c>
       <c r="BL19">
         <v>123.44</v>
       </c>
       <c r="BM19">
-        <v>101.6</v>
+        <v>101.62</v>
       </c>
       <c r="BN19">
         <v>58.49</v>
@@ -10822,7 +10945,7 @@
         <v>42.67</v>
       </c>
       <c r="BP19">
-        <v>35.57</v>
+        <v>35.590000000000003</v>
       </c>
       <c r="BQ19">
         <v>17.899999999999999</v>
@@ -10837,33 +10960,36 @@
         <v>7.97</v>
       </c>
       <c r="BU19">
-        <v>14.34</v>
+        <v>14.39</v>
       </c>
       <c r="BV19">
-        <v>20.98</v>
+        <v>21.04</v>
       </c>
       <c r="BW19">
-        <v>26.92</v>
+        <v>26.87</v>
       </c>
       <c r="BX19">
-        <v>40.159999999999997</v>
+        <v>40.18</v>
       </c>
       <c r="BY19">
-        <v>70.19</v>
+        <v>70.3</v>
       </c>
       <c r="BZ19">
-        <v>144.56</v>
+        <v>144.63999999999999</v>
       </c>
       <c r="CA19">
-        <v>186.34</v>
+        <v>186.77</v>
       </c>
       <c r="CB19">
-        <v>223.26</v>
+        <v>226.5</v>
+      </c>
+      <c r="CC19">
+        <v>206.89</v>
       </c>
     </row>
-    <row r="20" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B20">
         <v>0.27</v>
@@ -10986,7 +11112,7 @@
         <v>98.79</v>
       </c>
       <c r="AP20">
-        <v>114.22</v>
+        <v>114.28</v>
       </c>
       <c r="AQ20">
         <v>115.4</v>
@@ -10998,7 +11124,7 @@
         <v>52.16</v>
       </c>
       <c r="AT20">
-        <v>64.180000000000007</v>
+        <v>64.23</v>
       </c>
       <c r="AU20">
         <v>58.87</v>
@@ -11046,16 +11172,16 @@
         <v>225.73</v>
       </c>
       <c r="BJ20">
-        <v>184.49</v>
+        <v>184.47</v>
       </c>
       <c r="BK20">
-        <v>149.34</v>
+        <v>149.32</v>
       </c>
       <c r="BL20">
-        <v>110.44</v>
+        <v>110.47</v>
       </c>
       <c r="BM20">
-        <v>91.55</v>
+        <v>91.52</v>
       </c>
       <c r="BN20">
         <v>50.36</v>
@@ -11064,7 +11190,7 @@
         <v>40.92</v>
       </c>
       <c r="BP20">
-        <v>30.67</v>
+        <v>30.64</v>
       </c>
       <c r="BQ20">
         <v>15.21</v>
@@ -11079,33 +11205,36 @@
         <v>5.58</v>
       </c>
       <c r="BU20">
-        <v>8.61</v>
+        <v>8.64</v>
       </c>
       <c r="BV20">
-        <v>12.77</v>
+        <v>12.83</v>
       </c>
       <c r="BW20">
-        <v>19.43</v>
+        <v>19.45</v>
       </c>
       <c r="BX20">
-        <v>31.07</v>
+        <v>30.99</v>
       </c>
       <c r="BY20">
-        <v>49.5</v>
+        <v>49.48</v>
       </c>
       <c r="BZ20">
-        <v>99.76</v>
+        <v>99.84</v>
       </c>
       <c r="CA20">
-        <v>149.5</v>
+        <v>149.83000000000001</v>
       </c>
       <c r="CB20">
-        <v>185.57</v>
+        <v>187.95</v>
+      </c>
+      <c r="CC20">
+        <v>175.48</v>
       </c>
     </row>
-    <row r="21" spans="1:80" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B21">
         <v>0.23</v>
@@ -11183,7 +11312,7 @@
         <v>7.17</v>
       </c>
       <c r="AA21">
-        <v>5.63</v>
+        <v>5.6</v>
       </c>
       <c r="AB21">
         <v>5.73</v>
@@ -11228,7 +11357,7 @@
         <v>58.09</v>
       </c>
       <c r="AP21">
-        <v>67.05</v>
+        <v>67.02</v>
       </c>
       <c r="AQ21">
         <v>78.099999999999994</v>
@@ -11261,7 +11390,7 @@
         <v>34.71</v>
       </c>
       <c r="BA21">
-        <v>47.56</v>
+        <v>47.58</v>
       </c>
       <c r="BB21">
         <v>59.85</v>
@@ -11291,7 +11420,7 @@
         <v>127.71</v>
       </c>
       <c r="BK21">
-        <v>103.85</v>
+        <v>103.88</v>
       </c>
       <c r="BL21">
         <v>74.92</v>
@@ -11300,7 +11429,7 @@
         <v>58.01</v>
       </c>
       <c r="BN21">
-        <v>35.72</v>
+        <v>35.69</v>
       </c>
       <c r="BO21">
         <v>25.8</v>
@@ -11330,23 +11459,26 @@
         <v>13.18</v>
       </c>
       <c r="BX21">
-        <v>19.16</v>
+        <v>19.13</v>
       </c>
       <c r="BY21">
         <v>31.1</v>
       </c>
       <c r="BZ21">
-        <v>47.16</v>
+        <v>47.1</v>
       </c>
       <c r="CA21">
-        <v>74.52</v>
+        <v>74.72</v>
       </c>
       <c r="CB21">
-        <v>85.48</v>
+        <v>86.26</v>
+      </c>
+      <c r="CC21">
+        <v>88.05</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/source/Altersverteilung.xlsx
+++ b/data/source/Altersverteilung.xlsx
@@ -2,21 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FB2FC3-45A0-4269-A8F3-33831CB8F693}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2021-09-23\Tabellen_Webmaster\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36AD881-3F4D-4CEA-B387-9FC92BBE583D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6348" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9825" activeTab="1" xr2:uid="{0A5F7A2D-4743-415B-B3EC-F2DEA92D6E96}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallzahlen" sheetId="1" r:id="rId1"/>
     <sheet name="7-Tages-Inzidenz" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="102">
   <si>
     <t>Altersgruppe</t>
   </si>
@@ -261,6 +271,9 @@
     <t>2021_36</t>
   </si>
   <si>
+    <t>2021_37</t>
+  </si>
+  <si>
     <t>Gesamt</t>
   </si>
   <si>
@@ -320,15 +333,12 @@
   <si>
     <t>5 - 9</t>
   </si>
-  <si>
-    <t>10 -  14</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,316 +346,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -653,205 +363,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1162,16 +683,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CC21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81823DD6-84E4-4A03-B1B6-D5D078A1B848}">
+  <dimension ref="A1:CD21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1415,37 +936,40 @@
       <c r="CC1" t="s">
         <v>80</v>
       </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C2">
-        <v>6432</v>
+        <v>6433</v>
       </c>
       <c r="D2">
         <v>22389</v>
       </c>
       <c r="E2">
-        <v>33966</v>
+        <v>33965</v>
       </c>
       <c r="F2">
-        <v>36047</v>
+        <v>36048</v>
       </c>
       <c r="G2">
-        <v>27135</v>
+        <v>27136</v>
       </c>
       <c r="H2">
-        <v>17331</v>
+        <v>17330</v>
       </c>
       <c r="I2">
         <v>12343</v>
       </c>
       <c r="J2">
-        <v>7428</v>
+        <v>7427</v>
       </c>
       <c r="K2">
         <v>6236</v>
@@ -1487,16 +1011,16 @@
         <v>4833</v>
       </c>
       <c r="X2">
-        <v>6056</v>
+        <v>6057</v>
       </c>
       <c r="Y2">
-        <v>7950</v>
+        <v>7949</v>
       </c>
       <c r="Z2">
         <v>9596</v>
       </c>
       <c r="AA2">
-        <v>8829</v>
+        <v>8830</v>
       </c>
       <c r="AB2">
         <v>8615</v>
@@ -1505,165 +1029,168 @@
         <v>9761</v>
       </c>
       <c r="AD2">
-        <v>12291</v>
+        <v>12292</v>
       </c>
       <c r="AE2">
-        <v>13057</v>
+        <v>13059</v>
       </c>
       <c r="AF2">
-        <v>15921</v>
+        <v>15922</v>
       </c>
       <c r="AG2">
         <v>26109</v>
       </c>
       <c r="AH2">
-        <v>42060</v>
+        <v>42063</v>
       </c>
       <c r="AI2">
-        <v>74858</v>
+        <v>74873</v>
       </c>
       <c r="AJ2">
-        <v>111005</v>
+        <v>111008</v>
       </c>
       <c r="AK2">
         <v>125727</v>
       </c>
       <c r="AL2">
-        <v>127756</v>
+        <v>127770</v>
       </c>
       <c r="AM2">
-        <v>128358</v>
+        <v>128363</v>
       </c>
       <c r="AN2">
-        <v>123181</v>
+        <v>123170</v>
       </c>
       <c r="AO2">
-        <v>128350</v>
+        <v>128346</v>
       </c>
       <c r="AP2">
         <v>156286</v>
       </c>
       <c r="AQ2">
-        <v>174706</v>
+        <v>174705</v>
       </c>
       <c r="AR2">
         <v>138953</v>
       </c>
       <c r="AS2">
-        <v>123073</v>
+        <v>123071</v>
       </c>
       <c r="AT2">
-        <v>145447</v>
+        <v>145441</v>
       </c>
       <c r="AU2">
-        <v>118907</v>
+        <v>118904</v>
       </c>
       <c r="AV2">
-        <v>95518</v>
+        <v>95517</v>
       </c>
       <c r="AW2">
-        <v>78131</v>
+        <v>78126</v>
       </c>
       <c r="AX2">
-        <v>64561</v>
+        <v>64558</v>
       </c>
       <c r="AY2">
-        <v>50807</v>
+        <v>50809</v>
       </c>
       <c r="AZ2">
-        <v>52391</v>
+        <v>52390</v>
       </c>
       <c r="BA2">
         <v>56348</v>
       </c>
       <c r="BB2">
-        <v>58363</v>
+        <v>58369</v>
       </c>
       <c r="BC2">
-        <v>71293</v>
+        <v>71310</v>
       </c>
       <c r="BD2">
-        <v>92577</v>
+        <v>92579</v>
       </c>
       <c r="BE2">
-        <v>116260</v>
+        <v>116259</v>
       </c>
       <c r="BF2">
         <v>110094</v>
       </c>
       <c r="BG2">
-        <v>118240</v>
+        <v>118241</v>
       </c>
       <c r="BH2">
-        <v>142009</v>
+        <v>142020</v>
       </c>
       <c r="BI2">
-        <v>144749</v>
+        <v>144791</v>
       </c>
       <c r="BJ2">
-        <v>124820</v>
+        <v>124792</v>
       </c>
       <c r="BK2">
-        <v>101007</v>
+        <v>101006</v>
       </c>
       <c r="BL2">
-        <v>70841</v>
+        <v>70842</v>
       </c>
       <c r="BM2">
-        <v>52731</v>
+        <v>52701</v>
       </c>
       <c r="BN2">
-        <v>29896</v>
+        <v>29876</v>
       </c>
       <c r="BO2">
-        <v>20695</v>
+        <v>20680</v>
       </c>
       <c r="BP2">
-        <v>14027</v>
+        <v>14024</v>
       </c>
       <c r="BQ2">
-        <v>7264</v>
+        <v>7262</v>
       </c>
       <c r="BR2">
-        <v>4815</v>
+        <v>4817</v>
       </c>
       <c r="BS2">
-        <v>4348</v>
+        <v>4349</v>
       </c>
       <c r="BT2">
-        <v>5561</v>
+        <v>5562</v>
       </c>
       <c r="BU2">
-        <v>9090</v>
+        <v>9091</v>
       </c>
       <c r="BV2">
-        <v>12613</v>
+        <v>12612</v>
       </c>
       <c r="BW2">
-        <v>15483</v>
+        <v>15484</v>
       </c>
       <c r="BX2">
-        <v>20390</v>
+        <v>20397</v>
       </c>
       <c r="BY2">
-        <v>32031</v>
+        <v>32039</v>
       </c>
       <c r="BZ2">
         <v>49577</v>
       </c>
       <c r="CA2">
-        <v>66244</v>
+        <v>66258</v>
       </c>
       <c r="CB2">
-        <v>74605</v>
+        <v>74637</v>
       </c>
       <c r="CC2">
-        <v>70944</v>
+        <v>71604</v>
+      </c>
+      <c r="CD2">
+        <v>61137</v>
       </c>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1771,7 +1298,7 @@
         <v>1462</v>
       </c>
       <c r="AK3">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="AL3">
         <v>2309</v>
@@ -1780,7 +1307,7 @@
         <v>3061</v>
       </c>
       <c r="AN3">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="AO3">
         <v>4193</v>
@@ -1795,13 +1322,13 @@
         <v>5235</v>
       </c>
       <c r="AS3">
-        <v>4978</v>
+        <v>4979</v>
       </c>
       <c r="AT3">
-        <v>5402</v>
+        <v>5403</v>
       </c>
       <c r="AU3">
-        <v>5019</v>
+        <v>5018</v>
       </c>
       <c r="AV3">
         <v>3941</v>
@@ -1846,25 +1373,25 @@
         <v>795</v>
       </c>
       <c r="BJ3">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="BK3">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="BL3">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="BM3">
         <v>278</v>
       </c>
       <c r="BN3">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BO3">
         <v>129</v>
       </c>
       <c r="BP3">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BQ3">
         <v>44</v>
@@ -1879,7 +1406,7 @@
         <v>17</v>
       </c>
       <c r="BU3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BV3">
         <v>25</v>
@@ -1894,21 +1421,24 @@
         <v>129</v>
       </c>
       <c r="BZ3">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CA3">
         <v>226</v>
       </c>
       <c r="CB3">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CC3">
-        <v>347</v>
+        <v>356</v>
+      </c>
+      <c r="CD3">
+        <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -2016,22 +1546,22 @@
         <v>1786</v>
       </c>
       <c r="AK4">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="AL4">
-        <v>2830</v>
+        <v>2831</v>
       </c>
       <c r="AM4">
         <v>3377</v>
       </c>
       <c r="AN4">
-        <v>4095</v>
+        <v>4094</v>
       </c>
       <c r="AO4">
         <v>4596</v>
       </c>
       <c r="AP4">
-        <v>5908</v>
+        <v>5909</v>
       </c>
       <c r="AQ4">
         <v>6933</v>
@@ -2040,22 +1570,22 @@
         <v>5820</v>
       </c>
       <c r="AS4">
-        <v>5586</v>
+        <v>5585</v>
       </c>
       <c r="AT4">
-        <v>6066</v>
+        <v>6065</v>
       </c>
       <c r="AU4">
-        <v>5557</v>
+        <v>5558</v>
       </c>
       <c r="AV4">
         <v>4441</v>
       </c>
       <c r="AW4">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="AX4">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="AY4">
         <v>1650</v>
@@ -2088,13 +1618,13 @@
         <v>1200</v>
       </c>
       <c r="BI4">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="BJ4">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="BK4">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="BL4">
         <v>620</v>
@@ -2142,18 +1672,21 @@
         <v>221</v>
       </c>
       <c r="CA4">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="CB4">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="CC4">
-        <v>505</v>
+        <v>512</v>
+      </c>
+      <c r="CD4">
+        <v>516</v>
       </c>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -2255,7 +1788,7 @@
         <v>857</v>
       </c>
       <c r="AI5">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="AJ5">
         <v>2835</v>
@@ -2270,7 +1803,7 @@
         <v>4358</v>
       </c>
       <c r="AN5">
-        <v>4772</v>
+        <v>4768</v>
       </c>
       <c r="AO5">
         <v>5443</v>
@@ -2288,19 +1821,19 @@
         <v>6867</v>
       </c>
       <c r="AT5">
-        <v>7667</v>
+        <v>7666</v>
       </c>
       <c r="AU5">
         <v>6689</v>
       </c>
       <c r="AV5">
-        <v>5331</v>
+        <v>5330</v>
       </c>
       <c r="AW5">
-        <v>4193</v>
+        <v>4192</v>
       </c>
       <c r="AX5">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="AY5">
         <v>2291</v>
@@ -2336,10 +1869,10 @@
         <v>2024</v>
       </c>
       <c r="BJ5">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="BK5">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="BL5">
         <v>921</v>
@@ -2348,10 +1881,10 @@
         <v>693</v>
       </c>
       <c r="BN5">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="BO5">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BP5">
         <v>155</v>
@@ -2381,24 +1914,27 @@
         <v>174</v>
       </c>
       <c r="BY5">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BZ5">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="CA5">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="CB5">
         <v>676</v>
       </c>
       <c r="CC5">
-        <v>822</v>
+        <v>826</v>
+      </c>
+      <c r="CD5">
+        <v>790</v>
       </c>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -2416,7 +1952,7 @@
         <v>1788</v>
       </c>
       <c r="G6">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H6">
         <v>855</v>
@@ -2425,7 +1961,7 @@
         <v>588</v>
       </c>
       <c r="J6">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K6">
         <v>275</v>
@@ -2500,7 +2036,7 @@
         <v>903</v>
       </c>
       <c r="AI6">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="AJ6">
         <v>2644</v>
@@ -2518,25 +2054,25 @@
         <v>3487</v>
       </c>
       <c r="AO6">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="AP6">
         <v>5001</v>
       </c>
       <c r="AQ6">
-        <v>5935</v>
+        <v>5934</v>
       </c>
       <c r="AR6">
-        <v>5103</v>
+        <v>5100</v>
       </c>
       <c r="AS6">
         <v>4636</v>
       </c>
       <c r="AT6">
-        <v>5215</v>
+        <v>5216</v>
       </c>
       <c r="AU6">
-        <v>4312</v>
+        <v>4310</v>
       </c>
       <c r="AV6">
         <v>3409</v>
@@ -2554,13 +2090,13 @@
         <v>1712</v>
       </c>
       <c r="BA6">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="BB6">
         <v>1365</v>
       </c>
       <c r="BC6">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="BD6">
         <v>1894</v>
@@ -2569,28 +2105,28 @@
         <v>2222</v>
       </c>
       <c r="BF6">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="BG6">
         <v>2352</v>
       </c>
       <c r="BH6">
-        <v>2705</v>
+        <v>2706</v>
       </c>
       <c r="BI6">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="BJ6">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c r="BK6">
         <v>1664</v>
       </c>
       <c r="BL6">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="BM6">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BN6">
         <v>408</v>
@@ -2614,7 +2150,7 @@
         <v>45</v>
       </c>
       <c r="BU6">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BV6">
         <v>64</v>
@@ -2626,24 +2162,27 @@
         <v>122</v>
       </c>
       <c r="BY6">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BZ6">
         <v>287</v>
       </c>
       <c r="CA6">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="CB6">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="CC6">
-        <v>587</v>
+        <v>590</v>
+      </c>
+      <c r="CD6">
+        <v>564</v>
       </c>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -2661,7 +2200,7 @@
         <v>1412</v>
       </c>
       <c r="G7">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H7">
         <v>631</v>
@@ -2745,7 +2284,7 @@
         <v>934</v>
       </c>
       <c r="AI7">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="AJ7">
         <v>2882</v>
@@ -2763,7 +2302,7 @@
         <v>3192</v>
       </c>
       <c r="AO7">
-        <v>3481</v>
+        <v>3479</v>
       </c>
       <c r="AP7">
         <v>4386</v>
@@ -2772,13 +2311,13 @@
         <v>5154</v>
       </c>
       <c r="AR7">
-        <v>4445</v>
+        <v>4446</v>
       </c>
       <c r="AS7">
         <v>4128</v>
       </c>
       <c r="AT7">
-        <v>4836</v>
+        <v>4837</v>
       </c>
       <c r="AU7">
         <v>3663</v>
@@ -2808,7 +2347,7 @@
         <v>1809</v>
       </c>
       <c r="BD7">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="BE7">
         <v>2839</v>
@@ -2820,22 +2359,22 @@
         <v>3144</v>
       </c>
       <c r="BH7">
-        <v>3610</v>
+        <v>3612</v>
       </c>
       <c r="BI7">
-        <v>3370</v>
+        <v>3371</v>
       </c>
       <c r="BJ7">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="BK7">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="BL7">
         <v>1594</v>
       </c>
       <c r="BM7">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="BN7">
         <v>583</v>
@@ -2844,13 +2383,13 @@
         <v>341</v>
       </c>
       <c r="BP7">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BQ7">
         <v>112</v>
       </c>
       <c r="BR7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BS7">
         <v>67</v>
@@ -2871,24 +2410,27 @@
         <v>171</v>
       </c>
       <c r="BY7">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="BZ7">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="CA7">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="CB7">
         <v>741</v>
       </c>
       <c r="CC7">
-        <v>809</v>
+        <v>818</v>
+      </c>
+      <c r="CD7">
+        <v>753</v>
       </c>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8">
         <v>25</v>
@@ -2996,7 +2538,7 @@
         <v>3552</v>
       </c>
       <c r="AK8">
-        <v>4261</v>
+        <v>4262</v>
       </c>
       <c r="AL8">
         <v>4014</v>
@@ -3008,7 +2550,7 @@
         <v>4135</v>
       </c>
       <c r="AO8">
-        <v>4117</v>
+        <v>4115</v>
       </c>
       <c r="AP8">
         <v>5169</v>
@@ -3017,25 +2559,25 @@
         <v>6352</v>
       </c>
       <c r="AR8">
-        <v>5582</v>
+        <v>5581</v>
       </c>
       <c r="AS8">
         <v>4975</v>
       </c>
       <c r="AT8">
-        <v>5732</v>
+        <v>5729</v>
       </c>
       <c r="AU8">
         <v>4417</v>
       </c>
       <c r="AV8">
-        <v>3625</v>
+        <v>3623</v>
       </c>
       <c r="AW8">
         <v>3127</v>
       </c>
       <c r="AX8">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="AY8">
         <v>1914</v>
@@ -3044,7 +2586,7 @@
         <v>2042</v>
       </c>
       <c r="BA8">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="BB8">
         <v>1993</v>
@@ -3059,34 +2601,34 @@
         <v>3899</v>
       </c>
       <c r="BF8">
-        <v>3965</v>
+        <v>3967</v>
       </c>
       <c r="BG8">
-        <v>4307</v>
+        <v>4308</v>
       </c>
       <c r="BH8">
-        <v>4912</v>
+        <v>4911</v>
       </c>
       <c r="BI8">
-        <v>4627</v>
+        <v>4628</v>
       </c>
       <c r="BJ8">
         <v>3972</v>
       </c>
       <c r="BK8">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="BL8">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="BM8">
         <v>1617</v>
       </c>
       <c r="BN8">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="BO8">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="BP8">
         <v>319</v>
@@ -3107,7 +2649,7 @@
         <v>114</v>
       </c>
       <c r="BV8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BW8">
         <v>240</v>
@@ -3119,27 +2661,30 @@
         <v>403</v>
       </c>
       <c r="BZ8">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="CA8">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="CB8">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="CC8">
-        <v>1100</v>
+        <v>1110</v>
+      </c>
+      <c r="CD8">
+        <v>1047</v>
       </c>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9">
         <v>63</v>
       </c>
       <c r="C9">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D9">
         <v>1598</v>
@@ -3151,7 +2696,7 @@
         <v>2779</v>
       </c>
       <c r="G9">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="H9">
         <v>1085</v>
@@ -3226,7 +2771,7 @@
         <v>542</v>
       </c>
       <c r="AF9">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AG9">
         <v>1273</v>
@@ -3235,13 +2780,13 @@
         <v>2122</v>
       </c>
       <c r="AI9">
-        <v>3958</v>
+        <v>3959</v>
       </c>
       <c r="AJ9">
         <v>5987</v>
       </c>
       <c r="AK9">
-        <v>6854</v>
+        <v>6855</v>
       </c>
       <c r="AL9">
         <v>6925</v>
@@ -3253,7 +2798,7 @@
         <v>7005</v>
       </c>
       <c r="AO9">
-        <v>7649</v>
+        <v>7648</v>
       </c>
       <c r="AP9">
         <v>9424</v>
@@ -3268,7 +2813,7 @@
         <v>8261</v>
       </c>
       <c r="AT9">
-        <v>9278</v>
+        <v>9280</v>
       </c>
       <c r="AU9">
         <v>7552</v>
@@ -3280,13 +2825,13 @@
         <v>5122</v>
       </c>
       <c r="AX9">
-        <v>4215</v>
+        <v>4214</v>
       </c>
       <c r="AY9">
         <v>3187</v>
       </c>
       <c r="AZ9">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="BA9">
         <v>3514</v>
@@ -3295,7 +2840,7 @@
         <v>3420</v>
       </c>
       <c r="BC9">
-        <v>4119</v>
+        <v>4120</v>
       </c>
       <c r="BD9">
         <v>5308</v>
@@ -3304,19 +2849,19 @@
         <v>6570</v>
       </c>
       <c r="BF9">
-        <v>6406</v>
+        <v>6405</v>
       </c>
       <c r="BG9">
         <v>6875</v>
       </c>
       <c r="BH9">
-        <v>7596</v>
+        <v>7599</v>
       </c>
       <c r="BI9">
-        <v>7760</v>
+        <v>7761</v>
       </c>
       <c r="BJ9">
-        <v>6799</v>
+        <v>6796</v>
       </c>
       <c r="BK9">
         <v>5530</v>
@@ -3352,7 +2897,7 @@
         <v>235</v>
       </c>
       <c r="BV9">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BW9">
         <v>397</v>
@@ -3367,18 +2912,21 @@
         <v>978</v>
       </c>
       <c r="CA9">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="CB9">
-        <v>1827</v>
+        <v>1831</v>
       </c>
       <c r="CC9">
-        <v>1852</v>
+        <v>1872</v>
+      </c>
+      <c r="CD9">
+        <v>1715</v>
       </c>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10">
         <v>76</v>
@@ -3489,31 +3037,31 @@
         <v>10165</v>
       </c>
       <c r="AL10">
-        <v>10291</v>
+        <v>10292</v>
       </c>
       <c r="AM10">
-        <v>10253</v>
+        <v>10255</v>
       </c>
       <c r="AN10">
-        <v>9874</v>
+        <v>9873</v>
       </c>
       <c r="AO10">
-        <v>10376</v>
+        <v>10377</v>
       </c>
       <c r="AP10">
         <v>13046</v>
       </c>
       <c r="AQ10">
-        <v>14999</v>
+        <v>15000</v>
       </c>
       <c r="AR10">
-        <v>12388</v>
+        <v>12389</v>
       </c>
       <c r="AS10">
         <v>11094</v>
       </c>
       <c r="AT10">
-        <v>12328</v>
+        <v>12327</v>
       </c>
       <c r="AU10">
         <v>10032</v>
@@ -3531,7 +3079,7 @@
         <v>4508</v>
       </c>
       <c r="AZ10">
-        <v>4603</v>
+        <v>4602</v>
       </c>
       <c r="BA10">
         <v>4838</v>
@@ -3540,13 +3088,13 @@
         <v>4637</v>
       </c>
       <c r="BC10">
-        <v>5710</v>
+        <v>5712</v>
       </c>
       <c r="BD10">
         <v>7264</v>
       </c>
       <c r="BE10">
-        <v>9094</v>
+        <v>9093</v>
       </c>
       <c r="BF10">
         <v>8947</v>
@@ -3555,22 +3103,22 @@
         <v>9679</v>
       </c>
       <c r="BH10">
-        <v>10663</v>
+        <v>10664</v>
       </c>
       <c r="BI10">
-        <v>11024</v>
+        <v>11025</v>
       </c>
       <c r="BJ10">
-        <v>9929</v>
+        <v>9925</v>
       </c>
       <c r="BK10">
-        <v>7822</v>
+        <v>7821</v>
       </c>
       <c r="BL10">
         <v>5327</v>
       </c>
       <c r="BM10">
-        <v>3577</v>
+        <v>3575</v>
       </c>
       <c r="BN10">
         <v>1929</v>
@@ -3579,7 +3127,7 @@
         <v>1257</v>
       </c>
       <c r="BP10">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="BQ10">
         <v>364</v>
@@ -3597,7 +3145,7 @@
         <v>367</v>
       </c>
       <c r="BV10">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="BW10">
         <v>579</v>
@@ -3606,24 +3154,27 @@
         <v>787</v>
       </c>
       <c r="BY10">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="BZ10">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="CA10">
-        <v>2397</v>
+        <v>2399</v>
       </c>
       <c r="CB10">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="CC10">
-        <v>2856</v>
+        <v>2885</v>
+      </c>
+      <c r="CD10">
+        <v>2587</v>
       </c>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11">
         <v>133</v>
@@ -3638,7 +3189,7 @@
         <v>4000</v>
       </c>
       <c r="F11">
-        <v>3699</v>
+        <v>3700</v>
       </c>
       <c r="G11">
         <v>2607</v>
@@ -3656,7 +3207,7 @@
         <v>521</v>
       </c>
       <c r="L11">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M11">
         <v>251</v>
@@ -3722,37 +3273,37 @@
         <v>2269</v>
       </c>
       <c r="AH11">
-        <v>3578</v>
+        <v>3579</v>
       </c>
       <c r="AI11">
-        <v>6419</v>
+        <v>6420</v>
       </c>
       <c r="AJ11">
         <v>9767</v>
       </c>
       <c r="AK11">
-        <v>10963</v>
+        <v>10964</v>
       </c>
       <c r="AL11">
-        <v>10997</v>
+        <v>10998</v>
       </c>
       <c r="AM11">
-        <v>10844</v>
+        <v>10842</v>
       </c>
       <c r="AN11">
-        <v>10330</v>
+        <v>10331</v>
       </c>
       <c r="AO11">
-        <v>10547</v>
+        <v>10548</v>
       </c>
       <c r="AP11">
-        <v>13255</v>
+        <v>13254</v>
       </c>
       <c r="AQ11">
-        <v>14918</v>
+        <v>14919</v>
       </c>
       <c r="AR11">
-        <v>11980</v>
+        <v>11981</v>
       </c>
       <c r="AS11">
         <v>10526</v>
@@ -3764,7 +3315,7 @@
         <v>9814</v>
       </c>
       <c r="AV11">
-        <v>8178</v>
+        <v>8179</v>
       </c>
       <c r="AW11">
         <v>6675</v>
@@ -3779,13 +3330,13 @@
         <v>4502</v>
       </c>
       <c r="BA11">
-        <v>4752</v>
+        <v>4751</v>
       </c>
       <c r="BB11">
-        <v>4944</v>
+        <v>4947</v>
       </c>
       <c r="BC11">
-        <v>5904</v>
+        <v>5906</v>
       </c>
       <c r="BD11">
         <v>7532</v>
@@ -3800,34 +3351,34 @@
         <v>9954</v>
       </c>
       <c r="BH11">
-        <v>11112</v>
+        <v>11111</v>
       </c>
       <c r="BI11">
-        <v>11639</v>
+        <v>11645</v>
       </c>
       <c r="BJ11">
-        <v>10151</v>
+        <v>10146</v>
       </c>
       <c r="BK11">
-        <v>8021</v>
+        <v>8018</v>
       </c>
       <c r="BL11">
-        <v>5470</v>
+        <v>5477</v>
       </c>
       <c r="BM11">
-        <v>3779</v>
+        <v>3772</v>
       </c>
       <c r="BN11">
-        <v>2060</v>
+        <v>2056</v>
       </c>
       <c r="BO11">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="BP11">
         <v>823</v>
       </c>
       <c r="BQ11">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BR11">
         <v>298</v>
@@ -3836,7 +3387,7 @@
         <v>225</v>
       </c>
       <c r="BT11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BU11">
         <v>453</v>
@@ -3848,27 +3399,30 @@
         <v>820</v>
       </c>
       <c r="BX11">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="BY11">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="BZ11">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="CA11">
-        <v>3321</v>
+        <v>3328</v>
       </c>
       <c r="CB11">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="CC11">
-        <v>3650</v>
+        <v>3684</v>
+      </c>
+      <c r="CD11">
+        <v>3312</v>
       </c>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B12">
         <v>99</v>
@@ -3940,7 +3494,7 @@
         <v>456</v>
       </c>
       <c r="Y12">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Z12">
         <v>693</v>
@@ -3967,31 +3521,31 @@
         <v>2035</v>
       </c>
       <c r="AH12">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="AI12">
-        <v>5820</v>
+        <v>5821</v>
       </c>
       <c r="AJ12">
         <v>8396</v>
       </c>
       <c r="AK12">
-        <v>9476</v>
+        <v>9477</v>
       </c>
       <c r="AL12">
-        <v>9283</v>
+        <v>9284</v>
       </c>
       <c r="AM12">
-        <v>9674</v>
+        <v>9676</v>
       </c>
       <c r="AN12">
-        <v>9059</v>
+        <v>9056</v>
       </c>
       <c r="AO12">
-        <v>9235</v>
+        <v>9234</v>
       </c>
       <c r="AP12">
-        <v>11093</v>
+        <v>11094</v>
       </c>
       <c r="AQ12">
         <v>12442</v>
@@ -4000,25 +3554,25 @@
         <v>9740</v>
       </c>
       <c r="AS12">
-        <v>8552</v>
+        <v>8551</v>
       </c>
       <c r="AT12">
-        <v>9795</v>
+        <v>9794</v>
       </c>
       <c r="AU12">
         <v>7954</v>
       </c>
       <c r="AV12">
-        <v>6489</v>
+        <v>6490</v>
       </c>
       <c r="AW12">
         <v>5305</v>
       </c>
       <c r="AX12">
-        <v>4492</v>
+        <v>4490</v>
       </c>
       <c r="AY12">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="AZ12">
         <v>3774</v>
@@ -4027,46 +3581,46 @@
         <v>4049</v>
       </c>
       <c r="BB12">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="BC12">
-        <v>5186</v>
+        <v>5187</v>
       </c>
       <c r="BD12">
-        <v>6518</v>
+        <v>6517</v>
       </c>
       <c r="BE12">
         <v>8158</v>
       </c>
       <c r="BF12">
-        <v>7993</v>
+        <v>7994</v>
       </c>
       <c r="BG12">
         <v>8770</v>
       </c>
       <c r="BH12">
-        <v>10166</v>
+        <v>10167</v>
       </c>
       <c r="BI12">
-        <v>10673</v>
+        <v>10675</v>
       </c>
       <c r="BJ12">
         <v>9023</v>
       </c>
       <c r="BK12">
-        <v>7441</v>
+        <v>7444</v>
       </c>
       <c r="BL12">
-        <v>5085</v>
+        <v>5082</v>
       </c>
       <c r="BM12">
-        <v>3589</v>
+        <v>3586</v>
       </c>
       <c r="BN12">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="BO12">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="BP12">
         <v>872</v>
@@ -4081,10 +3635,10 @@
         <v>259</v>
       </c>
       <c r="BT12">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BU12">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="BV12">
         <v>688</v>
@@ -4096,24 +3650,27 @@
         <v>1175</v>
       </c>
       <c r="BY12">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="BZ12">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="CA12">
-        <v>4110</v>
+        <v>4109</v>
       </c>
       <c r="CB12">
-        <v>4620</v>
+        <v>4625</v>
       </c>
       <c r="CC12">
-        <v>4493</v>
+        <v>4543</v>
+      </c>
+      <c r="CD12">
+        <v>3777</v>
       </c>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B13">
         <v>85</v>
@@ -4227,16 +3784,16 @@
         <v>8993</v>
       </c>
       <c r="AM13">
-        <v>9238</v>
+        <v>9240</v>
       </c>
       <c r="AN13">
-        <v>8808</v>
+        <v>8807</v>
       </c>
       <c r="AO13">
         <v>8809</v>
       </c>
       <c r="AP13">
-        <v>10903</v>
+        <v>10904</v>
       </c>
       <c r="AQ13">
         <v>11987</v>
@@ -4272,10 +3829,10 @@
         <v>4136</v>
       </c>
       <c r="BB13">
-        <v>4273</v>
+        <v>4274</v>
       </c>
       <c r="BC13">
-        <v>5341</v>
+        <v>5346</v>
       </c>
       <c r="BD13">
         <v>6982</v>
@@ -4290,28 +3847,28 @@
         <v>9278</v>
       </c>
       <c r="BH13">
-        <v>10724</v>
+        <v>10725</v>
       </c>
       <c r="BI13">
         <v>10824</v>
       </c>
       <c r="BJ13">
-        <v>9579</v>
+        <v>9575</v>
       </c>
       <c r="BK13">
-        <v>7727</v>
+        <v>7729</v>
       </c>
       <c r="BL13">
-        <v>5333</v>
+        <v>5334</v>
       </c>
       <c r="BM13">
-        <v>3986</v>
+        <v>3983</v>
       </c>
       <c r="BN13">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="BO13">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="BP13">
         <v>1077</v>
@@ -4326,7 +3883,7 @@
         <v>270</v>
       </c>
       <c r="BT13">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BU13">
         <v>505</v>
@@ -4338,27 +3895,30 @@
         <v>987</v>
       </c>
       <c r="BX13">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="BY13">
-        <v>2349</v>
+        <v>2351</v>
       </c>
       <c r="BZ13">
         <v>3754</v>
       </c>
       <c r="CA13">
-        <v>5175</v>
+        <v>5180</v>
       </c>
       <c r="CB13">
-        <v>5684</v>
+        <v>5690</v>
       </c>
       <c r="CC13">
-        <v>5361</v>
+        <v>5416</v>
+      </c>
+      <c r="CD13">
+        <v>4420</v>
       </c>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B14">
         <v>67</v>
@@ -4430,7 +3990,7 @@
         <v>515</v>
       </c>
       <c r="Y14">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="Z14">
         <v>760</v>
@@ -4448,7 +4008,7 @@
         <v>906</v>
       </c>
       <c r="AE14">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="AF14">
         <v>1153</v>
@@ -4457,19 +4017,19 @@
         <v>1823</v>
       </c>
       <c r="AH14">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="AI14">
-        <v>5386</v>
+        <v>5388</v>
       </c>
       <c r="AJ14">
-        <v>8083</v>
+        <v>8084</v>
       </c>
       <c r="AK14">
         <v>8956</v>
       </c>
       <c r="AL14">
-        <v>9189</v>
+        <v>9190</v>
       </c>
       <c r="AM14">
         <v>9195</v>
@@ -4478,13 +4038,13 @@
         <v>8715</v>
       </c>
       <c r="AO14">
-        <v>9138</v>
+        <v>9139</v>
       </c>
       <c r="AP14">
-        <v>10992</v>
+        <v>10990</v>
       </c>
       <c r="AQ14">
-        <v>12227</v>
+        <v>12226</v>
       </c>
       <c r="AR14">
         <v>9524</v>
@@ -4493,10 +4053,10 @@
         <v>8080</v>
       </c>
       <c r="AT14">
-        <v>10147</v>
+        <v>10146</v>
       </c>
       <c r="AU14">
-        <v>8008</v>
+        <v>8006</v>
       </c>
       <c r="AV14">
         <v>6342</v>
@@ -4508,7 +4068,7 @@
         <v>4460</v>
       </c>
       <c r="AY14">
-        <v>3595</v>
+        <v>3596</v>
       </c>
       <c r="AZ14">
         <v>3708</v>
@@ -4523,13 +4083,13 @@
         <v>5759</v>
       </c>
       <c r="BD14">
-        <v>7587</v>
+        <v>7586</v>
       </c>
       <c r="BE14">
-        <v>9459</v>
+        <v>9460</v>
       </c>
       <c r="BF14">
-        <v>8987</v>
+        <v>8986</v>
       </c>
       <c r="BG14">
         <v>9483</v>
@@ -4538,22 +4098,22 @@
         <v>11265</v>
       </c>
       <c r="BI14">
-        <v>11273</v>
+        <v>11279</v>
       </c>
       <c r="BJ14">
-        <v>10030</v>
+        <v>10025</v>
       </c>
       <c r="BK14">
-        <v>7968</v>
+        <v>7969</v>
       </c>
       <c r="BL14">
-        <v>5627</v>
+        <v>5625</v>
       </c>
       <c r="BM14">
-        <v>4223</v>
+        <v>4222</v>
       </c>
       <c r="BN14">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="BO14">
         <v>1692</v>
@@ -4583,10 +4143,10 @@
         <v>1166</v>
       </c>
       <c r="BX14">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="BY14">
-        <v>2444</v>
+        <v>2447</v>
       </c>
       <c r="BZ14">
         <v>3764</v>
@@ -4595,15 +4155,18 @@
         <v>5263</v>
       </c>
       <c r="CB14">
-        <v>5988</v>
+        <v>5991</v>
       </c>
       <c r="CC14">
-        <v>5742</v>
+        <v>5787</v>
+      </c>
+      <c r="CD14">
+        <v>4812</v>
       </c>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B15">
         <v>69</v>
@@ -4690,7 +4253,7 @@
         <v>940</v>
       </c>
       <c r="AD15">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AE15">
         <v>1302</v>
@@ -4702,19 +4265,19 @@
         <v>2359</v>
       </c>
       <c r="AH15">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="AI15">
         <v>6717</v>
       </c>
       <c r="AJ15">
-        <v>9575</v>
+        <v>9574</v>
       </c>
       <c r="AK15">
-        <v>10475</v>
+        <v>10474</v>
       </c>
       <c r="AL15">
-        <v>10478</v>
+        <v>10480</v>
       </c>
       <c r="AM15">
         <v>10082</v>
@@ -4723,19 +4286,19 @@
         <v>9367</v>
       </c>
       <c r="AO15">
-        <v>9469</v>
+        <v>9468</v>
       </c>
       <c r="AP15">
-        <v>11516</v>
+        <v>11517</v>
       </c>
       <c r="AQ15">
         <v>13026</v>
       </c>
       <c r="AR15">
-        <v>10042</v>
+        <v>10043</v>
       </c>
       <c r="AS15">
-        <v>9194</v>
+        <v>9193</v>
       </c>
       <c r="AT15">
         <v>11602</v>
@@ -4744,13 +4307,13 @@
         <v>9048</v>
       </c>
       <c r="AV15">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="AW15">
         <v>5765</v>
       </c>
       <c r="AX15">
-        <v>4907</v>
+        <v>4908</v>
       </c>
       <c r="AY15">
         <v>3904</v>
@@ -4759,19 +4322,19 @@
         <v>4114</v>
       </c>
       <c r="BA15">
-        <v>4530</v>
+        <v>4529</v>
       </c>
       <c r="BB15">
-        <v>4891</v>
+        <v>4892</v>
       </c>
       <c r="BC15">
-        <v>6019</v>
+        <v>6018</v>
       </c>
       <c r="BD15">
         <v>7895</v>
       </c>
       <c r="BE15">
-        <v>9869</v>
+        <v>9868</v>
       </c>
       <c r="BF15">
         <v>9512</v>
@@ -4780,28 +4343,28 @@
         <v>10133</v>
       </c>
       <c r="BH15">
-        <v>12008</v>
+        <v>12009</v>
       </c>
       <c r="BI15">
-        <v>11855</v>
+        <v>11858</v>
       </c>
       <c r="BJ15">
-        <v>10454</v>
+        <v>10453</v>
       </c>
       <c r="BK15">
-        <v>8276</v>
+        <v>8277</v>
       </c>
       <c r="BL15">
-        <v>5871</v>
+        <v>5873</v>
       </c>
       <c r="BM15">
-        <v>4543</v>
+        <v>4540</v>
       </c>
       <c r="BN15">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="BO15">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="BP15">
         <v>1184</v>
@@ -4819,13 +4382,13 @@
         <v>581</v>
       </c>
       <c r="BU15">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="BV15">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="BW15">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="BX15">
         <v>2073</v>
@@ -4837,18 +4400,21 @@
         <v>4381</v>
       </c>
       <c r="CA15">
-        <v>5971</v>
+        <v>5976</v>
       </c>
       <c r="CB15">
         <v>6579</v>
       </c>
       <c r="CC15">
-        <v>6185</v>
+        <v>6228</v>
+      </c>
+      <c r="CD15">
+        <v>5070</v>
       </c>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16">
         <v>76</v>
@@ -4860,7 +4426,7 @@
         <v>1995</v>
       </c>
       <c r="E16">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="F16">
         <v>2485</v>
@@ -4881,7 +4447,7 @@
         <v>522</v>
       </c>
       <c r="L16">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M16">
         <v>345</v>
@@ -4947,55 +4513,55 @@
         <v>2684</v>
       </c>
       <c r="AH16">
-        <v>4476</v>
+        <v>4474</v>
       </c>
       <c r="AI16">
-        <v>7318</v>
+        <v>7322</v>
       </c>
       <c r="AJ16">
         <v>10341</v>
       </c>
       <c r="AK16">
-        <v>11150</v>
+        <v>11149</v>
       </c>
       <c r="AL16">
-        <v>10683</v>
+        <v>10684</v>
       </c>
       <c r="AM16">
         <v>9921</v>
       </c>
       <c r="AN16">
-        <v>8997</v>
+        <v>8996</v>
       </c>
       <c r="AO16">
-        <v>9147</v>
+        <v>9146</v>
       </c>
       <c r="AP16">
         <v>10780</v>
       </c>
       <c r="AQ16">
-        <v>12105</v>
+        <v>12104</v>
       </c>
       <c r="AR16">
-        <v>9431</v>
+        <v>9430</v>
       </c>
       <c r="AS16">
-        <v>8423</v>
+        <v>8422</v>
       </c>
       <c r="AT16">
-        <v>10779</v>
+        <v>10778</v>
       </c>
       <c r="AU16">
         <v>8536</v>
       </c>
       <c r="AV16">
-        <v>6391</v>
+        <v>6393</v>
       </c>
       <c r="AW16">
-        <v>5340</v>
+        <v>5338</v>
       </c>
       <c r="AX16">
-        <v>4491</v>
+        <v>4488</v>
       </c>
       <c r="AY16">
         <v>3658</v>
@@ -5004,22 +4570,22 @@
         <v>3907</v>
       </c>
       <c r="BA16">
-        <v>4150</v>
+        <v>4151</v>
       </c>
       <c r="BB16">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="BC16">
-        <v>5464</v>
+        <v>5465</v>
       </c>
       <c r="BD16">
         <v>7013</v>
       </c>
       <c r="BE16">
-        <v>8399</v>
+        <v>8400</v>
       </c>
       <c r="BF16">
-        <v>8377</v>
+        <v>8376</v>
       </c>
       <c r="BG16">
         <v>9209</v>
@@ -5028,25 +4594,25 @@
         <v>10900</v>
       </c>
       <c r="BI16">
-        <v>10790</v>
+        <v>10796</v>
       </c>
       <c r="BJ16">
-        <v>9214</v>
+        <v>9211</v>
       </c>
       <c r="BK16">
-        <v>7458</v>
+        <v>7460</v>
       </c>
       <c r="BL16">
-        <v>5179</v>
+        <v>5178</v>
       </c>
       <c r="BM16">
-        <v>3949</v>
+        <v>3943</v>
       </c>
       <c r="BN16">
         <v>2455</v>
       </c>
       <c r="BO16">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="BP16">
         <v>1108</v>
@@ -5055,7 +4621,7 @@
         <v>619</v>
       </c>
       <c r="BR16">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="BS16">
         <v>493</v>
@@ -5064,10 +4630,10 @@
         <v>789</v>
       </c>
       <c r="BU16">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="BV16">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="BW16">
         <v>1953</v>
@@ -5076,24 +4642,27 @@
         <v>2404</v>
       </c>
       <c r="BY16">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="BZ16">
-        <v>5025</v>
+        <v>5027</v>
       </c>
       <c r="CA16">
-        <v>6323</v>
+        <v>6322</v>
       </c>
       <c r="CB16">
-        <v>6294</v>
+        <v>6295</v>
       </c>
       <c r="CC16">
-        <v>5975</v>
+        <v>6047</v>
+      </c>
+      <c r="CD16">
+        <v>4863</v>
       </c>
     </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B17">
         <v>70</v>
@@ -5114,7 +4683,7 @@
         <v>1729</v>
       </c>
       <c r="H17">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I17">
         <v>956</v>
@@ -5162,10 +4731,10 @@
         <v>521</v>
       </c>
       <c r="X17">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Y17">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="Z17">
         <v>1545</v>
@@ -5192,58 +4761,58 @@
         <v>2791</v>
       </c>
       <c r="AH17">
-        <v>4383</v>
+        <v>4387</v>
       </c>
       <c r="AI17">
-        <v>7564</v>
+        <v>7565</v>
       </c>
       <c r="AJ17">
         <v>10409</v>
       </c>
       <c r="AK17">
-        <v>11734</v>
+        <v>11733</v>
       </c>
       <c r="AL17">
-        <v>11023</v>
+        <v>11026</v>
       </c>
       <c r="AM17">
-        <v>10197</v>
+        <v>10198</v>
       </c>
       <c r="AN17">
-        <v>8938</v>
+        <v>8939</v>
       </c>
       <c r="AO17">
         <v>9174</v>
       </c>
       <c r="AP17">
-        <v>10786</v>
+        <v>10785</v>
       </c>
       <c r="AQ17">
-        <v>12095</v>
+        <v>12096</v>
       </c>
       <c r="AR17">
         <v>9069</v>
       </c>
       <c r="AS17">
-        <v>8587</v>
+        <v>8588</v>
       </c>
       <c r="AT17">
         <v>10891</v>
       </c>
       <c r="AU17">
-        <v>8535</v>
+        <v>8539</v>
       </c>
       <c r="AV17">
         <v>6434</v>
       </c>
       <c r="AW17">
-        <v>5241</v>
+        <v>5240</v>
       </c>
       <c r="AX17">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="AY17">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="AZ17">
         <v>3946</v>
@@ -5255,13 +4824,13 @@
         <v>4401</v>
       </c>
       <c r="BC17">
-        <v>5421</v>
+        <v>5422</v>
       </c>
       <c r="BD17">
-        <v>6902</v>
+        <v>6904</v>
       </c>
       <c r="BE17">
-        <v>8554</v>
+        <v>8553</v>
       </c>
       <c r="BF17">
         <v>8506</v>
@@ -5270,28 +4839,28 @@
         <v>9796</v>
       </c>
       <c r="BH17">
-        <v>11545</v>
+        <v>11546</v>
       </c>
       <c r="BI17">
-        <v>11270</v>
+        <v>11271</v>
       </c>
       <c r="BJ17">
-        <v>9629</v>
+        <v>9625</v>
       </c>
       <c r="BK17">
-        <v>7836</v>
+        <v>7833</v>
       </c>
       <c r="BL17">
-        <v>5587</v>
+        <v>5588</v>
       </c>
       <c r="BM17">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="BN17">
         <v>2414</v>
       </c>
       <c r="BO17">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="BP17">
         <v>1203</v>
@@ -5309,39 +4878,42 @@
         <v>884</v>
       </c>
       <c r="BU17">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="BV17">
         <v>2090</v>
       </c>
       <c r="BW17">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="BX17">
-        <v>2790</v>
+        <v>2791</v>
       </c>
       <c r="BY17">
-        <v>4427</v>
+        <v>4430</v>
       </c>
       <c r="BZ17">
-        <v>5781</v>
+        <v>5780</v>
       </c>
       <c r="CA17">
-        <v>6878</v>
+        <v>6879</v>
       </c>
       <c r="CB17">
-        <v>6826</v>
+        <v>6829</v>
       </c>
       <c r="CC17">
-        <v>6151</v>
+        <v>6229</v>
+      </c>
+      <c r="CD17">
+        <v>4912</v>
       </c>
     </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B18">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18">
         <v>181</v>
@@ -5440,16 +5012,16 @@
         <v>2959</v>
       </c>
       <c r="AI18">
-        <v>4861</v>
+        <v>4862</v>
       </c>
       <c r="AJ18">
         <v>7189</v>
       </c>
       <c r="AK18">
-        <v>8411</v>
+        <v>8410</v>
       </c>
       <c r="AL18">
-        <v>8715</v>
+        <v>8717</v>
       </c>
       <c r="AM18">
         <v>8211</v>
@@ -5467,7 +5039,7 @@
         <v>8473</v>
       </c>
       <c r="AR18">
-        <v>5870</v>
+        <v>5871</v>
       </c>
       <c r="AS18">
         <v>4954</v>
@@ -5476,10 +5048,10 @@
         <v>6380</v>
       </c>
       <c r="AU18">
-        <v>5391</v>
+        <v>5388</v>
       </c>
       <c r="AV18">
-        <v>4200</v>
+        <v>4199</v>
       </c>
       <c r="AW18">
         <v>3471</v>
@@ -5488,10 +5060,10 @@
         <v>2917</v>
       </c>
       <c r="AY18">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="AZ18">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="BA18">
         <v>3071</v>
@@ -5500,10 +5072,10 @@
         <v>3213</v>
       </c>
       <c r="BC18">
-        <v>4106</v>
+        <v>4105</v>
       </c>
       <c r="BD18">
-        <v>5537</v>
+        <v>5538</v>
       </c>
       <c r="BE18">
         <v>7187</v>
@@ -5515,28 +5087,28 @@
         <v>7547</v>
       </c>
       <c r="BH18">
-        <v>10810</v>
+        <v>10812</v>
       </c>
       <c r="BI18">
-        <v>10342</v>
+        <v>10343</v>
       </c>
       <c r="BJ18">
-        <v>8660</v>
+        <v>8658</v>
       </c>
       <c r="BK18">
-        <v>7050</v>
+        <v>7054</v>
       </c>
       <c r="BL18">
         <v>4941</v>
       </c>
       <c r="BM18">
-        <v>3889</v>
+        <v>3885</v>
       </c>
       <c r="BN18">
         <v>2239</v>
       </c>
       <c r="BO18">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="BP18">
         <v>1229</v>
@@ -5554,36 +5126,39 @@
         <v>580</v>
       </c>
       <c r="BU18">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="BV18">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="BW18">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="BX18">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="BY18">
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="BZ18">
-        <v>5575</v>
+        <v>5572</v>
       </c>
       <c r="CA18">
-        <v>6958</v>
+        <v>6960</v>
       </c>
       <c r="CB18">
-        <v>7776</v>
+        <v>7778</v>
       </c>
       <c r="CC18">
-        <v>6765</v>
+        <v>6844</v>
+      </c>
+      <c r="CD18">
+        <v>5613</v>
       </c>
     </row>
-    <row r="19" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -5661,7 +5236,7 @@
         <v>575</v>
       </c>
       <c r="AA19">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AB19">
         <v>433</v>
@@ -5688,13 +5263,13 @@
         <v>2747</v>
       </c>
       <c r="AJ19">
-        <v>4081</v>
+        <v>4082</v>
       </c>
       <c r="AK19">
         <v>4785</v>
       </c>
       <c r="AL19">
-        <v>5347</v>
+        <v>5348</v>
       </c>
       <c r="AM19">
         <v>5297</v>
@@ -5712,13 +5287,13 @@
         <v>5284</v>
       </c>
       <c r="AR19">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="AS19">
         <v>2652</v>
       </c>
       <c r="AT19">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="AU19">
         <v>2717</v>
@@ -5730,7 +5305,7 @@
         <v>1879</v>
       </c>
       <c r="AX19">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="AY19">
         <v>1409</v>
@@ -5742,13 +5317,13 @@
         <v>1879</v>
       </c>
       <c r="BB19">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="BC19">
         <v>2868</v>
       </c>
       <c r="BD19">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="BE19">
         <v>5731</v>
@@ -5763,22 +5338,22 @@
         <v>7658</v>
       </c>
       <c r="BI19">
-        <v>8732</v>
+        <v>8737</v>
       </c>
       <c r="BJ19">
-        <v>7167</v>
+        <v>7168</v>
       </c>
       <c r="BK19">
-        <v>6127</v>
+        <v>6125</v>
       </c>
       <c r="BL19">
-        <v>4571</v>
+        <v>4572</v>
       </c>
       <c r="BM19">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="BN19">
-        <v>2166</v>
+        <v>2163</v>
       </c>
       <c r="BO19">
         <v>1580</v>
@@ -5793,7 +5368,7 @@
         <v>448</v>
       </c>
       <c r="BS19">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BT19">
         <v>295</v>
@@ -5802,33 +5377,36 @@
         <v>533</v>
       </c>
       <c r="BV19">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="BW19">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="BX19">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="BY19">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="BZ19">
-        <v>5356</v>
+        <v>5362</v>
       </c>
       <c r="CA19">
-        <v>6916</v>
+        <v>6915</v>
       </c>
       <c r="CB19">
-        <v>8387</v>
+        <v>8403</v>
       </c>
       <c r="CC19">
-        <v>7661</v>
+        <v>7728</v>
+      </c>
+      <c r="CD19">
+        <v>7276</v>
       </c>
     </row>
-    <row r="20" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -5927,13 +5505,13 @@
         <v>623</v>
       </c>
       <c r="AH20">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AI20">
         <v>1841</v>
       </c>
       <c r="AJ20">
-        <v>2792</v>
+        <v>2794</v>
       </c>
       <c r="AK20">
         <v>3363</v>
@@ -5948,7 +5526,7 @@
         <v>3819</v>
       </c>
       <c r="AO20">
-        <v>3682</v>
+        <v>3683</v>
       </c>
       <c r="AP20">
         <v>4259</v>
@@ -5960,10 +5538,10 @@
         <v>3022</v>
       </c>
       <c r="AS20">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="AT20">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="AU20">
         <v>2194</v>
@@ -5972,7 +5550,7 @@
         <v>1903</v>
       </c>
       <c r="AW20">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="AX20">
         <v>1602</v>
@@ -5990,49 +5568,49 @@
         <v>2724</v>
       </c>
       <c r="BC20">
-        <v>3676</v>
+        <v>3680</v>
       </c>
       <c r="BD20">
         <v>4762</v>
       </c>
       <c r="BE20">
-        <v>6700</v>
+        <v>6699</v>
       </c>
       <c r="BF20">
-        <v>5188</v>
+        <v>5189</v>
       </c>
       <c r="BG20">
         <v>4696</v>
       </c>
       <c r="BH20">
-        <v>6992</v>
+        <v>6993</v>
       </c>
       <c r="BI20">
-        <v>8413</v>
+        <v>8419</v>
       </c>
       <c r="BJ20">
-        <v>6875</v>
+        <v>6871</v>
       </c>
       <c r="BK20">
-        <v>5565</v>
+        <v>5564</v>
       </c>
       <c r="BL20">
-        <v>4117</v>
+        <v>4116</v>
       </c>
       <c r="BM20">
-        <v>3411</v>
+        <v>3414</v>
       </c>
       <c r="BN20">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="BO20">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="BP20">
         <v>1142</v>
       </c>
       <c r="BQ20">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="BR20">
         <v>345</v>
@@ -6044,7 +5622,7 @@
         <v>208</v>
       </c>
       <c r="BU20">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="BV20">
         <v>478</v>
@@ -6053,27 +5631,30 @@
         <v>725</v>
       </c>
       <c r="BX20">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="BY20">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="BZ20">
-        <v>3721</v>
+        <v>3718</v>
       </c>
       <c r="CA20">
-        <v>5584</v>
+        <v>5587</v>
       </c>
       <c r="CB20">
-        <v>7005</v>
+        <v>7009</v>
       </c>
       <c r="CC20">
-        <v>6540</v>
+        <v>6583</v>
+      </c>
+      <c r="CD20">
+        <v>5833</v>
       </c>
     </row>
-    <row r="21" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -6172,10 +5753,10 @@
         <v>522</v>
       </c>
       <c r="AH21">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="AI21">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="AJ21">
         <v>2227</v>
@@ -6190,10 +5771,10 @@
         <v>2378</v>
       </c>
       <c r="AN21">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="AO21">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="AP21">
         <v>2655</v>
@@ -6205,7 +5786,7 @@
         <v>2106</v>
       </c>
       <c r="AS21">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="AT21">
         <v>1900</v>
@@ -6220,7 +5801,7 @@
         <v>1528</v>
       </c>
       <c r="AX21">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AY21">
         <v>1347</v>
@@ -6235,13 +5816,13 @@
         <v>2371</v>
       </c>
       <c r="BC21">
-        <v>2990</v>
+        <v>2991</v>
       </c>
       <c r="BD21">
-        <v>4048</v>
+        <v>4049</v>
       </c>
       <c r="BE21">
-        <v>5022</v>
+        <v>5023</v>
       </c>
       <c r="BF21">
         <v>4467</v>
@@ -6250,25 +5831,25 @@
         <v>4026</v>
       </c>
       <c r="BH21">
-        <v>5084</v>
+        <v>5083</v>
       </c>
       <c r="BI21">
-        <v>5580</v>
+        <v>5581</v>
       </c>
       <c r="BJ21">
         <v>5059</v>
       </c>
       <c r="BK21">
-        <v>4115</v>
+        <v>4116</v>
       </c>
       <c r="BL21">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="BM21">
         <v>2298</v>
       </c>
       <c r="BN21">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="BO21">
         <v>1022</v>
@@ -6301,38 +5882,40 @@
         <v>758</v>
       </c>
       <c r="BY21">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="BZ21">
         <v>1866</v>
       </c>
       <c r="CA21">
-        <v>2960</v>
+        <v>2958</v>
       </c>
       <c r="CB21">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="CC21">
-        <v>3488</v>
+        <v>3504</v>
+      </c>
+      <c r="CD21">
+        <v>2838</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CC21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177A6744-B0D5-42CA-9E91-BB7B295377AF}">
+  <dimension ref="A1:CD21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6576,16 +6159,19 @@
       <c r="CC1" t="s">
         <v>80</v>
       </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>1.08</v>
       </c>
       <c r="C2">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="D2">
         <v>26.92</v>
@@ -6678,28 +6264,28 @@
         <v>31.39</v>
       </c>
       <c r="AH2">
-        <v>50.57</v>
+        <v>50.58</v>
       </c>
       <c r="AI2">
-        <v>90.01</v>
+        <v>90.03</v>
       </c>
       <c r="AJ2">
-        <v>133.47</v>
+        <v>133.47999999999999</v>
       </c>
       <c r="AK2">
         <v>151.16999999999999</v>
       </c>
       <c r="AL2">
-        <v>153.61000000000001</v>
+        <v>153.63</v>
       </c>
       <c r="AM2">
         <v>154.34</v>
       </c>
       <c r="AN2">
-        <v>148.11000000000001</v>
+        <v>148.1</v>
       </c>
       <c r="AO2">
-        <v>154.33000000000001</v>
+        <v>154.32</v>
       </c>
       <c r="AP2">
         <v>187.92</v>
@@ -6714,7 +6300,7 @@
         <v>147.97999999999999</v>
       </c>
       <c r="AT2">
-        <v>174.89</v>
+        <v>174.88</v>
       </c>
       <c r="AU2">
         <v>142.97</v>
@@ -6723,16 +6309,16 @@
         <v>114.85</v>
       </c>
       <c r="AW2">
-        <v>93.95</v>
+        <v>93.94</v>
       </c>
       <c r="AX2">
-        <v>77.63</v>
+        <v>77.62</v>
       </c>
       <c r="AY2">
         <v>61.09</v>
       </c>
       <c r="AZ2">
-        <v>63</v>
+        <v>62.99</v>
       </c>
       <c r="BA2">
         <v>67.75</v>
@@ -6741,10 +6327,10 @@
         <v>70.180000000000007</v>
       </c>
       <c r="BC2">
-        <v>85.72</v>
+        <v>85.74</v>
       </c>
       <c r="BD2">
-        <v>111.31</v>
+        <v>111.32</v>
       </c>
       <c r="BE2">
         <v>139.79</v>
@@ -6756,13 +6342,13 @@
         <v>142.16999999999999</v>
       </c>
       <c r="BH2">
-        <v>170.75</v>
+        <v>170.77</v>
       </c>
       <c r="BI2">
-        <v>174.05</v>
+        <v>174.1</v>
       </c>
       <c r="BJ2">
-        <v>150.08000000000001</v>
+        <v>150.05000000000001</v>
       </c>
       <c r="BK2">
         <v>121.45</v>
@@ -6771,16 +6357,16 @@
         <v>85.18</v>
       </c>
       <c r="BM2">
-        <v>63.4</v>
+        <v>63.37</v>
       </c>
       <c r="BN2">
-        <v>35.950000000000003</v>
+        <v>35.92</v>
       </c>
       <c r="BO2">
-        <v>24.88</v>
+        <v>24.87</v>
       </c>
       <c r="BP2">
-        <v>16.87</v>
+        <v>16.86</v>
       </c>
       <c r="BQ2">
         <v>8.73</v>
@@ -6798,33 +6384,36 @@
         <v>10.93</v>
       </c>
       <c r="BV2">
-        <v>15.17</v>
+        <v>15.16</v>
       </c>
       <c r="BW2">
         <v>18.62</v>
       </c>
       <c r="BX2">
-        <v>24.52</v>
+        <v>24.53</v>
       </c>
       <c r="BY2">
-        <v>38.51</v>
+        <v>38.520000000000003</v>
       </c>
       <c r="BZ2">
         <v>59.61</v>
       </c>
       <c r="CA2">
-        <v>79.650000000000006</v>
+        <v>79.67</v>
       </c>
       <c r="CB2">
-        <v>89.71</v>
+        <v>89.74</v>
       </c>
       <c r="CC2">
-        <v>85.3</v>
+        <v>86.1</v>
+      </c>
+      <c r="CD2">
+        <v>73.510000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>0.12</v>
@@ -6932,7 +6521,7 @@
         <v>177.63</v>
       </c>
       <c r="AK3">
-        <v>209.22</v>
+        <v>209.1</v>
       </c>
       <c r="AL3">
         <v>280.54000000000002</v>
@@ -6941,7 +6530,7 @@
         <v>371.91</v>
       </c>
       <c r="AN3">
-        <v>427.44</v>
+        <v>427.31</v>
       </c>
       <c r="AO3">
         <v>509.45</v>
@@ -6956,13 +6545,13 @@
         <v>636.04999999999995</v>
       </c>
       <c r="AS3">
-        <v>604.83000000000004</v>
+        <v>604.95000000000005</v>
       </c>
       <c r="AT3">
-        <v>656.34</v>
+        <v>656.46</v>
       </c>
       <c r="AU3">
-        <v>609.80999999999995</v>
+        <v>609.69000000000005</v>
       </c>
       <c r="AV3">
         <v>478.83</v>
@@ -7007,25 +6596,25 @@
         <v>96.59</v>
       </c>
       <c r="BJ3">
-        <v>77.03</v>
+        <v>77.27</v>
       </c>
       <c r="BK3">
-        <v>65.97</v>
+        <v>65.849999999999994</v>
       </c>
       <c r="BL3">
-        <v>49.45</v>
+        <v>49.57</v>
       </c>
       <c r="BM3">
         <v>33.78</v>
       </c>
       <c r="BN3">
-        <v>19.68</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="BO3">
         <v>15.67</v>
       </c>
       <c r="BP3">
-        <v>8.02</v>
+        <v>7.9</v>
       </c>
       <c r="BQ3">
         <v>5.35</v>
@@ -7040,7 +6629,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="BU3">
-        <v>2.5499999999999998</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="BV3">
         <v>3.04</v>
@@ -7055,21 +6644,24 @@
         <v>15.67</v>
       </c>
       <c r="BZ3">
-        <v>16.77</v>
+        <v>16.89</v>
       </c>
       <c r="CA3">
         <v>27.46</v>
       </c>
       <c r="CB3">
-        <v>41.19</v>
+        <v>41.07</v>
       </c>
       <c r="CC3">
-        <v>42.16</v>
+        <v>43.25</v>
+      </c>
+      <c r="CD3">
+        <v>48.72</v>
       </c>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>0.38</v>
@@ -7177,22 +6769,22 @@
         <v>114.21</v>
       </c>
       <c r="AK4">
-        <v>146.05000000000001</v>
+        <v>146.12</v>
       </c>
       <c r="AL4">
-        <v>180.97</v>
+        <v>181.03</v>
       </c>
       <c r="AM4">
         <v>215.95</v>
       </c>
       <c r="AN4">
-        <v>261.86</v>
+        <v>261.8</v>
       </c>
       <c r="AO4">
         <v>293.89999999999998</v>
       </c>
       <c r="AP4">
-        <v>377.8</v>
+        <v>377.86</v>
       </c>
       <c r="AQ4">
         <v>443.34</v>
@@ -7201,22 +6793,22 @@
         <v>372.17</v>
       </c>
       <c r="AS4">
-        <v>357.21</v>
+        <v>357.14</v>
       </c>
       <c r="AT4">
-        <v>387.9</v>
+        <v>387.84</v>
       </c>
       <c r="AU4">
-        <v>355.35</v>
+        <v>355.41</v>
       </c>
       <c r="AV4">
         <v>283.99</v>
       </c>
       <c r="AW4">
-        <v>212.43</v>
+        <v>212.49</v>
       </c>
       <c r="AX4">
-        <v>164.85</v>
+        <v>164.79</v>
       </c>
       <c r="AY4">
         <v>105.51</v>
@@ -7249,13 +6841,13 @@
         <v>76.739999999999995</v>
       </c>
       <c r="BI4">
-        <v>75.14</v>
+        <v>75.2</v>
       </c>
       <c r="BJ4">
-        <v>63.18</v>
+        <v>63.31</v>
       </c>
       <c r="BK4">
-        <v>54.8</v>
+        <v>54.61</v>
       </c>
       <c r="BL4">
         <v>39.65</v>
@@ -7303,18 +6895,21 @@
         <v>14.13</v>
       </c>
       <c r="CA4">
-        <v>21.1</v>
+        <v>21.17</v>
       </c>
       <c r="CB4">
-        <v>28.2</v>
+        <v>28.07</v>
       </c>
       <c r="CC4">
-        <v>32.29</v>
+        <v>32.74</v>
+      </c>
+      <c r="CD4">
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5">
         <v>0.36</v>
@@ -7416,7 +7011,7 @@
         <v>26.01</v>
       </c>
       <c r="AI5">
-        <v>55.79</v>
+        <v>55.82</v>
       </c>
       <c r="AJ5">
         <v>86.06</v>
@@ -7431,7 +7026,7 @@
         <v>132.29</v>
       </c>
       <c r="AN5">
-        <v>144.86000000000001</v>
+        <v>144.74</v>
       </c>
       <c r="AO5">
         <v>165.23</v>
@@ -7449,19 +7044,19 @@
         <v>208.45</v>
       </c>
       <c r="AT5">
-        <v>232.74</v>
+        <v>232.71</v>
       </c>
       <c r="AU5">
         <v>203.05</v>
       </c>
       <c r="AV5">
-        <v>161.83000000000001</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="AW5">
-        <v>127.28</v>
+        <v>127.25</v>
       </c>
       <c r="AX5">
-        <v>95.41</v>
+        <v>95.44</v>
       </c>
       <c r="AY5">
         <v>69.540000000000006</v>
@@ -7497,10 +7092,10 @@
         <v>61.44</v>
       </c>
       <c r="BJ5">
-        <v>48.36</v>
+        <v>48.39</v>
       </c>
       <c r="BK5">
-        <v>41.47</v>
+        <v>41.44</v>
       </c>
       <c r="BL5">
         <v>27.96</v>
@@ -7509,10 +7104,10 @@
         <v>21.04</v>
       </c>
       <c r="BN5">
-        <v>11.57</v>
+        <v>11.6</v>
       </c>
       <c r="BO5">
-        <v>6.44</v>
+        <v>6.37</v>
       </c>
       <c r="BP5">
         <v>4.71</v>
@@ -7542,24 +7137,27 @@
         <v>5.28</v>
       </c>
       <c r="BY5">
-        <v>7.01</v>
+        <v>6.98</v>
       </c>
       <c r="BZ5">
-        <v>8.9499999999999993</v>
+        <v>8.99</v>
       </c>
       <c r="CA5">
-        <v>14.57</v>
+        <v>14.51</v>
       </c>
       <c r="CB5">
         <v>20.52</v>
       </c>
       <c r="CC5">
-        <v>24.95</v>
+        <v>25.07</v>
+      </c>
+      <c r="CD5">
+        <v>23.98</v>
       </c>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6">
         <v>0.62</v>
@@ -7577,7 +7175,7 @@
         <v>46.13</v>
       </c>
       <c r="G6">
-        <v>33.869999999999997</v>
+        <v>33.9</v>
       </c>
       <c r="H6">
         <v>22.06</v>
@@ -7586,7 +7184,7 @@
         <v>15.17</v>
       </c>
       <c r="J6">
-        <v>9.0500000000000007</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="K6">
         <v>7.09</v>
@@ -7661,7 +7259,7 @@
         <v>23.29</v>
       </c>
       <c r="AI6">
-        <v>42.02</v>
+        <v>42.05</v>
       </c>
       <c r="AJ6">
         <v>68.209999999999994</v>
@@ -7679,25 +7277,25 @@
         <v>89.95</v>
       </c>
       <c r="AO6">
-        <v>102.29</v>
+        <v>102.26</v>
       </c>
       <c r="AP6">
         <v>129.01</v>
       </c>
       <c r="AQ6">
-        <v>153.11000000000001</v>
+        <v>153.08000000000001</v>
       </c>
       <c r="AR6">
-        <v>131.63999999999999</v>
+        <v>131.56</v>
       </c>
       <c r="AS6">
         <v>119.59</v>
       </c>
       <c r="AT6">
-        <v>134.53</v>
+        <v>134.56</v>
       </c>
       <c r="AU6">
-        <v>111.24</v>
+        <v>111.19</v>
       </c>
       <c r="AV6">
         <v>87.94</v>
@@ -7715,13 +7313,13 @@
         <v>44.16</v>
       </c>
       <c r="BA6">
-        <v>40.53</v>
+        <v>40.5</v>
       </c>
       <c r="BB6">
         <v>35.21</v>
       </c>
       <c r="BC6">
-        <v>36.729999999999997</v>
+        <v>36.76</v>
       </c>
       <c r="BD6">
         <v>48.86</v>
@@ -7730,28 +7328,28 @@
         <v>57.32</v>
       </c>
       <c r="BF6">
-        <v>56.13</v>
+        <v>56.11</v>
       </c>
       <c r="BG6">
         <v>60.67</v>
       </c>
       <c r="BH6">
-        <v>69.78</v>
+        <v>69.81</v>
       </c>
       <c r="BI6">
-        <v>64.180000000000007</v>
+        <v>64.209999999999994</v>
       </c>
       <c r="BJ6">
-        <v>54.66</v>
+        <v>54.72</v>
       </c>
       <c r="BK6">
         <v>42.93</v>
       </c>
       <c r="BL6">
-        <v>29.49</v>
+        <v>29.41</v>
       </c>
       <c r="BM6">
-        <v>19.97</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="BN6">
         <v>10.53</v>
@@ -7775,7 +7373,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="BU6">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="BV6">
         <v>1.65</v>
@@ -7787,24 +7385,27 @@
         <v>3.15</v>
       </c>
       <c r="BY6">
-        <v>5.88</v>
+        <v>5.86</v>
       </c>
       <c r="BZ6">
         <v>7.4</v>
       </c>
       <c r="CA6">
-        <v>10.63</v>
+        <v>10.6</v>
       </c>
       <c r="CB6">
-        <v>13.96</v>
+        <v>13.93</v>
       </c>
       <c r="CC6">
-        <v>15.14</v>
+        <v>15.22</v>
+      </c>
+      <c r="CD6">
+        <v>14.55</v>
       </c>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7">
         <v>0.3</v>
@@ -7822,7 +7423,7 @@
         <v>38.43</v>
       </c>
       <c r="G7">
-        <v>28.39</v>
+        <v>28.36</v>
       </c>
       <c r="H7">
         <v>17.170000000000002</v>
@@ -7906,7 +7507,7 @@
         <v>25.42</v>
       </c>
       <c r="AI7">
-        <v>49.07</v>
+        <v>49.1</v>
       </c>
       <c r="AJ7">
         <v>78.44</v>
@@ -7924,7 +7525,7 @@
         <v>86.88</v>
       </c>
       <c r="AO7">
-        <v>94.74</v>
+        <v>94.69</v>
       </c>
       <c r="AP7">
         <v>119.38</v>
@@ -7933,13 +7534,13 @@
         <v>140.28</v>
       </c>
       <c r="AR7">
-        <v>120.98</v>
+        <v>121.01</v>
       </c>
       <c r="AS7">
         <v>112.35</v>
       </c>
       <c r="AT7">
-        <v>131.62</v>
+        <v>131.65</v>
       </c>
       <c r="AU7">
         <v>99.7</v>
@@ -7969,7 +7570,7 @@
         <v>49.24</v>
       </c>
       <c r="BD7">
-        <v>64.7</v>
+        <v>64.67</v>
       </c>
       <c r="BE7">
         <v>77.27</v>
@@ -7981,22 +7582,22 @@
         <v>85.57</v>
       </c>
       <c r="BH7">
-        <v>98.26</v>
+        <v>98.31</v>
       </c>
       <c r="BI7">
-        <v>91.72</v>
+        <v>91.75</v>
       </c>
       <c r="BJ7">
-        <v>78.36</v>
+        <v>78.33</v>
       </c>
       <c r="BK7">
-        <v>62.71</v>
+        <v>62.68</v>
       </c>
       <c r="BL7">
         <v>43.38</v>
       </c>
       <c r="BM7">
-        <v>29.5</v>
+        <v>29.42</v>
       </c>
       <c r="BN7">
         <v>15.87</v>
@@ -8005,13 +7606,13 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="BP7">
-        <v>5.88</v>
+        <v>5.85</v>
       </c>
       <c r="BQ7">
         <v>3.05</v>
       </c>
       <c r="BR7">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="BS7">
         <v>1.82</v>
@@ -8032,24 +7633,27 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="BY7">
-        <v>8.08</v>
+        <v>8.11</v>
       </c>
       <c r="BZ7">
-        <v>10.72</v>
+        <v>10.67</v>
       </c>
       <c r="CA7">
-        <v>16.77</v>
+        <v>16.79</v>
       </c>
       <c r="CB7">
         <v>20.170000000000002</v>
       </c>
       <c r="CC7">
-        <v>22.02</v>
+        <v>22.26</v>
+      </c>
+      <c r="CD7">
+        <v>20.49</v>
       </c>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8">
         <v>0.51</v>
@@ -8157,7 +7761,7 @@
         <v>73.099999999999994</v>
       </c>
       <c r="AK8">
-        <v>87.69</v>
+        <v>87.71</v>
       </c>
       <c r="AL8">
         <v>82.61</v>
@@ -8169,7 +7773,7 @@
         <v>85.1</v>
       </c>
       <c r="AO8">
-        <v>84.73</v>
+        <v>84.69</v>
       </c>
       <c r="AP8">
         <v>106.38</v>
@@ -8178,25 +7782,25 @@
         <v>130.72999999999999</v>
       </c>
       <c r="AR8">
-        <v>114.88</v>
+        <v>114.86</v>
       </c>
       <c r="AS8">
         <v>102.39</v>
       </c>
       <c r="AT8">
-        <v>117.97</v>
+        <v>117.9</v>
       </c>
       <c r="AU8">
         <v>90.9</v>
       </c>
       <c r="AV8">
-        <v>74.599999999999994</v>
+        <v>74.56</v>
       </c>
       <c r="AW8">
         <v>64.349999999999994</v>
       </c>
       <c r="AX8">
-        <v>52.19</v>
+        <v>52.21</v>
       </c>
       <c r="AY8">
         <v>39.39</v>
@@ -8205,7 +7809,7 @@
         <v>42.02</v>
       </c>
       <c r="BA8">
-        <v>43.59</v>
+        <v>43.63</v>
       </c>
       <c r="BB8">
         <v>41.02</v>
@@ -8220,34 +7824,34 @@
         <v>80.239999999999995</v>
       </c>
       <c r="BF8">
-        <v>81.599999999999994</v>
+        <v>81.64</v>
       </c>
       <c r="BG8">
-        <v>88.64</v>
+        <v>88.66</v>
       </c>
       <c r="BH8">
-        <v>101.09</v>
+        <v>101.07</v>
       </c>
       <c r="BI8">
-        <v>95.22</v>
+        <v>95.25</v>
       </c>
       <c r="BJ8">
         <v>81.739999999999995</v>
       </c>
       <c r="BK8">
-        <v>67.73</v>
+        <v>67.75</v>
       </c>
       <c r="BL8">
-        <v>47.73</v>
+        <v>47.7</v>
       </c>
       <c r="BM8">
         <v>33.28</v>
       </c>
       <c r="BN8">
-        <v>15.87</v>
+        <v>15.85</v>
       </c>
       <c r="BO8">
-        <v>12.22</v>
+        <v>12.2</v>
       </c>
       <c r="BP8">
         <v>6.57</v>
@@ -8268,7 +7872,7 @@
         <v>2.35</v>
       </c>
       <c r="BV8">
-        <v>3.25</v>
+        <v>3.27</v>
       </c>
       <c r="BW8">
         <v>4.9400000000000004</v>
@@ -8280,27 +7884,30 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="BZ8">
-        <v>12.16</v>
+        <v>12.18</v>
       </c>
       <c r="CA8">
-        <v>16.690000000000001</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="CB8">
-        <v>20.399999999999999</v>
+        <v>20.46</v>
       </c>
       <c r="CC8">
-        <v>22.64</v>
+        <v>22.84</v>
+      </c>
+      <c r="CD8">
+        <v>21.55</v>
       </c>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9">
         <v>1.1200000000000001</v>
       </c>
       <c r="C9">
-        <v>7.6</v>
+        <v>7.61</v>
       </c>
       <c r="D9">
         <v>28.29</v>
@@ -8312,7 +7919,7 @@
         <v>49.21</v>
       </c>
       <c r="G9">
-        <v>31.64</v>
+        <v>31.66</v>
       </c>
       <c r="H9">
         <v>19.21</v>
@@ -8387,7 +7994,7 @@
         <v>9.6</v>
       </c>
       <c r="AF9">
-        <v>12.04</v>
+        <v>12.06</v>
       </c>
       <c r="AG9">
         <v>22.54</v>
@@ -8396,13 +8003,13 @@
         <v>37.57</v>
       </c>
       <c r="AI9">
-        <v>70.08</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="AJ9">
         <v>106.01</v>
       </c>
       <c r="AK9">
-        <v>121.36</v>
+        <v>121.38</v>
       </c>
       <c r="AL9">
         <v>122.61</v>
@@ -8414,7 +8021,7 @@
         <v>124.03</v>
       </c>
       <c r="AO9">
-        <v>135.43</v>
+        <v>135.41999999999999</v>
       </c>
       <c r="AP9">
         <v>166.86</v>
@@ -8429,7 +8036,7 @@
         <v>146.27000000000001</v>
       </c>
       <c r="AT9">
-        <v>164.28</v>
+        <v>164.31</v>
       </c>
       <c r="AU9">
         <v>133.72</v>
@@ -8441,13 +8048,13 @@
         <v>90.69</v>
       </c>
       <c r="AX9">
-        <v>74.63</v>
+        <v>74.61</v>
       </c>
       <c r="AY9">
         <v>56.43</v>
       </c>
       <c r="AZ9">
-        <v>57.51</v>
+        <v>57.53</v>
       </c>
       <c r="BA9">
         <v>62.22</v>
@@ -8456,7 +8063,7 @@
         <v>60.55</v>
       </c>
       <c r="BC9">
-        <v>72.930000000000007</v>
+        <v>72.95</v>
       </c>
       <c r="BD9">
         <v>93.98</v>
@@ -8465,19 +8072,19 @@
         <v>116.33</v>
       </c>
       <c r="BF9">
-        <v>113.43</v>
+        <v>113.41</v>
       </c>
       <c r="BG9">
         <v>121.73</v>
       </c>
       <c r="BH9">
-        <v>134.5</v>
+        <v>134.55000000000001</v>
       </c>
       <c r="BI9">
-        <v>137.4</v>
+        <v>137.41999999999999</v>
       </c>
       <c r="BJ9">
-        <v>120.38</v>
+        <v>120.33</v>
       </c>
       <c r="BK9">
         <v>97.91</v>
@@ -8513,7 +8120,7 @@
         <v>4.16</v>
       </c>
       <c r="BV9">
-        <v>5.22</v>
+        <v>5.21</v>
       </c>
       <c r="BW9">
         <v>7.03</v>
@@ -8528,18 +8135,21 @@
         <v>17.32</v>
       </c>
       <c r="CA9">
-        <v>26.28</v>
+        <v>26.24</v>
       </c>
       <c r="CB9">
-        <v>32.35</v>
+        <v>32.42</v>
       </c>
       <c r="CC9">
-        <v>32.79</v>
+        <v>33.15</v>
+      </c>
+      <c r="CD9">
+        <v>30.37</v>
       </c>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10">
         <v>1.1299999999999999</v>
@@ -8650,31 +8260,31 @@
         <v>150.88</v>
       </c>
       <c r="AL10">
-        <v>152.75</v>
+        <v>152.76</v>
       </c>
       <c r="AM10">
-        <v>152.18</v>
+        <v>152.21</v>
       </c>
       <c r="AN10">
-        <v>146.56</v>
+        <v>146.54</v>
       </c>
       <c r="AO10">
-        <v>154.01</v>
+        <v>154.02000000000001</v>
       </c>
       <c r="AP10">
         <v>193.64</v>
       </c>
       <c r="AQ10">
-        <v>222.63</v>
+        <v>222.64</v>
       </c>
       <c r="AR10">
-        <v>183.87</v>
+        <v>183.89</v>
       </c>
       <c r="AS10">
         <v>164.67</v>
       </c>
       <c r="AT10">
-        <v>182.98</v>
+        <v>182.97</v>
       </c>
       <c r="AU10">
         <v>148.9</v>
@@ -8692,7 +8302,7 @@
         <v>66.91</v>
       </c>
       <c r="AZ10">
-        <v>68.319999999999993</v>
+        <v>68.31</v>
       </c>
       <c r="BA10">
         <v>71.81</v>
@@ -8701,13 +8311,13 @@
         <v>68.83</v>
       </c>
       <c r="BC10">
-        <v>84.75</v>
+        <v>84.78</v>
       </c>
       <c r="BD10">
         <v>107.82</v>
       </c>
       <c r="BE10">
-        <v>134.97999999999999</v>
+        <v>134.96</v>
       </c>
       <c r="BF10">
         <v>132.80000000000001</v>
@@ -8716,22 +8326,22 @@
         <v>143.66</v>
       </c>
       <c r="BH10">
-        <v>158.27000000000001</v>
+        <v>158.28</v>
       </c>
       <c r="BI10">
-        <v>163.63</v>
+        <v>163.63999999999999</v>
       </c>
       <c r="BJ10">
-        <v>147.37</v>
+        <v>147.31</v>
       </c>
       <c r="BK10">
-        <v>116.1</v>
+        <v>116.08</v>
       </c>
       <c r="BL10">
         <v>79.069999999999993</v>
       </c>
       <c r="BM10">
-        <v>53.09</v>
+        <v>53.06</v>
       </c>
       <c r="BN10">
         <v>28.63</v>
@@ -8740,7 +8350,7 @@
         <v>18.66</v>
       </c>
       <c r="BP10">
-        <v>11.8</v>
+        <v>11.79</v>
       </c>
       <c r="BQ10">
         <v>5.4</v>
@@ -8758,7 +8368,7 @@
         <v>5.45</v>
       </c>
       <c r="BV10">
-        <v>8.1</v>
+        <v>8.09</v>
       </c>
       <c r="BW10">
         <v>8.59</v>
@@ -8767,24 +8377,27 @@
         <v>11.68</v>
       </c>
       <c r="BY10">
-        <v>18.52</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="BZ10">
-        <v>26.78</v>
+        <v>26.75</v>
       </c>
       <c r="CA10">
-        <v>35.58</v>
+        <v>35.61</v>
       </c>
       <c r="CB10">
-        <v>40.24</v>
+        <v>40.22</v>
       </c>
       <c r="CC10">
-        <v>42.39</v>
+        <v>42.82</v>
+      </c>
+      <c r="CD10">
+        <v>38.4</v>
       </c>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11">
         <v>1.98</v>
@@ -8799,7 +8412,7 @@
         <v>59.61</v>
       </c>
       <c r="F11">
-        <v>55.12</v>
+        <v>55.14</v>
       </c>
       <c r="G11">
         <v>38.85</v>
@@ -8817,7 +8430,7 @@
         <v>7.76</v>
       </c>
       <c r="L11">
-        <v>5.59</v>
+        <v>5.6</v>
       </c>
       <c r="M11">
         <v>3.74</v>
@@ -8883,37 +8496,37 @@
         <v>33.81</v>
       </c>
       <c r="AH11">
-        <v>53.32</v>
+        <v>53.34</v>
       </c>
       <c r="AI11">
-        <v>95.66</v>
+        <v>95.67</v>
       </c>
       <c r="AJ11">
         <v>145.55000000000001</v>
       </c>
       <c r="AK11">
-        <v>163.38</v>
+        <v>163.38999999999999</v>
       </c>
       <c r="AL11">
-        <v>163.88</v>
+        <v>163.9</v>
       </c>
       <c r="AM11">
-        <v>161.6</v>
+        <v>161.57</v>
       </c>
       <c r="AN11">
-        <v>153.94</v>
+        <v>153.96</v>
       </c>
       <c r="AO11">
-        <v>157.18</v>
+        <v>157.19</v>
       </c>
       <c r="AP11">
-        <v>197.53</v>
+        <v>197.52</v>
       </c>
       <c r="AQ11">
-        <v>222.32</v>
+        <v>222.33</v>
       </c>
       <c r="AR11">
-        <v>178.53</v>
+        <v>178.55</v>
       </c>
       <c r="AS11">
         <v>156.86000000000001</v>
@@ -8925,7 +8538,7 @@
         <v>146.25</v>
       </c>
       <c r="AV11">
-        <v>121.87</v>
+        <v>121.89</v>
       </c>
       <c r="AW11">
         <v>99.47</v>
@@ -8940,13 +8553,13 @@
         <v>67.09</v>
       </c>
       <c r="BA11">
-        <v>70.819999999999993</v>
+        <v>70.8</v>
       </c>
       <c r="BB11">
-        <v>73.680000000000007</v>
+        <v>73.72</v>
       </c>
       <c r="BC11">
-        <v>87.98</v>
+        <v>88.01</v>
       </c>
       <c r="BD11">
         <v>112.25</v>
@@ -8961,34 +8574,34 @@
         <v>148.34</v>
       </c>
       <c r="BH11">
-        <v>165.6</v>
+        <v>165.58</v>
       </c>
       <c r="BI11">
-        <v>173.45</v>
+        <v>173.54</v>
       </c>
       <c r="BJ11">
-        <v>151.28</v>
+        <v>151.19999999999999</v>
       </c>
       <c r="BK11">
-        <v>119.53</v>
+        <v>119.49</v>
       </c>
       <c r="BL11">
-        <v>81.52</v>
+        <v>81.62</v>
       </c>
       <c r="BM11">
-        <v>56.32</v>
+        <v>56.21</v>
       </c>
       <c r="BN11">
-        <v>30.7</v>
+        <v>30.64</v>
       </c>
       <c r="BO11">
-        <v>20.190000000000001</v>
+        <v>20.18</v>
       </c>
       <c r="BP11">
         <v>12.26</v>
       </c>
       <c r="BQ11">
-        <v>6.56</v>
+        <v>6.54</v>
       </c>
       <c r="BR11">
         <v>4.4400000000000004</v>
@@ -8997,7 +8610,7 @@
         <v>3.35</v>
       </c>
       <c r="BT11">
-        <v>4.29</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="BU11">
         <v>6.75</v>
@@ -9009,27 +8622,30 @@
         <v>12.22</v>
       </c>
       <c r="BX11">
-        <v>14.5</v>
+        <v>14.52</v>
       </c>
       <c r="BY11">
-        <v>24.43</v>
+        <v>24.44</v>
       </c>
       <c r="BZ11">
-        <v>37.72</v>
+        <v>37.729999999999997</v>
       </c>
       <c r="CA11">
-        <v>49.49</v>
+        <v>49.6</v>
       </c>
       <c r="CB11">
-        <v>55.5</v>
+        <v>55.48</v>
       </c>
       <c r="CC11">
-        <v>54.39</v>
+        <v>54.9</v>
+      </c>
+      <c r="CD11">
+        <v>49.36</v>
       </c>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B12">
         <v>1.88</v>
@@ -9101,7 +8717,7 @@
         <v>8.65</v>
       </c>
       <c r="Y12">
-        <v>10.87</v>
+        <v>10.88</v>
       </c>
       <c r="Z12">
         <v>13.14</v>
@@ -9128,31 +8744,31 @@
         <v>38.590000000000003</v>
       </c>
       <c r="AH12">
-        <v>59.18</v>
+        <v>59.17</v>
       </c>
       <c r="AI12">
-        <v>110.37</v>
+        <v>110.39</v>
       </c>
       <c r="AJ12">
         <v>159.22</v>
       </c>
       <c r="AK12">
-        <v>179.7</v>
+        <v>179.71</v>
       </c>
       <c r="AL12">
-        <v>176.04</v>
+        <v>176.05</v>
       </c>
       <c r="AM12">
-        <v>183.45</v>
+        <v>183.49</v>
       </c>
       <c r="AN12">
-        <v>171.79</v>
+        <v>171.73</v>
       </c>
       <c r="AO12">
-        <v>175.13</v>
+        <v>175.11</v>
       </c>
       <c r="AP12">
-        <v>210.36</v>
+        <v>210.38</v>
       </c>
       <c r="AQ12">
         <v>235.94</v>
@@ -9161,25 +8777,25 @@
         <v>184.7</v>
       </c>
       <c r="AS12">
-        <v>162.16999999999999</v>
+        <v>162.15</v>
       </c>
       <c r="AT12">
-        <v>185.75</v>
+        <v>185.73</v>
       </c>
       <c r="AU12">
         <v>150.83000000000001</v>
       </c>
       <c r="AV12">
-        <v>123.05</v>
+        <v>123.07</v>
       </c>
       <c r="AW12">
         <v>100.6</v>
       </c>
       <c r="AX12">
-        <v>85.18</v>
+        <v>85.14</v>
       </c>
       <c r="AY12">
-        <v>67.34</v>
+        <v>67.36</v>
       </c>
       <c r="AZ12">
         <v>71.569999999999993</v>
@@ -9188,46 +8804,46 @@
         <v>76.78</v>
       </c>
       <c r="BB12">
-        <v>81.33</v>
+        <v>81.349999999999994</v>
       </c>
       <c r="BC12">
-        <v>98.34</v>
+        <v>98.36</v>
       </c>
       <c r="BD12">
-        <v>123.6</v>
+        <v>123.58</v>
       </c>
       <c r="BE12">
         <v>154.69999999999999</v>
       </c>
       <c r="BF12">
-        <v>151.57</v>
+        <v>151.59</v>
       </c>
       <c r="BG12">
         <v>166.31</v>
       </c>
       <c r="BH12">
-        <v>192.78</v>
+        <v>192.8</v>
       </c>
       <c r="BI12">
-        <v>202.39</v>
+        <v>202.43</v>
       </c>
       <c r="BJ12">
         <v>171.11</v>
       </c>
       <c r="BK12">
-        <v>141.11000000000001</v>
+        <v>141.16</v>
       </c>
       <c r="BL12">
-        <v>96.43</v>
+        <v>96.37</v>
       </c>
       <c r="BM12">
-        <v>68.06</v>
+        <v>68</v>
       </c>
       <c r="BN12">
-        <v>39.46</v>
+        <v>39.42</v>
       </c>
       <c r="BO12">
-        <v>24.78</v>
+        <v>24.77</v>
       </c>
       <c r="BP12">
         <v>16.54</v>
@@ -9242,10 +8858,10 @@
         <v>4.91</v>
       </c>
       <c r="BT12">
-        <v>6.31</v>
+        <v>6.3</v>
       </c>
       <c r="BU12">
-        <v>8.27</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="BV12">
         <v>13.05</v>
@@ -9257,24 +8873,27 @@
         <v>22.28</v>
       </c>
       <c r="BY12">
-        <v>36.92</v>
+        <v>36.94</v>
       </c>
       <c r="BZ12">
-        <v>58.67</v>
+        <v>58.69</v>
       </c>
       <c r="CA12">
-        <v>77.94</v>
+        <v>77.92</v>
       </c>
       <c r="CB12">
-        <v>87.61</v>
+        <v>87.71</v>
       </c>
       <c r="CC12">
-        <v>85.2</v>
+        <v>86.15</v>
+      </c>
+      <c r="CD12">
+        <v>71.62</v>
       </c>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B13">
         <v>1.73</v>
@@ -9388,16 +9007,16 @@
         <v>183.19</v>
       </c>
       <c r="AM13">
-        <v>188.18</v>
+        <v>188.22</v>
       </c>
       <c r="AN13">
-        <v>179.42</v>
+        <v>179.4</v>
       </c>
       <c r="AO13">
         <v>179.44</v>
       </c>
       <c r="AP13">
-        <v>222.1</v>
+        <v>222.12</v>
       </c>
       <c r="AQ13">
         <v>244.18</v>
@@ -9433,10 +9052,10 @@
         <v>84.25</v>
       </c>
       <c r="BB13">
-        <v>87.04</v>
+        <v>87.06</v>
       </c>
       <c r="BC13">
-        <v>108.8</v>
+        <v>108.9</v>
       </c>
       <c r="BD13">
         <v>142.22999999999999</v>
@@ -9451,28 +9070,28 @@
         <v>189</v>
       </c>
       <c r="BH13">
-        <v>218.45</v>
+        <v>218.48</v>
       </c>
       <c r="BI13">
         <v>220.49</v>
       </c>
       <c r="BJ13">
-        <v>195.13</v>
+        <v>195.05</v>
       </c>
       <c r="BK13">
-        <v>157.4</v>
+        <v>157.44</v>
       </c>
       <c r="BL13">
-        <v>108.64</v>
+        <v>108.66</v>
       </c>
       <c r="BM13">
-        <v>81.2</v>
+        <v>81.14</v>
       </c>
       <c r="BN13">
-        <v>44.94</v>
+        <v>44.9</v>
       </c>
       <c r="BO13">
-        <v>32.49</v>
+        <v>32.51</v>
       </c>
       <c r="BP13">
         <v>21.94</v>
@@ -9487,7 +9106,7 @@
         <v>5.5</v>
       </c>
       <c r="BT13">
-        <v>7.01</v>
+        <v>7.03</v>
       </c>
       <c r="BU13">
         <v>10.29</v>
@@ -9499,27 +9118,30 @@
         <v>20.11</v>
       </c>
       <c r="BX13">
-        <v>29.39</v>
+        <v>29.46</v>
       </c>
       <c r="BY13">
-        <v>47.85</v>
+        <v>47.89</v>
       </c>
       <c r="BZ13">
         <v>76.47</v>
       </c>
       <c r="CA13">
-        <v>105.42</v>
+        <v>105.52</v>
       </c>
       <c r="CB13">
-        <v>115.79</v>
+        <v>115.91</v>
       </c>
       <c r="CC13">
-        <v>109.21</v>
+        <v>110.33</v>
+      </c>
+      <c r="CD13">
+        <v>90.04</v>
       </c>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B14">
         <v>1.27</v>
@@ -9591,7 +9213,7 @@
         <v>9.74</v>
       </c>
       <c r="Y14">
-        <v>12.16</v>
+        <v>12.14</v>
       </c>
       <c r="Z14">
         <v>14.37</v>
@@ -9609,7 +9231,7 @@
         <v>17.13</v>
       </c>
       <c r="AE14">
-        <v>19.04</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="AF14">
         <v>21.8</v>
@@ -9618,19 +9240,19 @@
         <v>34.47</v>
       </c>
       <c r="AH14">
-        <v>58.57</v>
+        <v>58.59</v>
       </c>
       <c r="AI14">
-        <v>101.83</v>
+        <v>101.87</v>
       </c>
       <c r="AJ14">
-        <v>152.82</v>
+        <v>152.84</v>
       </c>
       <c r="AK14">
         <v>169.33</v>
       </c>
       <c r="AL14">
-        <v>173.73</v>
+        <v>173.75</v>
       </c>
       <c r="AM14">
         <v>173.84</v>
@@ -9639,13 +9261,13 @@
         <v>164.77</v>
       </c>
       <c r="AO14">
-        <v>172.77</v>
+        <v>172.79</v>
       </c>
       <c r="AP14">
-        <v>207.82</v>
+        <v>207.78</v>
       </c>
       <c r="AQ14">
-        <v>231.17</v>
+        <v>231.15</v>
       </c>
       <c r="AR14">
         <v>180.06</v>
@@ -9654,10 +9276,10 @@
         <v>152.76</v>
       </c>
       <c r="AT14">
-        <v>191.84</v>
+        <v>191.82</v>
       </c>
       <c r="AU14">
-        <v>151.4</v>
+        <v>151.36000000000001</v>
       </c>
       <c r="AV14">
         <v>119.9</v>
@@ -9669,7 +9291,7 @@
         <v>84.32</v>
       </c>
       <c r="AY14">
-        <v>67.97</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="AZ14">
         <v>70.099999999999994</v>
@@ -9684,13 +9306,13 @@
         <v>108.88</v>
       </c>
       <c r="BD14">
-        <v>143.44</v>
+        <v>143.41999999999999</v>
       </c>
       <c r="BE14">
-        <v>178.84</v>
+        <v>178.85</v>
       </c>
       <c r="BF14">
-        <v>169.91</v>
+        <v>169.89</v>
       </c>
       <c r="BG14">
         <v>179.29</v>
@@ -9699,22 +9321,22 @@
         <v>212.98</v>
       </c>
       <c r="BI14">
-        <v>213.13</v>
+        <v>213.25</v>
       </c>
       <c r="BJ14">
-        <v>189.63</v>
+        <v>189.54</v>
       </c>
       <c r="BK14">
-        <v>150.65</v>
+        <v>150.66999999999999</v>
       </c>
       <c r="BL14">
-        <v>106.39</v>
+        <v>106.35</v>
       </c>
       <c r="BM14">
-        <v>79.84</v>
+        <v>79.819999999999993</v>
       </c>
       <c r="BN14">
-        <v>45.66</v>
+        <v>45.6</v>
       </c>
       <c r="BO14">
         <v>31.99</v>
@@ -9744,10 +9366,10 @@
         <v>22.04</v>
       </c>
       <c r="BX14">
-        <v>30.1</v>
+        <v>30.12</v>
       </c>
       <c r="BY14">
-        <v>46.21</v>
+        <v>46.26</v>
       </c>
       <c r="BZ14">
         <v>71.16</v>
@@ -9756,15 +9378,18 @@
         <v>99.5</v>
       </c>
       <c r="CB14">
-        <v>113.21</v>
+        <v>113.27</v>
       </c>
       <c r="CC14">
-        <v>108.56</v>
+        <v>109.41</v>
+      </c>
+      <c r="CD14">
+        <v>90.98</v>
       </c>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B15">
         <v>1.26</v>
@@ -9851,7 +9476,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="AD15">
-        <v>21.96</v>
+        <v>21.98</v>
       </c>
       <c r="AE15">
         <v>23.69</v>
@@ -9863,19 +9488,19 @@
         <v>42.92</v>
       </c>
       <c r="AH15">
-        <v>70.22</v>
+        <v>70.2</v>
       </c>
       <c r="AI15">
         <v>122.22</v>
       </c>
       <c r="AJ15">
-        <v>174.23</v>
+        <v>174.21</v>
       </c>
       <c r="AK15">
-        <v>190.6</v>
+        <v>190.58</v>
       </c>
       <c r="AL15">
-        <v>190.66</v>
+        <v>190.69</v>
       </c>
       <c r="AM15">
         <v>183.45</v>
@@ -9884,19 +9509,19 @@
         <v>170.44</v>
       </c>
       <c r="AO15">
-        <v>172.3</v>
+        <v>172.28</v>
       </c>
       <c r="AP15">
-        <v>209.54</v>
+        <v>209.56</v>
       </c>
       <c r="AQ15">
         <v>237.02</v>
       </c>
       <c r="AR15">
-        <v>182.72</v>
+        <v>182.74</v>
       </c>
       <c r="AS15">
-        <v>167.29</v>
+        <v>167.28</v>
       </c>
       <c r="AT15">
         <v>211.11</v>
@@ -9905,13 +9530,13 @@
         <v>164.64</v>
       </c>
       <c r="AV15">
-        <v>127.74</v>
+        <v>127.72</v>
       </c>
       <c r="AW15">
         <v>104.9</v>
       </c>
       <c r="AX15">
-        <v>89.29</v>
+        <v>89.31</v>
       </c>
       <c r="AY15">
         <v>71.040000000000006</v>
@@ -9920,19 +9545,19 @@
         <v>74.86</v>
       </c>
       <c r="BA15">
-        <v>82.43</v>
+        <v>82.41</v>
       </c>
       <c r="BB15">
-        <v>89</v>
+        <v>89.01</v>
       </c>
       <c r="BC15">
-        <v>109.52</v>
+        <v>109.5</v>
       </c>
       <c r="BD15">
         <v>143.66</v>
       </c>
       <c r="BE15">
-        <v>179.58</v>
+        <v>179.56</v>
       </c>
       <c r="BF15">
         <v>173.08</v>
@@ -9941,28 +9566,28 @@
         <v>184.38</v>
       </c>
       <c r="BH15">
-        <v>218.5</v>
+        <v>218.52</v>
       </c>
       <c r="BI15">
-        <v>215.71</v>
+        <v>215.77</v>
       </c>
       <c r="BJ15">
-        <v>190.22</v>
+        <v>190.2</v>
       </c>
       <c r="BK15">
-        <v>150.59</v>
+        <v>150.61000000000001</v>
       </c>
       <c r="BL15">
-        <v>106.83</v>
+        <v>106.86</v>
       </c>
       <c r="BM15">
-        <v>82.66</v>
+        <v>82.61</v>
       </c>
       <c r="BN15">
-        <v>49.98</v>
+        <v>50</v>
       </c>
       <c r="BO15">
-        <v>31.9</v>
+        <v>31.86</v>
       </c>
       <c r="BP15">
         <v>21.54</v>
@@ -9980,13 +9605,13 @@
         <v>10.57</v>
       </c>
       <c r="BU15">
-        <v>15.79</v>
+        <v>15.81</v>
       </c>
       <c r="BV15">
-        <v>23.76</v>
+        <v>23.75</v>
       </c>
       <c r="BW15">
-        <v>27.57</v>
+        <v>27.55</v>
       </c>
       <c r="BX15">
         <v>37.72</v>
@@ -9998,18 +9623,21 @@
         <v>79.72</v>
       </c>
       <c r="CA15">
-        <v>108.65</v>
+        <v>108.74</v>
       </c>
       <c r="CB15">
         <v>119.71</v>
       </c>
       <c r="CC15">
-        <v>112.54</v>
+        <v>113.32</v>
+      </c>
+      <c r="CD15">
+        <v>92.25</v>
       </c>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16">
         <v>1.5</v>
@@ -10021,7 +9649,7 @@
         <v>39.31</v>
       </c>
       <c r="E16">
-        <v>53.01</v>
+        <v>52.99</v>
       </c>
       <c r="F16">
         <v>48.97</v>
@@ -10042,7 +9670,7 @@
         <v>10.29</v>
       </c>
       <c r="L16">
-        <v>7.72</v>
+        <v>7.71</v>
       </c>
       <c r="M16">
         <v>6.8</v>
@@ -10108,55 +9736,55 @@
         <v>52.89</v>
       </c>
       <c r="AH16">
-        <v>88.21</v>
+        <v>88.17</v>
       </c>
       <c r="AI16">
-        <v>144.21</v>
+        <v>144.29</v>
       </c>
       <c r="AJ16">
         <v>203.78</v>
       </c>
       <c r="AK16">
-        <v>219.73</v>
+        <v>219.71</v>
       </c>
       <c r="AL16">
-        <v>210.52</v>
+        <v>210.54</v>
       </c>
       <c r="AM16">
         <v>195.51</v>
       </c>
       <c r="AN16">
-        <v>177.3</v>
+        <v>177.28</v>
       </c>
       <c r="AO16">
-        <v>180.26</v>
+        <v>180.24</v>
       </c>
       <c r="AP16">
         <v>212.44</v>
       </c>
       <c r="AQ16">
-        <v>238.55</v>
+        <v>238.53</v>
       </c>
       <c r="AR16">
-        <v>185.85</v>
+        <v>185.83</v>
       </c>
       <c r="AS16">
-        <v>165.99</v>
+        <v>165.97</v>
       </c>
       <c r="AT16">
-        <v>212.42</v>
+        <v>212.4</v>
       </c>
       <c r="AU16">
         <v>168.21</v>
       </c>
       <c r="AV16">
-        <v>125.94</v>
+        <v>125.98</v>
       </c>
       <c r="AW16">
-        <v>105.23</v>
+        <v>105.19</v>
       </c>
       <c r="AX16">
-        <v>88.5</v>
+        <v>88.44</v>
       </c>
       <c r="AY16">
         <v>72.09</v>
@@ -10165,22 +9793,22 @@
         <v>76.989999999999995</v>
       </c>
       <c r="BA16">
-        <v>81.78</v>
+        <v>81.8</v>
       </c>
       <c r="BB16">
-        <v>84.07</v>
+        <v>84.05</v>
       </c>
       <c r="BC16">
-        <v>107.68</v>
+        <v>107.7</v>
       </c>
       <c r="BD16">
         <v>138.19999999999999</v>
       </c>
       <c r="BE16">
-        <v>165.51</v>
+        <v>165.53</v>
       </c>
       <c r="BF16">
-        <v>165.08</v>
+        <v>165.06</v>
       </c>
       <c r="BG16">
         <v>181.48</v>
@@ -10189,25 +9817,25 @@
         <v>214.8</v>
       </c>
       <c r="BI16">
-        <v>212.63</v>
+        <v>212.75</v>
       </c>
       <c r="BJ16">
-        <v>181.58</v>
+        <v>181.52</v>
       </c>
       <c r="BK16">
-        <v>146.97</v>
+        <v>147.01</v>
       </c>
       <c r="BL16">
-        <v>102.06</v>
+        <v>102.04</v>
       </c>
       <c r="BM16">
-        <v>77.819999999999993</v>
+        <v>77.7</v>
       </c>
       <c r="BN16">
         <v>48.38</v>
       </c>
       <c r="BO16">
-        <v>31.55</v>
+        <v>31.53</v>
       </c>
       <c r="BP16">
         <v>21.83</v>
@@ -10216,7 +9844,7 @@
         <v>12.2</v>
       </c>
       <c r="BR16">
-        <v>9.1199999999999992</v>
+        <v>9.14</v>
       </c>
       <c r="BS16">
         <v>9.7200000000000006</v>
@@ -10225,10 +9853,10 @@
         <v>15.55</v>
       </c>
       <c r="BU16">
-        <v>26.13</v>
+        <v>26.15</v>
       </c>
       <c r="BV16">
-        <v>34.15</v>
+        <v>34.130000000000003</v>
       </c>
       <c r="BW16">
         <v>38.49</v>
@@ -10237,24 +9865,27 @@
         <v>47.37</v>
       </c>
       <c r="BY16">
-        <v>70.790000000000006</v>
+        <v>70.77</v>
       </c>
       <c r="BZ16">
-        <v>99.03</v>
+        <v>99.06</v>
       </c>
       <c r="CA16">
-        <v>124.6</v>
+        <v>124.58</v>
       </c>
       <c r="CB16">
-        <v>124.03</v>
+        <v>124.05</v>
       </c>
       <c r="CC16">
-        <v>117.75</v>
+        <v>119.17</v>
+      </c>
+      <c r="CD16">
+        <v>95.83</v>
       </c>
     </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B17">
         <v>1.52</v>
@@ -10275,7 +9906,7 @@
         <v>37.520000000000003</v>
       </c>
       <c r="H17">
-        <v>26.65</v>
+        <v>26.63</v>
       </c>
       <c r="I17">
         <v>20.74</v>
@@ -10323,10 +9954,10 @@
         <v>11.31</v>
       </c>
       <c r="X17">
-        <v>16.190000000000001</v>
+        <v>16.21</v>
       </c>
       <c r="Y17">
-        <v>25.17</v>
+        <v>25.15</v>
       </c>
       <c r="Z17">
         <v>33.53</v>
@@ -10353,58 +9984,58 @@
         <v>60.56</v>
       </c>
       <c r="AH17">
-        <v>95.11</v>
+        <v>95.2</v>
       </c>
       <c r="AI17">
-        <v>164.13</v>
+        <v>164.16</v>
       </c>
       <c r="AJ17">
         <v>225.87</v>
       </c>
       <c r="AK17">
-        <v>254.62</v>
+        <v>254.6</v>
       </c>
       <c r="AL17">
-        <v>239.19</v>
+        <v>239.26</v>
       </c>
       <c r="AM17">
-        <v>221.27</v>
+        <v>221.29</v>
       </c>
       <c r="AN17">
-        <v>193.95</v>
+        <v>193.97</v>
       </c>
       <c r="AO17">
         <v>199.07</v>
       </c>
       <c r="AP17">
-        <v>234.05</v>
+        <v>234.03</v>
       </c>
       <c r="AQ17">
-        <v>262.45</v>
+        <v>262.48</v>
       </c>
       <c r="AR17">
         <v>196.79</v>
       </c>
       <c r="AS17">
-        <v>186.33</v>
+        <v>186.35</v>
       </c>
       <c r="AT17">
         <v>236.33</v>
       </c>
       <c r="AU17">
-        <v>185.2</v>
+        <v>185.29</v>
       </c>
       <c r="AV17">
         <v>139.61000000000001</v>
       </c>
       <c r="AW17">
-        <v>113.73</v>
+        <v>113.7</v>
       </c>
       <c r="AX17">
-        <v>94.96</v>
+        <v>94.98</v>
       </c>
       <c r="AY17">
-        <v>79.459999999999994</v>
+        <v>79.48</v>
       </c>
       <c r="AZ17">
         <v>85.63</v>
@@ -10416,13 +10047,13 @@
         <v>95.5</v>
       </c>
       <c r="BC17">
-        <v>117.63</v>
+        <v>117.65</v>
       </c>
       <c r="BD17">
-        <v>149.77000000000001</v>
+        <v>149.81</v>
       </c>
       <c r="BE17">
-        <v>185.62</v>
+        <v>185.59</v>
       </c>
       <c r="BF17">
         <v>184.57</v>
@@ -10431,28 +10062,28 @@
         <v>212.57</v>
       </c>
       <c r="BH17">
-        <v>250.52</v>
+        <v>250.54</v>
       </c>
       <c r="BI17">
-        <v>244.55</v>
+        <v>244.57</v>
       </c>
       <c r="BJ17">
-        <v>208.94</v>
+        <v>208.86</v>
       </c>
       <c r="BK17">
-        <v>170.04</v>
+        <v>169.97</v>
       </c>
       <c r="BL17">
-        <v>121.23</v>
+        <v>121.26</v>
       </c>
       <c r="BM17">
-        <v>90.79</v>
+        <v>90.81</v>
       </c>
       <c r="BN17">
         <v>52.38</v>
       </c>
       <c r="BO17">
-        <v>37.71</v>
+        <v>37.630000000000003</v>
       </c>
       <c r="BP17">
         <v>26.1</v>
@@ -10470,39 +10101,42 @@
         <v>19.18</v>
       </c>
       <c r="BU17">
-        <v>32.72</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="BV17">
         <v>45.35</v>
       </c>
       <c r="BW17">
-        <v>50.49</v>
+        <v>50.52</v>
       </c>
       <c r="BX17">
-        <v>60.54</v>
+        <v>60.56</v>
       </c>
       <c r="BY17">
-        <v>96.06</v>
+        <v>96.13</v>
       </c>
       <c r="BZ17">
-        <v>125.44</v>
+        <v>125.42</v>
       </c>
       <c r="CA17">
-        <v>149.25</v>
+        <v>149.27000000000001</v>
       </c>
       <c r="CB17">
-        <v>148.12</v>
+        <v>148.18</v>
       </c>
       <c r="CC17">
-        <v>133.47</v>
+        <v>135.16999999999999</v>
+      </c>
+      <c r="CD17">
+        <v>106.59</v>
       </c>
     </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B18">
-        <v>1.0900000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C18">
         <v>4.59</v>
@@ -10601,16 +10235,16 @@
         <v>75.12</v>
       </c>
       <c r="AI18">
-        <v>123.4</v>
+        <v>123.42</v>
       </c>
       <c r="AJ18">
         <v>182.5</v>
       </c>
       <c r="AK18">
-        <v>213.52</v>
+        <v>213.49</v>
       </c>
       <c r="AL18">
-        <v>221.24</v>
+        <v>221.29</v>
       </c>
       <c r="AM18">
         <v>208.44</v>
@@ -10628,7 +10262,7 @@
         <v>215.09</v>
       </c>
       <c r="AR18">
-        <v>149.01</v>
+        <v>149.04</v>
       </c>
       <c r="AS18">
         <v>125.76</v>
@@ -10637,10 +10271,10 @@
         <v>161.96</v>
       </c>
       <c r="AU18">
-        <v>136.85</v>
+        <v>136.78</v>
       </c>
       <c r="AV18">
-        <v>106.62</v>
+        <v>106.59</v>
       </c>
       <c r="AW18">
         <v>88.11</v>
@@ -10649,10 +10283,10 @@
         <v>74.05</v>
       </c>
       <c r="AY18">
-        <v>60.39</v>
+        <v>60.37</v>
       </c>
       <c r="AZ18">
-        <v>66.48</v>
+        <v>66.459999999999994</v>
       </c>
       <c r="BA18">
         <v>77.959999999999994</v>
@@ -10661,10 +10295,10 @@
         <v>81.56</v>
       </c>
       <c r="BC18">
-        <v>104.23</v>
+        <v>104.21</v>
       </c>
       <c r="BD18">
-        <v>140.56</v>
+        <v>140.59</v>
       </c>
       <c r="BE18">
         <v>182.45</v>
@@ -10676,28 +10310,28 @@
         <v>191.59</v>
       </c>
       <c r="BH18">
-        <v>274.42</v>
+        <v>274.47000000000003</v>
       </c>
       <c r="BI18">
-        <v>262.54000000000002</v>
+        <v>262.56</v>
       </c>
       <c r="BJ18">
-        <v>219.84</v>
+        <v>219.79</v>
       </c>
       <c r="BK18">
-        <v>178.97</v>
+        <v>179.07</v>
       </c>
       <c r="BL18">
         <v>125.43</v>
       </c>
       <c r="BM18">
-        <v>98.72</v>
+        <v>98.62</v>
       </c>
       <c r="BN18">
         <v>56.84</v>
       </c>
       <c r="BO18">
-        <v>43.82</v>
+        <v>43.69</v>
       </c>
       <c r="BP18">
         <v>31.2</v>
@@ -10715,36 +10349,39 @@
         <v>14.72</v>
       </c>
       <c r="BU18">
-        <v>32.700000000000003</v>
+        <v>32.67</v>
       </c>
       <c r="BV18">
-        <v>40.92</v>
+        <v>40.950000000000003</v>
       </c>
       <c r="BW18">
-        <v>46.68</v>
+        <v>46.66</v>
       </c>
       <c r="BX18">
-        <v>60.16</v>
+        <v>60.19</v>
       </c>
       <c r="BY18">
-        <v>88.87</v>
+        <v>88.9</v>
       </c>
       <c r="BZ18">
-        <v>141.52000000000001</v>
+        <v>141.44999999999999</v>
       </c>
       <c r="CA18">
-        <v>176.63</v>
+        <v>176.68</v>
       </c>
       <c r="CB18">
-        <v>197.4</v>
+        <v>197.45</v>
       </c>
       <c r="CC18">
-        <v>171.73</v>
+        <v>173.74</v>
+      </c>
+      <c r="CD18">
+        <v>142.49</v>
       </c>
     </row>
-    <row r="19" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19">
         <v>0.51</v>
@@ -10822,7 +10459,7 @@
         <v>15.53</v>
       </c>
       <c r="AA19">
-        <v>13.02</v>
+        <v>13.04</v>
       </c>
       <c r="AB19">
         <v>11.69</v>
@@ -10849,13 +10486,13 @@
         <v>74.180000000000007</v>
       </c>
       <c r="AJ19">
-        <v>110.21</v>
+        <v>110.24</v>
       </c>
       <c r="AK19">
         <v>129.22</v>
       </c>
       <c r="AL19">
-        <v>144.4</v>
+        <v>144.43</v>
       </c>
       <c r="AM19">
         <v>143.05000000000001</v>
@@ -10873,13 +10510,13 @@
         <v>142.69999999999999</v>
       </c>
       <c r="AR19">
-        <v>91.44</v>
+        <v>91.47</v>
       </c>
       <c r="AS19">
         <v>71.62</v>
       </c>
       <c r="AT19">
-        <v>89.93</v>
+        <v>89.9</v>
       </c>
       <c r="AU19">
         <v>73.37</v>
@@ -10891,7 +10528,7 @@
         <v>50.74</v>
       </c>
       <c r="AX19">
-        <v>46.56</v>
+        <v>46.58</v>
       </c>
       <c r="AY19">
         <v>38.049999999999997</v>
@@ -10903,13 +10540,13 @@
         <v>50.74</v>
       </c>
       <c r="BB19">
-        <v>62.3</v>
+        <v>62.33</v>
       </c>
       <c r="BC19">
         <v>77.45</v>
       </c>
       <c r="BD19">
-        <v>112.88</v>
+        <v>112.91</v>
       </c>
       <c r="BE19">
         <v>154.77000000000001</v>
@@ -10924,22 +10561,22 @@
         <v>206.81</v>
       </c>
       <c r="BI19">
-        <v>235.81</v>
+        <v>235.95</v>
       </c>
       <c r="BJ19">
-        <v>193.55</v>
+        <v>193.58</v>
       </c>
       <c r="BK19">
-        <v>165.46</v>
+        <v>165.41</v>
       </c>
       <c r="BL19">
-        <v>123.44</v>
+        <v>123.47</v>
       </c>
       <c r="BM19">
-        <v>101.62</v>
+        <v>101.6</v>
       </c>
       <c r="BN19">
-        <v>58.49</v>
+        <v>58.41</v>
       </c>
       <c r="BO19">
         <v>42.67</v>
@@ -10954,7 +10591,7 @@
         <v>12.1</v>
       </c>
       <c r="BS19">
-        <v>8.32</v>
+        <v>8.34</v>
       </c>
       <c r="BT19">
         <v>7.97</v>
@@ -10963,33 +10600,36 @@
         <v>14.39</v>
       </c>
       <c r="BV19">
-        <v>21.04</v>
+        <v>21.06</v>
       </c>
       <c r="BW19">
-        <v>26.87</v>
+        <v>26.92</v>
       </c>
       <c r="BX19">
-        <v>40.18</v>
+        <v>40.21</v>
       </c>
       <c r="BY19">
-        <v>70.3</v>
+        <v>70.319999999999993</v>
       </c>
       <c r="BZ19">
-        <v>144.63999999999999</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="CA19">
-        <v>186.77</v>
+        <v>186.74</v>
       </c>
       <c r="CB19">
-        <v>226.5</v>
+        <v>226.93</v>
       </c>
       <c r="CC19">
-        <v>206.89</v>
+        <v>208.7</v>
+      </c>
+      <c r="CD19">
+        <v>196.49</v>
       </c>
     </row>
-    <row r="20" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B20">
         <v>0.27</v>
@@ -11088,13 +10728,13 @@
         <v>16.72</v>
       </c>
       <c r="AH20">
-        <v>26.13</v>
+        <v>26.11</v>
       </c>
       <c r="AI20">
         <v>49.4</v>
       </c>
       <c r="AJ20">
-        <v>74.91</v>
+        <v>74.97</v>
       </c>
       <c r="AK20">
         <v>90.23</v>
@@ -11109,7 +10749,7 @@
         <v>102.47</v>
       </c>
       <c r="AO20">
-        <v>98.79</v>
+        <v>98.82</v>
       </c>
       <c r="AP20">
         <v>114.28</v>
@@ -11121,10 +10761,10 @@
         <v>81.08</v>
       </c>
       <c r="AS20">
-        <v>52.16</v>
+        <v>52.13</v>
       </c>
       <c r="AT20">
-        <v>64.23</v>
+        <v>64.209999999999994</v>
       </c>
       <c r="AU20">
         <v>58.87</v>
@@ -11133,7 +10773,7 @@
         <v>51.06</v>
       </c>
       <c r="AW20">
-        <v>44.11</v>
+        <v>44.06</v>
       </c>
       <c r="AX20">
         <v>42.98</v>
@@ -11151,49 +10791,49 @@
         <v>73.09</v>
       </c>
       <c r="BC20">
-        <v>98.63</v>
+        <v>98.74</v>
       </c>
       <c r="BD20">
         <v>127.77</v>
       </c>
       <c r="BE20">
-        <v>179.77</v>
+        <v>179.74</v>
       </c>
       <c r="BF20">
-        <v>139.19999999999999</v>
+        <v>139.22999999999999</v>
       </c>
       <c r="BG20">
         <v>126</v>
       </c>
       <c r="BH20">
-        <v>187.61</v>
+        <v>187.63</v>
       </c>
       <c r="BI20">
-        <v>225.73</v>
+        <v>225.89</v>
       </c>
       <c r="BJ20">
-        <v>184.47</v>
+        <v>184.36</v>
       </c>
       <c r="BK20">
-        <v>149.32</v>
+        <v>149.29</v>
       </c>
       <c r="BL20">
-        <v>110.47</v>
+        <v>110.44</v>
       </c>
       <c r="BM20">
-        <v>91.52</v>
+        <v>91.6</v>
       </c>
       <c r="BN20">
-        <v>50.36</v>
+        <v>50.28</v>
       </c>
       <c r="BO20">
-        <v>40.92</v>
+        <v>40.94</v>
       </c>
       <c r="BP20">
         <v>30.64</v>
       </c>
       <c r="BQ20">
-        <v>15.21</v>
+        <v>15.19</v>
       </c>
       <c r="BR20">
         <v>9.26</v>
@@ -11205,7 +10845,7 @@
         <v>5.58</v>
       </c>
       <c r="BU20">
-        <v>8.64</v>
+        <v>8.67</v>
       </c>
       <c r="BV20">
         <v>12.83</v>
@@ -11214,27 +10854,30 @@
         <v>19.45</v>
       </c>
       <c r="BX20">
-        <v>30.99</v>
+        <v>30.96</v>
       </c>
       <c r="BY20">
-        <v>49.48</v>
+        <v>49.45</v>
       </c>
       <c r="BZ20">
-        <v>99.84</v>
+        <v>99.76</v>
       </c>
       <c r="CA20">
-        <v>149.83000000000001</v>
+        <v>149.91</v>
       </c>
       <c r="CB20">
-        <v>187.95</v>
+        <v>188.06</v>
       </c>
       <c r="CC20">
-        <v>175.48</v>
+        <v>176.63</v>
+      </c>
+      <c r="CD20">
+        <v>156.51</v>
       </c>
     </row>
-    <row r="21" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B21">
         <v>0.23</v>
@@ -11333,10 +10976,10 @@
         <v>13.18</v>
       </c>
       <c r="AH21">
-        <v>22.39</v>
+        <v>22.44</v>
       </c>
       <c r="AI21">
-        <v>36.81</v>
+        <v>36.83</v>
       </c>
       <c r="AJ21">
         <v>56.22</v>
@@ -11351,10 +10994,10 @@
         <v>60.03</v>
       </c>
       <c r="AN21">
-        <v>58.52</v>
+        <v>58.49</v>
       </c>
       <c r="AO21">
-        <v>58.09</v>
+        <v>58.11</v>
       </c>
       <c r="AP21">
         <v>67.02</v>
@@ -11366,7 +11009,7 @@
         <v>53.16</v>
       </c>
       <c r="AS21">
-        <v>38.47</v>
+        <v>38.5</v>
       </c>
       <c r="AT21">
         <v>47.96</v>
@@ -11381,7 +11024,7 @@
         <v>38.57</v>
       </c>
       <c r="AX21">
-        <v>38.17</v>
+        <v>38.14</v>
       </c>
       <c r="AY21">
         <v>34</v>
@@ -11396,13 +11039,13 @@
         <v>59.85</v>
       </c>
       <c r="BC21">
-        <v>75.48</v>
+        <v>75.5</v>
       </c>
       <c r="BD21">
-        <v>102.19</v>
+        <v>102.21</v>
       </c>
       <c r="BE21">
-        <v>126.77</v>
+        <v>126.8</v>
       </c>
       <c r="BF21">
         <v>112.76</v>
@@ -11411,25 +11054,25 @@
         <v>101.63</v>
       </c>
       <c r="BH21">
-        <v>128.34</v>
+        <v>128.31</v>
       </c>
       <c r="BI21">
-        <v>140.86000000000001</v>
+        <v>140.88999999999999</v>
       </c>
       <c r="BJ21">
         <v>127.71</v>
       </c>
       <c r="BK21">
-        <v>103.88</v>
+        <v>103.9</v>
       </c>
       <c r="BL21">
-        <v>74.92</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="BM21">
         <v>58.01</v>
       </c>
       <c r="BN21">
-        <v>35.69</v>
+        <v>35.64</v>
       </c>
       <c r="BO21">
         <v>25.8</v>
@@ -11462,23 +11105,25 @@
         <v>19.13</v>
       </c>
       <c r="BY21">
-        <v>31.1</v>
+        <v>31.15</v>
       </c>
       <c r="BZ21">
         <v>47.1</v>
       </c>
       <c r="CA21">
-        <v>74.72</v>
+        <v>74.67</v>
       </c>
       <c r="CB21">
-        <v>86.26</v>
+        <v>86.23</v>
       </c>
       <c r="CC21">
-        <v>88.05</v>
+        <v>88.45</v>
+      </c>
+      <c r="CD21">
+        <v>71.64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/source/Altersverteilung.xlsx
+++ b/data/source/Altersverteilung.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2021-09-23\Tabellen_Webmaster\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36AD881-3F4D-4CEA-B387-9FC92BBE583D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3B7E11-F1EA-4B23-BA1F-7F8D6DD40768}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9825" activeTab="1" xr2:uid="{0A5F7A2D-4743-415B-B3EC-F2DEA92D6E96}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="8316" activeTab="1" xr2:uid="{8088A836-CF74-4252-A83F-A5EA7D6E0CF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallzahlen" sheetId="1" r:id="rId1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="103">
   <si>
     <t>Altersgruppe</t>
   </si>
@@ -272,6 +267,9 @@
   </si>
   <si>
     <t>2021_37</t>
+  </si>
+  <si>
+    <t>2021_38</t>
   </si>
   <si>
     <t>Gesamt</t>
@@ -683,16 +681,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81823DD6-84E4-4A03-B1B6-D5D078A1B848}">
-  <dimension ref="A1:CD21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03DAD98-0713-4603-BFF3-6169CCE623C3}">
+  <dimension ref="A1:CE21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A21"/>
+      <selection activeCell="A19" sqref="A19:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -939,43 +937,46 @@
       <c r="CD1" t="s">
         <v>81</v>
       </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>899</v>
       </c>
       <c r="C2">
-        <v>6433</v>
+        <v>6431</v>
       </c>
       <c r="D2">
-        <v>22389</v>
+        <v>22390</v>
       </c>
       <c r="E2">
-        <v>33965</v>
+        <v>33966</v>
       </c>
       <c r="F2">
-        <v>36048</v>
+        <v>36047</v>
       </c>
       <c r="G2">
         <v>27136</v>
       </c>
       <c r="H2">
-        <v>17330</v>
+        <v>17329</v>
       </c>
       <c r="I2">
-        <v>12343</v>
+        <v>12344</v>
       </c>
       <c r="J2">
-        <v>7427</v>
+        <v>7424</v>
       </c>
       <c r="K2">
-        <v>6236</v>
+        <v>6237</v>
       </c>
       <c r="L2">
-        <v>4764</v>
+        <v>4763</v>
       </c>
       <c r="M2">
         <v>3597</v>
@@ -1005,10 +1006,10 @@
         <v>3024</v>
       </c>
       <c r="V2">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="W2">
-        <v>4833</v>
+        <v>4832</v>
       </c>
       <c r="X2">
         <v>6057</v>
@@ -1017,19 +1018,19 @@
         <v>7949</v>
       </c>
       <c r="Z2">
-        <v>9596</v>
+        <v>9595</v>
       </c>
       <c r="AA2">
-        <v>8830</v>
+        <v>8828</v>
       </c>
       <c r="AB2">
-        <v>8615</v>
+        <v>8614</v>
       </c>
       <c r="AC2">
         <v>9761</v>
       </c>
       <c r="AD2">
-        <v>12292</v>
+        <v>12293</v>
       </c>
       <c r="AE2">
         <v>13059</v>
@@ -1038,159 +1039,162 @@
         <v>15922</v>
       </c>
       <c r="AG2">
-        <v>26109</v>
+        <v>26110</v>
       </c>
       <c r="AH2">
-        <v>42063</v>
+        <v>42064</v>
       </c>
       <c r="AI2">
-        <v>74873</v>
+        <v>74874</v>
       </c>
       <c r="AJ2">
-        <v>111008</v>
+        <v>111007</v>
       </c>
       <c r="AK2">
         <v>125727</v>
       </c>
       <c r="AL2">
-        <v>127770</v>
+        <v>127774</v>
       </c>
       <c r="AM2">
-        <v>128363</v>
+        <v>128361</v>
       </c>
       <c r="AN2">
-        <v>123170</v>
+        <v>123157</v>
       </c>
       <c r="AO2">
-        <v>128346</v>
+        <v>128351</v>
       </c>
       <c r="AP2">
-        <v>156286</v>
+        <v>156290</v>
       </c>
       <c r="AQ2">
-        <v>174705</v>
+        <v>174702</v>
       </c>
       <c r="AR2">
-        <v>138953</v>
+        <v>138950</v>
       </c>
       <c r="AS2">
-        <v>123071</v>
+        <v>123069</v>
       </c>
       <c r="AT2">
-        <v>145441</v>
+        <v>145438</v>
       </c>
       <c r="AU2">
-        <v>118904</v>
+        <v>118899</v>
       </c>
       <c r="AV2">
-        <v>95517</v>
+        <v>95516</v>
       </c>
       <c r="AW2">
-        <v>78126</v>
+        <v>78125</v>
       </c>
       <c r="AX2">
         <v>64558</v>
       </c>
       <c r="AY2">
-        <v>50809</v>
+        <v>50807</v>
       </c>
       <c r="AZ2">
-        <v>52390</v>
+        <v>52389</v>
       </c>
       <c r="BA2">
-        <v>56348</v>
+        <v>56350</v>
       </c>
       <c r="BB2">
-        <v>58369</v>
+        <v>58366</v>
       </c>
       <c r="BC2">
-        <v>71310</v>
+        <v>71306</v>
       </c>
       <c r="BD2">
-        <v>92579</v>
+        <v>92577</v>
       </c>
       <c r="BE2">
-        <v>116259</v>
+        <v>116264</v>
       </c>
       <c r="BF2">
-        <v>110094</v>
+        <v>110096</v>
       </c>
       <c r="BG2">
-        <v>118241</v>
+        <v>118265</v>
       </c>
       <c r="BH2">
-        <v>142020</v>
+        <v>142047</v>
       </c>
       <c r="BI2">
-        <v>144791</v>
+        <v>144751</v>
       </c>
       <c r="BJ2">
-        <v>124792</v>
+        <v>124809</v>
       </c>
       <c r="BK2">
-        <v>101006</v>
+        <v>100988</v>
       </c>
       <c r="BL2">
-        <v>70842</v>
+        <v>70829</v>
       </c>
       <c r="BM2">
-        <v>52701</v>
+        <v>52695</v>
       </c>
       <c r="BN2">
         <v>29876</v>
       </c>
       <c r="BO2">
-        <v>20680</v>
+        <v>20678</v>
       </c>
       <c r="BP2">
-        <v>14024</v>
+        <v>14028</v>
       </c>
       <c r="BQ2">
         <v>7262</v>
       </c>
       <c r="BR2">
-        <v>4817</v>
+        <v>4819</v>
       </c>
       <c r="BS2">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="BT2">
         <v>5562</v>
       </c>
       <c r="BU2">
-        <v>9091</v>
+        <v>9090</v>
       </c>
       <c r="BV2">
-        <v>12612</v>
+        <v>12615</v>
       </c>
       <c r="BW2">
-        <v>15484</v>
+        <v>15489</v>
       </c>
       <c r="BX2">
-        <v>20397</v>
+        <v>20392</v>
       </c>
       <c r="BY2">
-        <v>32039</v>
+        <v>32029</v>
       </c>
       <c r="BZ2">
-        <v>49577</v>
+        <v>49580</v>
       </c>
       <c r="CA2">
-        <v>66258</v>
+        <v>66268</v>
       </c>
       <c r="CB2">
-        <v>74637</v>
+        <v>74623</v>
       </c>
       <c r="CC2">
-        <v>71604</v>
+        <v>71608</v>
       </c>
       <c r="CD2">
-        <v>61137</v>
+        <v>61349</v>
+      </c>
+      <c r="CE2">
+        <v>52986</v>
       </c>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1298,22 +1302,22 @@
         <v>1462</v>
       </c>
       <c r="AK3">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AL3">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="AM3">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="AN3">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="AO3">
         <v>4193</v>
       </c>
       <c r="AP3">
-        <v>5400</v>
+        <v>5402</v>
       </c>
       <c r="AQ3">
         <v>5971</v>
@@ -1358,16 +1362,16 @@
         <v>638</v>
       </c>
       <c r="BE3">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="BF3">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="BG3">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BH3">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="BI3">
         <v>795</v>
@@ -1376,7 +1380,7 @@
         <v>636</v>
       </c>
       <c r="BK3">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="BL3">
         <v>408</v>
@@ -1412,7 +1416,7 @@
         <v>25</v>
       </c>
       <c r="BW3">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BX3">
         <v>66</v>
@@ -1427,18 +1431,21 @@
         <v>226</v>
       </c>
       <c r="CB3">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="CC3">
         <v>356</v>
       </c>
       <c r="CD3">
-        <v>401</v>
+        <v>396</v>
+      </c>
+      <c r="CE3">
+        <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -1453,7 +1460,7 @@
         <v>735</v>
       </c>
       <c r="F4">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="G4">
         <v>1421</v>
@@ -1498,7 +1505,7 @@
         <v>20</v>
       </c>
       <c r="U4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V4">
         <v>34</v>
@@ -1546,40 +1553,40 @@
         <v>1786</v>
       </c>
       <c r="AK4">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="AL4">
         <v>2831</v>
       </c>
       <c r="AM4">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="AN4">
-        <v>4094</v>
+        <v>4093</v>
       </c>
       <c r="AO4">
         <v>4596</v>
       </c>
       <c r="AP4">
-        <v>5909</v>
+        <v>5908</v>
       </c>
       <c r="AQ4">
-        <v>6933</v>
+        <v>6936</v>
       </c>
       <c r="AR4">
-        <v>5820</v>
+        <v>5822</v>
       </c>
       <c r="AS4">
-        <v>5585</v>
+        <v>5584</v>
       </c>
       <c r="AT4">
-        <v>6065</v>
+        <v>6066</v>
       </c>
       <c r="AU4">
-        <v>5558</v>
+        <v>5557</v>
       </c>
       <c r="AV4">
-        <v>4441</v>
+        <v>4440</v>
       </c>
       <c r="AW4">
         <v>3323</v>
@@ -1600,7 +1607,7 @@
         <v>964</v>
       </c>
       <c r="BC4">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="BD4">
         <v>1110</v>
@@ -1612,7 +1619,7 @@
         <v>1192</v>
       </c>
       <c r="BG4">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="BH4">
         <v>1200</v>
@@ -1624,7 +1631,7 @@
         <v>990</v>
       </c>
       <c r="BK4">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="BL4">
         <v>620</v>
@@ -1678,15 +1685,18 @@
         <v>439</v>
       </c>
       <c r="CC4">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="CD4">
-        <v>516</v>
+        <v>517</v>
+      </c>
+      <c r="CE4">
+        <v>443</v>
       </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -1698,13 +1708,13 @@
         <v>468</v>
       </c>
       <c r="E5">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="F5">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="G5">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="H5">
         <v>1176</v>
@@ -1746,7 +1756,7 @@
         <v>37</v>
       </c>
       <c r="U5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V5">
         <v>51</v>
@@ -1794,40 +1804,40 @@
         <v>2835</v>
       </c>
       <c r="AK5">
-        <v>3432</v>
+        <v>3433</v>
       </c>
       <c r="AL5">
         <v>3796</v>
       </c>
       <c r="AM5">
-        <v>4358</v>
+        <v>4359</v>
       </c>
       <c r="AN5">
-        <v>4768</v>
+        <v>4769</v>
       </c>
       <c r="AO5">
-        <v>5443</v>
+        <v>5445</v>
       </c>
       <c r="AP5">
-        <v>7073</v>
+        <v>7074</v>
       </c>
       <c r="AQ5">
-        <v>8254</v>
+        <v>8256</v>
       </c>
       <c r="AR5">
-        <v>7409</v>
+        <v>7408</v>
       </c>
       <c r="AS5">
-        <v>6867</v>
+        <v>6866</v>
       </c>
       <c r="AT5">
         <v>7666</v>
       </c>
       <c r="AU5">
-        <v>6689</v>
+        <v>6687</v>
       </c>
       <c r="AV5">
-        <v>5330</v>
+        <v>5331</v>
       </c>
       <c r="AW5">
         <v>4192</v>
@@ -1863,16 +1873,16 @@
         <v>1960</v>
       </c>
       <c r="BH5">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="BI5">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="BJ5">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="BK5">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="BL5">
         <v>921</v>
@@ -1923,18 +1933,21 @@
         <v>478</v>
       </c>
       <c r="CB5">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="CC5">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="CD5">
-        <v>790</v>
+        <v>793</v>
+      </c>
+      <c r="CE5">
+        <v>650</v>
       </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -1961,13 +1974,13 @@
         <v>588</v>
       </c>
       <c r="J6">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K6">
         <v>275</v>
       </c>
       <c r="L6">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M6">
         <v>105</v>
@@ -2048,28 +2061,28 @@
         <v>3282</v>
       </c>
       <c r="AM6">
-        <v>3379</v>
+        <v>3381</v>
       </c>
       <c r="AN6">
-        <v>3487</v>
+        <v>3485</v>
       </c>
       <c r="AO6">
-        <v>3964</v>
+        <v>3967</v>
       </c>
       <c r="AP6">
-        <v>5001</v>
+        <v>5003</v>
       </c>
       <c r="AQ6">
-        <v>5934</v>
+        <v>5936</v>
       </c>
       <c r="AR6">
-        <v>5100</v>
+        <v>5102</v>
       </c>
       <c r="AS6">
-        <v>4636</v>
+        <v>4637</v>
       </c>
       <c r="AT6">
-        <v>5216</v>
+        <v>5215</v>
       </c>
       <c r="AU6">
         <v>4310</v>
@@ -2111,16 +2124,16 @@
         <v>2352</v>
       </c>
       <c r="BH6">
-        <v>2706</v>
+        <v>2707</v>
       </c>
       <c r="BI6">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="BJ6">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="BK6">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="BL6">
         <v>1140</v>
@@ -2150,7 +2163,7 @@
         <v>45</v>
       </c>
       <c r="BU6">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BV6">
         <v>64</v>
@@ -2168,21 +2181,24 @@
         <v>287</v>
       </c>
       <c r="CA6">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="CB6">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="CC6">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="CD6">
-        <v>564</v>
+        <v>571</v>
+      </c>
+      <c r="CE6">
+        <v>560</v>
       </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -2191,10 +2207,10 @@
         <v>146</v>
       </c>
       <c r="D7">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E7">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="F7">
         <v>1412</v>
@@ -2287,28 +2303,28 @@
         <v>1804</v>
       </c>
       <c r="AJ7">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="AK7">
         <v>3187</v>
       </c>
       <c r="AL7">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="AM7">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="AN7">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="AO7">
-        <v>3479</v>
+        <v>3480</v>
       </c>
       <c r="AP7">
         <v>4386</v>
       </c>
       <c r="AQ7">
-        <v>5154</v>
+        <v>5155</v>
       </c>
       <c r="AR7">
         <v>4446</v>
@@ -2317,19 +2333,19 @@
         <v>4128</v>
       </c>
       <c r="AT7">
-        <v>4837</v>
+        <v>4838</v>
       </c>
       <c r="AU7">
-        <v>3663</v>
+        <v>3664</v>
       </c>
       <c r="AV7">
         <v>3053</v>
       </c>
       <c r="AW7">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="AX7">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="AY7">
         <v>1577</v>
@@ -2350,7 +2366,7 @@
         <v>2376</v>
       </c>
       <c r="BE7">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="BF7">
         <v>2903</v>
@@ -2368,7 +2384,7 @@
         <v>2878</v>
       </c>
       <c r="BK7">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="BL7">
         <v>1594</v>
@@ -2407,7 +2423,7 @@
         <v>168</v>
       </c>
       <c r="BX7">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BY7">
         <v>298</v>
@@ -2425,12 +2441,15 @@
         <v>818</v>
       </c>
       <c r="CD7">
-        <v>753</v>
+        <v>756</v>
+      </c>
+      <c r="CE7">
+        <v>688</v>
       </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8">
         <v>25</v>
@@ -2535,34 +2554,34 @@
         <v>2265</v>
       </c>
       <c r="AJ8">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="AK8">
-        <v>4262</v>
+        <v>4264</v>
       </c>
       <c r="AL8">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="AM8">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="AN8">
-        <v>4135</v>
+        <v>4132</v>
       </c>
       <c r="AO8">
-        <v>4115</v>
+        <v>4117</v>
       </c>
       <c r="AP8">
-        <v>5169</v>
+        <v>5172</v>
       </c>
       <c r="AQ8">
         <v>6352</v>
       </c>
       <c r="AR8">
-        <v>5581</v>
+        <v>5586</v>
       </c>
       <c r="AS8">
-        <v>4975</v>
+        <v>4977</v>
       </c>
       <c r="AT8">
         <v>5729</v>
@@ -2571,7 +2590,7 @@
         <v>4417</v>
       </c>
       <c r="AV8">
-        <v>3623</v>
+        <v>3624</v>
       </c>
       <c r="AW8">
         <v>3127</v>
@@ -2601,16 +2620,16 @@
         <v>3899</v>
       </c>
       <c r="BF8">
-        <v>3967</v>
+        <v>3966</v>
       </c>
       <c r="BG8">
         <v>4308</v>
       </c>
       <c r="BH8">
-        <v>4911</v>
+        <v>4912</v>
       </c>
       <c r="BI8">
-        <v>4628</v>
+        <v>4627</v>
       </c>
       <c r="BJ8">
         <v>3972</v>
@@ -2661,7 +2680,7 @@
         <v>403</v>
       </c>
       <c r="BZ8">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="CA8">
         <v>810</v>
@@ -2670,27 +2689,30 @@
         <v>994</v>
       </c>
       <c r="CC8">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="CD8">
-        <v>1047</v>
+        <v>1050</v>
+      </c>
+      <c r="CE8">
+        <v>975</v>
       </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9">
         <v>63</v>
       </c>
       <c r="C9">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D9">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E9">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="F9">
         <v>2779</v>
@@ -2708,7 +2730,7 @@
         <v>405</v>
       </c>
       <c r="K9">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L9">
         <v>239</v>
@@ -2786,40 +2808,40 @@
         <v>5987</v>
       </c>
       <c r="AK9">
-        <v>6855</v>
+        <v>6854</v>
       </c>
       <c r="AL9">
-        <v>6925</v>
+        <v>6927</v>
       </c>
       <c r="AM9">
-        <v>7298</v>
+        <v>7299</v>
       </c>
       <c r="AN9">
         <v>7005</v>
       </c>
       <c r="AO9">
-        <v>7648</v>
+        <v>7654</v>
       </c>
       <c r="AP9">
-        <v>9424</v>
+        <v>9431</v>
       </c>
       <c r="AQ9">
-        <v>11039</v>
+        <v>11037</v>
       </c>
       <c r="AR9">
-        <v>9181</v>
+        <v>9180</v>
       </c>
       <c r="AS9">
-        <v>8261</v>
+        <v>8263</v>
       </c>
       <c r="AT9">
-        <v>9280</v>
+        <v>9281</v>
       </c>
       <c r="AU9">
-        <v>7552</v>
+        <v>7551</v>
       </c>
       <c r="AV9">
-        <v>6237</v>
+        <v>6236</v>
       </c>
       <c r="AW9">
         <v>5122</v>
@@ -2831,10 +2853,10 @@
         <v>3187</v>
       </c>
       <c r="AZ9">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="BA9">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="BB9">
         <v>3420</v>
@@ -2849,28 +2871,28 @@
         <v>6570</v>
       </c>
       <c r="BF9">
-        <v>6405</v>
+        <v>6406</v>
       </c>
       <c r="BG9">
         <v>6875</v>
       </c>
       <c r="BH9">
-        <v>7599</v>
+        <v>7600</v>
       </c>
       <c r="BI9">
-        <v>7761</v>
+        <v>7759</v>
       </c>
       <c r="BJ9">
-        <v>6796</v>
+        <v>6794</v>
       </c>
       <c r="BK9">
-        <v>5530</v>
+        <v>5531</v>
       </c>
       <c r="BL9">
         <v>3731</v>
       </c>
       <c r="BM9">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="BN9">
         <v>1343</v>
@@ -2903,30 +2925,33 @@
         <v>397</v>
       </c>
       <c r="BX9">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="BY9">
         <v>711</v>
       </c>
       <c r="BZ9">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="CA9">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="CB9">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="CC9">
-        <v>1872</v>
+        <v>1876</v>
       </c>
       <c r="CD9">
-        <v>1715</v>
+        <v>1711</v>
+      </c>
+      <c r="CE9">
+        <v>1628</v>
       </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B10">
         <v>76</v>
@@ -2941,7 +2966,7 @@
         <v>3593</v>
       </c>
       <c r="F10">
-        <v>3664</v>
+        <v>3665</v>
       </c>
       <c r="G10">
         <v>2603</v>
@@ -2962,7 +2987,7 @@
         <v>360</v>
       </c>
       <c r="M10">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N10">
         <v>237</v>
@@ -2989,7 +3014,7 @@
         <v>178</v>
       </c>
       <c r="V10">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W10">
         <v>288</v>
@@ -3022,7 +3047,7 @@
         <v>1107</v>
       </c>
       <c r="AG10">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="AH10">
         <v>3003</v>
@@ -3031,37 +3056,37 @@
         <v>5757</v>
       </c>
       <c r="AJ10">
-        <v>8969</v>
+        <v>8970</v>
       </c>
       <c r="AK10">
-        <v>10165</v>
+        <v>10167</v>
       </c>
       <c r="AL10">
-        <v>10292</v>
+        <v>10295</v>
       </c>
       <c r="AM10">
-        <v>10255</v>
+        <v>10259</v>
       </c>
       <c r="AN10">
-        <v>9873</v>
+        <v>9875</v>
       </c>
       <c r="AO10">
-        <v>10377</v>
+        <v>10383</v>
       </c>
       <c r="AP10">
-        <v>13046</v>
+        <v>13045</v>
       </c>
       <c r="AQ10">
-        <v>15000</v>
+        <v>15003</v>
       </c>
       <c r="AR10">
-        <v>12389</v>
+        <v>12392</v>
       </c>
       <c r="AS10">
-        <v>11094</v>
+        <v>11093</v>
       </c>
       <c r="AT10">
-        <v>12327</v>
+        <v>12326</v>
       </c>
       <c r="AU10">
         <v>10032</v>
@@ -3073,13 +3098,13 @@
         <v>7009</v>
       </c>
       <c r="AX10">
-        <v>5808</v>
+        <v>5809</v>
       </c>
       <c r="AY10">
         <v>4508</v>
       </c>
       <c r="AZ10">
-        <v>4602</v>
+        <v>4604</v>
       </c>
       <c r="BA10">
         <v>4838</v>
@@ -3088,7 +3113,7 @@
         <v>4637</v>
       </c>
       <c r="BC10">
-        <v>5712</v>
+        <v>5713</v>
       </c>
       <c r="BD10">
         <v>7264</v>
@@ -3100,22 +3125,22 @@
         <v>8947</v>
       </c>
       <c r="BG10">
-        <v>9679</v>
+        <v>9682</v>
       </c>
       <c r="BH10">
-        <v>10664</v>
+        <v>10663</v>
       </c>
       <c r="BI10">
-        <v>11025</v>
+        <v>11022</v>
       </c>
       <c r="BJ10">
-        <v>9925</v>
+        <v>9927</v>
       </c>
       <c r="BK10">
-        <v>7821</v>
+        <v>7817</v>
       </c>
       <c r="BL10">
-        <v>5327</v>
+        <v>5329</v>
       </c>
       <c r="BM10">
         <v>3575</v>
@@ -3148,33 +3173,36 @@
         <v>545</v>
       </c>
       <c r="BW10">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="BX10">
         <v>787</v>
       </c>
       <c r="BY10">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="BZ10">
         <v>1802</v>
       </c>
       <c r="CA10">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="CB10">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="CC10">
         <v>2885</v>
       </c>
       <c r="CD10">
-        <v>2587</v>
+        <v>2597</v>
+      </c>
+      <c r="CE10">
+        <v>2467</v>
       </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B11">
         <v>133</v>
@@ -3186,19 +3214,19 @@
         <v>3089</v>
       </c>
       <c r="E11">
-        <v>4000</v>
+        <v>3999</v>
       </c>
       <c r="F11">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="G11">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="H11">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="I11">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="J11">
         <v>599</v>
@@ -3237,13 +3265,13 @@
         <v>208</v>
       </c>
       <c r="V11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="W11">
         <v>352</v>
       </c>
       <c r="X11">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Y11">
         <v>472</v>
@@ -3261,7 +3289,7 @@
         <v>669</v>
       </c>
       <c r="AD11">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="AE11">
         <v>995</v>
@@ -3285,19 +3313,19 @@
         <v>10964</v>
       </c>
       <c r="AL11">
-        <v>10998</v>
+        <v>10997</v>
       </c>
       <c r="AM11">
-        <v>10842</v>
+        <v>10844</v>
       </c>
       <c r="AN11">
         <v>10331</v>
       </c>
       <c r="AO11">
-        <v>10548</v>
+        <v>10552</v>
       </c>
       <c r="AP11">
-        <v>13254</v>
+        <v>13260</v>
       </c>
       <c r="AQ11">
         <v>14919</v>
@@ -3306,10 +3334,10 @@
         <v>11981</v>
       </c>
       <c r="AS11">
-        <v>10526</v>
+        <v>10528</v>
       </c>
       <c r="AT11">
-        <v>12102</v>
+        <v>12101</v>
       </c>
       <c r="AU11">
         <v>9814</v>
@@ -3327,7 +3355,7 @@
         <v>4311</v>
       </c>
       <c r="AZ11">
-        <v>4502</v>
+        <v>4501</v>
       </c>
       <c r="BA11">
         <v>4751</v>
@@ -3336,22 +3364,22 @@
         <v>4947</v>
       </c>
       <c r="BC11">
-        <v>5906</v>
+        <v>5905</v>
       </c>
       <c r="BD11">
-        <v>7532</v>
+        <v>7531</v>
       </c>
       <c r="BE11">
         <v>9350</v>
       </c>
       <c r="BF11">
-        <v>9124</v>
+        <v>9123</v>
       </c>
       <c r="BG11">
         <v>9954</v>
       </c>
       <c r="BH11">
-        <v>11111</v>
+        <v>11113</v>
       </c>
       <c r="BI11">
         <v>11645</v>
@@ -3363,7 +3391,7 @@
         <v>8018</v>
       </c>
       <c r="BL11">
-        <v>5477</v>
+        <v>5476</v>
       </c>
       <c r="BM11">
         <v>3772</v>
@@ -3396,33 +3424,36 @@
         <v>622</v>
       </c>
       <c r="BW11">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="BX11">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="BY11">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="BZ11">
         <v>2532</v>
       </c>
       <c r="CA11">
-        <v>3328</v>
+        <v>3331</v>
       </c>
       <c r="CB11">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="CC11">
-        <v>3684</v>
+        <v>3688</v>
       </c>
       <c r="CD11">
-        <v>3312</v>
+        <v>3327</v>
+      </c>
+      <c r="CE11">
+        <v>2866</v>
       </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B12">
         <v>99</v>
@@ -3434,31 +3465,31 @@
         <v>2098</v>
       </c>
       <c r="E12">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="F12">
         <v>2710</v>
       </c>
       <c r="G12">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="H12">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I12">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J12">
         <v>468</v>
       </c>
       <c r="K12">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L12">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M12">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N12">
         <v>214</v>
@@ -3488,7 +3519,7 @@
         <v>334</v>
       </c>
       <c r="W12">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X12">
         <v>456</v>
@@ -3509,16 +3540,16 @@
         <v>696</v>
       </c>
       <c r="AD12">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AE12">
         <v>897</v>
       </c>
       <c r="AF12">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="AG12">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="AH12">
         <v>3120</v>
@@ -3530,34 +3561,34 @@
         <v>8396</v>
       </c>
       <c r="AK12">
-        <v>9477</v>
+        <v>9475</v>
       </c>
       <c r="AL12">
-        <v>9284</v>
+        <v>9286</v>
       </c>
       <c r="AM12">
-        <v>9676</v>
+        <v>9675</v>
       </c>
       <c r="AN12">
-        <v>9056</v>
+        <v>9057</v>
       </c>
       <c r="AO12">
-        <v>9234</v>
+        <v>9238</v>
       </c>
       <c r="AP12">
-        <v>11094</v>
+        <v>11097</v>
       </c>
       <c r="AQ12">
-        <v>12442</v>
+        <v>12443</v>
       </c>
       <c r="AR12">
-        <v>9740</v>
+        <v>9743</v>
       </c>
       <c r="AS12">
-        <v>8551</v>
+        <v>8552</v>
       </c>
       <c r="AT12">
-        <v>9794</v>
+        <v>9793</v>
       </c>
       <c r="AU12">
         <v>7954</v>
@@ -3569,49 +3600,49 @@
         <v>5305</v>
       </c>
       <c r="AX12">
-        <v>4490</v>
+        <v>4489</v>
       </c>
       <c r="AY12">
         <v>3552</v>
       </c>
       <c r="AZ12">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="BA12">
         <v>4049</v>
       </c>
       <c r="BB12">
-        <v>4290</v>
+        <v>4289</v>
       </c>
       <c r="BC12">
-        <v>5187</v>
+        <v>5186</v>
       </c>
       <c r="BD12">
-        <v>6517</v>
+        <v>6516</v>
       </c>
       <c r="BE12">
-        <v>8158</v>
+        <v>8159</v>
       </c>
       <c r="BF12">
-        <v>7994</v>
+        <v>7996</v>
       </c>
       <c r="BG12">
-        <v>8770</v>
+        <v>8772</v>
       </c>
       <c r="BH12">
         <v>10167</v>
       </c>
       <c r="BI12">
-        <v>10675</v>
+        <v>10671</v>
       </c>
       <c r="BJ12">
-        <v>9023</v>
+        <v>9025</v>
       </c>
       <c r="BK12">
         <v>7444</v>
       </c>
       <c r="BL12">
-        <v>5082</v>
+        <v>5080</v>
       </c>
       <c r="BM12">
         <v>3586</v>
@@ -3641,36 +3672,39 @@
         <v>437</v>
       </c>
       <c r="BV12">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="BW12">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="BX12">
         <v>1175</v>
       </c>
       <c r="BY12">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="BZ12">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="CA12">
-        <v>4109</v>
+        <v>4107</v>
       </c>
       <c r="CB12">
-        <v>4625</v>
+        <v>4621</v>
       </c>
       <c r="CC12">
-        <v>4543</v>
+        <v>4538</v>
       </c>
       <c r="CD12">
-        <v>3777</v>
+        <v>3786</v>
+      </c>
+      <c r="CE12">
+        <v>3284</v>
       </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B13">
         <v>85</v>
@@ -3682,31 +3716,31 @@
         <v>1798</v>
       </c>
       <c r="E13">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="F13">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="G13">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H13">
         <v>1019</v>
       </c>
       <c r="I13">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="J13">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K13">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L13">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M13">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N13">
         <v>213</v>
@@ -3724,7 +3758,7 @@
         <v>266</v>
       </c>
       <c r="S13">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T13">
         <v>188</v>
@@ -3751,13 +3785,13 @@
         <v>659</v>
       </c>
       <c r="AB13">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AC13">
         <v>685</v>
       </c>
       <c r="AD13">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AE13">
         <v>860</v>
@@ -3784,34 +3818,34 @@
         <v>8993</v>
       </c>
       <c r="AM13">
-        <v>9240</v>
+        <v>9246</v>
       </c>
       <c r="AN13">
-        <v>8807</v>
+        <v>8808</v>
       </c>
       <c r="AO13">
-        <v>8809</v>
+        <v>8814</v>
       </c>
       <c r="AP13">
-        <v>10904</v>
+        <v>10905</v>
       </c>
       <c r="AQ13">
-        <v>11987</v>
+        <v>11991</v>
       </c>
       <c r="AR13">
-        <v>9512</v>
+        <v>9513</v>
       </c>
       <c r="AS13">
-        <v>8028</v>
+        <v>8030</v>
       </c>
       <c r="AT13">
-        <v>9546</v>
+        <v>9547</v>
       </c>
       <c r="AU13">
         <v>7556</v>
       </c>
       <c r="AV13">
-        <v>6229</v>
+        <v>6230</v>
       </c>
       <c r="AW13">
         <v>5120</v>
@@ -3820,7 +3854,7 @@
         <v>4276</v>
       </c>
       <c r="AY13">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="AZ13">
         <v>3592</v>
@@ -3838,19 +3872,19 @@
         <v>6982</v>
       </c>
       <c r="BE13">
-        <v>9084</v>
+        <v>9085</v>
       </c>
       <c r="BF13">
-        <v>8325</v>
+        <v>8324</v>
       </c>
       <c r="BG13">
-        <v>9278</v>
+        <v>9281</v>
       </c>
       <c r="BH13">
-        <v>10725</v>
+        <v>10726</v>
       </c>
       <c r="BI13">
-        <v>10824</v>
+        <v>10823</v>
       </c>
       <c r="BJ13">
         <v>9575</v>
@@ -3859,7 +3893,7 @@
         <v>7729</v>
       </c>
       <c r="BL13">
-        <v>5334</v>
+        <v>5332</v>
       </c>
       <c r="BM13">
         <v>3983</v>
@@ -3901,24 +3935,27 @@
         <v>2351</v>
       </c>
       <c r="BZ13">
-        <v>3754</v>
+        <v>3755</v>
       </c>
       <c r="CA13">
-        <v>5180</v>
+        <v>5179</v>
       </c>
       <c r="CB13">
-        <v>5690</v>
+        <v>5691</v>
       </c>
       <c r="CC13">
-        <v>5416</v>
+        <v>5422</v>
       </c>
       <c r="CD13">
-        <v>4420</v>
+        <v>4442</v>
+      </c>
+      <c r="CE13">
+        <v>3857</v>
       </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B14">
         <v>67</v>
@@ -3936,25 +3973,25 @@
         <v>2203</v>
       </c>
       <c r="G14">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H14">
         <v>982</v>
       </c>
       <c r="I14">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J14">
         <v>463</v>
       </c>
       <c r="K14">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L14">
         <v>351</v>
       </c>
       <c r="M14">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N14">
         <v>242</v>
@@ -4023,31 +4060,31 @@
         <v>5388</v>
       </c>
       <c r="AJ14">
-        <v>8084</v>
+        <v>8083</v>
       </c>
       <c r="AK14">
-        <v>8956</v>
+        <v>8958</v>
       </c>
       <c r="AL14">
-        <v>9190</v>
+        <v>9191</v>
       </c>
       <c r="AM14">
-        <v>9195</v>
+        <v>9196</v>
       </c>
       <c r="AN14">
-        <v>8715</v>
+        <v>8716</v>
       </c>
       <c r="AO14">
-        <v>9139</v>
+        <v>9146</v>
       </c>
       <c r="AP14">
-        <v>10990</v>
+        <v>10993</v>
       </c>
       <c r="AQ14">
-        <v>12226</v>
+        <v>12228</v>
       </c>
       <c r="AR14">
-        <v>9524</v>
+        <v>9523</v>
       </c>
       <c r="AS14">
         <v>8080</v>
@@ -4056,19 +4093,19 @@
         <v>10146</v>
       </c>
       <c r="AU14">
-        <v>8006</v>
+        <v>8005</v>
       </c>
       <c r="AV14">
-        <v>6342</v>
+        <v>6341</v>
       </c>
       <c r="AW14">
-        <v>5196</v>
+        <v>5195</v>
       </c>
       <c r="AX14">
         <v>4460</v>
       </c>
       <c r="AY14">
-        <v>3596</v>
+        <v>3594</v>
       </c>
       <c r="AZ14">
         <v>3708</v>
@@ -4077,40 +4114,40 @@
         <v>4181</v>
       </c>
       <c r="BB14">
-        <v>4576</v>
+        <v>4575</v>
       </c>
       <c r="BC14">
-        <v>5759</v>
+        <v>5760</v>
       </c>
       <c r="BD14">
-        <v>7586</v>
+        <v>7587</v>
       </c>
       <c r="BE14">
-        <v>9460</v>
+        <v>9461</v>
       </c>
       <c r="BF14">
-        <v>8986</v>
+        <v>8984</v>
       </c>
       <c r="BG14">
-        <v>9483</v>
+        <v>9484</v>
       </c>
       <c r="BH14">
-        <v>11265</v>
+        <v>11267</v>
       </c>
       <c r="BI14">
-        <v>11279</v>
+        <v>11278</v>
       </c>
       <c r="BJ14">
-        <v>10025</v>
+        <v>10021</v>
       </c>
       <c r="BK14">
         <v>7969</v>
       </c>
       <c r="BL14">
-        <v>5625</v>
+        <v>5624</v>
       </c>
       <c r="BM14">
-        <v>4222</v>
+        <v>4221</v>
       </c>
       <c r="BN14">
         <v>2412</v>
@@ -4143,30 +4180,33 @@
         <v>1166</v>
       </c>
       <c r="BX14">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="BY14">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="BZ14">
-        <v>3764</v>
+        <v>3765</v>
       </c>
       <c r="CA14">
-        <v>5263</v>
+        <v>5262</v>
       </c>
       <c r="CB14">
-        <v>5991</v>
+        <v>5994</v>
       </c>
       <c r="CC14">
-        <v>5787</v>
+        <v>5797</v>
       </c>
       <c r="CD14">
-        <v>4812</v>
+        <v>4808</v>
+      </c>
+      <c r="CE14">
+        <v>4200</v>
       </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B15">
         <v>69</v>
@@ -4181,10 +4221,10 @@
         <v>2635</v>
       </c>
       <c r="F15">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="G15">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="H15">
         <v>1206</v>
@@ -4196,7 +4236,7 @@
         <v>562</v>
       </c>
       <c r="K15">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L15">
         <v>394</v>
@@ -4235,7 +4275,7 @@
         <v>424</v>
       </c>
       <c r="X15">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Y15">
         <v>708</v>
@@ -4244,7 +4284,7 @@
         <v>945</v>
       </c>
       <c r="AA15">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="AB15">
         <v>937</v>
@@ -4253,7 +4293,7 @@
         <v>940</v>
       </c>
       <c r="AD15">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="AE15">
         <v>1302</v>
@@ -4265,52 +4305,52 @@
         <v>2359</v>
       </c>
       <c r="AH15">
-        <v>3858</v>
+        <v>3859</v>
       </c>
       <c r="AI15">
         <v>6717</v>
       </c>
       <c r="AJ15">
-        <v>9574</v>
+        <v>9575</v>
       </c>
       <c r="AK15">
-        <v>10474</v>
+        <v>10476</v>
       </c>
       <c r="AL15">
-        <v>10480</v>
+        <v>10483</v>
       </c>
       <c r="AM15">
-        <v>10082</v>
+        <v>10085</v>
       </c>
       <c r="AN15">
-        <v>9367</v>
+        <v>9366</v>
       </c>
       <c r="AO15">
-        <v>9468</v>
+        <v>9471</v>
       </c>
       <c r="AP15">
-        <v>11517</v>
+        <v>11522</v>
       </c>
       <c r="AQ15">
-        <v>13026</v>
+        <v>13027</v>
       </c>
       <c r="AR15">
-        <v>10043</v>
+        <v>10046</v>
       </c>
       <c r="AS15">
-        <v>9193</v>
+        <v>9194</v>
       </c>
       <c r="AT15">
-        <v>11602</v>
+        <v>11601</v>
       </c>
       <c r="AU15">
         <v>9048</v>
       </c>
       <c r="AV15">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="AW15">
-        <v>5765</v>
+        <v>5764</v>
       </c>
       <c r="AX15">
         <v>4908</v>
@@ -4328,10 +4368,10 @@
         <v>4892</v>
       </c>
       <c r="BC15">
-        <v>6018</v>
+        <v>6016</v>
       </c>
       <c r="BD15">
-        <v>7895</v>
+        <v>7894</v>
       </c>
       <c r="BE15">
         <v>9868</v>
@@ -4340,25 +4380,25 @@
         <v>9512</v>
       </c>
       <c r="BG15">
-        <v>10133</v>
+        <v>10134</v>
       </c>
       <c r="BH15">
-        <v>12009</v>
+        <v>12014</v>
       </c>
       <c r="BI15">
-        <v>11858</v>
+        <v>11853</v>
       </c>
       <c r="BJ15">
-        <v>10453</v>
+        <v>10456</v>
       </c>
       <c r="BK15">
-        <v>8277</v>
+        <v>8278</v>
       </c>
       <c r="BL15">
-        <v>5873</v>
+        <v>5869</v>
       </c>
       <c r="BM15">
-        <v>4540</v>
+        <v>4539</v>
       </c>
       <c r="BN15">
         <v>2748</v>
@@ -4370,10 +4410,10 @@
         <v>1184</v>
       </c>
       <c r="BQ15">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="BR15">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="BS15">
         <v>428</v>
@@ -4385,36 +4425,39 @@
         <v>869</v>
       </c>
       <c r="BV15">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="BW15">
         <v>1514</v>
       </c>
       <c r="BX15">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="BY15">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="BZ15">
-        <v>4381</v>
+        <v>4380</v>
       </c>
       <c r="CA15">
-        <v>5976</v>
+        <v>5977</v>
       </c>
       <c r="CB15">
         <v>6579</v>
       </c>
       <c r="CC15">
-        <v>6228</v>
+        <v>6222</v>
       </c>
       <c r="CD15">
-        <v>5070</v>
+        <v>5092</v>
+      </c>
+      <c r="CE15">
+        <v>4545</v>
       </c>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16">
         <v>76</v>
@@ -4432,7 +4475,7 @@
         <v>2485</v>
       </c>
       <c r="G16">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="H16">
         <v>1288</v>
@@ -4471,13 +4514,13 @@
         <v>314</v>
       </c>
       <c r="T16">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="U16">
         <v>309</v>
       </c>
       <c r="V16">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="W16">
         <v>510</v>
@@ -4501,7 +4544,7 @@
         <v>1228</v>
       </c>
       <c r="AD16">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="AE16">
         <v>1436</v>
@@ -4510,43 +4553,43 @@
         <v>1746</v>
       </c>
       <c r="AG16">
-        <v>2684</v>
+        <v>2686</v>
       </c>
       <c r="AH16">
         <v>4474</v>
       </c>
       <c r="AI16">
-        <v>7322</v>
+        <v>7325</v>
       </c>
       <c r="AJ16">
         <v>10341</v>
       </c>
       <c r="AK16">
-        <v>11149</v>
+        <v>11150</v>
       </c>
       <c r="AL16">
-        <v>10684</v>
+        <v>10683</v>
       </c>
       <c r="AM16">
-        <v>9921</v>
+        <v>9917</v>
       </c>
       <c r="AN16">
-        <v>8996</v>
+        <v>8997</v>
       </c>
       <c r="AO16">
-        <v>9146</v>
+        <v>9151</v>
       </c>
       <c r="AP16">
-        <v>10780</v>
+        <v>10782</v>
       </c>
       <c r="AQ16">
-        <v>12104</v>
+        <v>12105</v>
       </c>
       <c r="AR16">
         <v>9430</v>
       </c>
       <c r="AS16">
-        <v>8422</v>
+        <v>8423</v>
       </c>
       <c r="AT16">
         <v>10778</v>
@@ -4567,7 +4610,7 @@
         <v>3658</v>
       </c>
       <c r="AZ16">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="BA16">
         <v>4151</v>
@@ -4582,25 +4625,25 @@
         <v>7013</v>
       </c>
       <c r="BE16">
-        <v>8400</v>
+        <v>8402</v>
       </c>
       <c r="BF16">
-        <v>8376</v>
+        <v>8378</v>
       </c>
       <c r="BG16">
-        <v>9209</v>
+        <v>9213</v>
       </c>
       <c r="BH16">
-        <v>10900</v>
+        <v>10899</v>
       </c>
       <c r="BI16">
-        <v>10796</v>
+        <v>10795</v>
       </c>
       <c r="BJ16">
-        <v>9211</v>
+        <v>9220</v>
       </c>
       <c r="BK16">
-        <v>7460</v>
+        <v>7451</v>
       </c>
       <c r="BL16">
         <v>5178</v>
@@ -4624,7 +4667,7 @@
         <v>464</v>
       </c>
       <c r="BS16">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="BT16">
         <v>789</v>
@@ -4633,63 +4676,66 @@
         <v>1327</v>
       </c>
       <c r="BV16">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="BW16">
         <v>1953</v>
       </c>
       <c r="BX16">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="BY16">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="BZ16">
-        <v>5027</v>
+        <v>5029</v>
       </c>
       <c r="CA16">
         <v>6322</v>
       </c>
       <c r="CB16">
-        <v>6295</v>
+        <v>6292</v>
       </c>
       <c r="CC16">
-        <v>6047</v>
+        <v>6052</v>
       </c>
       <c r="CD16">
-        <v>4863</v>
+        <v>4899</v>
+      </c>
+      <c r="CE16">
+        <v>4071</v>
       </c>
     </row>
-    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B17">
         <v>70</v>
       </c>
       <c r="C17">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D17">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E17">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="F17">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="G17">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H17">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I17">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="J17">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K17">
         <v>505</v>
@@ -4716,16 +4762,16 @@
         <v>254</v>
       </c>
       <c r="S17">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T17">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U17">
         <v>300</v>
       </c>
       <c r="V17">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="W17">
         <v>521</v>
@@ -4746,19 +4792,19 @@
         <v>1247</v>
       </c>
       <c r="AC17">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="AD17">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="AE17">
         <v>1584</v>
       </c>
       <c r="AF17">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="AG17">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="AH17">
         <v>4387</v>
@@ -4770,22 +4816,22 @@
         <v>10409</v>
       </c>
       <c r="AK17">
-        <v>11733</v>
+        <v>11731</v>
       </c>
       <c r="AL17">
-        <v>11026</v>
+        <v>11028</v>
       </c>
       <c r="AM17">
-        <v>10198</v>
+        <v>10200</v>
       </c>
       <c r="AN17">
-        <v>8939</v>
+        <v>8940</v>
       </c>
       <c r="AO17">
-        <v>9174</v>
+        <v>9178</v>
       </c>
       <c r="AP17">
-        <v>10785</v>
+        <v>10792</v>
       </c>
       <c r="AQ17">
         <v>12096</v>
@@ -4797,10 +4843,10 @@
         <v>8588</v>
       </c>
       <c r="AT17">
-        <v>10891</v>
+        <v>10890</v>
       </c>
       <c r="AU17">
-        <v>8539</v>
+        <v>8538</v>
       </c>
       <c r="AV17">
         <v>6434</v>
@@ -4812,7 +4858,7 @@
         <v>4377</v>
       </c>
       <c r="AY17">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="AZ17">
         <v>3946</v>
@@ -4821,40 +4867,40 @@
         <v>4198</v>
       </c>
       <c r="BB17">
-        <v>4401</v>
+        <v>4402</v>
       </c>
       <c r="BC17">
         <v>5422</v>
       </c>
       <c r="BD17">
-        <v>6904</v>
+        <v>6905</v>
       </c>
       <c r="BE17">
         <v>8553</v>
       </c>
       <c r="BF17">
-        <v>8506</v>
+        <v>8505</v>
       </c>
       <c r="BG17">
-        <v>9796</v>
+        <v>9800</v>
       </c>
       <c r="BH17">
-        <v>11546</v>
+        <v>11547</v>
       </c>
       <c r="BI17">
-        <v>11271</v>
+        <v>11268</v>
       </c>
       <c r="BJ17">
-        <v>9625</v>
+        <v>9622</v>
       </c>
       <c r="BK17">
-        <v>7833</v>
+        <v>7834</v>
       </c>
       <c r="BL17">
-        <v>5588</v>
+        <v>5586</v>
       </c>
       <c r="BM17">
-        <v>4185</v>
+        <v>4184</v>
       </c>
       <c r="BN17">
         <v>2414</v>
@@ -4875,7 +4921,7 @@
         <v>554</v>
       </c>
       <c r="BT17">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="BU17">
         <v>1507</v>
@@ -4887,30 +4933,33 @@
         <v>2328</v>
       </c>
       <c r="BX17">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="BY17">
-        <v>4430</v>
+        <v>4431</v>
       </c>
       <c r="BZ17">
-        <v>5780</v>
+        <v>5781</v>
       </c>
       <c r="CA17">
-        <v>6879</v>
+        <v>6880</v>
       </c>
       <c r="CB17">
-        <v>6829</v>
+        <v>6828</v>
       </c>
       <c r="CC17">
-        <v>6229</v>
+        <v>6226</v>
       </c>
       <c r="CD17">
-        <v>4912</v>
+        <v>4937</v>
+      </c>
+      <c r="CE17">
+        <v>4072</v>
       </c>
     </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B18">
         <v>44</v>
@@ -4922,13 +4971,13 @@
         <v>537</v>
       </c>
       <c r="E18">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F18">
         <v>1074</v>
       </c>
       <c r="G18">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H18">
         <v>570</v>
@@ -4985,7 +5034,7 @@
         <v>741</v>
       </c>
       <c r="Z18">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AA18">
         <v>836</v>
@@ -4994,13 +5043,13 @@
         <v>768</v>
       </c>
       <c r="AC18">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AD18">
         <v>1040</v>
       </c>
       <c r="AE18">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AF18">
         <v>1331</v>
@@ -5018,31 +5067,31 @@
         <v>7189</v>
       </c>
       <c r="AK18">
-        <v>8410</v>
+        <v>8409</v>
       </c>
       <c r="AL18">
-        <v>8717</v>
+        <v>8716</v>
       </c>
       <c r="AM18">
-        <v>8211</v>
+        <v>8209</v>
       </c>
       <c r="AN18">
         <v>7458</v>
       </c>
       <c r="AO18">
-        <v>7711</v>
+        <v>7712</v>
       </c>
       <c r="AP18">
         <v>8817</v>
       </c>
       <c r="AQ18">
-        <v>8473</v>
+        <v>8474</v>
       </c>
       <c r="AR18">
-        <v>5871</v>
+        <v>5875</v>
       </c>
       <c r="AS18">
-        <v>4954</v>
+        <v>4955</v>
       </c>
       <c r="AT18">
         <v>6380</v>
@@ -5069,55 +5118,55 @@
         <v>3071</v>
       </c>
       <c r="BB18">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="BC18">
-        <v>4105</v>
+        <v>4106</v>
       </c>
       <c r="BD18">
-        <v>5538</v>
+        <v>5537</v>
       </c>
       <c r="BE18">
         <v>7187</v>
       </c>
       <c r="BF18">
-        <v>6608</v>
+        <v>6609</v>
       </c>
       <c r="BG18">
         <v>7547</v>
       </c>
       <c r="BH18">
-        <v>10812</v>
+        <v>10820</v>
       </c>
       <c r="BI18">
-        <v>10343</v>
+        <v>10336</v>
       </c>
       <c r="BJ18">
-        <v>8658</v>
+        <v>8659</v>
       </c>
       <c r="BK18">
-        <v>7054</v>
+        <v>7052</v>
       </c>
       <c r="BL18">
-        <v>4941</v>
+        <v>4942</v>
       </c>
       <c r="BM18">
-        <v>3885</v>
+        <v>3883</v>
       </c>
       <c r="BN18">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="BO18">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="BP18">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="BQ18">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BR18">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="BS18">
         <v>413</v>
@@ -5132,10 +5181,10 @@
         <v>1613</v>
       </c>
       <c r="BW18">
-        <v>1838</v>
+        <v>1842</v>
       </c>
       <c r="BX18">
-        <v>2371</v>
+        <v>2368</v>
       </c>
       <c r="BY18">
         <v>3502</v>
@@ -5144,21 +5193,24 @@
         <v>5572</v>
       </c>
       <c r="CA18">
-        <v>6960</v>
+        <v>6961</v>
       </c>
       <c r="CB18">
-        <v>7778</v>
+        <v>7774</v>
       </c>
       <c r="CC18">
-        <v>6844</v>
+        <v>6841</v>
       </c>
       <c r="CD18">
-        <v>5613</v>
+        <v>5639</v>
+      </c>
+      <c r="CE18">
+        <v>4586</v>
       </c>
     </row>
-    <row r="19" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -5176,7 +5228,7 @@
         <v>430</v>
       </c>
       <c r="G19">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H19">
         <v>234</v>
@@ -5239,7 +5291,7 @@
         <v>483</v>
       </c>
       <c r="AB19">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AC19">
         <v>498</v>
@@ -5257,7 +5309,7 @@
         <v>1140</v>
       </c>
       <c r="AH19">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="AI19">
         <v>2747</v>
@@ -5266,31 +5318,31 @@
         <v>4082</v>
       </c>
       <c r="AK19">
-        <v>4785</v>
+        <v>4783</v>
       </c>
       <c r="AL19">
         <v>5348</v>
       </c>
       <c r="AM19">
-        <v>5297</v>
+        <v>5299</v>
       </c>
       <c r="AN19">
-        <v>5184</v>
+        <v>5185</v>
       </c>
       <c r="AO19">
         <v>5154</v>
       </c>
       <c r="AP19">
-        <v>5690</v>
+        <v>5688</v>
       </c>
       <c r="AQ19">
         <v>5284</v>
       </c>
       <c r="AR19">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="AS19">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="AT19">
         <v>3329</v>
@@ -5311,7 +5363,7 @@
         <v>1409</v>
       </c>
       <c r="AZ19">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="BA19">
         <v>1879</v>
@@ -5320,34 +5372,34 @@
         <v>2308</v>
       </c>
       <c r="BC19">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="BD19">
         <v>4181</v>
       </c>
       <c r="BE19">
-        <v>5731</v>
+        <v>5730</v>
       </c>
       <c r="BF19">
-        <v>4850</v>
+        <v>4851</v>
       </c>
       <c r="BG19">
-        <v>5179</v>
+        <v>5181</v>
       </c>
       <c r="BH19">
         <v>7658</v>
       </c>
       <c r="BI19">
-        <v>8737</v>
+        <v>8734</v>
       </c>
       <c r="BJ19">
-        <v>7168</v>
+        <v>7173</v>
       </c>
       <c r="BK19">
-        <v>6125</v>
+        <v>6122</v>
       </c>
       <c r="BL19">
-        <v>4572</v>
+        <v>4570</v>
       </c>
       <c r="BM19">
         <v>3762</v>
@@ -5359,7 +5411,7 @@
         <v>1580</v>
       </c>
       <c r="BP19">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="BQ19">
         <v>663</v>
@@ -5371,19 +5423,19 @@
         <v>309</v>
       </c>
       <c r="BT19">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="BU19">
         <v>533</v>
       </c>
       <c r="BV19">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="BW19">
         <v>997</v>
       </c>
       <c r="BX19">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="BY19">
         <v>2604</v>
@@ -5392,21 +5444,24 @@
         <v>5362</v>
       </c>
       <c r="CA19">
-        <v>6915</v>
+        <v>6917</v>
       </c>
       <c r="CB19">
         <v>8403</v>
       </c>
       <c r="CC19">
-        <v>7728</v>
+        <v>7731</v>
       </c>
       <c r="CD19">
-        <v>7276</v>
+        <v>7299</v>
+      </c>
+      <c r="CE19">
+        <v>6216</v>
       </c>
     </row>
-    <row r="20" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -5487,13 +5542,13 @@
         <v>353</v>
       </c>
       <c r="AB20">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AC20">
         <v>325</v>
       </c>
       <c r="AD20">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AE20">
         <v>390</v>
@@ -5502,46 +5557,46 @@
         <v>434</v>
       </c>
       <c r="AG20">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AH20">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AI20">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="AJ20">
         <v>2794</v>
       </c>
       <c r="AK20">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="AL20">
         <v>3613</v>
       </c>
       <c r="AM20">
-        <v>3917</v>
+        <v>3918</v>
       </c>
       <c r="AN20">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="AO20">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="AP20">
         <v>4259</v>
       </c>
       <c r="AQ20">
-        <v>4301</v>
+        <v>4305</v>
       </c>
       <c r="AR20">
         <v>3022</v>
       </c>
       <c r="AS20">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="AT20">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="AU20">
         <v>2194</v>
@@ -5553,7 +5608,7 @@
         <v>1642</v>
       </c>
       <c r="AX20">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="AY20">
         <v>1390</v>
@@ -5562,13 +5617,13 @@
         <v>1552</v>
       </c>
       <c r="BA20">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="BB20">
         <v>2724</v>
       </c>
       <c r="BC20">
-        <v>3680</v>
+        <v>3679</v>
       </c>
       <c r="BD20">
         <v>4762</v>
@@ -5577,37 +5632,37 @@
         <v>6699</v>
       </c>
       <c r="BF20">
-        <v>5189</v>
+        <v>5191</v>
       </c>
       <c r="BG20">
-        <v>4696</v>
+        <v>4698</v>
       </c>
       <c r="BH20">
-        <v>6993</v>
+        <v>6995</v>
       </c>
       <c r="BI20">
-        <v>8419</v>
+        <v>8418</v>
       </c>
       <c r="BJ20">
-        <v>6871</v>
+        <v>6872</v>
       </c>
       <c r="BK20">
-        <v>5564</v>
+        <v>5565</v>
       </c>
       <c r="BL20">
-        <v>4116</v>
+        <v>4114</v>
       </c>
       <c r="BM20">
         <v>3414</v>
       </c>
       <c r="BN20">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="BO20">
         <v>1526</v>
       </c>
       <c r="BP20">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="BQ20">
         <v>566</v>
@@ -5625,36 +5680,39 @@
         <v>323</v>
       </c>
       <c r="BV20">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="BW20">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BX20">
         <v>1154</v>
       </c>
       <c r="BY20">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="BZ20">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="CA20">
-        <v>5587</v>
+        <v>5591</v>
       </c>
       <c r="CB20">
-        <v>7009</v>
+        <v>7006</v>
       </c>
       <c r="CC20">
-        <v>6583</v>
+        <v>6587</v>
       </c>
       <c r="CD20">
-        <v>5833</v>
+        <v>5862</v>
+      </c>
+      <c r="CE20">
+        <v>5197</v>
       </c>
     </row>
-    <row r="21" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -5741,10 +5799,10 @@
         <v>226</v>
       </c>
       <c r="AD21">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AE21">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF21">
         <v>327</v>
@@ -5756,7 +5814,7 @@
         <v>889</v>
       </c>
       <c r="AI21">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="AJ21">
         <v>2227</v>
@@ -5765,28 +5823,28 @@
         <v>2413</v>
       </c>
       <c r="AL21">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="AM21">
-        <v>2378</v>
+        <v>2380</v>
       </c>
       <c r="AN21">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="AO21">
         <v>2302</v>
       </c>
       <c r="AP21">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="AQ21">
-        <v>3094</v>
+        <v>3092</v>
       </c>
       <c r="AR21">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="AS21">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="AT21">
         <v>1900</v>
@@ -5813,7 +5871,7 @@
         <v>1885</v>
       </c>
       <c r="BB21">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="BC21">
         <v>2991</v>
@@ -5825,22 +5883,22 @@
         <v>5023</v>
       </c>
       <c r="BF21">
-        <v>4467</v>
+        <v>4465</v>
       </c>
       <c r="BG21">
         <v>4026</v>
       </c>
       <c r="BH21">
-        <v>5083</v>
+        <v>5087</v>
       </c>
       <c r="BI21">
-        <v>5581</v>
+        <v>5576</v>
       </c>
       <c r="BJ21">
-        <v>5059</v>
+        <v>5062</v>
       </c>
       <c r="BK21">
-        <v>4116</v>
+        <v>4113</v>
       </c>
       <c r="BL21">
         <v>2967</v>
@@ -5882,40 +5940,44 @@
         <v>758</v>
       </c>
       <c r="BY21">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="BZ21">
         <v>1866</v>
       </c>
       <c r="CA21">
-        <v>2958</v>
+        <v>2960</v>
       </c>
       <c r="CB21">
-        <v>3416</v>
+        <v>3418</v>
       </c>
       <c r="CC21">
-        <v>3504</v>
+        <v>3502</v>
       </c>
       <c r="CD21">
-        <v>2838</v>
+        <v>2839</v>
+      </c>
+      <c r="CE21">
+        <v>2295</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177A6744-B0D5-42CA-9E91-BB7B295377AF}">
-  <dimension ref="A1:CD21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AEC815-63A5-41DB-BCD5-FFE8A4392B78}">
+  <dimension ref="A1:CE21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6162,16 +6224,19 @@
       <c r="CD1" t="s">
         <v>81</v>
       </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>1.08</v>
       </c>
       <c r="C2">
-        <v>7.74</v>
+        <v>7.73</v>
       </c>
       <c r="D2">
         <v>26.92</v>
@@ -6243,7 +6308,7 @@
         <v>11.54</v>
       </c>
       <c r="AA2">
-        <v>10.62</v>
+        <v>10.61</v>
       </c>
       <c r="AB2">
         <v>10.36</v>
@@ -6276,25 +6341,25 @@
         <v>151.16999999999999</v>
       </c>
       <c r="AL2">
-        <v>153.63</v>
+        <v>153.63999999999999</v>
       </c>
       <c r="AM2">
         <v>154.34</v>
       </c>
       <c r="AN2">
-        <v>148.1</v>
+        <v>148.08000000000001</v>
       </c>
       <c r="AO2">
-        <v>154.32</v>
+        <v>154.33000000000001</v>
       </c>
       <c r="AP2">
         <v>187.92</v>
       </c>
       <c r="AQ2">
-        <v>210.07</v>
+        <v>210.06</v>
       </c>
       <c r="AR2">
-        <v>167.08</v>
+        <v>167.07</v>
       </c>
       <c r="AS2">
         <v>147.97999999999999</v>
@@ -6303,7 +6368,7 @@
         <v>174.88</v>
       </c>
       <c r="AU2">
-        <v>142.97</v>
+        <v>142.96</v>
       </c>
       <c r="AV2">
         <v>114.85</v>
@@ -6321,7 +6386,7 @@
         <v>62.99</v>
       </c>
       <c r="BA2">
-        <v>67.75</v>
+        <v>67.760000000000005</v>
       </c>
       <c r="BB2">
         <v>70.180000000000007</v>
@@ -6330,43 +6395,43 @@
         <v>85.74</v>
       </c>
       <c r="BD2">
-        <v>111.32</v>
+        <v>111.31</v>
       </c>
       <c r="BE2">
-        <v>139.79</v>
+        <v>139.80000000000001</v>
       </c>
       <c r="BF2">
         <v>132.38</v>
       </c>
       <c r="BG2">
-        <v>142.16999999999999</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="BH2">
-        <v>170.77</v>
+        <v>170.8</v>
       </c>
       <c r="BI2">
-        <v>174.1</v>
+        <v>174.05</v>
       </c>
       <c r="BJ2">
-        <v>150.05000000000001</v>
+        <v>150.07</v>
       </c>
       <c r="BK2">
-        <v>121.45</v>
+        <v>121.43</v>
       </c>
       <c r="BL2">
-        <v>85.18</v>
+        <v>85.17</v>
       </c>
       <c r="BM2">
-        <v>63.37</v>
+        <v>63.36</v>
       </c>
       <c r="BN2">
         <v>35.92</v>
       </c>
       <c r="BO2">
-        <v>24.87</v>
+        <v>24.86</v>
       </c>
       <c r="BP2">
-        <v>16.86</v>
+        <v>16.87</v>
       </c>
       <c r="BQ2">
         <v>8.73</v>
@@ -6384,36 +6449,39 @@
         <v>10.93</v>
       </c>
       <c r="BV2">
-        <v>15.16</v>
+        <v>15.17</v>
       </c>
       <c r="BW2">
         <v>18.62</v>
       </c>
       <c r="BX2">
-        <v>24.53</v>
+        <v>24.52</v>
       </c>
       <c r="BY2">
-        <v>38.520000000000003</v>
+        <v>38.51</v>
       </c>
       <c r="BZ2">
-        <v>59.61</v>
+        <v>59.62</v>
       </c>
       <c r="CA2">
-        <v>79.67</v>
+        <v>79.680000000000007</v>
       </c>
       <c r="CB2">
-        <v>89.74</v>
+        <v>89.73</v>
       </c>
       <c r="CC2">
         <v>86.1</v>
       </c>
       <c r="CD2">
-        <v>73.510000000000005</v>
+        <v>73.77</v>
+      </c>
+      <c r="CE2">
+        <v>63.71</v>
       </c>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>0.12</v>
@@ -6521,22 +6589,22 @@
         <v>177.63</v>
       </c>
       <c r="AK3">
-        <v>209.1</v>
+        <v>208.98</v>
       </c>
       <c r="AL3">
-        <v>280.54000000000002</v>
+        <v>280.66000000000003</v>
       </c>
       <c r="AM3">
-        <v>371.91</v>
+        <v>372.03</v>
       </c>
       <c r="AN3">
-        <v>427.31</v>
+        <v>427.19</v>
       </c>
       <c r="AO3">
         <v>509.45</v>
       </c>
       <c r="AP3">
-        <v>656.1</v>
+        <v>656.34</v>
       </c>
       <c r="AQ3">
         <v>725.47</v>
@@ -6581,16 +6649,16 @@
         <v>77.52</v>
       </c>
       <c r="BE3">
-        <v>80.19</v>
+        <v>80.31</v>
       </c>
       <c r="BF3">
-        <v>75.819999999999993</v>
+        <v>75.94</v>
       </c>
       <c r="BG3">
-        <v>86.99</v>
+        <v>87.12</v>
       </c>
       <c r="BH3">
-        <v>96.35</v>
+        <v>96.23</v>
       </c>
       <c r="BI3">
         <v>96.59</v>
@@ -6599,7 +6667,7 @@
         <v>77.27</v>
       </c>
       <c r="BK3">
-        <v>65.849999999999994</v>
+        <v>65.73</v>
       </c>
       <c r="BL3">
         <v>49.57</v>
@@ -6635,7 +6703,7 @@
         <v>3.04</v>
       </c>
       <c r="BW3">
-        <v>7.05</v>
+        <v>6.93</v>
       </c>
       <c r="BX3">
         <v>8.02</v>
@@ -6650,18 +6718,21 @@
         <v>27.46</v>
       </c>
       <c r="CB3">
-        <v>41.07</v>
+        <v>40.82</v>
       </c>
       <c r="CC3">
         <v>43.25</v>
       </c>
       <c r="CD3">
-        <v>48.72</v>
+        <v>48.11</v>
+      </c>
+      <c r="CE3">
+        <v>41.55</v>
       </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>0.38</v>
@@ -6676,7 +6747,7 @@
         <v>47</v>
       </c>
       <c r="F4">
-        <v>92.66</v>
+        <v>92.79</v>
       </c>
       <c r="G4">
         <v>90.87</v>
@@ -6721,7 +6792,7 @@
         <v>1.28</v>
       </c>
       <c r="U4">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="V4">
         <v>2.17</v>
@@ -6769,40 +6840,40 @@
         <v>114.21</v>
       </c>
       <c r="AK4">
-        <v>146.12</v>
+        <v>146.05000000000001</v>
       </c>
       <c r="AL4">
         <v>181.03</v>
       </c>
       <c r="AM4">
-        <v>215.95</v>
+        <v>215.88</v>
       </c>
       <c r="AN4">
-        <v>261.8</v>
+        <v>261.73</v>
       </c>
       <c r="AO4">
         <v>293.89999999999998</v>
       </c>
       <c r="AP4">
-        <v>377.86</v>
+        <v>377.8</v>
       </c>
       <c r="AQ4">
-        <v>443.34</v>
+        <v>443.53</v>
       </c>
       <c r="AR4">
-        <v>372.17</v>
+        <v>372.3</v>
       </c>
       <c r="AS4">
-        <v>357.14</v>
+        <v>357.08</v>
       </c>
       <c r="AT4">
-        <v>387.84</v>
+        <v>387.9</v>
       </c>
       <c r="AU4">
-        <v>355.41</v>
+        <v>355.35</v>
       </c>
       <c r="AV4">
-        <v>283.99</v>
+        <v>283.92</v>
       </c>
       <c r="AW4">
         <v>212.49</v>
@@ -6823,7 +6894,7 @@
         <v>61.64</v>
       </c>
       <c r="BC4">
-        <v>60.05</v>
+        <v>59.98</v>
       </c>
       <c r="BD4">
         <v>70.98</v>
@@ -6835,7 +6906,7 @@
         <v>76.22</v>
       </c>
       <c r="BG4">
-        <v>68.489999999999995</v>
+        <v>68.55</v>
       </c>
       <c r="BH4">
         <v>76.739999999999995</v>
@@ -6847,7 +6918,7 @@
         <v>63.31</v>
       </c>
       <c r="BK4">
-        <v>54.61</v>
+        <v>54.67</v>
       </c>
       <c r="BL4">
         <v>39.65</v>
@@ -6901,15 +6972,18 @@
         <v>28.07</v>
       </c>
       <c r="CC4">
-        <v>32.74</v>
+        <v>32.61</v>
       </c>
       <c r="CD4">
-        <v>33</v>
+        <v>33.06</v>
+      </c>
+      <c r="CE4">
+        <v>28.33</v>
       </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5">
         <v>0.36</v>
@@ -6921,13 +6995,13 @@
         <v>14.21</v>
       </c>
       <c r="E5">
-        <v>38.79</v>
+        <v>38.82</v>
       </c>
       <c r="F5">
-        <v>59.68</v>
+        <v>59.59</v>
       </c>
       <c r="G5">
-        <v>52.15</v>
+        <v>52.18</v>
       </c>
       <c r="H5">
         <v>35.700000000000003</v>
@@ -6969,7 +7043,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="U5">
-        <v>1.1499999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="V5">
         <v>1.55</v>
@@ -7017,40 +7091,40 @@
         <v>86.06</v>
       </c>
       <c r="AK5">
-        <v>104.18</v>
+        <v>104.21</v>
       </c>
       <c r="AL5">
         <v>115.23</v>
       </c>
       <c r="AM5">
-        <v>132.29</v>
+        <v>132.32</v>
       </c>
       <c r="AN5">
-        <v>144.74</v>
+        <v>144.77000000000001</v>
       </c>
       <c r="AO5">
-        <v>165.23</v>
+        <v>165.29</v>
       </c>
       <c r="AP5">
-        <v>214.71</v>
+        <v>214.74</v>
       </c>
       <c r="AQ5">
-        <v>250.56</v>
+        <v>250.62</v>
       </c>
       <c r="AR5">
-        <v>224.9</v>
+        <v>224.87</v>
       </c>
       <c r="AS5">
-        <v>208.45</v>
+        <v>208.42</v>
       </c>
       <c r="AT5">
         <v>232.71</v>
       </c>
       <c r="AU5">
-        <v>203.05</v>
+        <v>202.99</v>
       </c>
       <c r="AV5">
-        <v>161.80000000000001</v>
+        <v>161.83000000000001</v>
       </c>
       <c r="AW5">
         <v>127.25</v>
@@ -7086,16 +7160,16 @@
         <v>59.5</v>
       </c>
       <c r="BH5">
-        <v>67.3</v>
+        <v>67.36</v>
       </c>
       <c r="BI5">
-        <v>61.44</v>
+        <v>61.41</v>
       </c>
       <c r="BJ5">
-        <v>48.39</v>
+        <v>48.42</v>
       </c>
       <c r="BK5">
-        <v>41.44</v>
+        <v>41.41</v>
       </c>
       <c r="BL5">
         <v>27.96</v>
@@ -7146,18 +7220,21 @@
         <v>14.51</v>
       </c>
       <c r="CB5">
-        <v>20.52</v>
+        <v>20.49</v>
       </c>
       <c r="CC5">
-        <v>25.07</v>
+        <v>25.01</v>
       </c>
       <c r="CD5">
-        <v>23.98</v>
+        <v>24.07</v>
+      </c>
+      <c r="CE5">
+        <v>19.73</v>
       </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6">
         <v>0.62</v>
@@ -7184,13 +7261,13 @@
         <v>15.17</v>
       </c>
       <c r="J6">
-        <v>9.0299999999999994</v>
+        <v>9</v>
       </c>
       <c r="K6">
         <v>7.09</v>
       </c>
       <c r="L6">
-        <v>4.51</v>
+        <v>4.49</v>
       </c>
       <c r="M6">
         <v>2.71</v>
@@ -7271,28 +7348,28 @@
         <v>84.67</v>
       </c>
       <c r="AM6">
-        <v>87.17</v>
+        <v>87.22</v>
       </c>
       <c r="AN6">
-        <v>89.95</v>
+        <v>89.9</v>
       </c>
       <c r="AO6">
-        <v>102.26</v>
+        <v>102.34</v>
       </c>
       <c r="AP6">
-        <v>129.01</v>
+        <v>129.06</v>
       </c>
       <c r="AQ6">
-        <v>153.08000000000001</v>
+        <v>153.13</v>
       </c>
       <c r="AR6">
-        <v>131.56</v>
+        <v>131.62</v>
       </c>
       <c r="AS6">
-        <v>119.59</v>
+        <v>119.62</v>
       </c>
       <c r="AT6">
-        <v>134.56</v>
+        <v>134.53</v>
       </c>
       <c r="AU6">
         <v>111.19</v>
@@ -7334,16 +7411,16 @@
         <v>60.67</v>
       </c>
       <c r="BH6">
-        <v>69.81</v>
+        <v>69.83</v>
       </c>
       <c r="BI6">
-        <v>64.209999999999994</v>
+        <v>64.16</v>
       </c>
       <c r="BJ6">
-        <v>54.72</v>
+        <v>54.69</v>
       </c>
       <c r="BK6">
-        <v>42.93</v>
+        <v>42.95</v>
       </c>
       <c r="BL6">
         <v>29.41</v>
@@ -7373,7 +7450,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="BU6">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="BV6">
         <v>1.65</v>
@@ -7391,21 +7468,24 @@
         <v>7.4</v>
       </c>
       <c r="CA6">
-        <v>10.6</v>
+        <v>10.63</v>
       </c>
       <c r="CB6">
-        <v>13.93</v>
+        <v>13.9</v>
       </c>
       <c r="CC6">
-        <v>15.22</v>
+        <v>15.25</v>
       </c>
       <c r="CD6">
-        <v>14.55</v>
+        <v>14.73</v>
+      </c>
+      <c r="CE6">
+        <v>14.45</v>
       </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7">
         <v>0.3</v>
@@ -7414,10 +7494,10 @@
         <v>3.97</v>
       </c>
       <c r="D7">
-        <v>16.850000000000001</v>
+        <v>16.87</v>
       </c>
       <c r="E7">
-        <v>36.119999999999997</v>
+        <v>36.14</v>
       </c>
       <c r="F7">
         <v>38.43</v>
@@ -7510,28 +7590,28 @@
         <v>49.1</v>
       </c>
       <c r="AJ7">
-        <v>78.44</v>
+        <v>78.41</v>
       </c>
       <c r="AK7">
         <v>86.74</v>
       </c>
       <c r="AL7">
-        <v>89.9</v>
+        <v>89.93</v>
       </c>
       <c r="AM7">
-        <v>91.26</v>
+        <v>91.29</v>
       </c>
       <c r="AN7">
-        <v>86.88</v>
+        <v>86.85</v>
       </c>
       <c r="AO7">
-        <v>94.69</v>
+        <v>94.72</v>
       </c>
       <c r="AP7">
         <v>119.38</v>
       </c>
       <c r="AQ7">
-        <v>140.28</v>
+        <v>140.31</v>
       </c>
       <c r="AR7">
         <v>121.01</v>
@@ -7540,19 +7620,19 @@
         <v>112.35</v>
       </c>
       <c r="AT7">
-        <v>131.65</v>
+        <v>131.68</v>
       </c>
       <c r="AU7">
-        <v>99.7</v>
+        <v>99.73</v>
       </c>
       <c r="AV7">
         <v>83.1</v>
       </c>
       <c r="AW7">
-        <v>67.47</v>
+        <v>67.5</v>
       </c>
       <c r="AX7">
-        <v>56.15</v>
+        <v>56.12</v>
       </c>
       <c r="AY7">
         <v>42.92</v>
@@ -7573,7 +7653,7 @@
         <v>64.67</v>
       </c>
       <c r="BE7">
-        <v>77.27</v>
+        <v>77.3</v>
       </c>
       <c r="BF7">
         <v>79.010000000000005</v>
@@ -7591,7 +7671,7 @@
         <v>78.33</v>
       </c>
       <c r="BK7">
-        <v>62.68</v>
+        <v>62.65</v>
       </c>
       <c r="BL7">
         <v>43.38</v>
@@ -7630,7 +7710,7 @@
         <v>4.57</v>
       </c>
       <c r="BX7">
-        <v>4.6500000000000004</v>
+        <v>4.68</v>
       </c>
       <c r="BY7">
         <v>8.11</v>
@@ -7648,12 +7728,15 @@
         <v>22.26</v>
       </c>
       <c r="CD7">
-        <v>20.49</v>
+        <v>20.58</v>
+      </c>
+      <c r="CE7">
+        <v>18.73</v>
       </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8">
         <v>0.51</v>
@@ -7758,34 +7841,34 @@
         <v>46.61</v>
       </c>
       <c r="AJ8">
-        <v>73.099999999999994</v>
+        <v>73.08</v>
       </c>
       <c r="AK8">
-        <v>87.71</v>
+        <v>87.75</v>
       </c>
       <c r="AL8">
-        <v>82.61</v>
+        <v>82.59</v>
       </c>
       <c r="AM8">
-        <v>85.47</v>
+        <v>85.49</v>
       </c>
       <c r="AN8">
-        <v>85.1</v>
+        <v>85.04</v>
       </c>
       <c r="AO8">
-        <v>84.69</v>
+        <v>84.73</v>
       </c>
       <c r="AP8">
-        <v>106.38</v>
+        <v>106.44</v>
       </c>
       <c r="AQ8">
         <v>130.72999999999999</v>
       </c>
       <c r="AR8">
-        <v>114.86</v>
+        <v>114.96</v>
       </c>
       <c r="AS8">
-        <v>102.39</v>
+        <v>102.43</v>
       </c>
       <c r="AT8">
         <v>117.9</v>
@@ -7794,7 +7877,7 @@
         <v>90.9</v>
       </c>
       <c r="AV8">
-        <v>74.56</v>
+        <v>74.58</v>
       </c>
       <c r="AW8">
         <v>64.349999999999994</v>
@@ -7824,16 +7907,16 @@
         <v>80.239999999999995</v>
       </c>
       <c r="BF8">
-        <v>81.64</v>
+        <v>81.62</v>
       </c>
       <c r="BG8">
         <v>88.66</v>
       </c>
       <c r="BH8">
-        <v>101.07</v>
+        <v>101.09</v>
       </c>
       <c r="BI8">
-        <v>95.25</v>
+        <v>95.22</v>
       </c>
       <c r="BJ8">
         <v>81.739999999999995</v>
@@ -7884,7 +7967,7 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="BZ8">
-        <v>12.18</v>
+        <v>12.2</v>
       </c>
       <c r="CA8">
         <v>16.670000000000002</v>
@@ -7893,27 +7976,30 @@
         <v>20.46</v>
       </c>
       <c r="CC8">
-        <v>22.84</v>
+        <v>22.82</v>
       </c>
       <c r="CD8">
-        <v>21.55</v>
+        <v>21.61</v>
+      </c>
+      <c r="CE8">
+        <v>20.07</v>
       </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9">
         <v>1.1200000000000001</v>
       </c>
       <c r="C9">
-        <v>7.61</v>
+        <v>7.6</v>
       </c>
       <c r="D9">
-        <v>28.29</v>
+        <v>28.28</v>
       </c>
       <c r="E9">
-        <v>44.65</v>
+        <v>44.67</v>
       </c>
       <c r="F9">
         <v>49.21</v>
@@ -7931,7 +8017,7 @@
         <v>7.17</v>
       </c>
       <c r="K9">
-        <v>5.86</v>
+        <v>5.88</v>
       </c>
       <c r="L9">
         <v>4.2300000000000004</v>
@@ -8009,40 +8095,40 @@
         <v>106.01</v>
       </c>
       <c r="AK9">
-        <v>121.38</v>
+        <v>121.36</v>
       </c>
       <c r="AL9">
-        <v>122.61</v>
+        <v>122.65</v>
       </c>
       <c r="AM9">
-        <v>129.22</v>
+        <v>129.24</v>
       </c>
       <c r="AN9">
         <v>124.03</v>
       </c>
       <c r="AO9">
-        <v>135.41999999999999</v>
+        <v>135.52000000000001</v>
       </c>
       <c r="AP9">
-        <v>166.86</v>
+        <v>166.99</v>
       </c>
       <c r="AQ9">
-        <v>195.46</v>
+        <v>195.42</v>
       </c>
       <c r="AR9">
-        <v>162.56</v>
+        <v>162.54</v>
       </c>
       <c r="AS9">
-        <v>146.27000000000001</v>
+        <v>146.31</v>
       </c>
       <c r="AT9">
-        <v>164.31</v>
+        <v>164.33</v>
       </c>
       <c r="AU9">
-        <v>133.72</v>
+        <v>133.69999999999999</v>
       </c>
       <c r="AV9">
-        <v>110.43</v>
+        <v>110.42</v>
       </c>
       <c r="AW9">
         <v>90.69</v>
@@ -8054,10 +8140,10 @@
         <v>56.43</v>
       </c>
       <c r="AZ9">
-        <v>57.53</v>
+        <v>57.51</v>
       </c>
       <c r="BA9">
-        <v>62.22</v>
+        <v>62.24</v>
       </c>
       <c r="BB9">
         <v>60.55</v>
@@ -8072,28 +8158,28 @@
         <v>116.33</v>
       </c>
       <c r="BF9">
-        <v>113.41</v>
+        <v>113.43</v>
       </c>
       <c r="BG9">
         <v>121.73</v>
       </c>
       <c r="BH9">
-        <v>134.55000000000001</v>
+        <v>134.57</v>
       </c>
       <c r="BI9">
-        <v>137.41999999999999</v>
+        <v>137.38</v>
       </c>
       <c r="BJ9">
-        <v>120.33</v>
+        <v>120.3</v>
       </c>
       <c r="BK9">
-        <v>97.91</v>
+        <v>97.93</v>
       </c>
       <c r="BL9">
         <v>66.06</v>
       </c>
       <c r="BM9">
-        <v>46.96</v>
+        <v>46.94</v>
       </c>
       <c r="BN9">
         <v>23.78</v>
@@ -8126,30 +8212,33 @@
         <v>7.03</v>
       </c>
       <c r="BX9">
-        <v>8.43</v>
+        <v>8.39</v>
       </c>
       <c r="BY9">
         <v>12.59</v>
       </c>
       <c r="BZ9">
-        <v>17.32</v>
+        <v>17.3</v>
       </c>
       <c r="CA9">
-        <v>26.24</v>
+        <v>26.26</v>
       </c>
       <c r="CB9">
-        <v>32.42</v>
+        <v>32.44</v>
       </c>
       <c r="CC9">
-        <v>33.15</v>
+        <v>33.22</v>
       </c>
       <c r="CD9">
-        <v>30.37</v>
+        <v>30.3</v>
+      </c>
+      <c r="CE9">
+        <v>28.83</v>
       </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B10">
         <v>1.1299999999999999</v>
@@ -8164,7 +8253,7 @@
         <v>53.33</v>
       </c>
       <c r="F10">
-        <v>54.38</v>
+        <v>54.4</v>
       </c>
       <c r="G10">
         <v>38.64</v>
@@ -8185,7 +8274,7 @@
         <v>5.34</v>
       </c>
       <c r="M10">
-        <v>3.92</v>
+        <v>3.9</v>
       </c>
       <c r="N10">
         <v>3.52</v>
@@ -8212,7 +8301,7 @@
         <v>2.64</v>
       </c>
       <c r="V10">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="W10">
         <v>4.2699999999999996</v>
@@ -8245,7 +8334,7 @@
         <v>16.43</v>
       </c>
       <c r="AG10">
-        <v>27.79</v>
+        <v>27.8</v>
       </c>
       <c r="AH10">
         <v>44.57</v>
@@ -8254,37 +8343,37 @@
         <v>85.45</v>
       </c>
       <c r="AJ10">
-        <v>133.12</v>
+        <v>133.13999999999999</v>
       </c>
       <c r="AK10">
-        <v>150.88</v>
+        <v>150.91</v>
       </c>
       <c r="AL10">
-        <v>152.76</v>
+        <v>152.81</v>
       </c>
       <c r="AM10">
-        <v>152.21</v>
+        <v>152.27000000000001</v>
       </c>
       <c r="AN10">
-        <v>146.54</v>
+        <v>146.57</v>
       </c>
       <c r="AO10">
-        <v>154.02000000000001</v>
+        <v>154.11000000000001</v>
       </c>
       <c r="AP10">
-        <v>193.64</v>
+        <v>193.62</v>
       </c>
       <c r="AQ10">
-        <v>222.64</v>
+        <v>222.69</v>
       </c>
       <c r="AR10">
-        <v>183.89</v>
+        <v>183.93</v>
       </c>
       <c r="AS10">
-        <v>164.67</v>
+        <v>164.65</v>
       </c>
       <c r="AT10">
-        <v>182.97</v>
+        <v>182.95</v>
       </c>
       <c r="AU10">
         <v>148.9</v>
@@ -8296,13 +8385,13 @@
         <v>104.03</v>
       </c>
       <c r="AX10">
-        <v>86.21</v>
+        <v>86.22</v>
       </c>
       <c r="AY10">
         <v>66.91</v>
       </c>
       <c r="AZ10">
-        <v>68.31</v>
+        <v>68.34</v>
       </c>
       <c r="BA10">
         <v>71.81</v>
@@ -8311,7 +8400,7 @@
         <v>68.83</v>
       </c>
       <c r="BC10">
-        <v>84.78</v>
+        <v>84.8</v>
       </c>
       <c r="BD10">
         <v>107.82</v>
@@ -8323,22 +8412,22 @@
         <v>132.80000000000001</v>
       </c>
       <c r="BG10">
-        <v>143.66</v>
+        <v>143.71</v>
       </c>
       <c r="BH10">
-        <v>158.28</v>
+        <v>158.27000000000001</v>
       </c>
       <c r="BI10">
-        <v>163.63999999999999</v>
+        <v>163.6</v>
       </c>
       <c r="BJ10">
-        <v>147.31</v>
+        <v>147.34</v>
       </c>
       <c r="BK10">
-        <v>116.08</v>
+        <v>116.03</v>
       </c>
       <c r="BL10">
-        <v>79.069999999999993</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="BM10">
         <v>53.06</v>
@@ -8371,33 +8460,36 @@
         <v>8.09</v>
       </c>
       <c r="BW10">
-        <v>8.59</v>
+        <v>8.61</v>
       </c>
       <c r="BX10">
         <v>11.68</v>
       </c>
       <c r="BY10">
-        <v>18.510000000000002</v>
+        <v>18.46</v>
       </c>
       <c r="BZ10">
         <v>26.75</v>
       </c>
       <c r="CA10">
-        <v>35.61</v>
+        <v>35.619999999999997</v>
       </c>
       <c r="CB10">
-        <v>40.22</v>
+        <v>40.24</v>
       </c>
       <c r="CC10">
         <v>42.82</v>
       </c>
       <c r="CD10">
-        <v>38.4</v>
+        <v>38.549999999999997</v>
+      </c>
+      <c r="CE10">
+        <v>36.619999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B11">
         <v>1.98</v>
@@ -8409,19 +8501,19 @@
         <v>46.03</v>
       </c>
       <c r="E11">
-        <v>59.61</v>
+        <v>59.6</v>
       </c>
       <c r="F11">
-        <v>55.14</v>
+        <v>55.12</v>
       </c>
       <c r="G11">
-        <v>38.85</v>
+        <v>38.840000000000003</v>
       </c>
       <c r="H11">
-        <v>23.25</v>
+        <v>23.26</v>
       </c>
       <c r="I11">
-        <v>14.69</v>
+        <v>14.71</v>
       </c>
       <c r="J11">
         <v>8.93</v>
@@ -8460,13 +8552,13 @@
         <v>3.1</v>
       </c>
       <c r="V11">
-        <v>4.38</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="W11">
         <v>5.25</v>
       </c>
       <c r="X11">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="Y11">
         <v>7.03</v>
@@ -8484,7 +8576,7 @@
         <v>9.9700000000000006</v>
       </c>
       <c r="AD11">
-        <v>13.38</v>
+        <v>13.4</v>
       </c>
       <c r="AE11">
         <v>14.83</v>
@@ -8508,19 +8600,19 @@
         <v>163.38999999999999</v>
       </c>
       <c r="AL11">
-        <v>163.9</v>
+        <v>163.88</v>
       </c>
       <c r="AM11">
-        <v>161.57</v>
+        <v>161.6</v>
       </c>
       <c r="AN11">
         <v>153.96</v>
       </c>
       <c r="AO11">
-        <v>157.19</v>
+        <v>157.25</v>
       </c>
       <c r="AP11">
-        <v>197.52</v>
+        <v>197.61</v>
       </c>
       <c r="AQ11">
         <v>222.33</v>
@@ -8529,10 +8621,10 @@
         <v>178.55</v>
       </c>
       <c r="AS11">
-        <v>156.86000000000001</v>
+        <v>156.88999999999999</v>
       </c>
       <c r="AT11">
-        <v>180.35</v>
+        <v>180.34</v>
       </c>
       <c r="AU11">
         <v>146.25</v>
@@ -8550,7 +8642,7 @@
         <v>64.25</v>
       </c>
       <c r="AZ11">
-        <v>67.09</v>
+        <v>67.08</v>
       </c>
       <c r="BA11">
         <v>70.8</v>
@@ -8559,22 +8651,22 @@
         <v>73.72</v>
       </c>
       <c r="BC11">
-        <v>88.01</v>
+        <v>88</v>
       </c>
       <c r="BD11">
-        <v>112.25</v>
+        <v>112.23</v>
       </c>
       <c r="BE11">
         <v>139.34</v>
       </c>
       <c r="BF11">
-        <v>135.97</v>
+        <v>135.96</v>
       </c>
       <c r="BG11">
         <v>148.34</v>
       </c>
       <c r="BH11">
-        <v>165.58</v>
+        <v>165.61</v>
       </c>
       <c r="BI11">
         <v>173.54</v>
@@ -8586,7 +8678,7 @@
         <v>119.49</v>
       </c>
       <c r="BL11">
-        <v>81.62</v>
+        <v>81.61</v>
       </c>
       <c r="BM11">
         <v>56.21</v>
@@ -8619,33 +8711,36 @@
         <v>9.27</v>
       </c>
       <c r="BW11">
-        <v>12.22</v>
+        <v>12.24</v>
       </c>
       <c r="BX11">
-        <v>14.52</v>
+        <v>14.53</v>
       </c>
       <c r="BY11">
-        <v>24.44</v>
+        <v>24.46</v>
       </c>
       <c r="BZ11">
         <v>37.729999999999997</v>
       </c>
       <c r="CA11">
-        <v>49.6</v>
+        <v>49.64</v>
       </c>
       <c r="CB11">
-        <v>55.48</v>
+        <v>55.47</v>
       </c>
       <c r="CC11">
-        <v>54.9</v>
+        <v>54.96</v>
       </c>
       <c r="CD11">
-        <v>49.36</v>
+        <v>49.58</v>
+      </c>
+      <c r="CE11">
+        <v>42.71</v>
       </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B12">
         <v>1.88</v>
@@ -8657,31 +8752,31 @@
         <v>39.78</v>
       </c>
       <c r="E12">
-        <v>55.28</v>
+        <v>55.3</v>
       </c>
       <c r="F12">
         <v>51.39</v>
       </c>
       <c r="G12">
-        <v>36.31</v>
+        <v>36.33</v>
       </c>
       <c r="H12">
-        <v>22.24</v>
+        <v>22.22</v>
       </c>
       <c r="I12">
-        <v>14.91</v>
+        <v>14.89</v>
       </c>
       <c r="J12">
         <v>8.8699999999999992</v>
       </c>
       <c r="K12">
-        <v>8.5</v>
+        <v>8.51</v>
       </c>
       <c r="L12">
-        <v>6.28</v>
+        <v>6.3</v>
       </c>
       <c r="M12">
-        <v>4.8</v>
+        <v>4.82</v>
       </c>
       <c r="N12">
         <v>4.0599999999999996</v>
@@ -8711,7 +8806,7 @@
         <v>6.33</v>
       </c>
       <c r="W12">
-        <v>7.34</v>
+        <v>7.32</v>
       </c>
       <c r="X12">
         <v>8.65</v>
@@ -8732,16 +8827,16 @@
         <v>13.2</v>
       </c>
       <c r="AD12">
-        <v>16.649999999999999</v>
+        <v>16.63</v>
       </c>
       <c r="AE12">
         <v>17.010000000000002</v>
       </c>
       <c r="AF12">
-        <v>22.77</v>
+        <v>22.79</v>
       </c>
       <c r="AG12">
-        <v>38.590000000000003</v>
+        <v>38.61</v>
       </c>
       <c r="AH12">
         <v>59.17</v>
@@ -8753,34 +8848,34 @@
         <v>159.22</v>
       </c>
       <c r="AK12">
-        <v>179.71</v>
+        <v>179.68</v>
       </c>
       <c r="AL12">
-        <v>176.05</v>
+        <v>176.09</v>
       </c>
       <c r="AM12">
-        <v>183.49</v>
+        <v>183.47</v>
       </c>
       <c r="AN12">
-        <v>171.73</v>
+        <v>171.75</v>
       </c>
       <c r="AO12">
-        <v>175.11</v>
+        <v>175.18</v>
       </c>
       <c r="AP12">
-        <v>210.38</v>
+        <v>210.44</v>
       </c>
       <c r="AQ12">
-        <v>235.94</v>
+        <v>235.96</v>
       </c>
       <c r="AR12">
-        <v>184.7</v>
+        <v>184.76</v>
       </c>
       <c r="AS12">
-        <v>162.15</v>
+        <v>162.16999999999999</v>
       </c>
       <c r="AT12">
-        <v>185.73</v>
+        <v>185.71</v>
       </c>
       <c r="AU12">
         <v>150.83000000000001</v>
@@ -8792,49 +8887,49 @@
         <v>100.6</v>
       </c>
       <c r="AX12">
-        <v>85.14</v>
+        <v>85.13</v>
       </c>
       <c r="AY12">
         <v>67.36</v>
       </c>
       <c r="AZ12">
-        <v>71.569999999999993</v>
+        <v>71.55</v>
       </c>
       <c r="BA12">
         <v>76.78</v>
       </c>
       <c r="BB12">
-        <v>81.349999999999994</v>
+        <v>81.33</v>
       </c>
       <c r="BC12">
-        <v>98.36</v>
+        <v>98.34</v>
       </c>
       <c r="BD12">
-        <v>123.58</v>
+        <v>123.56</v>
       </c>
       <c r="BE12">
-        <v>154.69999999999999</v>
+        <v>154.72</v>
       </c>
       <c r="BF12">
-        <v>151.59</v>
+        <v>151.63</v>
       </c>
       <c r="BG12">
-        <v>166.31</v>
+        <v>166.35</v>
       </c>
       <c r="BH12">
         <v>192.8</v>
       </c>
       <c r="BI12">
-        <v>202.43</v>
+        <v>202.36</v>
       </c>
       <c r="BJ12">
-        <v>171.11</v>
+        <v>171.14</v>
       </c>
       <c r="BK12">
         <v>141.16</v>
       </c>
       <c r="BL12">
-        <v>96.37</v>
+        <v>96.33</v>
       </c>
       <c r="BM12">
         <v>68</v>
@@ -8864,36 +8959,39 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="BV12">
-        <v>13.05</v>
+        <v>13.07</v>
       </c>
       <c r="BW12">
-        <v>17.28</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="BX12">
         <v>22.28</v>
       </c>
       <c r="BY12">
-        <v>36.94</v>
+        <v>36.92</v>
       </c>
       <c r="BZ12">
-        <v>58.69</v>
+        <v>58.71</v>
       </c>
       <c r="CA12">
-        <v>77.92</v>
+        <v>77.88</v>
       </c>
       <c r="CB12">
-        <v>87.71</v>
+        <v>87.63</v>
       </c>
       <c r="CC12">
-        <v>86.15</v>
+        <v>86.06</v>
       </c>
       <c r="CD12">
-        <v>71.62</v>
+        <v>71.790000000000006</v>
+      </c>
+      <c r="CE12">
+        <v>62.28</v>
       </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B13">
         <v>1.73</v>
@@ -8905,31 +9003,31 @@
         <v>36.630000000000003</v>
       </c>
       <c r="E13">
-        <v>47.34</v>
+        <v>47.3</v>
       </c>
       <c r="F13">
-        <v>46.97</v>
+        <v>47.02</v>
       </c>
       <c r="G13">
-        <v>34.14</v>
+        <v>34.119999999999997</v>
       </c>
       <c r="H13">
         <v>20.76</v>
       </c>
       <c r="I13">
-        <v>14.18</v>
+        <v>14.2</v>
       </c>
       <c r="J13">
-        <v>9.27</v>
+        <v>9.25</v>
       </c>
       <c r="K13">
-        <v>8.23</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="L13">
-        <v>7.29</v>
+        <v>7.27</v>
       </c>
       <c r="M13">
-        <v>4.95</v>
+        <v>4.93</v>
       </c>
       <c r="N13">
         <v>4.34</v>
@@ -8947,7 +9045,7 @@
         <v>5.42</v>
       </c>
       <c r="S13">
-        <v>4.38</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="T13">
         <v>3.83</v>
@@ -8974,13 +9072,13 @@
         <v>13.42</v>
       </c>
       <c r="AB13">
-        <v>13.2</v>
+        <v>13.18</v>
       </c>
       <c r="AC13">
         <v>13.95</v>
       </c>
       <c r="AD13">
-        <v>17.190000000000001</v>
+        <v>17.21</v>
       </c>
       <c r="AE13">
         <v>17.52</v>
@@ -9007,34 +9105,34 @@
         <v>183.19</v>
       </c>
       <c r="AM13">
-        <v>188.22</v>
+        <v>188.35</v>
       </c>
       <c r="AN13">
-        <v>179.4</v>
+        <v>179.42</v>
       </c>
       <c r="AO13">
-        <v>179.44</v>
+        <v>179.55</v>
       </c>
       <c r="AP13">
-        <v>222.12</v>
+        <v>222.14</v>
       </c>
       <c r="AQ13">
-        <v>244.18</v>
+        <v>244.26</v>
       </c>
       <c r="AR13">
-        <v>193.77</v>
+        <v>193.79</v>
       </c>
       <c r="AS13">
-        <v>163.54</v>
+        <v>163.58000000000001</v>
       </c>
       <c r="AT13">
-        <v>194.46</v>
+        <v>194.48</v>
       </c>
       <c r="AU13">
         <v>153.91999999999999</v>
       </c>
       <c r="AV13">
-        <v>126.89</v>
+        <v>126.91</v>
       </c>
       <c r="AW13">
         <v>104.3</v>
@@ -9043,7 +9141,7 @@
         <v>87.1</v>
       </c>
       <c r="AY13">
-        <v>70.540000000000006</v>
+        <v>70.56</v>
       </c>
       <c r="AZ13">
         <v>73.17</v>
@@ -9061,19 +9159,19 @@
         <v>142.22999999999999</v>
       </c>
       <c r="BE13">
-        <v>185.05</v>
+        <v>185.07</v>
       </c>
       <c r="BF13">
-        <v>169.59</v>
+        <v>169.57</v>
       </c>
       <c r="BG13">
-        <v>189</v>
+        <v>189.06</v>
       </c>
       <c r="BH13">
-        <v>218.48</v>
+        <v>218.5</v>
       </c>
       <c r="BI13">
-        <v>220.49</v>
+        <v>220.47</v>
       </c>
       <c r="BJ13">
         <v>195.05</v>
@@ -9082,7 +9180,7 @@
         <v>157.44</v>
       </c>
       <c r="BL13">
-        <v>108.66</v>
+        <v>108.62</v>
       </c>
       <c r="BM13">
         <v>81.14</v>
@@ -9124,24 +9222,27 @@
         <v>47.89</v>
       </c>
       <c r="BZ13">
-        <v>76.47</v>
+        <v>76.489999999999995</v>
       </c>
       <c r="CA13">
-        <v>105.52</v>
+        <v>105.5</v>
       </c>
       <c r="CB13">
-        <v>115.91</v>
+        <v>115.93</v>
       </c>
       <c r="CC13">
-        <v>110.33</v>
+        <v>110.45</v>
       </c>
       <c r="CD13">
-        <v>90.04</v>
+        <v>90.49</v>
+      </c>
+      <c r="CE13">
+        <v>78.569999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B14">
         <v>1.27</v>
@@ -9159,25 +9260,25 @@
         <v>41.65</v>
       </c>
       <c r="G14">
-        <v>31.21</v>
+        <v>31.2</v>
       </c>
       <c r="H14">
         <v>18.57</v>
       </c>
       <c r="I14">
-        <v>14.43</v>
+        <v>14.41</v>
       </c>
       <c r="J14">
         <v>8.75</v>
       </c>
       <c r="K14">
-        <v>8</v>
+        <v>8.02</v>
       </c>
       <c r="L14">
         <v>6.64</v>
       </c>
       <c r="M14">
-        <v>5.16</v>
+        <v>5.18</v>
       </c>
       <c r="N14">
         <v>4.58</v>
@@ -9246,31 +9347,31 @@
         <v>101.87</v>
       </c>
       <c r="AJ14">
-        <v>152.84</v>
+        <v>152.82</v>
       </c>
       <c r="AK14">
-        <v>169.33</v>
+        <v>169.36</v>
       </c>
       <c r="AL14">
-        <v>173.75</v>
+        <v>173.77</v>
       </c>
       <c r="AM14">
-        <v>173.84</v>
+        <v>173.86</v>
       </c>
       <c r="AN14">
-        <v>164.77</v>
+        <v>164.79</v>
       </c>
       <c r="AO14">
-        <v>172.79</v>
+        <v>172.92</v>
       </c>
       <c r="AP14">
-        <v>207.78</v>
+        <v>207.84</v>
       </c>
       <c r="AQ14">
-        <v>231.15</v>
+        <v>231.19</v>
       </c>
       <c r="AR14">
-        <v>180.06</v>
+        <v>180.05</v>
       </c>
       <c r="AS14">
         <v>152.76</v>
@@ -9279,19 +9380,19 @@
         <v>191.82</v>
       </c>
       <c r="AU14">
-        <v>151.36000000000001</v>
+        <v>151.35</v>
       </c>
       <c r="AV14">
-        <v>119.9</v>
+        <v>119.89</v>
       </c>
       <c r="AW14">
-        <v>98.24</v>
+        <v>98.22</v>
       </c>
       <c r="AX14">
         <v>84.32</v>
       </c>
       <c r="AY14">
-        <v>67.989999999999995</v>
+        <v>67.95</v>
       </c>
       <c r="AZ14">
         <v>70.099999999999994</v>
@@ -9300,40 +9401,40 @@
         <v>79.05</v>
       </c>
       <c r="BB14">
-        <v>86.52</v>
+        <v>86.5</v>
       </c>
       <c r="BC14">
-        <v>108.88</v>
+        <v>108.9</v>
       </c>
       <c r="BD14">
-        <v>143.41999999999999</v>
+        <v>143.44</v>
       </c>
       <c r="BE14">
-        <v>178.85</v>
+        <v>178.87</v>
       </c>
       <c r="BF14">
-        <v>169.89</v>
+        <v>169.86</v>
       </c>
       <c r="BG14">
-        <v>179.29</v>
+        <v>179.31</v>
       </c>
       <c r="BH14">
-        <v>212.98</v>
+        <v>213.02</v>
       </c>
       <c r="BI14">
-        <v>213.25</v>
+        <v>213.23</v>
       </c>
       <c r="BJ14">
-        <v>189.54</v>
+        <v>189.46</v>
       </c>
       <c r="BK14">
         <v>150.66999999999999</v>
       </c>
       <c r="BL14">
-        <v>106.35</v>
+        <v>106.33</v>
       </c>
       <c r="BM14">
-        <v>79.819999999999993</v>
+        <v>79.8</v>
       </c>
       <c r="BN14">
         <v>45.6</v>
@@ -9366,30 +9467,33 @@
         <v>22.04</v>
       </c>
       <c r="BX14">
-        <v>30.12</v>
+        <v>30.1</v>
       </c>
       <c r="BY14">
-        <v>46.26</v>
+        <v>46.25</v>
       </c>
       <c r="BZ14">
-        <v>71.16</v>
+        <v>71.180000000000007</v>
       </c>
       <c r="CA14">
-        <v>99.5</v>
+        <v>99.49</v>
       </c>
       <c r="CB14">
-        <v>113.27</v>
+        <v>113.33</v>
       </c>
       <c r="CC14">
-        <v>109.41</v>
+        <v>109.6</v>
       </c>
       <c r="CD14">
-        <v>90.98</v>
+        <v>90.9</v>
+      </c>
+      <c r="CE14">
+        <v>79.41</v>
       </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B15">
         <v>1.26</v>
@@ -9404,10 +9508,10 @@
         <v>47.95</v>
       </c>
       <c r="F15">
-        <v>44</v>
+        <v>43.98</v>
       </c>
       <c r="G15">
-        <v>31.72</v>
+        <v>31.73</v>
       </c>
       <c r="H15">
         <v>21.94</v>
@@ -9419,7 +9523,7 @@
         <v>10.23</v>
       </c>
       <c r="K15">
-        <v>8.86</v>
+        <v>8.84</v>
       </c>
       <c r="L15">
         <v>7.17</v>
@@ -9458,7 +9562,7 @@
         <v>7.72</v>
       </c>
       <c r="X15">
-        <v>9.3699999999999992</v>
+        <v>9.39</v>
       </c>
       <c r="Y15">
         <v>12.88</v>
@@ -9467,7 +9571,7 @@
         <v>17.2</v>
       </c>
       <c r="AA15">
-        <v>15.67</v>
+        <v>15.63</v>
       </c>
       <c r="AB15">
         <v>17.05</v>
@@ -9476,7 +9580,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="AD15">
-        <v>21.98</v>
+        <v>21.94</v>
       </c>
       <c r="AE15">
         <v>23.69</v>
@@ -9488,52 +9592,52 @@
         <v>42.92</v>
       </c>
       <c r="AH15">
-        <v>70.2</v>
+        <v>70.22</v>
       </c>
       <c r="AI15">
         <v>122.22</v>
       </c>
       <c r="AJ15">
-        <v>174.21</v>
+        <v>174.23</v>
       </c>
       <c r="AK15">
-        <v>190.58</v>
+        <v>190.62</v>
       </c>
       <c r="AL15">
-        <v>190.69</v>
+        <v>190.75</v>
       </c>
       <c r="AM15">
-        <v>183.45</v>
+        <v>183.51</v>
       </c>
       <c r="AN15">
-        <v>170.44</v>
+        <v>170.42</v>
       </c>
       <c r="AO15">
-        <v>172.28</v>
+        <v>172.33</v>
       </c>
       <c r="AP15">
-        <v>209.56</v>
+        <v>209.65</v>
       </c>
       <c r="AQ15">
-        <v>237.02</v>
+        <v>237.04</v>
       </c>
       <c r="AR15">
-        <v>182.74</v>
+        <v>182.8</v>
       </c>
       <c r="AS15">
-        <v>167.28</v>
+        <v>167.29</v>
       </c>
       <c r="AT15">
-        <v>211.11</v>
+        <v>211.09</v>
       </c>
       <c r="AU15">
         <v>164.64</v>
       </c>
       <c r="AV15">
-        <v>127.72</v>
+        <v>127.7</v>
       </c>
       <c r="AW15">
-        <v>104.9</v>
+        <v>104.88</v>
       </c>
       <c r="AX15">
         <v>89.31</v>
@@ -9551,10 +9655,10 @@
         <v>89.01</v>
       </c>
       <c r="BC15">
-        <v>109.5</v>
+        <v>109.47</v>
       </c>
       <c r="BD15">
-        <v>143.66</v>
+        <v>143.63999999999999</v>
       </c>
       <c r="BE15">
         <v>179.56</v>
@@ -9563,25 +9667,25 @@
         <v>173.08</v>
       </c>
       <c r="BG15">
-        <v>184.38</v>
+        <v>184.4</v>
       </c>
       <c r="BH15">
-        <v>218.52</v>
+        <v>218.61</v>
       </c>
       <c r="BI15">
-        <v>215.77</v>
+        <v>215.68</v>
       </c>
       <c r="BJ15">
-        <v>190.2</v>
+        <v>190.26</v>
       </c>
       <c r="BK15">
-        <v>150.61000000000001</v>
+        <v>150.63</v>
       </c>
       <c r="BL15">
-        <v>106.86</v>
+        <v>106.79</v>
       </c>
       <c r="BM15">
-        <v>82.61</v>
+        <v>82.59</v>
       </c>
       <c r="BN15">
         <v>50</v>
@@ -9593,10 +9697,10 @@
         <v>21.54</v>
       </c>
       <c r="BQ15">
-        <v>11.5</v>
+        <v>11.48</v>
       </c>
       <c r="BR15">
-        <v>7.62</v>
+        <v>7.64</v>
       </c>
       <c r="BS15">
         <v>7.79</v>
@@ -9608,36 +9712,39 @@
         <v>15.81</v>
       </c>
       <c r="BV15">
-        <v>23.75</v>
+        <v>23.76</v>
       </c>
       <c r="BW15">
         <v>27.55</v>
       </c>
       <c r="BX15">
-        <v>37.72</v>
+        <v>37.74</v>
       </c>
       <c r="BY15">
-        <v>55.44</v>
+        <v>55.42</v>
       </c>
       <c r="BZ15">
-        <v>79.72</v>
+        <v>79.7</v>
       </c>
       <c r="CA15">
-        <v>108.74</v>
+        <v>108.76</v>
       </c>
       <c r="CB15">
         <v>119.71</v>
       </c>
       <c r="CC15">
-        <v>113.32</v>
+        <v>113.22</v>
       </c>
       <c r="CD15">
-        <v>92.25</v>
+        <v>92.65</v>
+      </c>
+      <c r="CE15">
+        <v>82.7</v>
       </c>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16">
         <v>1.5</v>
@@ -9655,7 +9762,7 @@
         <v>48.97</v>
       </c>
       <c r="G16">
-        <v>38.11</v>
+        <v>38.130000000000003</v>
       </c>
       <c r="H16">
         <v>25.38</v>
@@ -9694,13 +9801,13 @@
         <v>6.19</v>
       </c>
       <c r="T16">
-        <v>4.51</v>
+        <v>4.53</v>
       </c>
       <c r="U16">
         <v>6.09</v>
       </c>
       <c r="V16">
-        <v>8.06</v>
+        <v>8.08</v>
       </c>
       <c r="W16">
         <v>10.050000000000001</v>
@@ -9724,7 +9831,7 @@
         <v>24.2</v>
       </c>
       <c r="AD16">
-        <v>29.19</v>
+        <v>29.21</v>
       </c>
       <c r="AE16">
         <v>28.3</v>
@@ -9733,43 +9840,43 @@
         <v>34.409999999999997</v>
       </c>
       <c r="AG16">
-        <v>52.89</v>
+        <v>52.93</v>
       </c>
       <c r="AH16">
         <v>88.17</v>
       </c>
       <c r="AI16">
-        <v>144.29</v>
+        <v>144.35</v>
       </c>
       <c r="AJ16">
         <v>203.78</v>
       </c>
       <c r="AK16">
-        <v>219.71</v>
+        <v>219.73</v>
       </c>
       <c r="AL16">
-        <v>210.54</v>
+        <v>210.52</v>
       </c>
       <c r="AM16">
-        <v>195.51</v>
+        <v>195.43</v>
       </c>
       <c r="AN16">
-        <v>177.28</v>
+        <v>177.3</v>
       </c>
       <c r="AO16">
-        <v>180.24</v>
+        <v>180.33</v>
       </c>
       <c r="AP16">
-        <v>212.44</v>
+        <v>212.48</v>
       </c>
       <c r="AQ16">
-        <v>238.53</v>
+        <v>238.55</v>
       </c>
       <c r="AR16">
         <v>185.83</v>
       </c>
       <c r="AS16">
-        <v>165.97</v>
+        <v>165.99</v>
       </c>
       <c r="AT16">
         <v>212.4</v>
@@ -9790,7 +9897,7 @@
         <v>72.09</v>
       </c>
       <c r="AZ16">
-        <v>76.989999999999995</v>
+        <v>77.010000000000005</v>
       </c>
       <c r="BA16">
         <v>81.8</v>
@@ -9805,25 +9912,25 @@
         <v>138.19999999999999</v>
       </c>
       <c r="BE16">
-        <v>165.53</v>
+        <v>165.57</v>
       </c>
       <c r="BF16">
-        <v>165.06</v>
+        <v>165.1</v>
       </c>
       <c r="BG16">
-        <v>181.48</v>
+        <v>181.56</v>
       </c>
       <c r="BH16">
-        <v>214.8</v>
+        <v>214.78</v>
       </c>
       <c r="BI16">
-        <v>212.75</v>
+        <v>212.73</v>
       </c>
       <c r="BJ16">
-        <v>181.52</v>
+        <v>181.69</v>
       </c>
       <c r="BK16">
-        <v>147.01</v>
+        <v>146.83000000000001</v>
       </c>
       <c r="BL16">
         <v>102.04</v>
@@ -9847,7 +9954,7 @@
         <v>9.14</v>
       </c>
       <c r="BS16">
-        <v>9.7200000000000006</v>
+        <v>9.74</v>
       </c>
       <c r="BT16">
         <v>15.55</v>
@@ -9856,63 +9963,66 @@
         <v>26.15</v>
       </c>
       <c r="BV16">
-        <v>34.130000000000003</v>
+        <v>34.15</v>
       </c>
       <c r="BW16">
         <v>38.49</v>
       </c>
       <c r="BX16">
-        <v>47.37</v>
+        <v>47.35</v>
       </c>
       <c r="BY16">
-        <v>70.77</v>
+        <v>70.75</v>
       </c>
       <c r="BZ16">
-        <v>99.06</v>
+        <v>99.1</v>
       </c>
       <c r="CA16">
         <v>124.58</v>
       </c>
       <c r="CB16">
-        <v>124.05</v>
+        <v>123.99</v>
       </c>
       <c r="CC16">
-        <v>119.17</v>
+        <v>119.26</v>
       </c>
       <c r="CD16">
-        <v>95.83</v>
+        <v>96.54</v>
+      </c>
+      <c r="CE16">
+        <v>80.23</v>
       </c>
     </row>
-    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B17">
         <v>1.52</v>
       </c>
       <c r="C17">
-        <v>6.99</v>
+        <v>6.97</v>
       </c>
       <c r="D17">
-        <v>31.36</v>
+        <v>31.38</v>
       </c>
       <c r="E17">
-        <v>49.21</v>
+        <v>49.24</v>
       </c>
       <c r="F17">
-        <v>48.63</v>
+        <v>48.61</v>
       </c>
       <c r="G17">
-        <v>37.520000000000003</v>
+        <v>37.5</v>
       </c>
       <c r="H17">
-        <v>26.63</v>
+        <v>26.6</v>
       </c>
       <c r="I17">
-        <v>20.74</v>
+        <v>20.77</v>
       </c>
       <c r="J17">
-        <v>12.87</v>
+        <v>12.85</v>
       </c>
       <c r="K17">
         <v>10.96</v>
@@ -9939,16 +10049,16 @@
         <v>5.51</v>
       </c>
       <c r="S17">
-        <v>5.6</v>
+        <v>5.58</v>
       </c>
       <c r="T17">
-        <v>5.0999999999999996</v>
+        <v>5.08</v>
       </c>
       <c r="U17">
         <v>6.51</v>
       </c>
       <c r="V17">
-        <v>8.1999999999999993</v>
+        <v>8.18</v>
       </c>
       <c r="W17">
         <v>11.31</v>
@@ -9969,19 +10079,19 @@
         <v>27.06</v>
       </c>
       <c r="AC17">
-        <v>27.82</v>
+        <v>27.84</v>
       </c>
       <c r="AD17">
-        <v>32.83</v>
+        <v>32.85</v>
       </c>
       <c r="AE17">
         <v>34.369999999999997</v>
       </c>
       <c r="AF17">
-        <v>37.65</v>
+        <v>37.630000000000003</v>
       </c>
       <c r="AG17">
-        <v>60.56</v>
+        <v>60.52</v>
       </c>
       <c r="AH17">
         <v>95.2</v>
@@ -9993,22 +10103,22 @@
         <v>225.87</v>
       </c>
       <c r="AK17">
-        <v>254.6</v>
+        <v>254.56</v>
       </c>
       <c r="AL17">
-        <v>239.26</v>
+        <v>239.3</v>
       </c>
       <c r="AM17">
-        <v>221.29</v>
+        <v>221.33</v>
       </c>
       <c r="AN17">
-        <v>193.97</v>
+        <v>193.99</v>
       </c>
       <c r="AO17">
-        <v>199.07</v>
+        <v>199.16</v>
       </c>
       <c r="AP17">
-        <v>234.03</v>
+        <v>234.18</v>
       </c>
       <c r="AQ17">
         <v>262.48</v>
@@ -10020,10 +10130,10 @@
         <v>186.35</v>
       </c>
       <c r="AT17">
-        <v>236.33</v>
+        <v>236.31</v>
       </c>
       <c r="AU17">
-        <v>185.29</v>
+        <v>185.27</v>
       </c>
       <c r="AV17">
         <v>139.61000000000001</v>
@@ -10035,7 +10145,7 @@
         <v>94.98</v>
       </c>
       <c r="AY17">
-        <v>79.48</v>
+        <v>79.459999999999994</v>
       </c>
       <c r="AZ17">
         <v>85.63</v>
@@ -10044,40 +10154,40 @@
         <v>91.09</v>
       </c>
       <c r="BB17">
-        <v>95.5</v>
+        <v>95.52</v>
       </c>
       <c r="BC17">
         <v>117.65</v>
       </c>
       <c r="BD17">
-        <v>149.81</v>
+        <v>149.83000000000001</v>
       </c>
       <c r="BE17">
         <v>185.59</v>
       </c>
       <c r="BF17">
-        <v>184.57</v>
+        <v>184.55</v>
       </c>
       <c r="BG17">
-        <v>212.57</v>
+        <v>212.65</v>
       </c>
       <c r="BH17">
-        <v>250.54</v>
+        <v>250.56</v>
       </c>
       <c r="BI17">
-        <v>244.57</v>
+        <v>244.51</v>
       </c>
       <c r="BJ17">
-        <v>208.86</v>
+        <v>208.79</v>
       </c>
       <c r="BK17">
-        <v>169.97</v>
+        <v>169.99</v>
       </c>
       <c r="BL17">
-        <v>121.26</v>
+        <v>121.21</v>
       </c>
       <c r="BM17">
-        <v>90.81</v>
+        <v>90.79</v>
       </c>
       <c r="BN17">
         <v>52.38</v>
@@ -10098,7 +10208,7 @@
         <v>12.02</v>
       </c>
       <c r="BT17">
-        <v>19.18</v>
+        <v>19.16</v>
       </c>
       <c r="BU17">
         <v>32.700000000000003</v>
@@ -10110,30 +10220,33 @@
         <v>50.52</v>
       </c>
       <c r="BX17">
-        <v>60.56</v>
+        <v>60.52</v>
       </c>
       <c r="BY17">
-        <v>96.13</v>
+        <v>96.15</v>
       </c>
       <c r="BZ17">
-        <v>125.42</v>
+        <v>125.44</v>
       </c>
       <c r="CA17">
-        <v>149.27000000000001</v>
+        <v>149.29</v>
       </c>
       <c r="CB17">
-        <v>148.18</v>
+        <v>148.16</v>
       </c>
       <c r="CC17">
-        <v>135.16999999999999</v>
+        <v>135.1</v>
       </c>
       <c r="CD17">
-        <v>106.59</v>
+        <v>107.13</v>
+      </c>
+      <c r="CE17">
+        <v>88.36</v>
       </c>
     </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B18">
         <v>1.1200000000000001</v>
@@ -10145,13 +10258,13 @@
         <v>13.63</v>
       </c>
       <c r="E18">
-        <v>23.74</v>
+        <v>23.71</v>
       </c>
       <c r="F18">
         <v>27.26</v>
       </c>
       <c r="G18">
-        <v>21.76</v>
+        <v>21.78</v>
       </c>
       <c r="H18">
         <v>14.47</v>
@@ -10208,7 +10321,7 @@
         <v>18.809999999999999</v>
       </c>
       <c r="Z18">
-        <v>22.44</v>
+        <v>22.42</v>
       </c>
       <c r="AA18">
         <v>21.22</v>
@@ -10217,13 +10330,13 @@
         <v>19.5</v>
       </c>
       <c r="AC18">
-        <v>21.04</v>
+        <v>21.02</v>
       </c>
       <c r="AD18">
         <v>26.4</v>
       </c>
       <c r="AE18">
-        <v>26.53</v>
+        <v>26.55</v>
       </c>
       <c r="AF18">
         <v>33.79</v>
@@ -10241,31 +10354,31 @@
         <v>182.5</v>
       </c>
       <c r="AK18">
-        <v>213.49</v>
+        <v>213.47</v>
       </c>
       <c r="AL18">
-        <v>221.29</v>
+        <v>221.26</v>
       </c>
       <c r="AM18">
-        <v>208.44</v>
+        <v>208.39</v>
       </c>
       <c r="AN18">
         <v>189.33</v>
       </c>
       <c r="AO18">
-        <v>195.75</v>
+        <v>195.77</v>
       </c>
       <c r="AP18">
         <v>223.82</v>
       </c>
       <c r="AQ18">
-        <v>215.09</v>
+        <v>215.12</v>
       </c>
       <c r="AR18">
-        <v>149.04</v>
+        <v>149.13999999999999</v>
       </c>
       <c r="AS18">
-        <v>125.76</v>
+        <v>125.79</v>
       </c>
       <c r="AT18">
         <v>161.96</v>
@@ -10292,55 +10405,55 @@
         <v>77.959999999999994</v>
       </c>
       <c r="BB18">
-        <v>81.56</v>
+        <v>81.540000000000006</v>
       </c>
       <c r="BC18">
-        <v>104.21</v>
+        <v>104.23</v>
       </c>
       <c r="BD18">
-        <v>140.59</v>
+        <v>140.56</v>
       </c>
       <c r="BE18">
         <v>182.45</v>
       </c>
       <c r="BF18">
-        <v>167.75</v>
+        <v>167.77</v>
       </c>
       <c r="BG18">
         <v>191.59</v>
       </c>
       <c r="BH18">
-        <v>274.47000000000003</v>
+        <v>274.67</v>
       </c>
       <c r="BI18">
-        <v>262.56</v>
+        <v>262.39</v>
       </c>
       <c r="BJ18">
-        <v>219.79</v>
+        <v>219.81</v>
       </c>
       <c r="BK18">
-        <v>179.07</v>
+        <v>179.02</v>
       </c>
       <c r="BL18">
-        <v>125.43</v>
+        <v>125.46</v>
       </c>
       <c r="BM18">
-        <v>98.62</v>
+        <v>98.57</v>
       </c>
       <c r="BN18">
-        <v>56.84</v>
+        <v>56.81</v>
       </c>
       <c r="BO18">
-        <v>43.69</v>
+        <v>43.66</v>
       </c>
       <c r="BP18">
-        <v>31.2</v>
+        <v>31.22</v>
       </c>
       <c r="BQ18">
-        <v>17.260000000000002</v>
+        <v>17.29</v>
       </c>
       <c r="BR18">
-        <v>11.22</v>
+        <v>11.25</v>
       </c>
       <c r="BS18">
         <v>10.48</v>
@@ -10355,10 +10468,10 @@
         <v>40.950000000000003</v>
       </c>
       <c r="BW18">
-        <v>46.66</v>
+        <v>46.76</v>
       </c>
       <c r="BX18">
-        <v>60.19</v>
+        <v>60.11</v>
       </c>
       <c r="BY18">
         <v>88.9</v>
@@ -10367,21 +10480,24 @@
         <v>141.44999999999999</v>
       </c>
       <c r="CA18">
-        <v>176.68</v>
+        <v>176.71</v>
       </c>
       <c r="CB18">
-        <v>197.45</v>
+        <v>197.35</v>
       </c>
       <c r="CC18">
-        <v>173.74</v>
+        <v>173.66</v>
       </c>
       <c r="CD18">
-        <v>142.49</v>
+        <v>143.15</v>
+      </c>
+      <c r="CE18">
+        <v>116.42</v>
       </c>
     </row>
-    <row r="19" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B19">
         <v>0.51</v>
@@ -10399,7 +10515,7 @@
         <v>11.61</v>
       </c>
       <c r="G19">
-        <v>8.18</v>
+        <v>8.16</v>
       </c>
       <c r="H19">
         <v>6.32</v>
@@ -10462,7 +10578,7 @@
         <v>13.04</v>
       </c>
       <c r="AB19">
-        <v>11.69</v>
+        <v>11.72</v>
       </c>
       <c r="AC19">
         <v>13.45</v>
@@ -10480,7 +10596,7 @@
         <v>30.79</v>
       </c>
       <c r="AH19">
-        <v>44.59</v>
+        <v>44.61</v>
       </c>
       <c r="AI19">
         <v>74.180000000000007</v>
@@ -10489,31 +10605,31 @@
         <v>110.24</v>
       </c>
       <c r="AK19">
-        <v>129.22</v>
+        <v>129.16999999999999</v>
       </c>
       <c r="AL19">
         <v>144.43</v>
       </c>
       <c r="AM19">
-        <v>143.05000000000001</v>
+        <v>143.1</v>
       </c>
       <c r="AN19">
-        <v>140</v>
+        <v>140.02000000000001</v>
       </c>
       <c r="AO19">
         <v>139.19</v>
       </c>
       <c r="AP19">
-        <v>153.66</v>
+        <v>153.61000000000001</v>
       </c>
       <c r="AQ19">
         <v>142.69999999999999</v>
       </c>
       <c r="AR19">
-        <v>91.47</v>
+        <v>91.44</v>
       </c>
       <c r="AS19">
-        <v>71.62</v>
+        <v>71.59</v>
       </c>
       <c r="AT19">
         <v>89.9</v>
@@ -10534,7 +10650,7 @@
         <v>38.049999999999997</v>
       </c>
       <c r="AZ19">
-        <v>42.4</v>
+        <v>42.37</v>
       </c>
       <c r="BA19">
         <v>50.74</v>
@@ -10543,34 +10659,34 @@
         <v>62.33</v>
       </c>
       <c r="BC19">
-        <v>77.45</v>
+        <v>77.430000000000007</v>
       </c>
       <c r="BD19">
         <v>112.91</v>
       </c>
       <c r="BE19">
-        <v>154.77000000000001</v>
+        <v>154.74</v>
       </c>
       <c r="BF19">
-        <v>130.97999999999999</v>
+        <v>131</v>
       </c>
       <c r="BG19">
-        <v>139.86000000000001</v>
+        <v>139.91999999999999</v>
       </c>
       <c r="BH19">
         <v>206.81</v>
       </c>
       <c r="BI19">
-        <v>235.95</v>
+        <v>235.87</v>
       </c>
       <c r="BJ19">
-        <v>193.58</v>
+        <v>193.71</v>
       </c>
       <c r="BK19">
-        <v>165.41</v>
+        <v>165.33</v>
       </c>
       <c r="BL19">
-        <v>123.47</v>
+        <v>123.42</v>
       </c>
       <c r="BM19">
         <v>101.6</v>
@@ -10582,7 +10698,7 @@
         <v>42.67</v>
       </c>
       <c r="BP19">
-        <v>35.590000000000003</v>
+        <v>35.65</v>
       </c>
       <c r="BQ19">
         <v>17.899999999999999</v>
@@ -10594,19 +10710,19 @@
         <v>8.34</v>
       </c>
       <c r="BT19">
-        <v>7.97</v>
+        <v>7.99</v>
       </c>
       <c r="BU19">
         <v>14.39</v>
       </c>
       <c r="BV19">
-        <v>21.06</v>
+        <v>21.09</v>
       </c>
       <c r="BW19">
         <v>26.92</v>
       </c>
       <c r="BX19">
-        <v>40.21</v>
+        <v>40.24</v>
       </c>
       <c r="BY19">
         <v>70.319999999999993</v>
@@ -10615,21 +10731,24 @@
         <v>144.80000000000001</v>
       </c>
       <c r="CA19">
-        <v>186.74</v>
+        <v>186.8</v>
       </c>
       <c r="CB19">
         <v>226.93</v>
       </c>
       <c r="CC19">
-        <v>208.7</v>
+        <v>208.78</v>
       </c>
       <c r="CD19">
-        <v>196.49</v>
+        <v>197.12</v>
+      </c>
+      <c r="CE19">
+        <v>167.87</v>
       </c>
     </row>
-    <row r="20" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20">
         <v>0.27</v>
@@ -10710,13 +10829,13 @@
         <v>9.4700000000000006</v>
       </c>
       <c r="AB20">
-        <v>8.56</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="AC20">
         <v>8.7200000000000006</v>
       </c>
       <c r="AD20">
-        <v>9.5500000000000007</v>
+        <v>9.58</v>
       </c>
       <c r="AE20">
         <v>10.46</v>
@@ -10725,46 +10844,46 @@
         <v>11.64</v>
       </c>
       <c r="AG20">
-        <v>16.72</v>
+        <v>16.690000000000001</v>
       </c>
       <c r="AH20">
-        <v>26.11</v>
+        <v>26.08</v>
       </c>
       <c r="AI20">
-        <v>49.4</v>
+        <v>49.42</v>
       </c>
       <c r="AJ20">
         <v>74.97</v>
       </c>
       <c r="AK20">
-        <v>90.23</v>
+        <v>90.26</v>
       </c>
       <c r="AL20">
         <v>96.94</v>
       </c>
       <c r="AM20">
-        <v>105.1</v>
+        <v>105.13</v>
       </c>
       <c r="AN20">
-        <v>102.47</v>
+        <v>102.44</v>
       </c>
       <c r="AO20">
-        <v>98.82</v>
+        <v>98.79</v>
       </c>
       <c r="AP20">
         <v>114.28</v>
       </c>
       <c r="AQ20">
-        <v>115.4</v>
+        <v>115.51</v>
       </c>
       <c r="AR20">
         <v>81.08</v>
       </c>
       <c r="AS20">
-        <v>52.13</v>
+        <v>52.11</v>
       </c>
       <c r="AT20">
-        <v>64.209999999999994</v>
+        <v>64.180000000000007</v>
       </c>
       <c r="AU20">
         <v>58.87</v>
@@ -10776,7 +10895,7 @@
         <v>44.06</v>
       </c>
       <c r="AX20">
-        <v>42.98</v>
+        <v>43.01</v>
       </c>
       <c r="AY20">
         <v>37.299999999999997</v>
@@ -10785,13 +10904,13 @@
         <v>41.64</v>
       </c>
       <c r="BA20">
-        <v>53.74</v>
+        <v>53.77</v>
       </c>
       <c r="BB20">
         <v>73.09</v>
       </c>
       <c r="BC20">
-        <v>98.74</v>
+        <v>98.71</v>
       </c>
       <c r="BD20">
         <v>127.77</v>
@@ -10800,37 +10919,37 @@
         <v>179.74</v>
       </c>
       <c r="BF20">
-        <v>139.22999999999999</v>
+        <v>139.28</v>
       </c>
       <c r="BG20">
-        <v>126</v>
+        <v>126.05</v>
       </c>
       <c r="BH20">
-        <v>187.63</v>
+        <v>187.69</v>
       </c>
       <c r="BI20">
-        <v>225.89</v>
+        <v>225.87</v>
       </c>
       <c r="BJ20">
-        <v>184.36</v>
+        <v>184.39</v>
       </c>
       <c r="BK20">
-        <v>149.29</v>
+        <v>149.32</v>
       </c>
       <c r="BL20">
-        <v>110.44</v>
+        <v>110.38</v>
       </c>
       <c r="BM20">
         <v>91.6</v>
       </c>
       <c r="BN20">
-        <v>50.28</v>
+        <v>50.31</v>
       </c>
       <c r="BO20">
         <v>40.94</v>
       </c>
       <c r="BP20">
-        <v>30.64</v>
+        <v>30.67</v>
       </c>
       <c r="BQ20">
         <v>15.19</v>
@@ -10848,36 +10967,39 @@
         <v>8.67</v>
       </c>
       <c r="BV20">
-        <v>12.83</v>
+        <v>12.8</v>
       </c>
       <c r="BW20">
-        <v>19.45</v>
+        <v>19.48</v>
       </c>
       <c r="BX20">
         <v>30.96</v>
       </c>
       <c r="BY20">
-        <v>49.45</v>
+        <v>49.37</v>
       </c>
       <c r="BZ20">
-        <v>99.76</v>
+        <v>99.73</v>
       </c>
       <c r="CA20">
-        <v>149.91</v>
+        <v>150.01</v>
       </c>
       <c r="CB20">
-        <v>188.06</v>
+        <v>187.98</v>
       </c>
       <c r="CC20">
-        <v>176.63</v>
+        <v>176.74</v>
       </c>
       <c r="CD20">
-        <v>156.51</v>
+        <v>157.29</v>
+      </c>
+      <c r="CE20">
+        <v>139.44</v>
       </c>
     </row>
-    <row r="21" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B21">
         <v>0.23</v>
@@ -10964,10 +11086,10 @@
         <v>5.71</v>
       </c>
       <c r="AD21">
-        <v>7.35</v>
+        <v>7.32</v>
       </c>
       <c r="AE21">
-        <v>7.55</v>
+        <v>7.52</v>
       </c>
       <c r="AF21">
         <v>8.25</v>
@@ -10979,7 +11101,7 @@
         <v>22.44</v>
       </c>
       <c r="AI21">
-        <v>36.83</v>
+        <v>36.78</v>
       </c>
       <c r="AJ21">
         <v>56.22</v>
@@ -10988,28 +11110,28 @@
         <v>60.91</v>
       </c>
       <c r="AL21">
-        <v>60.86</v>
+        <v>60.89</v>
       </c>
       <c r="AM21">
-        <v>60.03</v>
+        <v>60.08</v>
       </c>
       <c r="AN21">
-        <v>58.49</v>
+        <v>58.46</v>
       </c>
       <c r="AO21">
         <v>58.11</v>
       </c>
       <c r="AP21">
-        <v>67.02</v>
+        <v>67.05</v>
       </c>
       <c r="AQ21">
-        <v>78.099999999999994</v>
+        <v>78.05</v>
       </c>
       <c r="AR21">
-        <v>53.16</v>
+        <v>53.14</v>
       </c>
       <c r="AS21">
-        <v>38.5</v>
+        <v>38.47</v>
       </c>
       <c r="AT21">
         <v>47.96</v>
@@ -11036,7 +11158,7 @@
         <v>47.58</v>
       </c>
       <c r="BB21">
-        <v>59.85</v>
+        <v>59.83</v>
       </c>
       <c r="BC21">
         <v>75.5</v>
@@ -11048,22 +11170,22 @@
         <v>126.8</v>
       </c>
       <c r="BF21">
-        <v>112.76</v>
+        <v>112.71</v>
       </c>
       <c r="BG21">
         <v>101.63</v>
       </c>
       <c r="BH21">
-        <v>128.31</v>
+        <v>128.41</v>
       </c>
       <c r="BI21">
-        <v>140.88999999999999</v>
+        <v>140.76</v>
       </c>
       <c r="BJ21">
-        <v>127.71</v>
+        <v>127.78</v>
       </c>
       <c r="BK21">
-        <v>103.9</v>
+        <v>103.83</v>
       </c>
       <c r="BL21">
         <v>74.900000000000006</v>
@@ -11105,25 +11227,29 @@
         <v>19.13</v>
       </c>
       <c r="BY21">
-        <v>31.15</v>
+        <v>31.13</v>
       </c>
       <c r="BZ21">
         <v>47.1</v>
       </c>
       <c r="CA21">
-        <v>74.67</v>
+        <v>74.72</v>
       </c>
       <c r="CB21">
-        <v>86.23</v>
+        <v>86.28</v>
       </c>
       <c r="CC21">
-        <v>88.45</v>
+        <v>88.4</v>
       </c>
       <c r="CD21">
-        <v>71.64</v>
+        <v>71.67</v>
+      </c>
+      <c r="CE21">
+        <v>57.93</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/source/Altersverteilung.xlsx
+++ b/data/source/Altersverteilung.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3B7E11-F1EA-4B23-BA1F-7F8D6DD40768}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EED6278-5C11-493E-9466-DA3EDDC3F9C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="8316" activeTab="1" xr2:uid="{8088A836-CF74-4252-A83F-A5EA7D6E0CF7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{93B83DCF-AD6A-481E-8EFD-13B59779BF73}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fallzahlen" sheetId="1" r:id="rId1"/>
-    <sheet name="7-Tages-Inzidenz" sheetId="2" r:id="rId2"/>
+    <sheet name="Fallzahlen" sheetId="2" r:id="rId1"/>
+    <sheet name="7-Tages-Inzidenz" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="104">
   <si>
     <t>Altersgruppe</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>2021_38</t>
+  </si>
+  <si>
+    <t>2021_39</t>
   </si>
   <si>
     <t>Gesamt</t>
@@ -681,16 +684,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03DAD98-0713-4603-BFF3-6169CCE623C3}">
-  <dimension ref="A1:CE21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491FABCF-4DEC-4E74-AC55-C3A5F29FA232}">
+  <dimension ref="A1:CF21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A20"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -940,10 +943,13 @@
       <c r="CE1" t="s">
         <v>82</v>
       </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>899</v>
@@ -952,37 +958,37 @@
         <v>6431</v>
       </c>
       <c r="D2">
-        <v>22390</v>
+        <v>22388</v>
       </c>
       <c r="E2">
         <v>33966</v>
       </c>
       <c r="F2">
-        <v>36047</v>
+        <v>36048</v>
       </c>
       <c r="G2">
-        <v>27136</v>
+        <v>27133</v>
       </c>
       <c r="H2">
-        <v>17329</v>
+        <v>17328</v>
       </c>
       <c r="I2">
         <v>12344</v>
       </c>
       <c r="J2">
-        <v>7424</v>
+        <v>7423</v>
       </c>
       <c r="K2">
-        <v>6237</v>
+        <v>6233</v>
       </c>
       <c r="L2">
-        <v>4763</v>
+        <v>4761</v>
       </c>
       <c r="M2">
-        <v>3597</v>
+        <v>3596</v>
       </c>
       <c r="N2">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="O2">
         <v>2351</v>
@@ -1009,13 +1015,13 @@
         <v>3924</v>
       </c>
       <c r="W2">
-        <v>4832</v>
+        <v>4831</v>
       </c>
       <c r="X2">
         <v>6057</v>
       </c>
       <c r="Y2">
-        <v>7949</v>
+        <v>7951</v>
       </c>
       <c r="Z2">
         <v>9595</v>
@@ -1024,31 +1030,31 @@
         <v>8828</v>
       </c>
       <c r="AB2">
-        <v>8614</v>
+        <v>8613</v>
       </c>
       <c r="AC2">
         <v>9761</v>
       </c>
       <c r="AD2">
-        <v>12293</v>
+        <v>12290</v>
       </c>
       <c r="AE2">
-        <v>13059</v>
+        <v>13061</v>
       </c>
       <c r="AF2">
-        <v>15922</v>
+        <v>15923</v>
       </c>
       <c r="AG2">
         <v>26110</v>
       </c>
       <c r="AH2">
-        <v>42064</v>
+        <v>42066</v>
       </c>
       <c r="AI2">
-        <v>74874</v>
+        <v>74873</v>
       </c>
       <c r="AJ2">
-        <v>111007</v>
+        <v>111008</v>
       </c>
       <c r="AK2">
         <v>125727</v>
@@ -1057,144 +1063,147 @@
         <v>127774</v>
       </c>
       <c r="AM2">
-        <v>128361</v>
+        <v>128360</v>
       </c>
       <c r="AN2">
-        <v>123157</v>
+        <v>123156</v>
       </c>
       <c r="AO2">
-        <v>128351</v>
+        <v>128350</v>
       </c>
       <c r="AP2">
         <v>156290</v>
       </c>
       <c r="AQ2">
-        <v>174702</v>
+        <v>174700</v>
       </c>
       <c r="AR2">
-        <v>138950</v>
+        <v>138948</v>
       </c>
       <c r="AS2">
-        <v>123069</v>
+        <v>123071</v>
       </c>
       <c r="AT2">
-        <v>145438</v>
+        <v>145439</v>
       </c>
       <c r="AU2">
-        <v>118899</v>
+        <v>118893</v>
       </c>
       <c r="AV2">
-        <v>95516</v>
+        <v>95517</v>
       </c>
       <c r="AW2">
         <v>78125</v>
       </c>
       <c r="AX2">
-        <v>64558</v>
+        <v>64557</v>
       </c>
       <c r="AY2">
-        <v>50807</v>
+        <v>50808</v>
       </c>
       <c r="AZ2">
-        <v>52389</v>
+        <v>52388</v>
       </c>
       <c r="BA2">
-        <v>56350</v>
+        <v>56349</v>
       </c>
       <c r="BB2">
-        <v>58366</v>
+        <v>58363</v>
       </c>
       <c r="BC2">
         <v>71306</v>
       </c>
       <c r="BD2">
-        <v>92577</v>
+        <v>92576</v>
       </c>
       <c r="BE2">
-        <v>116264</v>
+        <v>116266</v>
       </c>
       <c r="BF2">
-        <v>110096</v>
+        <v>110097</v>
       </c>
       <c r="BG2">
-        <v>118265</v>
+        <v>118264</v>
       </c>
       <c r="BH2">
-        <v>142047</v>
+        <v>142049</v>
       </c>
       <c r="BI2">
-        <v>144751</v>
+        <v>144750</v>
       </c>
       <c r="BJ2">
-        <v>124809</v>
+        <v>124790</v>
       </c>
       <c r="BK2">
-        <v>100988</v>
+        <v>100985</v>
       </c>
       <c r="BL2">
-        <v>70829</v>
+        <v>70823</v>
       </c>
       <c r="BM2">
-        <v>52695</v>
+        <v>52694</v>
       </c>
       <c r="BN2">
-        <v>29876</v>
+        <v>29874</v>
       </c>
       <c r="BO2">
-        <v>20678</v>
+        <v>20674</v>
       </c>
       <c r="BP2">
-        <v>14028</v>
+        <v>14029</v>
       </c>
       <c r="BQ2">
-        <v>7262</v>
+        <v>7263</v>
       </c>
       <c r="BR2">
-        <v>4819</v>
+        <v>4817</v>
       </c>
       <c r="BS2">
-        <v>4350</v>
+        <v>4348</v>
       </c>
       <c r="BT2">
         <v>5562</v>
       </c>
       <c r="BU2">
-        <v>9090</v>
+        <v>9091</v>
       </c>
       <c r="BV2">
-        <v>12615</v>
+        <v>12616</v>
       </c>
       <c r="BW2">
         <v>15489</v>
       </c>
       <c r="BX2">
-        <v>20392</v>
+        <v>20393</v>
       </c>
       <c r="BY2">
-        <v>32029</v>
+        <v>32030</v>
       </c>
       <c r="BZ2">
-        <v>49580</v>
+        <v>49586</v>
       </c>
       <c r="CA2">
-        <v>66268</v>
+        <v>66279</v>
       </c>
       <c r="CB2">
-        <v>74623</v>
+        <v>74628</v>
       </c>
       <c r="CC2">
-        <v>71608</v>
+        <v>71602</v>
       </c>
       <c r="CD2">
-        <v>61349</v>
+        <v>61394</v>
       </c>
       <c r="CE2">
-        <v>52986</v>
+        <v>53542</v>
+      </c>
+      <c r="CF2">
+        <v>56000</v>
       </c>
     </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1320,7 +1329,7 @@
         <v>5402</v>
       </c>
       <c r="AQ3">
-        <v>5971</v>
+        <v>5970</v>
       </c>
       <c r="AR3">
         <v>5235</v>
@@ -1356,7 +1365,7 @@
         <v>610</v>
       </c>
       <c r="BC3">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="BD3">
         <v>638</v>
@@ -1365,13 +1374,13 @@
         <v>661</v>
       </c>
       <c r="BF3">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="BG3">
         <v>717</v>
       </c>
       <c r="BH3">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="BI3">
         <v>795</v>
@@ -1386,7 +1395,7 @@
         <v>408</v>
       </c>
       <c r="BM3">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BN3">
         <v>160</v>
@@ -1422,7 +1431,7 @@
         <v>66</v>
       </c>
       <c r="BY3">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="BZ3">
         <v>139</v>
@@ -1434,18 +1443,21 @@
         <v>336</v>
       </c>
       <c r="CC3">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="CD3">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="CE3">
-        <v>342</v>
+        <v>338</v>
+      </c>
+      <c r="CF3">
+        <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -1553,7 +1565,7 @@
         <v>1786</v>
       </c>
       <c r="AK4">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="AL4">
         <v>2831</v>
@@ -1580,7 +1592,7 @@
         <v>5584</v>
       </c>
       <c r="AT4">
-        <v>6066</v>
+        <v>6065</v>
       </c>
       <c r="AU4">
         <v>5557</v>
@@ -1622,7 +1634,7 @@
         <v>1072</v>
       </c>
       <c r="BH4">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="BI4">
         <v>1176</v>
@@ -1679,24 +1691,27 @@
         <v>221</v>
       </c>
       <c r="CA4">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="CB4">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="CC4">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="CD4">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="CE4">
-        <v>443</v>
+        <v>453</v>
+      </c>
+      <c r="CF4">
+        <v>529</v>
       </c>
     </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -1804,7 +1819,7 @@
         <v>2835</v>
       </c>
       <c r="AK5">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="AL5">
         <v>3796</v>
@@ -1828,7 +1843,7 @@
         <v>7408</v>
       </c>
       <c r="AS5">
-        <v>6866</v>
+        <v>6867</v>
       </c>
       <c r="AT5">
         <v>7666</v>
@@ -1879,7 +1894,7 @@
         <v>2023</v>
       </c>
       <c r="BJ5">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="BK5">
         <v>1364</v>
@@ -1894,7 +1909,7 @@
         <v>382</v>
       </c>
       <c r="BO5">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BP5">
         <v>155</v>
@@ -1930,24 +1945,27 @@
         <v>296</v>
       </c>
       <c r="CA5">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="CB5">
         <v>675</v>
       </c>
       <c r="CC5">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="CD5">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="CE5">
-        <v>650</v>
+        <v>659</v>
+      </c>
+      <c r="CF5">
+        <v>895</v>
       </c>
     </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -1977,7 +1995,7 @@
         <v>349</v>
       </c>
       <c r="K6">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L6">
         <v>174</v>
@@ -2055,7 +2073,7 @@
         <v>2644</v>
       </c>
       <c r="AK6">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="AL6">
         <v>3282</v>
@@ -2082,7 +2100,7 @@
         <v>4637</v>
       </c>
       <c r="AT6">
-        <v>5215</v>
+        <v>5216</v>
       </c>
       <c r="AU6">
         <v>4310</v>
@@ -2106,7 +2124,7 @@
         <v>1570</v>
       </c>
       <c r="BB6">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="BC6">
         <v>1425</v>
@@ -2127,10 +2145,10 @@
         <v>2707</v>
       </c>
       <c r="BI6">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="BJ6">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="BK6">
         <v>1665</v>
@@ -2145,7 +2163,7 @@
         <v>408</v>
       </c>
       <c r="BO6">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BP6">
         <v>155</v>
@@ -2184,21 +2202,24 @@
         <v>412</v>
       </c>
       <c r="CB6">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="CC6">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="CD6">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="CE6">
-        <v>560</v>
+        <v>565</v>
+      </c>
+      <c r="CF6">
+        <v>707</v>
       </c>
     </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -2228,7 +2249,7 @@
         <v>274</v>
       </c>
       <c r="K7">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L7">
         <v>128</v>
@@ -2285,7 +2306,7 @@
         <v>151</v>
       </c>
       <c r="AD7">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AE7">
         <v>267</v>
@@ -2360,7 +2381,7 @@
         <v>1554</v>
       </c>
       <c r="BC7">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="BD7">
         <v>2376</v>
@@ -2375,7 +2396,7 @@
         <v>3144</v>
       </c>
       <c r="BH7">
-        <v>3612</v>
+        <v>3611</v>
       </c>
       <c r="BI7">
         <v>3371</v>
@@ -2390,7 +2411,7 @@
         <v>1594</v>
       </c>
       <c r="BM7">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="BN7">
         <v>583</v>
@@ -2432,10 +2453,10 @@
         <v>392</v>
       </c>
       <c r="CA7">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="CB7">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="CC7">
         <v>818</v>
@@ -2444,12 +2465,15 @@
         <v>756</v>
       </c>
       <c r="CE7">
-        <v>688</v>
+        <v>694</v>
+      </c>
+      <c r="CF7">
+        <v>851</v>
       </c>
     </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8">
         <v>25</v>
@@ -2587,7 +2611,7 @@
         <v>5729</v>
       </c>
       <c r="AU8">
-        <v>4417</v>
+        <v>4416</v>
       </c>
       <c r="AV8">
         <v>3624</v>
@@ -2626,7 +2650,7 @@
         <v>4308</v>
       </c>
       <c r="BH8">
-        <v>4912</v>
+        <v>4913</v>
       </c>
       <c r="BI8">
         <v>4627</v>
@@ -2635,7 +2659,7 @@
         <v>3972</v>
       </c>
       <c r="BK8">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="BL8">
         <v>2318</v>
@@ -2647,7 +2671,7 @@
         <v>770</v>
       </c>
       <c r="BO8">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="BP8">
         <v>319</v>
@@ -2677,7 +2701,7 @@
         <v>283</v>
       </c>
       <c r="BY8">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="BZ8">
         <v>593</v>
@@ -2686,21 +2710,24 @@
         <v>810</v>
       </c>
       <c r="CB8">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="CC8">
         <v>1109</v>
       </c>
       <c r="CD8">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="CE8">
-        <v>975</v>
+        <v>987</v>
+      </c>
+      <c r="CF8">
+        <v>1084</v>
       </c>
     </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9">
         <v>63</v>
@@ -2799,7 +2826,7 @@
         <v>1273</v>
       </c>
       <c r="AH9">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="AI9">
         <v>3959</v>
@@ -2817,7 +2844,7 @@
         <v>7299</v>
       </c>
       <c r="AN9">
-        <v>7005</v>
+        <v>7004</v>
       </c>
       <c r="AO9">
         <v>7654</v>
@@ -2838,7 +2865,7 @@
         <v>9281</v>
       </c>
       <c r="AU9">
-        <v>7551</v>
+        <v>7552</v>
       </c>
       <c r="AV9">
         <v>6236</v>
@@ -2877,13 +2904,13 @@
         <v>6875</v>
       </c>
       <c r="BH9">
-        <v>7600</v>
+        <v>7599</v>
       </c>
       <c r="BI9">
-        <v>7759</v>
+        <v>7758</v>
       </c>
       <c r="BJ9">
-        <v>6794</v>
+        <v>6793</v>
       </c>
       <c r="BK9">
         <v>5531</v>
@@ -2925,33 +2952,36 @@
         <v>397</v>
       </c>
       <c r="BX9">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="BY9">
         <v>711</v>
       </c>
       <c r="BZ9">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="CA9">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="CB9">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="CC9">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="CD9">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="CE9">
-        <v>1628</v>
+        <v>1637</v>
+      </c>
+      <c r="CF9">
+        <v>1804</v>
       </c>
     </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10">
         <v>76</v>
@@ -2960,7 +2990,7 @@
         <v>749</v>
       </c>
       <c r="D10">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="E10">
         <v>3593</v>
@@ -2978,13 +3008,13 @@
         <v>1060</v>
       </c>
       <c r="J10">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K10">
         <v>509</v>
       </c>
       <c r="L10">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M10">
         <v>263</v>
@@ -3041,7 +3071,7 @@
         <v>760</v>
       </c>
       <c r="AE10">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="AF10">
         <v>1107</v>
@@ -3068,7 +3098,7 @@
         <v>10259</v>
       </c>
       <c r="AN10">
-        <v>9875</v>
+        <v>9876</v>
       </c>
       <c r="AO10">
         <v>10383</v>
@@ -3089,7 +3119,7 @@
         <v>12326</v>
       </c>
       <c r="AU10">
-        <v>10032</v>
+        <v>10031</v>
       </c>
       <c r="AV10">
         <v>8336</v>
@@ -3098,7 +3128,7 @@
         <v>7009</v>
       </c>
       <c r="AX10">
-        <v>5809</v>
+        <v>5808</v>
       </c>
       <c r="AY10">
         <v>4508</v>
@@ -3128,19 +3158,19 @@
         <v>9682</v>
       </c>
       <c r="BH10">
-        <v>10663</v>
+        <v>10664</v>
       </c>
       <c r="BI10">
         <v>11022</v>
       </c>
       <c r="BJ10">
-        <v>9927</v>
+        <v>9925</v>
       </c>
       <c r="BK10">
         <v>7817</v>
       </c>
       <c r="BL10">
-        <v>5329</v>
+        <v>5326</v>
       </c>
       <c r="BM10">
         <v>3575</v>
@@ -3149,7 +3179,7 @@
         <v>1929</v>
       </c>
       <c r="BO10">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="BP10">
         <v>794</v>
@@ -3158,7 +3188,7 @@
         <v>364</v>
       </c>
       <c r="BR10">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BS10">
         <v>230</v>
@@ -3185,24 +3215,27 @@
         <v>1802</v>
       </c>
       <c r="CA10">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="CB10">
         <v>2711</v>
       </c>
       <c r="CC10">
-        <v>2885</v>
+        <v>2888</v>
       </c>
       <c r="CD10">
-        <v>2597</v>
+        <v>2602</v>
       </c>
       <c r="CE10">
-        <v>2467</v>
+        <v>2491</v>
+      </c>
+      <c r="CF10">
+        <v>2744</v>
       </c>
     </row>
-    <row r="11" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B11">
         <v>133</v>
@@ -3235,7 +3268,7 @@
         <v>521</v>
       </c>
       <c r="L11">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M11">
         <v>251</v>
@@ -3310,10 +3343,10 @@
         <v>9767</v>
       </c>
       <c r="AK11">
-        <v>10964</v>
+        <v>10965</v>
       </c>
       <c r="AL11">
-        <v>10997</v>
+        <v>10996</v>
       </c>
       <c r="AM11">
         <v>10844</v>
@@ -3343,7 +3376,7 @@
         <v>9814</v>
       </c>
       <c r="AV11">
-        <v>8179</v>
+        <v>8180</v>
       </c>
       <c r="AW11">
         <v>6675</v>
@@ -3367,13 +3400,13 @@
         <v>5905</v>
       </c>
       <c r="BD11">
-        <v>7531</v>
+        <v>7532</v>
       </c>
       <c r="BE11">
-        <v>9350</v>
+        <v>9352</v>
       </c>
       <c r="BF11">
-        <v>9123</v>
+        <v>9124</v>
       </c>
       <c r="BG11">
         <v>9954</v>
@@ -3382,13 +3415,13 @@
         <v>11113</v>
       </c>
       <c r="BI11">
-        <v>11645</v>
+        <v>11644</v>
       </c>
       <c r="BJ11">
-        <v>10146</v>
+        <v>10143</v>
       </c>
       <c r="BK11">
-        <v>8018</v>
+        <v>8016</v>
       </c>
       <c r="BL11">
         <v>5476</v>
@@ -3427,13 +3460,13 @@
         <v>821</v>
       </c>
       <c r="BX11">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="BY11">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="BZ11">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="CA11">
         <v>3331</v>
@@ -3442,18 +3475,21 @@
         <v>3722</v>
       </c>
       <c r="CC11">
-        <v>3688</v>
+        <v>3690</v>
       </c>
       <c r="CD11">
-        <v>3327</v>
+        <v>3325</v>
       </c>
       <c r="CE11">
-        <v>2866</v>
+        <v>2892</v>
+      </c>
+      <c r="CF11">
+        <v>3260</v>
       </c>
     </row>
-    <row r="12" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B12">
         <v>99</v>
@@ -3471,7 +3507,7 @@
         <v>2710</v>
       </c>
       <c r="G12">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="H12">
         <v>1172</v>
@@ -3483,7 +3519,7 @@
         <v>468</v>
       </c>
       <c r="K12">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L12">
         <v>332</v>
@@ -3555,10 +3591,10 @@
         <v>3120</v>
       </c>
       <c r="AI12">
-        <v>5821</v>
+        <v>5820</v>
       </c>
       <c r="AJ12">
-        <v>8396</v>
+        <v>8397</v>
       </c>
       <c r="AK12">
         <v>9475</v>
@@ -3567,7 +3603,7 @@
         <v>9286</v>
       </c>
       <c r="AM12">
-        <v>9675</v>
+        <v>9674</v>
       </c>
       <c r="AN12">
         <v>9057</v>
@@ -3594,7 +3630,7 @@
         <v>7954</v>
       </c>
       <c r="AV12">
-        <v>6490</v>
+        <v>6489</v>
       </c>
       <c r="AW12">
         <v>5305</v>
@@ -3621,10 +3657,10 @@
         <v>6516</v>
       </c>
       <c r="BE12">
-        <v>8159</v>
+        <v>8160</v>
       </c>
       <c r="BF12">
-        <v>7996</v>
+        <v>7997</v>
       </c>
       <c r="BG12">
         <v>8772</v>
@@ -3633,22 +3669,22 @@
         <v>10167</v>
       </c>
       <c r="BI12">
-        <v>10671</v>
+        <v>10669</v>
       </c>
       <c r="BJ12">
-        <v>9025</v>
+        <v>9022</v>
       </c>
       <c r="BK12">
-        <v>7444</v>
+        <v>7443</v>
       </c>
       <c r="BL12">
         <v>5080</v>
       </c>
       <c r="BM12">
-        <v>3586</v>
+        <v>3587</v>
       </c>
       <c r="BN12">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="BO12">
         <v>1306</v>
@@ -3681,30 +3717,33 @@
         <v>1175</v>
       </c>
       <c r="BY12">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="BZ12">
-        <v>3096</v>
+        <v>3099</v>
       </c>
       <c r="CA12">
         <v>4107</v>
       </c>
       <c r="CB12">
-        <v>4621</v>
+        <v>4625</v>
       </c>
       <c r="CC12">
-        <v>4538</v>
+        <v>4539</v>
       </c>
       <c r="CD12">
-        <v>3786</v>
+        <v>3789</v>
       </c>
       <c r="CE12">
-        <v>3284</v>
+        <v>3329</v>
+      </c>
+      <c r="CF12">
+        <v>3483</v>
       </c>
     </row>
-    <row r="13" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B13">
         <v>85</v>
@@ -3713,7 +3752,7 @@
         <v>566</v>
       </c>
       <c r="D13">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="E13">
         <v>2322</v>
@@ -3722,7 +3761,7 @@
         <v>2308</v>
       </c>
       <c r="G13">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H13">
         <v>1019</v>
@@ -3740,10 +3779,10 @@
         <v>357</v>
       </c>
       <c r="M13">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N13">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O13">
         <v>175</v>
@@ -3794,7 +3833,7 @@
         <v>845</v>
       </c>
       <c r="AE13">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="AF13">
         <v>1052</v>
@@ -3806,10 +3845,10 @@
         <v>2904</v>
       </c>
       <c r="AI13">
-        <v>5307</v>
+        <v>5308</v>
       </c>
       <c r="AJ13">
-        <v>7882</v>
+        <v>7881</v>
       </c>
       <c r="AK13">
         <v>8877</v>
@@ -3818,10 +3857,10 @@
         <v>8993</v>
       </c>
       <c r="AM13">
-        <v>9246</v>
+        <v>9245</v>
       </c>
       <c r="AN13">
-        <v>8808</v>
+        <v>8807</v>
       </c>
       <c r="AO13">
         <v>8814</v>
@@ -3830,10 +3869,10 @@
         <v>10905</v>
       </c>
       <c r="AQ13">
-        <v>11991</v>
+        <v>11990</v>
       </c>
       <c r="AR13">
-        <v>9513</v>
+        <v>9512</v>
       </c>
       <c r="AS13">
         <v>8030</v>
@@ -3842,7 +3881,7 @@
         <v>9547</v>
       </c>
       <c r="AU13">
-        <v>7556</v>
+        <v>7555</v>
       </c>
       <c r="AV13">
         <v>6230</v>
@@ -3863,7 +3902,7 @@
         <v>4136</v>
       </c>
       <c r="BB13">
-        <v>4274</v>
+        <v>4273</v>
       </c>
       <c r="BC13">
         <v>5346</v>
@@ -3878,25 +3917,25 @@
         <v>8324</v>
       </c>
       <c r="BG13">
-        <v>9281</v>
+        <v>9280</v>
       </c>
       <c r="BH13">
         <v>10726</v>
       </c>
       <c r="BI13">
-        <v>10823</v>
+        <v>10824</v>
       </c>
       <c r="BJ13">
-        <v>9575</v>
+        <v>9572</v>
       </c>
       <c r="BK13">
-        <v>7729</v>
+        <v>7730</v>
       </c>
       <c r="BL13">
-        <v>5332</v>
+        <v>5333</v>
       </c>
       <c r="BM13">
-        <v>3983</v>
+        <v>3982</v>
       </c>
       <c r="BN13">
         <v>2204</v>
@@ -3908,13 +3947,13 @@
         <v>1077</v>
       </c>
       <c r="BQ13">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="BR13">
         <v>354</v>
       </c>
       <c r="BS13">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="BT13">
         <v>345</v>
@@ -3929,33 +3968,36 @@
         <v>987</v>
       </c>
       <c r="BX13">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="BY13">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="BZ13">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="CA13">
-        <v>5179</v>
+        <v>5181</v>
       </c>
       <c r="CB13">
-        <v>5691</v>
+        <v>5690</v>
       </c>
       <c r="CC13">
-        <v>5422</v>
+        <v>5420</v>
       </c>
       <c r="CD13">
-        <v>4442</v>
+        <v>4449</v>
       </c>
       <c r="CE13">
-        <v>3857</v>
+        <v>3896</v>
+      </c>
+      <c r="CF13">
+        <v>4163</v>
       </c>
     </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B14">
         <v>67</v>
@@ -4036,16 +4078,16 @@
         <v>716</v>
       </c>
       <c r="AB14">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AC14">
         <v>699</v>
       </c>
       <c r="AD14">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AE14">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AF14">
         <v>1153</v>
@@ -4057,7 +4099,7 @@
         <v>3099</v>
       </c>
       <c r="AI14">
-        <v>5388</v>
+        <v>5387</v>
       </c>
       <c r="AJ14">
         <v>8083</v>
@@ -4069,7 +4111,7 @@
         <v>9191</v>
       </c>
       <c r="AM14">
-        <v>9196</v>
+        <v>9197</v>
       </c>
       <c r="AN14">
         <v>8716</v>
@@ -4096,7 +4138,7 @@
         <v>8005</v>
       </c>
       <c r="AV14">
-        <v>6341</v>
+        <v>6342</v>
       </c>
       <c r="AW14">
         <v>5195</v>
@@ -4114,7 +4156,7 @@
         <v>4181</v>
       </c>
       <c r="BB14">
-        <v>4575</v>
+        <v>4574</v>
       </c>
       <c r="BC14">
         <v>5760</v>
@@ -4126,22 +4168,22 @@
         <v>9461</v>
       </c>
       <c r="BF14">
-        <v>8984</v>
+        <v>8985</v>
       </c>
       <c r="BG14">
         <v>9484</v>
       </c>
       <c r="BH14">
-        <v>11267</v>
+        <v>11268</v>
       </c>
       <c r="BI14">
-        <v>11278</v>
+        <v>11279</v>
       </c>
       <c r="BJ14">
-        <v>10021</v>
+        <v>10019</v>
       </c>
       <c r="BK14">
-        <v>7969</v>
+        <v>7970</v>
       </c>
       <c r="BL14">
         <v>5624</v>
@@ -4153,10 +4195,10 @@
         <v>2412</v>
       </c>
       <c r="BO14">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="BP14">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="BQ14">
         <v>546</v>
@@ -4183,30 +4225,33 @@
         <v>1592</v>
       </c>
       <c r="BY14">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="BZ14">
-        <v>3765</v>
+        <v>3767</v>
       </c>
       <c r="CA14">
-        <v>5262</v>
+        <v>5264</v>
       </c>
       <c r="CB14">
-        <v>5994</v>
+        <v>5997</v>
       </c>
       <c r="CC14">
-        <v>5797</v>
+        <v>5798</v>
       </c>
       <c r="CD14">
-        <v>4808</v>
+        <v>4812</v>
       </c>
       <c r="CE14">
-        <v>4200</v>
+        <v>4239</v>
+      </c>
+      <c r="CF14">
+        <v>4515</v>
       </c>
     </row>
-    <row r="15" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B15">
         <v>69</v>
@@ -4272,13 +4317,13 @@
         <v>382</v>
       </c>
       <c r="W15">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="X15">
         <v>516</v>
       </c>
       <c r="Y15">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="Z15">
         <v>945</v>
@@ -4296,7 +4341,7 @@
         <v>1206</v>
       </c>
       <c r="AE15">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="AF15">
         <v>1522</v>
@@ -4314,13 +4359,13 @@
         <v>9575</v>
       </c>
       <c r="AK15">
-        <v>10476</v>
+        <v>10475</v>
       </c>
       <c r="AL15">
-        <v>10483</v>
+        <v>10484</v>
       </c>
       <c r="AM15">
-        <v>10085</v>
+        <v>10084</v>
       </c>
       <c r="AN15">
         <v>9366</v>
@@ -4329,7 +4374,7 @@
         <v>9471</v>
       </c>
       <c r="AP15">
-        <v>11522</v>
+        <v>11523</v>
       </c>
       <c r="AQ15">
         <v>13027</v>
@@ -4344,7 +4389,7 @@
         <v>11601</v>
       </c>
       <c r="AU15">
-        <v>9048</v>
+        <v>9047</v>
       </c>
       <c r="AV15">
         <v>7018</v>
@@ -4362,7 +4407,7 @@
         <v>4114</v>
       </c>
       <c r="BA15">
-        <v>4529</v>
+        <v>4528</v>
       </c>
       <c r="BB15">
         <v>4892</v>
@@ -4371,19 +4416,19 @@
         <v>6016</v>
       </c>
       <c r="BD15">
-        <v>7894</v>
+        <v>7895</v>
       </c>
       <c r="BE15">
         <v>9868</v>
       </c>
       <c r="BF15">
-        <v>9512</v>
+        <v>9511</v>
       </c>
       <c r="BG15">
         <v>10134</v>
       </c>
       <c r="BH15">
-        <v>12014</v>
+        <v>12013</v>
       </c>
       <c r="BI15">
         <v>11853</v>
@@ -4392,7 +4437,7 @@
         <v>10456</v>
       </c>
       <c r="BK15">
-        <v>8278</v>
+        <v>8276</v>
       </c>
       <c r="BL15">
         <v>5869</v>
@@ -4401,10 +4446,10 @@
         <v>4539</v>
       </c>
       <c r="BN15">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="BO15">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="BP15">
         <v>1184</v>
@@ -4413,7 +4458,7 @@
         <v>631</v>
       </c>
       <c r="BR15">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="BS15">
         <v>428</v>
@@ -4431,13 +4476,13 @@
         <v>1514</v>
       </c>
       <c r="BX15">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="BY15">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="BZ15">
-        <v>4380</v>
+        <v>4383</v>
       </c>
       <c r="CA15">
         <v>5977</v>
@@ -4446,18 +4491,21 @@
         <v>6579</v>
       </c>
       <c r="CC15">
-        <v>6222</v>
+        <v>6223</v>
       </c>
       <c r="CD15">
-        <v>5092</v>
+        <v>5101</v>
       </c>
       <c r="CE15">
-        <v>4545</v>
+        <v>4588</v>
+      </c>
+      <c r="CF15">
+        <v>4729</v>
       </c>
     </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16">
         <v>76</v>
@@ -4478,7 +4526,7 @@
         <v>1935</v>
       </c>
       <c r="H16">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I16">
         <v>995</v>
@@ -4529,7 +4577,7 @@
         <v>604</v>
       </c>
       <c r="Y16">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="Z16">
         <v>1193</v>
@@ -4544,7 +4592,7 @@
         <v>1228</v>
       </c>
       <c r="AD16">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="AE16">
         <v>1436</v>
@@ -4562,16 +4610,16 @@
         <v>7325</v>
       </c>
       <c r="AJ16">
-        <v>10341</v>
+        <v>10342</v>
       </c>
       <c r="AK16">
         <v>11150</v>
       </c>
       <c r="AL16">
-        <v>10683</v>
+        <v>10684</v>
       </c>
       <c r="AM16">
-        <v>9917</v>
+        <v>9918</v>
       </c>
       <c r="AN16">
         <v>8997</v>
@@ -4580,19 +4628,19 @@
         <v>9151</v>
       </c>
       <c r="AP16">
-        <v>10782</v>
+        <v>10781</v>
       </c>
       <c r="AQ16">
         <v>12105</v>
       </c>
       <c r="AR16">
-        <v>9430</v>
+        <v>9429</v>
       </c>
       <c r="AS16">
         <v>8423</v>
       </c>
       <c r="AT16">
-        <v>10778</v>
+        <v>10777</v>
       </c>
       <c r="AU16">
         <v>8536</v>
@@ -4622,10 +4670,10 @@
         <v>5465</v>
       </c>
       <c r="BD16">
-        <v>7013</v>
+        <v>7012</v>
       </c>
       <c r="BE16">
-        <v>8402</v>
+        <v>8401</v>
       </c>
       <c r="BF16">
         <v>8378</v>
@@ -4670,7 +4718,7 @@
         <v>494</v>
       </c>
       <c r="BT16">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="BU16">
         <v>1327</v>
@@ -4685,30 +4733,33 @@
         <v>2403</v>
       </c>
       <c r="BY16">
-        <v>3590</v>
+        <v>3589</v>
       </c>
       <c r="BZ16">
-        <v>5029</v>
+        <v>5026</v>
       </c>
       <c r="CA16">
-        <v>6322</v>
+        <v>6321</v>
       </c>
       <c r="CB16">
-        <v>6292</v>
+        <v>6288</v>
       </c>
       <c r="CC16">
-        <v>6052</v>
+        <v>6055</v>
       </c>
       <c r="CD16">
-        <v>4899</v>
+        <v>4898</v>
       </c>
       <c r="CE16">
-        <v>4071</v>
+        <v>4110</v>
+      </c>
+      <c r="CF16">
+        <v>4220</v>
       </c>
     </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B17">
         <v>70</v>
@@ -4723,10 +4774,10 @@
         <v>2269</v>
       </c>
       <c r="F17">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="G17">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="H17">
         <v>1226</v>
@@ -4801,7 +4852,7 @@
         <v>1584</v>
       </c>
       <c r="AF17">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="AG17">
         <v>2789</v>
@@ -4810,13 +4861,13 @@
         <v>4387</v>
       </c>
       <c r="AI17">
-        <v>7565</v>
+        <v>7566</v>
       </c>
       <c r="AJ17">
-        <v>10409</v>
+        <v>10408</v>
       </c>
       <c r="AK17">
-        <v>11731</v>
+        <v>11730</v>
       </c>
       <c r="AL17">
         <v>11028</v>
@@ -4831,7 +4882,7 @@
         <v>9178</v>
       </c>
       <c r="AP17">
-        <v>10792</v>
+        <v>10791</v>
       </c>
       <c r="AQ17">
         <v>12096</v>
@@ -4849,7 +4900,7 @@
         <v>8538</v>
       </c>
       <c r="AV17">
-        <v>6434</v>
+        <v>6433</v>
       </c>
       <c r="AW17">
         <v>5240</v>
@@ -4858,13 +4909,13 @@
         <v>4377</v>
       </c>
       <c r="AY17">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="AZ17">
         <v>3946</v>
       </c>
       <c r="BA17">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="BB17">
         <v>4402</v>
@@ -4873,7 +4924,7 @@
         <v>5422</v>
       </c>
       <c r="BD17">
-        <v>6905</v>
+        <v>6904</v>
       </c>
       <c r="BE17">
         <v>8553</v>
@@ -4885,10 +4936,10 @@
         <v>9800</v>
       </c>
       <c r="BH17">
-        <v>11547</v>
+        <v>11549</v>
       </c>
       <c r="BI17">
-        <v>11268</v>
+        <v>11267</v>
       </c>
       <c r="BJ17">
         <v>9622</v>
@@ -4909,7 +4960,7 @@
         <v>1734</v>
       </c>
       <c r="BP17">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="BQ17">
         <v>626</v>
@@ -4918,10 +4969,10 @@
         <v>439</v>
       </c>
       <c r="BS17">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="BT17">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="BU17">
         <v>1507</v>
@@ -4933,33 +4984,36 @@
         <v>2328</v>
       </c>
       <c r="BX17">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="BY17">
-        <v>4431</v>
+        <v>4429</v>
       </c>
       <c r="BZ17">
-        <v>5781</v>
+        <v>5783</v>
       </c>
       <c r="CA17">
         <v>6880</v>
       </c>
       <c r="CB17">
-        <v>6828</v>
+        <v>6829</v>
       </c>
       <c r="CC17">
-        <v>6226</v>
+        <v>6223</v>
       </c>
       <c r="CD17">
-        <v>4937</v>
+        <v>4947</v>
       </c>
       <c r="CE17">
-        <v>4072</v>
+        <v>4119</v>
+      </c>
+      <c r="CF17">
+        <v>4036</v>
       </c>
     </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B18">
         <v>44</v>
@@ -4989,7 +5043,7 @@
         <v>264</v>
       </c>
       <c r="K18">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L18">
         <v>184</v>
@@ -5094,7 +5148,7 @@
         <v>4955</v>
       </c>
       <c r="AT18">
-        <v>6380</v>
+        <v>6381</v>
       </c>
       <c r="AU18">
         <v>5388</v>
@@ -5139,16 +5193,16 @@
         <v>10820</v>
       </c>
       <c r="BI18">
-        <v>10336</v>
+        <v>10337</v>
       </c>
       <c r="BJ18">
-        <v>8659</v>
+        <v>8657</v>
       </c>
       <c r="BK18">
         <v>7052</v>
       </c>
       <c r="BL18">
-        <v>4942</v>
+        <v>4940</v>
       </c>
       <c r="BM18">
         <v>3883</v>
@@ -5184,33 +5238,36 @@
         <v>1842</v>
       </c>
       <c r="BX18">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="BY18">
-        <v>3502</v>
+        <v>3504</v>
       </c>
       <c r="BZ18">
-        <v>5572</v>
+        <v>5574</v>
       </c>
       <c r="CA18">
-        <v>6961</v>
+        <v>6965</v>
       </c>
       <c r="CB18">
-        <v>7774</v>
+        <v>7773</v>
       </c>
       <c r="CC18">
-        <v>6841</v>
+        <v>6842</v>
       </c>
       <c r="CD18">
-        <v>5639</v>
+        <v>5643</v>
       </c>
       <c r="CE18">
-        <v>4586</v>
+        <v>4627</v>
+      </c>
+      <c r="CF18">
+        <v>4540</v>
       </c>
     </row>
-    <row r="19" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -5297,7 +5354,7 @@
         <v>498</v>
       </c>
       <c r="AD19">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AE19">
         <v>584</v>
@@ -5312,10 +5369,10 @@
         <v>1652</v>
       </c>
       <c r="AI19">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="AJ19">
-        <v>4082</v>
+        <v>4083</v>
       </c>
       <c r="AK19">
         <v>4783</v>
@@ -5327,7 +5384,7 @@
         <v>5299</v>
       </c>
       <c r="AN19">
-        <v>5185</v>
+        <v>5184</v>
       </c>
       <c r="AO19">
         <v>5154</v>
@@ -5345,10 +5402,10 @@
         <v>2651</v>
       </c>
       <c r="AT19">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="AU19">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="AV19">
         <v>2228</v>
@@ -5363,10 +5420,10 @@
         <v>1409</v>
       </c>
       <c r="AZ19">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="BA19">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="BB19">
         <v>2308</v>
@@ -5399,7 +5456,7 @@
         <v>6122</v>
       </c>
       <c r="BL19">
-        <v>4570</v>
+        <v>4568</v>
       </c>
       <c r="BM19">
         <v>3762</v>
@@ -5411,7 +5468,7 @@
         <v>1580</v>
       </c>
       <c r="BP19">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="BQ19">
         <v>663</v>
@@ -5429,7 +5486,7 @@
         <v>533</v>
       </c>
       <c r="BV19">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="BW19">
         <v>997</v>
@@ -5438,30 +5495,33 @@
         <v>1490</v>
       </c>
       <c r="BY19">
-        <v>2604</v>
+        <v>2607</v>
       </c>
       <c r="BZ19">
         <v>5362</v>
       </c>
       <c r="CA19">
-        <v>6917</v>
+        <v>6919</v>
       </c>
       <c r="CB19">
-        <v>8403</v>
+        <v>8407</v>
       </c>
       <c r="CC19">
-        <v>7731</v>
+        <v>7734</v>
       </c>
       <c r="CD19">
-        <v>7299</v>
+        <v>7306</v>
       </c>
       <c r="CE19">
-        <v>6216</v>
+        <v>6280</v>
+      </c>
+      <c r="CF19">
+        <v>6594</v>
       </c>
     </row>
-    <row r="20" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -5548,7 +5608,7 @@
         <v>325</v>
       </c>
       <c r="AD20">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE20">
         <v>390</v>
@@ -5578,7 +5638,7 @@
         <v>3918</v>
       </c>
       <c r="AN20">
-        <v>3818</v>
+        <v>3819</v>
       </c>
       <c r="AO20">
         <v>3682</v>
@@ -5599,10 +5659,10 @@
         <v>2392</v>
       </c>
       <c r="AU20">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="AV20">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="AW20">
         <v>1642</v>
@@ -5644,7 +5704,7 @@
         <v>8418</v>
       </c>
       <c r="BJ20">
-        <v>6872</v>
+        <v>6873</v>
       </c>
       <c r="BK20">
         <v>5565</v>
@@ -5653,7 +5713,7 @@
         <v>4114</v>
       </c>
       <c r="BM20">
-        <v>3414</v>
+        <v>3415</v>
       </c>
       <c r="BN20">
         <v>1875</v>
@@ -5677,7 +5737,7 @@
         <v>208</v>
       </c>
       <c r="BU20">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="BV20">
         <v>477</v>
@@ -5689,30 +5749,33 @@
         <v>1154</v>
       </c>
       <c r="BY20">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="BZ20">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="CA20">
-        <v>5591</v>
+        <v>5592</v>
       </c>
       <c r="CB20">
-        <v>7006</v>
+        <v>7008</v>
       </c>
       <c r="CC20">
-        <v>6587</v>
+        <v>6583</v>
       </c>
       <c r="CD20">
-        <v>5862</v>
+        <v>5876</v>
       </c>
       <c r="CE20">
-        <v>5197</v>
+        <v>5282</v>
+      </c>
+      <c r="CF20">
+        <v>5306</v>
       </c>
     </row>
-    <row r="21" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -5811,7 +5874,7 @@
         <v>522</v>
       </c>
       <c r="AH21">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AI21">
         <v>1457</v>
@@ -5823,7 +5886,7 @@
         <v>2413</v>
       </c>
       <c r="AL21">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="AM21">
         <v>2380</v>
@@ -5832,10 +5895,10 @@
         <v>2316</v>
       </c>
       <c r="AO21">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="AP21">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="AQ21">
         <v>3092</v>
@@ -5844,7 +5907,7 @@
         <v>2105</v>
       </c>
       <c r="AS21">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="AT21">
         <v>1900</v>
@@ -5877,13 +5940,13 @@
         <v>2991</v>
       </c>
       <c r="BD21">
-        <v>4049</v>
+        <v>4048</v>
       </c>
       <c r="BE21">
         <v>5023</v>
       </c>
       <c r="BF21">
-        <v>4465</v>
+        <v>4466</v>
       </c>
       <c r="BG21">
         <v>4026</v>
@@ -5895,10 +5958,10 @@
         <v>5576</v>
       </c>
       <c r="BJ21">
-        <v>5062</v>
+        <v>5060</v>
       </c>
       <c r="BK21">
-        <v>4113</v>
+        <v>4112</v>
       </c>
       <c r="BL21">
         <v>2967</v>
@@ -5940,44 +6003,45 @@
         <v>758</v>
       </c>
       <c r="BY21">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="BZ21">
         <v>1866</v>
       </c>
       <c r="CA21">
-        <v>2960</v>
+        <v>2958</v>
       </c>
       <c r="CB21">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="CC21">
-        <v>3502</v>
+        <v>3500</v>
       </c>
       <c r="CD21">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="CE21">
-        <v>2295</v>
+        <v>2326</v>
+      </c>
+      <c r="CF21">
+        <v>2190</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AEC815-63A5-41DB-BCD5-FFE8A4392B78}">
-  <dimension ref="A1:CE21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67402A01-2BE2-415E-9AB2-0D30A2F91CD5}">
+  <dimension ref="A1:CF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6227,10 +6291,13 @@
       <c r="CE1" t="s">
         <v>82</v>
       </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>1.08</v>
@@ -6248,7 +6315,7 @@
         <v>43.34</v>
       </c>
       <c r="G2">
-        <v>32.630000000000003</v>
+        <v>32.619999999999997</v>
       </c>
       <c r="H2">
         <v>20.84</v>
@@ -6260,13 +6327,13 @@
         <v>8.93</v>
       </c>
       <c r="K2">
-        <v>7.5</v>
+        <v>7.49</v>
       </c>
       <c r="L2">
-        <v>5.73</v>
+        <v>5.72</v>
       </c>
       <c r="M2">
-        <v>4.33</v>
+        <v>4.32</v>
       </c>
       <c r="N2">
         <v>3.85</v>
@@ -6323,7 +6390,7 @@
         <v>15.7</v>
       </c>
       <c r="AF2">
-        <v>19.14</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="AG2">
         <v>31.39</v>
@@ -6386,7 +6453,7 @@
         <v>62.99</v>
       </c>
       <c r="BA2">
-        <v>67.760000000000005</v>
+        <v>67.75</v>
       </c>
       <c r="BB2">
         <v>70.180000000000007</v>
@@ -6413,13 +6480,13 @@
         <v>174.05</v>
       </c>
       <c r="BJ2">
-        <v>150.07</v>
+        <v>150.05000000000001</v>
       </c>
       <c r="BK2">
-        <v>121.43</v>
+        <v>121.42</v>
       </c>
       <c r="BL2">
-        <v>85.17</v>
+        <v>85.16</v>
       </c>
       <c r="BM2">
         <v>63.36</v>
@@ -6464,24 +6531,27 @@
         <v>59.62</v>
       </c>
       <c r="CA2">
-        <v>79.680000000000007</v>
+        <v>79.69</v>
       </c>
       <c r="CB2">
         <v>89.73</v>
       </c>
       <c r="CC2">
-        <v>86.1</v>
+        <v>86.09</v>
       </c>
       <c r="CD2">
-        <v>73.77</v>
+        <v>73.819999999999993</v>
       </c>
       <c r="CE2">
-        <v>63.71</v>
+        <v>64.38</v>
+      </c>
+      <c r="CF2">
+        <v>67.33</v>
       </c>
     </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>0.12</v>
@@ -6607,7 +6677,7 @@
         <v>656.34</v>
       </c>
       <c r="AQ3">
-        <v>725.47</v>
+        <v>725.35</v>
       </c>
       <c r="AR3">
         <v>636.04999999999995</v>
@@ -6643,7 +6713,7 @@
         <v>74.11</v>
       </c>
       <c r="BC3">
-        <v>73.87</v>
+        <v>73.989999999999995</v>
       </c>
       <c r="BD3">
         <v>77.52</v>
@@ -6652,13 +6722,13 @@
         <v>80.31</v>
       </c>
       <c r="BF3">
-        <v>75.94</v>
+        <v>75.69</v>
       </c>
       <c r="BG3">
         <v>87.12</v>
       </c>
       <c r="BH3">
-        <v>96.23</v>
+        <v>96.11</v>
       </c>
       <c r="BI3">
         <v>96.59</v>
@@ -6673,7 +6743,7 @@
         <v>49.57</v>
       </c>
       <c r="BM3">
-        <v>33.78</v>
+        <v>33.659999999999997</v>
       </c>
       <c r="BN3">
         <v>19.440000000000001</v>
@@ -6709,7 +6779,7 @@
         <v>8.02</v>
       </c>
       <c r="BY3">
-        <v>15.67</v>
+        <v>15.43</v>
       </c>
       <c r="BZ3">
         <v>16.89</v>
@@ -6721,18 +6791,21 @@
         <v>40.82</v>
       </c>
       <c r="CC3">
-        <v>43.25</v>
+        <v>42.77</v>
       </c>
       <c r="CD3">
-        <v>48.11</v>
+        <v>47.63</v>
       </c>
       <c r="CE3">
-        <v>41.55</v>
+        <v>41.07</v>
+      </c>
+      <c r="CF3">
+        <v>39.61</v>
       </c>
     </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>0.38</v>
@@ -6840,7 +6913,7 @@
         <v>114.21</v>
       </c>
       <c r="AK4">
-        <v>146.05000000000001</v>
+        <v>145.99</v>
       </c>
       <c r="AL4">
         <v>181.03</v>
@@ -6867,7 +6940,7 @@
         <v>357.08</v>
       </c>
       <c r="AT4">
-        <v>387.9</v>
+        <v>387.84</v>
       </c>
       <c r="AU4">
         <v>355.35</v>
@@ -6909,7 +6982,7 @@
         <v>68.55</v>
       </c>
       <c r="BH4">
-        <v>76.739999999999995</v>
+        <v>76.8</v>
       </c>
       <c r="BI4">
         <v>75.2</v>
@@ -6966,24 +7039,27 @@
         <v>14.13</v>
       </c>
       <c r="CA4">
-        <v>21.17</v>
+        <v>21.23</v>
       </c>
       <c r="CB4">
-        <v>28.07</v>
+        <v>27.94</v>
       </c>
       <c r="CC4">
-        <v>32.61</v>
+        <v>32.479999999999997</v>
       </c>
       <c r="CD4">
-        <v>33.06</v>
+        <v>33.19</v>
       </c>
       <c r="CE4">
-        <v>28.33</v>
+        <v>28.97</v>
+      </c>
+      <c r="CF4">
+        <v>33.83</v>
       </c>
     </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5">
         <v>0.36</v>
@@ -7091,7 +7167,7 @@
         <v>86.06</v>
       </c>
       <c r="AK5">
-        <v>104.21</v>
+        <v>104.24</v>
       </c>
       <c r="AL5">
         <v>115.23</v>
@@ -7115,7 +7191,7 @@
         <v>224.87</v>
       </c>
       <c r="AS5">
-        <v>208.42</v>
+        <v>208.45</v>
       </c>
       <c r="AT5">
         <v>232.71</v>
@@ -7166,7 +7242,7 @@
         <v>61.41</v>
       </c>
       <c r="BJ5">
-        <v>48.42</v>
+        <v>48.39</v>
       </c>
       <c r="BK5">
         <v>41.41</v>
@@ -7181,7 +7257,7 @@
         <v>11.6</v>
       </c>
       <c r="BO5">
-        <v>6.37</v>
+        <v>6.34</v>
       </c>
       <c r="BP5">
         <v>4.71</v>
@@ -7217,24 +7293,27 @@
         <v>8.99</v>
       </c>
       <c r="CA5">
-        <v>14.51</v>
+        <v>14.45</v>
       </c>
       <c r="CB5">
         <v>20.49</v>
       </c>
       <c r="CC5">
-        <v>25.01</v>
+        <v>24.98</v>
       </c>
       <c r="CD5">
-        <v>24.07</v>
+        <v>24.01</v>
       </c>
       <c r="CE5">
-        <v>19.73</v>
+        <v>20</v>
+      </c>
+      <c r="CF5">
+        <v>27.17</v>
       </c>
     </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6">
         <v>0.62</v>
@@ -7264,7 +7343,7 @@
         <v>9</v>
       </c>
       <c r="K6">
-        <v>7.09</v>
+        <v>7.07</v>
       </c>
       <c r="L6">
         <v>4.49</v>
@@ -7342,7 +7421,7 @@
         <v>68.209999999999994</v>
       </c>
       <c r="AK6">
-        <v>78.73</v>
+        <v>78.760000000000005</v>
       </c>
       <c r="AL6">
         <v>84.67</v>
@@ -7369,7 +7448,7 @@
         <v>119.62</v>
       </c>
       <c r="AT6">
-        <v>134.53</v>
+        <v>134.56</v>
       </c>
       <c r="AU6">
         <v>111.19</v>
@@ -7393,7 +7472,7 @@
         <v>40.5</v>
       </c>
       <c r="BB6">
-        <v>35.21</v>
+        <v>35.19</v>
       </c>
       <c r="BC6">
         <v>36.76</v>
@@ -7414,10 +7493,10 @@
         <v>69.83</v>
       </c>
       <c r="BI6">
-        <v>64.16</v>
+        <v>64.180000000000007</v>
       </c>
       <c r="BJ6">
-        <v>54.69</v>
+        <v>54.66</v>
       </c>
       <c r="BK6">
         <v>42.95</v>
@@ -7432,7 +7511,7 @@
         <v>10.53</v>
       </c>
       <c r="BO6">
-        <v>6.45</v>
+        <v>6.48</v>
       </c>
       <c r="BP6">
         <v>4</v>
@@ -7471,21 +7550,24 @@
         <v>10.63</v>
       </c>
       <c r="CB6">
-        <v>13.9</v>
+        <v>13.93</v>
       </c>
       <c r="CC6">
-        <v>15.25</v>
+        <v>15.22</v>
       </c>
       <c r="CD6">
-        <v>14.73</v>
+        <v>14.65</v>
       </c>
       <c r="CE6">
-        <v>14.45</v>
+        <v>14.58</v>
+      </c>
+      <c r="CF6">
+        <v>18.239999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7">
         <v>0.3</v>
@@ -7515,7 +7597,7 @@
         <v>7.46</v>
       </c>
       <c r="K7">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="L7">
         <v>3.48</v>
@@ -7572,7 +7654,7 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="AD7">
-        <v>7.1</v>
+        <v>7.08</v>
       </c>
       <c r="AE7">
         <v>7.27</v>
@@ -7647,7 +7729,7 @@
         <v>42.3</v>
       </c>
       <c r="BC7">
-        <v>49.24</v>
+        <v>49.21</v>
       </c>
       <c r="BD7">
         <v>64.67</v>
@@ -7662,7 +7744,7 @@
         <v>85.57</v>
       </c>
       <c r="BH7">
-        <v>98.31</v>
+        <v>98.28</v>
       </c>
       <c r="BI7">
         <v>91.75</v>
@@ -7677,7 +7759,7 @@
         <v>43.38</v>
       </c>
       <c r="BM7">
-        <v>29.42</v>
+        <v>29.39</v>
       </c>
       <c r="BN7">
         <v>15.87</v>
@@ -7719,10 +7801,10 @@
         <v>10.67</v>
       </c>
       <c r="CA7">
-        <v>16.79</v>
+        <v>16.82</v>
       </c>
       <c r="CB7">
-        <v>20.170000000000002</v>
+        <v>20.11</v>
       </c>
       <c r="CC7">
         <v>22.26</v>
@@ -7731,12 +7813,15 @@
         <v>20.58</v>
       </c>
       <c r="CE7">
-        <v>18.73</v>
+        <v>18.89</v>
+      </c>
+      <c r="CF7">
+        <v>23.16</v>
       </c>
     </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8">
         <v>0.51</v>
@@ -7874,7 +7959,7 @@
         <v>117.9</v>
       </c>
       <c r="AU8">
-        <v>90.9</v>
+        <v>90.88</v>
       </c>
       <c r="AV8">
         <v>74.58</v>
@@ -7913,7 +7998,7 @@
         <v>88.66</v>
       </c>
       <c r="BH8">
-        <v>101.09</v>
+        <v>101.11</v>
       </c>
       <c r="BI8">
         <v>95.22</v>
@@ -7922,7 +8007,7 @@
         <v>81.739999999999995</v>
       </c>
       <c r="BK8">
-        <v>67.75</v>
+        <v>67.77</v>
       </c>
       <c r="BL8">
         <v>47.7</v>
@@ -7934,7 +8019,7 @@
         <v>15.85</v>
       </c>
       <c r="BO8">
-        <v>12.2</v>
+        <v>12.18</v>
       </c>
       <c r="BP8">
         <v>6.57</v>
@@ -7964,7 +8049,7 @@
         <v>5.82</v>
       </c>
       <c r="BY8">
-        <v>8.2899999999999991</v>
+        <v>8.33</v>
       </c>
       <c r="BZ8">
         <v>12.2</v>
@@ -7973,21 +8058,24 @@
         <v>16.670000000000002</v>
       </c>
       <c r="CB8">
-        <v>20.46</v>
+        <v>20.48</v>
       </c>
       <c r="CC8">
         <v>22.82</v>
       </c>
       <c r="CD8">
-        <v>21.61</v>
+        <v>21.57</v>
       </c>
       <c r="CE8">
-        <v>20.07</v>
+        <v>20.309999999999999</v>
+      </c>
+      <c r="CF8">
+        <v>22.31</v>
       </c>
     </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9">
         <v>1.1200000000000001</v>
@@ -8086,7 +8174,7 @@
         <v>22.54</v>
       </c>
       <c r="AH9">
-        <v>37.57</v>
+        <v>37.590000000000003</v>
       </c>
       <c r="AI9">
         <v>70.099999999999994</v>
@@ -8104,7 +8192,7 @@
         <v>129.24</v>
       </c>
       <c r="AN9">
-        <v>124.03</v>
+        <v>124.01</v>
       </c>
       <c r="AO9">
         <v>135.52000000000001</v>
@@ -8125,7 +8213,7 @@
         <v>164.33</v>
       </c>
       <c r="AU9">
-        <v>133.69999999999999</v>
+        <v>133.72</v>
       </c>
       <c r="AV9">
         <v>110.42</v>
@@ -8164,13 +8252,13 @@
         <v>121.73</v>
       </c>
       <c r="BH9">
-        <v>134.57</v>
+        <v>134.55000000000001</v>
       </c>
       <c r="BI9">
-        <v>137.38</v>
+        <v>137.36000000000001</v>
       </c>
       <c r="BJ9">
-        <v>120.3</v>
+        <v>120.28</v>
       </c>
       <c r="BK9">
         <v>97.93</v>
@@ -8212,33 +8300,36 @@
         <v>7.03</v>
       </c>
       <c r="BX9">
-        <v>8.39</v>
+        <v>8.41</v>
       </c>
       <c r="BY9">
         <v>12.59</v>
       </c>
       <c r="BZ9">
-        <v>17.3</v>
+        <v>17.32</v>
       </c>
       <c r="CA9">
-        <v>26.26</v>
+        <v>26.29</v>
       </c>
       <c r="CB9">
-        <v>32.44</v>
+        <v>32.46</v>
       </c>
       <c r="CC9">
-        <v>33.22</v>
+        <v>33.229999999999997</v>
       </c>
       <c r="CD9">
-        <v>30.3</v>
+        <v>30.31</v>
       </c>
       <c r="CE9">
-        <v>28.83</v>
+        <v>28.98</v>
+      </c>
+      <c r="CF9">
+        <v>31.94</v>
       </c>
     </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10">
         <v>1.1299999999999999</v>
@@ -8247,7 +8338,7 @@
         <v>11.12</v>
       </c>
       <c r="D10">
-        <v>38.409999999999997</v>
+        <v>38.4</v>
       </c>
       <c r="E10">
         <v>53.33</v>
@@ -8265,13 +8356,13 @@
         <v>15.73</v>
       </c>
       <c r="J10">
-        <v>8.89</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="K10">
         <v>7.55</v>
       </c>
       <c r="L10">
-        <v>5.34</v>
+        <v>5.33</v>
       </c>
       <c r="M10">
         <v>3.9</v>
@@ -8328,7 +8419,7 @@
         <v>11.28</v>
       </c>
       <c r="AE10">
-        <v>12.85</v>
+        <v>12.87</v>
       </c>
       <c r="AF10">
         <v>16.43</v>
@@ -8355,7 +8446,7 @@
         <v>152.27000000000001</v>
       </c>
       <c r="AN10">
-        <v>146.57</v>
+        <v>146.59</v>
       </c>
       <c r="AO10">
         <v>154.11000000000001</v>
@@ -8376,7 +8467,7 @@
         <v>182.95</v>
       </c>
       <c r="AU10">
-        <v>148.9</v>
+        <v>148.88999999999999</v>
       </c>
       <c r="AV10">
         <v>123.73</v>
@@ -8385,7 +8476,7 @@
         <v>104.03</v>
       </c>
       <c r="AX10">
-        <v>86.22</v>
+        <v>86.21</v>
       </c>
       <c r="AY10">
         <v>66.91</v>
@@ -8415,19 +8506,19 @@
         <v>143.71</v>
       </c>
       <c r="BH10">
-        <v>158.27000000000001</v>
+        <v>158.28</v>
       </c>
       <c r="BI10">
         <v>163.6</v>
       </c>
       <c r="BJ10">
-        <v>147.34</v>
+        <v>147.31</v>
       </c>
       <c r="BK10">
         <v>116.03</v>
       </c>
       <c r="BL10">
-        <v>79.099999999999994</v>
+        <v>79.05</v>
       </c>
       <c r="BM10">
         <v>53.06</v>
@@ -8436,7 +8527,7 @@
         <v>28.63</v>
       </c>
       <c r="BO10">
-        <v>18.66</v>
+        <v>18.64</v>
       </c>
       <c r="BP10">
         <v>11.79</v>
@@ -8445,7 +8536,7 @@
         <v>5.4</v>
       </c>
       <c r="BR10">
-        <v>3.64</v>
+        <v>3.62</v>
       </c>
       <c r="BS10">
         <v>3.41</v>
@@ -8472,24 +8563,27 @@
         <v>26.75</v>
       </c>
       <c r="CA10">
-        <v>35.619999999999997</v>
+        <v>35.64</v>
       </c>
       <c r="CB10">
         <v>40.24</v>
       </c>
       <c r="CC10">
-        <v>42.82</v>
+        <v>42.87</v>
       </c>
       <c r="CD10">
-        <v>38.549999999999997</v>
+        <v>38.619999999999997</v>
       </c>
       <c r="CE10">
-        <v>36.619999999999997</v>
+        <v>36.97</v>
+      </c>
+      <c r="CF10">
+        <v>40.729999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B11">
         <v>1.98</v>
@@ -8522,7 +8616,7 @@
         <v>7.76</v>
       </c>
       <c r="L11">
-        <v>5.6</v>
+        <v>5.59</v>
       </c>
       <c r="M11">
         <v>3.74</v>
@@ -8597,10 +8691,10 @@
         <v>145.55000000000001</v>
       </c>
       <c r="AK11">
-        <v>163.38999999999999</v>
+        <v>163.41</v>
       </c>
       <c r="AL11">
-        <v>163.88</v>
+        <v>163.87</v>
       </c>
       <c r="AM11">
         <v>161.6</v>
@@ -8630,7 +8724,7 @@
         <v>146.25</v>
       </c>
       <c r="AV11">
-        <v>121.89</v>
+        <v>121.9</v>
       </c>
       <c r="AW11">
         <v>99.47</v>
@@ -8654,13 +8748,13 @@
         <v>88</v>
       </c>
       <c r="BD11">
-        <v>112.23</v>
+        <v>112.25</v>
       </c>
       <c r="BE11">
-        <v>139.34</v>
+        <v>139.37</v>
       </c>
       <c r="BF11">
-        <v>135.96</v>
+        <v>135.97</v>
       </c>
       <c r="BG11">
         <v>148.34</v>
@@ -8669,13 +8763,13 @@
         <v>165.61</v>
       </c>
       <c r="BI11">
-        <v>173.54</v>
+        <v>173.53</v>
       </c>
       <c r="BJ11">
-        <v>151.19999999999999</v>
+        <v>151.16</v>
       </c>
       <c r="BK11">
-        <v>119.49</v>
+        <v>119.46</v>
       </c>
       <c r="BL11">
         <v>81.61</v>
@@ -8714,13 +8808,13 @@
         <v>12.24</v>
       </c>
       <c r="BX11">
-        <v>14.53</v>
+        <v>14.5</v>
       </c>
       <c r="BY11">
-        <v>24.46</v>
+        <v>24.48</v>
       </c>
       <c r="BZ11">
-        <v>37.729999999999997</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="CA11">
         <v>49.64</v>
@@ -8729,18 +8823,21 @@
         <v>55.47</v>
       </c>
       <c r="CC11">
-        <v>54.96</v>
+        <v>54.99</v>
       </c>
       <c r="CD11">
-        <v>49.58</v>
+        <v>49.55</v>
       </c>
       <c r="CE11">
-        <v>42.71</v>
+        <v>43.1</v>
+      </c>
+      <c r="CF11">
+        <v>48.58</v>
       </c>
     </row>
-    <row r="12" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B12">
         <v>1.88</v>
@@ -8758,7 +8855,7 @@
         <v>51.39</v>
       </c>
       <c r="G12">
-        <v>36.33</v>
+        <v>36.31</v>
       </c>
       <c r="H12">
         <v>22.22</v>
@@ -8770,7 +8867,7 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="K12">
-        <v>8.51</v>
+        <v>8.5</v>
       </c>
       <c r="L12">
         <v>6.3</v>
@@ -8842,10 +8939,10 @@
         <v>59.17</v>
       </c>
       <c r="AI12">
-        <v>110.39</v>
+        <v>110.37</v>
       </c>
       <c r="AJ12">
-        <v>159.22</v>
+        <v>159.22999999999999</v>
       </c>
       <c r="AK12">
         <v>179.68</v>
@@ -8854,7 +8951,7 @@
         <v>176.09</v>
       </c>
       <c r="AM12">
-        <v>183.47</v>
+        <v>183.45</v>
       </c>
       <c r="AN12">
         <v>171.75</v>
@@ -8881,7 +8978,7 @@
         <v>150.83000000000001</v>
       </c>
       <c r="AV12">
-        <v>123.07</v>
+        <v>123.05</v>
       </c>
       <c r="AW12">
         <v>100.6</v>
@@ -8908,10 +9005,10 @@
         <v>123.56</v>
       </c>
       <c r="BE12">
-        <v>154.72</v>
+        <v>154.74</v>
       </c>
       <c r="BF12">
-        <v>151.63</v>
+        <v>151.65</v>
       </c>
       <c r="BG12">
         <v>166.35</v>
@@ -8920,22 +9017,22 @@
         <v>192.8</v>
       </c>
       <c r="BI12">
-        <v>202.36</v>
+        <v>202.32</v>
       </c>
       <c r="BJ12">
-        <v>171.14</v>
+        <v>171.09</v>
       </c>
       <c r="BK12">
-        <v>141.16</v>
+        <v>141.13999999999999</v>
       </c>
       <c r="BL12">
         <v>96.33</v>
       </c>
       <c r="BM12">
-        <v>68</v>
+        <v>68.02</v>
       </c>
       <c r="BN12">
-        <v>39.42</v>
+        <v>39.409999999999997</v>
       </c>
       <c r="BO12">
         <v>24.77</v>
@@ -8968,30 +9065,33 @@
         <v>22.28</v>
       </c>
       <c r="BY12">
-        <v>36.92</v>
+        <v>36.9</v>
       </c>
       <c r="BZ12">
-        <v>58.71</v>
+        <v>58.77</v>
       </c>
       <c r="CA12">
         <v>77.88</v>
       </c>
       <c r="CB12">
-        <v>87.63</v>
+        <v>87.71</v>
       </c>
       <c r="CC12">
-        <v>86.06</v>
+        <v>86.07</v>
       </c>
       <c r="CD12">
-        <v>71.790000000000006</v>
+        <v>71.849999999999994</v>
       </c>
       <c r="CE12">
-        <v>62.28</v>
+        <v>63.13</v>
+      </c>
+      <c r="CF12">
+        <v>66.05</v>
       </c>
     </row>
-    <row r="13" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B13">
         <v>1.73</v>
@@ -9000,7 +9100,7 @@
         <v>11.53</v>
       </c>
       <c r="D13">
-        <v>36.630000000000003</v>
+        <v>36.61</v>
       </c>
       <c r="E13">
         <v>47.3</v>
@@ -9009,7 +9109,7 @@
         <v>47.02</v>
       </c>
       <c r="G13">
-        <v>34.119999999999997</v>
+        <v>34.1</v>
       </c>
       <c r="H13">
         <v>20.76</v>
@@ -9027,10 +9127,10 @@
         <v>7.27</v>
       </c>
       <c r="M13">
-        <v>4.93</v>
+        <v>4.91</v>
       </c>
       <c r="N13">
-        <v>4.34</v>
+        <v>4.32</v>
       </c>
       <c r="O13">
         <v>3.56</v>
@@ -9081,7 +9181,7 @@
         <v>17.21</v>
       </c>
       <c r="AE13">
-        <v>17.52</v>
+        <v>17.54</v>
       </c>
       <c r="AF13">
         <v>21.43</v>
@@ -9093,10 +9193,10 @@
         <v>59.16</v>
       </c>
       <c r="AI13">
-        <v>108.11</v>
+        <v>108.13</v>
       </c>
       <c r="AJ13">
-        <v>160.56</v>
+        <v>160.54</v>
       </c>
       <c r="AK13">
         <v>180.83</v>
@@ -9105,10 +9205,10 @@
         <v>183.19</v>
       </c>
       <c r="AM13">
-        <v>188.35</v>
+        <v>188.33</v>
       </c>
       <c r="AN13">
-        <v>179.42</v>
+        <v>179.4</v>
       </c>
       <c r="AO13">
         <v>179.55</v>
@@ -9117,10 +9217,10 @@
         <v>222.14</v>
       </c>
       <c r="AQ13">
-        <v>244.26</v>
+        <v>244.24</v>
       </c>
       <c r="AR13">
-        <v>193.79</v>
+        <v>193.77</v>
       </c>
       <c r="AS13">
         <v>163.58000000000001</v>
@@ -9129,7 +9229,7 @@
         <v>194.48</v>
       </c>
       <c r="AU13">
-        <v>153.91999999999999</v>
+        <v>153.9</v>
       </c>
       <c r="AV13">
         <v>126.91</v>
@@ -9150,7 +9250,7 @@
         <v>84.25</v>
       </c>
       <c r="BB13">
-        <v>87.06</v>
+        <v>87.04</v>
       </c>
       <c r="BC13">
         <v>108.9</v>
@@ -9165,25 +9265,25 @@
         <v>169.57</v>
       </c>
       <c r="BG13">
-        <v>189.06</v>
+        <v>189.04</v>
       </c>
       <c r="BH13">
         <v>218.5</v>
       </c>
       <c r="BI13">
-        <v>220.47</v>
+        <v>220.49</v>
       </c>
       <c r="BJ13">
-        <v>195.05</v>
+        <v>194.99</v>
       </c>
       <c r="BK13">
-        <v>157.44</v>
+        <v>157.47</v>
       </c>
       <c r="BL13">
-        <v>108.62</v>
+        <v>108.64</v>
       </c>
       <c r="BM13">
-        <v>81.14</v>
+        <v>81.12</v>
       </c>
       <c r="BN13">
         <v>44.9</v>
@@ -9195,13 +9295,13 @@
         <v>21.94</v>
       </c>
       <c r="BQ13">
-        <v>10.74</v>
+        <v>10.76</v>
       </c>
       <c r="BR13">
         <v>7.21</v>
       </c>
       <c r="BS13">
-        <v>5.5</v>
+        <v>5.48</v>
       </c>
       <c r="BT13">
         <v>7.03</v>
@@ -9216,33 +9316,36 @@
         <v>20.11</v>
       </c>
       <c r="BX13">
-        <v>29.46</v>
+        <v>29.44</v>
       </c>
       <c r="BY13">
-        <v>47.89</v>
+        <v>47.91</v>
       </c>
       <c r="BZ13">
-        <v>76.489999999999995</v>
+        <v>76.47</v>
       </c>
       <c r="CA13">
-        <v>105.5</v>
+        <v>105.54</v>
       </c>
       <c r="CB13">
-        <v>115.93</v>
+        <v>115.91</v>
       </c>
       <c r="CC13">
-        <v>110.45</v>
+        <v>110.41</v>
       </c>
       <c r="CD13">
-        <v>90.49</v>
+        <v>90.63</v>
       </c>
       <c r="CE13">
-        <v>78.569999999999993</v>
+        <v>79.36</v>
+      </c>
+      <c r="CF13">
+        <v>84.8</v>
       </c>
     </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B14">
         <v>1.27</v>
@@ -9323,16 +9426,16 @@
         <v>13.54</v>
       </c>
       <c r="AB14">
-        <v>12.21</v>
+        <v>12.19</v>
       </c>
       <c r="AC14">
         <v>13.22</v>
       </c>
       <c r="AD14">
-        <v>17.13</v>
+        <v>17.11</v>
       </c>
       <c r="AE14">
-        <v>19.079999999999998</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="AF14">
         <v>21.8</v>
@@ -9344,7 +9447,7 @@
         <v>58.59</v>
       </c>
       <c r="AI14">
-        <v>101.87</v>
+        <v>101.85</v>
       </c>
       <c r="AJ14">
         <v>152.82</v>
@@ -9356,7 +9459,7 @@
         <v>173.77</v>
       </c>
       <c r="AM14">
-        <v>173.86</v>
+        <v>173.88</v>
       </c>
       <c r="AN14">
         <v>164.79</v>
@@ -9383,7 +9486,7 @@
         <v>151.35</v>
       </c>
       <c r="AV14">
-        <v>119.89</v>
+        <v>119.9</v>
       </c>
       <c r="AW14">
         <v>98.22</v>
@@ -9401,7 +9504,7 @@
         <v>79.05</v>
       </c>
       <c r="BB14">
-        <v>86.5</v>
+        <v>86.48</v>
       </c>
       <c r="BC14">
         <v>108.9</v>
@@ -9413,22 +9516,22 @@
         <v>178.87</v>
       </c>
       <c r="BF14">
-        <v>169.86</v>
+        <v>169.87</v>
       </c>
       <c r="BG14">
         <v>179.31</v>
       </c>
       <c r="BH14">
-        <v>213.02</v>
+        <v>213.04</v>
       </c>
       <c r="BI14">
-        <v>213.23</v>
+        <v>213.25</v>
       </c>
       <c r="BJ14">
-        <v>189.46</v>
+        <v>189.42</v>
       </c>
       <c r="BK14">
-        <v>150.66999999999999</v>
+        <v>150.68</v>
       </c>
       <c r="BL14">
         <v>106.33</v>
@@ -9440,10 +9543,10 @@
         <v>45.6</v>
       </c>
       <c r="BO14">
-        <v>31.99</v>
+        <v>31.97</v>
       </c>
       <c r="BP14">
-        <v>20.78</v>
+        <v>20.8</v>
       </c>
       <c r="BQ14">
         <v>10.32</v>
@@ -9470,30 +9573,33 @@
         <v>30.1</v>
       </c>
       <c r="BY14">
-        <v>46.25</v>
+        <v>46.21</v>
       </c>
       <c r="BZ14">
-        <v>71.180000000000007</v>
+        <v>71.22</v>
       </c>
       <c r="CA14">
-        <v>99.49</v>
+        <v>99.52</v>
       </c>
       <c r="CB14">
-        <v>113.33</v>
+        <v>113.38</v>
       </c>
       <c r="CC14">
-        <v>109.6</v>
+        <v>109.62</v>
       </c>
       <c r="CD14">
-        <v>90.9</v>
+        <v>90.98</v>
       </c>
       <c r="CE14">
-        <v>79.41</v>
+        <v>80.14</v>
+      </c>
+      <c r="CF14">
+        <v>85.36</v>
       </c>
     </row>
-    <row r="15" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B15">
         <v>1.26</v>
@@ -9559,13 +9665,13 @@
         <v>6.95</v>
       </c>
       <c r="W15">
-        <v>7.72</v>
+        <v>7.7</v>
       </c>
       <c r="X15">
         <v>9.39</v>
       </c>
       <c r="Y15">
-        <v>12.88</v>
+        <v>12.9</v>
       </c>
       <c r="Z15">
         <v>17.2</v>
@@ -9583,7 +9689,7 @@
         <v>21.94</v>
       </c>
       <c r="AE15">
-        <v>23.69</v>
+        <v>23.71</v>
       </c>
       <c r="AF15">
         <v>27.69</v>
@@ -9601,13 +9707,13 @@
         <v>174.23</v>
       </c>
       <c r="AK15">
-        <v>190.62</v>
+        <v>190.6</v>
       </c>
       <c r="AL15">
-        <v>190.75</v>
+        <v>190.77</v>
       </c>
       <c r="AM15">
-        <v>183.51</v>
+        <v>183.49</v>
       </c>
       <c r="AN15">
         <v>170.42</v>
@@ -9616,7 +9722,7 @@
         <v>172.33</v>
       </c>
       <c r="AP15">
-        <v>209.65</v>
+        <v>209.67</v>
       </c>
       <c r="AQ15">
         <v>237.04</v>
@@ -9631,7 +9737,7 @@
         <v>211.09</v>
       </c>
       <c r="AU15">
-        <v>164.64</v>
+        <v>164.62</v>
       </c>
       <c r="AV15">
         <v>127.7</v>
@@ -9649,7 +9755,7 @@
         <v>74.86</v>
       </c>
       <c r="BA15">
-        <v>82.41</v>
+        <v>82.39</v>
       </c>
       <c r="BB15">
         <v>89.01</v>
@@ -9658,19 +9764,19 @@
         <v>109.47</v>
       </c>
       <c r="BD15">
-        <v>143.63999999999999</v>
+        <v>143.66</v>
       </c>
       <c r="BE15">
         <v>179.56</v>
       </c>
       <c r="BF15">
-        <v>173.08</v>
+        <v>173.06</v>
       </c>
       <c r="BG15">
         <v>184.4</v>
       </c>
       <c r="BH15">
-        <v>218.61</v>
+        <v>218.59</v>
       </c>
       <c r="BI15">
         <v>215.68</v>
@@ -9679,7 +9785,7 @@
         <v>190.26</v>
       </c>
       <c r="BK15">
-        <v>150.63</v>
+        <v>150.59</v>
       </c>
       <c r="BL15">
         <v>106.79</v>
@@ -9688,10 +9794,10 @@
         <v>82.59</v>
       </c>
       <c r="BN15">
-        <v>50</v>
+        <v>49.98</v>
       </c>
       <c r="BO15">
-        <v>31.86</v>
+        <v>31.84</v>
       </c>
       <c r="BP15">
         <v>21.54</v>
@@ -9700,7 +9806,7 @@
         <v>11.48</v>
       </c>
       <c r="BR15">
-        <v>7.64</v>
+        <v>7.62</v>
       </c>
       <c r="BS15">
         <v>7.79</v>
@@ -9718,13 +9824,13 @@
         <v>27.55</v>
       </c>
       <c r="BX15">
-        <v>37.74</v>
+        <v>37.76</v>
       </c>
       <c r="BY15">
-        <v>55.42</v>
+        <v>55.41</v>
       </c>
       <c r="BZ15">
-        <v>79.7</v>
+        <v>79.75</v>
       </c>
       <c r="CA15">
         <v>108.76</v>
@@ -9733,18 +9839,21 @@
         <v>119.71</v>
       </c>
       <c r="CC15">
-        <v>113.22</v>
+        <v>113.23</v>
       </c>
       <c r="CD15">
-        <v>92.65</v>
+        <v>92.82</v>
       </c>
       <c r="CE15">
-        <v>82.7</v>
+        <v>83.48</v>
+      </c>
+      <c r="CF15">
+        <v>86.05</v>
       </c>
     </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16">
         <v>1.5</v>
@@ -9765,7 +9874,7 @@
         <v>38.130000000000003</v>
       </c>
       <c r="H16">
-        <v>25.38</v>
+        <v>25.36</v>
       </c>
       <c r="I16">
         <v>19.61</v>
@@ -9816,7 +9925,7 @@
         <v>11.9</v>
       </c>
       <c r="Y16">
-        <v>16.510000000000002</v>
+        <v>16.53</v>
       </c>
       <c r="Z16">
         <v>23.51</v>
@@ -9831,7 +9940,7 @@
         <v>24.2</v>
       </c>
       <c r="AD16">
-        <v>29.21</v>
+        <v>29.19</v>
       </c>
       <c r="AE16">
         <v>28.3</v>
@@ -9849,16 +9958,16 @@
         <v>144.35</v>
       </c>
       <c r="AJ16">
-        <v>203.78</v>
+        <v>203.8</v>
       </c>
       <c r="AK16">
         <v>219.73</v>
       </c>
       <c r="AL16">
-        <v>210.52</v>
+        <v>210.54</v>
       </c>
       <c r="AM16">
-        <v>195.43</v>
+        <v>195.45</v>
       </c>
       <c r="AN16">
         <v>177.3</v>
@@ -9867,19 +9976,19 @@
         <v>180.33</v>
       </c>
       <c r="AP16">
-        <v>212.48</v>
+        <v>212.46</v>
       </c>
       <c r="AQ16">
         <v>238.55</v>
       </c>
       <c r="AR16">
-        <v>185.83</v>
+        <v>185.81</v>
       </c>
       <c r="AS16">
         <v>165.99</v>
       </c>
       <c r="AT16">
-        <v>212.4</v>
+        <v>212.38</v>
       </c>
       <c r="AU16">
         <v>168.21</v>
@@ -9909,10 +10018,10 @@
         <v>107.7</v>
       </c>
       <c r="BD16">
-        <v>138.19999999999999</v>
+        <v>138.18</v>
       </c>
       <c r="BE16">
-        <v>165.57</v>
+        <v>165.55</v>
       </c>
       <c r="BF16">
         <v>165.1</v>
@@ -9957,7 +10066,7 @@
         <v>9.74</v>
       </c>
       <c r="BT16">
-        <v>15.55</v>
+        <v>15.53</v>
       </c>
       <c r="BU16">
         <v>26.15</v>
@@ -9972,30 +10081,33 @@
         <v>47.35</v>
       </c>
       <c r="BY16">
-        <v>70.75</v>
+        <v>70.73</v>
       </c>
       <c r="BZ16">
-        <v>99.1</v>
+        <v>99.04</v>
       </c>
       <c r="CA16">
-        <v>124.58</v>
+        <v>124.56</v>
       </c>
       <c r="CB16">
-        <v>123.99</v>
+        <v>123.91</v>
       </c>
       <c r="CC16">
-        <v>119.26</v>
+        <v>119.32</v>
       </c>
       <c r="CD16">
-        <v>96.54</v>
+        <v>96.52</v>
       </c>
       <c r="CE16">
-        <v>80.23</v>
+        <v>80.989999999999995</v>
+      </c>
+      <c r="CF16">
+        <v>83.16</v>
       </c>
     </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B17">
         <v>1.52</v>
@@ -10010,10 +10122,10 @@
         <v>49.24</v>
       </c>
       <c r="F17">
-        <v>48.61</v>
+        <v>48.63</v>
       </c>
       <c r="G17">
-        <v>37.5</v>
+        <v>37.47</v>
       </c>
       <c r="H17">
         <v>26.6</v>
@@ -10088,7 +10200,7 @@
         <v>34.369999999999997</v>
       </c>
       <c r="AF17">
-        <v>37.630000000000003</v>
+        <v>37.65</v>
       </c>
       <c r="AG17">
         <v>60.52</v>
@@ -10097,13 +10209,13 @@
         <v>95.2</v>
       </c>
       <c r="AI17">
-        <v>164.16</v>
+        <v>164.18</v>
       </c>
       <c r="AJ17">
-        <v>225.87</v>
+        <v>225.85</v>
       </c>
       <c r="AK17">
-        <v>254.56</v>
+        <v>254.53</v>
       </c>
       <c r="AL17">
         <v>239.3</v>
@@ -10118,7 +10230,7 @@
         <v>199.16</v>
       </c>
       <c r="AP17">
-        <v>234.18</v>
+        <v>234.16</v>
       </c>
       <c r="AQ17">
         <v>262.48</v>
@@ -10136,7 +10248,7 @@
         <v>185.27</v>
       </c>
       <c r="AV17">
-        <v>139.61000000000001</v>
+        <v>139.59</v>
       </c>
       <c r="AW17">
         <v>113.7</v>
@@ -10145,13 +10257,13 @@
         <v>94.98</v>
       </c>
       <c r="AY17">
-        <v>79.459999999999994</v>
+        <v>79.48</v>
       </c>
       <c r="AZ17">
         <v>85.63</v>
       </c>
       <c r="BA17">
-        <v>91.09</v>
+        <v>91.12</v>
       </c>
       <c r="BB17">
         <v>95.52</v>
@@ -10160,7 +10272,7 @@
         <v>117.65</v>
       </c>
       <c r="BD17">
-        <v>149.83000000000001</v>
+        <v>149.81</v>
       </c>
       <c r="BE17">
         <v>185.59</v>
@@ -10172,10 +10284,10 @@
         <v>212.65</v>
       </c>
       <c r="BH17">
-        <v>250.56</v>
+        <v>250.61</v>
       </c>
       <c r="BI17">
-        <v>244.51</v>
+        <v>244.49</v>
       </c>
       <c r="BJ17">
         <v>208.79</v>
@@ -10196,7 +10308,7 @@
         <v>37.630000000000003</v>
       </c>
       <c r="BP17">
-        <v>26.1</v>
+        <v>26.08</v>
       </c>
       <c r="BQ17">
         <v>13.58</v>
@@ -10205,10 +10317,10 @@
         <v>9.5299999999999994</v>
       </c>
       <c r="BS17">
-        <v>12.02</v>
+        <v>12</v>
       </c>
       <c r="BT17">
-        <v>19.16</v>
+        <v>19.18</v>
       </c>
       <c r="BU17">
         <v>32.700000000000003</v>
@@ -10220,33 +10332,36 @@
         <v>50.52</v>
       </c>
       <c r="BX17">
-        <v>60.52</v>
+        <v>60.54</v>
       </c>
       <c r="BY17">
-        <v>96.15</v>
+        <v>96.11</v>
       </c>
       <c r="BZ17">
-        <v>125.44</v>
+        <v>125.49</v>
       </c>
       <c r="CA17">
         <v>149.29</v>
       </c>
       <c r="CB17">
-        <v>148.16</v>
+        <v>148.18</v>
       </c>
       <c r="CC17">
-        <v>135.1</v>
+        <v>135.04</v>
       </c>
       <c r="CD17">
-        <v>107.13</v>
+        <v>107.35</v>
       </c>
       <c r="CE17">
-        <v>88.36</v>
+        <v>89.38</v>
+      </c>
+      <c r="CF17">
+        <v>87.58</v>
       </c>
     </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B18">
         <v>1.1200000000000001</v>
@@ -10276,7 +10391,7 @@
         <v>6.7</v>
       </c>
       <c r="K18">
-        <v>6.6</v>
+        <v>6.57</v>
       </c>
       <c r="L18">
         <v>4.67</v>
@@ -10381,7 +10496,7 @@
         <v>125.79</v>
       </c>
       <c r="AT18">
-        <v>161.96</v>
+        <v>161.99</v>
       </c>
       <c r="AU18">
         <v>136.78</v>
@@ -10426,16 +10541,16 @@
         <v>274.67</v>
       </c>
       <c r="BI18">
-        <v>262.39</v>
+        <v>262.41000000000003</v>
       </c>
       <c r="BJ18">
-        <v>219.81</v>
+        <v>219.76</v>
       </c>
       <c r="BK18">
         <v>179.02</v>
       </c>
       <c r="BL18">
-        <v>125.46</v>
+        <v>125.4</v>
       </c>
       <c r="BM18">
         <v>98.57</v>
@@ -10471,33 +10586,36 @@
         <v>46.76</v>
       </c>
       <c r="BX18">
-        <v>60.11</v>
+        <v>60.14</v>
       </c>
       <c r="BY18">
-        <v>88.9</v>
+        <v>88.95</v>
       </c>
       <c r="BZ18">
-        <v>141.44999999999999</v>
+        <v>141.5</v>
       </c>
       <c r="CA18">
-        <v>176.71</v>
+        <v>176.81</v>
       </c>
       <c r="CB18">
-        <v>197.35</v>
+        <v>197.32</v>
       </c>
       <c r="CC18">
-        <v>173.66</v>
+        <v>173.69</v>
       </c>
       <c r="CD18">
-        <v>143.15</v>
+        <v>143.25</v>
       </c>
       <c r="CE18">
-        <v>116.42</v>
+        <v>117.46</v>
+      </c>
+      <c r="CF18">
+        <v>115.25</v>
       </c>
     </row>
-    <row r="19" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B19">
         <v>0.51</v>
@@ -10584,7 +10702,7 @@
         <v>13.45</v>
       </c>
       <c r="AD19">
-        <v>13.96</v>
+        <v>13.99</v>
       </c>
       <c r="AE19">
         <v>15.77</v>
@@ -10599,10 +10717,10 @@
         <v>44.61</v>
       </c>
       <c r="AI19">
-        <v>74.180000000000007</v>
+        <v>74.16</v>
       </c>
       <c r="AJ19">
-        <v>110.24</v>
+        <v>110.26</v>
       </c>
       <c r="AK19">
         <v>129.16999999999999</v>
@@ -10614,7 +10732,7 @@
         <v>143.1</v>
       </c>
       <c r="AN19">
-        <v>140.02000000000001</v>
+        <v>140</v>
       </c>
       <c r="AO19">
         <v>139.19</v>
@@ -10632,10 +10750,10 @@
         <v>71.59</v>
       </c>
       <c r="AT19">
-        <v>89.9</v>
+        <v>89.93</v>
       </c>
       <c r="AU19">
-        <v>73.37</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="AV19">
         <v>60.17</v>
@@ -10650,10 +10768,10 @@
         <v>38.049999999999997</v>
       </c>
       <c r="AZ19">
-        <v>42.37</v>
+        <v>42.35</v>
       </c>
       <c r="BA19">
-        <v>50.74</v>
+        <v>50.72</v>
       </c>
       <c r="BB19">
         <v>62.33</v>
@@ -10686,7 +10804,7 @@
         <v>165.33</v>
       </c>
       <c r="BL19">
-        <v>123.42</v>
+        <v>123.36</v>
       </c>
       <c r="BM19">
         <v>101.6</v>
@@ -10698,7 +10816,7 @@
         <v>42.67</v>
       </c>
       <c r="BP19">
-        <v>35.65</v>
+        <v>35.67</v>
       </c>
       <c r="BQ19">
         <v>17.899999999999999</v>
@@ -10716,7 +10834,7 @@
         <v>14.39</v>
       </c>
       <c r="BV19">
-        <v>21.09</v>
+        <v>21.12</v>
       </c>
       <c r="BW19">
         <v>26.92</v>
@@ -10725,30 +10843,33 @@
         <v>40.24</v>
       </c>
       <c r="BY19">
-        <v>70.319999999999993</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="BZ19">
         <v>144.80000000000001</v>
       </c>
       <c r="CA19">
-        <v>186.8</v>
+        <v>186.85</v>
       </c>
       <c r="CB19">
-        <v>226.93</v>
+        <v>227.04</v>
       </c>
       <c r="CC19">
-        <v>208.78</v>
+        <v>208.86</v>
       </c>
       <c r="CD19">
-        <v>197.12</v>
+        <v>197.3</v>
       </c>
       <c r="CE19">
-        <v>167.87</v>
+        <v>169.6</v>
+      </c>
+      <c r="CF19">
+        <v>178.08</v>
       </c>
     </row>
-    <row r="20" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B20">
         <v>0.27</v>
@@ -10835,7 +10956,7 @@
         <v>8.7200000000000006</v>
       </c>
       <c r="AD20">
-        <v>9.58</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="AE20">
         <v>10.46</v>
@@ -10865,7 +10986,7 @@
         <v>105.13</v>
       </c>
       <c r="AN20">
-        <v>102.44</v>
+        <v>102.47</v>
       </c>
       <c r="AO20">
         <v>98.79</v>
@@ -10886,10 +11007,10 @@
         <v>64.180000000000007</v>
       </c>
       <c r="AU20">
-        <v>58.87</v>
+        <v>58.84</v>
       </c>
       <c r="AV20">
-        <v>51.06</v>
+        <v>51.09</v>
       </c>
       <c r="AW20">
         <v>44.06</v>
@@ -10931,7 +11052,7 @@
         <v>225.87</v>
       </c>
       <c r="BJ20">
-        <v>184.39</v>
+        <v>184.41</v>
       </c>
       <c r="BK20">
         <v>149.32</v>
@@ -10940,7 +11061,7 @@
         <v>110.38</v>
       </c>
       <c r="BM20">
-        <v>91.6</v>
+        <v>91.63</v>
       </c>
       <c r="BN20">
         <v>50.31</v>
@@ -10964,7 +11085,7 @@
         <v>5.58</v>
       </c>
       <c r="BU20">
-        <v>8.67</v>
+        <v>8.69</v>
       </c>
       <c r="BV20">
         <v>12.8</v>
@@ -10976,30 +11097,33 @@
         <v>30.96</v>
       </c>
       <c r="BY20">
-        <v>49.37</v>
+        <v>49.34</v>
       </c>
       <c r="BZ20">
-        <v>99.73</v>
+        <v>99.71</v>
       </c>
       <c r="CA20">
-        <v>150.01</v>
+        <v>150.04</v>
       </c>
       <c r="CB20">
-        <v>187.98</v>
+        <v>188.03</v>
       </c>
       <c r="CC20">
-        <v>176.74</v>
+        <v>176.63</v>
       </c>
       <c r="CD20">
-        <v>157.29</v>
+        <v>157.66</v>
       </c>
       <c r="CE20">
-        <v>139.44</v>
+        <v>141.72</v>
+      </c>
+      <c r="CF20">
+        <v>142.37</v>
       </c>
     </row>
-    <row r="21" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B21">
         <v>0.23</v>
@@ -11098,7 +11222,7 @@
         <v>13.18</v>
       </c>
       <c r="AH21">
-        <v>22.44</v>
+        <v>22.47</v>
       </c>
       <c r="AI21">
         <v>36.78</v>
@@ -11110,7 +11234,7 @@
         <v>60.91</v>
       </c>
       <c r="AL21">
-        <v>60.89</v>
+        <v>60.86</v>
       </c>
       <c r="AM21">
         <v>60.08</v>
@@ -11119,10 +11243,10 @@
         <v>58.46</v>
       </c>
       <c r="AO21">
-        <v>58.11</v>
+        <v>58.09</v>
       </c>
       <c r="AP21">
-        <v>67.05</v>
+        <v>67.069999999999993</v>
       </c>
       <c r="AQ21">
         <v>78.05</v>
@@ -11131,7 +11255,7 @@
         <v>53.14</v>
       </c>
       <c r="AS21">
-        <v>38.47</v>
+        <v>38.5</v>
       </c>
       <c r="AT21">
         <v>47.96</v>
@@ -11164,13 +11288,13 @@
         <v>75.5</v>
       </c>
       <c r="BD21">
-        <v>102.21</v>
+        <v>102.19</v>
       </c>
       <c r="BE21">
         <v>126.8</v>
       </c>
       <c r="BF21">
-        <v>112.71</v>
+        <v>112.74</v>
       </c>
       <c r="BG21">
         <v>101.63</v>
@@ -11182,10 +11306,10 @@
         <v>140.76</v>
       </c>
       <c r="BJ21">
-        <v>127.78</v>
+        <v>127.73</v>
       </c>
       <c r="BK21">
-        <v>103.83</v>
+        <v>103.8</v>
       </c>
       <c r="BL21">
         <v>74.900000000000006</v>
@@ -11227,29 +11351,32 @@
         <v>19.13</v>
       </c>
       <c r="BY21">
-        <v>31.13</v>
+        <v>31.15</v>
       </c>
       <c r="BZ21">
         <v>47.1</v>
       </c>
       <c r="CA21">
-        <v>74.72</v>
+        <v>74.67</v>
       </c>
       <c r="CB21">
-        <v>86.28</v>
+        <v>86.26</v>
       </c>
       <c r="CC21">
-        <v>88.4</v>
+        <v>88.35</v>
       </c>
       <c r="CD21">
-        <v>71.67</v>
+        <v>71.59</v>
       </c>
       <c r="CE21">
-        <v>57.93</v>
+        <v>58.72</v>
+      </c>
+      <c r="CF21">
+        <v>55.28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/source/Altersverteilung.xlsx
+++ b/data/source/Altersverteilung.xlsx
@@ -3,25 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EED6278-5C11-493E-9466-DA3EDDC3F9C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FF7FA1-426A-4A65-B76C-50D022D8B3E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{93B83DCF-AD6A-481E-8EFD-13B59779BF73}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fallzahlen" sheetId="2" r:id="rId1"/>
-    <sheet name="7-Tages-Inzidenz" sheetId="3" r:id="rId2"/>
+    <sheet name="Fallzahlen" sheetId="1" r:id="rId1"/>
+    <sheet name="7-Tage-Inzidenz" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="105">
   <si>
     <t>Altersgruppe</t>
   </si>
@@ -275,6 +270,9 @@
     <t>2021_39</t>
   </si>
   <si>
+    <t>2021_40</t>
+  </si>
+  <si>
     <t>Gesamt</t>
   </si>
   <si>
@@ -339,7 +337,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,16 +345,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -364,16 +662,206 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -684,17 +1172,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491FABCF-4DEC-4E74-AC55-C3A5F29FA232}">
-  <dimension ref="A1:CF21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.54296875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -946,10 +1437,13 @@
       <c r="CF1" t="s">
         <v>83</v>
       </c>
+      <c r="CG1" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>84</v>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B2">
         <v>899</v>
@@ -961,13 +1455,13 @@
         <v>22388</v>
       </c>
       <c r="E2">
-        <v>33966</v>
+        <v>33967</v>
       </c>
       <c r="F2">
         <v>36048</v>
       </c>
       <c r="G2">
-        <v>27133</v>
+        <v>27132</v>
       </c>
       <c r="H2">
         <v>17328</v>
@@ -982,13 +1476,13 @@
         <v>6233</v>
       </c>
       <c r="L2">
-        <v>4761</v>
+        <v>4758</v>
       </c>
       <c r="M2">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="N2">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="O2">
         <v>2351</v>
@@ -1000,7 +1494,7 @@
         <v>4190</v>
       </c>
       <c r="R2">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="S2">
         <v>2686</v>
@@ -1027,97 +1521,97 @@
         <v>9595</v>
       </c>
       <c r="AA2">
-        <v>8828</v>
+        <v>8827</v>
       </c>
       <c r="AB2">
-        <v>8613</v>
+        <v>8614</v>
       </c>
       <c r="AC2">
-        <v>9761</v>
+        <v>9760</v>
       </c>
       <c r="AD2">
-        <v>12290</v>
+        <v>12288</v>
       </c>
       <c r="AE2">
-        <v>13061</v>
+        <v>13062</v>
       </c>
       <c r="AF2">
-        <v>15923</v>
+        <v>15922</v>
       </c>
       <c r="AG2">
-        <v>26110</v>
+        <v>26111</v>
       </c>
       <c r="AH2">
-        <v>42066</v>
+        <v>42060</v>
       </c>
       <c r="AI2">
-        <v>74873</v>
+        <v>74870</v>
       </c>
       <c r="AJ2">
-        <v>111008</v>
+        <v>111015</v>
       </c>
       <c r="AK2">
-        <v>125727</v>
+        <v>125721</v>
       </c>
       <c r="AL2">
-        <v>127774</v>
+        <v>127773</v>
       </c>
       <c r="AM2">
-        <v>128360</v>
+        <v>128356</v>
       </c>
       <c r="AN2">
-        <v>123156</v>
+        <v>123159</v>
       </c>
       <c r="AO2">
-        <v>128350</v>
+        <v>128351</v>
       </c>
       <c r="AP2">
-        <v>156290</v>
+        <v>156288</v>
       </c>
       <c r="AQ2">
-        <v>174700</v>
+        <v>174698</v>
       </c>
       <c r="AR2">
-        <v>138948</v>
+        <v>138942</v>
       </c>
       <c r="AS2">
-        <v>123071</v>
+        <v>123073</v>
       </c>
       <c r="AT2">
-        <v>145439</v>
+        <v>145442</v>
       </c>
       <c r="AU2">
-        <v>118893</v>
+        <v>118896</v>
       </c>
       <c r="AV2">
-        <v>95517</v>
+        <v>95518</v>
       </c>
       <c r="AW2">
-        <v>78125</v>
+        <v>78126</v>
       </c>
       <c r="AX2">
-        <v>64557</v>
+        <v>64558</v>
       </c>
       <c r="AY2">
-        <v>50808</v>
+        <v>50807</v>
       </c>
       <c r="AZ2">
         <v>52388</v>
       </c>
       <c r="BA2">
-        <v>56349</v>
+        <v>56350</v>
       </c>
       <c r="BB2">
-        <v>58363</v>
+        <v>58368</v>
       </c>
       <c r="BC2">
         <v>71306</v>
       </c>
       <c r="BD2">
-        <v>92576</v>
+        <v>92580</v>
       </c>
       <c r="BE2">
-        <v>116266</v>
+        <v>116268</v>
       </c>
       <c r="BF2">
         <v>110097</v>
@@ -1126,84 +1620,87 @@
         <v>118264</v>
       </c>
       <c r="BH2">
-        <v>142049</v>
+        <v>142055</v>
       </c>
       <c r="BI2">
-        <v>144750</v>
+        <v>144749</v>
       </c>
       <c r="BJ2">
         <v>124790</v>
       </c>
       <c r="BK2">
-        <v>100985</v>
+        <v>100988</v>
       </c>
       <c r="BL2">
         <v>70823</v>
       </c>
       <c r="BM2">
-        <v>52694</v>
+        <v>52693</v>
       </c>
       <c r="BN2">
-        <v>29874</v>
+        <v>29870</v>
       </c>
       <c r="BO2">
-        <v>20674</v>
+        <v>20671</v>
       </c>
       <c r="BP2">
-        <v>14029</v>
+        <v>14027</v>
       </c>
       <c r="BQ2">
-        <v>7263</v>
+        <v>7264</v>
       </c>
       <c r="BR2">
         <v>4817</v>
       </c>
       <c r="BS2">
-        <v>4348</v>
+        <v>4350</v>
       </c>
       <c r="BT2">
-        <v>5562</v>
+        <v>5565</v>
       </c>
       <c r="BU2">
         <v>9091</v>
       </c>
       <c r="BV2">
-        <v>12616</v>
+        <v>12617</v>
       </c>
       <c r="BW2">
-        <v>15489</v>
+        <v>15490</v>
       </c>
       <c r="BX2">
         <v>20393</v>
       </c>
       <c r="BY2">
-        <v>32030</v>
+        <v>32040</v>
       </c>
       <c r="BZ2">
-        <v>49586</v>
+        <v>49598</v>
       </c>
       <c r="CA2">
-        <v>66279</v>
+        <v>66277</v>
       </c>
       <c r="CB2">
-        <v>74628</v>
+        <v>74639</v>
       </c>
       <c r="CC2">
-        <v>71602</v>
+        <v>71608</v>
       </c>
       <c r="CD2">
-        <v>61394</v>
+        <v>61385</v>
       </c>
       <c r="CE2">
-        <v>53542</v>
+        <v>53564</v>
       </c>
       <c r="CF2">
-        <v>56000</v>
+        <v>56395</v>
+      </c>
+      <c r="CG2">
+        <v>57438</v>
       </c>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>85</v>
+    <row r="3" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1326,13 +1823,13 @@
         <v>4193</v>
       </c>
       <c r="AP3">
-        <v>5402</v>
+        <v>5401</v>
       </c>
       <c r="AQ3">
-        <v>5970</v>
+        <v>5969</v>
       </c>
       <c r="AR3">
-        <v>5235</v>
+        <v>5236</v>
       </c>
       <c r="AS3">
         <v>4979</v>
@@ -1344,7 +1841,7 @@
         <v>5018</v>
       </c>
       <c r="AV3">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="AW3">
         <v>2874</v>
@@ -1443,21 +1940,24 @@
         <v>336</v>
       </c>
       <c r="CC3">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="CD3">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="CE3">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="CF3">
-        <v>326</v>
+        <v>325</v>
+      </c>
+      <c r="CG3">
+        <v>394</v>
       </c>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>86</v>
+    <row r="4" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -1586,13 +2086,13 @@
         <v>6936</v>
       </c>
       <c r="AR4">
-        <v>5822</v>
+        <v>5823</v>
       </c>
       <c r="AS4">
         <v>5584</v>
       </c>
       <c r="AT4">
-        <v>6065</v>
+        <v>6066</v>
       </c>
       <c r="AU4">
         <v>5557</v>
@@ -1628,7 +2128,7 @@
         <v>1260</v>
       </c>
       <c r="BF4">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="BG4">
         <v>1072</v>
@@ -1679,7 +2179,7 @@
         <v>50</v>
       </c>
       <c r="BW4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BX4">
         <v>85</v>
@@ -1700,18 +2200,21 @@
         <v>508</v>
       </c>
       <c r="CD4">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="CE4">
         <v>453</v>
       </c>
       <c r="CF4">
-        <v>529</v>
+        <v>530</v>
+      </c>
+      <c r="CG4">
+        <v>580</v>
       </c>
     </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>87</v>
+    <row r="5" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -1834,13 +2337,13 @@
         <v>5445</v>
       </c>
       <c r="AP5">
-        <v>7074</v>
+        <v>7073</v>
       </c>
       <c r="AQ5">
-        <v>8256</v>
+        <v>8255</v>
       </c>
       <c r="AR5">
-        <v>7408</v>
+        <v>7407</v>
       </c>
       <c r="AS5">
         <v>6867</v>
@@ -1873,10 +2376,10 @@
         <v>1550</v>
       </c>
       <c r="BC5">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="BD5">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="BE5">
         <v>2128</v>
@@ -1945,27 +2448,30 @@
         <v>296</v>
       </c>
       <c r="CA5">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="CB5">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="CC5">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="CD5">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="CE5">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="CF5">
-        <v>895</v>
+        <v>904</v>
+      </c>
+      <c r="CG5">
+        <v>980</v>
       </c>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>88</v>
+    <row r="6" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -2106,7 +2612,7 @@
         <v>4310</v>
       </c>
       <c r="AV6">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="AW6">
         <v>2815</v>
@@ -2118,7 +2624,7 @@
         <v>1701</v>
       </c>
       <c r="AZ6">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="BA6">
         <v>1570</v>
@@ -2148,7 +2654,7 @@
         <v>2488</v>
       </c>
       <c r="BJ6">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="BK6">
         <v>1665</v>
@@ -2205,21 +2711,24 @@
         <v>540</v>
       </c>
       <c r="CC6">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="CD6">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="CE6">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="CF6">
-        <v>707</v>
+        <v>711</v>
+      </c>
+      <c r="CG6">
+        <v>733</v>
       </c>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>89</v>
+    <row r="7" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -2321,7 +2830,7 @@
         <v>934</v>
       </c>
       <c r="AI7">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="AJ7">
         <v>2881</v>
@@ -2360,7 +2869,7 @@
         <v>3664</v>
       </c>
       <c r="AV7">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="AW7">
         <v>2480</v>
@@ -2393,7 +2902,7 @@
         <v>2903</v>
       </c>
       <c r="BG7">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="BH7">
         <v>3611</v>
@@ -2405,13 +2914,13 @@
         <v>2878</v>
       </c>
       <c r="BK7">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="BL7">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="BM7">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="BN7">
         <v>583</v>
@@ -2453,10 +2962,10 @@
         <v>392</v>
       </c>
       <c r="CA7">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="CB7">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="CC7">
         <v>818</v>
@@ -2465,15 +2974,18 @@
         <v>756</v>
       </c>
       <c r="CE7">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="CF7">
-        <v>851</v>
+        <v>859</v>
+      </c>
+      <c r="CG7">
+        <v>1015</v>
       </c>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>90</v>
+    <row r="8" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B8">
         <v>25</v>
@@ -2575,7 +3087,7 @@
         <v>1282</v>
       </c>
       <c r="AI8">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="AJ8">
         <v>3551</v>
@@ -2596,10 +3108,10 @@
         <v>4117</v>
       </c>
       <c r="AP8">
-        <v>5172</v>
+        <v>5171</v>
       </c>
       <c r="AQ8">
-        <v>6352</v>
+        <v>6351</v>
       </c>
       <c r="AR8">
         <v>5586</v>
@@ -2632,7 +3144,7 @@
         <v>2120</v>
       </c>
       <c r="BB8">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="BC8">
         <v>2302</v>
@@ -2659,7 +3171,7 @@
         <v>3972</v>
       </c>
       <c r="BK8">
-        <v>3293</v>
+        <v>3291</v>
       </c>
       <c r="BL8">
         <v>2318</v>
@@ -2707,27 +3219,30 @@
         <v>593</v>
       </c>
       <c r="CA8">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="CB8">
         <v>995</v>
       </c>
       <c r="CC8">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="CD8">
         <v>1048</v>
       </c>
       <c r="CE8">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="CF8">
-        <v>1084</v>
+        <v>1092</v>
+      </c>
+      <c r="CG8">
+        <v>1377</v>
       </c>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>91</v>
+    <row r="9" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B9">
         <v>63</v>
@@ -2826,7 +3341,7 @@
         <v>1273</v>
       </c>
       <c r="AH9">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="AI9">
         <v>3959</v>
@@ -2859,16 +3374,16 @@
         <v>9180</v>
       </c>
       <c r="AS9">
-        <v>8263</v>
+        <v>8264</v>
       </c>
       <c r="AT9">
         <v>9281</v>
       </c>
       <c r="AU9">
-        <v>7552</v>
+        <v>7551</v>
       </c>
       <c r="AV9">
-        <v>6236</v>
+        <v>6237</v>
       </c>
       <c r="AW9">
         <v>5122</v>
@@ -2895,7 +3410,7 @@
         <v>5308</v>
       </c>
       <c r="BE9">
-        <v>6570</v>
+        <v>6571</v>
       </c>
       <c r="BF9">
         <v>6406</v>
@@ -2925,7 +3440,7 @@
         <v>1343</v>
       </c>
       <c r="BO9">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="BP9">
         <v>558</v>
@@ -2964,24 +3479,27 @@
         <v>1485</v>
       </c>
       <c r="CB9">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="CC9">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="CD9">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="CE9">
-        <v>1637</v>
+        <v>1642</v>
       </c>
       <c r="CF9">
-        <v>1804</v>
+        <v>1812</v>
+      </c>
+      <c r="CG9">
+        <v>2130</v>
       </c>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>92</v>
+    <row r="10" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B10">
         <v>76</v>
@@ -3080,13 +3598,13 @@
         <v>1873</v>
       </c>
       <c r="AH10">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="AI10">
         <v>5757</v>
       </c>
       <c r="AJ10">
-        <v>8970</v>
+        <v>8972</v>
       </c>
       <c r="AK10">
         <v>10167</v>
@@ -3095,13 +3613,13 @@
         <v>10295</v>
       </c>
       <c r="AM10">
-        <v>10259</v>
+        <v>10257</v>
       </c>
       <c r="AN10">
         <v>9876</v>
       </c>
       <c r="AO10">
-        <v>10383</v>
+        <v>10384</v>
       </c>
       <c r="AP10">
         <v>13045</v>
@@ -3113,10 +3631,10 @@
         <v>12392</v>
       </c>
       <c r="AS10">
-        <v>11093</v>
+        <v>11092</v>
       </c>
       <c r="AT10">
-        <v>12326</v>
+        <v>12324</v>
       </c>
       <c r="AU10">
         <v>10031</v>
@@ -3146,7 +3664,7 @@
         <v>5713</v>
       </c>
       <c r="BD10">
-        <v>7264</v>
+        <v>7265</v>
       </c>
       <c r="BE10">
         <v>9093</v>
@@ -3155,22 +3673,22 @@
         <v>8947</v>
       </c>
       <c r="BG10">
-        <v>9682</v>
+        <v>9680</v>
       </c>
       <c r="BH10">
-        <v>10664</v>
+        <v>10666</v>
       </c>
       <c r="BI10">
-        <v>11022</v>
+        <v>11021</v>
       </c>
       <c r="BJ10">
-        <v>9925</v>
+        <v>9924</v>
       </c>
       <c r="BK10">
         <v>7817</v>
       </c>
       <c r="BL10">
-        <v>5326</v>
+        <v>5325</v>
       </c>
       <c r="BM10">
         <v>3575</v>
@@ -3206,36 +3724,39 @@
         <v>580</v>
       </c>
       <c r="BX10">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="BY10">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="BZ10">
         <v>1802</v>
       </c>
       <c r="CA10">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="CB10">
         <v>2711</v>
       </c>
       <c r="CC10">
-        <v>2888</v>
+        <v>2890</v>
       </c>
       <c r="CD10">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="CE10">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="CF10">
-        <v>2744</v>
+        <v>2759</v>
+      </c>
+      <c r="CG10">
+        <v>3006</v>
       </c>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>93</v>
+    <row r="11" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B11">
         <v>133</v>
@@ -3268,7 +3789,7 @@
         <v>521</v>
       </c>
       <c r="L11">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M11">
         <v>251</v>
@@ -3286,7 +3807,7 @@
         <v>328</v>
       </c>
       <c r="R11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="S11">
         <v>186</v>
@@ -3340,22 +3861,22 @@
         <v>6420</v>
       </c>
       <c r="AJ11">
-        <v>9767</v>
+        <v>9768</v>
       </c>
       <c r="AK11">
-        <v>10965</v>
+        <v>10964</v>
       </c>
       <c r="AL11">
         <v>10996</v>
       </c>
       <c r="AM11">
-        <v>10844</v>
+        <v>10843</v>
       </c>
       <c r="AN11">
         <v>10331</v>
       </c>
       <c r="AO11">
-        <v>10552</v>
+        <v>10553</v>
       </c>
       <c r="AP11">
         <v>13260</v>
@@ -3364,22 +3885,22 @@
         <v>14919</v>
       </c>
       <c r="AR11">
-        <v>11981</v>
+        <v>11980</v>
       </c>
       <c r="AS11">
         <v>10528</v>
       </c>
       <c r="AT11">
-        <v>12101</v>
+        <v>12103</v>
       </c>
       <c r="AU11">
-        <v>9814</v>
+        <v>9813</v>
       </c>
       <c r="AV11">
         <v>8180</v>
       </c>
       <c r="AW11">
-        <v>6675</v>
+        <v>6676</v>
       </c>
       <c r="AX11">
         <v>5304</v>
@@ -3397,10 +3918,10 @@
         <v>4947</v>
       </c>
       <c r="BC11">
-        <v>5905</v>
+        <v>5904</v>
       </c>
       <c r="BD11">
-        <v>7532</v>
+        <v>7533</v>
       </c>
       <c r="BE11">
         <v>9352</v>
@@ -3409,7 +3930,7 @@
         <v>9124</v>
       </c>
       <c r="BG11">
-        <v>9954</v>
+        <v>9955</v>
       </c>
       <c r="BH11">
         <v>11113</v>
@@ -3418,19 +3939,19 @@
         <v>11644</v>
       </c>
       <c r="BJ11">
-        <v>10143</v>
+        <v>10145</v>
       </c>
       <c r="BK11">
-        <v>8016</v>
+        <v>8018</v>
       </c>
       <c r="BL11">
-        <v>5476</v>
+        <v>5477</v>
       </c>
       <c r="BM11">
         <v>3772</v>
       </c>
       <c r="BN11">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="BO11">
         <v>1354</v>
@@ -3439,13 +3960,13 @@
         <v>823</v>
       </c>
       <c r="BQ11">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BR11">
         <v>298</v>
       </c>
       <c r="BS11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BT11">
         <v>289</v>
@@ -3463,13 +3984,13 @@
         <v>973</v>
       </c>
       <c r="BY11">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="BZ11">
-        <v>2530</v>
+        <v>2535</v>
       </c>
       <c r="CA11">
-        <v>3331</v>
+        <v>3333</v>
       </c>
       <c r="CB11">
         <v>3722</v>
@@ -3478,18 +3999,21 @@
         <v>3690</v>
       </c>
       <c r="CD11">
-        <v>3325</v>
+        <v>3323</v>
       </c>
       <c r="CE11">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="CF11">
-        <v>3260</v>
+        <v>3296</v>
+      </c>
+      <c r="CG11">
+        <v>3435</v>
       </c>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>94</v>
+    <row r="12" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B12">
         <v>99</v>
@@ -3594,10 +4118,10 @@
         <v>5820</v>
       </c>
       <c r="AJ12">
-        <v>8397</v>
+        <v>8398</v>
       </c>
       <c r="AK12">
-        <v>9475</v>
+        <v>9476</v>
       </c>
       <c r="AL12">
         <v>9286</v>
@@ -3609,25 +4133,25 @@
         <v>9057</v>
       </c>
       <c r="AO12">
-        <v>9238</v>
+        <v>9237</v>
       </c>
       <c r="AP12">
         <v>11097</v>
       </c>
       <c r="AQ12">
-        <v>12443</v>
+        <v>12445</v>
       </c>
       <c r="AR12">
         <v>9743</v>
       </c>
       <c r="AS12">
-        <v>8552</v>
+        <v>8553</v>
       </c>
       <c r="AT12">
         <v>9793</v>
       </c>
       <c r="AU12">
-        <v>7954</v>
+        <v>7955</v>
       </c>
       <c r="AV12">
         <v>6489</v>
@@ -3648,10 +4172,10 @@
         <v>4049</v>
       </c>
       <c r="BB12">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="BC12">
-        <v>5186</v>
+        <v>5187</v>
       </c>
       <c r="BD12">
         <v>6516</v>
@@ -3672,10 +4196,10 @@
         <v>10669</v>
       </c>
       <c r="BJ12">
-        <v>9022</v>
+        <v>9024</v>
       </c>
       <c r="BK12">
-        <v>7443</v>
+        <v>7444</v>
       </c>
       <c r="BL12">
         <v>5080</v>
@@ -3714,36 +4238,39 @@
         <v>910</v>
       </c>
       <c r="BX12">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="BY12">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="BZ12">
-        <v>3099</v>
+        <v>3101</v>
       </c>
       <c r="CA12">
-        <v>4107</v>
+        <v>4105</v>
       </c>
       <c r="CB12">
-        <v>4625</v>
+        <v>4626</v>
       </c>
       <c r="CC12">
         <v>4539</v>
       </c>
       <c r="CD12">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="CE12">
-        <v>3329</v>
+        <v>3332</v>
       </c>
       <c r="CF12">
-        <v>3483</v>
+        <v>3501</v>
+      </c>
+      <c r="CG12">
+        <v>3765</v>
       </c>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>95</v>
+    <row r="13" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="B13">
         <v>85</v>
@@ -3830,16 +4357,16 @@
         <v>685</v>
       </c>
       <c r="AD13">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AE13">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="AF13">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AG13">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="AH13">
         <v>2904</v>
@@ -3851,7 +4378,7 @@
         <v>7881</v>
       </c>
       <c r="AK13">
-        <v>8877</v>
+        <v>8875</v>
       </c>
       <c r="AL13">
         <v>8993</v>
@@ -3863,7 +4390,7 @@
         <v>8807</v>
       </c>
       <c r="AO13">
-        <v>8814</v>
+        <v>8815</v>
       </c>
       <c r="AP13">
         <v>10905</v>
@@ -3872,19 +4399,19 @@
         <v>11990</v>
       </c>
       <c r="AR13">
-        <v>9512</v>
+        <v>9511</v>
       </c>
       <c r="AS13">
-        <v>8030</v>
+        <v>8031</v>
       </c>
       <c r="AT13">
         <v>9547</v>
       </c>
       <c r="AU13">
-        <v>7555</v>
+        <v>7557</v>
       </c>
       <c r="AV13">
-        <v>6230</v>
+        <v>6231</v>
       </c>
       <c r="AW13">
         <v>5120</v>
@@ -3896,13 +4423,13 @@
         <v>3464</v>
       </c>
       <c r="AZ13">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="BA13">
         <v>4136</v>
       </c>
       <c r="BB13">
-        <v>4273</v>
+        <v>4274</v>
       </c>
       <c r="BC13">
         <v>5346</v>
@@ -3911,7 +4438,7 @@
         <v>6982</v>
       </c>
       <c r="BE13">
-        <v>9085</v>
+        <v>9084</v>
       </c>
       <c r="BF13">
         <v>8324</v>
@@ -3923,13 +4450,13 @@
         <v>10726</v>
       </c>
       <c r="BI13">
-        <v>10824</v>
+        <v>10825</v>
       </c>
       <c r="BJ13">
-        <v>9572</v>
+        <v>9573</v>
       </c>
       <c r="BK13">
-        <v>7730</v>
+        <v>7731</v>
       </c>
       <c r="BL13">
         <v>5333</v>
@@ -3938,7 +4465,7 @@
         <v>3982</v>
       </c>
       <c r="BN13">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="BO13">
         <v>1596</v>
@@ -3965,7 +4492,7 @@
         <v>735</v>
       </c>
       <c r="BW13">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="BX13">
         <v>1445</v>
@@ -3974,7 +4501,7 @@
         <v>2352</v>
       </c>
       <c r="BZ13">
-        <v>3754</v>
+        <v>3755</v>
       </c>
       <c r="CA13">
         <v>5181</v>
@@ -3983,21 +4510,24 @@
         <v>5690</v>
       </c>
       <c r="CC13">
-        <v>5420</v>
+        <v>5419</v>
       </c>
       <c r="CD13">
-        <v>4449</v>
+        <v>4451</v>
       </c>
       <c r="CE13">
-        <v>3896</v>
+        <v>3903</v>
       </c>
       <c r="CF13">
-        <v>4163</v>
+        <v>4195</v>
+      </c>
+      <c r="CG13">
+        <v>4350</v>
       </c>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>96</v>
+    <row r="14" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="B14">
         <v>67</v>
@@ -4099,22 +4629,22 @@
         <v>3099</v>
       </c>
       <c r="AI14">
-        <v>5387</v>
+        <v>5386</v>
       </c>
       <c r="AJ14">
         <v>8083</v>
       </c>
       <c r="AK14">
-        <v>8958</v>
+        <v>8957</v>
       </c>
       <c r="AL14">
         <v>9191</v>
       </c>
       <c r="AM14">
-        <v>9197</v>
+        <v>9196</v>
       </c>
       <c r="AN14">
-        <v>8716</v>
+        <v>8718</v>
       </c>
       <c r="AO14">
         <v>9146</v>
@@ -4126,13 +4656,13 @@
         <v>12228</v>
       </c>
       <c r="AR14">
-        <v>9523</v>
+        <v>9522</v>
       </c>
       <c r="AS14">
-        <v>8080</v>
+        <v>8081</v>
       </c>
       <c r="AT14">
-        <v>10146</v>
+        <v>10147</v>
       </c>
       <c r="AU14">
         <v>8005</v>
@@ -4171,19 +4701,19 @@
         <v>8985</v>
       </c>
       <c r="BG14">
-        <v>9484</v>
+        <v>9483</v>
       </c>
       <c r="BH14">
-        <v>11268</v>
+        <v>11269</v>
       </c>
       <c r="BI14">
         <v>11279</v>
       </c>
       <c r="BJ14">
-        <v>10019</v>
+        <v>10018</v>
       </c>
       <c r="BK14">
-        <v>7970</v>
+        <v>7969</v>
       </c>
       <c r="BL14">
         <v>5624</v>
@@ -4222,36 +4752,39 @@
         <v>1166</v>
       </c>
       <c r="BX14">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="BY14">
-        <v>2444</v>
+        <v>2447</v>
       </c>
       <c r="BZ14">
-        <v>3767</v>
+        <v>3768</v>
       </c>
       <c r="CA14">
-        <v>5264</v>
+        <v>5263</v>
       </c>
       <c r="CB14">
-        <v>5997</v>
+        <v>5999</v>
       </c>
       <c r="CC14">
         <v>5798</v>
       </c>
       <c r="CD14">
-        <v>4812</v>
+        <v>4816</v>
       </c>
       <c r="CE14">
-        <v>4239</v>
+        <v>4235</v>
       </c>
       <c r="CF14">
-        <v>4515</v>
+        <v>4539</v>
+      </c>
+      <c r="CG14">
+        <v>4691</v>
       </c>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>97</v>
+    <row r="15" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="B15">
         <v>69</v>
@@ -4266,10 +4799,10 @@
         <v>2635</v>
       </c>
       <c r="F15">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="G15">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="H15">
         <v>1206</v>
@@ -4350,19 +4883,19 @@
         <v>2359</v>
       </c>
       <c r="AH15">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="AI15">
-        <v>6717</v>
+        <v>6716</v>
       </c>
       <c r="AJ15">
-        <v>9575</v>
+        <v>9574</v>
       </c>
       <c r="AK15">
         <v>10475</v>
       </c>
       <c r="AL15">
-        <v>10484</v>
+        <v>10483</v>
       </c>
       <c r="AM15">
         <v>10084</v>
@@ -4407,7 +4940,7 @@
         <v>4114</v>
       </c>
       <c r="BA15">
-        <v>4528</v>
+        <v>4529</v>
       </c>
       <c r="BB15">
         <v>4892</v>
@@ -4416,28 +4949,28 @@
         <v>6016</v>
       </c>
       <c r="BD15">
-        <v>7895</v>
+        <v>7894</v>
       </c>
       <c r="BE15">
-        <v>9868</v>
+        <v>9870</v>
       </c>
       <c r="BF15">
         <v>9511</v>
       </c>
       <c r="BG15">
-        <v>10134</v>
+        <v>10136</v>
       </c>
       <c r="BH15">
-        <v>12013</v>
+        <v>12014</v>
       </c>
       <c r="BI15">
         <v>11853</v>
       </c>
       <c r="BJ15">
-        <v>10456</v>
+        <v>10453</v>
       </c>
       <c r="BK15">
-        <v>8276</v>
+        <v>8277</v>
       </c>
       <c r="BL15">
         <v>5869</v>
@@ -4446,7 +4979,7 @@
         <v>4539</v>
       </c>
       <c r="BN15">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="BO15">
         <v>1750</v>
@@ -4470,7 +5003,7 @@
         <v>869</v>
       </c>
       <c r="BV15">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="BW15">
         <v>1514</v>
@@ -4482,30 +5015,33 @@
         <v>3045</v>
       </c>
       <c r="BZ15">
-        <v>4383</v>
+        <v>4384</v>
       </c>
       <c r="CA15">
         <v>5977</v>
       </c>
       <c r="CB15">
-        <v>6579</v>
+        <v>6581</v>
       </c>
       <c r="CC15">
-        <v>6223</v>
+        <v>6222</v>
       </c>
       <c r="CD15">
-        <v>5101</v>
+        <v>5097</v>
       </c>
       <c r="CE15">
-        <v>4588</v>
+        <v>4602</v>
       </c>
       <c r="CF15">
-        <v>4729</v>
+        <v>4766</v>
+      </c>
+      <c r="CG15">
+        <v>4787</v>
       </c>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>98</v>
+    <row r="16" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="B16">
         <v>76</v>
@@ -4541,10 +5077,10 @@
         <v>391</v>
       </c>
       <c r="M16">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N16">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O16">
         <v>222</v>
@@ -4562,7 +5098,7 @@
         <v>314</v>
       </c>
       <c r="T16">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U16">
         <v>309</v>
@@ -4589,10 +5125,10 @@
         <v>1162</v>
       </c>
       <c r="AC16">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AD16">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="AE16">
         <v>1436</v>
@@ -4604,28 +5140,28 @@
         <v>2686</v>
       </c>
       <c r="AH16">
-        <v>4474</v>
+        <v>4473</v>
       </c>
       <c r="AI16">
-        <v>7325</v>
+        <v>7324</v>
       </c>
       <c r="AJ16">
-        <v>10342</v>
+        <v>10344</v>
       </c>
       <c r="AK16">
-        <v>11150</v>
+        <v>11148</v>
       </c>
       <c r="AL16">
         <v>10684</v>
       </c>
       <c r="AM16">
-        <v>9918</v>
+        <v>9917</v>
       </c>
       <c r="AN16">
         <v>8997</v>
       </c>
       <c r="AO16">
-        <v>9151</v>
+        <v>9150</v>
       </c>
       <c r="AP16">
         <v>10781</v>
@@ -4634,7 +5170,7 @@
         <v>12105</v>
       </c>
       <c r="AR16">
-        <v>9429</v>
+        <v>9428</v>
       </c>
       <c r="AS16">
         <v>8423</v>
@@ -4643,7 +5179,7 @@
         <v>10777</v>
       </c>
       <c r="AU16">
-        <v>8536</v>
+        <v>8537</v>
       </c>
       <c r="AV16">
         <v>6393</v>
@@ -4670,7 +5206,7 @@
         <v>5465</v>
       </c>
       <c r="BD16">
-        <v>7012</v>
+        <v>7013</v>
       </c>
       <c r="BE16">
         <v>8401</v>
@@ -4679,34 +5215,34 @@
         <v>8378</v>
       </c>
       <c r="BG16">
-        <v>9213</v>
+        <v>9214</v>
       </c>
       <c r="BH16">
-        <v>10899</v>
+        <v>10900</v>
       </c>
       <c r="BI16">
-        <v>10795</v>
+        <v>10794</v>
       </c>
       <c r="BJ16">
-        <v>9220</v>
+        <v>9219</v>
       </c>
       <c r="BK16">
-        <v>7451</v>
+        <v>7452</v>
       </c>
       <c r="BL16">
-        <v>5178</v>
+        <v>5177</v>
       </c>
       <c r="BM16">
-        <v>3943</v>
+        <v>3944</v>
       </c>
       <c r="BN16">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="BO16">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="BP16">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="BQ16">
         <v>619</v>
@@ -4727,39 +5263,42 @@
         <v>1733</v>
       </c>
       <c r="BW16">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="BX16">
         <v>2403</v>
       </c>
       <c r="BY16">
-        <v>3589</v>
+        <v>3590</v>
       </c>
       <c r="BZ16">
         <v>5026</v>
       </c>
       <c r="CA16">
-        <v>6321</v>
+        <v>6323</v>
       </c>
       <c r="CB16">
-        <v>6288</v>
+        <v>6285</v>
       </c>
       <c r="CC16">
         <v>6055</v>
       </c>
       <c r="CD16">
-        <v>4898</v>
+        <v>4894</v>
       </c>
       <c r="CE16">
-        <v>4110</v>
+        <v>4114</v>
       </c>
       <c r="CF16">
-        <v>4220</v>
+        <v>4249</v>
+      </c>
+      <c r="CG16">
+        <v>4249</v>
       </c>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>99</v>
+    <row r="17" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="B17">
         <v>70</v>
@@ -4774,7 +5313,7 @@
         <v>2269</v>
       </c>
       <c r="F17">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="G17">
         <v>1727</v>
@@ -4840,7 +5379,7 @@
         <v>1329</v>
       </c>
       <c r="AB17">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="AC17">
         <v>1283</v>
@@ -4858,7 +5397,7 @@
         <v>2789</v>
       </c>
       <c r="AH17">
-        <v>4387</v>
+        <v>4386</v>
       </c>
       <c r="AI17">
         <v>7566</v>
@@ -4867,7 +5406,7 @@
         <v>10408</v>
       </c>
       <c r="AK17">
-        <v>11730</v>
+        <v>11729</v>
       </c>
       <c r="AL17">
         <v>11028</v>
@@ -4879,7 +5418,7 @@
         <v>8940</v>
       </c>
       <c r="AO17">
-        <v>9178</v>
+        <v>9179</v>
       </c>
       <c r="AP17">
         <v>10791</v>
@@ -4888,19 +5427,19 @@
         <v>12096</v>
       </c>
       <c r="AR17">
-        <v>9069</v>
+        <v>9066</v>
       </c>
       <c r="AS17">
-        <v>8588</v>
+        <v>8587</v>
       </c>
       <c r="AT17">
-        <v>10890</v>
+        <v>10891</v>
       </c>
       <c r="AU17">
-        <v>8538</v>
+        <v>8539</v>
       </c>
       <c r="AV17">
-        <v>6433</v>
+        <v>6434</v>
       </c>
       <c r="AW17">
         <v>5240</v>
@@ -4909,7 +5448,7 @@
         <v>4377</v>
       </c>
       <c r="AY17">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="AZ17">
         <v>3946</v>
@@ -4921,13 +5460,13 @@
         <v>4402</v>
       </c>
       <c r="BC17">
-        <v>5422</v>
+        <v>5423</v>
       </c>
       <c r="BD17">
         <v>6904</v>
       </c>
       <c r="BE17">
-        <v>8553</v>
+        <v>8554</v>
       </c>
       <c r="BF17">
         <v>8505</v>
@@ -4936,7 +5475,7 @@
         <v>9800</v>
       </c>
       <c r="BH17">
-        <v>11549</v>
+        <v>11550</v>
       </c>
       <c r="BI17">
         <v>11267</v>
@@ -4945,13 +5484,13 @@
         <v>9622</v>
       </c>
       <c r="BK17">
-        <v>7834</v>
+        <v>7833</v>
       </c>
       <c r="BL17">
-        <v>5586</v>
+        <v>5585</v>
       </c>
       <c r="BM17">
-        <v>4184</v>
+        <v>4180</v>
       </c>
       <c r="BN17">
         <v>2414</v>
@@ -4972,48 +5511,51 @@
         <v>553</v>
       </c>
       <c r="BT17">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="BU17">
         <v>1507</v>
       </c>
       <c r="BV17">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="BW17">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="BX17">
-        <v>2790</v>
+        <v>2791</v>
       </c>
       <c r="BY17">
-        <v>4429</v>
+        <v>4428</v>
       </c>
       <c r="BZ17">
         <v>5783</v>
       </c>
       <c r="CA17">
-        <v>6880</v>
+        <v>6879</v>
       </c>
       <c r="CB17">
-        <v>6829</v>
+        <v>6835</v>
       </c>
       <c r="CC17">
         <v>6223</v>
       </c>
       <c r="CD17">
-        <v>4947</v>
+        <v>4948</v>
       </c>
       <c r="CE17">
         <v>4119</v>
       </c>
       <c r="CF17">
-        <v>4036</v>
+        <v>4075</v>
+      </c>
+      <c r="CG17">
+        <v>4124</v>
       </c>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>100</v>
+    <row r="18" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B18">
         <v>44</v>
@@ -5112,13 +5654,13 @@
         <v>2069</v>
       </c>
       <c r="AH18">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="AI18">
         <v>4862</v>
       </c>
       <c r="AJ18">
-        <v>7189</v>
+        <v>7190</v>
       </c>
       <c r="AK18">
         <v>8409</v>
@@ -5127,22 +5669,22 @@
         <v>8716</v>
       </c>
       <c r="AM18">
-        <v>8209</v>
+        <v>8210</v>
       </c>
       <c r="AN18">
-        <v>7458</v>
+        <v>7459</v>
       </c>
       <c r="AO18">
         <v>7712</v>
       </c>
       <c r="AP18">
-        <v>8817</v>
+        <v>8818</v>
       </c>
       <c r="AQ18">
         <v>8474</v>
       </c>
       <c r="AR18">
-        <v>5875</v>
+        <v>5876</v>
       </c>
       <c r="AS18">
         <v>4955</v>
@@ -5160,7 +5702,7 @@
         <v>3471</v>
       </c>
       <c r="AX18">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="AY18">
         <v>2378</v>
@@ -5184,19 +5726,19 @@
         <v>7187</v>
       </c>
       <c r="BF18">
-        <v>6609</v>
+        <v>6608</v>
       </c>
       <c r="BG18">
         <v>7547</v>
       </c>
       <c r="BH18">
-        <v>10820</v>
+        <v>10821</v>
       </c>
       <c r="BI18">
         <v>10337</v>
       </c>
       <c r="BJ18">
-        <v>8657</v>
+        <v>8656</v>
       </c>
       <c r="BK18">
         <v>7052</v>
@@ -5223,7 +5765,7 @@
         <v>443</v>
       </c>
       <c r="BS18">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="BT18">
         <v>580</v>
@@ -5235,39 +5777,42 @@
         <v>1613</v>
       </c>
       <c r="BW18">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="BX18">
         <v>2369</v>
       </c>
       <c r="BY18">
-        <v>3504</v>
+        <v>3506</v>
       </c>
       <c r="BZ18">
-        <v>5574</v>
+        <v>5576</v>
       </c>
       <c r="CA18">
-        <v>6965</v>
+        <v>6967</v>
       </c>
       <c r="CB18">
-        <v>7773</v>
+        <v>7776</v>
       </c>
       <c r="CC18">
-        <v>6842</v>
+        <v>6844</v>
       </c>
       <c r="CD18">
-        <v>5643</v>
+        <v>5644</v>
       </c>
       <c r="CE18">
-        <v>4627</v>
+        <v>4625</v>
       </c>
       <c r="CF18">
-        <v>4540</v>
+        <v>4574</v>
+      </c>
+      <c r="CG18">
+        <v>4496</v>
       </c>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -5279,7 +5824,7 @@
         <v>254</v>
       </c>
       <c r="E19">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F19">
         <v>430</v>
@@ -5300,7 +5845,7 @@
         <v>126</v>
       </c>
       <c r="L19">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M19">
         <v>107</v>
@@ -5345,7 +5890,7 @@
         <v>575</v>
       </c>
       <c r="AA19">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AB19">
         <v>434</v>
@@ -5360,7 +5905,7 @@
         <v>584</v>
       </c>
       <c r="AF19">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AG19">
         <v>1140</v>
@@ -5372,7 +5917,7 @@
         <v>2746</v>
       </c>
       <c r="AJ19">
-        <v>4083</v>
+        <v>4084</v>
       </c>
       <c r="AK19">
         <v>4783</v>
@@ -5396,7 +5941,7 @@
         <v>5284</v>
       </c>
       <c r="AR19">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="AS19">
         <v>2651</v>
@@ -5429,7 +5974,7 @@
         <v>2308</v>
       </c>
       <c r="BC19">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="BD19">
         <v>4181</v>
@@ -5447,22 +5992,22 @@
         <v>7658</v>
       </c>
       <c r="BI19">
-        <v>8734</v>
+        <v>8736</v>
       </c>
       <c r="BJ19">
         <v>7173</v>
       </c>
       <c r="BK19">
-        <v>6122</v>
+        <v>6123</v>
       </c>
       <c r="BL19">
-        <v>4568</v>
+        <v>4569</v>
       </c>
       <c r="BM19">
         <v>3762</v>
       </c>
       <c r="BN19">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="BO19">
         <v>1580</v>
@@ -5480,7 +6025,7 @@
         <v>309</v>
       </c>
       <c r="BT19">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="BU19">
         <v>533</v>
@@ -5492,10 +6037,10 @@
         <v>997</v>
       </c>
       <c r="BX19">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="BY19">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="BZ19">
         <v>5362</v>
@@ -5504,24 +6049,27 @@
         <v>6919</v>
       </c>
       <c r="CB19">
-        <v>8407</v>
+        <v>8406</v>
       </c>
       <c r="CC19">
-        <v>7734</v>
+        <v>7732</v>
       </c>
       <c r="CD19">
-        <v>7306</v>
+        <v>7309</v>
       </c>
       <c r="CE19">
-        <v>6280</v>
+        <v>6285</v>
       </c>
       <c r="CF19">
-        <v>6594</v>
+        <v>6651</v>
+      </c>
+      <c r="CG19">
+        <v>6425</v>
       </c>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -5578,7 +6126,7 @@
         <v>121</v>
       </c>
       <c r="T20">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U20">
         <v>137</v>
@@ -5614,7 +6162,7 @@
         <v>390</v>
       </c>
       <c r="AF20">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG20">
         <v>622</v>
@@ -5641,7 +6189,7 @@
         <v>3819</v>
       </c>
       <c r="AO20">
-        <v>3682</v>
+        <v>3681</v>
       </c>
       <c r="AP20">
         <v>4259</v>
@@ -5680,16 +6228,16 @@
         <v>2004</v>
       </c>
       <c r="BB20">
-        <v>2724</v>
+        <v>2726</v>
       </c>
       <c r="BC20">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="BD20">
-        <v>4762</v>
+        <v>4763</v>
       </c>
       <c r="BE20">
-        <v>6699</v>
+        <v>6698</v>
       </c>
       <c r="BF20">
         <v>5191</v>
@@ -5701,28 +6249,28 @@
         <v>6995</v>
       </c>
       <c r="BI20">
-        <v>8418</v>
+        <v>8417</v>
       </c>
       <c r="BJ20">
-        <v>6873</v>
+        <v>6874</v>
       </c>
       <c r="BK20">
-        <v>5565</v>
+        <v>5566</v>
       </c>
       <c r="BL20">
-        <v>4114</v>
+        <v>4117</v>
       </c>
       <c r="BM20">
-        <v>3415</v>
+        <v>3416</v>
       </c>
       <c r="BN20">
         <v>1875</v>
       </c>
       <c r="BO20">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="BP20">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="BQ20">
         <v>566</v>
@@ -5749,19 +6297,19 @@
         <v>1154</v>
       </c>
       <c r="BY20">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="BZ20">
         <v>3716</v>
       </c>
       <c r="CA20">
-        <v>5592</v>
+        <v>5591</v>
       </c>
       <c r="CB20">
-        <v>7008</v>
+        <v>7007</v>
       </c>
       <c r="CC20">
-        <v>6583</v>
+        <v>6585</v>
       </c>
       <c r="CD20">
         <v>5876</v>
@@ -5770,12 +6318,15 @@
         <v>5282</v>
       </c>
       <c r="CF20">
-        <v>5306</v>
+        <v>5342</v>
+      </c>
+      <c r="CG20">
+        <v>5017</v>
       </c>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>101</v>
+    <row r="21" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -5901,7 +6452,7 @@
         <v>2657</v>
       </c>
       <c r="AQ21">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="AR21">
         <v>2105</v>
@@ -5916,7 +6467,7 @@
         <v>1856</v>
       </c>
       <c r="AV21">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="AW21">
         <v>1528</v>
@@ -5952,10 +6503,10 @@
         <v>4026</v>
       </c>
       <c r="BH21">
-        <v>5087</v>
+        <v>5086</v>
       </c>
       <c r="BI21">
-        <v>5576</v>
+        <v>5575</v>
       </c>
       <c r="BJ21">
         <v>5060</v>
@@ -5970,7 +6521,7 @@
         <v>2298</v>
       </c>
       <c r="BN21">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="BO21">
         <v>1022</v>
@@ -5994,7 +6545,7 @@
         <v>258</v>
       </c>
       <c r="BV21">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="BW21">
         <v>522</v>
@@ -6009,22 +6560,25 @@
         <v>1866</v>
       </c>
       <c r="CA21">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="CB21">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="CC21">
-        <v>3500</v>
+        <v>3501</v>
       </c>
       <c r="CD21">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="CE21">
-        <v>2326</v>
+        <v>2329</v>
       </c>
       <c r="CF21">
-        <v>2190</v>
+        <v>2201</v>
+      </c>
+      <c r="CG21">
+        <v>1832</v>
       </c>
     </row>
   </sheetData>
@@ -6034,14 +6588,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67402A01-2BE2-415E-9AB2-0D30A2F91CD5}">
-  <dimension ref="A1:CF21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:CG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6294,10 +6850,13 @@
       <c r="CF1" t="s">
         <v>83</v>
       </c>
+      <c r="CG1" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2">
         <v>1.08</v>
@@ -6333,7 +6892,7 @@
         <v>5.72</v>
       </c>
       <c r="M2">
-        <v>4.32</v>
+        <v>4.33</v>
       </c>
       <c r="N2">
         <v>3.85</v>
@@ -6387,19 +6946,19 @@
         <v>14.78</v>
       </c>
       <c r="AE2">
-        <v>15.7</v>
+        <v>15.71</v>
       </c>
       <c r="AF2">
-        <v>19.149999999999999</v>
+        <v>19.14</v>
       </c>
       <c r="AG2">
-        <v>31.39</v>
+        <v>31.4</v>
       </c>
       <c r="AH2">
-        <v>50.58</v>
+        <v>50.57</v>
       </c>
       <c r="AI2">
-        <v>90.03</v>
+        <v>90.02</v>
       </c>
       <c r="AJ2">
         <v>133.47999999999999</v>
@@ -6408,13 +6967,13 @@
         <v>151.16999999999999</v>
       </c>
       <c r="AL2">
-        <v>153.63999999999999</v>
+        <v>153.63</v>
       </c>
       <c r="AM2">
         <v>154.34</v>
       </c>
       <c r="AN2">
-        <v>148.08000000000001</v>
+        <v>148.09</v>
       </c>
       <c r="AO2">
         <v>154.33000000000001</v>
@@ -6426,7 +6985,7 @@
         <v>210.06</v>
       </c>
       <c r="AR2">
-        <v>167.07</v>
+        <v>167.06</v>
       </c>
       <c r="AS2">
         <v>147.97999999999999</v>
@@ -6453,7 +7012,7 @@
         <v>62.99</v>
       </c>
       <c r="BA2">
-        <v>67.75</v>
+        <v>67.760000000000005</v>
       </c>
       <c r="BB2">
         <v>70.180000000000007</v>
@@ -6462,7 +7021,7 @@
         <v>85.74</v>
       </c>
       <c r="BD2">
-        <v>111.31</v>
+        <v>111.32</v>
       </c>
       <c r="BE2">
         <v>139.80000000000001</v>
@@ -6474,7 +7033,7 @@
         <v>142.19999999999999</v>
       </c>
       <c r="BH2">
-        <v>170.8</v>
+        <v>170.81</v>
       </c>
       <c r="BI2">
         <v>174.05</v>
@@ -6483,7 +7042,7 @@
         <v>150.05000000000001</v>
       </c>
       <c r="BK2">
-        <v>121.42</v>
+        <v>121.43</v>
       </c>
       <c r="BL2">
         <v>85.16</v>
@@ -6495,7 +7054,7 @@
         <v>35.92</v>
       </c>
       <c r="BO2">
-        <v>24.86</v>
+        <v>24.85</v>
       </c>
       <c r="BP2">
         <v>16.87</v>
@@ -6519,39 +7078,42 @@
         <v>15.17</v>
       </c>
       <c r="BW2">
-        <v>18.62</v>
+        <v>18.63</v>
       </c>
       <c r="BX2">
         <v>24.52</v>
       </c>
       <c r="BY2">
-        <v>38.51</v>
+        <v>38.53</v>
       </c>
       <c r="BZ2">
-        <v>59.62</v>
+        <v>59.64</v>
       </c>
       <c r="CA2">
         <v>79.69</v>
       </c>
       <c r="CB2">
-        <v>89.73</v>
+        <v>89.75</v>
       </c>
       <c r="CC2">
-        <v>86.09</v>
+        <v>86.1</v>
       </c>
       <c r="CD2">
-        <v>73.819999999999993</v>
+        <v>73.81</v>
       </c>
       <c r="CE2">
-        <v>64.38</v>
+        <v>64.41</v>
       </c>
       <c r="CF2">
-        <v>67.33</v>
+        <v>67.81</v>
+      </c>
+      <c r="CG2">
+        <v>69.06</v>
       </c>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3">
         <v>0.12</v>
@@ -6674,13 +7236,13 @@
         <v>509.45</v>
       </c>
       <c r="AP3">
-        <v>656.34</v>
+        <v>656.22</v>
       </c>
       <c r="AQ3">
-        <v>725.35</v>
+        <v>725.23</v>
       </c>
       <c r="AR3">
-        <v>636.04999999999995</v>
+        <v>636.16999999999996</v>
       </c>
       <c r="AS3">
         <v>604.95000000000005</v>
@@ -6692,7 +7254,7 @@
         <v>609.69000000000005</v>
       </c>
       <c r="AV3">
-        <v>478.83</v>
+        <v>478.95</v>
       </c>
       <c r="AW3">
         <v>349.19</v>
@@ -6791,21 +7353,24 @@
         <v>40.82</v>
       </c>
       <c r="CC3">
-        <v>42.77</v>
+        <v>42.65</v>
       </c>
       <c r="CD3">
-        <v>47.63</v>
+        <v>47.75</v>
       </c>
       <c r="CE3">
-        <v>41.07</v>
+        <v>40.82</v>
       </c>
       <c r="CF3">
-        <v>39.61</v>
+        <v>39.49</v>
+      </c>
+      <c r="CG3">
+        <v>47.87</v>
       </c>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <v>0.38</v>
@@ -6934,13 +7499,13 @@
         <v>443.53</v>
       </c>
       <c r="AR4">
-        <v>372.3</v>
+        <v>372.36</v>
       </c>
       <c r="AS4">
         <v>357.08</v>
       </c>
       <c r="AT4">
-        <v>387.84</v>
+        <v>387.9</v>
       </c>
       <c r="AU4">
         <v>355.35</v>
@@ -6976,7 +7541,7 @@
         <v>80.569999999999993</v>
       </c>
       <c r="BF4">
-        <v>76.22</v>
+        <v>76.290000000000006</v>
       </c>
       <c r="BG4">
         <v>68.55</v>
@@ -7027,7 +7592,7 @@
         <v>3.2</v>
       </c>
       <c r="BW4">
-        <v>4.22</v>
+        <v>4.16</v>
       </c>
       <c r="BX4">
         <v>5.44</v>
@@ -7048,18 +7613,21 @@
         <v>32.479999999999997</v>
       </c>
       <c r="CD4">
-        <v>33.19</v>
+        <v>33.06</v>
       </c>
       <c r="CE4">
         <v>28.97</v>
       </c>
       <c r="CF4">
-        <v>33.83</v>
+        <v>33.89</v>
+      </c>
+      <c r="CG4">
+        <v>37.090000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5">
         <v>0.36</v>
@@ -7182,13 +7750,13 @@
         <v>165.29</v>
       </c>
       <c r="AP5">
-        <v>214.74</v>
+        <v>214.71</v>
       </c>
       <c r="AQ5">
-        <v>250.62</v>
+        <v>250.59</v>
       </c>
       <c r="AR5">
-        <v>224.87</v>
+        <v>224.84</v>
       </c>
       <c r="AS5">
         <v>208.45</v>
@@ -7221,10 +7789,10 @@
         <v>47.05</v>
       </c>
       <c r="BC5">
-        <v>49.72</v>
+        <v>49.69</v>
       </c>
       <c r="BD5">
-        <v>54.46</v>
+        <v>54.49</v>
       </c>
       <c r="BE5">
         <v>64.599999999999994</v>
@@ -7293,27 +7861,30 @@
         <v>8.99</v>
       </c>
       <c r="CA5">
-        <v>14.45</v>
+        <v>14.42</v>
       </c>
       <c r="CB5">
-        <v>20.49</v>
+        <v>20.52</v>
       </c>
       <c r="CC5">
-        <v>24.98</v>
+        <v>25.01</v>
       </c>
       <c r="CD5">
-        <v>24.01</v>
+        <v>23.98</v>
       </c>
       <c r="CE5">
-        <v>20</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="CF5">
-        <v>27.17</v>
+        <v>27.44</v>
+      </c>
+      <c r="CG5">
+        <v>29.75</v>
       </c>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6">
         <v>0.62</v>
@@ -7454,7 +8025,7 @@
         <v>111.19</v>
       </c>
       <c r="AV6">
-        <v>87.94</v>
+        <v>87.92</v>
       </c>
       <c r="AW6">
         <v>72.62</v>
@@ -7466,7 +8037,7 @@
         <v>43.88</v>
       </c>
       <c r="AZ6">
-        <v>44.16</v>
+        <v>44.19</v>
       </c>
       <c r="BA6">
         <v>40.5</v>
@@ -7496,7 +8067,7 @@
         <v>64.180000000000007</v>
       </c>
       <c r="BJ6">
-        <v>54.66</v>
+        <v>54.69</v>
       </c>
       <c r="BK6">
         <v>42.95</v>
@@ -7553,21 +8124,24 @@
         <v>13.93</v>
       </c>
       <c r="CC6">
-        <v>15.22</v>
+        <v>15.3</v>
       </c>
       <c r="CD6">
-        <v>14.65</v>
+        <v>14.58</v>
       </c>
       <c r="CE6">
-        <v>14.58</v>
+        <v>14.52</v>
       </c>
       <c r="CF6">
-        <v>18.239999999999998</v>
+        <v>18.34</v>
+      </c>
+      <c r="CG6">
+        <v>18.91</v>
       </c>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>0.3</v>
@@ -7669,7 +8243,7 @@
         <v>25.42</v>
       </c>
       <c r="AI7">
-        <v>49.1</v>
+        <v>49.13</v>
       </c>
       <c r="AJ7">
         <v>78.41</v>
@@ -7708,7 +8282,7 @@
         <v>99.73</v>
       </c>
       <c r="AV7">
-        <v>83.1</v>
+        <v>83.07</v>
       </c>
       <c r="AW7">
         <v>67.5</v>
@@ -7741,7 +8315,7 @@
         <v>79.010000000000005</v>
       </c>
       <c r="BG7">
-        <v>85.57</v>
+        <v>85.54</v>
       </c>
       <c r="BH7">
         <v>98.28</v>
@@ -7753,13 +8327,13 @@
         <v>78.33</v>
       </c>
       <c r="BK7">
-        <v>62.65</v>
+        <v>62.63</v>
       </c>
       <c r="BL7">
-        <v>43.38</v>
+        <v>43.36</v>
       </c>
       <c r="BM7">
-        <v>29.39</v>
+        <v>29.42</v>
       </c>
       <c r="BN7">
         <v>15.87</v>
@@ -7801,10 +8375,10 @@
         <v>10.67</v>
       </c>
       <c r="CA7">
-        <v>16.82</v>
+        <v>16.79</v>
       </c>
       <c r="CB7">
-        <v>20.11</v>
+        <v>20.14</v>
       </c>
       <c r="CC7">
         <v>22.26</v>
@@ -7813,15 +8387,18 @@
         <v>20.58</v>
       </c>
       <c r="CE7">
-        <v>18.89</v>
+        <v>18.829999999999998</v>
       </c>
       <c r="CF7">
-        <v>23.16</v>
+        <v>23.38</v>
+      </c>
+      <c r="CG7">
+        <v>27.63</v>
       </c>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8">
         <v>0.51</v>
@@ -7923,7 +8500,7 @@
         <v>26.38</v>
       </c>
       <c r="AI8">
-        <v>46.61</v>
+        <v>46.59</v>
       </c>
       <c r="AJ8">
         <v>73.08</v>
@@ -7944,10 +8521,10 @@
         <v>84.73</v>
       </c>
       <c r="AP8">
-        <v>106.44</v>
+        <v>106.42</v>
       </c>
       <c r="AQ8">
-        <v>130.72999999999999</v>
+        <v>130.71</v>
       </c>
       <c r="AR8">
         <v>114.96</v>
@@ -7980,7 +8557,7 @@
         <v>43.63</v>
       </c>
       <c r="BB8">
-        <v>41.02</v>
+        <v>41.04</v>
       </c>
       <c r="BC8">
         <v>47.38</v>
@@ -8007,7 +8584,7 @@
         <v>81.739999999999995</v>
       </c>
       <c r="BK8">
-        <v>67.77</v>
+        <v>67.73</v>
       </c>
       <c r="BL8">
         <v>47.7</v>
@@ -8055,27 +8632,30 @@
         <v>12.2</v>
       </c>
       <c r="CA8">
-        <v>16.670000000000002</v>
+        <v>16.690000000000001</v>
       </c>
       <c r="CB8">
         <v>20.48</v>
       </c>
       <c r="CC8">
-        <v>22.82</v>
+        <v>22.8</v>
       </c>
       <c r="CD8">
         <v>21.57</v>
       </c>
       <c r="CE8">
-        <v>20.309999999999999</v>
+        <v>20.27</v>
       </c>
       <c r="CF8">
-        <v>22.31</v>
+        <v>22.47</v>
+      </c>
+      <c r="CG8">
+        <v>28.34</v>
       </c>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B9">
         <v>1.1200000000000001</v>
@@ -8174,7 +8754,7 @@
         <v>22.54</v>
       </c>
       <c r="AH9">
-        <v>37.590000000000003</v>
+        <v>37.57</v>
       </c>
       <c r="AI9">
         <v>70.099999999999994</v>
@@ -8207,16 +8787,16 @@
         <v>162.54</v>
       </c>
       <c r="AS9">
-        <v>146.31</v>
+        <v>146.32</v>
       </c>
       <c r="AT9">
         <v>164.33</v>
       </c>
       <c r="AU9">
-        <v>133.72</v>
+        <v>133.69999999999999</v>
       </c>
       <c r="AV9">
-        <v>110.42</v>
+        <v>110.43</v>
       </c>
       <c r="AW9">
         <v>90.69</v>
@@ -8243,7 +8823,7 @@
         <v>93.98</v>
       </c>
       <c r="BE9">
-        <v>116.33</v>
+        <v>116.35</v>
       </c>
       <c r="BF9">
         <v>113.43</v>
@@ -8273,7 +8853,7 @@
         <v>23.78</v>
       </c>
       <c r="BO9">
-        <v>15.09</v>
+        <v>15.07</v>
       </c>
       <c r="BP9">
         <v>9.8800000000000008</v>
@@ -8312,24 +8892,27 @@
         <v>26.29</v>
       </c>
       <c r="CB9">
-        <v>32.46</v>
+        <v>32.49</v>
       </c>
       <c r="CC9">
-        <v>33.229999999999997</v>
+        <v>33.25</v>
       </c>
       <c r="CD9">
-        <v>30.31</v>
+        <v>30.3</v>
       </c>
       <c r="CE9">
-        <v>28.98</v>
+        <v>29.07</v>
       </c>
       <c r="CF9">
-        <v>31.94</v>
+        <v>32.08</v>
+      </c>
+      <c r="CG9">
+        <v>37.71</v>
       </c>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B10">
         <v>1.1299999999999999</v>
@@ -8428,13 +9011,13 @@
         <v>27.8</v>
       </c>
       <c r="AH10">
-        <v>44.57</v>
+        <v>44.56</v>
       </c>
       <c r="AI10">
         <v>85.45</v>
       </c>
       <c r="AJ10">
-        <v>133.13999999999999</v>
+        <v>133.16999999999999</v>
       </c>
       <c r="AK10">
         <v>150.91</v>
@@ -8443,13 +9026,13 @@
         <v>152.81</v>
       </c>
       <c r="AM10">
-        <v>152.27000000000001</v>
+        <v>152.24</v>
       </c>
       <c r="AN10">
         <v>146.59</v>
       </c>
       <c r="AO10">
-        <v>154.11000000000001</v>
+        <v>154.13</v>
       </c>
       <c r="AP10">
         <v>193.62</v>
@@ -8461,10 +9044,10 @@
         <v>183.93</v>
       </c>
       <c r="AS10">
-        <v>164.65</v>
+        <v>164.64</v>
       </c>
       <c r="AT10">
-        <v>182.95</v>
+        <v>182.92</v>
       </c>
       <c r="AU10">
         <v>148.88999999999999</v>
@@ -8494,7 +9077,7 @@
         <v>84.8</v>
       </c>
       <c r="BD10">
-        <v>107.82</v>
+        <v>107.83</v>
       </c>
       <c r="BE10">
         <v>134.96</v>
@@ -8503,22 +9086,22 @@
         <v>132.80000000000001</v>
       </c>
       <c r="BG10">
-        <v>143.71</v>
+        <v>143.68</v>
       </c>
       <c r="BH10">
-        <v>158.28</v>
+        <v>158.31</v>
       </c>
       <c r="BI10">
-        <v>163.6</v>
+        <v>163.58000000000001</v>
       </c>
       <c r="BJ10">
-        <v>147.31</v>
+        <v>147.30000000000001</v>
       </c>
       <c r="BK10">
         <v>116.03</v>
       </c>
       <c r="BL10">
-        <v>79.05</v>
+        <v>79.040000000000006</v>
       </c>
       <c r="BM10">
         <v>53.06</v>
@@ -8554,36 +9137,39 @@
         <v>8.61</v>
       </c>
       <c r="BX10">
-        <v>11.68</v>
+        <v>11.67</v>
       </c>
       <c r="BY10">
-        <v>18.46</v>
+        <v>18.48</v>
       </c>
       <c r="BZ10">
         <v>26.75</v>
       </c>
       <c r="CA10">
-        <v>35.64</v>
+        <v>35.619999999999997</v>
       </c>
       <c r="CB10">
         <v>40.24</v>
       </c>
       <c r="CC10">
-        <v>42.87</v>
+        <v>42.9</v>
       </c>
       <c r="CD10">
-        <v>38.619999999999997</v>
+        <v>38.590000000000003</v>
       </c>
       <c r="CE10">
-        <v>36.97</v>
+        <v>36.96</v>
       </c>
       <c r="CF10">
-        <v>40.729999999999997</v>
+        <v>40.950000000000003</v>
+      </c>
+      <c r="CG10">
+        <v>44.62</v>
       </c>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B11">
         <v>1.98</v>
@@ -8616,7 +9202,7 @@
         <v>7.76</v>
       </c>
       <c r="L11">
-        <v>5.59</v>
+        <v>5.56</v>
       </c>
       <c r="M11">
         <v>3.74</v>
@@ -8634,7 +9220,7 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="R11">
-        <v>3.83</v>
+        <v>3.84</v>
       </c>
       <c r="S11">
         <v>2.77</v>
@@ -8688,22 +9274,22 @@
         <v>95.67</v>
       </c>
       <c r="AJ11">
-        <v>145.55000000000001</v>
+        <v>145.57</v>
       </c>
       <c r="AK11">
-        <v>163.41</v>
+        <v>163.38999999999999</v>
       </c>
       <c r="AL11">
         <v>163.87</v>
       </c>
       <c r="AM11">
-        <v>161.6</v>
+        <v>161.59</v>
       </c>
       <c r="AN11">
         <v>153.96</v>
       </c>
       <c r="AO11">
-        <v>157.25</v>
+        <v>157.27000000000001</v>
       </c>
       <c r="AP11">
         <v>197.61</v>
@@ -8712,22 +9298,22 @@
         <v>222.33</v>
       </c>
       <c r="AR11">
-        <v>178.55</v>
+        <v>178.53</v>
       </c>
       <c r="AS11">
         <v>156.88999999999999</v>
       </c>
       <c r="AT11">
-        <v>180.34</v>
+        <v>180.37</v>
       </c>
       <c r="AU11">
-        <v>146.25</v>
+        <v>146.24</v>
       </c>
       <c r="AV11">
         <v>121.9</v>
       </c>
       <c r="AW11">
-        <v>99.47</v>
+        <v>99.49</v>
       </c>
       <c r="AX11">
         <v>79.040000000000006</v>
@@ -8745,10 +9331,10 @@
         <v>73.72</v>
       </c>
       <c r="BC11">
-        <v>88</v>
+        <v>87.98</v>
       </c>
       <c r="BD11">
-        <v>112.25</v>
+        <v>112.26</v>
       </c>
       <c r="BE11">
         <v>139.37</v>
@@ -8757,7 +9343,7 @@
         <v>135.97</v>
       </c>
       <c r="BG11">
-        <v>148.34</v>
+        <v>148.36000000000001</v>
       </c>
       <c r="BH11">
         <v>165.61</v>
@@ -8766,19 +9352,19 @@
         <v>173.53</v>
       </c>
       <c r="BJ11">
-        <v>151.16</v>
+        <v>151.19</v>
       </c>
       <c r="BK11">
-        <v>119.46</v>
+        <v>119.49</v>
       </c>
       <c r="BL11">
-        <v>81.61</v>
+        <v>81.62</v>
       </c>
       <c r="BM11">
         <v>56.21</v>
       </c>
       <c r="BN11">
-        <v>30.64</v>
+        <v>30.62</v>
       </c>
       <c r="BO11">
         <v>20.18</v>
@@ -8787,13 +9373,13 @@
         <v>12.26</v>
       </c>
       <c r="BQ11">
-        <v>6.54</v>
+        <v>6.56</v>
       </c>
       <c r="BR11">
         <v>4.4400000000000004</v>
       </c>
       <c r="BS11">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="BT11">
         <v>4.3099999999999996</v>
@@ -8811,13 +9397,13 @@
         <v>14.5</v>
       </c>
       <c r="BY11">
-        <v>24.48</v>
+        <v>24.47</v>
       </c>
       <c r="BZ11">
-        <v>37.700000000000003</v>
+        <v>37.78</v>
       </c>
       <c r="CA11">
-        <v>49.64</v>
+        <v>49.67</v>
       </c>
       <c r="CB11">
         <v>55.47</v>
@@ -8826,18 +9412,21 @@
         <v>54.99</v>
       </c>
       <c r="CD11">
-        <v>49.55</v>
+        <v>49.52</v>
       </c>
       <c r="CE11">
-        <v>43.1</v>
+        <v>43.11</v>
       </c>
       <c r="CF11">
-        <v>48.58</v>
+        <v>49.12</v>
+      </c>
+      <c r="CG11">
+        <v>51.19</v>
       </c>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B12">
         <v>1.88</v>
@@ -8942,10 +9531,10 @@
         <v>110.37</v>
       </c>
       <c r="AJ12">
-        <v>159.22999999999999</v>
+        <v>159.25</v>
       </c>
       <c r="AK12">
-        <v>179.68</v>
+        <v>179.7</v>
       </c>
       <c r="AL12">
         <v>176.09</v>
@@ -8957,25 +9546,25 @@
         <v>171.75</v>
       </c>
       <c r="AO12">
-        <v>175.18</v>
+        <v>175.16</v>
       </c>
       <c r="AP12">
         <v>210.44</v>
       </c>
       <c r="AQ12">
-        <v>235.96</v>
+        <v>236</v>
       </c>
       <c r="AR12">
         <v>184.76</v>
       </c>
       <c r="AS12">
-        <v>162.16999999999999</v>
+        <v>162.19</v>
       </c>
       <c r="AT12">
         <v>185.71</v>
       </c>
       <c r="AU12">
-        <v>150.83000000000001</v>
+        <v>150.85</v>
       </c>
       <c r="AV12">
         <v>123.05</v>
@@ -8996,10 +9585,10 @@
         <v>76.78</v>
       </c>
       <c r="BB12">
-        <v>81.33</v>
+        <v>81.349999999999994</v>
       </c>
       <c r="BC12">
-        <v>98.34</v>
+        <v>98.36</v>
       </c>
       <c r="BD12">
         <v>123.56</v>
@@ -9020,10 +9609,10 @@
         <v>202.32</v>
       </c>
       <c r="BJ12">
-        <v>171.09</v>
+        <v>171.12</v>
       </c>
       <c r="BK12">
-        <v>141.13999999999999</v>
+        <v>141.16</v>
       </c>
       <c r="BL12">
         <v>96.33</v>
@@ -9062,36 +9651,39 @@
         <v>17.260000000000002</v>
       </c>
       <c r="BX12">
-        <v>22.28</v>
+        <v>22.3</v>
       </c>
       <c r="BY12">
-        <v>36.9</v>
+        <v>36.94</v>
       </c>
       <c r="BZ12">
-        <v>58.77</v>
+        <v>58.81</v>
       </c>
       <c r="CA12">
-        <v>77.88</v>
+        <v>77.84</v>
       </c>
       <c r="CB12">
-        <v>87.71</v>
+        <v>87.72</v>
       </c>
       <c r="CC12">
         <v>86.07</v>
       </c>
       <c r="CD12">
-        <v>71.849999999999994</v>
+        <v>71.83</v>
       </c>
       <c r="CE12">
-        <v>63.13</v>
+        <v>63.19</v>
       </c>
       <c r="CF12">
-        <v>66.05</v>
+        <v>66.39</v>
+      </c>
+      <c r="CG12">
+        <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B13">
         <v>1.73</v>
@@ -9178,16 +9770,16 @@
         <v>13.95</v>
       </c>
       <c r="AD13">
-        <v>17.21</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="AE13">
-        <v>17.54</v>
+        <v>17.559999999999999</v>
       </c>
       <c r="AF13">
-        <v>21.43</v>
+        <v>21.41</v>
       </c>
       <c r="AG13">
-        <v>38.07</v>
+        <v>38.090000000000003</v>
       </c>
       <c r="AH13">
         <v>59.16</v>
@@ -9199,7 +9791,7 @@
         <v>160.54</v>
       </c>
       <c r="AK13">
-        <v>180.83</v>
+        <v>180.79</v>
       </c>
       <c r="AL13">
         <v>183.19</v>
@@ -9211,7 +9803,7 @@
         <v>179.4</v>
       </c>
       <c r="AO13">
-        <v>179.55</v>
+        <v>179.57</v>
       </c>
       <c r="AP13">
         <v>222.14</v>
@@ -9220,19 +9812,19 @@
         <v>244.24</v>
       </c>
       <c r="AR13">
-        <v>193.77</v>
+        <v>193.75</v>
       </c>
       <c r="AS13">
-        <v>163.58000000000001</v>
+        <v>163.6</v>
       </c>
       <c r="AT13">
         <v>194.48</v>
       </c>
       <c r="AU13">
-        <v>153.9</v>
+        <v>153.94</v>
       </c>
       <c r="AV13">
-        <v>126.91</v>
+        <v>126.93</v>
       </c>
       <c r="AW13">
         <v>104.3</v>
@@ -9244,13 +9836,13 @@
         <v>70.56</v>
       </c>
       <c r="AZ13">
-        <v>73.17</v>
+        <v>73.150000000000006</v>
       </c>
       <c r="BA13">
         <v>84.25</v>
       </c>
       <c r="BB13">
-        <v>87.04</v>
+        <v>87.06</v>
       </c>
       <c r="BC13">
         <v>108.9</v>
@@ -9259,7 +9851,7 @@
         <v>142.22999999999999</v>
       </c>
       <c r="BE13">
-        <v>185.07</v>
+        <v>185.05</v>
       </c>
       <c r="BF13">
         <v>169.57</v>
@@ -9271,13 +9863,13 @@
         <v>218.5</v>
       </c>
       <c r="BI13">
-        <v>220.49</v>
+        <v>220.51</v>
       </c>
       <c r="BJ13">
-        <v>194.99</v>
+        <v>195.01</v>
       </c>
       <c r="BK13">
-        <v>157.47</v>
+        <v>157.49</v>
       </c>
       <c r="BL13">
         <v>108.64</v>
@@ -9286,7 +9878,7 @@
         <v>81.12</v>
       </c>
       <c r="BN13">
-        <v>44.9</v>
+        <v>44.92</v>
       </c>
       <c r="BO13">
         <v>32.51</v>
@@ -9313,7 +9905,7 @@
         <v>14.97</v>
       </c>
       <c r="BW13">
-        <v>20.11</v>
+        <v>20.13</v>
       </c>
       <c r="BX13">
         <v>29.44</v>
@@ -9322,7 +9914,7 @@
         <v>47.91</v>
       </c>
       <c r="BZ13">
-        <v>76.47</v>
+        <v>76.489999999999995</v>
       </c>
       <c r="CA13">
         <v>105.54</v>
@@ -9331,21 +9923,24 @@
         <v>115.91</v>
       </c>
       <c r="CC13">
-        <v>110.41</v>
+        <v>110.39</v>
       </c>
       <c r="CD13">
-        <v>90.63</v>
+        <v>90.67</v>
       </c>
       <c r="CE13">
-        <v>79.36</v>
+        <v>79.510000000000005</v>
       </c>
       <c r="CF13">
-        <v>84.8</v>
+        <v>85.45</v>
+      </c>
+      <c r="CG13">
+        <v>88.61</v>
       </c>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B14">
         <v>1.27</v>
@@ -9447,22 +10042,22 @@
         <v>58.59</v>
       </c>
       <c r="AI14">
-        <v>101.85</v>
+        <v>101.83</v>
       </c>
       <c r="AJ14">
         <v>152.82</v>
       </c>
       <c r="AK14">
-        <v>169.36</v>
+        <v>169.34</v>
       </c>
       <c r="AL14">
         <v>173.77</v>
       </c>
       <c r="AM14">
-        <v>173.88</v>
+        <v>173.86</v>
       </c>
       <c r="AN14">
-        <v>164.79</v>
+        <v>164.83</v>
       </c>
       <c r="AO14">
         <v>172.92</v>
@@ -9474,13 +10069,13 @@
         <v>231.19</v>
       </c>
       <c r="AR14">
-        <v>180.05</v>
+        <v>180.03</v>
       </c>
       <c r="AS14">
-        <v>152.76</v>
+        <v>152.78</v>
       </c>
       <c r="AT14">
-        <v>191.82</v>
+        <v>191.84</v>
       </c>
       <c r="AU14">
         <v>151.35</v>
@@ -9519,19 +10114,19 @@
         <v>169.87</v>
       </c>
       <c r="BG14">
-        <v>179.31</v>
+        <v>179.29</v>
       </c>
       <c r="BH14">
-        <v>213.04</v>
+        <v>213.06</v>
       </c>
       <c r="BI14">
         <v>213.25</v>
       </c>
       <c r="BJ14">
-        <v>189.42</v>
+        <v>189.4</v>
       </c>
       <c r="BK14">
-        <v>150.68</v>
+        <v>150.66999999999999</v>
       </c>
       <c r="BL14">
         <v>106.33</v>
@@ -9570,36 +10165,39 @@
         <v>22.04</v>
       </c>
       <c r="BX14">
-        <v>30.1</v>
+        <v>30.08</v>
       </c>
       <c r="BY14">
-        <v>46.21</v>
+        <v>46.26</v>
       </c>
       <c r="BZ14">
-        <v>71.22</v>
+        <v>71.239999999999995</v>
       </c>
       <c r="CA14">
-        <v>99.52</v>
+        <v>99.5</v>
       </c>
       <c r="CB14">
-        <v>113.38</v>
+        <v>113.42</v>
       </c>
       <c r="CC14">
         <v>109.62</v>
       </c>
       <c r="CD14">
-        <v>90.98</v>
+        <v>91.05</v>
       </c>
       <c r="CE14">
-        <v>80.14</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="CF14">
-        <v>85.36</v>
+        <v>85.82</v>
+      </c>
+      <c r="CG14">
+        <v>88.69</v>
       </c>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B15">
         <v>1.26</v>
@@ -9614,10 +10212,10 @@
         <v>47.95</v>
       </c>
       <c r="F15">
-        <v>43.98</v>
+        <v>44</v>
       </c>
       <c r="G15">
-        <v>31.73</v>
+        <v>31.72</v>
       </c>
       <c r="H15">
         <v>21.94</v>
@@ -9698,19 +10296,19 @@
         <v>42.92</v>
       </c>
       <c r="AH15">
-        <v>70.22</v>
+        <v>70.2</v>
       </c>
       <c r="AI15">
-        <v>122.22</v>
+        <v>122.2</v>
       </c>
       <c r="AJ15">
-        <v>174.23</v>
+        <v>174.21</v>
       </c>
       <c r="AK15">
         <v>190.6</v>
       </c>
       <c r="AL15">
-        <v>190.77</v>
+        <v>190.75</v>
       </c>
       <c r="AM15">
         <v>183.49</v>
@@ -9755,7 +10353,7 @@
         <v>74.86</v>
       </c>
       <c r="BA15">
-        <v>82.39</v>
+        <v>82.41</v>
       </c>
       <c r="BB15">
         <v>89.01</v>
@@ -9764,28 +10362,28 @@
         <v>109.47</v>
       </c>
       <c r="BD15">
-        <v>143.66</v>
+        <v>143.63999999999999</v>
       </c>
       <c r="BE15">
-        <v>179.56</v>
+        <v>179.59</v>
       </c>
       <c r="BF15">
         <v>173.06</v>
       </c>
       <c r="BG15">
-        <v>184.4</v>
+        <v>184.43</v>
       </c>
       <c r="BH15">
-        <v>218.59</v>
+        <v>218.61</v>
       </c>
       <c r="BI15">
         <v>215.68</v>
       </c>
       <c r="BJ15">
-        <v>190.26</v>
+        <v>190.2</v>
       </c>
       <c r="BK15">
-        <v>150.59</v>
+        <v>150.61000000000001</v>
       </c>
       <c r="BL15">
         <v>106.79</v>
@@ -9794,7 +10392,7 @@
         <v>82.59</v>
       </c>
       <c r="BN15">
-        <v>49.98</v>
+        <v>49.97</v>
       </c>
       <c r="BO15">
         <v>31.84</v>
@@ -9818,7 +10416,7 @@
         <v>15.81</v>
       </c>
       <c r="BV15">
-        <v>23.76</v>
+        <v>23.78</v>
       </c>
       <c r="BW15">
         <v>27.55</v>
@@ -9830,30 +10428,33 @@
         <v>55.41</v>
       </c>
       <c r="BZ15">
-        <v>79.75</v>
+        <v>79.77</v>
       </c>
       <c r="CA15">
         <v>108.76</v>
       </c>
       <c r="CB15">
-        <v>119.71</v>
+        <v>119.75</v>
       </c>
       <c r="CC15">
-        <v>113.23</v>
+        <v>113.22</v>
       </c>
       <c r="CD15">
-        <v>92.82</v>
+        <v>92.74</v>
       </c>
       <c r="CE15">
-        <v>83.48</v>
+        <v>83.74</v>
       </c>
       <c r="CF15">
-        <v>86.05</v>
+        <v>86.72</v>
+      </c>
+      <c r="CG15">
+        <v>87.1</v>
       </c>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16">
         <v>1.5</v>
@@ -9889,10 +10490,10 @@
         <v>7.71</v>
       </c>
       <c r="M16">
-        <v>6.8</v>
+        <v>6.82</v>
       </c>
       <c r="N16">
-        <v>6.19</v>
+        <v>6.21</v>
       </c>
       <c r="O16">
         <v>4.37</v>
@@ -9910,7 +10511,7 @@
         <v>6.19</v>
       </c>
       <c r="T16">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="U16">
         <v>6.09</v>
@@ -9937,10 +10538,10 @@
         <v>22.9</v>
       </c>
       <c r="AC16">
-        <v>24.2</v>
+        <v>24.18</v>
       </c>
       <c r="AD16">
-        <v>29.19</v>
+        <v>29.17</v>
       </c>
       <c r="AE16">
         <v>28.3</v>
@@ -9952,28 +10553,28 @@
         <v>52.93</v>
       </c>
       <c r="AH16">
-        <v>88.17</v>
+        <v>88.15</v>
       </c>
       <c r="AI16">
-        <v>144.35</v>
+        <v>144.33000000000001</v>
       </c>
       <c r="AJ16">
-        <v>203.8</v>
+        <v>203.84</v>
       </c>
       <c r="AK16">
-        <v>219.73</v>
+        <v>219.69</v>
       </c>
       <c r="AL16">
         <v>210.54</v>
       </c>
       <c r="AM16">
-        <v>195.45</v>
+        <v>195.43</v>
       </c>
       <c r="AN16">
         <v>177.3</v>
       </c>
       <c r="AO16">
-        <v>180.33</v>
+        <v>180.31</v>
       </c>
       <c r="AP16">
         <v>212.46</v>
@@ -9982,7 +10583,7 @@
         <v>238.55</v>
       </c>
       <c r="AR16">
-        <v>185.81</v>
+        <v>185.79</v>
       </c>
       <c r="AS16">
         <v>165.99</v>
@@ -9991,7 +10592,7 @@
         <v>212.38</v>
       </c>
       <c r="AU16">
-        <v>168.21</v>
+        <v>168.23</v>
       </c>
       <c r="AV16">
         <v>125.98</v>
@@ -10018,7 +10619,7 @@
         <v>107.7</v>
       </c>
       <c r="BD16">
-        <v>138.18</v>
+        <v>138.19999999999999</v>
       </c>
       <c r="BE16">
         <v>165.55</v>
@@ -10027,34 +10628,34 @@
         <v>165.1</v>
       </c>
       <c r="BG16">
-        <v>181.56</v>
+        <v>181.58</v>
       </c>
       <c r="BH16">
-        <v>214.78</v>
+        <v>214.8</v>
       </c>
       <c r="BI16">
-        <v>212.73</v>
+        <v>212.71</v>
       </c>
       <c r="BJ16">
-        <v>181.69</v>
+        <v>181.67</v>
       </c>
       <c r="BK16">
-        <v>146.83000000000001</v>
+        <v>146.85</v>
       </c>
       <c r="BL16">
-        <v>102.04</v>
+        <v>102.02</v>
       </c>
       <c r="BM16">
-        <v>77.7</v>
+        <v>77.72</v>
       </c>
       <c r="BN16">
-        <v>48.38</v>
+        <v>48.4</v>
       </c>
       <c r="BO16">
-        <v>31.53</v>
+        <v>31.51</v>
       </c>
       <c r="BP16">
-        <v>21.83</v>
+        <v>21.82</v>
       </c>
       <c r="BQ16">
         <v>12.2</v>
@@ -10075,39 +10676,42 @@
         <v>34.15</v>
       </c>
       <c r="BW16">
-        <v>38.49</v>
+        <v>38.47</v>
       </c>
       <c r="BX16">
         <v>47.35</v>
       </c>
       <c r="BY16">
-        <v>70.73</v>
+        <v>70.75</v>
       </c>
       <c r="BZ16">
         <v>99.04</v>
       </c>
       <c r="CA16">
-        <v>124.56</v>
+        <v>124.6</v>
       </c>
       <c r="CB16">
-        <v>123.91</v>
+        <v>123.86</v>
       </c>
       <c r="CC16">
         <v>119.32</v>
       </c>
       <c r="CD16">
-        <v>96.52</v>
+        <v>96.44</v>
       </c>
       <c r="CE16">
-        <v>80.989999999999995</v>
+        <v>81.069999999999993</v>
       </c>
       <c r="CF16">
-        <v>83.16</v>
+        <v>83.73</v>
+      </c>
+      <c r="CG16">
+        <v>83.73</v>
       </c>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B17">
         <v>1.52</v>
@@ -10122,7 +10726,7 @@
         <v>49.24</v>
       </c>
       <c r="F17">
-        <v>48.63</v>
+        <v>48.61</v>
       </c>
       <c r="G17">
         <v>37.47</v>
@@ -10188,7 +10792,7 @@
         <v>28.84</v>
       </c>
       <c r="AB17">
-        <v>27.06</v>
+        <v>27.08</v>
       </c>
       <c r="AC17">
         <v>27.84</v>
@@ -10206,7 +10810,7 @@
         <v>60.52</v>
       </c>
       <c r="AH17">
-        <v>95.2</v>
+        <v>95.17</v>
       </c>
       <c r="AI17">
         <v>164.18</v>
@@ -10215,7 +10819,7 @@
         <v>225.85</v>
       </c>
       <c r="AK17">
-        <v>254.53</v>
+        <v>254.51</v>
       </c>
       <c r="AL17">
         <v>239.3</v>
@@ -10227,7 +10831,7 @@
         <v>193.99</v>
       </c>
       <c r="AO17">
-        <v>199.16</v>
+        <v>199.18</v>
       </c>
       <c r="AP17">
         <v>234.16</v>
@@ -10236,19 +10840,19 @@
         <v>262.48</v>
       </c>
       <c r="AR17">
-        <v>196.79</v>
+        <v>196.73</v>
       </c>
       <c r="AS17">
-        <v>186.35</v>
+        <v>186.33</v>
       </c>
       <c r="AT17">
-        <v>236.31</v>
+        <v>236.33</v>
       </c>
       <c r="AU17">
-        <v>185.27</v>
+        <v>185.29</v>
       </c>
       <c r="AV17">
-        <v>139.59</v>
+        <v>139.61000000000001</v>
       </c>
       <c r="AW17">
         <v>113.7</v>
@@ -10257,7 +10861,7 @@
         <v>94.98</v>
       </c>
       <c r="AY17">
-        <v>79.48</v>
+        <v>79.459999999999994</v>
       </c>
       <c r="AZ17">
         <v>85.63</v>
@@ -10269,13 +10873,13 @@
         <v>95.52</v>
       </c>
       <c r="BC17">
-        <v>117.65</v>
+        <v>117.68</v>
       </c>
       <c r="BD17">
         <v>149.81</v>
       </c>
       <c r="BE17">
-        <v>185.59</v>
+        <v>185.62</v>
       </c>
       <c r="BF17">
         <v>184.55</v>
@@ -10284,7 +10888,7 @@
         <v>212.65</v>
       </c>
       <c r="BH17">
-        <v>250.61</v>
+        <v>250.63</v>
       </c>
       <c r="BI17">
         <v>244.49</v>
@@ -10293,13 +10897,13 @@
         <v>208.79</v>
       </c>
       <c r="BK17">
-        <v>169.99</v>
+        <v>169.97</v>
       </c>
       <c r="BL17">
-        <v>121.21</v>
+        <v>121.19</v>
       </c>
       <c r="BM17">
-        <v>90.79</v>
+        <v>90.7</v>
       </c>
       <c r="BN17">
         <v>52.38</v>
@@ -10320,48 +10924,51 @@
         <v>12</v>
       </c>
       <c r="BT17">
-        <v>19.18</v>
+        <v>19.23</v>
       </c>
       <c r="BU17">
         <v>32.700000000000003</v>
       </c>
       <c r="BV17">
-        <v>45.35</v>
+        <v>45.33</v>
       </c>
       <c r="BW17">
-        <v>50.52</v>
+        <v>50.54</v>
       </c>
       <c r="BX17">
-        <v>60.54</v>
+        <v>60.56</v>
       </c>
       <c r="BY17">
-        <v>96.11</v>
+        <v>96.08</v>
       </c>
       <c r="BZ17">
         <v>125.49</v>
       </c>
       <c r="CA17">
-        <v>149.29</v>
+        <v>149.27000000000001</v>
       </c>
       <c r="CB17">
-        <v>148.18</v>
+        <v>148.32</v>
       </c>
       <c r="CC17">
         <v>135.04</v>
       </c>
       <c r="CD17">
-        <v>107.35</v>
+        <v>107.37</v>
       </c>
       <c r="CE17">
         <v>89.38</v>
       </c>
       <c r="CF17">
-        <v>87.58</v>
+        <v>88.42</v>
+      </c>
+      <c r="CG17">
+        <v>89.49</v>
       </c>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B18">
         <v>1.1200000000000001</v>
@@ -10460,13 +11067,13 @@
         <v>52.52</v>
       </c>
       <c r="AH18">
-        <v>75.12</v>
+        <v>75.09</v>
       </c>
       <c r="AI18">
         <v>123.42</v>
       </c>
       <c r="AJ18">
-        <v>182.5</v>
+        <v>182.52</v>
       </c>
       <c r="AK18">
         <v>213.47</v>
@@ -10475,22 +11082,22 @@
         <v>221.26</v>
       </c>
       <c r="AM18">
-        <v>208.39</v>
+        <v>208.42</v>
       </c>
       <c r="AN18">
-        <v>189.33</v>
+        <v>189.35</v>
       </c>
       <c r="AO18">
         <v>195.77</v>
       </c>
       <c r="AP18">
-        <v>223.82</v>
+        <v>223.85</v>
       </c>
       <c r="AQ18">
         <v>215.12</v>
       </c>
       <c r="AR18">
-        <v>149.13999999999999</v>
+        <v>149.16999999999999</v>
       </c>
       <c r="AS18">
         <v>125.79</v>
@@ -10508,7 +11115,7 @@
         <v>88.11</v>
       </c>
       <c r="AX18">
-        <v>74.05</v>
+        <v>74.08</v>
       </c>
       <c r="AY18">
         <v>60.37</v>
@@ -10532,19 +11139,19 @@
         <v>182.45</v>
       </c>
       <c r="BF18">
-        <v>167.77</v>
+        <v>167.75</v>
       </c>
       <c r="BG18">
         <v>191.59</v>
       </c>
       <c r="BH18">
-        <v>274.67</v>
+        <v>274.7</v>
       </c>
       <c r="BI18">
         <v>262.41000000000003</v>
       </c>
       <c r="BJ18">
-        <v>219.76</v>
+        <v>219.74</v>
       </c>
       <c r="BK18">
         <v>179.02</v>
@@ -10571,7 +11178,7 @@
         <v>11.25</v>
       </c>
       <c r="BS18">
-        <v>10.48</v>
+        <v>10.51</v>
       </c>
       <c r="BT18">
         <v>14.72</v>
@@ -10583,39 +11190,42 @@
         <v>40.950000000000003</v>
       </c>
       <c r="BW18">
-        <v>46.76</v>
+        <v>46.79</v>
       </c>
       <c r="BX18">
         <v>60.14</v>
       </c>
       <c r="BY18">
-        <v>88.95</v>
+        <v>89</v>
       </c>
       <c r="BZ18">
-        <v>141.5</v>
+        <v>141.55000000000001</v>
       </c>
       <c r="CA18">
-        <v>176.81</v>
+        <v>176.86</v>
       </c>
       <c r="CB18">
-        <v>197.32</v>
+        <v>197.4</v>
       </c>
       <c r="CC18">
-        <v>173.69</v>
+        <v>173.74</v>
       </c>
       <c r="CD18">
-        <v>143.25</v>
+        <v>143.28</v>
       </c>
       <c r="CE18">
-        <v>117.46</v>
+        <v>117.41</v>
       </c>
       <c r="CF18">
-        <v>115.25</v>
+        <v>116.11</v>
+      </c>
+      <c r="CG18">
+        <v>114.13</v>
       </c>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B19">
         <v>0.51</v>
@@ -10627,7 +11237,7 @@
         <v>6.86</v>
       </c>
       <c r="E19">
-        <v>10.24</v>
+        <v>10.26</v>
       </c>
       <c r="F19">
         <v>11.61</v>
@@ -10648,7 +11258,7 @@
         <v>3.4</v>
       </c>
       <c r="L19">
-        <v>3.19</v>
+        <v>3.16</v>
       </c>
       <c r="M19">
         <v>2.89</v>
@@ -10693,7 +11303,7 @@
         <v>15.53</v>
       </c>
       <c r="AA19">
-        <v>13.04</v>
+        <v>13.02</v>
       </c>
       <c r="AB19">
         <v>11.72</v>
@@ -10708,7 +11318,7 @@
         <v>15.77</v>
       </c>
       <c r="AF19">
-        <v>19.170000000000002</v>
+        <v>19.2</v>
       </c>
       <c r="AG19">
         <v>30.79</v>
@@ -10720,7 +11330,7 @@
         <v>74.16</v>
       </c>
       <c r="AJ19">
-        <v>110.26</v>
+        <v>110.29</v>
       </c>
       <c r="AK19">
         <v>129.16999999999999</v>
@@ -10744,7 +11354,7 @@
         <v>142.69999999999999</v>
       </c>
       <c r="AR19">
-        <v>91.44</v>
+        <v>91.41</v>
       </c>
       <c r="AS19">
         <v>71.59</v>
@@ -10777,7 +11387,7 @@
         <v>62.33</v>
       </c>
       <c r="BC19">
-        <v>77.430000000000007</v>
+        <v>77.45</v>
       </c>
       <c r="BD19">
         <v>112.91</v>
@@ -10795,22 +11405,22 @@
         <v>206.81</v>
       </c>
       <c r="BI19">
-        <v>235.87</v>
+        <v>235.92</v>
       </c>
       <c r="BJ19">
         <v>193.71</v>
       </c>
       <c r="BK19">
-        <v>165.33</v>
+        <v>165.36</v>
       </c>
       <c r="BL19">
-        <v>123.36</v>
+        <v>123.39</v>
       </c>
       <c r="BM19">
         <v>101.6</v>
       </c>
       <c r="BN19">
-        <v>58.41</v>
+        <v>58.39</v>
       </c>
       <c r="BO19">
         <v>42.67</v>
@@ -10828,7 +11438,7 @@
         <v>8.34</v>
       </c>
       <c r="BT19">
-        <v>7.99</v>
+        <v>8.02</v>
       </c>
       <c r="BU19">
         <v>14.39</v>
@@ -10840,10 +11450,10 @@
         <v>26.92</v>
       </c>
       <c r="BX19">
-        <v>40.24</v>
+        <v>40.270000000000003</v>
       </c>
       <c r="BY19">
-        <v>70.400000000000006</v>
+        <v>70.459999999999994</v>
       </c>
       <c r="BZ19">
         <v>144.80000000000001</v>
@@ -10852,24 +11462,27 @@
         <v>186.85</v>
       </c>
       <c r="CB19">
-        <v>227.04</v>
+        <v>227.01</v>
       </c>
       <c r="CC19">
-        <v>208.86</v>
+        <v>208.81</v>
       </c>
       <c r="CD19">
-        <v>197.3</v>
+        <v>197.39</v>
       </c>
       <c r="CE19">
-        <v>169.6</v>
+        <v>169.73</v>
       </c>
       <c r="CF19">
-        <v>178.08</v>
+        <v>179.62</v>
+      </c>
+      <c r="CG19">
+        <v>173.51</v>
       </c>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B20">
         <v>0.27</v>
@@ -10926,7 +11539,7 @@
         <v>3.25</v>
       </c>
       <c r="T20">
-        <v>3.09</v>
+        <v>3.11</v>
       </c>
       <c r="U20">
         <v>3.68</v>
@@ -10962,7 +11575,7 @@
         <v>10.46</v>
       </c>
       <c r="AF20">
-        <v>11.64</v>
+        <v>11.62</v>
       </c>
       <c r="AG20">
         <v>16.690000000000001</v>
@@ -10989,7 +11602,7 @@
         <v>102.47</v>
       </c>
       <c r="AO20">
-        <v>98.79</v>
+        <v>98.77</v>
       </c>
       <c r="AP20">
         <v>114.28</v>
@@ -11028,16 +11641,16 @@
         <v>53.77</v>
       </c>
       <c r="BB20">
-        <v>73.09</v>
+        <v>73.14</v>
       </c>
       <c r="BC20">
-        <v>98.71</v>
+        <v>98.69</v>
       </c>
       <c r="BD20">
-        <v>127.77</v>
+        <v>127.8</v>
       </c>
       <c r="BE20">
-        <v>179.74</v>
+        <v>179.72</v>
       </c>
       <c r="BF20">
         <v>139.28</v>
@@ -11049,28 +11662,28 @@
         <v>187.69</v>
       </c>
       <c r="BI20">
-        <v>225.87</v>
+        <v>225.84</v>
       </c>
       <c r="BJ20">
-        <v>184.41</v>
+        <v>184.44</v>
       </c>
       <c r="BK20">
-        <v>149.32</v>
+        <v>149.34</v>
       </c>
       <c r="BL20">
-        <v>110.38</v>
+        <v>110.47</v>
       </c>
       <c r="BM20">
-        <v>91.63</v>
+        <v>91.66</v>
       </c>
       <c r="BN20">
         <v>50.31</v>
       </c>
       <c r="BO20">
-        <v>40.94</v>
+        <v>40.92</v>
       </c>
       <c r="BP20">
-        <v>30.67</v>
+        <v>30.64</v>
       </c>
       <c r="BQ20">
         <v>15.19</v>
@@ -11097,19 +11710,19 @@
         <v>30.96</v>
       </c>
       <c r="BY20">
-        <v>49.34</v>
+        <v>49.37</v>
       </c>
       <c r="BZ20">
         <v>99.71</v>
       </c>
       <c r="CA20">
-        <v>150.04</v>
+        <v>150.01</v>
       </c>
       <c r="CB20">
-        <v>188.03</v>
+        <v>188.01</v>
       </c>
       <c r="CC20">
-        <v>176.63</v>
+        <v>176.69</v>
       </c>
       <c r="CD20">
         <v>157.66</v>
@@ -11118,12 +11731,15 @@
         <v>141.72</v>
       </c>
       <c r="CF20">
-        <v>142.37</v>
+        <v>143.33000000000001</v>
+      </c>
+      <c r="CG20">
+        <v>134.61000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B21">
         <v>0.23</v>
@@ -11249,7 +11865,7 @@
         <v>67.069999999999993</v>
       </c>
       <c r="AQ21">
-        <v>78.05</v>
+        <v>78.03</v>
       </c>
       <c r="AR21">
         <v>53.14</v>
@@ -11264,7 +11880,7 @@
         <v>46.85</v>
       </c>
       <c r="AV21">
-        <v>42.81</v>
+        <v>42.79</v>
       </c>
       <c r="AW21">
         <v>38.57</v>
@@ -11300,10 +11916,10 @@
         <v>101.63</v>
       </c>
       <c r="BH21">
-        <v>128.41</v>
+        <v>128.38999999999999</v>
       </c>
       <c r="BI21">
-        <v>140.76</v>
+        <v>140.72999999999999</v>
       </c>
       <c r="BJ21">
         <v>127.73</v>
@@ -11318,7 +11934,7 @@
         <v>58.01</v>
       </c>
       <c r="BN21">
-        <v>35.64</v>
+        <v>35.57</v>
       </c>
       <c r="BO21">
         <v>25.8</v>
@@ -11342,7 +11958,7 @@
         <v>6.51</v>
       </c>
       <c r="BV21">
-        <v>8.73</v>
+        <v>8.76</v>
       </c>
       <c r="BW21">
         <v>13.18</v>
@@ -11357,22 +11973,25 @@
         <v>47.1</v>
       </c>
       <c r="CA21">
-        <v>74.67</v>
+        <v>74.650000000000006</v>
       </c>
       <c r="CB21">
-        <v>86.26</v>
+        <v>86.23</v>
       </c>
       <c r="CC21">
-        <v>88.35</v>
+        <v>88.38</v>
       </c>
       <c r="CD21">
-        <v>71.59</v>
+        <v>71.62</v>
       </c>
       <c r="CE21">
-        <v>58.72</v>
+        <v>58.79</v>
       </c>
       <c r="CF21">
-        <v>55.28</v>
+        <v>55.56</v>
+      </c>
+      <c r="CG21">
+        <v>46.25</v>
       </c>
     </row>
   </sheetData>

--- a/data/source/Altersverteilung.xlsx
+++ b/data/source/Altersverteilung.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FF7FA1-426A-4A65-B76C-50D022D8B3E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2021-10-20\Tabellen_Webmaster\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B15095E1-606C-4DB1-BFF4-8BA4C3D25D96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640"/>
   </bookViews>
   <sheets>
-    <sheet name="Fallzahlen" sheetId="1" r:id="rId1"/>
-    <sheet name="7-Tage-Inzidenz" sheetId="2" r:id="rId2"/>
+    <sheet name="Fallzahlen" sheetId="2" r:id="rId1"/>
+    <sheet name="7-Tages-Inzidenz" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="106">
   <si>
     <t>Altersgruppe</t>
   </si>
@@ -273,6 +278,9 @@
     <t>2021_40</t>
   </si>
   <si>
+    <t>2021_41</t>
+  </si>
+  <si>
     <t>Gesamt</t>
   </si>
   <si>
@@ -336,7 +344,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -814,10 +822,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1172,20 +1179,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CG21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.54296875" style="2"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1440,31 +1444,34 @@
       <c r="CG1" t="s">
         <v>84</v>
       </c>
+      <c r="CH1" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>85</v>
+    <row r="2" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>86</v>
       </c>
       <c r="B2">
         <v>899</v>
       </c>
       <c r="C2">
-        <v>6431</v>
+        <v>6432</v>
       </c>
       <c r="D2">
-        <v>22388</v>
+        <v>22386</v>
       </c>
       <c r="E2">
         <v>33967</v>
       </c>
       <c r="F2">
-        <v>36048</v>
+        <v>36051</v>
       </c>
       <c r="G2">
-        <v>27132</v>
+        <v>27131</v>
       </c>
       <c r="H2">
-        <v>17328</v>
+        <v>17327</v>
       </c>
       <c r="I2">
         <v>12344</v>
@@ -1476,13 +1483,13 @@
         <v>6233</v>
       </c>
       <c r="L2">
-        <v>4758</v>
+        <v>4759</v>
       </c>
       <c r="M2">
         <v>3597</v>
       </c>
       <c r="N2">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="O2">
         <v>2351</v>
@@ -1497,13 +1504,13 @@
         <v>3155</v>
       </c>
       <c r="S2">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="T2">
         <v>2423</v>
       </c>
       <c r="U2">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="V2">
         <v>3924</v>
@@ -1542,103 +1549,103 @@
         <v>26111</v>
       </c>
       <c r="AH2">
-        <v>42060</v>
+        <v>42062</v>
       </c>
       <c r="AI2">
-        <v>74870</v>
+        <v>74872</v>
       </c>
       <c r="AJ2">
-        <v>111015</v>
+        <v>111017</v>
       </c>
       <c r="AK2">
-        <v>125721</v>
+        <v>125725</v>
       </c>
       <c r="AL2">
-        <v>127773</v>
+        <v>127779</v>
       </c>
       <c r="AM2">
-        <v>128356</v>
+        <v>128354</v>
       </c>
       <c r="AN2">
-        <v>123159</v>
+        <v>123157</v>
       </c>
       <c r="AO2">
-        <v>128351</v>
+        <v>128354</v>
       </c>
       <c r="AP2">
-        <v>156288</v>
+        <v>156285</v>
       </c>
       <c r="AQ2">
-        <v>174698</v>
+        <v>174705</v>
       </c>
       <c r="AR2">
-        <v>138942</v>
+        <v>138953</v>
       </c>
       <c r="AS2">
         <v>123073</v>
       </c>
       <c r="AT2">
-        <v>145442</v>
+        <v>145439</v>
       </c>
       <c r="AU2">
-        <v>118896</v>
+        <v>118894</v>
       </c>
       <c r="AV2">
-        <v>95518</v>
+        <v>95517</v>
       </c>
       <c r="AW2">
-        <v>78126</v>
+        <v>78127</v>
       </c>
       <c r="AX2">
-        <v>64558</v>
+        <v>64556</v>
       </c>
       <c r="AY2">
-        <v>50807</v>
+        <v>50808</v>
       </c>
       <c r="AZ2">
-        <v>52388</v>
+        <v>52387</v>
       </c>
       <c r="BA2">
-        <v>56350</v>
+        <v>56349</v>
       </c>
       <c r="BB2">
-        <v>58368</v>
+        <v>58370</v>
       </c>
       <c r="BC2">
-        <v>71306</v>
+        <v>71309</v>
       </c>
       <c r="BD2">
-        <v>92580</v>
+        <v>92579</v>
       </c>
       <c r="BE2">
-        <v>116268</v>
+        <v>116267</v>
       </c>
       <c r="BF2">
-        <v>110097</v>
+        <v>110099</v>
       </c>
       <c r="BG2">
-        <v>118264</v>
+        <v>118261</v>
       </c>
       <c r="BH2">
-        <v>142055</v>
+        <v>142059</v>
       </c>
       <c r="BI2">
-        <v>144749</v>
+        <v>144757</v>
       </c>
       <c r="BJ2">
-        <v>124790</v>
+        <v>124791</v>
       </c>
       <c r="BK2">
-        <v>100988</v>
+        <v>100984</v>
       </c>
       <c r="BL2">
-        <v>70823</v>
+        <v>70821</v>
       </c>
       <c r="BM2">
-        <v>52693</v>
+        <v>52690</v>
       </c>
       <c r="BN2">
-        <v>29870</v>
+        <v>29868</v>
       </c>
       <c r="BO2">
         <v>20671</v>
@@ -1647,60 +1654,63 @@
         <v>14027</v>
       </c>
       <c r="BQ2">
-        <v>7264</v>
+        <v>7265</v>
       </c>
       <c r="BR2">
         <v>4817</v>
       </c>
       <c r="BS2">
-        <v>4350</v>
+        <v>4351</v>
       </c>
       <c r="BT2">
         <v>5565</v>
       </c>
       <c r="BU2">
-        <v>9091</v>
+        <v>9089</v>
       </c>
       <c r="BV2">
-        <v>12617</v>
+        <v>12619</v>
       </c>
       <c r="BW2">
         <v>15490</v>
       </c>
       <c r="BX2">
-        <v>20393</v>
+        <v>20392</v>
       </c>
       <c r="BY2">
-        <v>32040</v>
+        <v>32045</v>
       </c>
       <c r="BZ2">
-        <v>49598</v>
+        <v>49593</v>
       </c>
       <c r="CA2">
-        <v>66277</v>
+        <v>66287</v>
       </c>
       <c r="CB2">
-        <v>74639</v>
+        <v>74649</v>
       </c>
       <c r="CC2">
-        <v>71608</v>
+        <v>71622</v>
       </c>
       <c r="CD2">
-        <v>61385</v>
+        <v>61399</v>
       </c>
       <c r="CE2">
-        <v>53564</v>
+        <v>53567</v>
       </c>
       <c r="CF2">
-        <v>56395</v>
+        <v>56410</v>
       </c>
       <c r="CG2">
-        <v>57438</v>
+        <v>57797</v>
+      </c>
+      <c r="CH2">
+        <v>64723</v>
       </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>86</v>
+    <row r="3" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>87</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1814,7 +1824,7 @@
         <v>2310</v>
       </c>
       <c r="AM3">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="AN3">
         <v>3516</v>
@@ -1826,10 +1836,10 @@
         <v>5401</v>
       </c>
       <c r="AQ3">
-        <v>5969</v>
+        <v>5970</v>
       </c>
       <c r="AR3">
-        <v>5236</v>
+        <v>5237</v>
       </c>
       <c r="AS3">
         <v>4979</v>
@@ -1838,7 +1848,7 @@
         <v>5403</v>
       </c>
       <c r="AU3">
-        <v>5018</v>
+        <v>5019</v>
       </c>
       <c r="AV3">
         <v>3942</v>
@@ -1850,7 +1860,7 @@
         <v>1932</v>
       </c>
       <c r="AY3">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="AZ3">
         <v>1063</v>
@@ -1865,7 +1875,7 @@
         <v>609</v>
       </c>
       <c r="BD3">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="BE3">
         <v>661</v>
@@ -1880,7 +1890,7 @@
         <v>791</v>
       </c>
       <c r="BI3">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="BJ3">
         <v>636</v>
@@ -1922,7 +1932,7 @@
         <v>25</v>
       </c>
       <c r="BW3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BX3">
         <v>66</v>
@@ -1946,18 +1956,21 @@
         <v>393</v>
       </c>
       <c r="CE3">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="CF3">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="CG3">
-        <v>394</v>
+        <v>397</v>
+      </c>
+      <c r="CH3">
+        <v>523</v>
       </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>87</v>
+    <row r="4" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>88</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -2071,13 +2084,13 @@
         <v>2831</v>
       </c>
       <c r="AM4">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="AN4">
         <v>4093</v>
       </c>
       <c r="AO4">
-        <v>4596</v>
+        <v>4597</v>
       </c>
       <c r="AP4">
         <v>5908</v>
@@ -2086,7 +2099,7 @@
         <v>6936</v>
       </c>
       <c r="AR4">
-        <v>5823</v>
+        <v>5822</v>
       </c>
       <c r="AS4">
         <v>5584</v>
@@ -2131,7 +2144,7 @@
         <v>1193</v>
       </c>
       <c r="BG4">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="BH4">
         <v>1201</v>
@@ -2200,7 +2213,7 @@
         <v>508</v>
       </c>
       <c r="CD4">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="CE4">
         <v>453</v>
@@ -2209,12 +2222,15 @@
         <v>530</v>
       </c>
       <c r="CG4">
-        <v>580</v>
+        <v>584</v>
+      </c>
+      <c r="CH4">
+        <v>716</v>
       </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>88</v>
+    <row r="5" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>89</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -2229,13 +2245,13 @@
         <v>1279</v>
       </c>
       <c r="F5">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="G5">
         <v>1719</v>
       </c>
       <c r="H5">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I5">
         <v>818</v>
@@ -2325,16 +2341,16 @@
         <v>3434</v>
       </c>
       <c r="AL5">
-        <v>3796</v>
+        <v>3797</v>
       </c>
       <c r="AM5">
         <v>4359</v>
       </c>
       <c r="AN5">
-        <v>4769</v>
+        <v>4770</v>
       </c>
       <c r="AO5">
-        <v>5445</v>
+        <v>5446</v>
       </c>
       <c r="AP5">
         <v>7073</v>
@@ -2343,10 +2359,10 @@
         <v>8255</v>
       </c>
       <c r="AR5">
-        <v>7407</v>
+        <v>7406</v>
       </c>
       <c r="AS5">
-        <v>6867</v>
+        <v>6866</v>
       </c>
       <c r="AT5">
         <v>7666</v>
@@ -2361,7 +2377,7 @@
         <v>4192</v>
       </c>
       <c r="AX5">
-        <v>3144</v>
+        <v>3142</v>
       </c>
       <c r="AY5">
         <v>2291</v>
@@ -2394,7 +2410,7 @@
         <v>2219</v>
       </c>
       <c r="BI5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="BJ5">
         <v>1594</v>
@@ -2454,7 +2470,7 @@
         <v>676</v>
       </c>
       <c r="CC5">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="CD5">
         <v>790</v>
@@ -2466,12 +2482,15 @@
         <v>904</v>
       </c>
       <c r="CG5">
-        <v>980</v>
+        <v>984</v>
+      </c>
+      <c r="CH5">
+        <v>1150</v>
       </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>89</v>
+    <row r="6" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>90</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -2582,13 +2601,13 @@
         <v>3053</v>
       </c>
       <c r="AL6">
-        <v>3282</v>
+        <v>3283</v>
       </c>
       <c r="AM6">
         <v>3381</v>
       </c>
       <c r="AN6">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="AO6">
         <v>3967</v>
@@ -2609,7 +2628,7 @@
         <v>5216</v>
       </c>
       <c r="AU6">
-        <v>4310</v>
+        <v>4308</v>
       </c>
       <c r="AV6">
         <v>3408</v>
@@ -2624,7 +2643,7 @@
         <v>1701</v>
       </c>
       <c r="AZ6">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="BA6">
         <v>1570</v>
@@ -2654,10 +2673,10 @@
         <v>2488</v>
       </c>
       <c r="BJ6">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="BK6">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="BL6">
         <v>1140</v>
@@ -2675,7 +2694,7 @@
         <v>155</v>
       </c>
       <c r="BQ6">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BR6">
         <v>50</v>
@@ -2708,7 +2727,7 @@
         <v>412</v>
       </c>
       <c r="CB6">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="CC6">
         <v>593</v>
@@ -2717,18 +2736,21 @@
         <v>565</v>
       </c>
       <c r="CE6">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="CF6">
         <v>711</v>
       </c>
       <c r="CG6">
-        <v>733</v>
+        <v>736</v>
+      </c>
+      <c r="CH6">
+        <v>951</v>
       </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>90</v>
+    <row r="7" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>91</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -2839,13 +2861,13 @@
         <v>3187</v>
       </c>
       <c r="AL7">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="AM7">
         <v>3354</v>
       </c>
       <c r="AN7">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="AO7">
         <v>3480</v>
@@ -2899,7 +2921,7 @@
         <v>2840</v>
       </c>
       <c r="BF7">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="BG7">
         <v>3143</v>
@@ -2968,7 +2990,7 @@
         <v>740</v>
       </c>
       <c r="CC7">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="CD7">
         <v>756</v>
@@ -2977,15 +2999,18 @@
         <v>692</v>
       </c>
       <c r="CF7">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="CG7">
-        <v>1015</v>
+        <v>1021</v>
+      </c>
+      <c r="CH7">
+        <v>1142</v>
       </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>91</v>
+    <row r="8" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>92</v>
       </c>
       <c r="B8">
         <v>25</v>
@@ -3096,7 +3121,7 @@
         <v>4264</v>
       </c>
       <c r="AL8">
-        <v>4013</v>
+        <v>4014</v>
       </c>
       <c r="AM8">
         <v>4154</v>
@@ -3105,7 +3130,7 @@
         <v>4132</v>
       </c>
       <c r="AO8">
-        <v>4117</v>
+        <v>4118</v>
       </c>
       <c r="AP8">
         <v>5171</v>
@@ -3126,10 +3151,10 @@
         <v>4416</v>
       </c>
       <c r="AV8">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="AW8">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="AX8">
         <v>2537</v>
@@ -3150,7 +3175,7 @@
         <v>2302</v>
       </c>
       <c r="BD8">
-        <v>3190</v>
+        <v>3191</v>
       </c>
       <c r="BE8">
         <v>3899</v>
@@ -3162,16 +3187,16 @@
         <v>4308</v>
       </c>
       <c r="BH8">
-        <v>4913</v>
+        <v>4912</v>
       </c>
       <c r="BI8">
-        <v>4627</v>
+        <v>4628</v>
       </c>
       <c r="BJ8">
-        <v>3972</v>
+        <v>3973</v>
       </c>
       <c r="BK8">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="BL8">
         <v>2318</v>
@@ -3219,30 +3244,33 @@
         <v>593</v>
       </c>
       <c r="CA8">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="CB8">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="CC8">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="CD8">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="CE8">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="CF8">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="CG8">
-        <v>1377</v>
+        <v>1385</v>
+      </c>
+      <c r="CH8">
+        <v>1563</v>
       </c>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>92</v>
+    <row r="9" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>93</v>
       </c>
       <c r="B9">
         <v>63</v>
@@ -3260,7 +3288,7 @@
         <v>2779</v>
       </c>
       <c r="G9">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="H9">
         <v>1085</v>
@@ -3275,7 +3303,7 @@
         <v>332</v>
       </c>
       <c r="L9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M9">
         <v>175</v>
@@ -3365,7 +3393,7 @@
         <v>7654</v>
       </c>
       <c r="AP9">
-        <v>9431</v>
+        <v>9432</v>
       </c>
       <c r="AQ9">
         <v>11037</v>
@@ -3377,7 +3405,7 @@
         <v>8264</v>
       </c>
       <c r="AT9">
-        <v>9281</v>
+        <v>9282</v>
       </c>
       <c r="AU9">
         <v>7551</v>
@@ -3386,7 +3414,7 @@
         <v>6237</v>
       </c>
       <c r="AW9">
-        <v>5122</v>
+        <v>5123</v>
       </c>
       <c r="AX9">
         <v>4214</v>
@@ -3410,7 +3438,7 @@
         <v>5308</v>
       </c>
       <c r="BE9">
-        <v>6571</v>
+        <v>6572</v>
       </c>
       <c r="BF9">
         <v>6406</v>
@@ -3422,7 +3450,7 @@
         <v>7599</v>
       </c>
       <c r="BI9">
-        <v>7758</v>
+        <v>7757</v>
       </c>
       <c r="BJ9">
         <v>6793</v>
@@ -3434,7 +3462,7 @@
         <v>3731</v>
       </c>
       <c r="BM9">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="BN9">
         <v>1343</v>
@@ -3470,36 +3498,39 @@
         <v>475</v>
       </c>
       <c r="BY9">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="BZ9">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="CA9">
         <v>1485</v>
       </c>
       <c r="CB9">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="CC9">
         <v>1878</v>
       </c>
       <c r="CD9">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="CE9">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="CF9">
         <v>1812</v>
       </c>
       <c r="CG9">
-        <v>2130</v>
+        <v>2147</v>
+      </c>
+      <c r="CH9">
+        <v>2530</v>
       </c>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>93</v>
+    <row r="10" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>94</v>
       </c>
       <c r="B10">
         <v>76</v>
@@ -3610,22 +3641,22 @@
         <v>10167</v>
       </c>
       <c r="AL10">
-        <v>10295</v>
+        <v>10293</v>
       </c>
       <c r="AM10">
-        <v>10257</v>
+        <v>10258</v>
       </c>
       <c r="AN10">
         <v>9876</v>
       </c>
       <c r="AO10">
-        <v>10384</v>
+        <v>10383</v>
       </c>
       <c r="AP10">
-        <v>13045</v>
+        <v>13044</v>
       </c>
       <c r="AQ10">
-        <v>15003</v>
+        <v>15004</v>
       </c>
       <c r="AR10">
         <v>12392</v>
@@ -3634,7 +3665,7 @@
         <v>11092</v>
       </c>
       <c r="AT10">
-        <v>12324</v>
+        <v>12323</v>
       </c>
       <c r="AU10">
         <v>10031</v>
@@ -3643,7 +3674,7 @@
         <v>8336</v>
       </c>
       <c r="AW10">
-        <v>7009</v>
+        <v>7010</v>
       </c>
       <c r="AX10">
         <v>5808</v>
@@ -3655,7 +3686,7 @@
         <v>4604</v>
       </c>
       <c r="BA10">
-        <v>4838</v>
+        <v>4839</v>
       </c>
       <c r="BB10">
         <v>4637</v>
@@ -3664,7 +3695,7 @@
         <v>5713</v>
       </c>
       <c r="BD10">
-        <v>7265</v>
+        <v>7264</v>
       </c>
       <c r="BE10">
         <v>9093</v>
@@ -3676,7 +3707,7 @@
         <v>9680</v>
       </c>
       <c r="BH10">
-        <v>10666</v>
+        <v>10667</v>
       </c>
       <c r="BI10">
         <v>11021</v>
@@ -3685,7 +3716,7 @@
         <v>9924</v>
       </c>
       <c r="BK10">
-        <v>7817</v>
+        <v>7816</v>
       </c>
       <c r="BL10">
         <v>5325</v>
@@ -3724,7 +3755,7 @@
         <v>580</v>
       </c>
       <c r="BX10">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="BY10">
         <v>1245</v>
@@ -3733,45 +3764,48 @@
         <v>1802</v>
       </c>
       <c r="CA10">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="CB10">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="CC10">
         <v>2890</v>
       </c>
       <c r="CD10">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="CE10">
         <v>2490</v>
       </c>
       <c r="CF10">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="CG10">
-        <v>3006</v>
+        <v>3024</v>
+      </c>
+      <c r="CH10">
+        <v>3564</v>
       </c>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>94</v>
+    <row r="11" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>95</v>
       </c>
       <c r="B11">
         <v>133</v>
       </c>
       <c r="C11">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D11">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="E11">
         <v>3999</v>
       </c>
       <c r="F11">
-        <v>3699</v>
+        <v>3700</v>
       </c>
       <c r="G11">
         <v>2606</v>
@@ -3855,22 +3889,22 @@
         <v>2269</v>
       </c>
       <c r="AH11">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="AI11">
-        <v>6420</v>
+        <v>6421</v>
       </c>
       <c r="AJ11">
-        <v>9768</v>
+        <v>9767</v>
       </c>
       <c r="AK11">
-        <v>10964</v>
+        <v>10963</v>
       </c>
       <c r="AL11">
-        <v>10996</v>
+        <v>10997</v>
       </c>
       <c r="AM11">
-        <v>10843</v>
+        <v>10842</v>
       </c>
       <c r="AN11">
         <v>10331</v>
@@ -3885,10 +3919,10 @@
         <v>14919</v>
       </c>
       <c r="AR11">
-        <v>11980</v>
+        <v>11982</v>
       </c>
       <c r="AS11">
-        <v>10528</v>
+        <v>10529</v>
       </c>
       <c r="AT11">
         <v>12103</v>
@@ -3900,16 +3934,16 @@
         <v>8180</v>
       </c>
       <c r="AW11">
-        <v>6676</v>
+        <v>6675</v>
       </c>
       <c r="AX11">
         <v>5304</v>
       </c>
       <c r="AY11">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="AZ11">
-        <v>4501</v>
+        <v>4499</v>
       </c>
       <c r="BA11">
         <v>4751</v>
@@ -3921,16 +3955,16 @@
         <v>5904</v>
       </c>
       <c r="BD11">
-        <v>7533</v>
+        <v>7534</v>
       </c>
       <c r="BE11">
-        <v>9352</v>
+        <v>9351</v>
       </c>
       <c r="BF11">
         <v>9124</v>
       </c>
       <c r="BG11">
-        <v>9955</v>
+        <v>9954</v>
       </c>
       <c r="BH11">
         <v>11113</v>
@@ -3939,22 +3973,22 @@
         <v>11644</v>
       </c>
       <c r="BJ11">
-        <v>10145</v>
+        <v>10144</v>
       </c>
       <c r="BK11">
-        <v>8018</v>
+        <v>8016</v>
       </c>
       <c r="BL11">
         <v>5477</v>
       </c>
       <c r="BM11">
-        <v>3772</v>
+        <v>3773</v>
       </c>
       <c r="BN11">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="BO11">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="BP11">
         <v>823</v>
@@ -3990,30 +4024,33 @@
         <v>2535</v>
       </c>
       <c r="CA11">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="CB11">
-        <v>3722</v>
+        <v>3723</v>
       </c>
       <c r="CC11">
-        <v>3690</v>
+        <v>3693</v>
       </c>
       <c r="CD11">
-        <v>3323</v>
+        <v>3325</v>
       </c>
       <c r="CE11">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="CF11">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="CG11">
-        <v>3435</v>
+        <v>3464</v>
+      </c>
+      <c r="CH11">
+        <v>4165</v>
       </c>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>95</v>
+    <row r="12" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>96</v>
       </c>
       <c r="B12">
         <v>99</v>
@@ -4073,7 +4110,7 @@
         <v>182</v>
       </c>
       <c r="U12">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V12">
         <v>334</v>
@@ -4112,22 +4149,22 @@
         <v>2036</v>
       </c>
       <c r="AH12">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="AI12">
         <v>5820</v>
       </c>
       <c r="AJ12">
-        <v>8398</v>
+        <v>8399</v>
       </c>
       <c r="AK12">
-        <v>9476</v>
+        <v>9478</v>
       </c>
       <c r="AL12">
         <v>9286</v>
       </c>
       <c r="AM12">
-        <v>9674</v>
+        <v>9673</v>
       </c>
       <c r="AN12">
         <v>9057</v>
@@ -4142,7 +4179,7 @@
         <v>12445</v>
       </c>
       <c r="AR12">
-        <v>9743</v>
+        <v>9744</v>
       </c>
       <c r="AS12">
         <v>8553</v>
@@ -4175,7 +4212,7 @@
         <v>4290</v>
       </c>
       <c r="BC12">
-        <v>5187</v>
+        <v>5188</v>
       </c>
       <c r="BD12">
         <v>6516</v>
@@ -4196,22 +4233,22 @@
         <v>10669</v>
       </c>
       <c r="BJ12">
-        <v>9024</v>
+        <v>9025</v>
       </c>
       <c r="BK12">
-        <v>7444</v>
+        <v>7443</v>
       </c>
       <c r="BL12">
         <v>5080</v>
       </c>
       <c r="BM12">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="BN12">
         <v>2078</v>
       </c>
       <c r="BO12">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="BP12">
         <v>872</v>
@@ -4223,7 +4260,7 @@
         <v>274</v>
       </c>
       <c r="BS12">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BT12">
         <v>332</v>
@@ -4241,36 +4278,39 @@
         <v>1176</v>
       </c>
       <c r="BY12">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="BZ12">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="CA12">
-        <v>4105</v>
+        <v>4106</v>
       </c>
       <c r="CB12">
-        <v>4626</v>
+        <v>4629</v>
       </c>
       <c r="CC12">
-        <v>4539</v>
+        <v>4540</v>
       </c>
       <c r="CD12">
-        <v>3788</v>
+        <v>3791</v>
       </c>
       <c r="CE12">
-        <v>3332</v>
+        <v>3334</v>
       </c>
       <c r="CF12">
-        <v>3501</v>
+        <v>3498</v>
       </c>
       <c r="CG12">
-        <v>3765</v>
+        <v>3797</v>
+      </c>
+      <c r="CH12">
+        <v>4294</v>
       </c>
     </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>96</v>
+    <row r="13" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>97</v>
       </c>
       <c r="B13">
         <v>85</v>
@@ -4294,7 +4334,7 @@
         <v>1019</v>
       </c>
       <c r="I13">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J13">
         <v>454</v>
@@ -4366,34 +4406,34 @@
         <v>1051</v>
       </c>
       <c r="AG13">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="AH13">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="AI13">
         <v>5308</v>
       </c>
       <c r="AJ13">
-        <v>7881</v>
+        <v>7882</v>
       </c>
       <c r="AK13">
-        <v>8875</v>
+        <v>8876</v>
       </c>
       <c r="AL13">
-        <v>8993</v>
+        <v>8996</v>
       </c>
       <c r="AM13">
         <v>9245</v>
       </c>
       <c r="AN13">
-        <v>8807</v>
+        <v>8808</v>
       </c>
       <c r="AO13">
         <v>8815</v>
       </c>
       <c r="AP13">
-        <v>10905</v>
+        <v>10904</v>
       </c>
       <c r="AQ13">
         <v>11990</v>
@@ -4411,7 +4451,7 @@
         <v>7557</v>
       </c>
       <c r="AV13">
-        <v>6231</v>
+        <v>6233</v>
       </c>
       <c r="AW13">
         <v>5120</v>
@@ -4420,13 +4460,13 @@
         <v>4276</v>
       </c>
       <c r="AY13">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="AZ13">
         <v>3591</v>
       </c>
       <c r="BA13">
-        <v>4136</v>
+        <v>4134</v>
       </c>
       <c r="BB13">
         <v>4274</v>
@@ -4447,7 +4487,7 @@
         <v>9280</v>
       </c>
       <c r="BH13">
-        <v>10726</v>
+        <v>10728</v>
       </c>
       <c r="BI13">
         <v>10825</v>
@@ -4456,7 +4496,7 @@
         <v>9573</v>
       </c>
       <c r="BK13">
-        <v>7731</v>
+        <v>7732</v>
       </c>
       <c r="BL13">
         <v>5333</v>
@@ -4474,10 +4514,10 @@
         <v>1077</v>
       </c>
       <c r="BQ13">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="BR13">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="BS13">
         <v>269</v>
@@ -4489,7 +4529,7 @@
         <v>505</v>
       </c>
       <c r="BV13">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="BW13">
         <v>988</v>
@@ -4498,36 +4538,39 @@
         <v>1445</v>
       </c>
       <c r="BY13">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="BZ13">
         <v>3755</v>
       </c>
       <c r="CA13">
-        <v>5181</v>
+        <v>5182</v>
       </c>
       <c r="CB13">
-        <v>5690</v>
+        <v>5694</v>
       </c>
       <c r="CC13">
-        <v>5419</v>
+        <v>5421</v>
       </c>
       <c r="CD13">
-        <v>4451</v>
+        <v>4450</v>
       </c>
       <c r="CE13">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="CF13">
-        <v>4195</v>
+        <v>4203</v>
       </c>
       <c r="CG13">
-        <v>4350</v>
+        <v>4387</v>
+      </c>
+      <c r="CH13">
+        <v>4998</v>
       </c>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>97</v>
+    <row r="14" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>98</v>
       </c>
       <c r="B14">
         <v>67</v>
@@ -4536,7 +4579,7 @@
         <v>548</v>
       </c>
       <c r="D14">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E14">
         <v>2384</v>
@@ -4551,7 +4594,7 @@
         <v>982</v>
       </c>
       <c r="I14">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J14">
         <v>463</v>
@@ -4629,13 +4672,13 @@
         <v>3099</v>
       </c>
       <c r="AI14">
-        <v>5386</v>
+        <v>5387</v>
       </c>
       <c r="AJ14">
         <v>8083</v>
       </c>
       <c r="AK14">
-        <v>8957</v>
+        <v>8958</v>
       </c>
       <c r="AL14">
         <v>9191</v>
@@ -4647,19 +4690,19 @@
         <v>8718</v>
       </c>
       <c r="AO14">
-        <v>9146</v>
+        <v>9147</v>
       </c>
       <c r="AP14">
         <v>10993</v>
       </c>
       <c r="AQ14">
-        <v>12228</v>
+        <v>12229</v>
       </c>
       <c r="AR14">
         <v>9522</v>
       </c>
       <c r="AS14">
-        <v>8081</v>
+        <v>8080</v>
       </c>
       <c r="AT14">
         <v>10147</v>
@@ -4677,13 +4720,13 @@
         <v>4460</v>
       </c>
       <c r="AY14">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="AZ14">
         <v>3708</v>
       </c>
       <c r="BA14">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="BB14">
         <v>4574</v>
@@ -4698,16 +4741,16 @@
         <v>9461</v>
       </c>
       <c r="BF14">
-        <v>8985</v>
+        <v>8986</v>
       </c>
       <c r="BG14">
         <v>9483</v>
       </c>
       <c r="BH14">
-        <v>11269</v>
+        <v>11268</v>
       </c>
       <c r="BI14">
-        <v>11279</v>
+        <v>11280</v>
       </c>
       <c r="BJ14">
         <v>10018</v>
@@ -4740,7 +4783,7 @@
         <v>339</v>
       </c>
       <c r="BT14">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="BU14">
         <v>647</v>
@@ -4749,7 +4792,7 @@
         <v>906</v>
       </c>
       <c r="BW14">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="BX14">
         <v>1591</v>
@@ -4758,33 +4801,36 @@
         <v>2447</v>
       </c>
       <c r="BZ14">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="CA14">
-        <v>5263</v>
+        <v>5264</v>
       </c>
       <c r="CB14">
-        <v>5999</v>
+        <v>5997</v>
       </c>
       <c r="CC14">
-        <v>5798</v>
+        <v>5797</v>
       </c>
       <c r="CD14">
-        <v>4816</v>
+        <v>4818</v>
       </c>
       <c r="CE14">
-        <v>4235</v>
+        <v>4237</v>
       </c>
       <c r="CF14">
-        <v>4539</v>
+        <v>4536</v>
       </c>
       <c r="CG14">
-        <v>4691</v>
+        <v>4715</v>
+      </c>
+      <c r="CH14">
+        <v>5294</v>
       </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>98</v>
+    <row r="15" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>99</v>
       </c>
       <c r="B15">
         <v>69</v>
@@ -4901,19 +4947,19 @@
         <v>10084</v>
       </c>
       <c r="AN15">
-        <v>9366</v>
+        <v>9365</v>
       </c>
       <c r="AO15">
-        <v>9471</v>
+        <v>9472</v>
       </c>
       <c r="AP15">
         <v>11523</v>
       </c>
       <c r="AQ15">
-        <v>13027</v>
+        <v>13028</v>
       </c>
       <c r="AR15">
-        <v>10046</v>
+        <v>10047</v>
       </c>
       <c r="AS15">
         <v>9194</v>
@@ -4925,13 +4971,13 @@
         <v>9047</v>
       </c>
       <c r="AV15">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="AW15">
         <v>5764</v>
       </c>
       <c r="AX15">
-        <v>4908</v>
+        <v>4909</v>
       </c>
       <c r="AY15">
         <v>3904</v>
@@ -4940,7 +4986,7 @@
         <v>4114</v>
       </c>
       <c r="BA15">
-        <v>4529</v>
+        <v>4528</v>
       </c>
       <c r="BB15">
         <v>4892</v>
@@ -4949,25 +4995,25 @@
         <v>6016</v>
       </c>
       <c r="BD15">
-        <v>7894</v>
+        <v>7895</v>
       </c>
       <c r="BE15">
         <v>9870</v>
       </c>
       <c r="BF15">
-        <v>9511</v>
+        <v>9512</v>
       </c>
       <c r="BG15">
         <v>10136</v>
       </c>
       <c r="BH15">
-        <v>12014</v>
+        <v>12015</v>
       </c>
       <c r="BI15">
-        <v>11853</v>
+        <v>11855</v>
       </c>
       <c r="BJ15">
-        <v>10453</v>
+        <v>10454</v>
       </c>
       <c r="BK15">
         <v>8277</v>
@@ -4976,7 +5022,7 @@
         <v>5869</v>
       </c>
       <c r="BM15">
-        <v>4539</v>
+        <v>4538</v>
       </c>
       <c r="BN15">
         <v>2746</v>
@@ -4991,7 +5037,7 @@
         <v>631</v>
       </c>
       <c r="BR15">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="BS15">
         <v>428</v>
@@ -5006,42 +5052,45 @@
         <v>1307</v>
       </c>
       <c r="BW15">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="BX15">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="BY15">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="BZ15">
-        <v>4384</v>
+        <v>4382</v>
       </c>
       <c r="CA15">
-        <v>5977</v>
+        <v>5976</v>
       </c>
       <c r="CB15">
-        <v>6581</v>
+        <v>6582</v>
       </c>
       <c r="CC15">
-        <v>6222</v>
+        <v>6223</v>
       </c>
       <c r="CD15">
-        <v>5097</v>
+        <v>5098</v>
       </c>
       <c r="CE15">
-        <v>4602</v>
+        <v>4604</v>
       </c>
       <c r="CF15">
-        <v>4766</v>
+        <v>4767</v>
       </c>
       <c r="CG15">
-        <v>4787</v>
+        <v>4796</v>
+      </c>
+      <c r="CH15">
+        <v>5323</v>
       </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>99</v>
+    <row r="16" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>100</v>
       </c>
       <c r="B16">
         <v>76</v>
@@ -5080,7 +5129,7 @@
         <v>346</v>
       </c>
       <c r="N16">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O16">
         <v>222</v>
@@ -5122,10 +5171,10 @@
         <v>1222</v>
       </c>
       <c r="AB16">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="AC16">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AD16">
         <v>1480</v>
@@ -5140,7 +5189,7 @@
         <v>2686</v>
       </c>
       <c r="AH16">
-        <v>4473</v>
+        <v>4472</v>
       </c>
       <c r="AI16">
         <v>7324</v>
@@ -5149,7 +5198,7 @@
         <v>10344</v>
       </c>
       <c r="AK16">
-        <v>11148</v>
+        <v>11149</v>
       </c>
       <c r="AL16">
         <v>10684</v>
@@ -5161,22 +5210,22 @@
         <v>8997</v>
       </c>
       <c r="AO16">
-        <v>9150</v>
+        <v>9149</v>
       </c>
       <c r="AP16">
-        <v>10781</v>
+        <v>10780</v>
       </c>
       <c r="AQ16">
-        <v>12105</v>
+        <v>12106</v>
       </c>
       <c r="AR16">
-        <v>9428</v>
+        <v>9430</v>
       </c>
       <c r="AS16">
         <v>8423</v>
       </c>
       <c r="AT16">
-        <v>10777</v>
+        <v>10776</v>
       </c>
       <c r="AU16">
         <v>8537</v>
@@ -5185,13 +5234,13 @@
         <v>6393</v>
       </c>
       <c r="AW16">
-        <v>5338</v>
+        <v>5337</v>
       </c>
       <c r="AX16">
-        <v>4488</v>
+        <v>4487</v>
       </c>
       <c r="AY16">
-        <v>3658</v>
+        <v>3659</v>
       </c>
       <c r="AZ16">
         <v>3908</v>
@@ -5200,10 +5249,10 @@
         <v>4151</v>
       </c>
       <c r="BB16">
-        <v>4265</v>
+        <v>4266</v>
       </c>
       <c r="BC16">
-        <v>5465</v>
+        <v>5467</v>
       </c>
       <c r="BD16">
         <v>7013</v>
@@ -5215,16 +5264,16 @@
         <v>8378</v>
       </c>
       <c r="BG16">
-        <v>9214</v>
+        <v>9213</v>
       </c>
       <c r="BH16">
         <v>10900</v>
       </c>
       <c r="BI16">
-        <v>10794</v>
+        <v>10793</v>
       </c>
       <c r="BJ16">
-        <v>9219</v>
+        <v>9218</v>
       </c>
       <c r="BK16">
         <v>7452</v>
@@ -5242,7 +5291,7 @@
         <v>1599</v>
       </c>
       <c r="BP16">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="BQ16">
         <v>619</v>
@@ -5269,36 +5318,39 @@
         <v>2403</v>
       </c>
       <c r="BY16">
-        <v>3590</v>
+        <v>3591</v>
       </c>
       <c r="BZ16">
-        <v>5026</v>
+        <v>5023</v>
       </c>
       <c r="CA16">
         <v>6323</v>
       </c>
       <c r="CB16">
-        <v>6285</v>
+        <v>6287</v>
       </c>
       <c r="CC16">
-        <v>6055</v>
+        <v>6058</v>
       </c>
       <c r="CD16">
-        <v>4894</v>
+        <v>4895</v>
       </c>
       <c r="CE16">
-        <v>4114</v>
+        <v>4113</v>
       </c>
       <c r="CF16">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="CG16">
-        <v>4249</v>
+        <v>4282</v>
+      </c>
+      <c r="CH16">
+        <v>4881</v>
       </c>
     </row>
-    <row r="17" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>100</v>
+    <row r="17" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>101</v>
       </c>
       <c r="B17">
         <v>70</v>
@@ -5313,7 +5365,7 @@
         <v>2269</v>
       </c>
       <c r="F17">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="G17">
         <v>1727</v>
@@ -5352,7 +5404,7 @@
         <v>254</v>
       </c>
       <c r="S17">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T17">
         <v>234</v>
@@ -5379,10 +5431,10 @@
         <v>1329</v>
       </c>
       <c r="AB17">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="AC17">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="AD17">
         <v>1514</v>
@@ -5394,7 +5446,7 @@
         <v>1735</v>
       </c>
       <c r="AG17">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="AH17">
         <v>4386</v>
@@ -5403,16 +5455,16 @@
         <v>7566</v>
       </c>
       <c r="AJ17">
-        <v>10408</v>
+        <v>10409</v>
       </c>
       <c r="AK17">
         <v>11729</v>
       </c>
       <c r="AL17">
-        <v>11028</v>
+        <v>11029</v>
       </c>
       <c r="AM17">
-        <v>10200</v>
+        <v>10201</v>
       </c>
       <c r="AN17">
         <v>8940</v>
@@ -5427,16 +5479,16 @@
         <v>12096</v>
       </c>
       <c r="AR17">
-        <v>9066</v>
+        <v>9070</v>
       </c>
       <c r="AS17">
         <v>8587</v>
       </c>
       <c r="AT17">
-        <v>10891</v>
+        <v>10890</v>
       </c>
       <c r="AU17">
-        <v>8539</v>
+        <v>8538</v>
       </c>
       <c r="AV17">
         <v>6434</v>
@@ -5448,7 +5500,7 @@
         <v>4377</v>
       </c>
       <c r="AY17">
-        <v>3662</v>
+        <v>3664</v>
       </c>
       <c r="AZ17">
         <v>3946</v>
@@ -5457,28 +5509,28 @@
         <v>4199</v>
       </c>
       <c r="BB17">
-        <v>4402</v>
+        <v>4401</v>
       </c>
       <c r="BC17">
         <v>5423</v>
       </c>
       <c r="BD17">
-        <v>6904</v>
+        <v>6903</v>
       </c>
       <c r="BE17">
-        <v>8554</v>
+        <v>8553</v>
       </c>
       <c r="BF17">
-        <v>8505</v>
+        <v>8506</v>
       </c>
       <c r="BG17">
         <v>9800</v>
       </c>
       <c r="BH17">
-        <v>11550</v>
+        <v>11551</v>
       </c>
       <c r="BI17">
-        <v>11267</v>
+        <v>11268</v>
       </c>
       <c r="BJ17">
         <v>9622</v>
@@ -5493,7 +5545,7 @@
         <v>4180</v>
       </c>
       <c r="BN17">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="BO17">
         <v>1734</v>
@@ -5511,51 +5563,54 @@
         <v>553</v>
       </c>
       <c r="BT17">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="BU17">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="BV17">
         <v>2089</v>
       </c>
       <c r="BW17">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="BX17">
         <v>2791</v>
       </c>
       <c r="BY17">
-        <v>4428</v>
+        <v>4427</v>
       </c>
       <c r="BZ17">
-        <v>5783</v>
+        <v>5785</v>
       </c>
       <c r="CA17">
-        <v>6879</v>
+        <v>6881</v>
       </c>
       <c r="CB17">
-        <v>6835</v>
+        <v>6836</v>
       </c>
       <c r="CC17">
-        <v>6223</v>
+        <v>6224</v>
       </c>
       <c r="CD17">
-        <v>4948</v>
+        <v>4954</v>
       </c>
       <c r="CE17">
         <v>4119</v>
       </c>
       <c r="CF17">
-        <v>4075</v>
+        <v>4083</v>
       </c>
       <c r="CG17">
-        <v>4124</v>
+        <v>4146</v>
+      </c>
+      <c r="CH17">
+        <v>4933</v>
       </c>
     </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>101</v>
+    <row r="18" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>102</v>
       </c>
       <c r="B18">
         <v>44</v>
@@ -5666,7 +5721,7 @@
         <v>8409</v>
       </c>
       <c r="AL18">
-        <v>8716</v>
+        <v>8715</v>
       </c>
       <c r="AM18">
         <v>8210</v>
@@ -5681,13 +5736,13 @@
         <v>8818</v>
       </c>
       <c r="AQ18">
-        <v>8474</v>
+        <v>8475</v>
       </c>
       <c r="AR18">
-        <v>5876</v>
+        <v>5877</v>
       </c>
       <c r="AS18">
-        <v>4955</v>
+        <v>4956</v>
       </c>
       <c r="AT18">
         <v>6381</v>
@@ -5720,7 +5775,7 @@
         <v>4106</v>
       </c>
       <c r="BD18">
-        <v>5537</v>
+        <v>5538</v>
       </c>
       <c r="BE18">
         <v>7187</v>
@@ -5732,19 +5787,19 @@
         <v>7547</v>
       </c>
       <c r="BH18">
-        <v>10821</v>
+        <v>10820</v>
       </c>
       <c r="BI18">
-        <v>10337</v>
+        <v>10338</v>
       </c>
       <c r="BJ18">
-        <v>8656</v>
+        <v>8657</v>
       </c>
       <c r="BK18">
-        <v>7052</v>
+        <v>7053</v>
       </c>
       <c r="BL18">
-        <v>4940</v>
+        <v>4939</v>
       </c>
       <c r="BM18">
         <v>3883</v>
@@ -5774,7 +5829,7 @@
         <v>1287</v>
       </c>
       <c r="BV18">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="BW18">
         <v>1843</v>
@@ -5786,33 +5841,36 @@
         <v>3506</v>
       </c>
       <c r="BZ18">
-        <v>5576</v>
+        <v>5573</v>
       </c>
       <c r="CA18">
-        <v>6967</v>
+        <v>6971</v>
       </c>
       <c r="CB18">
-        <v>7776</v>
+        <v>7774</v>
       </c>
       <c r="CC18">
-        <v>6844</v>
+        <v>6847</v>
       </c>
       <c r="CD18">
-        <v>5644</v>
+        <v>5643</v>
       </c>
       <c r="CE18">
         <v>4625</v>
       </c>
       <c r="CF18">
-        <v>4574</v>
+        <v>4577</v>
       </c>
       <c r="CG18">
-        <v>4496</v>
+        <v>4528</v>
+      </c>
+      <c r="CH18">
+        <v>4839</v>
       </c>
     </row>
-    <row r="19" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -5926,7 +5984,7 @@
         <v>5348</v>
       </c>
       <c r="AM19">
-        <v>5299</v>
+        <v>5298</v>
       </c>
       <c r="AN19">
         <v>5184</v>
@@ -5935,10 +5993,10 @@
         <v>5154</v>
       </c>
       <c r="AP19">
-        <v>5688</v>
+        <v>5687</v>
       </c>
       <c r="AQ19">
-        <v>5284</v>
+        <v>5285</v>
       </c>
       <c r="AR19">
         <v>3385</v>
@@ -5947,7 +6005,7 @@
         <v>2651</v>
       </c>
       <c r="AT19">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="AU19">
         <v>2715</v>
@@ -5971,13 +6029,13 @@
         <v>1878</v>
       </c>
       <c r="BB19">
-        <v>2308</v>
+        <v>2310</v>
       </c>
       <c r="BC19">
         <v>2868</v>
       </c>
       <c r="BD19">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="BE19">
         <v>5730</v>
@@ -6019,7 +6077,7 @@
         <v>663</v>
       </c>
       <c r="BR19">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="BS19">
         <v>309</v>
@@ -6034,42 +6092,45 @@
         <v>782</v>
       </c>
       <c r="BW19">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="BX19">
         <v>1491</v>
       </c>
       <c r="BY19">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="BZ19">
-        <v>5362</v>
+        <v>5365</v>
       </c>
       <c r="CA19">
-        <v>6919</v>
+        <v>6921</v>
       </c>
       <c r="CB19">
-        <v>8406</v>
+        <v>8409</v>
       </c>
       <c r="CC19">
-        <v>7732</v>
+        <v>7734</v>
       </c>
       <c r="CD19">
-        <v>7309</v>
+        <v>7307</v>
       </c>
       <c r="CE19">
-        <v>6285</v>
+        <v>6286</v>
       </c>
       <c r="CF19">
-        <v>6651</v>
+        <v>6656</v>
       </c>
       <c r="CG19">
-        <v>6425</v>
+        <v>6472</v>
+      </c>
+      <c r="CH19">
+        <v>6752</v>
       </c>
     </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -6234,7 +6295,7 @@
         <v>3678</v>
       </c>
       <c r="BD20">
-        <v>4763</v>
+        <v>4762</v>
       </c>
       <c r="BE20">
         <v>6698</v>
@@ -6243,25 +6304,25 @@
         <v>5191</v>
       </c>
       <c r="BG20">
-        <v>4698</v>
+        <v>4699</v>
       </c>
       <c r="BH20">
         <v>6995</v>
       </c>
       <c r="BI20">
-        <v>8417</v>
+        <v>8420</v>
       </c>
       <c r="BJ20">
-        <v>6874</v>
+        <v>6873</v>
       </c>
       <c r="BK20">
         <v>5566</v>
       </c>
       <c r="BL20">
-        <v>4117</v>
+        <v>4116</v>
       </c>
       <c r="BM20">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="BN20">
         <v>1875</v>
@@ -6270,7 +6331,7 @@
         <v>1525</v>
       </c>
       <c r="BP20">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="BQ20">
         <v>566</v>
@@ -6288,7 +6349,7 @@
         <v>324</v>
       </c>
       <c r="BV20">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="BW20">
         <v>726</v>
@@ -6303,30 +6364,33 @@
         <v>3716</v>
       </c>
       <c r="CA20">
-        <v>5591</v>
+        <v>5592</v>
       </c>
       <c r="CB20">
-        <v>7007</v>
+        <v>7005</v>
       </c>
       <c r="CC20">
-        <v>6585</v>
+        <v>6587</v>
       </c>
       <c r="CD20">
-        <v>5876</v>
+        <v>5880</v>
       </c>
       <c r="CE20">
-        <v>5282</v>
+        <v>5281</v>
       </c>
       <c r="CF20">
-        <v>5342</v>
+        <v>5344</v>
       </c>
       <c r="CG20">
-        <v>5017</v>
+        <v>5064</v>
+      </c>
+      <c r="CH20">
+        <v>5020</v>
       </c>
     </row>
-    <row r="21" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>102</v>
+    <row r="21" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>103</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -6455,7 +6519,7 @@
         <v>3091</v>
       </c>
       <c r="AR21">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="AS21">
         <v>1525</v>
@@ -6467,7 +6531,7 @@
         <v>1856</v>
       </c>
       <c r="AV21">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="AW21">
         <v>1528</v>
@@ -6500,16 +6564,16 @@
         <v>4466</v>
       </c>
       <c r="BG21">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="BH21">
-        <v>5086</v>
+        <v>5088</v>
       </c>
       <c r="BI21">
-        <v>5575</v>
+        <v>5574</v>
       </c>
       <c r="BJ21">
-        <v>5060</v>
+        <v>5059</v>
       </c>
       <c r="BK21">
         <v>4112</v>
@@ -6551,7 +6615,7 @@
         <v>522</v>
       </c>
       <c r="BX21">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="BY21">
         <v>1234</v>
@@ -6560,44 +6624,46 @@
         <v>1866</v>
       </c>
       <c r="CA21">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="CB21">
-        <v>3416</v>
+        <v>3418</v>
       </c>
       <c r="CC21">
-        <v>3501</v>
+        <v>3499</v>
       </c>
       <c r="CD21">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="CE21">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="CF21">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="CG21">
-        <v>1832</v>
+        <v>1845</v>
+      </c>
+      <c r="CH21">
+        <v>1995</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CG21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CH21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6853,10 +6919,13 @@
       <c r="CG1" t="s">
         <v>84</v>
       </c>
+      <c r="CH1" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2">
         <v>1.08</v>
@@ -6871,13 +6940,13 @@
         <v>40.840000000000003</v>
       </c>
       <c r="F2">
-        <v>43.34</v>
+        <v>43.35</v>
       </c>
       <c r="G2">
         <v>32.619999999999997</v>
       </c>
       <c r="H2">
-        <v>20.84</v>
+        <v>20.83</v>
       </c>
       <c r="I2">
         <v>14.84</v>
@@ -6955,25 +7024,25 @@
         <v>31.4</v>
       </c>
       <c r="AH2">
-        <v>50.57</v>
+        <v>50.58</v>
       </c>
       <c r="AI2">
-        <v>90.02</v>
+        <v>90.03</v>
       </c>
       <c r="AJ2">
-        <v>133.47999999999999</v>
+        <v>133.49</v>
       </c>
       <c r="AK2">
         <v>151.16999999999999</v>
       </c>
       <c r="AL2">
-        <v>153.63</v>
+        <v>153.63999999999999</v>
       </c>
       <c r="AM2">
-        <v>154.34</v>
+        <v>154.33000000000001</v>
       </c>
       <c r="AN2">
-        <v>148.09</v>
+        <v>148.08000000000001</v>
       </c>
       <c r="AO2">
         <v>154.33000000000001</v>
@@ -6982,10 +7051,10 @@
         <v>187.92</v>
       </c>
       <c r="AQ2">
-        <v>210.06</v>
+        <v>210.07</v>
       </c>
       <c r="AR2">
-        <v>167.06</v>
+        <v>167.08</v>
       </c>
       <c r="AS2">
         <v>147.97999999999999</v>
@@ -7012,7 +7081,7 @@
         <v>62.99</v>
       </c>
       <c r="BA2">
-        <v>67.760000000000005</v>
+        <v>67.75</v>
       </c>
       <c r="BB2">
         <v>70.180000000000007</v>
@@ -7036,22 +7105,22 @@
         <v>170.81</v>
       </c>
       <c r="BI2">
-        <v>174.05</v>
+        <v>174.06</v>
       </c>
       <c r="BJ2">
         <v>150.05000000000001</v>
       </c>
       <c r="BK2">
-        <v>121.43</v>
+        <v>121.42</v>
       </c>
       <c r="BL2">
         <v>85.16</v>
       </c>
       <c r="BM2">
-        <v>63.36</v>
+        <v>63.35</v>
       </c>
       <c r="BN2">
-        <v>35.92</v>
+        <v>35.909999999999997</v>
       </c>
       <c r="BO2">
         <v>24.85</v>
@@ -7060,7 +7129,7 @@
         <v>16.87</v>
       </c>
       <c r="BQ2">
-        <v>8.73</v>
+        <v>8.74</v>
       </c>
       <c r="BR2">
         <v>5.79</v>
@@ -7087,33 +7156,36 @@
         <v>38.53</v>
       </c>
       <c r="BZ2">
-        <v>59.64</v>
+        <v>59.63</v>
       </c>
       <c r="CA2">
-        <v>79.69</v>
+        <v>79.7</v>
       </c>
       <c r="CB2">
-        <v>89.75</v>
+        <v>89.76</v>
       </c>
       <c r="CC2">
-        <v>86.1</v>
+        <v>86.12</v>
       </c>
       <c r="CD2">
-        <v>73.81</v>
+        <v>73.83</v>
       </c>
       <c r="CE2">
         <v>64.41</v>
       </c>
       <c r="CF2">
-        <v>67.81</v>
+        <v>67.83</v>
       </c>
       <c r="CG2">
-        <v>69.06</v>
+        <v>69.5</v>
+      </c>
+      <c r="CH2">
+        <v>77.819999999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3">
         <v>0.12</v>
@@ -7227,7 +7299,7 @@
         <v>280.66000000000003</v>
       </c>
       <c r="AM3">
-        <v>372.03</v>
+        <v>372.15</v>
       </c>
       <c r="AN3">
         <v>427.19</v>
@@ -7239,10 +7311,10 @@
         <v>656.22</v>
       </c>
       <c r="AQ3">
-        <v>725.23</v>
+        <v>725.35</v>
       </c>
       <c r="AR3">
-        <v>636.16999999999996</v>
+        <v>636.29</v>
       </c>
       <c r="AS3">
         <v>604.95000000000005</v>
@@ -7251,7 +7323,7 @@
         <v>656.46</v>
       </c>
       <c r="AU3">
-        <v>609.69000000000005</v>
+        <v>609.80999999999995</v>
       </c>
       <c r="AV3">
         <v>478.95</v>
@@ -7263,7 +7335,7 @@
         <v>234.74</v>
       </c>
       <c r="AY3">
-        <v>157.83000000000001</v>
+        <v>157.71</v>
       </c>
       <c r="AZ3">
         <v>129.15</v>
@@ -7278,7 +7350,7 @@
         <v>73.989999999999995</v>
       </c>
       <c r="BD3">
-        <v>77.52</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="BE3">
         <v>80.31</v>
@@ -7293,7 +7365,7 @@
         <v>96.11</v>
       </c>
       <c r="BI3">
-        <v>96.59</v>
+        <v>96.71</v>
       </c>
       <c r="BJ3">
         <v>77.27</v>
@@ -7335,7 +7407,7 @@
         <v>3.04</v>
       </c>
       <c r="BW3">
-        <v>6.93</v>
+        <v>6.8</v>
       </c>
       <c r="BX3">
         <v>8.02</v>
@@ -7359,18 +7431,21 @@
         <v>47.75</v>
       </c>
       <c r="CE3">
-        <v>40.82</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="CF3">
-        <v>39.49</v>
+        <v>39.61</v>
       </c>
       <c r="CG3">
-        <v>47.87</v>
+        <v>48.24</v>
+      </c>
+      <c r="CH3">
+        <v>63.54</v>
       </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4">
         <v>0.38</v>
@@ -7484,13 +7559,13 @@
         <v>181.03</v>
       </c>
       <c r="AM4">
-        <v>215.88</v>
+        <v>215.82</v>
       </c>
       <c r="AN4">
         <v>261.73</v>
       </c>
       <c r="AO4">
-        <v>293.89999999999998</v>
+        <v>293.95999999999998</v>
       </c>
       <c r="AP4">
         <v>377.8</v>
@@ -7499,7 +7574,7 @@
         <v>443.53</v>
       </c>
       <c r="AR4">
-        <v>372.36</v>
+        <v>372.3</v>
       </c>
       <c r="AS4">
         <v>357.08</v>
@@ -7544,7 +7619,7 @@
         <v>76.290000000000006</v>
       </c>
       <c r="BG4">
-        <v>68.55</v>
+        <v>68.489999999999995</v>
       </c>
       <c r="BH4">
         <v>76.8</v>
@@ -7613,7 +7688,7 @@
         <v>32.479999999999997</v>
       </c>
       <c r="CD4">
-        <v>33.06</v>
+        <v>33.119999999999997</v>
       </c>
       <c r="CE4">
         <v>28.97</v>
@@ -7622,12 +7697,15 @@
         <v>33.89</v>
       </c>
       <c r="CG4">
-        <v>37.090000000000003</v>
+        <v>37.340000000000003</v>
+      </c>
+      <c r="CH4">
+        <v>45.79</v>
       </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5">
         <v>0.36</v>
@@ -7642,13 +7720,13 @@
         <v>38.82</v>
       </c>
       <c r="F5">
-        <v>59.59</v>
+        <v>59.62</v>
       </c>
       <c r="G5">
         <v>52.18</v>
       </c>
       <c r="H5">
-        <v>35.700000000000003</v>
+        <v>35.67</v>
       </c>
       <c r="I5">
         <v>24.83</v>
@@ -7738,16 +7816,16 @@
         <v>104.24</v>
       </c>
       <c r="AL5">
-        <v>115.23</v>
+        <v>115.26</v>
       </c>
       <c r="AM5">
         <v>132.32</v>
       </c>
       <c r="AN5">
-        <v>144.77000000000001</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="AO5">
-        <v>165.29</v>
+        <v>165.32</v>
       </c>
       <c r="AP5">
         <v>214.71</v>
@@ -7756,10 +7834,10 @@
         <v>250.59</v>
       </c>
       <c r="AR5">
-        <v>224.84</v>
+        <v>224.81</v>
       </c>
       <c r="AS5">
-        <v>208.45</v>
+        <v>208.42</v>
       </c>
       <c r="AT5">
         <v>232.71</v>
@@ -7774,7 +7852,7 @@
         <v>127.25</v>
       </c>
       <c r="AX5">
-        <v>95.44</v>
+        <v>95.38</v>
       </c>
       <c r="AY5">
         <v>69.540000000000006</v>
@@ -7807,7 +7885,7 @@
         <v>67.36</v>
       </c>
       <c r="BI5">
-        <v>61.41</v>
+        <v>61.44</v>
       </c>
       <c r="BJ5">
         <v>48.39</v>
@@ -7867,7 +7945,7 @@
         <v>20.52</v>
       </c>
       <c r="CC5">
-        <v>25.01</v>
+        <v>25.04</v>
       </c>
       <c r="CD5">
         <v>23.98</v>
@@ -7879,12 +7957,15 @@
         <v>27.44</v>
       </c>
       <c r="CG5">
-        <v>29.75</v>
+        <v>29.87</v>
+      </c>
+      <c r="CH5">
+        <v>34.909999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6">
         <v>0.62</v>
@@ -7995,13 +8076,13 @@
         <v>78.760000000000005</v>
       </c>
       <c r="AL6">
-        <v>84.67</v>
+        <v>84.69</v>
       </c>
       <c r="AM6">
         <v>87.22</v>
       </c>
       <c r="AN6">
-        <v>89.9</v>
+        <v>89.88</v>
       </c>
       <c r="AO6">
         <v>102.34</v>
@@ -8022,7 +8103,7 @@
         <v>134.56</v>
       </c>
       <c r="AU6">
-        <v>111.19</v>
+        <v>111.13</v>
       </c>
       <c r="AV6">
         <v>87.92</v>
@@ -8037,7 +8118,7 @@
         <v>43.88</v>
       </c>
       <c r="AZ6">
-        <v>44.19</v>
+        <v>44.22</v>
       </c>
       <c r="BA6">
         <v>40.5</v>
@@ -8067,10 +8148,10 @@
         <v>64.180000000000007</v>
       </c>
       <c r="BJ6">
-        <v>54.69</v>
+        <v>54.72</v>
       </c>
       <c r="BK6">
-        <v>42.95</v>
+        <v>42.93</v>
       </c>
       <c r="BL6">
         <v>29.41</v>
@@ -8088,7 +8169,7 @@
         <v>4</v>
       </c>
       <c r="BQ6">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="BR6">
         <v>1.29</v>
@@ -8121,7 +8202,7 @@
         <v>10.63</v>
       </c>
       <c r="CB6">
-        <v>13.93</v>
+        <v>13.96</v>
       </c>
       <c r="CC6">
         <v>15.3</v>
@@ -8130,18 +8211,21 @@
         <v>14.58</v>
       </c>
       <c r="CE6">
-        <v>14.52</v>
+        <v>14.55</v>
       </c>
       <c r="CF6">
         <v>18.34</v>
       </c>
       <c r="CG6">
-        <v>18.91</v>
+        <v>18.989999999999998</v>
+      </c>
+      <c r="CH6">
+        <v>24.53</v>
       </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7">
         <v>0.3</v>
@@ -8252,13 +8336,13 @@
         <v>86.74</v>
       </c>
       <c r="AL7">
-        <v>89.93</v>
+        <v>89.95</v>
       </c>
       <c r="AM7">
         <v>91.29</v>
       </c>
       <c r="AN7">
-        <v>86.85</v>
+        <v>86.82</v>
       </c>
       <c r="AO7">
         <v>94.72</v>
@@ -8312,7 +8396,7 @@
         <v>77.3</v>
       </c>
       <c r="BF7">
-        <v>79.010000000000005</v>
+        <v>78.989999999999995</v>
       </c>
       <c r="BG7">
         <v>85.54</v>
@@ -8381,7 +8465,7 @@
         <v>20.14</v>
       </c>
       <c r="CC7">
-        <v>22.26</v>
+        <v>22.32</v>
       </c>
       <c r="CD7">
         <v>20.58</v>
@@ -8390,15 +8474,18 @@
         <v>18.829999999999998</v>
       </c>
       <c r="CF7">
-        <v>23.38</v>
+        <v>23.41</v>
       </c>
       <c r="CG7">
-        <v>27.63</v>
+        <v>27.79</v>
+      </c>
+      <c r="CH7">
+        <v>31.08</v>
       </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8">
         <v>0.51</v>
@@ -8509,7 +8596,7 @@
         <v>87.75</v>
       </c>
       <c r="AL8">
-        <v>82.59</v>
+        <v>82.61</v>
       </c>
       <c r="AM8">
         <v>85.49</v>
@@ -8518,7 +8605,7 @@
         <v>85.04</v>
       </c>
       <c r="AO8">
-        <v>84.73</v>
+        <v>84.75</v>
       </c>
       <c r="AP8">
         <v>106.42</v>
@@ -8539,10 +8626,10 @@
         <v>90.88</v>
       </c>
       <c r="AV8">
-        <v>74.58</v>
+        <v>74.56</v>
       </c>
       <c r="AW8">
-        <v>64.349999999999994</v>
+        <v>64.37</v>
       </c>
       <c r="AX8">
         <v>52.21</v>
@@ -8563,7 +8650,7 @@
         <v>47.38</v>
       </c>
       <c r="BD8">
-        <v>65.650000000000006</v>
+        <v>65.67</v>
       </c>
       <c r="BE8">
         <v>80.239999999999995</v>
@@ -8575,16 +8662,16 @@
         <v>88.66</v>
       </c>
       <c r="BH8">
-        <v>101.11</v>
+        <v>101.09</v>
       </c>
       <c r="BI8">
-        <v>95.22</v>
+        <v>95.25</v>
       </c>
       <c r="BJ8">
-        <v>81.739999999999995</v>
+        <v>81.77</v>
       </c>
       <c r="BK8">
-        <v>67.73</v>
+        <v>67.709999999999994</v>
       </c>
       <c r="BL8">
         <v>47.7</v>
@@ -8632,30 +8719,33 @@
         <v>12.2</v>
       </c>
       <c r="CA8">
-        <v>16.690000000000001</v>
+        <v>16.71</v>
       </c>
       <c r="CB8">
-        <v>20.48</v>
+        <v>20.5</v>
       </c>
       <c r="CC8">
-        <v>22.8</v>
+        <v>22.78</v>
       </c>
       <c r="CD8">
-        <v>21.57</v>
+        <v>21.59</v>
       </c>
       <c r="CE8">
-        <v>20.27</v>
+        <v>20.25</v>
       </c>
       <c r="CF8">
-        <v>22.47</v>
+        <v>22.43</v>
       </c>
       <c r="CG8">
-        <v>28.34</v>
+        <v>28.5</v>
+      </c>
+      <c r="CH8">
+        <v>32.17</v>
       </c>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B9">
         <v>1.1200000000000001</v>
@@ -8673,7 +8763,7 @@
         <v>49.21</v>
       </c>
       <c r="G9">
-        <v>31.66</v>
+        <v>31.64</v>
       </c>
       <c r="H9">
         <v>19.21</v>
@@ -8688,7 +8778,7 @@
         <v>5.88</v>
       </c>
       <c r="L9">
-        <v>4.2300000000000004</v>
+        <v>4.25</v>
       </c>
       <c r="M9">
         <v>3.1</v>
@@ -8778,7 +8868,7 @@
         <v>135.52000000000001</v>
       </c>
       <c r="AP9">
-        <v>166.99</v>
+        <v>167</v>
       </c>
       <c r="AQ9">
         <v>195.42</v>
@@ -8790,7 +8880,7 @@
         <v>146.32</v>
       </c>
       <c r="AT9">
-        <v>164.33</v>
+        <v>164.35</v>
       </c>
       <c r="AU9">
         <v>133.69999999999999</v>
@@ -8799,7 +8889,7 @@
         <v>110.43</v>
       </c>
       <c r="AW9">
-        <v>90.69</v>
+        <v>90.71</v>
       </c>
       <c r="AX9">
         <v>74.61</v>
@@ -8823,7 +8913,7 @@
         <v>93.98</v>
       </c>
       <c r="BE9">
-        <v>116.35</v>
+        <v>116.36</v>
       </c>
       <c r="BF9">
         <v>113.43</v>
@@ -8835,7 +8925,7 @@
         <v>134.55000000000001</v>
       </c>
       <c r="BI9">
-        <v>137.36000000000001</v>
+        <v>137.35</v>
       </c>
       <c r="BJ9">
         <v>120.28</v>
@@ -8847,7 +8937,7 @@
         <v>66.06</v>
       </c>
       <c r="BM9">
-        <v>46.94</v>
+        <v>46.92</v>
       </c>
       <c r="BN9">
         <v>23.78</v>
@@ -8883,36 +8973,39 @@
         <v>8.41</v>
       </c>
       <c r="BY9">
-        <v>12.59</v>
+        <v>12.62</v>
       </c>
       <c r="BZ9">
-        <v>17.32</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="CA9">
         <v>26.29</v>
       </c>
       <c r="CB9">
-        <v>32.49</v>
+        <v>32.47</v>
       </c>
       <c r="CC9">
         <v>33.25</v>
       </c>
       <c r="CD9">
-        <v>30.3</v>
+        <v>30.28</v>
       </c>
       <c r="CE9">
-        <v>29.07</v>
+        <v>29.09</v>
       </c>
       <c r="CF9">
         <v>32.08</v>
       </c>
       <c r="CG9">
-        <v>37.71</v>
+        <v>38.01</v>
+      </c>
+      <c r="CH9">
+        <v>44.8</v>
       </c>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10">
         <v>1.1299999999999999</v>
@@ -9023,22 +9116,22 @@
         <v>150.91</v>
       </c>
       <c r="AL10">
-        <v>152.81</v>
+        <v>152.78</v>
       </c>
       <c r="AM10">
-        <v>152.24</v>
+        <v>152.26</v>
       </c>
       <c r="AN10">
         <v>146.59</v>
       </c>
       <c r="AO10">
-        <v>154.13</v>
+        <v>154.11000000000001</v>
       </c>
       <c r="AP10">
-        <v>193.62</v>
+        <v>193.61</v>
       </c>
       <c r="AQ10">
-        <v>222.69</v>
+        <v>222.7</v>
       </c>
       <c r="AR10">
         <v>183.93</v>
@@ -9047,7 +9140,7 @@
         <v>164.64</v>
       </c>
       <c r="AT10">
-        <v>182.92</v>
+        <v>182.91</v>
       </c>
       <c r="AU10">
         <v>148.88999999999999</v>
@@ -9056,7 +9149,7 @@
         <v>123.73</v>
       </c>
       <c r="AW10">
-        <v>104.03</v>
+        <v>104.05</v>
       </c>
       <c r="AX10">
         <v>86.21</v>
@@ -9068,7 +9161,7 @@
         <v>68.34</v>
       </c>
       <c r="BA10">
-        <v>71.81</v>
+        <v>71.819999999999993</v>
       </c>
       <c r="BB10">
         <v>68.83</v>
@@ -9077,7 +9170,7 @@
         <v>84.8</v>
       </c>
       <c r="BD10">
-        <v>107.83</v>
+        <v>107.82</v>
       </c>
       <c r="BE10">
         <v>134.96</v>
@@ -9089,7 +9182,7 @@
         <v>143.68</v>
       </c>
       <c r="BH10">
-        <v>158.31</v>
+        <v>158.33000000000001</v>
       </c>
       <c r="BI10">
         <v>163.58000000000001</v>
@@ -9098,7 +9191,7 @@
         <v>147.30000000000001</v>
       </c>
       <c r="BK10">
-        <v>116.03</v>
+        <v>116.01</v>
       </c>
       <c r="BL10">
         <v>79.040000000000006</v>
@@ -9137,7 +9230,7 @@
         <v>8.61</v>
       </c>
       <c r="BX10">
-        <v>11.67</v>
+        <v>11.65</v>
       </c>
       <c r="BY10">
         <v>18.48</v>
@@ -9146,45 +9239,48 @@
         <v>26.75</v>
       </c>
       <c r="CA10">
-        <v>35.619999999999997</v>
+        <v>35.64</v>
       </c>
       <c r="CB10">
-        <v>40.24</v>
+        <v>40.25</v>
       </c>
       <c r="CC10">
         <v>42.9</v>
       </c>
       <c r="CD10">
-        <v>38.590000000000003</v>
+        <v>38.58</v>
       </c>
       <c r="CE10">
         <v>36.96</v>
       </c>
       <c r="CF10">
-        <v>40.950000000000003</v>
+        <v>40.94</v>
       </c>
       <c r="CG10">
-        <v>44.62</v>
+        <v>44.88</v>
+      </c>
+      <c r="CH10">
+        <v>52.9</v>
       </c>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B11">
         <v>1.98</v>
       </c>
       <c r="C11">
-        <v>14.59</v>
+        <v>14.6</v>
       </c>
       <c r="D11">
-        <v>46.03</v>
+        <v>46.02</v>
       </c>
       <c r="E11">
         <v>59.6</v>
       </c>
       <c r="F11">
-        <v>55.12</v>
+        <v>55.14</v>
       </c>
       <c r="G11">
         <v>38.840000000000003</v>
@@ -9268,22 +9364,22 @@
         <v>33.81</v>
       </c>
       <c r="AH11">
-        <v>53.34</v>
+        <v>53.35</v>
       </c>
       <c r="AI11">
-        <v>95.67</v>
+        <v>95.69</v>
       </c>
       <c r="AJ11">
-        <v>145.57</v>
+        <v>145.55000000000001</v>
       </c>
       <c r="AK11">
-        <v>163.38999999999999</v>
+        <v>163.38</v>
       </c>
       <c r="AL11">
-        <v>163.87</v>
+        <v>163.88</v>
       </c>
       <c r="AM11">
-        <v>161.59</v>
+        <v>161.57</v>
       </c>
       <c r="AN11">
         <v>153.96</v>
@@ -9298,10 +9394,10 @@
         <v>222.33</v>
       </c>
       <c r="AR11">
-        <v>178.53</v>
+        <v>178.56</v>
       </c>
       <c r="AS11">
-        <v>156.88999999999999</v>
+        <v>156.91</v>
       </c>
       <c r="AT11">
         <v>180.37</v>
@@ -9313,16 +9409,16 @@
         <v>121.9</v>
       </c>
       <c r="AW11">
-        <v>99.49</v>
+        <v>99.47</v>
       </c>
       <c r="AX11">
         <v>79.040000000000006</v>
       </c>
       <c r="AY11">
-        <v>64.25</v>
+        <v>64.260000000000005</v>
       </c>
       <c r="AZ11">
-        <v>67.08</v>
+        <v>67.05</v>
       </c>
       <c r="BA11">
         <v>70.8</v>
@@ -9334,16 +9430,16 @@
         <v>87.98</v>
       </c>
       <c r="BD11">
-        <v>112.26</v>
+        <v>112.28</v>
       </c>
       <c r="BE11">
-        <v>139.37</v>
+        <v>139.35</v>
       </c>
       <c r="BF11">
         <v>135.97</v>
       </c>
       <c r="BG11">
-        <v>148.36000000000001</v>
+        <v>148.34</v>
       </c>
       <c r="BH11">
         <v>165.61</v>
@@ -9352,22 +9448,22 @@
         <v>173.53</v>
       </c>
       <c r="BJ11">
-        <v>151.19</v>
+        <v>151.16999999999999</v>
       </c>
       <c r="BK11">
-        <v>119.49</v>
+        <v>119.46</v>
       </c>
       <c r="BL11">
         <v>81.62</v>
       </c>
       <c r="BM11">
-        <v>56.21</v>
+        <v>56.23</v>
       </c>
       <c r="BN11">
-        <v>30.62</v>
+        <v>30.61</v>
       </c>
       <c r="BO11">
-        <v>20.18</v>
+        <v>20.16</v>
       </c>
       <c r="BP11">
         <v>12.26</v>
@@ -9403,30 +9499,33 @@
         <v>37.78</v>
       </c>
       <c r="CA11">
-        <v>49.67</v>
+        <v>49.66</v>
       </c>
       <c r="CB11">
-        <v>55.47</v>
+        <v>55.48</v>
       </c>
       <c r="CC11">
-        <v>54.99</v>
+        <v>55.04</v>
       </c>
       <c r="CD11">
-        <v>49.52</v>
+        <v>49.55</v>
       </c>
       <c r="CE11">
-        <v>43.11</v>
+        <v>43.13</v>
       </c>
       <c r="CF11">
-        <v>49.12</v>
+        <v>49.1</v>
       </c>
       <c r="CG11">
-        <v>51.19</v>
+        <v>51.62</v>
+      </c>
+      <c r="CH11">
+        <v>62.07</v>
       </c>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B12">
         <v>1.88</v>
@@ -9486,7 +9585,7 @@
         <v>3.45</v>
       </c>
       <c r="U12">
-        <v>4.4000000000000004</v>
+        <v>4.42</v>
       </c>
       <c r="V12">
         <v>6.33</v>
@@ -9525,22 +9624,22 @@
         <v>38.61</v>
       </c>
       <c r="AH12">
-        <v>59.17</v>
+        <v>59.18</v>
       </c>
       <c r="AI12">
         <v>110.37</v>
       </c>
       <c r="AJ12">
-        <v>159.25</v>
+        <v>159.27000000000001</v>
       </c>
       <c r="AK12">
-        <v>179.7</v>
+        <v>179.73</v>
       </c>
       <c r="AL12">
         <v>176.09</v>
       </c>
       <c r="AM12">
-        <v>183.45</v>
+        <v>183.43</v>
       </c>
       <c r="AN12">
         <v>171.75</v>
@@ -9555,7 +9654,7 @@
         <v>236</v>
       </c>
       <c r="AR12">
-        <v>184.76</v>
+        <v>184.78</v>
       </c>
       <c r="AS12">
         <v>162.19</v>
@@ -9588,7 +9687,7 @@
         <v>81.349999999999994</v>
       </c>
       <c r="BC12">
-        <v>98.36</v>
+        <v>98.38</v>
       </c>
       <c r="BD12">
         <v>123.56</v>
@@ -9609,22 +9708,22 @@
         <v>202.32</v>
       </c>
       <c r="BJ12">
-        <v>171.12</v>
+        <v>171.14</v>
       </c>
       <c r="BK12">
-        <v>141.16</v>
+        <v>141.13999999999999</v>
       </c>
       <c r="BL12">
         <v>96.33</v>
       </c>
       <c r="BM12">
-        <v>68.02</v>
+        <v>68</v>
       </c>
       <c r="BN12">
         <v>39.409999999999997</v>
       </c>
       <c r="BO12">
-        <v>24.77</v>
+        <v>24.78</v>
       </c>
       <c r="BP12">
         <v>16.54</v>
@@ -9636,7 +9735,7 @@
         <v>5.2</v>
       </c>
       <c r="BS12">
-        <v>4.91</v>
+        <v>4.93</v>
       </c>
       <c r="BT12">
         <v>6.3</v>
@@ -9654,36 +9753,39 @@
         <v>22.3</v>
       </c>
       <c r="BY12">
-        <v>36.94</v>
+        <v>36.979999999999997</v>
       </c>
       <c r="BZ12">
-        <v>58.81</v>
+        <v>58.79</v>
       </c>
       <c r="CA12">
-        <v>77.84</v>
+        <v>77.86</v>
       </c>
       <c r="CB12">
-        <v>87.72</v>
+        <v>87.78</v>
       </c>
       <c r="CC12">
-        <v>86.07</v>
+        <v>86.09</v>
       </c>
       <c r="CD12">
-        <v>71.83</v>
+        <v>71.89</v>
       </c>
       <c r="CE12">
-        <v>63.19</v>
+        <v>63.22</v>
       </c>
       <c r="CF12">
-        <v>66.39</v>
+        <v>66.33</v>
       </c>
       <c r="CG12">
-        <v>71.400000000000006</v>
+        <v>72</v>
+      </c>
+      <c r="CH12">
+        <v>81.430000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B13">
         <v>1.73</v>
@@ -9707,7 +9809,7 @@
         <v>20.76</v>
       </c>
       <c r="I13">
-        <v>14.2</v>
+        <v>14.22</v>
       </c>
       <c r="J13">
         <v>9.25</v>
@@ -9779,34 +9881,34 @@
         <v>21.41</v>
       </c>
       <c r="AG13">
-        <v>38.090000000000003</v>
+        <v>38.07</v>
       </c>
       <c r="AH13">
-        <v>59.16</v>
+        <v>59.18</v>
       </c>
       <c r="AI13">
         <v>108.13</v>
       </c>
       <c r="AJ13">
-        <v>160.54</v>
+        <v>160.56</v>
       </c>
       <c r="AK13">
-        <v>180.79</v>
+        <v>180.81</v>
       </c>
       <c r="AL13">
-        <v>183.19</v>
+        <v>183.25</v>
       </c>
       <c r="AM13">
         <v>188.33</v>
       </c>
       <c r="AN13">
-        <v>179.4</v>
+        <v>179.42</v>
       </c>
       <c r="AO13">
         <v>179.57</v>
       </c>
       <c r="AP13">
-        <v>222.14</v>
+        <v>222.12</v>
       </c>
       <c r="AQ13">
         <v>244.24</v>
@@ -9824,7 +9926,7 @@
         <v>153.94</v>
       </c>
       <c r="AV13">
-        <v>126.93</v>
+        <v>126.97</v>
       </c>
       <c r="AW13">
         <v>104.3</v>
@@ -9833,13 +9935,13 @@
         <v>87.1</v>
       </c>
       <c r="AY13">
-        <v>70.56</v>
+        <v>70.540000000000006</v>
       </c>
       <c r="AZ13">
         <v>73.150000000000006</v>
       </c>
       <c r="BA13">
-        <v>84.25</v>
+        <v>84.21</v>
       </c>
       <c r="BB13">
         <v>87.06</v>
@@ -9860,7 +9962,7 @@
         <v>189.04</v>
       </c>
       <c r="BH13">
-        <v>218.5</v>
+        <v>218.54</v>
       </c>
       <c r="BI13">
         <v>220.51</v>
@@ -9869,7 +9971,7 @@
         <v>195.01</v>
       </c>
       <c r="BK13">
-        <v>157.49</v>
+        <v>157.51</v>
       </c>
       <c r="BL13">
         <v>108.64</v>
@@ -9887,10 +9989,10 @@
         <v>21.94</v>
       </c>
       <c r="BQ13">
-        <v>10.76</v>
+        <v>10.8</v>
       </c>
       <c r="BR13">
-        <v>7.21</v>
+        <v>7.23</v>
       </c>
       <c r="BS13">
         <v>5.48</v>
@@ -9902,7 +10004,7 @@
         <v>10.29</v>
       </c>
       <c r="BV13">
-        <v>14.97</v>
+        <v>14.95</v>
       </c>
       <c r="BW13">
         <v>20.13</v>
@@ -9911,36 +10013,39 @@
         <v>29.44</v>
       </c>
       <c r="BY13">
-        <v>47.91</v>
+        <v>47.93</v>
       </c>
       <c r="BZ13">
         <v>76.489999999999995</v>
       </c>
       <c r="CA13">
-        <v>105.54</v>
+        <v>105.56</v>
       </c>
       <c r="CB13">
-        <v>115.91</v>
+        <v>115.99</v>
       </c>
       <c r="CC13">
-        <v>110.39</v>
+        <v>110.43</v>
       </c>
       <c r="CD13">
-        <v>90.67</v>
+        <v>90.65</v>
       </c>
       <c r="CE13">
-        <v>79.510000000000005</v>
+        <v>79.489999999999995</v>
       </c>
       <c r="CF13">
-        <v>85.45</v>
+        <v>85.62</v>
       </c>
       <c r="CG13">
-        <v>88.61</v>
+        <v>89.37</v>
+      </c>
+      <c r="CH13">
+        <v>101.81</v>
       </c>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B14">
         <v>1.27</v>
@@ -9949,7 +10054,7 @@
         <v>10.36</v>
       </c>
       <c r="D14">
-        <v>33.14</v>
+        <v>33.119999999999997</v>
       </c>
       <c r="E14">
         <v>45.07</v>
@@ -9964,7 +10069,7 @@
         <v>18.57</v>
       </c>
       <c r="I14">
-        <v>14.41</v>
+        <v>14.39</v>
       </c>
       <c r="J14">
         <v>8.75</v>
@@ -10042,13 +10147,13 @@
         <v>58.59</v>
       </c>
       <c r="AI14">
-        <v>101.83</v>
+        <v>101.85</v>
       </c>
       <c r="AJ14">
         <v>152.82</v>
       </c>
       <c r="AK14">
-        <v>169.34</v>
+        <v>169.36</v>
       </c>
       <c r="AL14">
         <v>173.77</v>
@@ -10060,19 +10165,19 @@
         <v>164.83</v>
       </c>
       <c r="AO14">
-        <v>172.92</v>
+        <v>172.94</v>
       </c>
       <c r="AP14">
         <v>207.84</v>
       </c>
       <c r="AQ14">
-        <v>231.19</v>
+        <v>231.21</v>
       </c>
       <c r="AR14">
         <v>180.03</v>
       </c>
       <c r="AS14">
-        <v>152.78</v>
+        <v>152.76</v>
       </c>
       <c r="AT14">
         <v>191.84</v>
@@ -10090,13 +10195,13 @@
         <v>84.32</v>
       </c>
       <c r="AY14">
-        <v>67.95</v>
+        <v>67.930000000000007</v>
       </c>
       <c r="AZ14">
         <v>70.099999999999994</v>
       </c>
       <c r="BA14">
-        <v>79.05</v>
+        <v>79.069999999999993</v>
       </c>
       <c r="BB14">
         <v>86.48</v>
@@ -10111,16 +10216,16 @@
         <v>178.87</v>
       </c>
       <c r="BF14">
-        <v>169.87</v>
+        <v>169.89</v>
       </c>
       <c r="BG14">
         <v>179.29</v>
       </c>
       <c r="BH14">
-        <v>213.06</v>
+        <v>213.04</v>
       </c>
       <c r="BI14">
-        <v>213.25</v>
+        <v>213.26</v>
       </c>
       <c r="BJ14">
         <v>189.4</v>
@@ -10153,7 +10258,7 @@
         <v>6.41</v>
       </c>
       <c r="BT14">
-        <v>7.17</v>
+        <v>7.18</v>
       </c>
       <c r="BU14">
         <v>12.23</v>
@@ -10162,7 +10267,7 @@
         <v>17.13</v>
       </c>
       <c r="BW14">
-        <v>22.04</v>
+        <v>22.06</v>
       </c>
       <c r="BX14">
         <v>30.08</v>
@@ -10171,33 +10276,36 @@
         <v>46.26</v>
       </c>
       <c r="BZ14">
-        <v>71.239999999999995</v>
+        <v>71.22</v>
       </c>
       <c r="CA14">
-        <v>99.5</v>
+        <v>99.52</v>
       </c>
       <c r="CB14">
-        <v>113.42</v>
+        <v>113.38</v>
       </c>
       <c r="CC14">
-        <v>109.62</v>
+        <v>109.6</v>
       </c>
       <c r="CD14">
-        <v>91.05</v>
+        <v>91.09</v>
       </c>
       <c r="CE14">
-        <v>80.069999999999993</v>
+        <v>80.11</v>
       </c>
       <c r="CF14">
-        <v>85.82</v>
+        <v>85.76</v>
       </c>
       <c r="CG14">
-        <v>88.69</v>
+        <v>89.14</v>
+      </c>
+      <c r="CH14">
+        <v>100.09</v>
       </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B15">
         <v>1.26</v>
@@ -10314,19 +10422,19 @@
         <v>183.49</v>
       </c>
       <c r="AN15">
-        <v>170.42</v>
+        <v>170.41</v>
       </c>
       <c r="AO15">
-        <v>172.33</v>
+        <v>172.35</v>
       </c>
       <c r="AP15">
         <v>209.67</v>
       </c>
       <c r="AQ15">
-        <v>237.04</v>
+        <v>237.06</v>
       </c>
       <c r="AR15">
-        <v>182.8</v>
+        <v>182.81</v>
       </c>
       <c r="AS15">
         <v>167.29</v>
@@ -10338,13 +10446,13 @@
         <v>164.62</v>
       </c>
       <c r="AV15">
-        <v>127.7</v>
+        <v>127.68</v>
       </c>
       <c r="AW15">
         <v>104.88</v>
       </c>
       <c r="AX15">
-        <v>89.31</v>
+        <v>89.32</v>
       </c>
       <c r="AY15">
         <v>71.040000000000006</v>
@@ -10353,7 +10461,7 @@
         <v>74.86</v>
       </c>
       <c r="BA15">
-        <v>82.41</v>
+        <v>82.39</v>
       </c>
       <c r="BB15">
         <v>89.01</v>
@@ -10362,25 +10470,25 @@
         <v>109.47</v>
       </c>
       <c r="BD15">
-        <v>143.63999999999999</v>
+        <v>143.66</v>
       </c>
       <c r="BE15">
         <v>179.59</v>
       </c>
       <c r="BF15">
-        <v>173.06</v>
+        <v>173.08</v>
       </c>
       <c r="BG15">
         <v>184.43</v>
       </c>
       <c r="BH15">
-        <v>218.61</v>
+        <v>218.62</v>
       </c>
       <c r="BI15">
-        <v>215.68</v>
+        <v>215.71</v>
       </c>
       <c r="BJ15">
-        <v>190.2</v>
+        <v>190.22</v>
       </c>
       <c r="BK15">
         <v>150.61000000000001</v>
@@ -10389,7 +10497,7 @@
         <v>106.79</v>
       </c>
       <c r="BM15">
-        <v>82.59</v>
+        <v>82.57</v>
       </c>
       <c r="BN15">
         <v>49.97</v>
@@ -10404,7 +10512,7 @@
         <v>11.48</v>
       </c>
       <c r="BR15">
-        <v>7.62</v>
+        <v>7.59</v>
       </c>
       <c r="BS15">
         <v>7.79</v>
@@ -10419,42 +10527,45 @@
         <v>23.78</v>
       </c>
       <c r="BW15">
-        <v>27.55</v>
+        <v>27.53</v>
       </c>
       <c r="BX15">
-        <v>37.76</v>
+        <v>37.770000000000003</v>
       </c>
       <c r="BY15">
-        <v>55.41</v>
+        <v>55.42</v>
       </c>
       <c r="BZ15">
-        <v>79.77</v>
+        <v>79.73</v>
       </c>
       <c r="CA15">
-        <v>108.76</v>
+        <v>108.74</v>
       </c>
       <c r="CB15">
-        <v>119.75</v>
+        <v>119.77</v>
       </c>
       <c r="CC15">
-        <v>113.22</v>
+        <v>113.23</v>
       </c>
       <c r="CD15">
-        <v>92.74</v>
+        <v>92.76</v>
       </c>
       <c r="CE15">
-        <v>83.74</v>
+        <v>83.77</v>
       </c>
       <c r="CF15">
-        <v>86.72</v>
+        <v>86.74</v>
       </c>
       <c r="CG15">
-        <v>87.1</v>
+        <v>87.27</v>
+      </c>
+      <c r="CH15">
+        <v>96.86</v>
       </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16">
         <v>1.5</v>
@@ -10493,7 +10604,7 @@
         <v>6.82</v>
       </c>
       <c r="N16">
-        <v>6.21</v>
+        <v>6.19</v>
       </c>
       <c r="O16">
         <v>4.37</v>
@@ -10535,10 +10646,10 @@
         <v>24.08</v>
       </c>
       <c r="AB16">
-        <v>22.9</v>
+        <v>22.92</v>
       </c>
       <c r="AC16">
-        <v>24.18</v>
+        <v>24.16</v>
       </c>
       <c r="AD16">
         <v>29.17</v>
@@ -10553,7 +10664,7 @@
         <v>52.93</v>
       </c>
       <c r="AH16">
-        <v>88.15</v>
+        <v>88.13</v>
       </c>
       <c r="AI16">
         <v>144.33000000000001</v>
@@ -10562,7 +10673,7 @@
         <v>203.84</v>
       </c>
       <c r="AK16">
-        <v>219.69</v>
+        <v>219.71</v>
       </c>
       <c r="AL16">
         <v>210.54</v>
@@ -10574,22 +10685,22 @@
         <v>177.3</v>
       </c>
       <c r="AO16">
-        <v>180.31</v>
+        <v>180.29</v>
       </c>
       <c r="AP16">
-        <v>212.46</v>
+        <v>212.44</v>
       </c>
       <c r="AQ16">
-        <v>238.55</v>
+        <v>238.57</v>
       </c>
       <c r="AR16">
-        <v>185.79</v>
+        <v>185.83</v>
       </c>
       <c r="AS16">
         <v>165.99</v>
       </c>
       <c r="AT16">
-        <v>212.38</v>
+        <v>212.36</v>
       </c>
       <c r="AU16">
         <v>168.23</v>
@@ -10598,13 +10709,13 @@
         <v>125.98</v>
       </c>
       <c r="AW16">
-        <v>105.19</v>
+        <v>105.17</v>
       </c>
       <c r="AX16">
-        <v>88.44</v>
+        <v>88.42</v>
       </c>
       <c r="AY16">
-        <v>72.09</v>
+        <v>72.11</v>
       </c>
       <c r="AZ16">
         <v>77.010000000000005</v>
@@ -10613,10 +10724,10 @@
         <v>81.8</v>
       </c>
       <c r="BB16">
-        <v>84.05</v>
+        <v>84.07</v>
       </c>
       <c r="BC16">
-        <v>107.7</v>
+        <v>107.74</v>
       </c>
       <c r="BD16">
         <v>138.19999999999999</v>
@@ -10628,16 +10739,16 @@
         <v>165.1</v>
       </c>
       <c r="BG16">
-        <v>181.58</v>
+        <v>181.56</v>
       </c>
       <c r="BH16">
         <v>214.8</v>
       </c>
       <c r="BI16">
-        <v>212.71</v>
+        <v>212.69</v>
       </c>
       <c r="BJ16">
-        <v>181.67</v>
+        <v>181.65</v>
       </c>
       <c r="BK16">
         <v>146.85</v>
@@ -10655,7 +10766,7 @@
         <v>31.51</v>
       </c>
       <c r="BP16">
-        <v>21.82</v>
+        <v>21.83</v>
       </c>
       <c r="BQ16">
         <v>12.2</v>
@@ -10682,36 +10793,39 @@
         <v>47.35</v>
       </c>
       <c r="BY16">
-        <v>70.75</v>
+        <v>70.77</v>
       </c>
       <c r="BZ16">
-        <v>99.04</v>
+        <v>98.99</v>
       </c>
       <c r="CA16">
         <v>124.6</v>
       </c>
       <c r="CB16">
-        <v>123.86</v>
+        <v>123.89</v>
       </c>
       <c r="CC16">
-        <v>119.32</v>
+        <v>119.38</v>
       </c>
       <c r="CD16">
-        <v>96.44</v>
+        <v>96.46</v>
       </c>
       <c r="CE16">
-        <v>81.069999999999993</v>
+        <v>81.05</v>
       </c>
       <c r="CF16">
-        <v>83.73</v>
+        <v>83.69</v>
       </c>
       <c r="CG16">
-        <v>83.73</v>
+        <v>84.38</v>
+      </c>
+      <c r="CH16">
+        <v>96.19</v>
       </c>
     </row>
-    <row r="17" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B17">
         <v>1.52</v>
@@ -10726,7 +10840,7 @@
         <v>49.24</v>
       </c>
       <c r="F17">
-        <v>48.61</v>
+        <v>48.63</v>
       </c>
       <c r="G17">
         <v>37.47</v>
@@ -10765,7 +10879,7 @@
         <v>5.51</v>
       </c>
       <c r="S17">
-        <v>5.58</v>
+        <v>5.56</v>
       </c>
       <c r="T17">
         <v>5.08</v>
@@ -10792,10 +10906,10 @@
         <v>28.84</v>
       </c>
       <c r="AB17">
-        <v>27.08</v>
+        <v>27.06</v>
       </c>
       <c r="AC17">
-        <v>27.84</v>
+        <v>27.86</v>
       </c>
       <c r="AD17">
         <v>32.85</v>
@@ -10807,7 +10921,7 @@
         <v>37.65</v>
       </c>
       <c r="AG17">
-        <v>60.52</v>
+        <v>60.54</v>
       </c>
       <c r="AH17">
         <v>95.17</v>
@@ -10816,16 +10930,16 @@
         <v>164.18</v>
       </c>
       <c r="AJ17">
-        <v>225.85</v>
+        <v>225.87</v>
       </c>
       <c r="AK17">
         <v>254.51</v>
       </c>
       <c r="AL17">
-        <v>239.3</v>
+        <v>239.32</v>
       </c>
       <c r="AM17">
-        <v>221.33</v>
+        <v>221.36</v>
       </c>
       <c r="AN17">
         <v>193.99</v>
@@ -10840,16 +10954,16 @@
         <v>262.48</v>
       </c>
       <c r="AR17">
-        <v>196.73</v>
+        <v>196.81</v>
       </c>
       <c r="AS17">
         <v>186.33</v>
       </c>
       <c r="AT17">
-        <v>236.33</v>
+        <v>236.31</v>
       </c>
       <c r="AU17">
-        <v>185.29</v>
+        <v>185.27</v>
       </c>
       <c r="AV17">
         <v>139.61000000000001</v>
@@ -10861,7 +10975,7 @@
         <v>94.98</v>
       </c>
       <c r="AY17">
-        <v>79.459999999999994</v>
+        <v>79.510000000000005</v>
       </c>
       <c r="AZ17">
         <v>85.63</v>
@@ -10870,28 +10984,28 @@
         <v>91.12</v>
       </c>
       <c r="BB17">
-        <v>95.52</v>
+        <v>95.5</v>
       </c>
       <c r="BC17">
         <v>117.68</v>
       </c>
       <c r="BD17">
-        <v>149.81</v>
+        <v>149.79</v>
       </c>
       <c r="BE17">
-        <v>185.62</v>
+        <v>185.59</v>
       </c>
       <c r="BF17">
-        <v>184.55</v>
+        <v>184.57</v>
       </c>
       <c r="BG17">
         <v>212.65</v>
       </c>
       <c r="BH17">
-        <v>250.63</v>
+        <v>250.65</v>
       </c>
       <c r="BI17">
-        <v>244.49</v>
+        <v>244.51</v>
       </c>
       <c r="BJ17">
         <v>208.79</v>
@@ -10906,7 +11020,7 @@
         <v>90.7</v>
       </c>
       <c r="BN17">
-        <v>52.38</v>
+        <v>52.36</v>
       </c>
       <c r="BO17">
         <v>37.630000000000003</v>
@@ -10924,51 +11038,54 @@
         <v>12</v>
       </c>
       <c r="BT17">
-        <v>19.23</v>
+        <v>19.2</v>
       </c>
       <c r="BU17">
-        <v>32.700000000000003</v>
+        <v>32.659999999999997</v>
       </c>
       <c r="BV17">
         <v>45.33</v>
       </c>
       <c r="BW17">
-        <v>50.54</v>
+        <v>50.56</v>
       </c>
       <c r="BX17">
         <v>60.56</v>
       </c>
       <c r="BY17">
-        <v>96.08</v>
+        <v>96.06</v>
       </c>
       <c r="BZ17">
-        <v>125.49</v>
+        <v>125.53</v>
       </c>
       <c r="CA17">
-        <v>149.27000000000001</v>
+        <v>149.31</v>
       </c>
       <c r="CB17">
-        <v>148.32</v>
+        <v>148.34</v>
       </c>
       <c r="CC17">
-        <v>135.04</v>
+        <v>135.06</v>
       </c>
       <c r="CD17">
-        <v>107.37</v>
+        <v>107.5</v>
       </c>
       <c r="CE17">
         <v>89.38</v>
       </c>
       <c r="CF17">
-        <v>88.42</v>
+        <v>88.6</v>
       </c>
       <c r="CG17">
-        <v>89.49</v>
+        <v>89.97</v>
+      </c>
+      <c r="CH17">
+        <v>107.04</v>
       </c>
     </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B18">
         <v>1.1200000000000001</v>
@@ -11079,7 +11196,7 @@
         <v>213.47</v>
       </c>
       <c r="AL18">
-        <v>221.26</v>
+        <v>221.24</v>
       </c>
       <c r="AM18">
         <v>208.42</v>
@@ -11094,13 +11211,13 @@
         <v>223.85</v>
       </c>
       <c r="AQ18">
-        <v>215.12</v>
+        <v>215.14</v>
       </c>
       <c r="AR18">
-        <v>149.16999999999999</v>
+        <v>149.19</v>
       </c>
       <c r="AS18">
-        <v>125.79</v>
+        <v>125.81</v>
       </c>
       <c r="AT18">
         <v>161.99</v>
@@ -11133,7 +11250,7 @@
         <v>104.23</v>
       </c>
       <c r="BD18">
-        <v>140.56</v>
+        <v>140.59</v>
       </c>
       <c r="BE18">
         <v>182.45</v>
@@ -11145,19 +11262,19 @@
         <v>191.59</v>
       </c>
       <c r="BH18">
-        <v>274.7</v>
+        <v>274.67</v>
       </c>
       <c r="BI18">
-        <v>262.41000000000003</v>
+        <v>262.44</v>
       </c>
       <c r="BJ18">
-        <v>219.74</v>
+        <v>219.76</v>
       </c>
       <c r="BK18">
-        <v>179.02</v>
+        <v>179.04</v>
       </c>
       <c r="BL18">
-        <v>125.4</v>
+        <v>125.38</v>
       </c>
       <c r="BM18">
         <v>98.57</v>
@@ -11187,7 +11304,7 @@
         <v>32.67</v>
       </c>
       <c r="BV18">
-        <v>40.950000000000003</v>
+        <v>40.97</v>
       </c>
       <c r="BW18">
         <v>46.79</v>
@@ -11199,33 +11316,36 @@
         <v>89</v>
       </c>
       <c r="BZ18">
-        <v>141.55000000000001</v>
+        <v>141.47</v>
       </c>
       <c r="CA18">
-        <v>176.86</v>
+        <v>176.96</v>
       </c>
       <c r="CB18">
-        <v>197.4</v>
+        <v>197.35</v>
       </c>
       <c r="CC18">
-        <v>173.74</v>
+        <v>173.82</v>
       </c>
       <c r="CD18">
-        <v>143.28</v>
+        <v>143.25</v>
       </c>
       <c r="CE18">
         <v>117.41</v>
       </c>
       <c r="CF18">
-        <v>116.11</v>
+        <v>116.19</v>
       </c>
       <c r="CG18">
-        <v>114.13</v>
+        <v>114.95</v>
+      </c>
+      <c r="CH18">
+        <v>122.84</v>
       </c>
     </row>
-    <row r="19" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B19">
         <v>0.51</v>
@@ -11339,7 +11459,7 @@
         <v>144.43</v>
       </c>
       <c r="AM19">
-        <v>143.1</v>
+        <v>143.08000000000001</v>
       </c>
       <c r="AN19">
         <v>140</v>
@@ -11348,10 +11468,10 @@
         <v>139.19</v>
       </c>
       <c r="AP19">
-        <v>153.61000000000001</v>
+        <v>153.58000000000001</v>
       </c>
       <c r="AQ19">
-        <v>142.69999999999999</v>
+        <v>142.72999999999999</v>
       </c>
       <c r="AR19">
         <v>91.41</v>
@@ -11360,7 +11480,7 @@
         <v>71.59</v>
       </c>
       <c r="AT19">
-        <v>89.93</v>
+        <v>89.9</v>
       </c>
       <c r="AU19">
         <v>73.319999999999993</v>
@@ -11384,13 +11504,13 @@
         <v>50.72</v>
       </c>
       <c r="BB19">
-        <v>62.33</v>
+        <v>62.38</v>
       </c>
       <c r="BC19">
         <v>77.45</v>
       </c>
       <c r="BD19">
-        <v>112.91</v>
+        <v>112.94</v>
       </c>
       <c r="BE19">
         <v>154.74</v>
@@ -11432,7 +11552,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="BR19">
-        <v>12.1</v>
+        <v>12.13</v>
       </c>
       <c r="BS19">
         <v>8.34</v>
@@ -11447,42 +11567,45 @@
         <v>21.12</v>
       </c>
       <c r="BW19">
-        <v>26.92</v>
+        <v>26.95</v>
       </c>
       <c r="BX19">
         <v>40.270000000000003</v>
       </c>
       <c r="BY19">
-        <v>70.459999999999994</v>
+        <v>70.430000000000007</v>
       </c>
       <c r="BZ19">
-        <v>144.80000000000001</v>
+        <v>144.88999999999999</v>
       </c>
       <c r="CA19">
-        <v>186.85</v>
+        <v>186.91</v>
       </c>
       <c r="CB19">
-        <v>227.01</v>
+        <v>227.09</v>
       </c>
       <c r="CC19">
-        <v>208.81</v>
+        <v>208.86</v>
       </c>
       <c r="CD19">
-        <v>197.39</v>
+        <v>197.33</v>
       </c>
       <c r="CE19">
-        <v>169.73</v>
+        <v>169.76</v>
       </c>
       <c r="CF19">
-        <v>179.62</v>
+        <v>179.75</v>
       </c>
       <c r="CG19">
-        <v>173.51</v>
+        <v>174.78</v>
+      </c>
+      <c r="CH19">
+        <v>182.34</v>
       </c>
     </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20">
         <v>0.27</v>
@@ -11647,7 +11770,7 @@
         <v>98.69</v>
       </c>
       <c r="BD20">
-        <v>127.8</v>
+        <v>127.77</v>
       </c>
       <c r="BE20">
         <v>179.72</v>
@@ -11656,25 +11779,25 @@
         <v>139.28</v>
       </c>
       <c r="BG20">
-        <v>126.05</v>
+        <v>126.08</v>
       </c>
       <c r="BH20">
         <v>187.69</v>
       </c>
       <c r="BI20">
-        <v>225.84</v>
+        <v>225.92</v>
       </c>
       <c r="BJ20">
-        <v>184.44</v>
+        <v>184.41</v>
       </c>
       <c r="BK20">
         <v>149.34</v>
       </c>
       <c r="BL20">
-        <v>110.47</v>
+        <v>110.44</v>
       </c>
       <c r="BM20">
-        <v>91.66</v>
+        <v>91.63</v>
       </c>
       <c r="BN20">
         <v>50.31</v>
@@ -11683,7 +11806,7 @@
         <v>40.92</v>
       </c>
       <c r="BP20">
-        <v>30.64</v>
+        <v>30.61</v>
       </c>
       <c r="BQ20">
         <v>15.19</v>
@@ -11701,7 +11824,7 @@
         <v>8.69</v>
       </c>
       <c r="BV20">
-        <v>12.8</v>
+        <v>12.85</v>
       </c>
       <c r="BW20">
         <v>19.48</v>
@@ -11716,30 +11839,33 @@
         <v>99.71</v>
       </c>
       <c r="CA20">
-        <v>150.01</v>
+        <v>150.04</v>
       </c>
       <c r="CB20">
-        <v>188.01</v>
+        <v>187.95</v>
       </c>
       <c r="CC20">
-        <v>176.69</v>
+        <v>176.74</v>
       </c>
       <c r="CD20">
-        <v>157.66</v>
+        <v>157.77000000000001</v>
       </c>
       <c r="CE20">
-        <v>141.72</v>
+        <v>141.69999999999999</v>
       </c>
       <c r="CF20">
-        <v>143.33000000000001</v>
+        <v>143.38999999999999</v>
       </c>
       <c r="CG20">
-        <v>134.61000000000001</v>
+        <v>135.87</v>
+      </c>
+      <c r="CH20">
+        <v>134.69</v>
       </c>
     </row>
-    <row r="21" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B21">
         <v>0.23</v>
@@ -11868,7 +11994,7 @@
         <v>78.03</v>
       </c>
       <c r="AR21">
-        <v>53.14</v>
+        <v>53.16</v>
       </c>
       <c r="AS21">
         <v>38.5</v>
@@ -11880,7 +12006,7 @@
         <v>46.85</v>
       </c>
       <c r="AV21">
-        <v>42.79</v>
+        <v>42.76</v>
       </c>
       <c r="AW21">
         <v>38.57</v>
@@ -11913,16 +12039,16 @@
         <v>112.74</v>
       </c>
       <c r="BG21">
-        <v>101.63</v>
+        <v>101.61</v>
       </c>
       <c r="BH21">
-        <v>128.38999999999999</v>
+        <v>128.44</v>
       </c>
       <c r="BI21">
-        <v>140.72999999999999</v>
+        <v>140.71</v>
       </c>
       <c r="BJ21">
-        <v>127.73</v>
+        <v>127.71</v>
       </c>
       <c r="BK21">
         <v>103.8</v>
@@ -11964,7 +12090,7 @@
         <v>13.18</v>
       </c>
       <c r="BX21">
-        <v>19.13</v>
+        <v>19.11</v>
       </c>
       <c r="BY21">
         <v>31.15</v>
@@ -11973,29 +12099,31 @@
         <v>47.1</v>
       </c>
       <c r="CA21">
-        <v>74.650000000000006</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="CB21">
-        <v>86.23</v>
+        <v>86.28</v>
       </c>
       <c r="CC21">
-        <v>88.38</v>
+        <v>88.33</v>
       </c>
       <c r="CD21">
-        <v>71.62</v>
+        <v>71.59</v>
       </c>
       <c r="CE21">
-        <v>58.79</v>
+        <v>58.84</v>
       </c>
       <c r="CF21">
-        <v>55.56</v>
+        <v>55.54</v>
       </c>
       <c r="CG21">
-        <v>46.25</v>
+        <v>46.57</v>
+      </c>
+      <c r="CH21">
+        <v>50.36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/source/Altersverteilung.xlsx
+++ b/data/source/Altersverteilung.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2021-10-20\Tabellen_Webmaster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2021-10-28\Tabellen_Webmaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B15095E1-606C-4DB1-BFF4-8BA4C3D25D96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{943555F9-23B2-4C2B-AF6E-BD521A140DE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22185" windowHeight="6075" activeTab="1" xr2:uid="{1C8FB744-33E4-47A6-8FC5-B963F77CF93D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fallzahlen" sheetId="2" r:id="rId1"/>
-    <sheet name="7-Tages-Inzidenz" sheetId="1" r:id="rId2"/>
+    <sheet name="Fallzahlen" sheetId="1" r:id="rId1"/>
+    <sheet name="7-Tage-Inzidenz" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="107">
   <si>
     <t>Altersgruppe</t>
   </si>
@@ -281,6 +286,9 @@
     <t>2021_41</t>
   </si>
   <si>
+    <t>2021_42</t>
+  </si>
+  <si>
     <t>Gesamt</t>
   </si>
   <si>
@@ -344,8 +352,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,316 +361,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -670,205 +378,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1179,16 +698,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE92846A-0CF1-4082-A2E8-EAD00944FCC7}">
+  <dimension ref="A1:CI21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1447,10 +966,13 @@
       <c r="CH1" t="s">
         <v>85</v>
       </c>
+      <c r="CI1" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2">
         <v>899</v>
@@ -1459,28 +981,28 @@
         <v>6432</v>
       </c>
       <c r="D2">
-        <v>22386</v>
+        <v>22389</v>
       </c>
       <c r="E2">
-        <v>33967</v>
+        <v>33964</v>
       </c>
       <c r="F2">
-        <v>36051</v>
+        <v>36052</v>
       </c>
       <c r="G2">
-        <v>27131</v>
+        <v>27130</v>
       </c>
       <c r="H2">
         <v>17327</v>
       </c>
       <c r="I2">
-        <v>12344</v>
+        <v>12348</v>
       </c>
       <c r="J2">
-        <v>7423</v>
+        <v>7427</v>
       </c>
       <c r="K2">
-        <v>6233</v>
+        <v>6235</v>
       </c>
       <c r="L2">
         <v>4759</v>
@@ -1504,10 +1026,10 @@
         <v>3155</v>
       </c>
       <c r="S2">
-        <v>2685</v>
+        <v>2686</v>
       </c>
       <c r="T2">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="U2">
         <v>3025</v>
@@ -1519,10 +1041,10 @@
         <v>4831</v>
       </c>
       <c r="X2">
-        <v>6057</v>
+        <v>6058</v>
       </c>
       <c r="Y2">
-        <v>7951</v>
+        <v>7953</v>
       </c>
       <c r="Z2">
         <v>9595</v>
@@ -1531,130 +1053,130 @@
         <v>8827</v>
       </c>
       <c r="AB2">
-        <v>8614</v>
+        <v>8613</v>
       </c>
       <c r="AC2">
         <v>9760</v>
       </c>
       <c r="AD2">
-        <v>12288</v>
+        <v>12290</v>
       </c>
       <c r="AE2">
         <v>13062</v>
       </c>
       <c r="AF2">
-        <v>15922</v>
+        <v>15924</v>
       </c>
       <c r="AG2">
-        <v>26111</v>
+        <v>26110</v>
       </c>
       <c r="AH2">
-        <v>42062</v>
+        <v>42064</v>
       </c>
       <c r="AI2">
-        <v>74872</v>
+        <v>74875</v>
       </c>
       <c r="AJ2">
-        <v>111017</v>
+        <v>111019</v>
       </c>
       <c r="AK2">
-        <v>125725</v>
+        <v>125727</v>
       </c>
       <c r="AL2">
-        <v>127779</v>
+        <v>127780</v>
       </c>
       <c r="AM2">
-        <v>128354</v>
+        <v>128358</v>
       </c>
       <c r="AN2">
-        <v>123157</v>
+        <v>123161</v>
       </c>
       <c r="AO2">
-        <v>128354</v>
+        <v>128359</v>
       </c>
       <c r="AP2">
-        <v>156285</v>
+        <v>156293</v>
       </c>
       <c r="AQ2">
-        <v>174705</v>
+        <v>174707</v>
       </c>
       <c r="AR2">
-        <v>138953</v>
+        <v>138952</v>
       </c>
       <c r="AS2">
-        <v>123073</v>
+        <v>123069</v>
       </c>
       <c r="AT2">
-        <v>145439</v>
+        <v>145441</v>
       </c>
       <c r="AU2">
-        <v>118894</v>
+        <v>118886</v>
       </c>
       <c r="AV2">
-        <v>95517</v>
+        <v>95521</v>
       </c>
       <c r="AW2">
-        <v>78127</v>
+        <v>78128</v>
       </c>
       <c r="AX2">
-        <v>64556</v>
+        <v>64554</v>
       </c>
       <c r="AY2">
-        <v>50808</v>
+        <v>50801</v>
       </c>
       <c r="AZ2">
-        <v>52387</v>
+        <v>52383</v>
       </c>
       <c r="BA2">
-        <v>56349</v>
+        <v>56347</v>
       </c>
       <c r="BB2">
-        <v>58370</v>
+        <v>58371</v>
       </c>
       <c r="BC2">
-        <v>71309</v>
+        <v>71310</v>
       </c>
       <c r="BD2">
-        <v>92579</v>
+        <v>92578</v>
       </c>
       <c r="BE2">
         <v>116267</v>
       </c>
       <c r="BF2">
-        <v>110099</v>
+        <v>110094</v>
       </c>
       <c r="BG2">
-        <v>118261</v>
+        <v>118267</v>
       </c>
       <c r="BH2">
         <v>142059</v>
       </c>
       <c r="BI2">
-        <v>144757</v>
+        <v>144760</v>
       </c>
       <c r="BJ2">
-        <v>124791</v>
+        <v>124793</v>
       </c>
       <c r="BK2">
-        <v>100984</v>
+        <v>100980</v>
       </c>
       <c r="BL2">
-        <v>70821</v>
+        <v>70818</v>
       </c>
       <c r="BM2">
-        <v>52690</v>
+        <v>52695</v>
       </c>
       <c r="BN2">
-        <v>29868</v>
+        <v>29870</v>
       </c>
       <c r="BO2">
-        <v>20671</v>
+        <v>20672</v>
       </c>
       <c r="BP2">
-        <v>14027</v>
+        <v>14028</v>
       </c>
       <c r="BQ2">
-        <v>7265</v>
+        <v>7266</v>
       </c>
       <c r="BR2">
         <v>4817</v>
@@ -1663,54 +1185,57 @@
         <v>4351</v>
       </c>
       <c r="BT2">
-        <v>5565</v>
+        <v>5566</v>
       </c>
       <c r="BU2">
-        <v>9089</v>
+        <v>9092</v>
       </c>
       <c r="BV2">
-        <v>12619</v>
+        <v>12623</v>
       </c>
       <c r="BW2">
         <v>15490</v>
       </c>
       <c r="BX2">
-        <v>20392</v>
+        <v>20396</v>
       </c>
       <c r="BY2">
-        <v>32045</v>
+        <v>32041</v>
       </c>
       <c r="BZ2">
-        <v>49593</v>
+        <v>49606</v>
       </c>
       <c r="CA2">
-        <v>66287</v>
+        <v>66300</v>
       </c>
       <c r="CB2">
-        <v>74649</v>
+        <v>74658</v>
       </c>
       <c r="CC2">
-        <v>71622</v>
+        <v>71648</v>
       </c>
       <c r="CD2">
-        <v>61399</v>
+        <v>61412</v>
       </c>
       <c r="CE2">
-        <v>53567</v>
+        <v>53571</v>
       </c>
       <c r="CF2">
-        <v>56410</v>
+        <v>56416</v>
       </c>
       <c r="CG2">
-        <v>57797</v>
+        <v>57875</v>
       </c>
       <c r="CH2">
-        <v>64723</v>
+        <v>65137</v>
+      </c>
+      <c r="CI2">
+        <v>96346</v>
       </c>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1833,10 +1358,10 @@
         <v>4193</v>
       </c>
       <c r="AP3">
-        <v>5401</v>
+        <v>5402</v>
       </c>
       <c r="AQ3">
-        <v>5970</v>
+        <v>5971</v>
       </c>
       <c r="AR3">
         <v>5237</v>
@@ -1845,7 +1370,7 @@
         <v>4979</v>
       </c>
       <c r="AT3">
-        <v>5403</v>
+        <v>5402</v>
       </c>
       <c r="AU3">
         <v>5019</v>
@@ -1863,16 +1388,16 @@
         <v>1298</v>
       </c>
       <c r="AZ3">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="BA3">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="BB3">
         <v>610</v>
       </c>
       <c r="BC3">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BD3">
         <v>637</v>
@@ -1950,7 +1475,7 @@
         <v>336</v>
       </c>
       <c r="CC3">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="CD3">
         <v>393</v>
@@ -1959,18 +1484,21 @@
         <v>335</v>
       </c>
       <c r="CF3">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="CG3">
         <v>397</v>
       </c>
       <c r="CH3">
-        <v>523</v>
+        <v>521</v>
+      </c>
+      <c r="CI3">
+        <v>889</v>
       </c>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -2084,22 +1612,22 @@
         <v>2831</v>
       </c>
       <c r="AM4">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="AN4">
         <v>4093</v>
       </c>
       <c r="AO4">
-        <v>4597</v>
+        <v>4598</v>
       </c>
       <c r="AP4">
-        <v>5908</v>
+        <v>5907</v>
       </c>
       <c r="AQ4">
-        <v>6936</v>
+        <v>6937</v>
       </c>
       <c r="AR4">
-        <v>5822</v>
+        <v>5820</v>
       </c>
       <c r="AS4">
         <v>5584</v>
@@ -2108,19 +1636,19 @@
         <v>6066</v>
       </c>
       <c r="AU4">
-        <v>5557</v>
+        <v>5556</v>
       </c>
       <c r="AV4">
         <v>4440</v>
       </c>
       <c r="AW4">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="AX4">
-        <v>2577</v>
+        <v>2579</v>
       </c>
       <c r="AY4">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="AZ4">
         <v>1461</v>
@@ -2150,7 +1678,7 @@
         <v>1201</v>
       </c>
       <c r="BI4">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="BJ4">
         <v>990</v>
@@ -2159,10 +1687,10 @@
         <v>855</v>
       </c>
       <c r="BL4">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="BM4">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="BN4">
         <v>236</v>
@@ -2213,24 +1741,27 @@
         <v>508</v>
       </c>
       <c r="CD4">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="CE4">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="CF4">
         <v>530</v>
       </c>
       <c r="CG4">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="CH4">
-        <v>716</v>
+        <v>721</v>
+      </c>
+      <c r="CI4">
+        <v>1307</v>
       </c>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -2239,10 +1770,10 @@
         <v>84</v>
       </c>
       <c r="D5">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E5">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F5">
         <v>1964</v>
@@ -2353,31 +1884,31 @@
         <v>5446</v>
       </c>
       <c r="AP5">
-        <v>7073</v>
+        <v>7074</v>
       </c>
       <c r="AQ5">
         <v>8255</v>
       </c>
       <c r="AR5">
-        <v>7406</v>
+        <v>7405</v>
       </c>
       <c r="AS5">
         <v>6866</v>
       </c>
       <c r="AT5">
-        <v>7666</v>
+        <v>7668</v>
       </c>
       <c r="AU5">
-        <v>6687</v>
+        <v>6686</v>
       </c>
       <c r="AV5">
         <v>5331</v>
       </c>
       <c r="AW5">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="AX5">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="AY5">
         <v>2291</v>
@@ -2395,10 +1926,10 @@
         <v>1637</v>
       </c>
       <c r="BD5">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="BE5">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="BF5">
         <v>1893</v>
@@ -2410,13 +1941,13 @@
         <v>2219</v>
       </c>
       <c r="BI5">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="BJ5">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="BK5">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="BL5">
         <v>921</v>
@@ -2473,24 +2004,27 @@
         <v>825</v>
       </c>
       <c r="CD5">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="CE5">
         <v>662</v>
       </c>
       <c r="CF5">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="CG5">
         <v>984</v>
       </c>
       <c r="CH5">
-        <v>1150</v>
+        <v>1155</v>
+      </c>
+      <c r="CI5">
+        <v>1949</v>
       </c>
     </row>
-    <row r="6" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -2592,13 +2126,13 @@
         <v>903</v>
       </c>
       <c r="AI6">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="AJ6">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="AK6">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="AL6">
         <v>3283</v>
@@ -2619,13 +2153,13 @@
         <v>5936</v>
       </c>
       <c r="AR6">
-        <v>5102</v>
+        <v>5103</v>
       </c>
       <c r="AS6">
-        <v>4637</v>
+        <v>4638</v>
       </c>
       <c r="AT6">
-        <v>5216</v>
+        <v>5214</v>
       </c>
       <c r="AU6">
         <v>4308</v>
@@ -2637,13 +2171,13 @@
         <v>2815</v>
       </c>
       <c r="AX6">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="AY6">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="AZ6">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="BA6">
         <v>1570</v>
@@ -2670,13 +2204,13 @@
         <v>2707</v>
       </c>
       <c r="BI6">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="BJ6">
         <v>2121</v>
       </c>
       <c r="BK6">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="BL6">
         <v>1140</v>
@@ -2685,7 +2219,7 @@
         <v>773</v>
       </c>
       <c r="BN6">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="BO6">
         <v>251</v>
@@ -2724,33 +2258,36 @@
         <v>287</v>
       </c>
       <c r="CA6">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="CB6">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="CC6">
         <v>593</v>
       </c>
       <c r="CD6">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="CE6">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="CF6">
         <v>711</v>
       </c>
       <c r="CG6">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="CH6">
-        <v>951</v>
+        <v>954</v>
+      </c>
+      <c r="CI6">
+        <v>1611</v>
       </c>
     </row>
-    <row r="7" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -2873,10 +2410,10 @@
         <v>3480</v>
       </c>
       <c r="AP7">
-        <v>4386</v>
+        <v>4384</v>
       </c>
       <c r="AQ7">
-        <v>5155</v>
+        <v>5157</v>
       </c>
       <c r="AR7">
         <v>4446</v>
@@ -2900,16 +2437,16 @@
         <v>2062</v>
       </c>
       <c r="AY7">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="AZ7">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="BA7">
         <v>1644</v>
       </c>
       <c r="BB7">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="BC7">
         <v>1808</v>
@@ -2933,28 +2470,28 @@
         <v>3371</v>
       </c>
       <c r="BJ7">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="BK7">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="BL7">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="BM7">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="BN7">
         <v>583</v>
       </c>
       <c r="BO7">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="BP7">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="BQ7">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BR7">
         <v>71</v>
@@ -2969,7 +2506,7 @@
         <v>67</v>
       </c>
       <c r="BV7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BW7">
         <v>168</v>
@@ -2987,13 +2524,13 @@
         <v>617</v>
       </c>
       <c r="CB7">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="CC7">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="CD7">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CE7">
         <v>692</v>
@@ -3002,15 +2539,18 @@
         <v>860</v>
       </c>
       <c r="CG7">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="CH7">
-        <v>1142</v>
+        <v>1155</v>
+      </c>
+      <c r="CI7">
+        <v>1992</v>
       </c>
     </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8">
         <v>25</v>
@@ -3133,10 +2673,10 @@
         <v>4118</v>
       </c>
       <c r="AP8">
-        <v>5171</v>
+        <v>5172</v>
       </c>
       <c r="AQ8">
-        <v>6351</v>
+        <v>6349</v>
       </c>
       <c r="AR8">
         <v>5586</v>
@@ -3151,7 +2691,7 @@
         <v>4416</v>
       </c>
       <c r="AV8">
-        <v>3623</v>
+        <v>3624</v>
       </c>
       <c r="AW8">
         <v>3128</v>
@@ -3163,7 +2703,7 @@
         <v>1914</v>
       </c>
       <c r="AZ8">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="BA8">
         <v>2120</v>
@@ -3178,10 +2718,10 @@
         <v>3191</v>
       </c>
       <c r="BE8">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="BF8">
-        <v>3966</v>
+        <v>3964</v>
       </c>
       <c r="BG8">
         <v>4308</v>
@@ -3193,19 +2733,19 @@
         <v>4628</v>
       </c>
       <c r="BJ8">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="BK8">
-        <v>3290</v>
+        <v>3292</v>
       </c>
       <c r="BL8">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="BM8">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="BN8">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="BO8">
         <v>592</v>
@@ -3214,7 +2754,7 @@
         <v>319</v>
       </c>
       <c r="BQ8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BR8">
         <v>103</v>
@@ -3223,7 +2763,7 @@
         <v>77</v>
       </c>
       <c r="BT8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BU8">
         <v>114</v>
@@ -3238,7 +2778,7 @@
         <v>283</v>
       </c>
       <c r="BY8">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="BZ8">
         <v>593</v>
@@ -3247,30 +2787,33 @@
         <v>812</v>
       </c>
       <c r="CB8">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="CC8">
         <v>1107</v>
       </c>
       <c r="CD8">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="CE8">
         <v>984</v>
       </c>
       <c r="CF8">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="CG8">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="CH8">
-        <v>1563</v>
+        <v>1570</v>
+      </c>
+      <c r="CI8">
+        <v>2560</v>
       </c>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9">
         <v>63</v>
@@ -3324,7 +2867,7 @@
         <v>106</v>
       </c>
       <c r="S9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="T9">
         <v>94</v>
@@ -3372,7 +2915,7 @@
         <v>2122</v>
       </c>
       <c r="AI9">
-        <v>3959</v>
+        <v>3960</v>
       </c>
       <c r="AJ9">
         <v>5987</v>
@@ -3381,10 +2924,10 @@
         <v>6854</v>
       </c>
       <c r="AL9">
-        <v>6927</v>
+        <v>6928</v>
       </c>
       <c r="AM9">
-        <v>7299</v>
+        <v>7298</v>
       </c>
       <c r="AN9">
         <v>7004</v>
@@ -3393,7 +2936,7 @@
         <v>7654</v>
       </c>
       <c r="AP9">
-        <v>9432</v>
+        <v>9433</v>
       </c>
       <c r="AQ9">
         <v>11037</v>
@@ -3405,7 +2948,7 @@
         <v>8264</v>
       </c>
       <c r="AT9">
-        <v>9282</v>
+        <v>9283</v>
       </c>
       <c r="AU9">
         <v>7551</v>
@@ -3417,28 +2960,28 @@
         <v>5123</v>
       </c>
       <c r="AX9">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="AY9">
         <v>3187</v>
       </c>
       <c r="AZ9">
-        <v>3248</v>
+        <v>3246</v>
       </c>
       <c r="BA9">
         <v>3515</v>
       </c>
       <c r="BB9">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="BC9">
         <v>4120</v>
       </c>
       <c r="BD9">
-        <v>5308</v>
+        <v>5307</v>
       </c>
       <c r="BE9">
-        <v>6572</v>
+        <v>6573</v>
       </c>
       <c r="BF9">
         <v>6406</v>
@@ -3453,10 +2996,10 @@
         <v>7757</v>
       </c>
       <c r="BJ9">
-        <v>6793</v>
+        <v>6794</v>
       </c>
       <c r="BK9">
-        <v>5531</v>
+        <v>5530</v>
       </c>
       <c r="BL9">
         <v>3731</v>
@@ -3465,10 +3008,10 @@
         <v>2650</v>
       </c>
       <c r="BN9">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="BO9">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="BP9">
         <v>558</v>
@@ -3501,36 +3044,39 @@
         <v>713</v>
       </c>
       <c r="BZ9">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="CA9">
         <v>1485</v>
       </c>
       <c r="CB9">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="CC9">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="CD9">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="CE9">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="CF9">
         <v>1812</v>
       </c>
       <c r="CG9">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="CH9">
-        <v>2530</v>
+        <v>2547</v>
+      </c>
+      <c r="CI9">
+        <v>4214</v>
       </c>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10">
         <v>76</v>
@@ -3554,7 +3100,7 @@
         <v>1565</v>
       </c>
       <c r="I10">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="J10">
         <v>598</v>
@@ -3644,22 +3190,22 @@
         <v>10293</v>
       </c>
       <c r="AM10">
-        <v>10258</v>
+        <v>10259</v>
       </c>
       <c r="AN10">
         <v>9876</v>
       </c>
       <c r="AO10">
-        <v>10383</v>
+        <v>10384</v>
       </c>
       <c r="AP10">
-        <v>13044</v>
+        <v>13046</v>
       </c>
       <c r="AQ10">
         <v>15004</v>
       </c>
       <c r="AR10">
-        <v>12392</v>
+        <v>12391</v>
       </c>
       <c r="AS10">
         <v>11092</v>
@@ -3671,19 +3217,19 @@
         <v>10031</v>
       </c>
       <c r="AV10">
-        <v>8336</v>
+        <v>8335</v>
       </c>
       <c r="AW10">
         <v>7010</v>
       </c>
       <c r="AX10">
-        <v>5808</v>
+        <v>5806</v>
       </c>
       <c r="AY10">
-        <v>4508</v>
+        <v>4507</v>
       </c>
       <c r="AZ10">
-        <v>4604</v>
+        <v>4603</v>
       </c>
       <c r="BA10">
         <v>4839</v>
@@ -3692,16 +3238,16 @@
         <v>4637</v>
       </c>
       <c r="BC10">
-        <v>5713</v>
+        <v>5712</v>
       </c>
       <c r="BD10">
-        <v>7264</v>
+        <v>7265</v>
       </c>
       <c r="BE10">
         <v>9093</v>
       </c>
       <c r="BF10">
-        <v>8947</v>
+        <v>8946</v>
       </c>
       <c r="BG10">
         <v>9680</v>
@@ -3713,19 +3259,19 @@
         <v>11021</v>
       </c>
       <c r="BJ10">
-        <v>9924</v>
+        <v>9926</v>
       </c>
       <c r="BK10">
         <v>7816</v>
       </c>
       <c r="BL10">
-        <v>5325</v>
+        <v>5323</v>
       </c>
       <c r="BM10">
-        <v>3575</v>
+        <v>3576</v>
       </c>
       <c r="BN10">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="BO10">
         <v>1256</v>
@@ -3755,10 +3301,10 @@
         <v>580</v>
       </c>
       <c r="BX10">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="BY10">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="BZ10">
         <v>1802</v>
@@ -3770,27 +3316,30 @@
         <v>2712</v>
       </c>
       <c r="CC10">
-        <v>2890</v>
+        <v>2892</v>
       </c>
       <c r="CD10">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="CE10">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="CF10">
-        <v>2758</v>
+        <v>2760</v>
       </c>
       <c r="CG10">
-        <v>3024</v>
+        <v>3027</v>
       </c>
       <c r="CH10">
-        <v>3564</v>
+        <v>3587</v>
+      </c>
+      <c r="CI10">
+        <v>5901</v>
       </c>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B11">
         <v>133</v>
@@ -3898,16 +3447,16 @@
         <v>9767</v>
       </c>
       <c r="AK11">
-        <v>10963</v>
+        <v>10964</v>
       </c>
       <c r="AL11">
         <v>10997</v>
       </c>
       <c r="AM11">
-        <v>10842</v>
+        <v>10841</v>
       </c>
       <c r="AN11">
-        <v>10331</v>
+        <v>10332</v>
       </c>
       <c r="AO11">
         <v>10553</v>
@@ -3925,25 +3474,25 @@
         <v>10529</v>
       </c>
       <c r="AT11">
-        <v>12103</v>
+        <v>12105</v>
       </c>
       <c r="AU11">
-        <v>9813</v>
+        <v>9812</v>
       </c>
       <c r="AV11">
-        <v>8180</v>
+        <v>8179</v>
       </c>
       <c r="AW11">
         <v>6675</v>
       </c>
       <c r="AX11">
-        <v>5304</v>
+        <v>5306</v>
       </c>
       <c r="AY11">
-        <v>4312</v>
+        <v>4311</v>
       </c>
       <c r="AZ11">
-        <v>4499</v>
+        <v>4498</v>
       </c>
       <c r="BA11">
         <v>4751</v>
@@ -3952,13 +3501,13 @@
         <v>4947</v>
       </c>
       <c r="BC11">
-        <v>5904</v>
+        <v>5905</v>
       </c>
       <c r="BD11">
         <v>7534</v>
       </c>
       <c r="BE11">
-        <v>9351</v>
+        <v>9353</v>
       </c>
       <c r="BF11">
         <v>9124</v>
@@ -3970,19 +3519,19 @@
         <v>11113</v>
       </c>
       <c r="BI11">
-        <v>11644</v>
+        <v>11643</v>
       </c>
       <c r="BJ11">
         <v>10144</v>
       </c>
       <c r="BK11">
-        <v>8016</v>
+        <v>8014</v>
       </c>
       <c r="BL11">
         <v>5477</v>
       </c>
       <c r="BM11">
-        <v>3773</v>
+        <v>3774</v>
       </c>
       <c r="BN11">
         <v>2054</v>
@@ -3991,7 +3540,7 @@
         <v>1353</v>
       </c>
       <c r="BP11">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="BQ11">
         <v>440</v>
@@ -4015,7 +3564,7 @@
         <v>821</v>
       </c>
       <c r="BX11">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="BY11">
         <v>1642</v>
@@ -4027,30 +3576,33 @@
         <v>3332</v>
       </c>
       <c r="CB11">
-        <v>3723</v>
+        <v>3725</v>
       </c>
       <c r="CC11">
         <v>3693</v>
       </c>
       <c r="CD11">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="CE11">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="CF11">
-        <v>3295</v>
+        <v>3300</v>
       </c>
       <c r="CG11">
-        <v>3464</v>
+        <v>3468</v>
       </c>
       <c r="CH11">
-        <v>4165</v>
+        <v>4203</v>
+      </c>
+      <c r="CI11">
+        <v>6490</v>
       </c>
     </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B12">
         <v>99</v>
@@ -4077,7 +3629,7 @@
         <v>785</v>
       </c>
       <c r="J12">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K12">
         <v>448</v>
@@ -4152,7 +3704,7 @@
         <v>3121</v>
       </c>
       <c r="AI12">
-        <v>5820</v>
+        <v>5821</v>
       </c>
       <c r="AJ12">
         <v>8399</v>
@@ -4164,31 +3716,31 @@
         <v>9286</v>
       </c>
       <c r="AM12">
-        <v>9673</v>
+        <v>9674</v>
       </c>
       <c r="AN12">
         <v>9057</v>
       </c>
       <c r="AO12">
-        <v>9237</v>
+        <v>9238</v>
       </c>
       <c r="AP12">
-        <v>11097</v>
+        <v>11098</v>
       </c>
       <c r="AQ12">
         <v>12445</v>
       </c>
       <c r="AR12">
-        <v>9744</v>
+        <v>9745</v>
       </c>
       <c r="AS12">
-        <v>8553</v>
+        <v>8552</v>
       </c>
       <c r="AT12">
-        <v>9793</v>
+        <v>9792</v>
       </c>
       <c r="AU12">
-        <v>7955</v>
+        <v>7954</v>
       </c>
       <c r="AV12">
         <v>6489</v>
@@ -4197,7 +3749,7 @@
         <v>5305</v>
       </c>
       <c r="AX12">
-        <v>4489</v>
+        <v>4487</v>
       </c>
       <c r="AY12">
         <v>3552</v>
@@ -4206,13 +3758,13 @@
         <v>3773</v>
       </c>
       <c r="BA12">
-        <v>4049</v>
+        <v>4048</v>
       </c>
       <c r="BB12">
-        <v>4290</v>
+        <v>4291</v>
       </c>
       <c r="BC12">
-        <v>5188</v>
+        <v>5187</v>
       </c>
       <c r="BD12">
         <v>6516</v>
@@ -4221,13 +3773,13 @@
         <v>8160</v>
       </c>
       <c r="BF12">
-        <v>7997</v>
+        <v>7998</v>
       </c>
       <c r="BG12">
-        <v>8772</v>
+        <v>8771</v>
       </c>
       <c r="BH12">
-        <v>10167</v>
+        <v>10169</v>
       </c>
       <c r="BI12">
         <v>10669</v>
@@ -4239,7 +3791,7 @@
         <v>7443</v>
       </c>
       <c r="BL12">
-        <v>5080</v>
+        <v>5079</v>
       </c>
       <c r="BM12">
         <v>3586</v>
@@ -4251,7 +3803,7 @@
         <v>1307</v>
       </c>
       <c r="BP12">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="BQ12">
         <v>471</v>
@@ -4272,7 +3824,7 @@
         <v>689</v>
       </c>
       <c r="BW12">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="BX12">
         <v>1176</v>
@@ -4281,36 +3833,39 @@
         <v>1950</v>
       </c>
       <c r="BZ12">
-        <v>3100</v>
+        <v>3101</v>
       </c>
       <c r="CA12">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="CB12">
-        <v>4629</v>
+        <v>4627</v>
       </c>
       <c r="CC12">
-        <v>4540</v>
+        <v>4542</v>
       </c>
       <c r="CD12">
-        <v>3791</v>
+        <v>3789</v>
       </c>
       <c r="CE12">
-        <v>3334</v>
+        <v>3336</v>
       </c>
       <c r="CF12">
-        <v>3498</v>
+        <v>3500</v>
       </c>
       <c r="CG12">
-        <v>3797</v>
+        <v>3802</v>
       </c>
       <c r="CH12">
-        <v>4294</v>
+        <v>4319</v>
+      </c>
+      <c r="CI12">
+        <v>6532</v>
       </c>
     </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B13">
         <v>85</v>
@@ -4319,10 +3874,10 @@
         <v>566</v>
       </c>
       <c r="D13">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="E13">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="F13">
         <v>2308</v>
@@ -4409,13 +3964,13 @@
         <v>1869</v>
       </c>
       <c r="AH13">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="AI13">
         <v>5308</v>
       </c>
       <c r="AJ13">
-        <v>7882</v>
+        <v>7883</v>
       </c>
       <c r="AK13">
         <v>8876</v>
@@ -4424,31 +3979,31 @@
         <v>8996</v>
       </c>
       <c r="AM13">
-        <v>9245</v>
+        <v>9244</v>
       </c>
       <c r="AN13">
         <v>8808</v>
       </c>
       <c r="AO13">
-        <v>8815</v>
+        <v>8817</v>
       </c>
       <c r="AP13">
         <v>10904</v>
       </c>
       <c r="AQ13">
-        <v>11990</v>
+        <v>11991</v>
       </c>
       <c r="AR13">
         <v>9511</v>
       </c>
       <c r="AS13">
-        <v>8031</v>
+        <v>8030</v>
       </c>
       <c r="AT13">
-        <v>9547</v>
+        <v>9549</v>
       </c>
       <c r="AU13">
-        <v>7557</v>
+        <v>7556</v>
       </c>
       <c r="AV13">
         <v>6233</v>
@@ -4457,7 +4012,7 @@
         <v>5120</v>
       </c>
       <c r="AX13">
-        <v>4276</v>
+        <v>4275</v>
       </c>
       <c r="AY13">
         <v>3463</v>
@@ -4475,7 +4030,7 @@
         <v>5346</v>
       </c>
       <c r="BD13">
-        <v>6982</v>
+        <v>6983</v>
       </c>
       <c r="BE13">
         <v>9084</v>
@@ -4484,13 +4039,13 @@
         <v>8324</v>
       </c>
       <c r="BG13">
-        <v>9280</v>
+        <v>9281</v>
       </c>
       <c r="BH13">
-        <v>10728</v>
+        <v>10727</v>
       </c>
       <c r="BI13">
-        <v>10825</v>
+        <v>10826</v>
       </c>
       <c r="BJ13">
         <v>9573</v>
@@ -4502,10 +4057,10 @@
         <v>5333</v>
       </c>
       <c r="BM13">
-        <v>3982</v>
+        <v>3983</v>
       </c>
       <c r="BN13">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="BO13">
         <v>1596</v>
@@ -4532,7 +4087,7 @@
         <v>734</v>
       </c>
       <c r="BW13">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="BX13">
         <v>1445</v>
@@ -4541,36 +4096,39 @@
         <v>2353</v>
       </c>
       <c r="BZ13">
-        <v>3755</v>
+        <v>3757</v>
       </c>
       <c r="CA13">
-        <v>5182</v>
+        <v>5184</v>
       </c>
       <c r="CB13">
         <v>5694</v>
       </c>
       <c r="CC13">
-        <v>5421</v>
+        <v>5422</v>
       </c>
       <c r="CD13">
-        <v>4450</v>
+        <v>4452</v>
       </c>
       <c r="CE13">
-        <v>3902</v>
+        <v>3904</v>
       </c>
       <c r="CF13">
-        <v>4203</v>
+        <v>4200</v>
       </c>
       <c r="CG13">
-        <v>4387</v>
+        <v>4389</v>
       </c>
       <c r="CH13">
-        <v>4998</v>
+        <v>5019</v>
+      </c>
+      <c r="CI13">
+        <v>7490</v>
       </c>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B14">
         <v>67</v>
@@ -4597,7 +4155,7 @@
         <v>761</v>
       </c>
       <c r="J14">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K14">
         <v>424</v>
@@ -4657,7 +4215,7 @@
         <v>699</v>
       </c>
       <c r="AD14">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="AE14">
         <v>1008</v>
@@ -4672,49 +4230,49 @@
         <v>3099</v>
       </c>
       <c r="AI14">
-        <v>5387</v>
+        <v>5388</v>
       </c>
       <c r="AJ14">
         <v>8083</v>
       </c>
       <c r="AK14">
-        <v>8958</v>
+        <v>8957</v>
       </c>
       <c r="AL14">
         <v>9191</v>
       </c>
       <c r="AM14">
-        <v>9196</v>
+        <v>9198</v>
       </c>
       <c r="AN14">
-        <v>8718</v>
+        <v>8719</v>
       </c>
       <c r="AO14">
-        <v>9147</v>
+        <v>9145</v>
       </c>
       <c r="AP14">
-        <v>10993</v>
+        <v>10994</v>
       </c>
       <c r="AQ14">
-        <v>12229</v>
+        <v>12230</v>
       </c>
       <c r="AR14">
         <v>9522</v>
       </c>
       <c r="AS14">
-        <v>8080</v>
+        <v>8079</v>
       </c>
       <c r="AT14">
         <v>10147</v>
       </c>
       <c r="AU14">
-        <v>8005</v>
+        <v>8006</v>
       </c>
       <c r="AV14">
-        <v>6342</v>
+        <v>6344</v>
       </c>
       <c r="AW14">
-        <v>5195</v>
+        <v>5196</v>
       </c>
       <c r="AX14">
         <v>4460</v>
@@ -4729,13 +4287,13 @@
         <v>4182</v>
       </c>
       <c r="BB14">
-        <v>4574</v>
+        <v>4575</v>
       </c>
       <c r="BC14">
         <v>5760</v>
       </c>
       <c r="BD14">
-        <v>7587</v>
+        <v>7588</v>
       </c>
       <c r="BE14">
         <v>9461</v>
@@ -4744,7 +4302,7 @@
         <v>8986</v>
       </c>
       <c r="BG14">
-        <v>9483</v>
+        <v>9484</v>
       </c>
       <c r="BH14">
         <v>11268</v>
@@ -4753,13 +4311,13 @@
         <v>11280</v>
       </c>
       <c r="BJ14">
-        <v>10018</v>
+        <v>10016</v>
       </c>
       <c r="BK14">
         <v>7969</v>
       </c>
       <c r="BL14">
-        <v>5624</v>
+        <v>5623</v>
       </c>
       <c r="BM14">
         <v>4221</v>
@@ -4768,7 +4326,7 @@
         <v>2412</v>
       </c>
       <c r="BO14">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="BP14">
         <v>1100</v>
@@ -4795,42 +4353,45 @@
         <v>1167</v>
       </c>
       <c r="BX14">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="BY14">
-        <v>2447</v>
+        <v>2444</v>
       </c>
       <c r="BZ14">
-        <v>3767</v>
+        <v>3769</v>
       </c>
       <c r="CA14">
-        <v>5264</v>
+        <v>5265</v>
       </c>
       <c r="CB14">
-        <v>5997</v>
+        <v>5999</v>
       </c>
       <c r="CC14">
-        <v>5797</v>
+        <v>5799</v>
       </c>
       <c r="CD14">
-        <v>4818</v>
+        <v>4816</v>
       </c>
       <c r="CE14">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="CF14">
-        <v>4536</v>
+        <v>4538</v>
       </c>
       <c r="CG14">
         <v>4715</v>
       </c>
       <c r="CH14">
-        <v>5294</v>
+        <v>5338</v>
+      </c>
+      <c r="CI14">
+        <v>7543</v>
       </c>
     </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B15">
         <v>69</v>
@@ -4845,10 +4406,10 @@
         <v>2635</v>
       </c>
       <c r="F15">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="G15">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="H15">
         <v>1206</v>
@@ -4857,7 +4418,7 @@
         <v>900</v>
       </c>
       <c r="J15">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K15">
         <v>486</v>
@@ -4917,7 +4478,7 @@
         <v>940</v>
       </c>
       <c r="AD15">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="AE15">
         <v>1303</v>
@@ -4944,40 +4505,40 @@
         <v>10483</v>
       </c>
       <c r="AM15">
-        <v>10084</v>
+        <v>10085</v>
       </c>
       <c r="AN15">
-        <v>9365</v>
+        <v>9364</v>
       </c>
       <c r="AO15">
-        <v>9472</v>
+        <v>9473</v>
       </c>
       <c r="AP15">
         <v>11523</v>
       </c>
       <c r="AQ15">
-        <v>13028</v>
+        <v>13030</v>
       </c>
       <c r="AR15">
         <v>10047</v>
       </c>
       <c r="AS15">
-        <v>9194</v>
+        <v>9193</v>
       </c>
       <c r="AT15">
-        <v>11601</v>
+        <v>11600</v>
       </c>
       <c r="AU15">
-        <v>9047</v>
+        <v>9045</v>
       </c>
       <c r="AV15">
-        <v>7017</v>
+        <v>7018</v>
       </c>
       <c r="AW15">
-        <v>5764</v>
+        <v>5762</v>
       </c>
       <c r="AX15">
-        <v>4909</v>
+        <v>4910</v>
       </c>
       <c r="AY15">
         <v>3904</v>
@@ -4992,37 +4553,37 @@
         <v>4892</v>
       </c>
       <c r="BC15">
-        <v>6016</v>
+        <v>6017</v>
       </c>
       <c r="BD15">
-        <v>7895</v>
+        <v>7894</v>
       </c>
       <c r="BE15">
         <v>9870</v>
       </c>
       <c r="BF15">
-        <v>9512</v>
+        <v>9511</v>
       </c>
       <c r="BG15">
-        <v>10136</v>
+        <v>10137</v>
       </c>
       <c r="BH15">
-        <v>12015</v>
+        <v>12014</v>
       </c>
       <c r="BI15">
-        <v>11855</v>
+        <v>11856</v>
       </c>
       <c r="BJ15">
         <v>10454</v>
       </c>
       <c r="BK15">
-        <v>8277</v>
+        <v>8275</v>
       </c>
       <c r="BL15">
-        <v>5869</v>
+        <v>5868</v>
       </c>
       <c r="BM15">
-        <v>4538</v>
+        <v>4537</v>
       </c>
       <c r="BN15">
         <v>2746</v>
@@ -5034,7 +4595,7 @@
         <v>1184</v>
       </c>
       <c r="BQ15">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="BR15">
         <v>417</v>
@@ -5052,45 +4613,48 @@
         <v>1307</v>
       </c>
       <c r="BW15">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="BX15">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="BY15">
         <v>3046</v>
       </c>
       <c r="BZ15">
-        <v>4382</v>
+        <v>4384</v>
       </c>
       <c r="CA15">
-        <v>5976</v>
+        <v>5979</v>
       </c>
       <c r="CB15">
         <v>6582</v>
       </c>
       <c r="CC15">
-        <v>6223</v>
+        <v>6225</v>
       </c>
       <c r="CD15">
-        <v>5098</v>
+        <v>5100</v>
       </c>
       <c r="CE15">
         <v>4604</v>
       </c>
       <c r="CF15">
-        <v>4767</v>
+        <v>4770</v>
       </c>
       <c r="CG15">
-        <v>4796</v>
+        <v>4803</v>
       </c>
       <c r="CH15">
-        <v>5323</v>
+        <v>5353</v>
+      </c>
+      <c r="CI15">
+        <v>7935</v>
       </c>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16">
         <v>76</v>
@@ -5114,7 +4678,7 @@
         <v>1287</v>
       </c>
       <c r="I16">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="J16">
         <v>681</v>
@@ -5171,7 +4735,7 @@
         <v>1222</v>
       </c>
       <c r="AB16">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AC16">
         <v>1226</v>
@@ -5183,13 +4747,13 @@
         <v>1436</v>
       </c>
       <c r="AF16">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="AG16">
         <v>2686</v>
       </c>
       <c r="AH16">
-        <v>4472</v>
+        <v>4473</v>
       </c>
       <c r="AI16">
         <v>7324</v>
@@ -5198,16 +4762,16 @@
         <v>10344</v>
       </c>
       <c r="AK16">
-        <v>11149</v>
+        <v>11150</v>
       </c>
       <c r="AL16">
-        <v>10684</v>
+        <v>10683</v>
       </c>
       <c r="AM16">
         <v>9917</v>
       </c>
       <c r="AN16">
-        <v>8997</v>
+        <v>8996</v>
       </c>
       <c r="AO16">
         <v>9149</v>
@@ -5225,10 +4789,10 @@
         <v>8423</v>
       </c>
       <c r="AT16">
-        <v>10776</v>
+        <v>10775</v>
       </c>
       <c r="AU16">
-        <v>8537</v>
+        <v>8536</v>
       </c>
       <c r="AV16">
         <v>6393</v>
@@ -5237,7 +4801,7 @@
         <v>5337</v>
       </c>
       <c r="AX16">
-        <v>4487</v>
+        <v>4486</v>
       </c>
       <c r="AY16">
         <v>3659</v>
@@ -5252,7 +4816,7 @@
         <v>4266</v>
       </c>
       <c r="BC16">
-        <v>5467</v>
+        <v>5468</v>
       </c>
       <c r="BD16">
         <v>7013</v>
@@ -5261,10 +4825,10 @@
         <v>8401</v>
       </c>
       <c r="BF16">
-        <v>8378</v>
+        <v>8376</v>
       </c>
       <c r="BG16">
-        <v>9213</v>
+        <v>9214</v>
       </c>
       <c r="BH16">
         <v>10900</v>
@@ -5276,10 +4840,10 @@
         <v>9218</v>
       </c>
       <c r="BK16">
-        <v>7452</v>
+        <v>7451</v>
       </c>
       <c r="BL16">
-        <v>5177</v>
+        <v>5178</v>
       </c>
       <c r="BM16">
         <v>3944</v>
@@ -5306,10 +4870,10 @@
         <v>788</v>
       </c>
       <c r="BU16">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="BV16">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="BW16">
         <v>1952</v>
@@ -5318,7 +4882,7 @@
         <v>2403</v>
       </c>
       <c r="BY16">
-        <v>3591</v>
+        <v>3592</v>
       </c>
       <c r="BZ16">
         <v>5023</v>
@@ -5327,30 +4891,33 @@
         <v>6323</v>
       </c>
       <c r="CB16">
-        <v>6287</v>
+        <v>6289</v>
       </c>
       <c r="CC16">
-        <v>6058</v>
+        <v>6064</v>
       </c>
       <c r="CD16">
-        <v>4895</v>
+        <v>4896</v>
       </c>
       <c r="CE16">
-        <v>4113</v>
+        <v>4112</v>
       </c>
       <c r="CF16">
-        <v>4247</v>
+        <v>4249</v>
       </c>
       <c r="CG16">
-        <v>4282</v>
+        <v>4287</v>
       </c>
       <c r="CH16">
-        <v>4881</v>
+        <v>4905</v>
+      </c>
+      <c r="CI16">
+        <v>7163</v>
       </c>
     </row>
-    <row r="17" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B17">
         <v>70</v>
@@ -5374,13 +4941,13 @@
         <v>1226</v>
       </c>
       <c r="I17">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="J17">
         <v>592</v>
       </c>
       <c r="K17">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L17">
         <v>419</v>
@@ -5422,7 +4989,7 @@
         <v>747</v>
       </c>
       <c r="Y17">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="Z17">
         <v>1545</v>
@@ -5467,16 +5034,16 @@
         <v>10201</v>
       </c>
       <c r="AN17">
-        <v>8940</v>
+        <v>8941</v>
       </c>
       <c r="AO17">
-        <v>9179</v>
+        <v>9180</v>
       </c>
       <c r="AP17">
-        <v>10791</v>
+        <v>10792</v>
       </c>
       <c r="AQ17">
-        <v>12096</v>
+        <v>12094</v>
       </c>
       <c r="AR17">
         <v>9070</v>
@@ -5485,22 +5052,22 @@
         <v>8587</v>
       </c>
       <c r="AT17">
-        <v>10890</v>
+        <v>10889</v>
       </c>
       <c r="AU17">
-        <v>8538</v>
+        <v>8537</v>
       </c>
       <c r="AV17">
         <v>6434</v>
       </c>
       <c r="AW17">
-        <v>5240</v>
+        <v>5241</v>
       </c>
       <c r="AX17">
         <v>4377</v>
       </c>
       <c r="AY17">
-        <v>3664</v>
+        <v>3665</v>
       </c>
       <c r="AZ17">
         <v>3946</v>
@@ -5515,31 +5082,31 @@
         <v>5423</v>
       </c>
       <c r="BD17">
-        <v>6903</v>
+        <v>6902</v>
       </c>
       <c r="BE17">
         <v>8553</v>
       </c>
       <c r="BF17">
-        <v>8506</v>
+        <v>8505</v>
       </c>
       <c r="BG17">
-        <v>9800</v>
+        <v>9802</v>
       </c>
       <c r="BH17">
         <v>11551</v>
       </c>
       <c r="BI17">
-        <v>11268</v>
+        <v>11269</v>
       </c>
       <c r="BJ17">
         <v>9622</v>
       </c>
       <c r="BK17">
-        <v>7833</v>
+        <v>7832</v>
       </c>
       <c r="BL17">
-        <v>5585</v>
+        <v>5587</v>
       </c>
       <c r="BM17">
         <v>4180</v>
@@ -5575,42 +5142,45 @@
         <v>2330</v>
       </c>
       <c r="BX17">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="BY17">
-        <v>4427</v>
+        <v>4426</v>
       </c>
       <c r="BZ17">
-        <v>5785</v>
+        <v>5789</v>
       </c>
       <c r="CA17">
-        <v>6881</v>
+        <v>6886</v>
       </c>
       <c r="CB17">
-        <v>6836</v>
+        <v>6834</v>
       </c>
       <c r="CC17">
         <v>6224</v>
       </c>
       <c r="CD17">
-        <v>4954</v>
+        <v>4957</v>
       </c>
       <c r="CE17">
-        <v>4119</v>
+        <v>4120</v>
       </c>
       <c r="CF17">
-        <v>4083</v>
+        <v>4085</v>
       </c>
       <c r="CG17">
-        <v>4146</v>
+        <v>4151</v>
       </c>
       <c r="CH17">
-        <v>4933</v>
+        <v>4953</v>
+      </c>
+      <c r="CI17">
+        <v>7179</v>
       </c>
     </row>
-    <row r="18" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B18">
         <v>44</v>
@@ -5634,7 +5204,7 @@
         <v>570</v>
       </c>
       <c r="I18">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J18">
         <v>264</v>
@@ -5724,25 +5294,25 @@
         <v>8715</v>
       </c>
       <c r="AM18">
-        <v>8210</v>
+        <v>8211</v>
       </c>
       <c r="AN18">
-        <v>7459</v>
+        <v>7460</v>
       </c>
       <c r="AO18">
-        <v>7712</v>
+        <v>7714</v>
       </c>
       <c r="AP18">
-        <v>8818</v>
+        <v>8820</v>
       </c>
       <c r="AQ18">
-        <v>8475</v>
+        <v>8474</v>
       </c>
       <c r="AR18">
-        <v>5877</v>
+        <v>5878</v>
       </c>
       <c r="AS18">
-        <v>4956</v>
+        <v>4955</v>
       </c>
       <c r="AT18">
         <v>6381</v>
@@ -5751,16 +5321,16 @@
         <v>5388</v>
       </c>
       <c r="AV18">
-        <v>4199</v>
+        <v>4200</v>
       </c>
       <c r="AW18">
         <v>3471</v>
       </c>
       <c r="AX18">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="AY18">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="AZ18">
         <v>2618</v>
@@ -5784,7 +5354,7 @@
         <v>6608</v>
       </c>
       <c r="BG18">
-        <v>7547</v>
+        <v>7549</v>
       </c>
       <c r="BH18">
         <v>10820</v>
@@ -5793,10 +5363,10 @@
         <v>10338</v>
       </c>
       <c r="BJ18">
-        <v>8657</v>
+        <v>8658</v>
       </c>
       <c r="BK18">
-        <v>7053</v>
+        <v>7052</v>
       </c>
       <c r="BL18">
         <v>4939</v>
@@ -5811,7 +5381,7 @@
         <v>1720</v>
       </c>
       <c r="BP18">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="BQ18">
         <v>681</v>
@@ -5826,13 +5396,13 @@
         <v>580</v>
       </c>
       <c r="BU18">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="BV18">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="BW18">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="BX18">
         <v>2369</v>
@@ -5841,36 +5411,39 @@
         <v>3506</v>
       </c>
       <c r="BZ18">
-        <v>5573</v>
+        <v>5572</v>
       </c>
       <c r="CA18">
-        <v>6971</v>
+        <v>6973</v>
       </c>
       <c r="CB18">
-        <v>7774</v>
+        <v>7779</v>
       </c>
       <c r="CC18">
-        <v>6847</v>
+        <v>6854</v>
       </c>
       <c r="CD18">
-        <v>5643</v>
+        <v>5646</v>
       </c>
       <c r="CE18">
-        <v>4625</v>
+        <v>4628</v>
       </c>
       <c r="CF18">
-        <v>4577</v>
+        <v>4572</v>
       </c>
       <c r="CG18">
-        <v>4528</v>
+        <v>4538</v>
       </c>
       <c r="CH18">
-        <v>4839</v>
+        <v>4872</v>
+      </c>
+      <c r="CI18">
+        <v>6867</v>
       </c>
     </row>
-    <row r="19" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -5879,7 +5452,7 @@
         <v>102</v>
       </c>
       <c r="D19">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E19">
         <v>380</v>
@@ -5939,7 +5512,7 @@
         <v>252</v>
       </c>
       <c r="X19">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Y19">
         <v>545</v>
@@ -5963,7 +5536,7 @@
         <v>584</v>
       </c>
       <c r="AF19">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AG19">
         <v>1140</v>
@@ -5981,16 +5554,16 @@
         <v>4783</v>
       </c>
       <c r="AL19">
-        <v>5348</v>
+        <v>5349</v>
       </c>
       <c r="AM19">
         <v>5298</v>
       </c>
       <c r="AN19">
-        <v>5184</v>
+        <v>5185</v>
       </c>
       <c r="AO19">
-        <v>5154</v>
+        <v>5155</v>
       </c>
       <c r="AP19">
         <v>5687</v>
@@ -6002,28 +5575,28 @@
         <v>3385</v>
       </c>
       <c r="AS19">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="AT19">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="AU19">
         <v>2715</v>
       </c>
       <c r="AV19">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="AW19">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="AX19">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="AY19">
         <v>1409</v>
       </c>
       <c r="AZ19">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="BA19">
         <v>1878</v>
@@ -6038,13 +5611,13 @@
         <v>4182</v>
       </c>
       <c r="BE19">
-        <v>5730</v>
+        <v>5729</v>
       </c>
       <c r="BF19">
         <v>4851</v>
       </c>
       <c r="BG19">
-        <v>5181</v>
+        <v>5180</v>
       </c>
       <c r="BH19">
         <v>7658</v>
@@ -6053,7 +5626,7 @@
         <v>8736</v>
       </c>
       <c r="BJ19">
-        <v>7173</v>
+        <v>7174</v>
       </c>
       <c r="BK19">
         <v>6123</v>
@@ -6062,7 +5635,7 @@
         <v>4569</v>
       </c>
       <c r="BM19">
-        <v>3762</v>
+        <v>3763</v>
       </c>
       <c r="BN19">
         <v>2162</v>
@@ -6071,7 +5644,7 @@
         <v>1580</v>
       </c>
       <c r="BP19">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="BQ19">
         <v>663</v>
@@ -6089,48 +5662,51 @@
         <v>533</v>
       </c>
       <c r="BV19">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="BW19">
         <v>998</v>
       </c>
       <c r="BX19">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="BY19">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="BZ19">
-        <v>5365</v>
+        <v>5366</v>
       </c>
       <c r="CA19">
-        <v>6921</v>
+        <v>6922</v>
       </c>
       <c r="CB19">
-        <v>8409</v>
+        <v>8411</v>
       </c>
       <c r="CC19">
-        <v>7734</v>
+        <v>7739</v>
       </c>
       <c r="CD19">
-        <v>7307</v>
+        <v>7310</v>
       </c>
       <c r="CE19">
-        <v>6286</v>
+        <v>6283</v>
       </c>
       <c r="CF19">
-        <v>6656</v>
+        <v>6654</v>
       </c>
       <c r="CG19">
-        <v>6472</v>
+        <v>6492</v>
       </c>
       <c r="CH19">
-        <v>6752</v>
+        <v>6820</v>
+      </c>
+      <c r="CI19">
+        <v>8770</v>
       </c>
     </row>
-    <row r="20" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -6187,7 +5763,7 @@
         <v>121</v>
       </c>
       <c r="T20">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U20">
         <v>137</v>
@@ -6226,7 +5802,7 @@
         <v>433</v>
       </c>
       <c r="AG20">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AH20">
         <v>972</v>
@@ -6247,10 +5823,10 @@
         <v>3918</v>
       </c>
       <c r="AN20">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="AO20">
-        <v>3681</v>
+        <v>3679</v>
       </c>
       <c r="AP20">
         <v>4259</v>
@@ -6265,7 +5841,7 @@
         <v>1942</v>
       </c>
       <c r="AT20">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="AU20">
         <v>2193</v>
@@ -6277,13 +5853,13 @@
         <v>1642</v>
       </c>
       <c r="AX20">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="AY20">
         <v>1390</v>
       </c>
       <c r="AZ20">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="BA20">
         <v>2004</v>
@@ -6292,7 +5868,7 @@
         <v>2726</v>
       </c>
       <c r="BC20">
-        <v>3678</v>
+        <v>3679</v>
       </c>
       <c r="BD20">
         <v>4762</v>
@@ -6301,7 +5877,7 @@
         <v>6698</v>
       </c>
       <c r="BF20">
-        <v>5191</v>
+        <v>5192</v>
       </c>
       <c r="BG20">
         <v>4699</v>
@@ -6322,7 +5898,7 @@
         <v>4116</v>
       </c>
       <c r="BM20">
-        <v>3415</v>
+        <v>3416</v>
       </c>
       <c r="BN20">
         <v>1875</v>
@@ -6331,7 +5907,7 @@
         <v>1525</v>
       </c>
       <c r="BP20">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="BQ20">
         <v>566</v>
@@ -6355,42 +5931,45 @@
         <v>726</v>
       </c>
       <c r="BX20">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="BY20">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="BZ20">
-        <v>3716</v>
+        <v>3719</v>
       </c>
       <c r="CA20">
-        <v>5592</v>
+        <v>5591</v>
       </c>
       <c r="CB20">
-        <v>7005</v>
+        <v>7006</v>
       </c>
       <c r="CC20">
-        <v>6587</v>
+        <v>6589</v>
       </c>
       <c r="CD20">
-        <v>5880</v>
+        <v>5881</v>
       </c>
       <c r="CE20">
-        <v>5281</v>
+        <v>5284</v>
       </c>
       <c r="CF20">
-        <v>5344</v>
+        <v>5345</v>
       </c>
       <c r="CG20">
-        <v>5064</v>
+        <v>5072</v>
       </c>
       <c r="CH20">
-        <v>5020</v>
+        <v>5071</v>
+      </c>
+      <c r="CI20">
+        <v>7245</v>
       </c>
     </row>
-    <row r="21" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -6462,7 +6041,7 @@
         <v>188</v>
       </c>
       <c r="Y21">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z21">
         <v>284</v>
@@ -6510,19 +6089,19 @@
         <v>2316</v>
       </c>
       <c r="AO21">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="AP21">
         <v>2657</v>
       </c>
       <c r="AQ21">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="AR21">
         <v>2106</v>
       </c>
       <c r="AS21">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="AT21">
         <v>1900</v>
@@ -6540,7 +6119,7 @@
         <v>1511</v>
       </c>
       <c r="AY21">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="AZ21">
         <v>1375</v>
@@ -6615,10 +6194,10 @@
         <v>522</v>
       </c>
       <c r="BX21">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="BY21">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="BZ21">
         <v>1866</v>
@@ -6627,13 +6206,13 @@
         <v>2955</v>
       </c>
       <c r="CB21">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="CC21">
         <v>3499</v>
       </c>
       <c r="CD21">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="CE21">
         <v>2331</v>
@@ -6642,10 +6221,13 @@
         <v>2200</v>
       </c>
       <c r="CG21">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="CH21">
-        <v>1995</v>
+        <v>2007</v>
+      </c>
+      <c r="CI21">
+        <v>2664</v>
       </c>
     </row>
   </sheetData>
@@ -6654,16 +6236,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7246673E-55BD-40BA-978F-40191C14CAFF}">
+  <dimension ref="A1:CI21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6922,10 +6504,13 @@
       <c r="CH1" t="s">
         <v>85</v>
       </c>
+      <c r="CI1" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2">
         <v>1.08</v>
@@ -6949,13 +6534,13 @@
         <v>20.83</v>
       </c>
       <c r="I2">
-        <v>14.84</v>
+        <v>14.85</v>
       </c>
       <c r="J2">
         <v>8.93</v>
       </c>
       <c r="K2">
-        <v>7.49</v>
+        <v>7.5</v>
       </c>
       <c r="L2">
         <v>5.72</v>
@@ -7018,10 +6603,10 @@
         <v>15.71</v>
       </c>
       <c r="AF2">
-        <v>19.14</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="AG2">
-        <v>31.4</v>
+        <v>31.39</v>
       </c>
       <c r="AH2">
         <v>50.58</v>
@@ -7039,16 +6624,16 @@
         <v>153.63999999999999</v>
       </c>
       <c r="AM2">
-        <v>154.33000000000001</v>
+        <v>154.34</v>
       </c>
       <c r="AN2">
-        <v>148.08000000000001</v>
+        <v>148.09</v>
       </c>
       <c r="AO2">
-        <v>154.33000000000001</v>
+        <v>154.34</v>
       </c>
       <c r="AP2">
-        <v>187.92</v>
+        <v>187.93</v>
       </c>
       <c r="AQ2">
         <v>210.07</v>
@@ -7063,7 +6648,7 @@
         <v>174.88</v>
       </c>
       <c r="AU2">
-        <v>142.96</v>
+        <v>142.94999999999999</v>
       </c>
       <c r="AV2">
         <v>114.85</v>
@@ -7075,7 +6660,7 @@
         <v>77.62</v>
       </c>
       <c r="AY2">
-        <v>61.09</v>
+        <v>61.08</v>
       </c>
       <c r="AZ2">
         <v>62.99</v>
@@ -7084,7 +6669,7 @@
         <v>67.75</v>
       </c>
       <c r="BB2">
-        <v>70.180000000000007</v>
+        <v>70.19</v>
       </c>
       <c r="BC2">
         <v>85.74</v>
@@ -7114,16 +6699,16 @@
         <v>121.42</v>
       </c>
       <c r="BL2">
-        <v>85.16</v>
+        <v>85.15</v>
       </c>
       <c r="BM2">
-        <v>63.35</v>
+        <v>63.36</v>
       </c>
       <c r="BN2">
-        <v>35.909999999999997</v>
+        <v>35.92</v>
       </c>
       <c r="BO2">
-        <v>24.85</v>
+        <v>24.86</v>
       </c>
       <c r="BP2">
         <v>16.87</v>
@@ -7144,7 +6729,7 @@
         <v>10.93</v>
       </c>
       <c r="BV2">
-        <v>15.17</v>
+        <v>15.18</v>
       </c>
       <c r="BW2">
         <v>18.63</v>
@@ -7156,19 +6741,19 @@
         <v>38.53</v>
       </c>
       <c r="BZ2">
-        <v>59.63</v>
+        <v>59.65</v>
       </c>
       <c r="CA2">
-        <v>79.7</v>
+        <v>79.72</v>
       </c>
       <c r="CB2">
-        <v>89.76</v>
+        <v>89.77</v>
       </c>
       <c r="CC2">
-        <v>86.12</v>
+        <v>86.15</v>
       </c>
       <c r="CD2">
-        <v>73.83</v>
+        <v>73.84</v>
       </c>
       <c r="CE2">
         <v>64.41</v>
@@ -7177,15 +6762,18 @@
         <v>67.83</v>
       </c>
       <c r="CG2">
-        <v>69.5</v>
+        <v>69.59</v>
       </c>
       <c r="CH2">
-        <v>77.819999999999993</v>
+        <v>78.319999999999993</v>
+      </c>
+      <c r="CI2">
+        <v>115.85</v>
       </c>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>0.12</v>
@@ -7308,10 +6896,10 @@
         <v>509.45</v>
       </c>
       <c r="AP3">
-        <v>656.22</v>
+        <v>656.34</v>
       </c>
       <c r="AQ3">
-        <v>725.35</v>
+        <v>725.47</v>
       </c>
       <c r="AR3">
         <v>636.29</v>
@@ -7320,7 +6908,7 @@
         <v>604.95000000000005</v>
       </c>
       <c r="AT3">
-        <v>656.46</v>
+        <v>656.34</v>
       </c>
       <c r="AU3">
         <v>609.80999999999995</v>
@@ -7338,16 +6926,16 @@
         <v>157.71</v>
       </c>
       <c r="AZ3">
-        <v>129.15</v>
+        <v>129.03</v>
       </c>
       <c r="BA3">
-        <v>100.48</v>
+        <v>100.36</v>
       </c>
       <c r="BB3">
         <v>74.11</v>
       </c>
       <c r="BC3">
-        <v>73.989999999999995</v>
+        <v>73.87</v>
       </c>
       <c r="BD3">
         <v>77.400000000000006</v>
@@ -7425,7 +7013,7 @@
         <v>40.82</v>
       </c>
       <c r="CC3">
-        <v>42.65</v>
+        <v>42.52</v>
       </c>
       <c r="CD3">
         <v>47.75</v>
@@ -7434,18 +7022,21 @@
         <v>40.700000000000003</v>
       </c>
       <c r="CF3">
-        <v>39.61</v>
+        <v>39.49</v>
       </c>
       <c r="CG3">
         <v>48.24</v>
       </c>
       <c r="CH3">
-        <v>63.54</v>
+        <v>63.3</v>
+      </c>
+      <c r="CI3">
+        <v>108.01</v>
       </c>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4">
         <v>0.38</v>
@@ -7559,22 +7150,22 @@
         <v>181.03</v>
       </c>
       <c r="AM4">
-        <v>215.82</v>
+        <v>215.88</v>
       </c>
       <c r="AN4">
         <v>261.73</v>
       </c>
       <c r="AO4">
-        <v>293.95999999999998</v>
+        <v>294.02999999999997</v>
       </c>
       <c r="AP4">
-        <v>377.8</v>
+        <v>377.73</v>
       </c>
       <c r="AQ4">
-        <v>443.53</v>
+        <v>443.6</v>
       </c>
       <c r="AR4">
-        <v>372.3</v>
+        <v>372.17</v>
       </c>
       <c r="AS4">
         <v>357.08</v>
@@ -7583,19 +7174,19 @@
         <v>387.9</v>
       </c>
       <c r="AU4">
-        <v>355.35</v>
+        <v>355.29</v>
       </c>
       <c r="AV4">
         <v>283.92</v>
       </c>
       <c r="AW4">
-        <v>212.49</v>
+        <v>212.43</v>
       </c>
       <c r="AX4">
-        <v>164.79</v>
+        <v>164.92</v>
       </c>
       <c r="AY4">
-        <v>105.51</v>
+        <v>105.45</v>
       </c>
       <c r="AZ4">
         <v>93.43</v>
@@ -7625,7 +7216,7 @@
         <v>76.8</v>
       </c>
       <c r="BI4">
-        <v>75.2</v>
+        <v>75.27</v>
       </c>
       <c r="BJ4">
         <v>63.31</v>
@@ -7634,10 +7225,10 @@
         <v>54.67</v>
       </c>
       <c r="BL4">
-        <v>39.65</v>
+        <v>39.58</v>
       </c>
       <c r="BM4">
-        <v>27.69</v>
+        <v>27.75</v>
       </c>
       <c r="BN4">
         <v>15.09</v>
@@ -7688,24 +7279,27 @@
         <v>32.479999999999997</v>
       </c>
       <c r="CD4">
-        <v>33.119999999999997</v>
+        <v>33.25</v>
       </c>
       <c r="CE4">
-        <v>28.97</v>
+        <v>28.9</v>
       </c>
       <c r="CF4">
         <v>33.89</v>
       </c>
       <c r="CG4">
-        <v>37.340000000000003</v>
+        <v>37.54</v>
       </c>
       <c r="CH4">
-        <v>45.79</v>
+        <v>46.11</v>
+      </c>
+      <c r="CI4">
+        <v>83.58</v>
       </c>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>0.36</v>
@@ -7714,10 +7308,10 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="D5">
-        <v>14.21</v>
+        <v>14.24</v>
       </c>
       <c r="E5">
-        <v>38.82</v>
+        <v>38.79</v>
       </c>
       <c r="F5">
         <v>59.62</v>
@@ -7828,31 +7422,31 @@
         <v>165.32</v>
       </c>
       <c r="AP5">
-        <v>214.71</v>
+        <v>214.74</v>
       </c>
       <c r="AQ5">
         <v>250.59</v>
       </c>
       <c r="AR5">
-        <v>224.81</v>
+        <v>224.78</v>
       </c>
       <c r="AS5">
         <v>208.42</v>
       </c>
       <c r="AT5">
-        <v>232.71</v>
+        <v>232.77</v>
       </c>
       <c r="AU5">
-        <v>202.99</v>
+        <v>202.96</v>
       </c>
       <c r="AV5">
         <v>161.83000000000001</v>
       </c>
       <c r="AW5">
-        <v>127.25</v>
+        <v>127.28</v>
       </c>
       <c r="AX5">
-        <v>95.38</v>
+        <v>95.35</v>
       </c>
       <c r="AY5">
         <v>69.540000000000006</v>
@@ -7870,10 +7464,10 @@
         <v>49.69</v>
       </c>
       <c r="BD5">
-        <v>54.49</v>
+        <v>54.46</v>
       </c>
       <c r="BE5">
-        <v>64.599999999999994</v>
+        <v>64.66</v>
       </c>
       <c r="BF5">
         <v>57.46</v>
@@ -7885,13 +7479,13 @@
         <v>67.36</v>
       </c>
       <c r="BI5">
-        <v>61.44</v>
+        <v>61.41</v>
       </c>
       <c r="BJ5">
-        <v>48.39</v>
+        <v>48.42</v>
       </c>
       <c r="BK5">
-        <v>41.41</v>
+        <v>41.44</v>
       </c>
       <c r="BL5">
         <v>27.96</v>
@@ -7948,24 +7542,27 @@
         <v>25.04</v>
       </c>
       <c r="CD5">
-        <v>23.98</v>
+        <v>23.95</v>
       </c>
       <c r="CE5">
         <v>20.100000000000001</v>
       </c>
       <c r="CF5">
-        <v>27.44</v>
+        <v>27.41</v>
       </c>
       <c r="CG5">
         <v>29.87</v>
       </c>
       <c r="CH5">
-        <v>34.909999999999997</v>
+        <v>35.06</v>
+      </c>
+      <c r="CI5">
+        <v>59.16</v>
       </c>
     </row>
-    <row r="6" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <v>0.62</v>
@@ -8067,13 +7664,13 @@
         <v>23.29</v>
       </c>
       <c r="AI6">
-        <v>42.05</v>
+        <v>42.07</v>
       </c>
       <c r="AJ6">
-        <v>68.209999999999994</v>
+        <v>68.23</v>
       </c>
       <c r="AK6">
-        <v>78.760000000000005</v>
+        <v>78.78</v>
       </c>
       <c r="AL6">
         <v>84.69</v>
@@ -8094,13 +7691,13 @@
         <v>153.13</v>
       </c>
       <c r="AR6">
-        <v>131.62</v>
+        <v>131.63999999999999</v>
       </c>
       <c r="AS6">
-        <v>119.62</v>
+        <v>119.65</v>
       </c>
       <c r="AT6">
-        <v>134.56</v>
+        <v>134.51</v>
       </c>
       <c r="AU6">
         <v>111.13</v>
@@ -8112,13 +7709,13 @@
         <v>72.62</v>
       </c>
       <c r="AX6">
-        <v>56.7</v>
+        <v>56.65</v>
       </c>
       <c r="AY6">
-        <v>43.88</v>
+        <v>43.85</v>
       </c>
       <c r="AZ6">
-        <v>44.22</v>
+        <v>44.24</v>
       </c>
       <c r="BA6">
         <v>40.5</v>
@@ -8145,13 +7742,13 @@
         <v>69.83</v>
       </c>
       <c r="BI6">
-        <v>64.180000000000007</v>
+        <v>64.209999999999994</v>
       </c>
       <c r="BJ6">
         <v>54.72</v>
       </c>
       <c r="BK6">
-        <v>42.93</v>
+        <v>42.9</v>
       </c>
       <c r="BL6">
         <v>29.41</v>
@@ -8160,7 +7757,7 @@
         <v>19.940000000000001</v>
       </c>
       <c r="BN6">
-        <v>10.53</v>
+        <v>10.55</v>
       </c>
       <c r="BO6">
         <v>6.48</v>
@@ -8199,33 +7796,36 @@
         <v>7.4</v>
       </c>
       <c r="CA6">
-        <v>10.63</v>
+        <v>10.6</v>
       </c>
       <c r="CB6">
-        <v>13.96</v>
+        <v>13.98</v>
       </c>
       <c r="CC6">
         <v>15.3</v>
       </c>
       <c r="CD6">
-        <v>14.58</v>
+        <v>14.55</v>
       </c>
       <c r="CE6">
-        <v>14.55</v>
+        <v>14.52</v>
       </c>
       <c r="CF6">
         <v>18.34</v>
       </c>
       <c r="CG6">
-        <v>18.989999999999998</v>
+        <v>19.04</v>
       </c>
       <c r="CH6">
-        <v>24.53</v>
+        <v>24.61</v>
+      </c>
+      <c r="CI6">
+        <v>41.56</v>
       </c>
     </row>
-    <row r="7" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7">
         <v>0.3</v>
@@ -8348,10 +7948,10 @@
         <v>94.72</v>
       </c>
       <c r="AP7">
-        <v>119.38</v>
+        <v>119.32</v>
       </c>
       <c r="AQ7">
-        <v>140.31</v>
+        <v>140.36000000000001</v>
       </c>
       <c r="AR7">
         <v>121.01</v>
@@ -8375,16 +7975,16 @@
         <v>56.12</v>
       </c>
       <c r="AY7">
-        <v>42.92</v>
+        <v>42.87</v>
       </c>
       <c r="AZ7">
-        <v>43.52</v>
+        <v>43.55</v>
       </c>
       <c r="BA7">
         <v>44.75</v>
       </c>
       <c r="BB7">
-        <v>42.3</v>
+        <v>42.32</v>
       </c>
       <c r="BC7">
         <v>49.21</v>
@@ -8408,28 +8008,28 @@
         <v>91.75</v>
       </c>
       <c r="BJ7">
-        <v>78.33</v>
+        <v>78.3</v>
       </c>
       <c r="BK7">
-        <v>62.63</v>
+        <v>62.68</v>
       </c>
       <c r="BL7">
-        <v>43.36</v>
+        <v>43.33</v>
       </c>
       <c r="BM7">
-        <v>29.42</v>
+        <v>29.45</v>
       </c>
       <c r="BN7">
         <v>15.87</v>
       </c>
       <c r="BO7">
-        <v>9.2799999999999994</v>
+        <v>9.31</v>
       </c>
       <c r="BP7">
-        <v>5.85</v>
+        <v>5.8</v>
       </c>
       <c r="BQ7">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="BR7">
         <v>1.93</v>
@@ -8444,7 +8044,7 @@
         <v>1.82</v>
       </c>
       <c r="BV7">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="BW7">
         <v>4.57</v>
@@ -8462,13 +8062,13 @@
         <v>16.79</v>
       </c>
       <c r="CB7">
-        <v>20.14</v>
+        <v>20.11</v>
       </c>
       <c r="CC7">
-        <v>22.32</v>
+        <v>22.29</v>
       </c>
       <c r="CD7">
-        <v>20.58</v>
+        <v>20.6</v>
       </c>
       <c r="CE7">
         <v>18.829999999999998</v>
@@ -8477,15 +8077,18 @@
         <v>23.41</v>
       </c>
       <c r="CG7">
-        <v>27.79</v>
+        <v>27.82</v>
       </c>
       <c r="CH7">
-        <v>31.08</v>
+        <v>31.44</v>
+      </c>
+      <c r="CI7">
+        <v>54.22</v>
       </c>
     </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8">
         <v>0.51</v>
@@ -8608,10 +8211,10 @@
         <v>84.75</v>
       </c>
       <c r="AP8">
-        <v>106.42</v>
+        <v>106.44</v>
       </c>
       <c r="AQ8">
-        <v>130.71</v>
+        <v>130.66</v>
       </c>
       <c r="AR8">
         <v>114.96</v>
@@ -8626,7 +8229,7 @@
         <v>90.88</v>
       </c>
       <c r="AV8">
-        <v>74.56</v>
+        <v>74.58</v>
       </c>
       <c r="AW8">
         <v>64.37</v>
@@ -8638,7 +8241,7 @@
         <v>39.39</v>
       </c>
       <c r="AZ8">
-        <v>42.02</v>
+        <v>42</v>
       </c>
       <c r="BA8">
         <v>43.63</v>
@@ -8653,10 +8256,10 @@
         <v>65.67</v>
       </c>
       <c r="BE8">
-        <v>80.239999999999995</v>
+        <v>80.260000000000005</v>
       </c>
       <c r="BF8">
-        <v>81.62</v>
+        <v>81.58</v>
       </c>
       <c r="BG8">
         <v>88.66</v>
@@ -8668,19 +8271,19 @@
         <v>95.25</v>
       </c>
       <c r="BJ8">
-        <v>81.77</v>
+        <v>81.739999999999995</v>
       </c>
       <c r="BK8">
-        <v>67.709999999999994</v>
+        <v>67.75</v>
       </c>
       <c r="BL8">
-        <v>47.7</v>
+        <v>47.73</v>
       </c>
       <c r="BM8">
-        <v>33.28</v>
+        <v>33.26</v>
       </c>
       <c r="BN8">
-        <v>15.85</v>
+        <v>15.87</v>
       </c>
       <c r="BO8">
         <v>12.18</v>
@@ -8689,7 +8292,7 @@
         <v>6.57</v>
       </c>
       <c r="BQ8">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="BR8">
         <v>2.12</v>
@@ -8698,7 +8301,7 @@
         <v>1.58</v>
       </c>
       <c r="BT8">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="BU8">
         <v>2.35</v>
@@ -8713,7 +8316,7 @@
         <v>5.82</v>
       </c>
       <c r="BY8">
-        <v>8.33</v>
+        <v>8.31</v>
       </c>
       <c r="BZ8">
         <v>12.2</v>
@@ -8722,30 +8325,33 @@
         <v>16.71</v>
       </c>
       <c r="CB8">
-        <v>20.5</v>
+        <v>20.48</v>
       </c>
       <c r="CC8">
         <v>22.78</v>
       </c>
       <c r="CD8">
-        <v>21.59</v>
+        <v>21.63</v>
       </c>
       <c r="CE8">
         <v>20.25</v>
       </c>
       <c r="CF8">
-        <v>22.43</v>
+        <v>22.45</v>
       </c>
       <c r="CG8">
-        <v>28.5</v>
+        <v>28.52</v>
       </c>
       <c r="CH8">
-        <v>32.17</v>
+        <v>32.31</v>
+      </c>
+      <c r="CI8">
+        <v>52.69</v>
       </c>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9">
         <v>1.1200000000000001</v>
@@ -8799,7 +8405,7 @@
         <v>1.88</v>
       </c>
       <c r="S9">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="T9">
         <v>1.66</v>
@@ -8847,7 +8453,7 @@
         <v>37.57</v>
       </c>
       <c r="AI9">
-        <v>70.099999999999994</v>
+        <v>70.12</v>
       </c>
       <c r="AJ9">
         <v>106.01</v>
@@ -8856,10 +8462,10 @@
         <v>121.36</v>
       </c>
       <c r="AL9">
-        <v>122.65</v>
+        <v>122.67</v>
       </c>
       <c r="AM9">
-        <v>129.24</v>
+        <v>129.22</v>
       </c>
       <c r="AN9">
         <v>124.01</v>
@@ -8868,7 +8474,7 @@
         <v>135.52000000000001</v>
       </c>
       <c r="AP9">
-        <v>167</v>
+        <v>167.02</v>
       </c>
       <c r="AQ9">
         <v>195.42</v>
@@ -8880,7 +8486,7 @@
         <v>146.32</v>
       </c>
       <c r="AT9">
-        <v>164.35</v>
+        <v>164.37</v>
       </c>
       <c r="AU9">
         <v>133.69999999999999</v>
@@ -8892,28 +8498,28 @@
         <v>90.71</v>
       </c>
       <c r="AX9">
-        <v>74.61</v>
+        <v>74.63</v>
       </c>
       <c r="AY9">
         <v>56.43</v>
       </c>
       <c r="AZ9">
-        <v>57.51</v>
+        <v>57.47</v>
       </c>
       <c r="BA9">
         <v>62.24</v>
       </c>
       <c r="BB9">
-        <v>60.55</v>
+        <v>60.54</v>
       </c>
       <c r="BC9">
         <v>72.95</v>
       </c>
       <c r="BD9">
-        <v>93.98</v>
+        <v>93.97</v>
       </c>
       <c r="BE9">
-        <v>116.36</v>
+        <v>116.38</v>
       </c>
       <c r="BF9">
         <v>113.43</v>
@@ -8928,10 +8534,10 @@
         <v>137.35</v>
       </c>
       <c r="BJ9">
-        <v>120.28</v>
+        <v>120.3</v>
       </c>
       <c r="BK9">
-        <v>97.93</v>
+        <v>97.91</v>
       </c>
       <c r="BL9">
         <v>66.06</v>
@@ -8940,10 +8546,10 @@
         <v>46.92</v>
       </c>
       <c r="BN9">
-        <v>23.78</v>
+        <v>23.81</v>
       </c>
       <c r="BO9">
-        <v>15.07</v>
+        <v>15.05</v>
       </c>
       <c r="BP9">
         <v>9.8800000000000008</v>
@@ -8976,36 +8582,39 @@
         <v>12.62</v>
       </c>
       <c r="BZ9">
-        <v>17.329999999999998</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="CA9">
         <v>26.29</v>
       </c>
       <c r="CB9">
-        <v>32.47</v>
+        <v>32.49</v>
       </c>
       <c r="CC9">
-        <v>33.25</v>
+        <v>33.270000000000003</v>
       </c>
       <c r="CD9">
-        <v>30.28</v>
+        <v>30.26</v>
       </c>
       <c r="CE9">
-        <v>29.09</v>
+        <v>29.11</v>
       </c>
       <c r="CF9">
         <v>32.08</v>
       </c>
       <c r="CG9">
-        <v>38.01</v>
+        <v>38.03</v>
       </c>
       <c r="CH9">
-        <v>44.8</v>
+        <v>45.1</v>
+      </c>
+      <c r="CI9">
+        <v>74.61</v>
       </c>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10">
         <v>1.1299999999999999</v>
@@ -9029,7 +8638,7 @@
         <v>23.23</v>
       </c>
       <c r="I10">
-        <v>15.73</v>
+        <v>15.75</v>
       </c>
       <c r="J10">
         <v>8.8800000000000008</v>
@@ -9119,22 +8728,22 @@
         <v>152.78</v>
       </c>
       <c r="AM10">
-        <v>152.26</v>
+        <v>152.27000000000001</v>
       </c>
       <c r="AN10">
         <v>146.59</v>
       </c>
       <c r="AO10">
-        <v>154.11000000000001</v>
+        <v>154.13</v>
       </c>
       <c r="AP10">
-        <v>193.61</v>
+        <v>193.64</v>
       </c>
       <c r="AQ10">
         <v>222.7</v>
       </c>
       <c r="AR10">
-        <v>183.93</v>
+        <v>183.92</v>
       </c>
       <c r="AS10">
         <v>164.64</v>
@@ -9146,19 +8755,19 @@
         <v>148.88999999999999</v>
       </c>
       <c r="AV10">
-        <v>123.73</v>
+        <v>123.71</v>
       </c>
       <c r="AW10">
         <v>104.05</v>
       </c>
       <c r="AX10">
-        <v>86.21</v>
+        <v>86.18</v>
       </c>
       <c r="AY10">
-        <v>66.91</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="AZ10">
-        <v>68.34</v>
+        <v>68.319999999999993</v>
       </c>
       <c r="BA10">
         <v>71.819999999999993</v>
@@ -9167,16 +8776,16 @@
         <v>68.83</v>
       </c>
       <c r="BC10">
-        <v>84.8</v>
+        <v>84.78</v>
       </c>
       <c r="BD10">
-        <v>107.82</v>
+        <v>107.83</v>
       </c>
       <c r="BE10">
         <v>134.96</v>
       </c>
       <c r="BF10">
-        <v>132.80000000000001</v>
+        <v>132.78</v>
       </c>
       <c r="BG10">
         <v>143.68</v>
@@ -9188,19 +8797,19 @@
         <v>163.58000000000001</v>
       </c>
       <c r="BJ10">
-        <v>147.30000000000001</v>
+        <v>147.33000000000001</v>
       </c>
       <c r="BK10">
         <v>116.01</v>
       </c>
       <c r="BL10">
-        <v>79.040000000000006</v>
+        <v>79.010000000000005</v>
       </c>
       <c r="BM10">
-        <v>53.06</v>
+        <v>53.08</v>
       </c>
       <c r="BN10">
-        <v>28.63</v>
+        <v>28.62</v>
       </c>
       <c r="BO10">
         <v>18.64</v>
@@ -9230,10 +8839,10 @@
         <v>8.61</v>
       </c>
       <c r="BX10">
-        <v>11.65</v>
+        <v>11.67</v>
       </c>
       <c r="BY10">
-        <v>18.48</v>
+        <v>18.489999999999998</v>
       </c>
       <c r="BZ10">
         <v>26.75</v>
@@ -9245,27 +8854,30 @@
         <v>40.25</v>
       </c>
       <c r="CC10">
-        <v>42.9</v>
+        <v>42.93</v>
       </c>
       <c r="CD10">
-        <v>38.58</v>
+        <v>38.590000000000003</v>
       </c>
       <c r="CE10">
-        <v>36.96</v>
+        <v>36.94</v>
       </c>
       <c r="CF10">
-        <v>40.94</v>
+        <v>40.97</v>
       </c>
       <c r="CG10">
-        <v>44.88</v>
+        <v>44.93</v>
       </c>
       <c r="CH10">
-        <v>52.9</v>
+        <v>53.24</v>
+      </c>
+      <c r="CI10">
+        <v>87.59</v>
       </c>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B11">
         <v>1.98</v>
@@ -9373,16 +8985,16 @@
         <v>145.55000000000001</v>
       </c>
       <c r="AK11">
-        <v>163.38</v>
+        <v>163.38999999999999</v>
       </c>
       <c r="AL11">
         <v>163.88</v>
       </c>
       <c r="AM11">
-        <v>161.57</v>
+        <v>161.56</v>
       </c>
       <c r="AN11">
-        <v>153.96</v>
+        <v>153.97</v>
       </c>
       <c r="AO11">
         <v>157.27000000000001</v>
@@ -9400,25 +9012,25 @@
         <v>156.91</v>
       </c>
       <c r="AT11">
-        <v>180.37</v>
+        <v>180.4</v>
       </c>
       <c r="AU11">
-        <v>146.24</v>
+        <v>146.22</v>
       </c>
       <c r="AV11">
-        <v>121.9</v>
+        <v>121.89</v>
       </c>
       <c r="AW11">
         <v>99.47</v>
       </c>
       <c r="AX11">
-        <v>79.040000000000006</v>
+        <v>79.069999999999993</v>
       </c>
       <c r="AY11">
-        <v>64.260000000000005</v>
+        <v>64.25</v>
       </c>
       <c r="AZ11">
-        <v>67.05</v>
+        <v>67.03</v>
       </c>
       <c r="BA11">
         <v>70.8</v>
@@ -9427,13 +9039,13 @@
         <v>73.72</v>
       </c>
       <c r="BC11">
-        <v>87.98</v>
+        <v>88</v>
       </c>
       <c r="BD11">
         <v>112.28</v>
       </c>
       <c r="BE11">
-        <v>139.35</v>
+        <v>139.38</v>
       </c>
       <c r="BF11">
         <v>135.97</v>
@@ -9445,19 +9057,19 @@
         <v>165.61</v>
       </c>
       <c r="BI11">
-        <v>173.53</v>
+        <v>173.51</v>
       </c>
       <c r="BJ11">
         <v>151.16999999999999</v>
       </c>
       <c r="BK11">
-        <v>119.46</v>
+        <v>119.43</v>
       </c>
       <c r="BL11">
         <v>81.62</v>
       </c>
       <c r="BM11">
-        <v>56.23</v>
+        <v>56.24</v>
       </c>
       <c r="BN11">
         <v>30.61</v>
@@ -9466,7 +9078,7 @@
         <v>20.16</v>
       </c>
       <c r="BP11">
-        <v>12.26</v>
+        <v>12.28</v>
       </c>
       <c r="BQ11">
         <v>6.56</v>
@@ -9490,7 +9102,7 @@
         <v>12.24</v>
       </c>
       <c r="BX11">
-        <v>14.5</v>
+        <v>14.52</v>
       </c>
       <c r="BY11">
         <v>24.47</v>
@@ -9502,30 +9114,33 @@
         <v>49.66</v>
       </c>
       <c r="CB11">
-        <v>55.48</v>
+        <v>55.51</v>
       </c>
       <c r="CC11">
         <v>55.04</v>
       </c>
       <c r="CD11">
-        <v>49.55</v>
+        <v>49.54</v>
       </c>
       <c r="CE11">
-        <v>43.13</v>
+        <v>43.11</v>
       </c>
       <c r="CF11">
-        <v>49.1</v>
+        <v>49.18</v>
       </c>
       <c r="CG11">
-        <v>51.62</v>
+        <v>51.68</v>
       </c>
       <c r="CH11">
-        <v>62.07</v>
+        <v>62.64</v>
+      </c>
+      <c r="CI11">
+        <v>96.72</v>
       </c>
     </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B12">
         <v>1.88</v>
@@ -9552,7 +9167,7 @@
         <v>14.89</v>
       </c>
       <c r="J12">
-        <v>8.8699999999999992</v>
+        <v>8.89</v>
       </c>
       <c r="K12">
         <v>8.5</v>
@@ -9627,7 +9242,7 @@
         <v>59.18</v>
       </c>
       <c r="AI12">
-        <v>110.37</v>
+        <v>110.39</v>
       </c>
       <c r="AJ12">
         <v>159.27000000000001</v>
@@ -9639,31 +9254,31 @@
         <v>176.09</v>
       </c>
       <c r="AM12">
-        <v>183.43</v>
+        <v>183.45</v>
       </c>
       <c r="AN12">
         <v>171.75</v>
       </c>
       <c r="AO12">
-        <v>175.16</v>
+        <v>175.18</v>
       </c>
       <c r="AP12">
-        <v>210.44</v>
+        <v>210.45</v>
       </c>
       <c r="AQ12">
         <v>236</v>
       </c>
       <c r="AR12">
-        <v>184.78</v>
+        <v>184.8</v>
       </c>
       <c r="AS12">
-        <v>162.19</v>
+        <v>162.16999999999999</v>
       </c>
       <c r="AT12">
-        <v>185.71</v>
+        <v>185.69</v>
       </c>
       <c r="AU12">
-        <v>150.85</v>
+        <v>150.83000000000001</v>
       </c>
       <c r="AV12">
         <v>123.05</v>
@@ -9672,7 +9287,7 @@
         <v>100.6</v>
       </c>
       <c r="AX12">
-        <v>85.13</v>
+        <v>85.09</v>
       </c>
       <c r="AY12">
         <v>67.36</v>
@@ -9681,13 +9296,13 @@
         <v>71.55</v>
       </c>
       <c r="BA12">
-        <v>76.78</v>
+        <v>76.760000000000005</v>
       </c>
       <c r="BB12">
-        <v>81.349999999999994</v>
+        <v>81.37</v>
       </c>
       <c r="BC12">
-        <v>98.38</v>
+        <v>98.36</v>
       </c>
       <c r="BD12">
         <v>123.56</v>
@@ -9696,13 +9311,13 @@
         <v>154.74</v>
       </c>
       <c r="BF12">
-        <v>151.65</v>
+        <v>151.66999999999999</v>
       </c>
       <c r="BG12">
-        <v>166.35</v>
+        <v>166.33</v>
       </c>
       <c r="BH12">
-        <v>192.8</v>
+        <v>192.84</v>
       </c>
       <c r="BI12">
         <v>202.32</v>
@@ -9714,7 +9329,7 @@
         <v>141.13999999999999</v>
       </c>
       <c r="BL12">
-        <v>96.33</v>
+        <v>96.31</v>
       </c>
       <c r="BM12">
         <v>68</v>
@@ -9726,7 +9341,7 @@
         <v>24.78</v>
       </c>
       <c r="BP12">
-        <v>16.54</v>
+        <v>16.55</v>
       </c>
       <c r="BQ12">
         <v>8.93</v>
@@ -9747,7 +9362,7 @@
         <v>13.07</v>
       </c>
       <c r="BW12">
-        <v>17.260000000000002</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="BX12">
         <v>22.3</v>
@@ -9756,36 +9371,39 @@
         <v>36.979999999999997</v>
       </c>
       <c r="BZ12">
-        <v>58.79</v>
+        <v>58.81</v>
       </c>
       <c r="CA12">
-        <v>77.86</v>
+        <v>77.88</v>
       </c>
       <c r="CB12">
-        <v>87.78</v>
+        <v>87.74</v>
       </c>
       <c r="CC12">
-        <v>86.09</v>
+        <v>86.13</v>
       </c>
       <c r="CD12">
-        <v>71.89</v>
+        <v>71.849999999999994</v>
       </c>
       <c r="CE12">
-        <v>63.22</v>
+        <v>63.26</v>
       </c>
       <c r="CF12">
-        <v>66.33</v>
+        <v>66.37</v>
       </c>
       <c r="CG12">
-        <v>72</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="CH12">
-        <v>81.430000000000007</v>
+        <v>81.900000000000006</v>
+      </c>
+      <c r="CI12">
+        <v>123.87</v>
       </c>
     </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B13">
         <v>1.73</v>
@@ -9794,10 +9412,10 @@
         <v>11.53</v>
       </c>
       <c r="D13">
-        <v>36.61</v>
+        <v>36.67</v>
       </c>
       <c r="E13">
-        <v>47.3</v>
+        <v>47.26</v>
       </c>
       <c r="F13">
         <v>47.02</v>
@@ -9884,13 +9502,13 @@
         <v>38.07</v>
       </c>
       <c r="AH13">
-        <v>59.18</v>
+        <v>59.2</v>
       </c>
       <c r="AI13">
         <v>108.13</v>
       </c>
       <c r="AJ13">
-        <v>160.56</v>
+        <v>160.58000000000001</v>
       </c>
       <c r="AK13">
         <v>180.81</v>
@@ -9899,31 +9517,31 @@
         <v>183.25</v>
       </c>
       <c r="AM13">
-        <v>188.33</v>
+        <v>188.31</v>
       </c>
       <c r="AN13">
         <v>179.42</v>
       </c>
       <c r="AO13">
-        <v>179.57</v>
+        <v>179.61</v>
       </c>
       <c r="AP13">
         <v>222.12</v>
       </c>
       <c r="AQ13">
-        <v>244.24</v>
+        <v>244.26</v>
       </c>
       <c r="AR13">
         <v>193.75</v>
       </c>
       <c r="AS13">
-        <v>163.6</v>
+        <v>163.58000000000001</v>
       </c>
       <c r="AT13">
-        <v>194.48</v>
+        <v>194.52</v>
       </c>
       <c r="AU13">
-        <v>153.94</v>
+        <v>153.91999999999999</v>
       </c>
       <c r="AV13">
         <v>126.97</v>
@@ -9932,7 +9550,7 @@
         <v>104.3</v>
       </c>
       <c r="AX13">
-        <v>87.1</v>
+        <v>87.08</v>
       </c>
       <c r="AY13">
         <v>70.540000000000006</v>
@@ -9950,7 +9568,7 @@
         <v>108.9</v>
       </c>
       <c r="BD13">
-        <v>142.22999999999999</v>
+        <v>142.25</v>
       </c>
       <c r="BE13">
         <v>185.05</v>
@@ -9959,13 +9577,13 @@
         <v>169.57</v>
       </c>
       <c r="BG13">
-        <v>189.04</v>
+        <v>189.06</v>
       </c>
       <c r="BH13">
-        <v>218.54</v>
+        <v>218.52</v>
       </c>
       <c r="BI13">
-        <v>220.51</v>
+        <v>220.53</v>
       </c>
       <c r="BJ13">
         <v>195.01</v>
@@ -9977,10 +9595,10 @@
         <v>108.64</v>
       </c>
       <c r="BM13">
-        <v>81.12</v>
+        <v>81.14</v>
       </c>
       <c r="BN13">
-        <v>44.92</v>
+        <v>44.9</v>
       </c>
       <c r="BO13">
         <v>32.51</v>
@@ -10007,7 +9625,7 @@
         <v>14.95</v>
       </c>
       <c r="BW13">
-        <v>20.13</v>
+        <v>20.149999999999999</v>
       </c>
       <c r="BX13">
         <v>29.44</v>
@@ -10016,36 +9634,39 @@
         <v>47.93</v>
       </c>
       <c r="BZ13">
-        <v>76.489999999999995</v>
+        <v>76.53</v>
       </c>
       <c r="CA13">
-        <v>105.56</v>
+        <v>105.6</v>
       </c>
       <c r="CB13">
         <v>115.99</v>
       </c>
       <c r="CC13">
-        <v>110.43</v>
+        <v>110.45</v>
       </c>
       <c r="CD13">
-        <v>90.65</v>
+        <v>90.69</v>
       </c>
       <c r="CE13">
-        <v>79.489999999999995</v>
+        <v>79.53</v>
       </c>
       <c r="CF13">
-        <v>85.62</v>
+        <v>85.56</v>
       </c>
       <c r="CG13">
-        <v>89.37</v>
+        <v>89.41</v>
       </c>
       <c r="CH13">
-        <v>101.81</v>
+        <v>102.24</v>
+      </c>
+      <c r="CI13">
+        <v>152.58000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B14">
         <v>1.27</v>
@@ -10072,7 +9693,7 @@
         <v>14.39</v>
       </c>
       <c r="J14">
-        <v>8.75</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="K14">
         <v>8.02</v>
@@ -10132,7 +9753,7 @@
         <v>13.22</v>
       </c>
       <c r="AD14">
-        <v>17.11</v>
+        <v>17.13</v>
       </c>
       <c r="AE14">
         <v>19.059999999999999</v>
@@ -10147,49 +9768,49 @@
         <v>58.59</v>
       </c>
       <c r="AI14">
-        <v>101.85</v>
+        <v>101.87</v>
       </c>
       <c r="AJ14">
         <v>152.82</v>
       </c>
       <c r="AK14">
-        <v>169.36</v>
+        <v>169.34</v>
       </c>
       <c r="AL14">
         <v>173.77</v>
       </c>
       <c r="AM14">
-        <v>173.86</v>
+        <v>173.9</v>
       </c>
       <c r="AN14">
-        <v>164.83</v>
+        <v>164.85</v>
       </c>
       <c r="AO14">
-        <v>172.94</v>
+        <v>172.9</v>
       </c>
       <c r="AP14">
-        <v>207.84</v>
+        <v>207.86</v>
       </c>
       <c r="AQ14">
-        <v>231.21</v>
+        <v>231.23</v>
       </c>
       <c r="AR14">
         <v>180.03</v>
       </c>
       <c r="AS14">
-        <v>152.76</v>
+        <v>152.74</v>
       </c>
       <c r="AT14">
         <v>191.84</v>
       </c>
       <c r="AU14">
-        <v>151.35</v>
+        <v>151.36000000000001</v>
       </c>
       <c r="AV14">
-        <v>119.9</v>
+        <v>119.94</v>
       </c>
       <c r="AW14">
-        <v>98.22</v>
+        <v>98.24</v>
       </c>
       <c r="AX14">
         <v>84.32</v>
@@ -10204,13 +9825,13 @@
         <v>79.069999999999993</v>
       </c>
       <c r="BB14">
-        <v>86.48</v>
+        <v>86.5</v>
       </c>
       <c r="BC14">
         <v>108.9</v>
       </c>
       <c r="BD14">
-        <v>143.44</v>
+        <v>143.46</v>
       </c>
       <c r="BE14">
         <v>178.87</v>
@@ -10219,7 +9840,7 @@
         <v>169.89</v>
       </c>
       <c r="BG14">
-        <v>179.29</v>
+        <v>179.31</v>
       </c>
       <c r="BH14">
         <v>213.04</v>
@@ -10228,13 +9849,13 @@
         <v>213.26</v>
       </c>
       <c r="BJ14">
-        <v>189.4</v>
+        <v>189.37</v>
       </c>
       <c r="BK14">
         <v>150.66999999999999</v>
       </c>
       <c r="BL14">
-        <v>106.33</v>
+        <v>106.31</v>
       </c>
       <c r="BM14">
         <v>79.8</v>
@@ -10243,7 +9864,7 @@
         <v>45.6</v>
       </c>
       <c r="BO14">
-        <v>31.97</v>
+        <v>31.99</v>
       </c>
       <c r="BP14">
         <v>20.8</v>
@@ -10270,42 +9891,45 @@
         <v>22.06</v>
       </c>
       <c r="BX14">
-        <v>30.08</v>
+        <v>30.12</v>
       </c>
       <c r="BY14">
-        <v>46.26</v>
+        <v>46.21</v>
       </c>
       <c r="BZ14">
-        <v>71.22</v>
+        <v>71.260000000000005</v>
       </c>
       <c r="CA14">
-        <v>99.52</v>
+        <v>99.54</v>
       </c>
       <c r="CB14">
-        <v>113.38</v>
+        <v>113.42</v>
       </c>
       <c r="CC14">
-        <v>109.6</v>
+        <v>109.64</v>
       </c>
       <c r="CD14">
-        <v>91.09</v>
+        <v>91.05</v>
       </c>
       <c r="CE14">
-        <v>80.11</v>
+        <v>80.13</v>
       </c>
       <c r="CF14">
-        <v>85.76</v>
+        <v>85.8</v>
       </c>
       <c r="CG14">
         <v>89.14</v>
       </c>
       <c r="CH14">
-        <v>100.09</v>
+        <v>100.92</v>
+      </c>
+      <c r="CI14">
+        <v>142.61000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B15">
         <v>1.26</v>
@@ -10320,10 +9944,10 @@
         <v>47.95</v>
       </c>
       <c r="F15">
-        <v>44</v>
+        <v>44.02</v>
       </c>
       <c r="G15">
-        <v>31.72</v>
+        <v>31.7</v>
       </c>
       <c r="H15">
         <v>21.94</v>
@@ -10332,7 +9956,7 @@
         <v>16.38</v>
       </c>
       <c r="J15">
-        <v>10.23</v>
+        <v>10.24</v>
       </c>
       <c r="K15">
         <v>8.84</v>
@@ -10392,7 +10016,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="AD15">
-        <v>21.94</v>
+        <v>21.96</v>
       </c>
       <c r="AE15">
         <v>23.71</v>
@@ -10419,40 +10043,40 @@
         <v>190.75</v>
       </c>
       <c r="AM15">
-        <v>183.49</v>
+        <v>183.51</v>
       </c>
       <c r="AN15">
-        <v>170.41</v>
+        <v>170.39</v>
       </c>
       <c r="AO15">
-        <v>172.35</v>
+        <v>172.37</v>
       </c>
       <c r="AP15">
         <v>209.67</v>
       </c>
       <c r="AQ15">
-        <v>237.06</v>
+        <v>237.09</v>
       </c>
       <c r="AR15">
         <v>182.81</v>
       </c>
       <c r="AS15">
-        <v>167.29</v>
+        <v>167.28</v>
       </c>
       <c r="AT15">
-        <v>211.09</v>
+        <v>211.07</v>
       </c>
       <c r="AU15">
-        <v>164.62</v>
+        <v>164.58</v>
       </c>
       <c r="AV15">
-        <v>127.68</v>
+        <v>127.7</v>
       </c>
       <c r="AW15">
-        <v>104.88</v>
+        <v>104.85</v>
       </c>
       <c r="AX15">
-        <v>89.32</v>
+        <v>89.34</v>
       </c>
       <c r="AY15">
         <v>71.040000000000006</v>
@@ -10467,37 +10091,37 @@
         <v>89.01</v>
       </c>
       <c r="BC15">
-        <v>109.47</v>
+        <v>109.49</v>
       </c>
       <c r="BD15">
-        <v>143.66</v>
+        <v>143.63999999999999</v>
       </c>
       <c r="BE15">
         <v>179.59</v>
       </c>
       <c r="BF15">
-        <v>173.08</v>
+        <v>173.06</v>
       </c>
       <c r="BG15">
-        <v>184.43</v>
+        <v>184.45</v>
       </c>
       <c r="BH15">
-        <v>218.62</v>
+        <v>218.61</v>
       </c>
       <c r="BI15">
-        <v>215.71</v>
+        <v>215.73</v>
       </c>
       <c r="BJ15">
         <v>190.22</v>
       </c>
       <c r="BK15">
-        <v>150.61000000000001</v>
+        <v>150.57</v>
       </c>
       <c r="BL15">
-        <v>106.79</v>
+        <v>106.77</v>
       </c>
       <c r="BM15">
-        <v>82.57</v>
+        <v>82.56</v>
       </c>
       <c r="BN15">
         <v>49.97</v>
@@ -10509,7 +10133,7 @@
         <v>21.54</v>
       </c>
       <c r="BQ15">
-        <v>11.48</v>
+        <v>11.5</v>
       </c>
       <c r="BR15">
         <v>7.59</v>
@@ -10527,45 +10151,48 @@
         <v>23.78</v>
       </c>
       <c r="BW15">
-        <v>27.53</v>
+        <v>27.51</v>
       </c>
       <c r="BX15">
-        <v>37.770000000000003</v>
+        <v>37.79</v>
       </c>
       <c r="BY15">
         <v>55.42</v>
       </c>
       <c r="BZ15">
-        <v>79.73</v>
+        <v>79.77</v>
       </c>
       <c r="CA15">
-        <v>108.74</v>
+        <v>108.79</v>
       </c>
       <c r="CB15">
         <v>119.77</v>
       </c>
       <c r="CC15">
-        <v>113.23</v>
+        <v>113.27</v>
       </c>
       <c r="CD15">
-        <v>92.76</v>
+        <v>92.8</v>
       </c>
       <c r="CE15">
         <v>83.77</v>
       </c>
       <c r="CF15">
-        <v>86.74</v>
+        <v>86.79</v>
       </c>
       <c r="CG15">
-        <v>87.27</v>
+        <v>87.4</v>
       </c>
       <c r="CH15">
-        <v>96.86</v>
+        <v>97.4</v>
+      </c>
+      <c r="CI15">
+        <v>144.38999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16">
         <v>1.5</v>
@@ -10589,7 +10216,7 @@
         <v>25.36</v>
       </c>
       <c r="I16">
-        <v>19.61</v>
+        <v>19.63</v>
       </c>
       <c r="J16">
         <v>13.42</v>
@@ -10646,7 +10273,7 @@
         <v>24.08</v>
       </c>
       <c r="AB16">
-        <v>22.92</v>
+        <v>22.9</v>
       </c>
       <c r="AC16">
         <v>24.16</v>
@@ -10658,13 +10285,13 @@
         <v>28.3</v>
       </c>
       <c r="AF16">
-        <v>34.409999999999997</v>
+        <v>34.43</v>
       </c>
       <c r="AG16">
         <v>52.93</v>
       </c>
       <c r="AH16">
-        <v>88.13</v>
+        <v>88.15</v>
       </c>
       <c r="AI16">
         <v>144.33000000000001</v>
@@ -10673,16 +10300,16 @@
         <v>203.84</v>
       </c>
       <c r="AK16">
-        <v>219.71</v>
+        <v>219.73</v>
       </c>
       <c r="AL16">
-        <v>210.54</v>
+        <v>210.52</v>
       </c>
       <c r="AM16">
         <v>195.43</v>
       </c>
       <c r="AN16">
-        <v>177.3</v>
+        <v>177.28</v>
       </c>
       <c r="AO16">
         <v>180.29</v>
@@ -10700,10 +10327,10 @@
         <v>165.99</v>
       </c>
       <c r="AT16">
-        <v>212.36</v>
+        <v>212.34</v>
       </c>
       <c r="AU16">
-        <v>168.23</v>
+        <v>168.21</v>
       </c>
       <c r="AV16">
         <v>125.98</v>
@@ -10712,7 +10339,7 @@
         <v>105.17</v>
       </c>
       <c r="AX16">
-        <v>88.42</v>
+        <v>88.4</v>
       </c>
       <c r="AY16">
         <v>72.11</v>
@@ -10727,7 +10354,7 @@
         <v>84.07</v>
       </c>
       <c r="BC16">
-        <v>107.74</v>
+        <v>107.76</v>
       </c>
       <c r="BD16">
         <v>138.19999999999999</v>
@@ -10736,10 +10363,10 @@
         <v>165.55</v>
       </c>
       <c r="BF16">
-        <v>165.1</v>
+        <v>165.06</v>
       </c>
       <c r="BG16">
-        <v>181.56</v>
+        <v>181.58</v>
       </c>
       <c r="BH16">
         <v>214.8</v>
@@ -10751,10 +10378,10 @@
         <v>181.65</v>
       </c>
       <c r="BK16">
-        <v>146.85</v>
+        <v>146.83000000000001</v>
       </c>
       <c r="BL16">
-        <v>102.02</v>
+        <v>102.04</v>
       </c>
       <c r="BM16">
         <v>77.72</v>
@@ -10781,10 +10408,10 @@
         <v>15.53</v>
       </c>
       <c r="BU16">
-        <v>26.15</v>
+        <v>26.17</v>
       </c>
       <c r="BV16">
-        <v>34.15</v>
+        <v>34.17</v>
       </c>
       <c r="BW16">
         <v>38.47</v>
@@ -10793,7 +10420,7 @@
         <v>47.35</v>
       </c>
       <c r="BY16">
-        <v>70.77</v>
+        <v>70.790000000000006</v>
       </c>
       <c r="BZ16">
         <v>98.99</v>
@@ -10802,30 +10429,33 @@
         <v>124.6</v>
       </c>
       <c r="CB16">
-        <v>123.89</v>
+        <v>123.93</v>
       </c>
       <c r="CC16">
-        <v>119.38</v>
+        <v>119.5</v>
       </c>
       <c r="CD16">
-        <v>96.46</v>
+        <v>96.48</v>
       </c>
       <c r="CE16">
-        <v>81.05</v>
+        <v>81.03</v>
       </c>
       <c r="CF16">
-        <v>83.69</v>
+        <v>83.73</v>
       </c>
       <c r="CG16">
-        <v>84.38</v>
+        <v>84.48</v>
       </c>
       <c r="CH16">
-        <v>96.19</v>
+        <v>96.66</v>
+      </c>
+      <c r="CI16">
+        <v>141.16</v>
       </c>
     </row>
-    <row r="17" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B17">
         <v>1.52</v>
@@ -10849,13 +10479,13 @@
         <v>26.6</v>
       </c>
       <c r="I17">
-        <v>20.77</v>
+        <v>20.79</v>
       </c>
       <c r="J17">
         <v>12.85</v>
       </c>
       <c r="K17">
-        <v>10.96</v>
+        <v>11</v>
       </c>
       <c r="L17">
         <v>9.09</v>
@@ -10897,7 +10527,7 @@
         <v>16.21</v>
       </c>
       <c r="Y17">
-        <v>25.15</v>
+        <v>25.17</v>
       </c>
       <c r="Z17">
         <v>33.53</v>
@@ -10942,16 +10572,16 @@
         <v>221.36</v>
       </c>
       <c r="AN17">
-        <v>193.99</v>
+        <v>194.01</v>
       </c>
       <c r="AO17">
-        <v>199.18</v>
+        <v>199.2</v>
       </c>
       <c r="AP17">
-        <v>234.16</v>
+        <v>234.18</v>
       </c>
       <c r="AQ17">
-        <v>262.48</v>
+        <v>262.43</v>
       </c>
       <c r="AR17">
         <v>196.81</v>
@@ -10960,22 +10590,22 @@
         <v>186.33</v>
       </c>
       <c r="AT17">
-        <v>236.31</v>
+        <v>236.28</v>
       </c>
       <c r="AU17">
-        <v>185.27</v>
+        <v>185.25</v>
       </c>
       <c r="AV17">
         <v>139.61000000000001</v>
       </c>
       <c r="AW17">
-        <v>113.7</v>
+        <v>113.73</v>
       </c>
       <c r="AX17">
         <v>94.98</v>
       </c>
       <c r="AY17">
-        <v>79.510000000000005</v>
+        <v>79.53</v>
       </c>
       <c r="AZ17">
         <v>85.63</v>
@@ -10990,31 +10620,31 @@
         <v>117.68</v>
       </c>
       <c r="BD17">
-        <v>149.79</v>
+        <v>149.77000000000001</v>
       </c>
       <c r="BE17">
         <v>185.59</v>
       </c>
       <c r="BF17">
-        <v>184.57</v>
+        <v>184.55</v>
       </c>
       <c r="BG17">
-        <v>212.65</v>
+        <v>212.7</v>
       </c>
       <c r="BH17">
         <v>250.65</v>
       </c>
       <c r="BI17">
-        <v>244.51</v>
+        <v>244.53</v>
       </c>
       <c r="BJ17">
         <v>208.79</v>
       </c>
       <c r="BK17">
-        <v>169.97</v>
+        <v>169.95</v>
       </c>
       <c r="BL17">
-        <v>121.19</v>
+        <v>121.23</v>
       </c>
       <c r="BM17">
         <v>90.7</v>
@@ -11050,42 +10680,45 @@
         <v>50.56</v>
       </c>
       <c r="BX17">
-        <v>60.56</v>
+        <v>60.58</v>
       </c>
       <c r="BY17">
-        <v>96.06</v>
+        <v>96.04</v>
       </c>
       <c r="BZ17">
-        <v>125.53</v>
+        <v>125.62</v>
       </c>
       <c r="CA17">
-        <v>149.31</v>
+        <v>149.41999999999999</v>
       </c>
       <c r="CB17">
-        <v>148.34</v>
+        <v>148.29</v>
       </c>
       <c r="CC17">
         <v>135.06</v>
       </c>
       <c r="CD17">
-        <v>107.5</v>
+        <v>107.56</v>
       </c>
       <c r="CE17">
-        <v>89.38</v>
+        <v>89.4</v>
       </c>
       <c r="CF17">
-        <v>88.6</v>
+        <v>88.64</v>
       </c>
       <c r="CG17">
-        <v>89.97</v>
+        <v>90.07</v>
       </c>
       <c r="CH17">
-        <v>107.04</v>
+        <v>107.48</v>
+      </c>
+      <c r="CI17">
+        <v>155.78</v>
       </c>
     </row>
-    <row r="18" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B18">
         <v>1.1200000000000001</v>
@@ -11109,7 +10742,7 @@
         <v>14.47</v>
       </c>
       <c r="I18">
-        <v>10.210000000000001</v>
+        <v>10.23</v>
       </c>
       <c r="J18">
         <v>6.7</v>
@@ -11199,25 +10832,25 @@
         <v>221.24</v>
       </c>
       <c r="AM18">
-        <v>208.42</v>
+        <v>208.44</v>
       </c>
       <c r="AN18">
-        <v>189.35</v>
+        <v>189.38</v>
       </c>
       <c r="AO18">
-        <v>195.77</v>
+        <v>195.82</v>
       </c>
       <c r="AP18">
-        <v>223.85</v>
+        <v>223.9</v>
       </c>
       <c r="AQ18">
-        <v>215.14</v>
+        <v>215.12</v>
       </c>
       <c r="AR18">
-        <v>149.19</v>
+        <v>149.22</v>
       </c>
       <c r="AS18">
-        <v>125.81</v>
+        <v>125.79</v>
       </c>
       <c r="AT18">
         <v>161.99</v>
@@ -11226,16 +10859,16 @@
         <v>136.78</v>
       </c>
       <c r="AV18">
-        <v>106.59</v>
+        <v>106.62</v>
       </c>
       <c r="AW18">
         <v>88.11</v>
       </c>
       <c r="AX18">
-        <v>74.08</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="AY18">
-        <v>60.37</v>
+        <v>60.34</v>
       </c>
       <c r="AZ18">
         <v>66.459999999999994</v>
@@ -11259,7 +10892,7 @@
         <v>167.75</v>
       </c>
       <c r="BG18">
-        <v>191.59</v>
+        <v>191.64</v>
       </c>
       <c r="BH18">
         <v>274.67</v>
@@ -11268,10 +10901,10 @@
         <v>262.44</v>
       </c>
       <c r="BJ18">
-        <v>219.76</v>
+        <v>219.79</v>
       </c>
       <c r="BK18">
-        <v>179.04</v>
+        <v>179.02</v>
       </c>
       <c r="BL18">
         <v>125.38</v>
@@ -11286,7 +10919,7 @@
         <v>43.66</v>
       </c>
       <c r="BP18">
-        <v>31.22</v>
+        <v>31.25</v>
       </c>
       <c r="BQ18">
         <v>17.29</v>
@@ -11301,13 +10934,13 @@
         <v>14.72</v>
       </c>
       <c r="BU18">
-        <v>32.67</v>
+        <v>32.72</v>
       </c>
       <c r="BV18">
-        <v>40.97</v>
+        <v>41</v>
       </c>
       <c r="BW18">
-        <v>46.79</v>
+        <v>46.81</v>
       </c>
       <c r="BX18">
         <v>60.14</v>
@@ -11316,36 +10949,39 @@
         <v>89</v>
       </c>
       <c r="BZ18">
-        <v>141.47</v>
+        <v>141.44999999999999</v>
       </c>
       <c r="CA18">
-        <v>176.96</v>
+        <v>177.01</v>
       </c>
       <c r="CB18">
-        <v>197.35</v>
+        <v>197.47</v>
       </c>
       <c r="CC18">
-        <v>173.82</v>
+        <v>173.99</v>
       </c>
       <c r="CD18">
-        <v>143.25</v>
+        <v>143.33000000000001</v>
       </c>
       <c r="CE18">
-        <v>117.41</v>
+        <v>117.48</v>
       </c>
       <c r="CF18">
-        <v>116.19</v>
+        <v>116.06</v>
       </c>
       <c r="CG18">
-        <v>114.95</v>
+        <v>115.2</v>
       </c>
       <c r="CH18">
-        <v>122.84</v>
+        <v>123.68</v>
+      </c>
+      <c r="CI18">
+        <v>174.32</v>
       </c>
     </row>
-    <row r="19" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19">
         <v>0.51</v>
@@ -11354,7 +10990,7 @@
         <v>2.75</v>
       </c>
       <c r="D19">
-        <v>6.86</v>
+        <v>6.83</v>
       </c>
       <c r="E19">
         <v>10.26</v>
@@ -11414,7 +11050,7 @@
         <v>6.81</v>
       </c>
       <c r="X19">
-        <v>9.83</v>
+        <v>9.86</v>
       </c>
       <c r="Y19">
         <v>14.72</v>
@@ -11438,7 +11074,7 @@
         <v>15.77</v>
       </c>
       <c r="AF19">
-        <v>19.2</v>
+        <v>19.23</v>
       </c>
       <c r="AG19">
         <v>30.79</v>
@@ -11456,16 +11092,16 @@
         <v>129.16999999999999</v>
       </c>
       <c r="AL19">
-        <v>144.43</v>
+        <v>144.44999999999999</v>
       </c>
       <c r="AM19">
         <v>143.08000000000001</v>
       </c>
       <c r="AN19">
-        <v>140</v>
+        <v>140.02000000000001</v>
       </c>
       <c r="AO19">
-        <v>139.19</v>
+        <v>139.21</v>
       </c>
       <c r="AP19">
         <v>153.58000000000001</v>
@@ -11477,28 +11113,28 @@
         <v>91.41</v>
       </c>
       <c r="AS19">
-        <v>71.59</v>
+        <v>71.62</v>
       </c>
       <c r="AT19">
-        <v>89.9</v>
+        <v>89.93</v>
       </c>
       <c r="AU19">
         <v>73.319999999999993</v>
       </c>
       <c r="AV19">
-        <v>60.17</v>
+        <v>60.2</v>
       </c>
       <c r="AW19">
-        <v>50.74</v>
+        <v>50.77</v>
       </c>
       <c r="AX19">
-        <v>46.58</v>
+        <v>46.61</v>
       </c>
       <c r="AY19">
         <v>38.049999999999997</v>
       </c>
       <c r="AZ19">
-        <v>42.35</v>
+        <v>42.4</v>
       </c>
       <c r="BA19">
         <v>50.72</v>
@@ -11513,13 +11149,13 @@
         <v>112.94</v>
       </c>
       <c r="BE19">
-        <v>154.74</v>
+        <v>154.72</v>
       </c>
       <c r="BF19">
         <v>131</v>
       </c>
       <c r="BG19">
-        <v>139.91999999999999</v>
+        <v>139.88999999999999</v>
       </c>
       <c r="BH19">
         <v>206.81</v>
@@ -11528,7 +11164,7 @@
         <v>235.92</v>
       </c>
       <c r="BJ19">
-        <v>193.71</v>
+        <v>193.74</v>
       </c>
       <c r="BK19">
         <v>165.36</v>
@@ -11537,7 +11173,7 @@
         <v>123.39</v>
       </c>
       <c r="BM19">
-        <v>101.6</v>
+        <v>101.62</v>
       </c>
       <c r="BN19">
         <v>58.39</v>
@@ -11546,7 +11182,7 @@
         <v>42.67</v>
       </c>
       <c r="BP19">
-        <v>35.67</v>
+        <v>35.65</v>
       </c>
       <c r="BQ19">
         <v>17.899999999999999</v>
@@ -11564,48 +11200,51 @@
         <v>14.39</v>
       </c>
       <c r="BV19">
-        <v>21.12</v>
+        <v>21.15</v>
       </c>
       <c r="BW19">
         <v>26.95</v>
       </c>
       <c r="BX19">
-        <v>40.270000000000003</v>
+        <v>40.29</v>
       </c>
       <c r="BY19">
-        <v>70.430000000000007</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="BZ19">
-        <v>144.88999999999999</v>
+        <v>144.91</v>
       </c>
       <c r="CA19">
-        <v>186.91</v>
+        <v>186.93</v>
       </c>
       <c r="CB19">
-        <v>227.09</v>
+        <v>227.15</v>
       </c>
       <c r="CC19">
-        <v>208.86</v>
+        <v>209</v>
       </c>
       <c r="CD19">
-        <v>197.33</v>
+        <v>197.41</v>
       </c>
       <c r="CE19">
-        <v>169.76</v>
+        <v>169.68</v>
       </c>
       <c r="CF19">
-        <v>179.75</v>
+        <v>179.7</v>
       </c>
       <c r="CG19">
-        <v>174.78</v>
+        <v>175.32</v>
       </c>
       <c r="CH19">
-        <v>182.34</v>
+        <v>184.18</v>
+      </c>
+      <c r="CI19">
+        <v>236.84</v>
       </c>
     </row>
-    <row r="20" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B20">
         <v>0.27</v>
@@ -11662,7 +11301,7 @@
         <v>3.25</v>
       </c>
       <c r="T20">
-        <v>3.11</v>
+        <v>3.09</v>
       </c>
       <c r="U20">
         <v>3.68</v>
@@ -11701,7 +11340,7 @@
         <v>11.62</v>
       </c>
       <c r="AG20">
-        <v>16.690000000000001</v>
+        <v>16.66</v>
       </c>
       <c r="AH20">
         <v>26.08</v>
@@ -11722,10 +11361,10 @@
         <v>105.13</v>
       </c>
       <c r="AN20">
-        <v>102.47</v>
+        <v>102.5</v>
       </c>
       <c r="AO20">
-        <v>98.77</v>
+        <v>98.71</v>
       </c>
       <c r="AP20">
         <v>114.28</v>
@@ -11740,7 +11379,7 @@
         <v>52.11</v>
       </c>
       <c r="AT20">
-        <v>64.180000000000007</v>
+        <v>64.209999999999994</v>
       </c>
       <c r="AU20">
         <v>58.84</v>
@@ -11752,13 +11391,13 @@
         <v>44.06</v>
       </c>
       <c r="AX20">
-        <v>43.01</v>
+        <v>42.98</v>
       </c>
       <c r="AY20">
         <v>37.299999999999997</v>
       </c>
       <c r="AZ20">
-        <v>41.64</v>
+        <v>41.59</v>
       </c>
       <c r="BA20">
         <v>53.77</v>
@@ -11767,7 +11406,7 @@
         <v>73.14</v>
       </c>
       <c r="BC20">
-        <v>98.69</v>
+        <v>98.71</v>
       </c>
       <c r="BD20">
         <v>127.77</v>
@@ -11776,7 +11415,7 @@
         <v>179.72</v>
       </c>
       <c r="BF20">
-        <v>139.28</v>
+        <v>139.31</v>
       </c>
       <c r="BG20">
         <v>126.08</v>
@@ -11797,7 +11436,7 @@
         <v>110.44</v>
       </c>
       <c r="BM20">
-        <v>91.63</v>
+        <v>91.66</v>
       </c>
       <c r="BN20">
         <v>50.31</v>
@@ -11806,7 +11445,7 @@
         <v>40.92</v>
       </c>
       <c r="BP20">
-        <v>30.61</v>
+        <v>30.64</v>
       </c>
       <c r="BQ20">
         <v>15.19</v>
@@ -11830,42 +11469,45 @@
         <v>19.48</v>
       </c>
       <c r="BX20">
-        <v>30.96</v>
+        <v>30.94</v>
       </c>
       <c r="BY20">
-        <v>49.37</v>
+        <v>49.4</v>
       </c>
       <c r="BZ20">
-        <v>99.71</v>
+        <v>99.79</v>
       </c>
       <c r="CA20">
-        <v>150.04</v>
+        <v>150.01</v>
       </c>
       <c r="CB20">
-        <v>187.95</v>
+        <v>187.98</v>
       </c>
       <c r="CC20">
-        <v>176.74</v>
+        <v>176.79</v>
       </c>
       <c r="CD20">
-        <v>157.77000000000001</v>
+        <v>157.80000000000001</v>
       </c>
       <c r="CE20">
-        <v>141.69999999999999</v>
+        <v>141.78</v>
       </c>
       <c r="CF20">
-        <v>143.38999999999999</v>
+        <v>143.41</v>
       </c>
       <c r="CG20">
-        <v>135.87</v>
+        <v>136.09</v>
       </c>
       <c r="CH20">
-        <v>134.69</v>
+        <v>136.06</v>
+      </c>
+      <c r="CI20">
+        <v>194.39</v>
       </c>
     </row>
-    <row r="21" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B21">
         <v>0.23</v>
@@ -11937,7 +11579,7 @@
         <v>4.75</v>
       </c>
       <c r="Y21">
-        <v>6.94</v>
+        <v>6.97</v>
       </c>
       <c r="Z21">
         <v>7.17</v>
@@ -11985,19 +11627,19 @@
         <v>58.46</v>
       </c>
       <c r="AO21">
-        <v>58.09</v>
+        <v>58.06</v>
       </c>
       <c r="AP21">
         <v>67.069999999999993</v>
       </c>
       <c r="AQ21">
-        <v>78.03</v>
+        <v>78</v>
       </c>
       <c r="AR21">
         <v>53.16</v>
       </c>
       <c r="AS21">
-        <v>38.5</v>
+        <v>38.47</v>
       </c>
       <c r="AT21">
         <v>47.96</v>
@@ -12015,7 +11657,7 @@
         <v>38.14</v>
       </c>
       <c r="AY21">
-        <v>34</v>
+        <v>33.979999999999997</v>
       </c>
       <c r="AZ21">
         <v>34.71</v>
@@ -12090,10 +11732,10 @@
         <v>13.18</v>
       </c>
       <c r="BX21">
-        <v>19.11</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="BY21">
-        <v>31.15</v>
+        <v>31.13</v>
       </c>
       <c r="BZ21">
         <v>47.1</v>
@@ -12102,13 +11744,13 @@
         <v>74.599999999999994</v>
       </c>
       <c r="CB21">
-        <v>86.28</v>
+        <v>86.26</v>
       </c>
       <c r="CC21">
         <v>88.33</v>
       </c>
       <c r="CD21">
-        <v>71.59</v>
+        <v>71.62</v>
       </c>
       <c r="CE21">
         <v>58.84</v>
@@ -12117,10 +11759,13 @@
         <v>55.54</v>
       </c>
       <c r="CG21">
-        <v>46.57</v>
+        <v>46.63</v>
       </c>
       <c r="CH21">
-        <v>50.36</v>
+        <v>50.66</v>
+      </c>
+      <c r="CI21">
+        <v>67.25</v>
       </c>
     </row>
   </sheetData>

--- a/data/source/Altersverteilung.xlsx
+++ b/data/source/Altersverteilung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2021-11-04\Tabellen webmaster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2021-11-11\Tabellen_Webmaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CDEA4B1-406D-4BDE-84DD-18DA6850CBCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF00E903-114A-4DEF-9904-325E11717209}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22185" windowHeight="6075" activeTab="1" xr2:uid="{1C8FB744-33E4-47A6-8FC5-B963F77CF93D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11024" xr2:uid="{0427696B-F785-45D0-992A-7264DC393EB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallzahlen" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="109">
   <si>
     <t>Altersgruppe</t>
   </si>
@@ -289,6 +289,12 @@
     <t>2021_42</t>
   </si>
   <si>
+    <t>2021_43</t>
+  </si>
+  <si>
+    <t>2021_44</t>
+  </si>
+  <si>
     <t>Gesamt</t>
   </si>
   <si>
@@ -343,13 +349,10 @@
     <t>0 - 4</t>
   </si>
   <si>
-    <t>2021_43</t>
+    <t>10 - 14</t>
   </si>
   <si>
-    <t>10-14</t>
-  </si>
-  <si>
-    <t>5-9</t>
+    <t>5 - 9</t>
   </si>
 </sst>
 </file>
@@ -702,16 +705,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE92846A-0CF1-4082-A2E8-EAD00944FCC7}">
-  <dimension ref="A1:CJ21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C1D0B3-EED6-4709-84A3-6902C67389EE}">
+  <dimension ref="A1:CK21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -974,18 +977,21 @@
         <v>86</v>
       </c>
       <c r="CJ1" t="s">
-        <v>105</v>
+        <v>87</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>899</v>
       </c>
       <c r="C2">
-        <v>6432</v>
+        <v>6431</v>
       </c>
       <c r="D2">
         <v>22389</v>
@@ -994,16 +1000,16 @@
         <v>33964</v>
       </c>
       <c r="F2">
-        <v>36052</v>
+        <v>36051</v>
       </c>
       <c r="G2">
-        <v>27130</v>
+        <v>27131</v>
       </c>
       <c r="H2">
-        <v>17326</v>
+        <v>17325</v>
       </c>
       <c r="I2">
-        <v>12349</v>
+        <v>12348</v>
       </c>
       <c r="J2">
         <v>7427</v>
@@ -1018,13 +1024,13 @@
         <v>3597</v>
       </c>
       <c r="N2">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="O2">
         <v>2351</v>
       </c>
       <c r="P2">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="Q2">
         <v>4190</v>
@@ -1048,13 +1054,13 @@
         <v>4832</v>
       </c>
       <c r="X2">
-        <v>6059</v>
+        <v>6057</v>
       </c>
       <c r="Y2">
-        <v>7953</v>
+        <v>7952</v>
       </c>
       <c r="Z2">
-        <v>9595</v>
+        <v>9594</v>
       </c>
       <c r="AA2">
         <v>8827</v>
@@ -1063,7 +1069,7 @@
         <v>8613</v>
       </c>
       <c r="AC2">
-        <v>9759</v>
+        <v>9760</v>
       </c>
       <c r="AD2">
         <v>12290</v>
@@ -1072,180 +1078,183 @@
         <v>13062</v>
       </c>
       <c r="AF2">
-        <v>15924</v>
+        <v>15923</v>
       </c>
       <c r="AG2">
-        <v>26110</v>
+        <v>26109</v>
       </c>
       <c r="AH2">
         <v>42062</v>
       </c>
       <c r="AI2">
-        <v>74873</v>
+        <v>74870</v>
       </c>
       <c r="AJ2">
-        <v>111022</v>
+        <v>111020</v>
       </c>
       <c r="AK2">
-        <v>125726</v>
+        <v>125727</v>
       </c>
       <c r="AL2">
-        <v>127782</v>
+        <v>127781</v>
       </c>
       <c r="AM2">
-        <v>128358</v>
+        <v>128363</v>
       </c>
       <c r="AN2">
-        <v>123158</v>
+        <v>123155</v>
       </c>
       <c r="AO2">
-        <v>128359</v>
+        <v>128357</v>
       </c>
       <c r="AP2">
-        <v>156292</v>
+        <v>156289</v>
       </c>
       <c r="AQ2">
-        <v>174700</v>
+        <v>174698</v>
       </c>
       <c r="AR2">
-        <v>138950</v>
+        <v>138948</v>
       </c>
       <c r="AS2">
-        <v>123069</v>
+        <v>123060</v>
       </c>
       <c r="AT2">
-        <v>145439</v>
+        <v>145440</v>
       </c>
       <c r="AU2">
-        <v>118887</v>
+        <v>118881</v>
       </c>
       <c r="AV2">
-        <v>95519</v>
+        <v>95517</v>
       </c>
       <c r="AW2">
         <v>78123</v>
       </c>
       <c r="AX2">
-        <v>64552</v>
+        <v>64553</v>
       </c>
       <c r="AY2">
-        <v>50802</v>
+        <v>50803</v>
       </c>
       <c r="AZ2">
-        <v>52382</v>
+        <v>52386</v>
       </c>
       <c r="BA2">
-        <v>56347</v>
+        <v>56348</v>
       </c>
       <c r="BB2">
-        <v>58371</v>
+        <v>58372</v>
       </c>
       <c r="BC2">
-        <v>71309</v>
+        <v>71310</v>
       </c>
       <c r="BD2">
         <v>92581</v>
       </c>
       <c r="BE2">
-        <v>116267</v>
+        <v>116269</v>
       </c>
       <c r="BF2">
-        <v>110096</v>
+        <v>110098</v>
       </c>
       <c r="BG2">
-        <v>118267</v>
+        <v>118266</v>
       </c>
       <c r="BH2">
-        <v>142060</v>
+        <v>142062</v>
       </c>
       <c r="BI2">
-        <v>144758</v>
+        <v>144753</v>
       </c>
       <c r="BJ2">
-        <v>124791</v>
+        <v>124796</v>
       </c>
       <c r="BK2">
         <v>100982</v>
       </c>
       <c r="BL2">
-        <v>70819</v>
+        <v>70817</v>
       </c>
       <c r="BM2">
         <v>52697</v>
       </c>
       <c r="BN2">
-        <v>29870</v>
+        <v>29871</v>
       </c>
       <c r="BO2">
-        <v>20673</v>
+        <v>20676</v>
       </c>
       <c r="BP2">
-        <v>14029</v>
+        <v>14030</v>
       </c>
       <c r="BQ2">
-        <v>7266</v>
+        <v>7267</v>
       </c>
       <c r="BR2">
         <v>4817</v>
       </c>
       <c r="BS2">
-        <v>4354</v>
+        <v>4357</v>
       </c>
       <c r="BT2">
-        <v>5568</v>
+        <v>5570</v>
       </c>
       <c r="BU2">
-        <v>9092</v>
+        <v>9096</v>
       </c>
       <c r="BV2">
-        <v>12626</v>
+        <v>12625</v>
       </c>
       <c r="BW2">
-        <v>15491</v>
+        <v>15494</v>
       </c>
       <c r="BX2">
-        <v>20396</v>
+        <v>20401</v>
       </c>
       <c r="BY2">
-        <v>32047</v>
+        <v>32052</v>
       </c>
       <c r="BZ2">
-        <v>49609</v>
+        <v>49607</v>
       </c>
       <c r="CA2">
-        <v>66311</v>
+        <v>66318</v>
       </c>
       <c r="CB2">
-        <v>74666</v>
+        <v>74668</v>
       </c>
       <c r="CC2">
-        <v>71644</v>
+        <v>71648</v>
       </c>
       <c r="CD2">
-        <v>61411</v>
+        <v>61427</v>
       </c>
       <c r="CE2">
-        <v>53570</v>
+        <v>53583</v>
       </c>
       <c r="CF2">
-        <v>56425</v>
+        <v>56439</v>
       </c>
       <c r="CG2">
-        <v>57884</v>
+        <v>57903</v>
       </c>
       <c r="CH2">
-        <v>65152</v>
+        <v>65181</v>
       </c>
       <c r="CI2">
-        <v>97210</v>
+        <v>97300</v>
       </c>
       <c r="CJ2">
-        <v>134857</v>
+        <v>136677</v>
+      </c>
+      <c r="CK2">
+        <v>176163</v>
       </c>
     </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1314,7 +1323,7 @@
         <v>39</v>
       </c>
       <c r="X3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y3">
         <v>25</v>
@@ -1371,10 +1380,10 @@
         <v>5402</v>
       </c>
       <c r="AQ3">
-        <v>5969</v>
+        <v>5968</v>
       </c>
       <c r="AR3">
-        <v>5237</v>
+        <v>5236</v>
       </c>
       <c r="AS3">
         <v>4980</v>
@@ -1386,7 +1395,7 @@
         <v>5019</v>
       </c>
       <c r="AV3">
-        <v>3942</v>
+        <v>3943</v>
       </c>
       <c r="AW3">
         <v>2873</v>
@@ -1395,7 +1404,7 @@
         <v>1933</v>
       </c>
       <c r="AY3">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="AZ3">
         <v>1062</v>
@@ -1425,7 +1434,7 @@
         <v>791</v>
       </c>
       <c r="BI3">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="BJ3">
         <v>636</v>
@@ -1437,7 +1446,7 @@
         <v>408</v>
       </c>
       <c r="BM3">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BN3">
         <v>160</v>
@@ -1479,10 +1488,10 @@
         <v>139</v>
       </c>
       <c r="CA3">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="CB3">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="CC3">
         <v>350</v>
@@ -1494,7 +1503,7 @@
         <v>334</v>
       </c>
       <c r="CF3">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="CG3">
         <v>396</v>
@@ -1503,15 +1512,18 @@
         <v>523</v>
       </c>
       <c r="CI3">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="CJ3">
-        <v>1151</v>
+        <v>1170</v>
+      </c>
+      <c r="CK3">
+        <v>1658</v>
       </c>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -1619,7 +1631,7 @@
         <v>1786</v>
       </c>
       <c r="AK4">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="AL4">
         <v>2831</v>
@@ -1628,28 +1640,28 @@
         <v>3376</v>
       </c>
       <c r="AN4">
-        <v>4092</v>
+        <v>4091</v>
       </c>
       <c r="AO4">
-        <v>4598</v>
+        <v>4597</v>
       </c>
       <c r="AP4">
-        <v>5907</v>
+        <v>5906</v>
       </c>
       <c r="AQ4">
         <v>6937</v>
       </c>
       <c r="AR4">
-        <v>5820</v>
+        <v>5819</v>
       </c>
       <c r="AS4">
-        <v>5584</v>
+        <v>5583</v>
       </c>
       <c r="AT4">
-        <v>6066</v>
+        <v>6067</v>
       </c>
       <c r="AU4">
-        <v>5556</v>
+        <v>5555</v>
       </c>
       <c r="AV4">
         <v>4440</v>
@@ -1685,10 +1697,10 @@
         <v>1193</v>
       </c>
       <c r="BG4">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="BH4">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="BI4">
         <v>1177</v>
@@ -1760,24 +1772,27 @@
         <v>452</v>
       </c>
       <c r="CF4">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="CG4">
         <v>587</v>
       </c>
       <c r="CH4">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="CI4">
         <v>1317</v>
       </c>
       <c r="CJ4">
-        <v>1653</v>
+        <v>1668</v>
+      </c>
+      <c r="CK4">
+        <v>2284</v>
       </c>
     </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -1882,7 +1897,7 @@
         <v>1839</v>
       </c>
       <c r="AJ5">
-        <v>2835</v>
+        <v>2836</v>
       </c>
       <c r="AK5">
         <v>3434</v>
@@ -1897,31 +1912,31 @@
         <v>4770</v>
       </c>
       <c r="AO5">
-        <v>5445</v>
+        <v>5446</v>
       </c>
       <c r="AP5">
-        <v>7074</v>
+        <v>7073</v>
       </c>
       <c r="AQ5">
-        <v>8255</v>
+        <v>8254</v>
       </c>
       <c r="AR5">
         <v>7405</v>
       </c>
       <c r="AS5">
-        <v>6865</v>
+        <v>6864</v>
       </c>
       <c r="AT5">
-        <v>7668</v>
+        <v>7669</v>
       </c>
       <c r="AU5">
-        <v>6686</v>
+        <v>6684</v>
       </c>
       <c r="AV5">
         <v>5329</v>
       </c>
       <c r="AW5">
-        <v>4193</v>
+        <v>4192</v>
       </c>
       <c r="AX5">
         <v>3141</v>
@@ -1951,7 +1966,7 @@
         <v>1893</v>
       </c>
       <c r="BG5">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="BH5">
         <v>2219</v>
@@ -2029,21 +2044,24 @@
         <v>903</v>
       </c>
       <c r="CG5">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="CH5">
         <v>1155</v>
       </c>
       <c r="CI5">
-        <v>1967</v>
+        <v>1959</v>
       </c>
       <c r="CJ5">
-        <v>2889</v>
+        <v>2951</v>
+      </c>
+      <c r="CK5">
+        <v>3923</v>
       </c>
     </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -2154,7 +2172,7 @@
         <v>3054</v>
       </c>
       <c r="AL6">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="AM6">
         <v>3381</v>
@@ -2163,13 +2181,13 @@
         <v>3483</v>
       </c>
       <c r="AO6">
-        <v>3967</v>
+        <v>3968</v>
       </c>
       <c r="AP6">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="AQ6">
-        <v>5936</v>
+        <v>5935</v>
       </c>
       <c r="AR6">
         <v>5103</v>
@@ -2190,7 +2208,7 @@
         <v>2814</v>
       </c>
       <c r="AX6">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="AY6">
         <v>1700</v>
@@ -2229,13 +2247,13 @@
         <v>2121</v>
       </c>
       <c r="BK6">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="BL6">
         <v>1140</v>
       </c>
       <c r="BM6">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="BN6">
         <v>409</v>
@@ -2283,7 +2301,7 @@
         <v>543</v>
       </c>
       <c r="CC6">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="CD6">
         <v>564</v>
@@ -2295,21 +2313,24 @@
         <v>712</v>
       </c>
       <c r="CG6">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="CH6">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="CI6">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="CJ6">
-        <v>2445</v>
+        <v>2486</v>
+      </c>
+      <c r="CK6">
+        <v>3193</v>
       </c>
     </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -2420,7 +2441,7 @@
         <v>3187</v>
       </c>
       <c r="AL7">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="AM7">
         <v>3354</v>
@@ -2429,7 +2450,7 @@
         <v>3189</v>
       </c>
       <c r="AO7">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="AP7">
         <v>4385</v>
@@ -2438,10 +2459,10 @@
         <v>5157</v>
       </c>
       <c r="AR7">
-        <v>4445</v>
+        <v>4444</v>
       </c>
       <c r="AS7">
-        <v>4128</v>
+        <v>4127</v>
       </c>
       <c r="AT7">
         <v>4838</v>
@@ -2480,7 +2501,7 @@
         <v>2840</v>
       </c>
       <c r="BF7">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="BG7">
         <v>3143</v>
@@ -2501,7 +2522,7 @@
         <v>1592</v>
       </c>
       <c r="BM7">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="BN7">
         <v>583</v>
@@ -2513,7 +2534,7 @@
         <v>213</v>
       </c>
       <c r="BQ7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BR7">
         <v>71</v>
@@ -2558,24 +2579,27 @@
         <v>692</v>
       </c>
       <c r="CF7">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="CG7">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="CH7">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="CI7">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="CJ7">
-        <v>3129</v>
+        <v>3167</v>
+      </c>
+      <c r="CK7">
+        <v>4483</v>
       </c>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B8">
         <v>25</v>
@@ -2590,7 +2614,7 @@
         <v>1647</v>
       </c>
       <c r="F8">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="G8">
         <v>1115</v>
@@ -2695,7 +2719,7 @@
         <v>4132</v>
       </c>
       <c r="AO8">
-        <v>4118</v>
+        <v>4117</v>
       </c>
       <c r="AP8">
         <v>5172</v>
@@ -2719,7 +2743,7 @@
         <v>3624</v>
       </c>
       <c r="AW8">
-        <v>3128</v>
+        <v>3129</v>
       </c>
       <c r="AX8">
         <v>2537</v>
@@ -2755,13 +2779,13 @@
         <v>4912</v>
       </c>
       <c r="BI8">
-        <v>4628</v>
+        <v>4629</v>
       </c>
       <c r="BJ8">
         <v>3972</v>
       </c>
       <c r="BK8">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="BL8">
         <v>2319</v>
@@ -2797,7 +2821,7 @@
         <v>159</v>
       </c>
       <c r="BW8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BX8">
         <v>283</v>
@@ -2827,27 +2851,30 @@
         <v>1092</v>
       </c>
       <c r="CG8">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="CH8">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="CI8">
-        <v>2587</v>
+        <v>2591</v>
       </c>
       <c r="CJ8">
-        <v>3854</v>
+        <v>3904</v>
+      </c>
+      <c r="CK8">
+        <v>5432</v>
       </c>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B9">
         <v>63</v>
       </c>
       <c r="C9">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D9">
         <v>1597</v>
@@ -2865,7 +2892,7 @@
         <v>1085</v>
       </c>
       <c r="I9">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J9">
         <v>405</v>
@@ -2967,16 +2994,16 @@
         <v>9433</v>
       </c>
       <c r="AQ9">
-        <v>11036</v>
+        <v>11037</v>
       </c>
       <c r="AR9">
         <v>9180</v>
       </c>
       <c r="AS9">
-        <v>8264</v>
+        <v>8261</v>
       </c>
       <c r="AT9">
-        <v>9283</v>
+        <v>9284</v>
       </c>
       <c r="AU9">
         <v>7551</v>
@@ -3018,22 +3045,22 @@
         <v>6875</v>
       </c>
       <c r="BH9">
-        <v>7599</v>
+        <v>7601</v>
       </c>
       <c r="BI9">
-        <v>7757</v>
+        <v>7755</v>
       </c>
       <c r="BJ9">
-        <v>6794</v>
+        <v>6795</v>
       </c>
       <c r="BK9">
         <v>5530</v>
       </c>
       <c r="BL9">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="BM9">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="BN9">
         <v>1345</v>
@@ -3069,10 +3096,10 @@
         <v>475</v>
       </c>
       <c r="BY9">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BZ9">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="CA9">
         <v>1485</v>
@@ -3084,13 +3111,13 @@
         <v>1880</v>
       </c>
       <c r="CD9">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="CE9">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="CF9">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="CG9">
         <v>2149</v>
@@ -3099,15 +3126,18 @@
         <v>2550</v>
       </c>
       <c r="CI9">
-        <v>4244</v>
+        <v>4251</v>
       </c>
       <c r="CJ9">
-        <v>6118</v>
+        <v>6172</v>
+      </c>
+      <c r="CK9">
+        <v>8823</v>
       </c>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B10">
         <v>76</v>
@@ -3206,7 +3236,7 @@
         <v>1873</v>
       </c>
       <c r="AH10">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="AI10">
         <v>5757</v>
@@ -3215,7 +3245,7 @@
         <v>8973</v>
       </c>
       <c r="AK10">
-        <v>10167</v>
+        <v>10166</v>
       </c>
       <c r="AL10">
         <v>10294</v>
@@ -3242,7 +3272,7 @@
         <v>11093</v>
       </c>
       <c r="AT10">
-        <v>12323</v>
+        <v>12322</v>
       </c>
       <c r="AU10">
         <v>10031</v>
@@ -3254,13 +3284,13 @@
         <v>7011</v>
       </c>
       <c r="AX10">
-        <v>5806</v>
+        <v>5807</v>
       </c>
       <c r="AY10">
         <v>4507</v>
       </c>
       <c r="AZ10">
-        <v>4603</v>
+        <v>4605</v>
       </c>
       <c r="BA10">
         <v>4839</v>
@@ -3287,7 +3317,7 @@
         <v>10667</v>
       </c>
       <c r="BI10">
-        <v>11021</v>
+        <v>11020</v>
       </c>
       <c r="BJ10">
         <v>9926</v>
@@ -3296,7 +3326,7 @@
         <v>7816</v>
       </c>
       <c r="BL10">
-        <v>5323</v>
+        <v>5322</v>
       </c>
       <c r="BM10">
         <v>3576</v>
@@ -3317,10 +3347,10 @@
         <v>244</v>
       </c>
       <c r="BS10">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BT10">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BU10">
         <v>367</v>
@@ -3332,16 +3362,16 @@
         <v>580</v>
       </c>
       <c r="BX10">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="BY10">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="BZ10">
         <v>1802</v>
       </c>
       <c r="CA10">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="CB10">
         <v>2713</v>
@@ -3350,7 +3380,7 @@
         <v>2890</v>
       </c>
       <c r="CD10">
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c r="CE10">
         <v>2490</v>
@@ -3359,21 +3389,24 @@
         <v>2761</v>
       </c>
       <c r="CG10">
-        <v>3027</v>
+        <v>3029</v>
       </c>
       <c r="CH10">
-        <v>3593</v>
+        <v>3596</v>
       </c>
       <c r="CI10">
-        <v>5942</v>
+        <v>5946</v>
       </c>
       <c r="CJ10">
-        <v>8417</v>
+        <v>8544</v>
+      </c>
+      <c r="CK10">
+        <v>11914</v>
       </c>
     </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B11">
         <v>133</v>
@@ -3388,7 +3421,7 @@
         <v>3999</v>
       </c>
       <c r="F11">
-        <v>3700</v>
+        <v>3701</v>
       </c>
       <c r="G11">
         <v>2606</v>
@@ -3418,7 +3451,7 @@
         <v>150</v>
       </c>
       <c r="P11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q11">
         <v>328</v>
@@ -3475,7 +3508,7 @@
         <v>3580</v>
       </c>
       <c r="AI11">
-        <v>6421</v>
+        <v>6420</v>
       </c>
       <c r="AJ11">
         <v>9767</v>
@@ -3487,10 +3520,10 @@
         <v>10997</v>
       </c>
       <c r="AM11">
-        <v>10841</v>
+        <v>10842</v>
       </c>
       <c r="AN11">
-        <v>10332</v>
+        <v>10333</v>
       </c>
       <c r="AO11">
         <v>10553</v>
@@ -3499,7 +3532,7 @@
         <v>13260</v>
       </c>
       <c r="AQ11">
-        <v>14918</v>
+        <v>14919</v>
       </c>
       <c r="AR11">
         <v>11982</v>
@@ -3508,13 +3541,13 @@
         <v>10529</v>
       </c>
       <c r="AT11">
-        <v>12105</v>
+        <v>12104</v>
       </c>
       <c r="AU11">
         <v>9812</v>
       </c>
       <c r="AV11">
-        <v>8179</v>
+        <v>8177</v>
       </c>
       <c r="AW11">
         <v>6675</v>
@@ -3541,10 +3574,10 @@
         <v>7534</v>
       </c>
       <c r="BE11">
-        <v>9353</v>
+        <v>9351</v>
       </c>
       <c r="BF11">
-        <v>9124</v>
+        <v>9126</v>
       </c>
       <c r="BG11">
         <v>9954</v>
@@ -3553,19 +3586,19 @@
         <v>11114</v>
       </c>
       <c r="BI11">
-        <v>11642</v>
+        <v>11641</v>
       </c>
       <c r="BJ11">
-        <v>10144</v>
+        <v>10145</v>
       </c>
       <c r="BK11">
         <v>8013</v>
       </c>
       <c r="BL11">
-        <v>5477</v>
+        <v>5478</v>
       </c>
       <c r="BM11">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="BN11">
         <v>2054</v>
@@ -3598,7 +3631,7 @@
         <v>821</v>
       </c>
       <c r="BX11">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="BY11">
         <v>1643</v>
@@ -3607,13 +3640,13 @@
         <v>2535</v>
       </c>
       <c r="CA11">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="CB11">
-        <v>3725</v>
+        <v>3726</v>
       </c>
       <c r="CC11">
-        <v>3693</v>
+        <v>3694</v>
       </c>
       <c r="CD11">
         <v>3325</v>
@@ -3622,24 +3655,27 @@
         <v>2893</v>
       </c>
       <c r="CF11">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="CG11">
-        <v>3466</v>
+        <v>3468</v>
       </c>
       <c r="CH11">
-        <v>4200</v>
+        <v>4205</v>
       </c>
       <c r="CI11">
-        <v>6549</v>
+        <v>6558</v>
       </c>
       <c r="CJ11">
-        <v>9071</v>
+        <v>9163</v>
+      </c>
+      <c r="CK11">
+        <v>12662</v>
       </c>
     </row>
-    <row r="12" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B12">
         <v>99</v>
@@ -3738,7 +3774,7 @@
         <v>2036</v>
       </c>
       <c r="AH12">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="AI12">
         <v>5820</v>
@@ -3768,7 +3804,7 @@
         <v>12445</v>
       </c>
       <c r="AR12">
-        <v>9745</v>
+        <v>9746</v>
       </c>
       <c r="AS12">
         <v>8552</v>
@@ -3783,7 +3819,7 @@
         <v>6490</v>
       </c>
       <c r="AW12">
-        <v>5303</v>
+        <v>5302</v>
       </c>
       <c r="AX12">
         <v>4487</v>
@@ -3807,7 +3843,7 @@
         <v>6516</v>
       </c>
       <c r="BE12">
-        <v>8160</v>
+        <v>8161</v>
       </c>
       <c r="BF12">
         <v>7998</v>
@@ -3816,22 +3852,22 @@
         <v>8771</v>
       </c>
       <c r="BH12">
-        <v>10169</v>
+        <v>10168</v>
       </c>
       <c r="BI12">
-        <v>10669</v>
+        <v>10668</v>
       </c>
       <c r="BJ12">
-        <v>9025</v>
+        <v>9026</v>
       </c>
       <c r="BK12">
         <v>7443</v>
       </c>
       <c r="BL12">
-        <v>5080</v>
+        <v>5079</v>
       </c>
       <c r="BM12">
-        <v>3586</v>
+        <v>3587</v>
       </c>
       <c r="BN12">
         <v>2078</v>
@@ -3864,16 +3900,16 @@
         <v>910</v>
       </c>
       <c r="BX12">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="BY12">
         <v>1951</v>
       </c>
       <c r="BZ12">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="CA12">
-        <v>4108</v>
+        <v>4110</v>
       </c>
       <c r="CB12">
         <v>4627</v>
@@ -3882,30 +3918,33 @@
         <v>4540</v>
       </c>
       <c r="CD12">
-        <v>3788</v>
+        <v>3789</v>
       </c>
       <c r="CE12">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="CF12">
-        <v>3500</v>
+        <v>3502</v>
       </c>
       <c r="CG12">
-        <v>3803</v>
+        <v>3806</v>
       </c>
       <c r="CH12">
-        <v>4320</v>
+        <v>4327</v>
       </c>
       <c r="CI12">
-        <v>6586</v>
+        <v>6583</v>
       </c>
       <c r="CJ12">
-        <v>8909</v>
+        <v>9020</v>
+      </c>
+      <c r="CK12">
+        <v>12010</v>
       </c>
     </row>
-    <row r="13" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B13">
         <v>85</v>
@@ -3935,7 +3974,7 @@
         <v>454</v>
       </c>
       <c r="K13">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L13">
         <v>357</v>
@@ -3944,7 +3983,7 @@
         <v>241</v>
       </c>
       <c r="N13">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O13">
         <v>175</v>
@@ -4004,22 +4043,22 @@
         <v>1869</v>
       </c>
       <c r="AH13">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="AI13">
-        <v>5308</v>
+        <v>5309</v>
       </c>
       <c r="AJ13">
-        <v>7884</v>
+        <v>7883</v>
       </c>
       <c r="AK13">
-        <v>8876</v>
+        <v>8877</v>
       </c>
       <c r="AL13">
         <v>8996</v>
       </c>
       <c r="AM13">
-        <v>9244</v>
+        <v>9245</v>
       </c>
       <c r="AN13">
         <v>8808</v>
@@ -4028,25 +4067,25 @@
         <v>8818</v>
       </c>
       <c r="AP13">
-        <v>10904</v>
+        <v>10906</v>
       </c>
       <c r="AQ13">
         <v>11991</v>
       </c>
       <c r="AR13">
-        <v>9511</v>
+        <v>9510</v>
       </c>
       <c r="AS13">
-        <v>8030</v>
+        <v>8029</v>
       </c>
       <c r="AT13">
         <v>9549</v>
       </c>
       <c r="AU13">
-        <v>7557</v>
+        <v>7556</v>
       </c>
       <c r="AV13">
-        <v>6232</v>
+        <v>6231</v>
       </c>
       <c r="AW13">
         <v>5120</v>
@@ -4073,7 +4112,7 @@
         <v>6983</v>
       </c>
       <c r="BE13">
-        <v>9085</v>
+        <v>9086</v>
       </c>
       <c r="BF13">
         <v>8325</v>
@@ -4121,19 +4160,19 @@
         <v>345</v>
       </c>
       <c r="BU13">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="BV13">
         <v>734</v>
       </c>
       <c r="BW13">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="BX13">
         <v>1444</v>
       </c>
       <c r="BY13">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="BZ13">
         <v>3758</v>
@@ -4145,33 +4184,36 @@
         <v>5694</v>
       </c>
       <c r="CC13">
-        <v>5423</v>
+        <v>5424</v>
       </c>
       <c r="CD13">
-        <v>4452</v>
+        <v>4453</v>
       </c>
       <c r="CE13">
-        <v>3904</v>
+        <v>3905</v>
       </c>
       <c r="CF13">
-        <v>4201</v>
+        <v>4203</v>
       </c>
       <c r="CG13">
         <v>4388</v>
       </c>
       <c r="CH13">
-        <v>5023</v>
+        <v>5027</v>
       </c>
       <c r="CI13">
-        <v>7550</v>
+        <v>7561</v>
       </c>
       <c r="CJ13">
-        <v>10411</v>
+        <v>10571</v>
+      </c>
+      <c r="CK13">
+        <v>13719</v>
       </c>
     </row>
-    <row r="14" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B14">
         <v>67</v>
@@ -4201,7 +4243,7 @@
         <v>465</v>
       </c>
       <c r="K14">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L14">
         <v>351</v>
@@ -4240,7 +4282,7 @@
         <v>383</v>
       </c>
       <c r="X14">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Y14">
         <v>642</v>
@@ -4297,7 +4339,7 @@
         <v>10994</v>
       </c>
       <c r="AQ14">
-        <v>12230</v>
+        <v>12229</v>
       </c>
       <c r="AR14">
         <v>9522</v>
@@ -4309,7 +4351,7 @@
         <v>10147</v>
       </c>
       <c r="AU14">
-        <v>8006</v>
+        <v>8005</v>
       </c>
       <c r="AV14">
         <v>6343</v>
@@ -4321,13 +4363,13 @@
         <v>4460</v>
       </c>
       <c r="AY14">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="AZ14">
         <v>3708</v>
       </c>
       <c r="BA14">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="BB14">
         <v>4575</v>
@@ -4339,7 +4381,7 @@
         <v>7588</v>
       </c>
       <c r="BE14">
-        <v>9461</v>
+        <v>9462</v>
       </c>
       <c r="BF14">
         <v>8986</v>
@@ -4348,19 +4390,19 @@
         <v>9484</v>
       </c>
       <c r="BH14">
-        <v>11268</v>
+        <v>11269</v>
       </c>
       <c r="BI14">
-        <v>11279</v>
+        <v>11280</v>
       </c>
       <c r="BJ14">
-        <v>10016</v>
+        <v>10018</v>
       </c>
       <c r="BK14">
         <v>7969</v>
       </c>
       <c r="BL14">
-        <v>5623</v>
+        <v>5621</v>
       </c>
       <c r="BM14">
         <v>4221</v>
@@ -4369,7 +4411,7 @@
         <v>2412</v>
       </c>
       <c r="BO14">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="BP14">
         <v>1100</v>
@@ -4384,7 +4426,7 @@
         <v>339</v>
       </c>
       <c r="BT14">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BU14">
         <v>647</v>
@@ -4399,7 +4441,7 @@
         <v>1593</v>
       </c>
       <c r="BY14">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="BZ14">
         <v>3768</v>
@@ -4408,36 +4450,39 @@
         <v>5266</v>
       </c>
       <c r="CB14">
-        <v>5999</v>
+        <v>6000</v>
       </c>
       <c r="CC14">
-        <v>5798</v>
+        <v>5799</v>
       </c>
       <c r="CD14">
-        <v>4817</v>
+        <v>4820</v>
       </c>
       <c r="CE14">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="CF14">
-        <v>4540</v>
+        <v>4541</v>
       </c>
       <c r="CG14">
-        <v>4717</v>
+        <v>4719</v>
       </c>
       <c r="CH14">
-        <v>5338</v>
+        <v>5342</v>
       </c>
       <c r="CI14">
-        <v>7610</v>
+        <v>7621</v>
       </c>
       <c r="CJ14">
-        <v>10389</v>
+        <v>10544</v>
+      </c>
+      <c r="CK14">
+        <v>14022</v>
       </c>
     </row>
-    <row r="15" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B15">
         <v>69</v>
@@ -4539,7 +4584,7 @@
         <v>3858</v>
       </c>
       <c r="AI15">
-        <v>6716</v>
+        <v>6714</v>
       </c>
       <c r="AJ15">
         <v>9574</v>
@@ -4551,10 +4596,10 @@
         <v>10484</v>
       </c>
       <c r="AM15">
-        <v>10085</v>
+        <v>10086</v>
       </c>
       <c r="AN15">
-        <v>9364</v>
+        <v>9363</v>
       </c>
       <c r="AO15">
         <v>9472</v>
@@ -4563,10 +4608,10 @@
         <v>11523</v>
       </c>
       <c r="AQ15">
-        <v>13028</v>
+        <v>13027</v>
       </c>
       <c r="AR15">
-        <v>10046</v>
+        <v>10047</v>
       </c>
       <c r="AS15">
         <v>9193</v>
@@ -4584,7 +4629,7 @@
         <v>5761</v>
       </c>
       <c r="AX15">
-        <v>4909</v>
+        <v>4908</v>
       </c>
       <c r="AY15">
         <v>3905</v>
@@ -4611,25 +4656,25 @@
         <v>9511</v>
       </c>
       <c r="BG15">
-        <v>10138</v>
+        <v>10139</v>
       </c>
       <c r="BH15">
-        <v>12014</v>
+        <v>12013</v>
       </c>
       <c r="BI15">
-        <v>11856</v>
+        <v>11854</v>
       </c>
       <c r="BJ15">
-        <v>10454</v>
+        <v>10455</v>
       </c>
       <c r="BK15">
         <v>8275</v>
       </c>
       <c r="BL15">
-        <v>5868</v>
+        <v>5870</v>
       </c>
       <c r="BM15">
-        <v>4537</v>
+        <v>4538</v>
       </c>
       <c r="BN15">
         <v>2745</v>
@@ -4653,7 +4698,7 @@
         <v>582</v>
       </c>
       <c r="BU15">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="BV15">
         <v>1307</v>
@@ -4662,48 +4707,51 @@
         <v>1512</v>
       </c>
       <c r="BX15">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="BY15">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="BZ15">
-        <v>4384</v>
+        <v>4383</v>
       </c>
       <c r="CA15">
-        <v>5978</v>
+        <v>5981</v>
       </c>
       <c r="CB15">
         <v>6585</v>
       </c>
       <c r="CC15">
-        <v>6225</v>
+        <v>6226</v>
       </c>
       <c r="CD15">
-        <v>5102</v>
+        <v>5103</v>
       </c>
       <c r="CE15">
         <v>4604</v>
       </c>
       <c r="CF15">
-        <v>4770</v>
+        <v>4769</v>
       </c>
       <c r="CG15">
-        <v>4803</v>
+        <v>4802</v>
       </c>
       <c r="CH15">
-        <v>5357</v>
+        <v>5359</v>
       </c>
       <c r="CI15">
-        <v>8009</v>
+        <v>8013</v>
       </c>
       <c r="CJ15">
-        <v>10575</v>
+        <v>10746</v>
+      </c>
+      <c r="CK15">
+        <v>13775</v>
       </c>
     </row>
-    <row r="16" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B16">
         <v>76</v>
@@ -4718,13 +4766,13 @@
         <v>2689</v>
       </c>
       <c r="F16">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="G16">
         <v>1935</v>
       </c>
       <c r="H16">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="I16">
         <v>996</v>
@@ -4796,22 +4844,22 @@
         <v>1436</v>
       </c>
       <c r="AF16">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="AG16">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="AH16">
         <v>4472</v>
       </c>
       <c r="AI16">
-        <v>7324</v>
+        <v>7323</v>
       </c>
       <c r="AJ16">
         <v>10344</v>
       </c>
       <c r="AK16">
-        <v>11151</v>
+        <v>11152</v>
       </c>
       <c r="AL16">
         <v>10683</v>
@@ -4823,10 +4871,10 @@
         <v>8996</v>
       </c>
       <c r="AO16">
-        <v>9149</v>
+        <v>9148</v>
       </c>
       <c r="AP16">
-        <v>10780</v>
+        <v>10779</v>
       </c>
       <c r="AQ16">
         <v>12106</v>
@@ -4853,7 +4901,7 @@
         <v>4486</v>
       </c>
       <c r="AY16">
-        <v>3659</v>
+        <v>3660</v>
       </c>
       <c r="AZ16">
         <v>3908</v>
@@ -4874,16 +4922,16 @@
         <v>8402</v>
       </c>
       <c r="BF16">
-        <v>8376</v>
+        <v>8377</v>
       </c>
       <c r="BG16">
         <v>9214</v>
       </c>
       <c r="BH16">
-        <v>10901</v>
+        <v>10902</v>
       </c>
       <c r="BI16">
-        <v>10793</v>
+        <v>10792</v>
       </c>
       <c r="BJ16">
         <v>9217</v>
@@ -4892,13 +4940,13 @@
         <v>7451</v>
       </c>
       <c r="BL16">
-        <v>5177</v>
+        <v>5178</v>
       </c>
       <c r="BM16">
         <v>3944</v>
       </c>
       <c r="BN16">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="BO16">
         <v>1598</v>
@@ -4916,10 +4964,10 @@
         <v>494</v>
       </c>
       <c r="BT16">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="BU16">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="BV16">
         <v>1734</v>
@@ -4931,22 +4979,22 @@
         <v>2403</v>
       </c>
       <c r="BY16">
-        <v>3592</v>
+        <v>3593</v>
       </c>
       <c r="BZ16">
         <v>5024</v>
       </c>
       <c r="CA16">
-        <v>6323</v>
+        <v>6324</v>
       </c>
       <c r="CB16">
-        <v>6288</v>
+        <v>6289</v>
       </c>
       <c r="CC16">
-        <v>6064</v>
+        <v>6065</v>
       </c>
       <c r="CD16">
-        <v>4895</v>
+        <v>4896</v>
       </c>
       <c r="CE16">
         <v>4114</v>
@@ -4955,21 +5003,24 @@
         <v>4248</v>
       </c>
       <c r="CG16">
-        <v>4286</v>
+        <v>4291</v>
       </c>
       <c r="CH16">
-        <v>4902</v>
+        <v>4910</v>
       </c>
       <c r="CI16">
-        <v>7218</v>
+        <v>7224</v>
       </c>
       <c r="CJ16">
-        <v>9218</v>
+        <v>9368</v>
+      </c>
+      <c r="CK16">
+        <v>11850</v>
       </c>
     </row>
-    <row r="17" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B17">
         <v>70</v>
@@ -5044,7 +5095,7 @@
         <v>1159</v>
       </c>
       <c r="Z17">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="AA17">
         <v>1329</v>
@@ -5074,7 +5125,7 @@
         <v>7566</v>
       </c>
       <c r="AJ17">
-        <v>10410</v>
+        <v>10408</v>
       </c>
       <c r="AK17">
         <v>11729</v>
@@ -5086,7 +5137,7 @@
         <v>10201</v>
       </c>
       <c r="AN17">
-        <v>8941</v>
+        <v>8939</v>
       </c>
       <c r="AO17">
         <v>9179</v>
@@ -5101,13 +5152,13 @@
         <v>9071</v>
       </c>
       <c r="AS17">
-        <v>8587</v>
+        <v>8588</v>
       </c>
       <c r="AT17">
         <v>10888</v>
       </c>
       <c r="AU17">
-        <v>8537</v>
+        <v>8536</v>
       </c>
       <c r="AV17">
         <v>6434</v>
@@ -5131,19 +5182,19 @@
         <v>4401</v>
       </c>
       <c r="BC17">
-        <v>5423</v>
+        <v>5424</v>
       </c>
       <c r="BD17">
         <v>6902</v>
       </c>
       <c r="BE17">
-        <v>8551</v>
+        <v>8552</v>
       </c>
       <c r="BF17">
         <v>8505</v>
       </c>
       <c r="BG17">
-        <v>9802</v>
+        <v>9801</v>
       </c>
       <c r="BH17">
         <v>11551</v>
@@ -5152,7 +5203,7 @@
         <v>11268</v>
       </c>
       <c r="BJ17">
-        <v>9622</v>
+        <v>9623</v>
       </c>
       <c r="BK17">
         <v>7833</v>
@@ -5182,13 +5233,13 @@
         <v>553</v>
       </c>
       <c r="BT17">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="BU17">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="BV17">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="BW17">
         <v>2330</v>
@@ -5200,7 +5251,7 @@
         <v>4429</v>
       </c>
       <c r="BZ17">
-        <v>5790</v>
+        <v>5791</v>
       </c>
       <c r="CA17">
         <v>6889</v>
@@ -5212,10 +5263,10 @@
         <v>6224</v>
       </c>
       <c r="CD17">
-        <v>4958</v>
+        <v>4960</v>
       </c>
       <c r="CE17">
-        <v>4120</v>
+        <v>4123</v>
       </c>
       <c r="CF17">
         <v>4086</v>
@@ -5224,18 +5275,21 @@
         <v>4151</v>
       </c>
       <c r="CH17">
-        <v>4947</v>
+        <v>4949</v>
       </c>
       <c r="CI17">
-        <v>7222</v>
+        <v>7231</v>
       </c>
       <c r="CJ17">
-        <v>9229</v>
+        <v>9362</v>
+      </c>
+      <c r="CK17">
+        <v>11737</v>
       </c>
     </row>
-    <row r="18" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B18">
         <v>44</v>
@@ -5319,7 +5373,7 @@
         <v>768</v>
       </c>
       <c r="AC18">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AD18">
         <v>1040</v>
@@ -5343,7 +5397,7 @@
         <v>7191</v>
       </c>
       <c r="AK18">
-        <v>8409</v>
+        <v>8410</v>
       </c>
       <c r="AL18">
         <v>8715</v>
@@ -5355,13 +5409,13 @@
         <v>7460</v>
       </c>
       <c r="AO18">
-        <v>7714</v>
+        <v>7713</v>
       </c>
       <c r="AP18">
-        <v>8820</v>
+        <v>8819</v>
       </c>
       <c r="AQ18">
-        <v>8473</v>
+        <v>8474</v>
       </c>
       <c r="AR18">
         <v>5878</v>
@@ -5403,19 +5457,19 @@
         <v>5538</v>
       </c>
       <c r="BE18">
-        <v>7187</v>
+        <v>7186</v>
       </c>
       <c r="BF18">
         <v>6609</v>
       </c>
       <c r="BG18">
-        <v>7549</v>
+        <v>7550</v>
       </c>
       <c r="BH18">
         <v>10820</v>
       </c>
       <c r="BI18">
-        <v>10338</v>
+        <v>10337</v>
       </c>
       <c r="BJ18">
         <v>8658</v>
@@ -5460,7 +5514,7 @@
         <v>1844</v>
       </c>
       <c r="BX18">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="BY18">
         <v>3506</v>
@@ -5469,39 +5523,42 @@
         <v>5571</v>
       </c>
       <c r="CA18">
-        <v>6974</v>
+        <v>6976</v>
       </c>
       <c r="CB18">
         <v>7778</v>
       </c>
       <c r="CC18">
-        <v>6854</v>
+        <v>6855</v>
       </c>
       <c r="CD18">
-        <v>5646</v>
+        <v>5648</v>
       </c>
       <c r="CE18">
-        <v>4625</v>
+        <v>4628</v>
       </c>
       <c r="CF18">
-        <v>4573</v>
+        <v>4574</v>
       </c>
       <c r="CG18">
-        <v>4541</v>
+        <v>4542</v>
       </c>
       <c r="CH18">
-        <v>4880</v>
+        <v>4885</v>
       </c>
       <c r="CI18">
-        <v>6931</v>
+        <v>6938</v>
       </c>
       <c r="CJ18">
-        <v>9671</v>
+        <v>9809</v>
+      </c>
+      <c r="CK18">
+        <v>11653</v>
       </c>
     </row>
-    <row r="19" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -5603,13 +5660,13 @@
         <v>1653</v>
       </c>
       <c r="AI19">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="AJ19">
         <v>4085</v>
       </c>
       <c r="AK19">
-        <v>4782</v>
+        <v>4783</v>
       </c>
       <c r="AL19">
         <v>5349</v>
@@ -5633,10 +5690,10 @@
         <v>3385</v>
       </c>
       <c r="AS19">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="AT19">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="AU19">
         <v>2715</v>
@@ -5645,7 +5702,7 @@
         <v>2229</v>
       </c>
       <c r="AW19">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="AX19">
         <v>1726</v>
@@ -5654,7 +5711,7 @@
         <v>1409</v>
       </c>
       <c r="AZ19">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="BA19">
         <v>1878</v>
@@ -5690,10 +5747,10 @@
         <v>6124</v>
       </c>
       <c r="BL19">
-        <v>4569</v>
+        <v>4568</v>
       </c>
       <c r="BM19">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="BN19">
         <v>2162</v>
@@ -5702,7 +5759,7 @@
         <v>1580</v>
       </c>
       <c r="BP19">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="BQ19">
         <v>663</v>
@@ -5711,7 +5768,7 @@
         <v>449</v>
       </c>
       <c r="BS19">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="BT19">
         <v>297</v>
@@ -5723,19 +5780,19 @@
         <v>783</v>
       </c>
       <c r="BW19">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="BX19">
         <v>1490</v>
       </c>
       <c r="BY19">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="BZ19">
-        <v>5367</v>
+        <v>5366</v>
       </c>
       <c r="CA19">
-        <v>6925</v>
+        <v>6924</v>
       </c>
       <c r="CB19">
         <v>8414</v>
@@ -5744,30 +5801,33 @@
         <v>7739</v>
       </c>
       <c r="CD19">
-        <v>7309</v>
+        <v>7311</v>
       </c>
       <c r="CE19">
-        <v>6283</v>
+        <v>6287</v>
       </c>
       <c r="CF19">
-        <v>6652</v>
+        <v>6656</v>
       </c>
       <c r="CG19">
-        <v>6493</v>
+        <v>6498</v>
       </c>
       <c r="CH19">
-        <v>6826</v>
+        <v>6832</v>
       </c>
       <c r="CI19">
-        <v>8893</v>
+        <v>8916</v>
       </c>
       <c r="CJ19">
-        <v>13183</v>
+        <v>13365</v>
+      </c>
+      <c r="CK19">
+        <v>15310</v>
       </c>
     </row>
-    <row r="20" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -5878,31 +5938,31 @@
         <v>3364</v>
       </c>
       <c r="AL20">
-        <v>3613</v>
+        <v>3614</v>
       </c>
       <c r="AM20">
-        <v>3918</v>
+        <v>3919</v>
       </c>
       <c r="AN20">
         <v>3820</v>
       </c>
       <c r="AO20">
-        <v>3679</v>
+        <v>3681</v>
       </c>
       <c r="AP20">
         <v>4259</v>
       </c>
       <c r="AQ20">
-        <v>4305</v>
+        <v>4306</v>
       </c>
       <c r="AR20">
         <v>3022</v>
       </c>
       <c r="AS20">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="AT20">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="AU20">
         <v>2193</v>
@@ -5926,7 +5986,7 @@
         <v>2004</v>
       </c>
       <c r="BB20">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="BC20">
         <v>3679</v>
@@ -5935,7 +5995,7 @@
         <v>4762</v>
       </c>
       <c r="BE20">
-        <v>6698</v>
+        <v>6699</v>
       </c>
       <c r="BF20">
         <v>5192</v>
@@ -5944,16 +6004,16 @@
         <v>4699</v>
       </c>
       <c r="BH20">
-        <v>6996</v>
+        <v>6997</v>
       </c>
       <c r="BI20">
         <v>8420</v>
       </c>
       <c r="BJ20">
-        <v>6873</v>
+        <v>6871</v>
       </c>
       <c r="BK20">
-        <v>5567</v>
+        <v>5569</v>
       </c>
       <c r="BL20">
         <v>4117</v>
@@ -5983,7 +6043,7 @@
         <v>208</v>
       </c>
       <c r="BU20">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="BV20">
         <v>479</v>
@@ -6001,7 +6061,7 @@
         <v>3719</v>
       </c>
       <c r="CA20">
-        <v>5590</v>
+        <v>5592</v>
       </c>
       <c r="CB20">
         <v>7005</v>
@@ -6016,24 +6076,27 @@
         <v>5284</v>
       </c>
       <c r="CF20">
-        <v>5348</v>
+        <v>5351</v>
       </c>
       <c r="CG20">
-        <v>5077</v>
+        <v>5078</v>
       </c>
       <c r="CH20">
-        <v>5076</v>
+        <v>5084</v>
       </c>
       <c r="CI20">
-        <v>7347</v>
+        <v>7360</v>
       </c>
       <c r="CJ20">
-        <v>10914</v>
+        <v>11042</v>
+      </c>
+      <c r="CK20">
+        <v>13059</v>
       </c>
     </row>
-    <row r="21" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -6051,7 +6114,7 @@
         <v>270</v>
       </c>
       <c r="G21">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H21">
         <v>158</v>
@@ -6105,7 +6168,7 @@
         <v>188</v>
       </c>
       <c r="Y21">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Z21">
         <v>284</v>
@@ -6135,7 +6198,7 @@
         <v>890</v>
       </c>
       <c r="AI21">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AJ21">
         <v>2227</v>
@@ -6147,13 +6210,13 @@
         <v>2411</v>
       </c>
       <c r="AM21">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="AN21">
         <v>2316</v>
       </c>
       <c r="AO21">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="AP21">
         <v>2657</v>
@@ -6165,7 +6228,7 @@
         <v>2106</v>
       </c>
       <c r="AS21">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="AT21">
         <v>1900</v>
@@ -6186,7 +6249,7 @@
         <v>1346</v>
       </c>
       <c r="AZ21">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="BA21">
         <v>1885</v>
@@ -6231,7 +6294,7 @@
         <v>1409</v>
       </c>
       <c r="BO21">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="BP21">
         <v>614</v>
@@ -6261,10 +6324,10 @@
         <v>756</v>
       </c>
       <c r="BY21">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="BZ21">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="CA21">
         <v>2955</v>
@@ -6279,22 +6342,25 @@
         <v>2836</v>
       </c>
       <c r="CE21">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="CF21">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="CG21">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="CH21">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="CI21">
-        <v>2687</v>
+        <v>2692</v>
       </c>
       <c r="CJ21">
-        <v>3525</v>
+        <v>3551</v>
+      </c>
+      <c r="CK21">
+        <v>4357</v>
       </c>
     </row>
   </sheetData>
@@ -6303,16 +6369,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7246673E-55BD-40BA-978F-40191C14CAFF}">
-  <dimension ref="A1:CJ21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475203E8-1866-45A3-9712-F636799F7C27}">
+  <dimension ref="A1:CK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="CD1" workbookViewId="0">
+      <selection activeCell="CL30" sqref="CL30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6575,12 +6641,15 @@
         <v>86</v>
       </c>
       <c r="CJ1" t="s">
-        <v>105</v>
+        <v>87</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2">
         <v>1.08</v>
@@ -6595,13 +6664,13 @@
         <v>40.840000000000003</v>
       </c>
       <c r="F2" s="2">
-        <v>43.36</v>
+        <v>43.35</v>
       </c>
       <c r="G2" s="2">
         <v>32.630000000000003</v>
       </c>
       <c r="H2" s="2">
-        <v>20.84</v>
+        <v>20.83</v>
       </c>
       <c r="I2" s="2">
         <v>14.85</v>
@@ -6649,7 +6718,7 @@
         <v>5.81</v>
       </c>
       <c r="X2" s="2">
-        <v>7.29</v>
+        <v>7.28</v>
       </c>
       <c r="Y2" s="2">
         <v>9.56</v>
@@ -6688,16 +6757,16 @@
         <v>133.51</v>
       </c>
       <c r="AK2" s="2">
-        <v>151.19</v>
+        <v>151.19999999999999</v>
       </c>
       <c r="AL2" s="2">
         <v>153.66999999999999</v>
       </c>
       <c r="AM2" s="2">
-        <v>154.36000000000001</v>
+        <v>154.37</v>
       </c>
       <c r="AN2" s="2">
-        <v>148.11000000000001</v>
+        <v>148.1</v>
       </c>
       <c r="AO2" s="2">
         <v>154.36000000000001</v>
@@ -6712,13 +6781,13 @@
         <v>167.1</v>
       </c>
       <c r="AS2" s="2">
-        <v>148</v>
+        <v>147.99</v>
       </c>
       <c r="AT2" s="2">
         <v>174.9</v>
       </c>
       <c r="AU2" s="2">
-        <v>142.97</v>
+        <v>142.96</v>
       </c>
       <c r="AV2" s="2">
         <v>114.87</v>
@@ -6733,7 +6802,7 @@
         <v>61.09</v>
       </c>
       <c r="AZ2" s="2">
-        <v>62.99</v>
+        <v>63</v>
       </c>
       <c r="BA2" s="2">
         <v>67.760000000000005</v>
@@ -6742,7 +6811,7 @@
         <v>70.2</v>
       </c>
       <c r="BC2" s="2">
-        <v>85.75</v>
+        <v>85.76</v>
       </c>
       <c r="BD2" s="2">
         <v>111.34</v>
@@ -6763,13 +6832,13 @@
         <v>174.08</v>
       </c>
       <c r="BJ2" s="2">
-        <v>150.07</v>
+        <v>150.08000000000001</v>
       </c>
       <c r="BK2" s="2">
         <v>121.44</v>
       </c>
       <c r="BL2" s="2">
-        <v>85.17</v>
+        <v>85.16</v>
       </c>
       <c r="BM2" s="2">
         <v>63.37</v>
@@ -6796,7 +6865,7 @@
         <v>6.7</v>
       </c>
       <c r="BU2" s="2">
-        <v>10.93</v>
+        <v>10.94</v>
       </c>
       <c r="BV2" s="2">
         <v>15.18</v>
@@ -6814,7 +6883,7 @@
         <v>59.66</v>
       </c>
       <c r="CA2" s="2">
-        <v>79.739999999999995</v>
+        <v>79.75</v>
       </c>
       <c r="CB2" s="2">
         <v>89.79</v>
@@ -6823,30 +6892,33 @@
         <v>86.16</v>
       </c>
       <c r="CD2" s="2">
-        <v>73.849999999999994</v>
+        <v>73.87</v>
       </c>
       <c r="CE2" s="2">
-        <v>64.42</v>
+        <v>64.44</v>
       </c>
       <c r="CF2" s="2">
-        <v>67.86</v>
+        <v>67.87</v>
       </c>
       <c r="CG2" s="2">
-        <v>69.61</v>
+        <v>69.63</v>
       </c>
       <c r="CH2" s="2">
-        <v>78.349999999999994</v>
+        <v>78.38</v>
       </c>
       <c r="CI2" s="2">
-        <v>116.9</v>
+        <v>117.01</v>
       </c>
       <c r="CJ2" s="2">
-        <v>162.18</v>
+        <v>164.36</v>
+      </c>
+      <c r="CK2" s="2">
+        <v>211.85</v>
       </c>
     </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2">
         <v>0.12</v>
@@ -6915,7 +6987,7 @@
         <v>4.62</v>
       </c>
       <c r="X3" s="2">
-        <v>3.44</v>
+        <v>3.32</v>
       </c>
       <c r="Y3" s="2">
         <v>2.96</v>
@@ -6972,10 +7044,10 @@
         <v>640.28</v>
       </c>
       <c r="AQ3" s="2">
-        <v>707.49</v>
+        <v>707.37</v>
       </c>
       <c r="AR3" s="2">
-        <v>620.72</v>
+        <v>620.61</v>
       </c>
       <c r="AS3" s="2">
         <v>590.26</v>
@@ -6987,7 +7059,7 @@
         <v>594.89</v>
       </c>
       <c r="AV3" s="2">
-        <v>467.23</v>
+        <v>467.35</v>
       </c>
       <c r="AW3" s="2">
         <v>340.53</v>
@@ -6996,7 +7068,7 @@
         <v>229.11</v>
       </c>
       <c r="AY3" s="2">
-        <v>153.85</v>
+        <v>153.72999999999999</v>
       </c>
       <c r="AZ3" s="2">
         <v>125.88</v>
@@ -7026,7 +7098,7 @@
         <v>93.75</v>
       </c>
       <c r="BI3" s="2">
-        <v>94.35</v>
+        <v>94.47</v>
       </c>
       <c r="BJ3" s="2">
         <v>75.38</v>
@@ -7038,7 +7110,7 @@
         <v>48.36</v>
       </c>
       <c r="BM3" s="2">
-        <v>32.83</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="BN3" s="2">
         <v>18.96</v>
@@ -7080,10 +7152,10 @@
         <v>16.48</v>
       </c>
       <c r="CA3" s="2">
-        <v>26.79</v>
+        <v>26.91</v>
       </c>
       <c r="CB3" s="2">
-        <v>39.83</v>
+        <v>39.71</v>
       </c>
       <c r="CC3" s="2">
         <v>41.48</v>
@@ -7095,7 +7167,7 @@
         <v>39.590000000000003</v>
       </c>
       <c r="CF3" s="2">
-        <v>38.76</v>
+        <v>38.64</v>
       </c>
       <c r="CG3" s="2">
         <v>46.94</v>
@@ -7104,15 +7176,18 @@
         <v>61.99</v>
       </c>
       <c r="CI3" s="2">
-        <v>105.96</v>
+        <v>105.25</v>
       </c>
       <c r="CJ3" s="2">
-        <v>136.41999999999999</v>
+        <v>138.68</v>
+      </c>
+      <c r="CK3" s="2">
+        <v>196.52</v>
       </c>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2">
         <v>0.36</v>
@@ -7220,7 +7295,7 @@
         <v>107.45</v>
       </c>
       <c r="AK4" s="2">
-        <v>137.34</v>
+        <v>137.22</v>
       </c>
       <c r="AL4" s="2">
         <v>170.31</v>
@@ -7229,28 +7304,28 @@
         <v>203.1</v>
       </c>
       <c r="AN4" s="2">
-        <v>246.17</v>
+        <v>246.11</v>
       </c>
       <c r="AO4" s="2">
-        <v>276.61</v>
+        <v>276.55</v>
       </c>
       <c r="AP4" s="2">
-        <v>355.36</v>
+        <v>355.3</v>
       </c>
       <c r="AQ4" s="2">
         <v>417.33</v>
       </c>
       <c r="AR4" s="2">
-        <v>350.13</v>
+        <v>350.07</v>
       </c>
       <c r="AS4" s="2">
-        <v>335.93</v>
+        <v>335.87</v>
       </c>
       <c r="AT4" s="2">
-        <v>364.93</v>
+        <v>364.99</v>
       </c>
       <c r="AU4" s="2">
-        <v>334.25</v>
+        <v>334.19</v>
       </c>
       <c r="AV4" s="2">
         <v>267.11</v>
@@ -7286,10 +7361,10 @@
         <v>71.77</v>
       </c>
       <c r="BG4" s="2">
-        <v>64.430000000000007</v>
+        <v>64.37</v>
       </c>
       <c r="BH4" s="2">
-        <v>72.25</v>
+        <v>72.19</v>
       </c>
       <c r="BI4" s="2">
         <v>70.81</v>
@@ -7361,24 +7436,27 @@
         <v>27.19</v>
       </c>
       <c r="CF4" s="2">
-        <v>31.82</v>
+        <v>31.88</v>
       </c>
       <c r="CG4" s="2">
         <v>35.31</v>
       </c>
       <c r="CH4" s="2">
-        <v>43.32</v>
+        <v>43.5</v>
       </c>
       <c r="CI4" s="2">
         <v>79.23</v>
       </c>
       <c r="CJ4" s="2">
-        <v>99.44</v>
+        <v>100.35</v>
+      </c>
+      <c r="CK4" s="2">
+        <v>137.4</v>
       </c>
     </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2">
         <v>0.35</v>
@@ -7483,7 +7561,7 @@
         <v>53.61</v>
       </c>
       <c r="AJ5" s="2">
-        <v>82.64</v>
+        <v>82.67</v>
       </c>
       <c r="AK5" s="2">
         <v>100.1</v>
@@ -7498,31 +7576,31 @@
         <v>139.05000000000001</v>
       </c>
       <c r="AO5" s="2">
-        <v>158.72</v>
+        <v>158.75</v>
       </c>
       <c r="AP5" s="2">
-        <v>206.21</v>
+        <v>206.18</v>
       </c>
       <c r="AQ5" s="2">
-        <v>240.64</v>
+        <v>240.61</v>
       </c>
       <c r="AR5" s="2">
         <v>215.86</v>
       </c>
       <c r="AS5" s="2">
-        <v>200.12</v>
+        <v>200.09</v>
       </c>
       <c r="AT5" s="2">
-        <v>223.52</v>
+        <v>223.55</v>
       </c>
       <c r="AU5" s="2">
-        <v>194.9</v>
+        <v>194.84</v>
       </c>
       <c r="AV5" s="2">
         <v>155.34</v>
       </c>
       <c r="AW5" s="2">
-        <v>122.23</v>
+        <v>122.2</v>
       </c>
       <c r="AX5" s="2">
         <v>91.56</v>
@@ -7552,7 +7630,7 @@
         <v>55.18</v>
       </c>
       <c r="BG5" s="2">
-        <v>57.13</v>
+        <v>57.11</v>
       </c>
       <c r="BH5" s="2">
         <v>64.680000000000007</v>
@@ -7630,21 +7708,24 @@
         <v>26.32</v>
       </c>
       <c r="CG5" s="2">
-        <v>28.68</v>
+        <v>28.71</v>
       </c>
       <c r="CH5" s="2">
         <v>33.67</v>
       </c>
       <c r="CI5" s="2">
-        <v>57.34</v>
+        <v>57.11</v>
       </c>
       <c r="CJ5" s="2">
-        <v>84.22</v>
+        <v>86.02</v>
+      </c>
+      <c r="CK5" s="2">
+        <v>114.36</v>
       </c>
     </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2">
         <v>0.69</v>
@@ -7755,7 +7836,7 @@
         <v>88.06</v>
       </c>
       <c r="AL6" s="2">
-        <v>94.66</v>
+        <v>94.64</v>
       </c>
       <c r="AM6" s="2">
         <v>97.49</v>
@@ -7764,13 +7845,13 @@
         <v>100.43</v>
       </c>
       <c r="AO6" s="2">
-        <v>114.39</v>
+        <v>114.42</v>
       </c>
       <c r="AP6" s="2">
-        <v>144.26</v>
+        <v>144.22999999999999</v>
       </c>
       <c r="AQ6" s="2">
-        <v>171.16</v>
+        <v>171.13</v>
       </c>
       <c r="AR6" s="2">
         <v>147.13999999999999</v>
@@ -7791,7 +7872,7 @@
         <v>81.14</v>
       </c>
       <c r="AX6" s="2">
-        <v>63.29</v>
+        <v>63.32</v>
       </c>
       <c r="AY6" s="2">
         <v>49.02</v>
@@ -7830,13 +7911,13 @@
         <v>61.16</v>
       </c>
       <c r="BK6" s="2">
-        <v>47.95</v>
+        <v>47.92</v>
       </c>
       <c r="BL6" s="2">
         <v>32.869999999999997</v>
       </c>
       <c r="BM6" s="2">
-        <v>22.29</v>
+        <v>22.32</v>
       </c>
       <c r="BN6" s="2">
         <v>11.79</v>
@@ -7884,7 +7965,7 @@
         <v>15.66</v>
       </c>
       <c r="CC6" s="2">
-        <v>17.100000000000001</v>
+        <v>17.07</v>
       </c>
       <c r="CD6" s="2">
         <v>16.260000000000002</v>
@@ -7896,21 +7977,24 @@
         <v>20.53</v>
       </c>
       <c r="CG6" s="2">
-        <v>21.28</v>
+        <v>21.31</v>
       </c>
       <c r="CH6" s="2">
-        <v>27.45</v>
+        <v>27.48</v>
       </c>
       <c r="CI6" s="2">
-        <v>46.77</v>
+        <v>46.83</v>
       </c>
       <c r="CJ6" s="2">
-        <v>70.5</v>
+        <v>71.680000000000007</v>
+      </c>
+      <c r="CK6" s="2">
+        <v>92.07</v>
       </c>
     </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2">
         <v>0.28000000000000003</v>
@@ -8021,7 +8105,7 @@
         <v>80.319999999999993</v>
       </c>
       <c r="AL7" s="2">
-        <v>83.29</v>
+        <v>83.26</v>
       </c>
       <c r="AM7" s="2">
         <v>84.52</v>
@@ -8030,7 +8114,7 @@
         <v>80.37</v>
       </c>
       <c r="AO7" s="2">
-        <v>87.7</v>
+        <v>87.67</v>
       </c>
       <c r="AP7" s="2">
         <v>110.51</v>
@@ -8039,10 +8123,10 @@
         <v>129.96</v>
       </c>
       <c r="AR7" s="2">
-        <v>112.02</v>
+        <v>111.99</v>
       </c>
       <c r="AS7" s="2">
-        <v>104.03</v>
+        <v>104.01</v>
       </c>
       <c r="AT7" s="2">
         <v>121.92</v>
@@ -8081,7 +8165,7 @@
         <v>71.569999999999993</v>
       </c>
       <c r="BF7" s="2">
-        <v>73.13</v>
+        <v>73.11</v>
       </c>
       <c r="BG7" s="2">
         <v>79.209999999999994</v>
@@ -8102,7 +8186,7 @@
         <v>40.119999999999997</v>
       </c>
       <c r="BM7" s="2">
-        <v>27.27</v>
+        <v>27.24</v>
       </c>
       <c r="BN7" s="2">
         <v>14.69</v>
@@ -8114,7 +8198,7 @@
         <v>5.37</v>
       </c>
       <c r="BQ7" s="2">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="BR7" s="2">
         <v>1.79</v>
@@ -8159,24 +8243,27 @@
         <v>17.440000000000001</v>
       </c>
       <c r="CF7" s="2">
-        <v>21.65</v>
+        <v>21.67</v>
       </c>
       <c r="CG7" s="2">
-        <v>25.76</v>
+        <v>25.73</v>
       </c>
       <c r="CH7" s="2">
-        <v>29.06</v>
+        <v>29.16</v>
       </c>
       <c r="CI7" s="2">
-        <v>50.53</v>
+        <v>50.5</v>
       </c>
       <c r="CJ7" s="2">
-        <v>78.849999999999994</v>
+        <v>79.81</v>
+      </c>
+      <c r="CK7" s="2">
+        <v>112.98</v>
       </c>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2">
         <v>0.51</v>
@@ -8191,7 +8278,7 @@
         <v>33.619999999999997</v>
       </c>
       <c r="F8" s="2">
-        <v>34.46</v>
+        <v>34.43</v>
       </c>
       <c r="G8" s="2">
         <v>22.76</v>
@@ -8296,7 +8383,7 @@
         <v>84.34</v>
       </c>
       <c r="AO8" s="2">
-        <v>84.06</v>
+        <v>84.04</v>
       </c>
       <c r="AP8" s="2">
         <v>105.57</v>
@@ -8320,7 +8407,7 @@
         <v>73.97</v>
       </c>
       <c r="AW8" s="2">
-        <v>63.85</v>
+        <v>63.87</v>
       </c>
       <c r="AX8" s="2">
         <v>51.78</v>
@@ -8356,13 +8443,13 @@
         <v>100.26</v>
       </c>
       <c r="BI8" s="2">
-        <v>94.47</v>
+        <v>94.49</v>
       </c>
       <c r="BJ8" s="2">
         <v>81.08</v>
       </c>
       <c r="BK8" s="2">
-        <v>67.2</v>
+        <v>67.180000000000007</v>
       </c>
       <c r="BL8" s="2">
         <v>47.34</v>
@@ -8398,7 +8485,7 @@
         <v>3.25</v>
       </c>
       <c r="BW8" s="2">
-        <v>4.9000000000000004</v>
+        <v>4.92</v>
       </c>
       <c r="BX8" s="2">
         <v>5.78</v>
@@ -8428,27 +8515,30 @@
         <v>22.29</v>
       </c>
       <c r="CG8" s="2">
-        <v>28.31</v>
+        <v>28.33</v>
       </c>
       <c r="CH8" s="2">
-        <v>32.03</v>
+        <v>32.07</v>
       </c>
       <c r="CI8" s="2">
-        <v>52.81</v>
+        <v>52.89</v>
       </c>
       <c r="CJ8" s="2">
-        <v>78.67</v>
+        <v>79.69</v>
+      </c>
+      <c r="CK8" s="2">
+        <v>110.88</v>
       </c>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B9" s="2">
         <v>1.08</v>
       </c>
       <c r="C9" s="2">
-        <v>7.37</v>
+        <v>7.36</v>
       </c>
       <c r="D9" s="2">
         <v>27.45</v>
@@ -8466,7 +8556,7 @@
         <v>18.649999999999999</v>
       </c>
       <c r="I9" s="2">
-        <v>11.57</v>
+        <v>11.55</v>
       </c>
       <c r="J9" s="2">
         <v>6.96</v>
@@ -8568,16 +8658,16 @@
         <v>162.13</v>
       </c>
       <c r="AQ9" s="2">
-        <v>189.68</v>
+        <v>189.7</v>
       </c>
       <c r="AR9" s="2">
         <v>157.78</v>
       </c>
       <c r="AS9" s="2">
-        <v>142.04</v>
+        <v>141.99</v>
       </c>
       <c r="AT9" s="2">
-        <v>159.55000000000001</v>
+        <v>159.57</v>
       </c>
       <c r="AU9" s="2">
         <v>129.78</v>
@@ -8619,22 +8709,22 @@
         <v>118.16</v>
       </c>
       <c r="BH9" s="2">
-        <v>130.61000000000001</v>
+        <v>130.63999999999999</v>
       </c>
       <c r="BI9" s="2">
-        <v>133.32</v>
+        <v>133.29</v>
       </c>
       <c r="BJ9" s="2">
-        <v>116.77</v>
+        <v>116.79</v>
       </c>
       <c r="BK9" s="2">
         <v>95.05</v>
       </c>
       <c r="BL9" s="2">
-        <v>64.13</v>
+        <v>64.11</v>
       </c>
       <c r="BM9" s="2">
-        <v>45.55</v>
+        <v>45.53</v>
       </c>
       <c r="BN9" s="2">
         <v>23.12</v>
@@ -8670,10 +8760,10 @@
         <v>8.16</v>
       </c>
       <c r="BY9" s="2">
-        <v>12.24</v>
+        <v>12.25</v>
       </c>
       <c r="BZ9" s="2">
-        <v>16.84</v>
+        <v>16.829999999999998</v>
       </c>
       <c r="CA9" s="2">
         <v>25.52</v>
@@ -8685,13 +8775,13 @@
         <v>32.31</v>
       </c>
       <c r="CD9" s="2">
-        <v>29.36</v>
+        <v>29.37</v>
       </c>
       <c r="CE9" s="2">
-        <v>28.24</v>
+        <v>28.22</v>
       </c>
       <c r="CF9" s="2">
-        <v>31.16</v>
+        <v>31.18</v>
       </c>
       <c r="CG9" s="2">
         <v>36.94</v>
@@ -8700,15 +8790,18 @@
         <v>43.83</v>
       </c>
       <c r="CI9" s="2">
-        <v>72.94</v>
+        <v>73.06</v>
       </c>
       <c r="CJ9" s="2">
-        <v>105.15</v>
+        <v>106.08</v>
+      </c>
+      <c r="CK9" s="2">
+        <v>151.65</v>
       </c>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B10" s="2">
         <v>1.1100000000000001</v>
@@ -8807,7 +8900,7 @@
         <v>27.47</v>
       </c>
       <c r="AH10" s="2">
-        <v>44.03</v>
+        <v>44.05</v>
       </c>
       <c r="AI10" s="2">
         <v>84.45</v>
@@ -8816,7 +8909,7 @@
         <v>131.62</v>
       </c>
       <c r="AK10" s="2">
-        <v>149.13</v>
+        <v>149.12</v>
       </c>
       <c r="AL10" s="2">
         <v>151</v>
@@ -8843,7 +8936,7 @@
         <v>162.72</v>
       </c>
       <c r="AT10" s="2">
-        <v>180.76</v>
+        <v>180.75</v>
       </c>
       <c r="AU10" s="2">
         <v>147.13999999999999</v>
@@ -8855,13 +8948,13 @@
         <v>102.84</v>
       </c>
       <c r="AX10" s="2">
-        <v>85.17</v>
+        <v>85.18</v>
       </c>
       <c r="AY10" s="2">
         <v>66.11</v>
       </c>
       <c r="AZ10" s="2">
-        <v>67.52</v>
+        <v>67.55</v>
       </c>
       <c r="BA10" s="2">
         <v>70.98</v>
@@ -8888,7 +8981,7 @@
         <v>156.47</v>
       </c>
       <c r="BI10" s="2">
-        <v>161.66</v>
+        <v>161.65</v>
       </c>
       <c r="BJ10" s="2">
         <v>145.6</v>
@@ -8897,7 +8990,7 @@
         <v>114.65</v>
       </c>
       <c r="BL10" s="2">
-        <v>78.08</v>
+        <v>78.069999999999993</v>
       </c>
       <c r="BM10" s="2">
         <v>52.45</v>
@@ -8918,10 +9011,10 @@
         <v>3.58</v>
       </c>
       <c r="BS10" s="2">
-        <v>3.37</v>
+        <v>3.39</v>
       </c>
       <c r="BT10" s="2">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="BU10" s="2">
         <v>5.38</v>
@@ -8933,16 +9026,16 @@
         <v>8.51</v>
       </c>
       <c r="BX10" s="2">
-        <v>11.53</v>
+        <v>11.54</v>
       </c>
       <c r="BY10" s="2">
-        <v>18.28</v>
+        <v>18.29</v>
       </c>
       <c r="BZ10" s="2">
         <v>26.43</v>
       </c>
       <c r="CA10" s="2">
-        <v>35.22</v>
+        <v>35.19</v>
       </c>
       <c r="CB10" s="2">
         <v>39.799999999999997</v>
@@ -8951,7 +9044,7 @@
         <v>42.39</v>
       </c>
       <c r="CD10" s="2">
-        <v>38.119999999999997</v>
+        <v>38.15</v>
       </c>
       <c r="CE10" s="2">
         <v>36.520000000000003</v>
@@ -8960,21 +9053,24 @@
         <v>40.5</v>
       </c>
       <c r="CG10" s="2">
-        <v>44.4</v>
+        <v>44.43</v>
       </c>
       <c r="CH10" s="2">
-        <v>52.7</v>
+        <v>52.75</v>
       </c>
       <c r="CI10" s="2">
-        <v>87.16</v>
+        <v>87.22</v>
       </c>
       <c r="CJ10" s="2">
-        <v>123.46</v>
+        <v>125.33</v>
+      </c>
+      <c r="CK10" s="2">
+        <v>174.76</v>
       </c>
     </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B11" s="2">
         <v>2.0499999999999998</v>
@@ -8989,7 +9085,7 @@
         <v>61.64</v>
       </c>
       <c r="F11" s="2">
-        <v>57.04</v>
+        <v>57.05</v>
       </c>
       <c r="G11" s="2">
         <v>40.17</v>
@@ -9019,7 +9115,7 @@
         <v>2.31</v>
       </c>
       <c r="P11" s="2">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="Q11" s="2">
         <v>5.0599999999999996</v>
@@ -9076,7 +9172,7 @@
         <v>55.19</v>
       </c>
       <c r="AI11" s="2">
-        <v>98.98</v>
+        <v>98.96</v>
       </c>
       <c r="AJ11" s="2">
         <v>150.56</v>
@@ -9088,10 +9184,10 @@
         <v>169.52</v>
       </c>
       <c r="AM11" s="2">
-        <v>167.11</v>
+        <v>167.13</v>
       </c>
       <c r="AN11" s="2">
-        <v>159.27000000000001</v>
+        <v>159.28</v>
       </c>
       <c r="AO11" s="2">
         <v>162.66999999999999</v>
@@ -9100,7 +9196,7 @@
         <v>204.4</v>
       </c>
       <c r="AQ11" s="2">
-        <v>229.96</v>
+        <v>229.98</v>
       </c>
       <c r="AR11" s="2">
         <v>184.7</v>
@@ -9109,13 +9205,13 @@
         <v>162.30000000000001</v>
       </c>
       <c r="AT11" s="2">
-        <v>186.6</v>
+        <v>186.58</v>
       </c>
       <c r="AU11" s="2">
         <v>151.25</v>
       </c>
       <c r="AV11" s="2">
-        <v>126.08</v>
+        <v>126.05</v>
       </c>
       <c r="AW11" s="2">
         <v>102.89</v>
@@ -9142,10 +9238,10 @@
         <v>116.14</v>
       </c>
       <c r="BE11" s="2">
-        <v>144.18</v>
+        <v>144.13999999999999</v>
       </c>
       <c r="BF11" s="2">
-        <v>140.65</v>
+        <v>140.68</v>
       </c>
       <c r="BG11" s="2">
         <v>153.44</v>
@@ -9154,19 +9250,19 @@
         <v>171.32</v>
       </c>
       <c r="BI11" s="2">
-        <v>179.46</v>
+        <v>179.45</v>
       </c>
       <c r="BJ11" s="2">
-        <v>156.37</v>
+        <v>156.38</v>
       </c>
       <c r="BK11" s="2">
         <v>123.52</v>
       </c>
       <c r="BL11" s="2">
-        <v>84.43</v>
+        <v>84.44</v>
       </c>
       <c r="BM11" s="2">
-        <v>58.19</v>
+        <v>58.18</v>
       </c>
       <c r="BN11" s="2">
         <v>31.66</v>
@@ -9199,7 +9295,7 @@
         <v>12.66</v>
       </c>
       <c r="BX11" s="2">
-        <v>15.01</v>
+        <v>15.03</v>
       </c>
       <c r="BY11" s="2">
         <v>25.33</v>
@@ -9208,13 +9304,13 @@
         <v>39.08</v>
       </c>
       <c r="CA11" s="2">
-        <v>51.39</v>
+        <v>51.41</v>
       </c>
       <c r="CB11" s="2">
-        <v>57.42</v>
+        <v>57.44</v>
       </c>
       <c r="CC11" s="2">
-        <v>56.93</v>
+        <v>56.94</v>
       </c>
       <c r="CD11" s="2">
         <v>51.25</v>
@@ -9223,24 +9319,27 @@
         <v>44.6</v>
       </c>
       <c r="CF11" s="2">
-        <v>50.84</v>
+        <v>50.85</v>
       </c>
       <c r="CG11" s="2">
-        <v>53.43</v>
+        <v>53.46</v>
       </c>
       <c r="CH11" s="2">
-        <v>64.739999999999995</v>
+        <v>64.819999999999993</v>
       </c>
       <c r="CI11" s="2">
-        <v>100.95</v>
+        <v>101.09</v>
       </c>
       <c r="CJ11" s="2">
-        <v>139.83000000000001</v>
+        <v>141.25</v>
+      </c>
+      <c r="CK11" s="2">
+        <v>195.18</v>
       </c>
     </row>
-    <row r="12" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B12" s="2">
         <v>1.97</v>
@@ -9339,7 +9438,7 @@
         <v>40.43</v>
       </c>
       <c r="AH12" s="2">
-        <v>61.98</v>
+        <v>62</v>
       </c>
       <c r="AI12" s="2">
         <v>115.57</v>
@@ -9369,7 +9468,7 @@
         <v>247.13</v>
       </c>
       <c r="AR12" s="2">
-        <v>193.51</v>
+        <v>193.53</v>
       </c>
       <c r="AS12" s="2">
         <v>169.82</v>
@@ -9384,7 +9483,7 @@
         <v>128.88</v>
       </c>
       <c r="AW12" s="2">
-        <v>105.3</v>
+        <v>105.28</v>
       </c>
       <c r="AX12" s="2">
         <v>89.1</v>
@@ -9408,7 +9507,7 @@
         <v>129.38999999999999</v>
       </c>
       <c r="BE12" s="2">
-        <v>162.04</v>
+        <v>162.06</v>
       </c>
       <c r="BF12" s="2">
         <v>158.82</v>
@@ -9417,22 +9516,22 @@
         <v>174.17</v>
       </c>
       <c r="BH12" s="2">
-        <v>201.93</v>
+        <v>201.91</v>
       </c>
       <c r="BI12" s="2">
-        <v>211.86</v>
+        <v>211.84</v>
       </c>
       <c r="BJ12" s="2">
-        <v>179.21</v>
+        <v>179.23</v>
       </c>
       <c r="BK12" s="2">
         <v>147.80000000000001</v>
       </c>
       <c r="BL12" s="2">
-        <v>100.88</v>
+        <v>100.86</v>
       </c>
       <c r="BM12" s="2">
-        <v>71.209999999999994</v>
+        <v>71.23</v>
       </c>
       <c r="BN12" s="2">
         <v>41.26</v>
@@ -9465,16 +9564,16 @@
         <v>18.07</v>
       </c>
       <c r="BX12" s="2">
-        <v>23.37</v>
+        <v>23.39</v>
       </c>
       <c r="BY12" s="2">
         <v>38.74</v>
       </c>
       <c r="BZ12" s="2">
-        <v>61.6</v>
+        <v>61.62</v>
       </c>
       <c r="CA12" s="2">
-        <v>81.569999999999993</v>
+        <v>81.61</v>
       </c>
       <c r="CB12" s="2">
         <v>91.88</v>
@@ -9483,30 +9582,33 @@
         <v>90.15</v>
       </c>
       <c r="CD12" s="2">
-        <v>75.22</v>
+        <v>75.239999999999995</v>
       </c>
       <c r="CE12" s="2">
-        <v>66.239999999999995</v>
+        <v>66.260000000000005</v>
       </c>
       <c r="CF12" s="2">
-        <v>69.5</v>
+        <v>69.540000000000006</v>
       </c>
       <c r="CG12" s="2">
-        <v>75.52</v>
+        <v>75.58</v>
       </c>
       <c r="CH12" s="2">
-        <v>85.78</v>
+        <v>85.92</v>
       </c>
       <c r="CI12" s="2">
-        <v>130.78</v>
+        <v>130.72</v>
       </c>
       <c r="CJ12" s="2">
-        <v>176.91</v>
+        <v>179.12</v>
+      </c>
+      <c r="CK12" s="2">
+        <v>238.49</v>
       </c>
     </row>
-    <row r="13" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B13" s="2">
         <v>1.69</v>
@@ -9536,7 +9638,7 @@
         <v>9.02</v>
       </c>
       <c r="K13" s="2">
-        <v>8</v>
+        <v>8.02</v>
       </c>
       <c r="L13" s="2">
         <v>7.09</v>
@@ -9545,7 +9647,7 @@
         <v>4.79</v>
       </c>
       <c r="N13" s="2">
-        <v>4.21</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="O13" s="2">
         <v>3.48</v>
@@ -9605,22 +9707,22 @@
         <v>37.119999999999997</v>
       </c>
       <c r="AH13" s="2">
-        <v>57.7</v>
+        <v>57.66</v>
       </c>
       <c r="AI13" s="2">
-        <v>105.42</v>
+        <v>105.44</v>
       </c>
       <c r="AJ13" s="2">
-        <v>156.59</v>
+        <v>156.57</v>
       </c>
       <c r="AK13" s="2">
-        <v>176.29</v>
+        <v>176.31</v>
       </c>
       <c r="AL13" s="2">
         <v>178.67</v>
       </c>
       <c r="AM13" s="2">
-        <v>183.6</v>
+        <v>183.62</v>
       </c>
       <c r="AN13" s="2">
         <v>174.94</v>
@@ -9629,25 +9731,25 @@
         <v>175.14</v>
       </c>
       <c r="AP13" s="2">
-        <v>216.57</v>
+        <v>216.61</v>
       </c>
       <c r="AQ13" s="2">
         <v>238.16</v>
       </c>
       <c r="AR13" s="2">
-        <v>188.9</v>
+        <v>188.88</v>
       </c>
       <c r="AS13" s="2">
-        <v>159.49</v>
+        <v>159.47</v>
       </c>
       <c r="AT13" s="2">
         <v>189.66</v>
       </c>
       <c r="AU13" s="2">
-        <v>150.09</v>
+        <v>150.07</v>
       </c>
       <c r="AV13" s="2">
-        <v>123.78</v>
+        <v>123.76</v>
       </c>
       <c r="AW13" s="2">
         <v>101.69</v>
@@ -9674,7 +9776,7 @@
         <v>138.69</v>
       </c>
       <c r="BE13" s="2">
-        <v>180.44</v>
+        <v>180.46</v>
       </c>
       <c r="BF13" s="2">
         <v>165.35</v>
@@ -9722,19 +9824,19 @@
         <v>6.85</v>
       </c>
       <c r="BU13" s="2">
-        <v>10.029999999999999</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="BV13" s="2">
         <v>14.58</v>
       </c>
       <c r="BW13" s="2">
-        <v>19.64</v>
+        <v>19.66</v>
       </c>
       <c r="BX13" s="2">
         <v>28.68</v>
       </c>
       <c r="BY13" s="2">
-        <v>46.73</v>
+        <v>46.75</v>
       </c>
       <c r="BZ13" s="2">
         <v>74.64</v>
@@ -9746,33 +9848,36 @@
         <v>113.09</v>
       </c>
       <c r="CC13" s="2">
-        <v>107.71</v>
+        <v>107.73</v>
       </c>
       <c r="CD13" s="2">
-        <v>88.42</v>
+        <v>88.44</v>
       </c>
       <c r="CE13" s="2">
-        <v>77.540000000000006</v>
+        <v>77.56</v>
       </c>
       <c r="CF13" s="2">
-        <v>83.44</v>
+        <v>83.48</v>
       </c>
       <c r="CG13" s="2">
         <v>87.15</v>
       </c>
       <c r="CH13" s="2">
-        <v>99.76</v>
+        <v>99.84</v>
       </c>
       <c r="CI13" s="2">
-        <v>149.94999999999999</v>
+        <v>150.16999999999999</v>
       </c>
       <c r="CJ13" s="2">
-        <v>206.78</v>
+        <v>209.96</v>
+      </c>
+      <c r="CK13" s="2">
+        <v>272.48</v>
       </c>
     </row>
-    <row r="14" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B14" s="2">
         <v>1.27</v>
@@ -9802,7 +9907,7 @@
         <v>8.7899999999999991</v>
       </c>
       <c r="K14" s="2">
-        <v>8.01</v>
+        <v>7.99</v>
       </c>
       <c r="L14" s="2">
         <v>6.63</v>
@@ -9841,7 +9946,7 @@
         <v>7.24</v>
       </c>
       <c r="X14" s="2">
-        <v>9.73</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="Y14" s="2">
         <v>12.13</v>
@@ -9898,7 +10003,7 @@
         <v>207.79</v>
       </c>
       <c r="AQ14" s="2">
-        <v>231.15</v>
+        <v>231.13</v>
       </c>
       <c r="AR14" s="2">
         <v>179.97</v>
@@ -9910,7 +10015,7 @@
         <v>191.78</v>
       </c>
       <c r="AU14" s="2">
-        <v>151.32</v>
+        <v>151.30000000000001</v>
       </c>
       <c r="AV14" s="2">
         <v>119.89</v>
@@ -9922,13 +10027,13 @@
         <v>84.3</v>
       </c>
       <c r="AY14" s="2">
-        <v>67.91</v>
+        <v>67.930000000000007</v>
       </c>
       <c r="AZ14" s="2">
         <v>70.08</v>
       </c>
       <c r="BA14" s="2">
-        <v>79.040000000000006</v>
+        <v>79.06</v>
       </c>
       <c r="BB14" s="2">
         <v>86.47</v>
@@ -9940,7 +10045,7 @@
         <v>143.41999999999999</v>
       </c>
       <c r="BE14" s="2">
-        <v>178.82</v>
+        <v>178.84</v>
       </c>
       <c r="BF14" s="2">
         <v>169.84</v>
@@ -9949,19 +10054,19 @@
         <v>179.25</v>
       </c>
       <c r="BH14" s="2">
-        <v>212.97</v>
+        <v>212.99</v>
       </c>
       <c r="BI14" s="2">
-        <v>213.18</v>
+        <v>213.2</v>
       </c>
       <c r="BJ14" s="2">
-        <v>189.31</v>
+        <v>189.34</v>
       </c>
       <c r="BK14" s="2">
         <v>150.62</v>
       </c>
       <c r="BL14" s="2">
-        <v>106.28</v>
+        <v>106.24</v>
       </c>
       <c r="BM14" s="2">
         <v>79.78</v>
@@ -9970,7 +10075,7 @@
         <v>45.59</v>
       </c>
       <c r="BO14" s="2">
-        <v>31.98</v>
+        <v>32.020000000000003</v>
       </c>
       <c r="BP14" s="2">
         <v>20.79</v>
@@ -9985,7 +10090,7 @@
         <v>6.41</v>
       </c>
       <c r="BT14" s="2">
-        <v>7.18</v>
+        <v>7.2</v>
       </c>
       <c r="BU14" s="2">
         <v>12.23</v>
@@ -10000,7 +10105,7 @@
         <v>30.11</v>
       </c>
       <c r="BY14" s="2">
-        <v>46.19</v>
+        <v>46.15</v>
       </c>
       <c r="BZ14" s="2">
         <v>71.22</v>
@@ -10009,36 +10114,39 @@
         <v>99.53</v>
       </c>
       <c r="CB14" s="2">
-        <v>113.38</v>
+        <v>113.4</v>
       </c>
       <c r="CC14" s="2">
-        <v>109.58</v>
+        <v>109.6</v>
       </c>
       <c r="CD14" s="2">
-        <v>91.04</v>
+        <v>91.1</v>
       </c>
       <c r="CE14" s="2">
-        <v>80.14</v>
+        <v>80.16</v>
       </c>
       <c r="CF14" s="2">
-        <v>85.81</v>
+        <v>85.83</v>
       </c>
       <c r="CG14" s="2">
-        <v>89.15</v>
+        <v>89.19</v>
       </c>
       <c r="CH14" s="2">
-        <v>100.89</v>
+        <v>100.97</v>
       </c>
       <c r="CI14" s="2">
-        <v>143.83000000000001</v>
+        <v>144.04</v>
       </c>
       <c r="CJ14" s="2">
-        <v>196.36</v>
+        <v>199.29</v>
+      </c>
+      <c r="CK14" s="2">
+        <v>265.02</v>
       </c>
     </row>
-    <row r="15" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B15" s="2">
         <v>1.24</v>
@@ -10140,7 +10248,7 @@
         <v>69.13</v>
       </c>
       <c r="AI15" s="2">
-        <v>120.33</v>
+        <v>120.3</v>
       </c>
       <c r="AJ15" s="2">
         <v>171.54</v>
@@ -10152,10 +10260,10 @@
         <v>187.85</v>
       </c>
       <c r="AM15" s="2">
-        <v>180.7</v>
+        <v>180.72</v>
       </c>
       <c r="AN15" s="2">
-        <v>167.78</v>
+        <v>167.76</v>
       </c>
       <c r="AO15" s="2">
         <v>169.72</v>
@@ -10164,10 +10272,10 @@
         <v>206.47</v>
       </c>
       <c r="AQ15" s="2">
-        <v>233.43</v>
+        <v>233.41</v>
       </c>
       <c r="AR15" s="2">
-        <v>180</v>
+        <v>180.02</v>
       </c>
       <c r="AS15" s="2">
         <v>164.72</v>
@@ -10185,7 +10293,7 @@
         <v>103.22</v>
       </c>
       <c r="AX15" s="2">
-        <v>87.96</v>
+        <v>87.94</v>
       </c>
       <c r="AY15" s="2">
         <v>69.97</v>
@@ -10212,25 +10320,25 @@
         <v>170.41</v>
       </c>
       <c r="BG15" s="2">
-        <v>181.65</v>
+        <v>181.67</v>
       </c>
       <c r="BH15" s="2">
-        <v>215.26</v>
+        <v>215.24</v>
       </c>
       <c r="BI15" s="2">
-        <v>212.43</v>
+        <v>212.4</v>
       </c>
       <c r="BJ15" s="2">
-        <v>187.31</v>
+        <v>187.33</v>
       </c>
       <c r="BK15" s="2">
         <v>148.27000000000001</v>
       </c>
       <c r="BL15" s="2">
-        <v>105.14</v>
+        <v>105.18</v>
       </c>
       <c r="BM15" s="2">
-        <v>81.290000000000006</v>
+        <v>81.31</v>
       </c>
       <c r="BN15" s="2">
         <v>49.18</v>
@@ -10254,7 +10362,7 @@
         <v>10.43</v>
       </c>
       <c r="BU15" s="2">
-        <v>15.57</v>
+        <v>15.59</v>
       </c>
       <c r="BV15" s="2">
         <v>23.42</v>
@@ -10263,48 +10371,51 @@
         <v>27.09</v>
       </c>
       <c r="BX15" s="2">
-        <v>37.21</v>
+        <v>37.229999999999997</v>
       </c>
       <c r="BY15" s="2">
-        <v>54.61</v>
+        <v>54.63</v>
       </c>
       <c r="BZ15" s="2">
-        <v>78.55</v>
+        <v>78.53</v>
       </c>
       <c r="CA15" s="2">
-        <v>107.11</v>
+        <v>107.17</v>
       </c>
       <c r="CB15" s="2">
         <v>117.99</v>
       </c>
       <c r="CC15" s="2">
-        <v>111.54</v>
+        <v>111.56</v>
       </c>
       <c r="CD15" s="2">
-        <v>91.42</v>
+        <v>91.43</v>
       </c>
       <c r="CE15" s="2">
         <v>82.49</v>
       </c>
       <c r="CF15" s="2">
-        <v>85.47</v>
+        <v>85.45</v>
       </c>
       <c r="CG15" s="2">
-        <v>86.06</v>
+        <v>86.04</v>
       </c>
       <c r="CH15" s="2">
-        <v>95.98</v>
+        <v>96.02</v>
       </c>
       <c r="CI15" s="2">
-        <v>143.5</v>
+        <v>143.57</v>
       </c>
       <c r="CJ15" s="2">
-        <v>189.48</v>
+        <v>192.54</v>
+      </c>
+      <c r="CK15" s="2">
+        <v>246.82</v>
       </c>
     </row>
-    <row r="16" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B16" s="2">
         <v>1.55</v>
@@ -10319,13 +10430,13 @@
         <v>54.73</v>
       </c>
       <c r="F16" s="2">
-        <v>50.58</v>
+        <v>50.56</v>
       </c>
       <c r="G16" s="2">
         <v>39.39</v>
       </c>
       <c r="H16" s="2">
-        <v>26.2</v>
+        <v>26.18</v>
       </c>
       <c r="I16" s="2">
         <v>20.27</v>
@@ -10397,22 +10508,22 @@
         <v>29.23</v>
       </c>
       <c r="AF16" s="2">
-        <v>35.56</v>
+        <v>35.54</v>
       </c>
       <c r="AG16" s="2">
-        <v>54.67</v>
+        <v>54.65</v>
       </c>
       <c r="AH16" s="2">
         <v>91.02</v>
       </c>
       <c r="AI16" s="2">
-        <v>149.08000000000001</v>
+        <v>149.06</v>
       </c>
       <c r="AJ16" s="2">
         <v>210.55</v>
       </c>
       <c r="AK16" s="2">
-        <v>226.97</v>
+        <v>226.99</v>
       </c>
       <c r="AL16" s="2">
         <v>217.45</v>
@@ -10424,10 +10535,10 @@
         <v>183.11</v>
       </c>
       <c r="AO16" s="2">
-        <v>186.22</v>
+        <v>186.2</v>
       </c>
       <c r="AP16" s="2">
-        <v>219.42</v>
+        <v>219.4</v>
       </c>
       <c r="AQ16" s="2">
         <v>246.41</v>
@@ -10454,7 +10565,7 @@
         <v>91.31</v>
       </c>
       <c r="AY16" s="2">
-        <v>74.48</v>
+        <v>74.5</v>
       </c>
       <c r="AZ16" s="2">
         <v>79.55</v>
@@ -10475,16 +10586,16 @@
         <v>171.02</v>
       </c>
       <c r="BF16" s="2">
-        <v>170.49</v>
+        <v>170.51</v>
       </c>
       <c r="BG16" s="2">
         <v>187.55</v>
       </c>
       <c r="BH16" s="2">
-        <v>221.88</v>
+        <v>221.9</v>
       </c>
       <c r="BI16" s="2">
-        <v>219.69</v>
+        <v>219.66</v>
       </c>
       <c r="BJ16" s="2">
         <v>187.61</v>
@@ -10493,13 +10604,13 @@
         <v>151.66</v>
       </c>
       <c r="BL16" s="2">
-        <v>105.37</v>
+        <v>105.4</v>
       </c>
       <c r="BM16" s="2">
         <v>80.28</v>
       </c>
       <c r="BN16" s="2">
-        <v>49.99</v>
+        <v>50.01</v>
       </c>
       <c r="BO16" s="2">
         <v>32.53</v>
@@ -10517,10 +10628,10 @@
         <v>10.06</v>
       </c>
       <c r="BT16" s="2">
-        <v>16.059999999999999</v>
+        <v>16.079999999999998</v>
       </c>
       <c r="BU16" s="2">
-        <v>27.03</v>
+        <v>27.07</v>
       </c>
       <c r="BV16" s="2">
         <v>35.29</v>
@@ -10532,22 +10643,22 @@
         <v>48.91</v>
       </c>
       <c r="BY16" s="2">
-        <v>73.11</v>
+        <v>73.13</v>
       </c>
       <c r="BZ16" s="2">
         <v>102.26</v>
       </c>
       <c r="CA16" s="2">
-        <v>128.69999999999999</v>
+        <v>128.72</v>
       </c>
       <c r="CB16" s="2">
-        <v>127.99</v>
+        <v>128.01</v>
       </c>
       <c r="CC16" s="2">
-        <v>123.43</v>
+        <v>123.45</v>
       </c>
       <c r="CD16" s="2">
-        <v>99.63</v>
+        <v>99.66</v>
       </c>
       <c r="CE16" s="2">
         <v>83.74</v>
@@ -10556,21 +10667,24 @@
         <v>86.47</v>
       </c>
       <c r="CG16" s="2">
-        <v>87.24</v>
+        <v>87.34</v>
       </c>
       <c r="CH16" s="2">
-        <v>99.78</v>
+        <v>99.94</v>
       </c>
       <c r="CI16" s="2">
-        <v>146.91999999999999</v>
+        <v>147.04</v>
       </c>
       <c r="CJ16" s="2">
-        <v>187.63</v>
+        <v>190.68</v>
+      </c>
+      <c r="CK16" s="2">
+        <v>241.2</v>
       </c>
     </row>
-    <row r="17" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B17" s="2">
         <v>1.53</v>
@@ -10645,7 +10759,7 @@
         <v>25.36</v>
       </c>
       <c r="Z17" s="2">
-        <v>33.799999999999997</v>
+        <v>33.78</v>
       </c>
       <c r="AA17" s="2">
         <v>29.08</v>
@@ -10675,7 +10789,7 @@
         <v>165.54</v>
       </c>
       <c r="AJ17" s="2">
-        <v>227.77</v>
+        <v>227.72</v>
       </c>
       <c r="AK17" s="2">
         <v>256.62</v>
@@ -10687,7 +10801,7 @@
         <v>223.19</v>
       </c>
       <c r="AN17" s="2">
-        <v>195.62</v>
+        <v>195.58</v>
       </c>
       <c r="AO17" s="2">
         <v>200.83</v>
@@ -10702,13 +10816,13 @@
         <v>198.47</v>
       </c>
       <c r="AS17" s="2">
-        <v>187.88</v>
+        <v>187.9</v>
       </c>
       <c r="AT17" s="2">
         <v>238.22</v>
       </c>
       <c r="AU17" s="2">
-        <v>186.79</v>
+        <v>186.76</v>
       </c>
       <c r="AV17" s="2">
         <v>140.77000000000001</v>
@@ -10732,19 +10846,19 @@
         <v>96.29</v>
       </c>
       <c r="BC17" s="2">
-        <v>118.65</v>
+        <v>118.67</v>
       </c>
       <c r="BD17" s="2">
         <v>151.01</v>
       </c>
       <c r="BE17" s="2">
-        <v>187.09</v>
+        <v>187.11</v>
       </c>
       <c r="BF17" s="2">
         <v>186.09</v>
       </c>
       <c r="BG17" s="2">
-        <v>214.46</v>
+        <v>214.44</v>
       </c>
       <c r="BH17" s="2">
         <v>252.73</v>
@@ -10753,7 +10867,7 @@
         <v>246.54</v>
       </c>
       <c r="BJ17" s="2">
-        <v>210.52</v>
+        <v>210.55</v>
       </c>
       <c r="BK17" s="2">
         <v>171.38</v>
@@ -10783,13 +10897,13 @@
         <v>12.1</v>
       </c>
       <c r="BT17" s="2">
-        <v>19.36</v>
+        <v>19.34</v>
       </c>
       <c r="BU17" s="2">
-        <v>32.93</v>
+        <v>32.909999999999997</v>
       </c>
       <c r="BV17" s="2">
-        <v>45.75</v>
+        <v>45.73</v>
       </c>
       <c r="BW17" s="2">
         <v>50.98</v>
@@ -10801,7 +10915,7 @@
         <v>96.9</v>
       </c>
       <c r="BZ17" s="2">
-        <v>126.68</v>
+        <v>126.7</v>
       </c>
       <c r="CA17" s="2">
         <v>150.72999999999999</v>
@@ -10813,10 +10927,10 @@
         <v>136.18</v>
       </c>
       <c r="CD17" s="2">
-        <v>108.48</v>
+        <v>108.52</v>
       </c>
       <c r="CE17" s="2">
-        <v>90.14</v>
+        <v>90.21</v>
       </c>
       <c r="CF17" s="2">
         <v>89.4</v>
@@ -10825,18 +10939,21 @@
         <v>90.82</v>
       </c>
       <c r="CH17" s="2">
-        <v>108.24</v>
+        <v>108.28</v>
       </c>
       <c r="CI17" s="2">
-        <v>158.01</v>
+        <v>158.21</v>
       </c>
       <c r="CJ17" s="2">
-        <v>201.93</v>
+        <v>204.84</v>
+      </c>
+      <c r="CK17" s="2">
+        <v>256.8</v>
       </c>
     </row>
-    <row r="18" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B18" s="2">
         <v>1.1399999999999999</v>
@@ -10920,7 +11037,7 @@
         <v>19.91</v>
       </c>
       <c r="AC18" s="2">
-        <v>21.47</v>
+        <v>21.49</v>
       </c>
       <c r="AD18" s="2">
         <v>26.97</v>
@@ -10944,7 +11061,7 @@
         <v>186.45</v>
       </c>
       <c r="AK18" s="2">
-        <v>218.03</v>
+        <v>218.06</v>
       </c>
       <c r="AL18" s="2">
         <v>225.97</v>
@@ -10956,13 +11073,13 @@
         <v>193.43</v>
       </c>
       <c r="AO18" s="2">
-        <v>200.01</v>
+        <v>199.99</v>
       </c>
       <c r="AP18" s="2">
-        <v>228.69</v>
+        <v>228.66</v>
       </c>
       <c r="AQ18" s="2">
-        <v>219.69</v>
+        <v>219.72</v>
       </c>
       <c r="AR18" s="2">
         <v>152.41</v>
@@ -11004,19 +11121,19 @@
         <v>143.59</v>
       </c>
       <c r="BE18" s="2">
-        <v>186.35</v>
+        <v>186.32</v>
       </c>
       <c r="BF18" s="2">
         <v>171.36</v>
       </c>
       <c r="BG18" s="2">
-        <v>195.73</v>
+        <v>195.76</v>
       </c>
       <c r="BH18" s="2">
         <v>280.55</v>
       </c>
       <c r="BI18" s="2">
-        <v>268.05</v>
+        <v>268.02</v>
       </c>
       <c r="BJ18" s="2">
         <v>224.49</v>
@@ -11061,7 +11178,7 @@
         <v>47.81</v>
       </c>
       <c r="BX18" s="2">
-        <v>61.45</v>
+        <v>61.48</v>
       </c>
       <c r="BY18" s="2">
         <v>90.9</v>
@@ -11070,39 +11187,42 @@
         <v>144.44999999999999</v>
       </c>
       <c r="CA18" s="2">
-        <v>180.82</v>
+        <v>180.88</v>
       </c>
       <c r="CB18" s="2">
         <v>201.67</v>
       </c>
       <c r="CC18" s="2">
-        <v>177.71</v>
+        <v>177.74</v>
       </c>
       <c r="CD18" s="2">
-        <v>146.38999999999999</v>
+        <v>146.44</v>
       </c>
       <c r="CE18" s="2">
-        <v>119.92</v>
+        <v>120</v>
       </c>
       <c r="CF18" s="2">
-        <v>118.57</v>
+        <v>118.6</v>
       </c>
       <c r="CG18" s="2">
-        <v>117.74</v>
+        <v>117.77</v>
       </c>
       <c r="CH18" s="2">
-        <v>126.53</v>
+        <v>126.66</v>
       </c>
       <c r="CI18" s="2">
-        <v>179.71</v>
+        <v>179.89</v>
       </c>
       <c r="CJ18" s="2">
-        <v>250.75</v>
+        <v>254.33</v>
+      </c>
+      <c r="CK18" s="2">
+        <v>302.14</v>
       </c>
     </row>
-    <row r="19" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2">
         <v>0.51</v>
@@ -11204,13 +11324,13 @@
         <v>44.37</v>
       </c>
       <c r="AI19" s="2">
-        <v>73.69</v>
+        <v>73.72</v>
       </c>
       <c r="AJ19" s="2">
         <v>109.66</v>
       </c>
       <c r="AK19" s="2">
-        <v>128.37</v>
+        <v>128.4</v>
       </c>
       <c r="AL19" s="2">
         <v>143.59</v>
@@ -11234,10 +11354,10 @@
         <v>90.87</v>
       </c>
       <c r="AS19" s="2">
-        <v>71.19</v>
+        <v>71.17</v>
       </c>
       <c r="AT19" s="2">
-        <v>89.39</v>
+        <v>89.42</v>
       </c>
       <c r="AU19" s="2">
         <v>72.88</v>
@@ -11246,7 +11366,7 @@
         <v>59.84</v>
       </c>
       <c r="AW19" s="2">
-        <v>50.47</v>
+        <v>50.5</v>
       </c>
       <c r="AX19" s="2">
         <v>46.33</v>
@@ -11255,7 +11375,7 @@
         <v>37.82</v>
       </c>
       <c r="AZ19" s="2">
-        <v>42.15</v>
+        <v>42.17</v>
       </c>
       <c r="BA19" s="2">
         <v>50.41</v>
@@ -11291,10 +11411,10 @@
         <v>164.4</v>
       </c>
       <c r="BL19" s="2">
-        <v>122.65</v>
+        <v>122.63</v>
       </c>
       <c r="BM19" s="2">
-        <v>101.02</v>
+        <v>100.99</v>
       </c>
       <c r="BN19" s="2">
         <v>58.04</v>
@@ -11303,7 +11423,7 @@
         <v>42.42</v>
       </c>
       <c r="BP19" s="2">
-        <v>35.44</v>
+        <v>35.46</v>
       </c>
       <c r="BQ19" s="2">
         <v>17.8</v>
@@ -11312,7 +11432,7 @@
         <v>12.05</v>
       </c>
       <c r="BS19" s="2">
-        <v>8.35</v>
+        <v>8.4</v>
       </c>
       <c r="BT19" s="2">
         <v>7.97</v>
@@ -11324,19 +11444,19 @@
         <v>21.02</v>
       </c>
       <c r="BW19" s="2">
-        <v>26.79</v>
+        <v>26.82</v>
       </c>
       <c r="BX19" s="2">
         <v>40</v>
       </c>
       <c r="BY19" s="2">
-        <v>69.98</v>
+        <v>70.040000000000006</v>
       </c>
       <c r="BZ19" s="2">
-        <v>144.08000000000001</v>
+        <v>144.05000000000001</v>
       </c>
       <c r="CA19" s="2">
-        <v>185.9</v>
+        <v>185.87</v>
       </c>
       <c r="CB19" s="2">
         <v>225.87</v>
@@ -11345,30 +11465,33 @@
         <v>207.75</v>
       </c>
       <c r="CD19" s="2">
-        <v>196.21</v>
+        <v>196.26</v>
       </c>
       <c r="CE19" s="2">
-        <v>168.67</v>
+        <v>168.77</v>
       </c>
       <c r="CF19" s="2">
-        <v>178.57</v>
+        <v>178.68</v>
       </c>
       <c r="CG19" s="2">
-        <v>174.3</v>
+        <v>174.44</v>
       </c>
       <c r="CH19" s="2">
-        <v>183.24</v>
+        <v>183.4</v>
       </c>
       <c r="CI19" s="2">
-        <v>238.73</v>
+        <v>239.35</v>
       </c>
       <c r="CJ19" s="2">
-        <v>353.9</v>
+        <v>358.78</v>
+      </c>
+      <c r="CK19" s="2">
+        <v>411</v>
       </c>
     </row>
-    <row r="20" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B20" s="2">
         <v>0.26</v>
@@ -11479,31 +11602,31 @@
         <v>88.91</v>
       </c>
       <c r="AL20" s="2">
-        <v>95.49</v>
+        <v>95.52</v>
       </c>
       <c r="AM20" s="2">
-        <v>103.55</v>
+        <v>103.58</v>
       </c>
       <c r="AN20" s="2">
         <v>100.96</v>
       </c>
       <c r="AO20" s="2">
-        <v>97.24</v>
+        <v>97.29</v>
       </c>
       <c r="AP20" s="2">
         <v>112.57</v>
       </c>
       <c r="AQ20" s="2">
-        <v>113.78</v>
+        <v>113.81</v>
       </c>
       <c r="AR20" s="2">
         <v>79.87</v>
       </c>
       <c r="AS20" s="2">
-        <v>51.33</v>
+        <v>51.3</v>
       </c>
       <c r="AT20" s="2">
-        <v>63.25</v>
+        <v>63.22</v>
       </c>
       <c r="AU20" s="2">
         <v>57.96</v>
@@ -11527,7 +11650,7 @@
         <v>52.97</v>
       </c>
       <c r="BB20" s="2">
-        <v>72.05</v>
+        <v>72.069999999999993</v>
       </c>
       <c r="BC20" s="2">
         <v>97.24</v>
@@ -11536,7 +11659,7 @@
         <v>125.86</v>
       </c>
       <c r="BE20" s="2">
-        <v>177.03</v>
+        <v>177.06</v>
       </c>
       <c r="BF20" s="2">
         <v>137.22</v>
@@ -11545,16 +11668,16 @@
         <v>124.19</v>
       </c>
       <c r="BH20" s="2">
-        <v>184.9</v>
+        <v>184.93</v>
       </c>
       <c r="BI20" s="2">
         <v>222.54</v>
       </c>
       <c r="BJ20" s="2">
-        <v>181.65</v>
+        <v>181.6</v>
       </c>
       <c r="BK20" s="2">
-        <v>147.13999999999999</v>
+        <v>147.19</v>
       </c>
       <c r="BL20" s="2">
         <v>108.81</v>
@@ -11584,7 +11707,7 @@
         <v>5.5</v>
       </c>
       <c r="BU20" s="2">
-        <v>8.56</v>
+        <v>8.59</v>
       </c>
       <c r="BV20" s="2">
         <v>12.66</v>
@@ -11602,7 +11725,7 @@
         <v>98.29</v>
       </c>
       <c r="CA20" s="2">
-        <v>147.74</v>
+        <v>147.80000000000001</v>
       </c>
       <c r="CB20" s="2">
         <v>185.14</v>
@@ -11617,24 +11740,27 @@
         <v>139.66</v>
       </c>
       <c r="CF20" s="2">
-        <v>141.35</v>
+        <v>141.43</v>
       </c>
       <c r="CG20" s="2">
-        <v>134.19</v>
+        <v>134.21</v>
       </c>
       <c r="CH20" s="2">
-        <v>134.16</v>
+        <v>134.37</v>
       </c>
       <c r="CI20" s="2">
-        <v>194.18</v>
+        <v>194.53</v>
       </c>
       <c r="CJ20" s="2">
-        <v>288.45999999999998</v>
+        <v>291.83999999999997</v>
+      </c>
+      <c r="CK20" s="2">
+        <v>345.15</v>
       </c>
     </row>
-    <row r="21" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B21" s="2">
         <v>0.23</v>
@@ -11652,7 +11778,7 @@
         <v>6.8</v>
       </c>
       <c r="G21" s="2">
-        <v>5.97</v>
+        <v>6</v>
       </c>
       <c r="H21" s="2">
         <v>3.98</v>
@@ -11706,7 +11832,7 @@
         <v>4.74</v>
       </c>
       <c r="Y21" s="2">
-        <v>6.95</v>
+        <v>6.93</v>
       </c>
       <c r="Z21" s="2">
         <v>7.16</v>
@@ -11736,7 +11862,7 @@
         <v>22.42</v>
       </c>
       <c r="AI21" s="2">
-        <v>36.71</v>
+        <v>36.68</v>
       </c>
       <c r="AJ21" s="2">
         <v>56.11</v>
@@ -11748,13 +11874,13 @@
         <v>60.74</v>
       </c>
       <c r="AM21" s="2">
-        <v>59.96</v>
+        <v>59.99</v>
       </c>
       <c r="AN21" s="2">
         <v>58.35</v>
       </c>
       <c r="AO21" s="2">
-        <v>57.95</v>
+        <v>57.97</v>
       </c>
       <c r="AP21" s="2">
         <v>66.94</v>
@@ -11766,7 +11892,7 @@
         <v>53.06</v>
       </c>
       <c r="AS21" s="2">
-        <v>38.4</v>
+        <v>38.369999999999997</v>
       </c>
       <c r="AT21" s="2">
         <v>47.87</v>
@@ -11787,7 +11913,7 @@
         <v>33.909999999999997</v>
       </c>
       <c r="AZ21" s="2">
-        <v>34.64</v>
+        <v>34.67</v>
       </c>
       <c r="BA21" s="2">
         <v>47.49</v>
@@ -11832,7 +11958,7 @@
         <v>35.5</v>
       </c>
       <c r="BO21" s="2">
-        <v>25.75</v>
+        <v>25.77</v>
       </c>
       <c r="BP21" s="2">
         <v>15.47</v>
@@ -11862,10 +11988,10 @@
         <v>19.05</v>
       </c>
       <c r="BY21" s="2">
-        <v>31.09</v>
+        <v>31.12</v>
       </c>
       <c r="BZ21" s="2">
-        <v>47.04</v>
+        <v>47.01</v>
       </c>
       <c r="CA21" s="2">
         <v>74.45</v>
@@ -11880,25 +12006,29 @@
         <v>71.45</v>
       </c>
       <c r="CE21" s="2">
-        <v>58.7</v>
+        <v>58.73</v>
       </c>
       <c r="CF21" s="2">
-        <v>55.48</v>
+        <v>55.45</v>
       </c>
       <c r="CG21" s="2">
-        <v>46.56</v>
+        <v>46.53</v>
       </c>
       <c r="CH21" s="2">
-        <v>50.59</v>
+        <v>50.67</v>
       </c>
       <c r="CI21" s="2">
-        <v>67.7</v>
+        <v>67.819999999999993</v>
       </c>
       <c r="CJ21" s="2">
-        <v>88.81</v>
+        <v>89.47</v>
+      </c>
+      <c r="CK21" s="2">
+        <v>109.77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>